--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-18.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H716"/>
+  <dimension ref="A1:H691"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14305,10 +14305,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H413" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="414">
@@ -14339,10 +14337,8 @@
           <t>4.9%</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H414" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="415">
@@ -14377,10 +14373,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H415" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="416">
@@ -14415,10 +14409,8 @@
           <t>-1.4%</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H416" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="417">
@@ -14449,10 +14441,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H417" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="418">
@@ -14483,10 +14473,8 @@
           <t>-2.5%</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H418" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="419">
@@ -14521,10 +14509,8 @@
           <t>6.8%</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H419" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="420">
@@ -14559,10 +14545,8 @@
           <t>11.0K</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H420" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="421">
@@ -14593,10 +14577,8 @@
           <t>10K</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H421" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="422">
@@ -14627,10 +14609,8 @@
           <t>1K</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H422" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="423">
@@ -14661,10 +14641,8 @@
           <t>65%</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H423" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="424">
@@ -14695,10 +14673,8 @@
           <t>3.9%</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H424" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="425">
@@ -14733,10 +14709,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H425" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="426">
@@ -14771,10 +14745,8 @@
           <t>200K</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H426" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="427">
@@ -14809,10 +14781,8 @@
           <t>4.30%</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H427" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="428">
@@ -14847,10 +14817,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H428" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="429">
@@ -14885,10 +14853,8 @@
           <t>4%</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H429" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="430">
@@ -14919,10 +14885,8 @@
           <t>62.8%</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H430" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="431">
@@ -14957,10 +14921,8 @@
           <t>34.3</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H431" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="432">
@@ -14991,10 +14953,8 @@
           <t>15K</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H432" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="433">
@@ -15029,10 +14989,8 @@
           <t>29K</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H433" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="434">
@@ -15067,10 +15025,8 @@
           <t>185K</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H434" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="435">
@@ -15101,10 +15057,8 @@
           <t>7.9%</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H435" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="436">
@@ -15135,10 +15089,8 @@
           <t>€22.5B</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H436" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="437">
@@ -15173,10 +15125,8 @@
           <t>75</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H437" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="438">
@@ -15207,10 +15157,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H438" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="439">
@@ -15241,10 +15189,8 @@
           <t>74</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H439" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="440">
@@ -15275,10 +15221,8 @@
           <t>78</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H440" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="441">
@@ -15309,10 +15253,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H441" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="442">
@@ -15335,10 +15277,8 @@
       <c r="E442" t="inlineStr"/>
       <c r="F442" t="inlineStr"/>
       <c r="G442" t="inlineStr"/>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H442" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="443">
@@ -15365,10 +15305,8 @@
       </c>
       <c r="F443" t="inlineStr"/>
       <c r="G443" t="inlineStr"/>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H443" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="444">
@@ -15395,10 +15333,8 @@
       </c>
       <c r="F444" t="inlineStr"/>
       <c r="G444" t="inlineStr"/>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H444" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="445">
@@ -15421,10 +15357,8 @@
       </c>
       <c r="F445" t="inlineStr"/>
       <c r="G445" t="inlineStr"/>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H445" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="446">
@@ -15451,10 +15385,8 @@
           <t>4.7%</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H446" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="447">
@@ -15481,10 +15413,8 @@
           <t>CNY690.0B</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H447" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="448">
@@ -15511,10 +15441,8 @@
         </is>
       </c>
       <c r="G448" t="inlineStr"/>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H448" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="449">
@@ -15541,10 +15469,8 @@
           <t>7.5%</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H449" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="450">
@@ -15571,10 +15497,8 @@
           <t>CNY1850.0B</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H450" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="451">
@@ -15623,10 +15547,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H452" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="453">
@@ -15661,10 +15583,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H453" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="454">
@@ -15699,10 +15619,8 @@
           <t>-2.4%</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H454" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="455">
@@ -15733,10 +15651,8 @@
           <t>$ 85B</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H455" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="456">
@@ -15763,10 +15679,8 @@
       </c>
       <c r="F456" t="inlineStr"/>
       <c r="G456" t="inlineStr"/>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H456" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="457">
@@ -15793,10 +15707,8 @@
       </c>
       <c r="F457" t="inlineStr"/>
       <c r="G457" t="inlineStr"/>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H457" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="458">
@@ -15841,10 +15753,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H459" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="460">
@@ -15875,10 +15785,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H460" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="461">
@@ -15905,10 +15813,8 @@
       </c>
       <c r="F461" t="inlineStr"/>
       <c r="G461" t="inlineStr"/>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H461" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="462">
@@ -15935,10 +15841,8 @@
       </c>
       <c r="F462" t="inlineStr"/>
       <c r="G462" t="inlineStr"/>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H462" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="463">
@@ -15965,10 +15869,8 @@
       </c>
       <c r="F463" t="inlineStr"/>
       <c r="G463" t="inlineStr"/>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H463" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="464">
@@ -15991,10 +15893,8 @@
       <c r="E464" t="inlineStr"/>
       <c r="F464" t="inlineStr"/>
       <c r="G464" t="inlineStr"/>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H464" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="465">
@@ -16025,10 +15925,8 @@
           <t>6.0%</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H465" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="466">
@@ -16059,10 +15957,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H466" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="467">
@@ -16085,10 +15981,8 @@
       <c r="E467" t="inlineStr"/>
       <c r="F467" t="inlineStr"/>
       <c r="G467" t="inlineStr"/>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H467" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="468">
@@ -16111,10 +16005,8 @@
       <c r="E468" t="inlineStr"/>
       <c r="F468" t="inlineStr"/>
       <c r="G468" t="inlineStr"/>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H468" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="469">
@@ -16137,10 +16029,8 @@
       <c r="E469" t="inlineStr"/>
       <c r="F469" t="inlineStr"/>
       <c r="G469" t="inlineStr"/>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H469" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="470">
@@ -16171,10 +16061,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H470" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="471">
@@ -16201,10 +16089,8 @@
       </c>
       <c r="F471" t="inlineStr"/>
       <c r="G471" t="inlineStr"/>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H471" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="472">
@@ -16231,10 +16117,8 @@
       </c>
       <c r="F472" t="inlineStr"/>
       <c r="G472" t="inlineStr"/>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H472" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="473">
@@ -16261,10 +16145,8 @@
       </c>
       <c r="F473" t="inlineStr"/>
       <c r="G473" t="inlineStr"/>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H473" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="474">
@@ -16291,10 +16173,8 @@
       </c>
       <c r="F474" t="inlineStr"/>
       <c r="G474" t="inlineStr"/>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H474" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="475">
@@ -16321,10 +16201,8 @@
       </c>
       <c r="F475" t="inlineStr"/>
       <c r="G475" t="inlineStr"/>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H475" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="476">
@@ -16347,10 +16225,8 @@
       </c>
       <c r="F476" t="inlineStr"/>
       <c r="G476" t="inlineStr"/>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H476" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="477">
@@ -16373,10 +16249,8 @@
       </c>
       <c r="F477" t="inlineStr"/>
       <c r="G477" t="inlineStr"/>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H477" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="478">
@@ -16399,10 +16273,8 @@
       </c>
       <c r="F478" t="inlineStr"/>
       <c r="G478" t="inlineStr"/>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H478" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="479">
@@ -16429,10 +16301,8 @@
           <t>6.4%</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H479" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="480">
@@ -16455,10 +16325,8 @@
       </c>
       <c r="F480" t="inlineStr"/>
       <c r="G480" t="inlineStr"/>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H480" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="481">
@@ -16477,10 +16345,8 @@
       <c r="E481" t="inlineStr"/>
       <c r="F481" t="inlineStr"/>
       <c r="G481" t="inlineStr"/>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H481" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="482">
@@ -16521,10 +16387,8 @@
       </c>
       <c r="F483" t="inlineStr"/>
       <c r="G483" t="inlineStr"/>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H483" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="484">
@@ -16551,10 +16415,8 @@
       </c>
       <c r="F484" t="inlineStr"/>
       <c r="G484" t="inlineStr"/>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H484" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="485">
@@ -16581,10 +16443,8 @@
       </c>
       <c r="F485" t="inlineStr"/>
       <c r="G485" t="inlineStr"/>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H485" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="486">
@@ -16615,10 +16475,8 @@
           <t>¥1990.0B</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H486" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="487">
@@ -16649,10 +16507,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H487" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="488">
@@ -16679,10 +16535,8 @@
       </c>
       <c r="F488" t="inlineStr"/>
       <c r="G488" t="inlineStr"/>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H488" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="489">
@@ -16709,10 +16563,8 @@
       </c>
       <c r="F489" t="inlineStr"/>
       <c r="G489" t="inlineStr"/>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H489" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="490">
@@ -16739,10 +16591,8 @@
       </c>
       <c r="F490" t="inlineStr"/>
       <c r="G490" t="inlineStr"/>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H490" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="491">
@@ -16773,10 +16623,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H491" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="492">
@@ -16807,10 +16655,8 @@
           <t>49.6</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H492" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="493">
@@ -16837,10 +16683,8 @@
       </c>
       <c r="F493" t="inlineStr"/>
       <c r="G493" t="inlineStr"/>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H493" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="494">
@@ -16867,10 +16711,8 @@
       </c>
       <c r="F494" t="inlineStr"/>
       <c r="G494" t="inlineStr"/>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H494" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="495">
@@ -16901,10 +16743,8 @@
           <t>10.2%</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H495" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="496">
@@ -16935,10 +16775,8 @@
           <t>-3.2%</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H496" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="497">
@@ -16969,10 +16807,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H497" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="498">
@@ -16999,10 +16835,8 @@
       </c>
       <c r="F498" t="inlineStr"/>
       <c r="G498" t="inlineStr"/>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H498" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="499">
@@ -17029,10 +16863,8 @@
       </c>
       <c r="F499" t="inlineStr"/>
       <c r="G499" t="inlineStr"/>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H499" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="500">
@@ -17059,10 +16891,8 @@
       </c>
       <c r="F500" t="inlineStr"/>
       <c r="G500" t="inlineStr"/>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H500" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="501">
@@ -17085,10 +16915,8 @@
       <c r="E501" t="inlineStr"/>
       <c r="F501" t="inlineStr"/>
       <c r="G501" t="inlineStr"/>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H501" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="502">
@@ -17111,10 +16939,8 @@
       <c r="E502" t="inlineStr"/>
       <c r="F502" t="inlineStr"/>
       <c r="G502" t="inlineStr"/>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H502" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="503">
@@ -17141,10 +16967,8 @@
       </c>
       <c r="F503" t="inlineStr"/>
       <c r="G503" t="inlineStr"/>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H503" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="504">
@@ -17171,10 +16995,8 @@
       </c>
       <c r="F504" t="inlineStr"/>
       <c r="G504" t="inlineStr"/>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H504" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="505">
@@ -17205,10 +17027,8 @@
           <t>102</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H505" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="506">
@@ -17239,10 +17059,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H506" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="507">
@@ -17269,10 +17087,8 @@
       </c>
       <c r="F507" t="inlineStr"/>
       <c r="G507" t="inlineStr"/>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H507" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="508">
@@ -17303,10 +17119,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H508" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="509">
@@ -17337,10 +17151,8 @@
           <t>146.4</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H509" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="510">
@@ -17367,10 +17179,8 @@
       </c>
       <c r="F510" t="inlineStr"/>
       <c r="G510" t="inlineStr"/>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H510" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="511">
@@ -17397,10 +17207,8 @@
       </c>
       <c r="F511" t="inlineStr"/>
       <c r="G511" t="inlineStr"/>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H511" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="512">
@@ -17431,10 +17239,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H512" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="513">
@@ -17461,10 +17267,8 @@
       </c>
       <c r="F513" t="inlineStr"/>
       <c r="G513" t="inlineStr"/>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H513" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="514">
@@ -17491,10 +17295,8 @@
       </c>
       <c r="F514" t="inlineStr"/>
       <c r="G514" t="inlineStr"/>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H514" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="515">
@@ -17517,10 +17319,8 @@
       </c>
       <c r="F515" t="inlineStr"/>
       <c r="G515" t="inlineStr"/>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H515" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="516">
@@ -17565,10 +17365,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H517" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="518">
@@ -17599,10 +17397,8 @@
           <t>116.0%</t>
         </is>
       </c>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H518" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="519">
@@ -17633,10 +17429,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H519" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="520">
@@ -17667,10 +17461,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H520" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="521">
@@ -17693,10 +17485,8 @@
       <c r="E521" t="inlineStr"/>
       <c r="F521" t="inlineStr"/>
       <c r="G521" t="inlineStr"/>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H521" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="522">
@@ -17727,10 +17517,8 @@
           <t>$ 2.8B</t>
         </is>
       </c>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H522" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="523">
@@ -17757,10 +17545,8 @@
       </c>
       <c r="F523" t="inlineStr"/>
       <c r="G523" t="inlineStr"/>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H523" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="524">
@@ -17787,10 +17573,8 @@
       </c>
       <c r="F524" t="inlineStr"/>
       <c r="G524" t="inlineStr"/>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H524" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="525">
@@ -17817,10 +17601,8 @@
       </c>
       <c r="F525" t="inlineStr"/>
       <c r="G525" t="inlineStr"/>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H525" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="526">
@@ -17851,10 +17633,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H526" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="527">
@@ -17885,10 +17665,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H527" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="528">
@@ -17919,10 +17697,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H528" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="529">
@@ -17953,10 +17729,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H529" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="530">
@@ -17987,10 +17761,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H530" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="531">
@@ -18021,10 +17793,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H531" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="532">
@@ -18055,10 +17825,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H532" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="533">
@@ -18089,10 +17857,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H533" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="534">
@@ -18123,10 +17889,8 @@
           <t>2.1%</t>
         </is>
       </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H534" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="535">
@@ -18157,10 +17921,8 @@
           <t>-1.3%</t>
         </is>
       </c>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H535" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="536">
@@ -18191,10 +17953,8 @@
           <t>-1%</t>
         </is>
       </c>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H536" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="537">
@@ -18225,10 +17985,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H537" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="538">
@@ -18259,10 +18017,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H538" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="539">
@@ -18289,10 +18045,8 @@
       </c>
       <c r="F539" t="inlineStr"/>
       <c r="G539" t="inlineStr"/>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H539" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="540">
@@ -18323,10 +18077,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H540" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="541">
@@ -18357,10 +18109,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H541" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="542">
@@ -18391,10 +18141,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H542" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="543">
@@ -18425,10 +18173,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H543" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="544">
@@ -18459,10 +18205,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H544" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="545">
@@ -18489,10 +18233,8 @@
       </c>
       <c r="F545" t="inlineStr"/>
       <c r="G545" t="inlineStr"/>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H545" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="546">
@@ -18527,10 +18269,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H546" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="547">
@@ -18565,10 +18305,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H547" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="548">
@@ -18603,10 +18341,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H548" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="549">
@@ -18637,10 +18373,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H549" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="550">
@@ -18671,10 +18405,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H550" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="551">
@@ -18701,10 +18433,8 @@
       </c>
       <c r="F551" t="inlineStr"/>
       <c r="G551" t="inlineStr"/>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H551" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="552">
@@ -18731,10 +18461,8 @@
       </c>
       <c r="F552" t="inlineStr"/>
       <c r="G552" t="inlineStr"/>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H552" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="553">
@@ -18761,10 +18489,8 @@
       </c>
       <c r="F553" t="inlineStr"/>
       <c r="G553" t="inlineStr"/>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H553" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="554">
@@ -18791,10 +18517,8 @@
       </c>
       <c r="F554" t="inlineStr"/>
       <c r="G554" t="inlineStr"/>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H554" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="555">
@@ -18821,10 +18545,8 @@
       </c>
       <c r="F555" t="inlineStr"/>
       <c r="G555" t="inlineStr"/>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H555" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="556">
@@ -18851,10 +18573,8 @@
       </c>
       <c r="F556" t="inlineStr"/>
       <c r="G556" t="inlineStr"/>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H556" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="557">
@@ -18877,10 +18597,8 @@
       <c r="E557" t="inlineStr"/>
       <c r="F557" t="inlineStr"/>
       <c r="G557" t="inlineStr"/>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H557" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="558">
@@ -18903,10 +18621,8 @@
       <c r="E558" t="inlineStr"/>
       <c r="F558" t="inlineStr"/>
       <c r="G558" t="inlineStr"/>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H558" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="559">
@@ -18929,10 +18645,8 @@
       <c r="E559" t="inlineStr"/>
       <c r="F559" t="inlineStr"/>
       <c r="G559" t="inlineStr"/>
-      <c r="H559" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H559" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="560">
@@ -18955,10 +18669,8 @@
       <c r="E560" t="inlineStr"/>
       <c r="F560" t="inlineStr"/>
       <c r="G560" t="inlineStr"/>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H560" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="561">
@@ -18981,10 +18693,8 @@
       <c r="E561" t="inlineStr"/>
       <c r="F561" t="inlineStr"/>
       <c r="G561" t="inlineStr"/>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H561" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="562">
@@ -19015,10 +18725,8 @@
           <t>$628.0B</t>
         </is>
       </c>
-      <c r="H562" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H562" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="563">
@@ -19053,10 +18761,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H563" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H563" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="564">
@@ -19083,10 +18789,8 @@
       </c>
       <c r="F564" t="inlineStr"/>
       <c r="G564" t="inlineStr"/>
-      <c r="H564" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H564" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="565">
@@ -19121,10 +18825,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H565" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H565" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="566">
@@ -19155,10 +18857,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H566" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H566" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="567">
@@ -19189,10 +18889,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H567" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H567" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="568">
@@ -19223,10 +18921,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H568" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="569">
@@ -19257,10 +18953,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H569" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H569" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="570">
@@ -19291,10 +18985,8 @@
           <t>313.8</t>
         </is>
       </c>
-      <c r="H570" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H570" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="571">
@@ -19325,10 +19017,8 @@
           <t>317.4</t>
         </is>
       </c>
-      <c r="H571" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H571" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="572">
@@ -19355,10 +19045,8 @@
       </c>
       <c r="F572" t="inlineStr"/>
       <c r="G572" t="inlineStr"/>
-      <c r="H572" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H572" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="573">
@@ -19381,10 +19069,8 @@
       <c r="E573" t="inlineStr"/>
       <c r="F573" t="inlineStr"/>
       <c r="G573" t="inlineStr"/>
-      <c r="H573" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H573" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="574">
@@ -19407,10 +19093,8 @@
       <c r="E574" t="inlineStr"/>
       <c r="F574" t="inlineStr"/>
       <c r="G574" t="inlineStr"/>
-      <c r="H574" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H574" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="575">
@@ -19433,10 +19117,8 @@
       <c r="E575" t="inlineStr"/>
       <c r="F575" t="inlineStr"/>
       <c r="G575" t="inlineStr"/>
-      <c r="H575" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H575" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="576">
@@ -19459,10 +19141,8 @@
       <c r="E576" t="inlineStr"/>
       <c r="F576" t="inlineStr"/>
       <c r="G576" t="inlineStr"/>
-      <c r="H576" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H576" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="577">
@@ -19485,10 +19165,8 @@
       <c r="E577" t="inlineStr"/>
       <c r="F577" t="inlineStr"/>
       <c r="G577" t="inlineStr"/>
-      <c r="H577" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H577" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="578">
@@ -19511,10 +19189,8 @@
       <c r="E578" t="inlineStr"/>
       <c r="F578" t="inlineStr"/>
       <c r="G578" t="inlineStr"/>
-      <c r="H578" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H578" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="579">
@@ -19537,10 +19213,8 @@
       <c r="E579" t="inlineStr"/>
       <c r="F579" t="inlineStr"/>
       <c r="G579" t="inlineStr"/>
-      <c r="H579" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H579" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="580">
@@ -19563,10 +19237,8 @@
       <c r="E580" t="inlineStr"/>
       <c r="F580" t="inlineStr"/>
       <c r="G580" t="inlineStr"/>
-      <c r="H580" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H580" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="581">
@@ -19589,10 +19261,8 @@
       <c r="E581" t="inlineStr"/>
       <c r="F581" t="inlineStr"/>
       <c r="G581" t="inlineStr"/>
-      <c r="H581" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H581" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="582">
@@ -19623,10 +19293,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H582" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H582" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="583">
@@ -19657,10 +19325,8 @@
           <t>9.5%</t>
         </is>
       </c>
-      <c r="H583" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H583" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="584">
@@ -19683,10 +19349,8 @@
       <c r="E584" t="inlineStr"/>
       <c r="F584" t="inlineStr"/>
       <c r="G584" t="inlineStr"/>
-      <c r="H584" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H584" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="585">
@@ -19717,10 +19381,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H585" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H585" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="586">
@@ -19747,10 +19409,8 @@
       </c>
       <c r="F586" t="inlineStr"/>
       <c r="G586" t="inlineStr"/>
-      <c r="H586" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H586" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="587">
@@ -19773,10 +19433,8 @@
       </c>
       <c r="F587" t="inlineStr"/>
       <c r="G587" t="inlineStr"/>
-      <c r="H587" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H587" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="588">
@@ -19803,10 +19461,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H588" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H588" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="589">
@@ -19833,10 +19489,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H589" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H589" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="590">
@@ -19863,10 +19517,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H590" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H590" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="591">
@@ -19885,10 +19537,8 @@
       <c r="E591" t="inlineStr"/>
       <c r="F591" t="inlineStr"/>
       <c r="G591" t="inlineStr"/>
-      <c r="H591" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H591" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="592">
@@ -19907,10 +19557,8 @@
       <c r="E592" t="inlineStr"/>
       <c r="F592" t="inlineStr"/>
       <c r="G592" t="inlineStr"/>
-      <c r="H592" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H592" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="593">
@@ -19937,10 +19585,8 @@
           <t>$ -23B</t>
         </is>
       </c>
-      <c r="H593" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H593" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="594">
@@ -19967,10 +19613,8 @@
           <t>$ 36B</t>
         </is>
       </c>
-      <c r="H594" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H594" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="595">
@@ -19997,10 +19641,8 @@
           <t>$ 59B</t>
         </is>
       </c>
-      <c r="H595" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H595" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="596">
@@ -20045,10 +19687,8 @@
           <t>3.30%</t>
         </is>
       </c>
-      <c r="H597" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H597" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="598">
@@ -20075,10 +19715,8 @@
       </c>
       <c r="F598" t="inlineStr"/>
       <c r="G598" t="inlineStr"/>
-      <c r="H598" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H598" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="599">
@@ -20109,10 +19747,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H599" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H599" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="600">
@@ -20143,10 +19779,8 @@
           <t>17.0%</t>
         </is>
       </c>
-      <c r="H600" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H600" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="601">
@@ -20177,10 +19811,8 @@
           <t>4.30%</t>
         </is>
       </c>
-      <c r="H601" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H601" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="602">
@@ -20211,10 +19843,8 @@
           <t>25.1K</t>
         </is>
       </c>
-      <c r="H602" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H602" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="603">
@@ -20241,10 +19871,8 @@
       </c>
       <c r="F603" t="inlineStr"/>
       <c r="G603" t="inlineStr"/>
-      <c r="H603" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H603" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="604">
@@ -20271,10 +19899,8 @@
       </c>
       <c r="F604" t="inlineStr"/>
       <c r="G604" t="inlineStr"/>
-      <c r="H604" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H604" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="605">
@@ -20305,10 +19931,8 @@
           <t>66.8%</t>
         </is>
       </c>
-      <c r="H605" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H605" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="606">
@@ -20335,10 +19959,8 @@
       </c>
       <c r="F606" t="inlineStr"/>
       <c r="G606" t="inlineStr"/>
-      <c r="H606" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H606" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="607">
@@ -20365,10 +19987,8 @@
       </c>
       <c r="F607" t="inlineStr"/>
       <c r="G607" t="inlineStr"/>
-      <c r="H607" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H607" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="608">
@@ -20395,10 +20015,8 @@
       </c>
       <c r="F608" t="inlineStr"/>
       <c r="G608" t="inlineStr"/>
-      <c r="H608" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H608" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="609">
@@ -20425,10 +20043,8 @@
       </c>
       <c r="F609" t="inlineStr"/>
       <c r="G609" t="inlineStr"/>
-      <c r="H609" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H609" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="610">
@@ -20463,10 +20079,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H610" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H610" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="611">
@@ -20497,10 +20111,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H611" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H611" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="612">
@@ -20535,10 +20147,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H612" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H612" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="613">
@@ -20573,10 +20183,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H613" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H613" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="614">
@@ -20607,10 +20215,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H614" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H614" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="615">
@@ -20641,10 +20247,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H615" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H615" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="616">
@@ -20675,10 +20279,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H616" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H616" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="617">
@@ -20705,10 +20307,8 @@
       </c>
       <c r="F617" t="inlineStr"/>
       <c r="G617" t="inlineStr"/>
-      <c r="H617" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H617" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="618">
@@ -20735,10 +20335,8 @@
       </c>
       <c r="F618" t="inlineStr"/>
       <c r="G618" t="inlineStr"/>
-      <c r="H618" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H618" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="619">
@@ -20765,10 +20363,8 @@
       </c>
       <c r="F619" t="inlineStr"/>
       <c r="G619" t="inlineStr"/>
-      <c r="H619" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H619" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="620">
@@ -20795,10 +20391,8 @@
       </c>
       <c r="F620" t="inlineStr"/>
       <c r="G620" t="inlineStr"/>
-      <c r="H620" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H620" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="621">
@@ -20825,10 +20419,8 @@
       </c>
       <c r="F621" t="inlineStr"/>
       <c r="G621" t="inlineStr"/>
-      <c r="H621" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H621" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="622">
@@ -20859,10 +20451,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H622" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H622" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="623">
@@ -20889,10 +20479,8 @@
       </c>
       <c r="F623" t="inlineStr"/>
       <c r="G623" t="inlineStr"/>
-      <c r="H623" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H623" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="624">
@@ -20919,10 +20507,8 @@
       </c>
       <c r="F624" t="inlineStr"/>
       <c r="G624" t="inlineStr"/>
-      <c r="H624" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H624" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="625">
@@ -20949,10 +20535,8 @@
       </c>
       <c r="F625" t="inlineStr"/>
       <c r="G625" t="inlineStr"/>
-      <c r="H625" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H625" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="626">
@@ -20987,10 +20571,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H626" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H626" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="627">
@@ -21025,10 +20607,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H627" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H627" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="628">
@@ -21063,10 +20643,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H628" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H628" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="629">
@@ -21101,10 +20679,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H629" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H629" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="630">
@@ -21127,10 +20703,8 @@
       <c r="E630" t="inlineStr"/>
       <c r="F630" t="inlineStr"/>
       <c r="G630" t="inlineStr"/>
-      <c r="H630" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H630" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="631">
@@ -21153,10 +20727,8 @@
       <c r="E631" t="inlineStr"/>
       <c r="F631" t="inlineStr"/>
       <c r="G631" t="inlineStr"/>
-      <c r="H631" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H631" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="632">
@@ -21179,10 +20751,8 @@
       <c r="E632" t="inlineStr"/>
       <c r="F632" t="inlineStr"/>
       <c r="G632" t="inlineStr"/>
-      <c r="H632" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H632" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="633">
@@ -21209,10 +20779,8 @@
       </c>
       <c r="F633" t="inlineStr"/>
       <c r="G633" t="inlineStr"/>
-      <c r="H633" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H633" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="634">
@@ -21235,10 +20803,8 @@
       <c r="E634" t="inlineStr"/>
       <c r="F634" t="inlineStr"/>
       <c r="G634" t="inlineStr"/>
-      <c r="H634" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H634" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="635">
@@ -21265,10 +20831,8 @@
       </c>
       <c r="F635" t="inlineStr"/>
       <c r="G635" t="inlineStr"/>
-      <c r="H635" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H635" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="636">
@@ -21299,10 +20863,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H636" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H636" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="637">
@@ -21333,10 +20895,8 @@
           <t>220K</t>
         </is>
       </c>
-      <c r="H637" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H637" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="638">
@@ -21367,10 +20927,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H638" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H638" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="639">
@@ -21401,10 +20959,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H639" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H639" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="640">
@@ -21431,10 +20987,8 @@
       </c>
       <c r="F640" t="inlineStr"/>
       <c r="G640" t="inlineStr"/>
-      <c r="H640" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H640" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="641">
@@ -21457,10 +21011,8 @@
       <c r="E641" t="inlineStr"/>
       <c r="F641" t="inlineStr"/>
       <c r="G641" t="inlineStr"/>
-      <c r="H641" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H641" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="642">
@@ -21487,10 +21039,8 @@
       </c>
       <c r="F642" t="inlineStr"/>
       <c r="G642" t="inlineStr"/>
-      <c r="H642" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H642" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="643">
@@ -21521,10 +21071,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H643" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H643" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="644">
@@ -21547,10 +21095,8 @@
       <c r="E644" t="inlineStr"/>
       <c r="F644" t="inlineStr"/>
       <c r="G644" t="inlineStr"/>
-      <c r="H644" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H644" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="645">
@@ -21577,10 +21123,8 @@
       </c>
       <c r="F645" t="inlineStr"/>
       <c r="G645" t="inlineStr"/>
-      <c r="H645" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H645" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="646">
@@ -21611,10 +21155,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H646" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H646" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="647">
@@ -21637,10 +21179,8 @@
       <c r="E647" t="inlineStr"/>
       <c r="F647" t="inlineStr"/>
       <c r="G647" t="inlineStr"/>
-      <c r="H647" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H647" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="648">
@@ -21667,10 +21207,8 @@
       </c>
       <c r="F648" t="inlineStr"/>
       <c r="G648" t="inlineStr"/>
-      <c r="H648" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H648" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="649">
@@ -21697,10 +21235,8 @@
       </c>
       <c r="F649" t="inlineStr"/>
       <c r="G649" t="inlineStr"/>
-      <c r="H649" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H649" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="650">
@@ -21727,10 +21263,8 @@
       </c>
       <c r="F650" t="inlineStr"/>
       <c r="G650" t="inlineStr"/>
-      <c r="H650" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H650" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="651">
@@ -21757,10 +21291,8 @@
       </c>
       <c r="F651" t="inlineStr"/>
       <c r="G651" t="inlineStr"/>
-      <c r="H651" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H651" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="652">
@@ -21787,10 +21319,8 @@
       </c>
       <c r="F652" t="inlineStr"/>
       <c r="G652" t="inlineStr"/>
-      <c r="H652" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H652" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="653">
@@ -21821,10 +21351,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H653" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H653" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="654">
@@ -21855,10 +21383,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H654" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H654" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="655">
@@ -21885,10 +21411,8 @@
       </c>
       <c r="F655" t="inlineStr"/>
       <c r="G655" t="inlineStr"/>
-      <c r="H655" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H655" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="656">
@@ -21915,10 +21439,8 @@
       </c>
       <c r="F656" t="inlineStr"/>
       <c r="G656" t="inlineStr"/>
-      <c r="H656" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H656" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="657">
@@ -21945,10 +21467,8 @@
       </c>
       <c r="F657" t="inlineStr"/>
       <c r="G657" t="inlineStr"/>
-      <c r="H657" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H657" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="658">
@@ -21971,10 +21491,8 @@
       <c r="E658" t="inlineStr"/>
       <c r="F658" t="inlineStr"/>
       <c r="G658" t="inlineStr"/>
-      <c r="H658" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H658" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="659">
@@ -21997,10 +21515,8 @@
       <c r="E659" t="inlineStr"/>
       <c r="F659" t="inlineStr"/>
       <c r="G659" t="inlineStr"/>
-      <c r="H659" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H659" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="660">
@@ -22023,10 +21539,8 @@
       <c r="E660" t="inlineStr"/>
       <c r="F660" t="inlineStr"/>
       <c r="G660" t="inlineStr"/>
-      <c r="H660" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H660" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="661">
@@ -22049,10 +21563,8 @@
       <c r="E661" t="inlineStr"/>
       <c r="F661" t="inlineStr"/>
       <c r="G661" t="inlineStr"/>
-      <c r="H661" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H661" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="662">
@@ -22075,44 +21587,62 @@
       <c r="E662" t="inlineStr"/>
       <c r="F662" t="inlineStr"/>
       <c r="G662" t="inlineStr"/>
-      <c r="H662" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H662" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>Friday January 17 2025</t>
-        </is>
-      </c>
-      <c r="B663" t="inlineStr"/>
-      <c r="C663" t="inlineStr"/>
+          <t>02:30 PM</t>
+        </is>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C663" t="inlineStr">
+        <is>
+          <t>Current AccountNOV</t>
+        </is>
+      </c>
       <c r="D663" t="inlineStr"/>
-      <c r="E663" t="inlineStr"/>
+      <c r="E663" t="inlineStr">
+        <is>
+          <t>€32B</t>
+        </is>
+      </c>
       <c r="F663" t="inlineStr"/>
       <c r="G663" t="inlineStr"/>
-      <c r="H663" t="inlineStr"/>
+      <c r="H663" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C664" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/15</t>
+          <t>Current Account s.aNOV</t>
         </is>
       </c>
       <c r="D664" t="inlineStr"/>
-      <c r="E664" t="inlineStr"/>
+      <c r="E664" t="inlineStr">
+        <is>
+          <t>€33.5B</t>
+        </is>
+      </c>
       <c r="F664" t="inlineStr"/>
       <c r="G664" t="inlineStr"/>
       <c r="H664" t="inlineStr">
@@ -22124,83 +21654,99 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C665" t="inlineStr">
         <is>
-          <t>Reuters Tankan IndexJAN</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D665" t="inlineStr"/>
       <c r="E665" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>€-3.93B</t>
         </is>
       </c>
       <c r="F665" t="inlineStr"/>
-      <c r="G665" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G665" t="inlineStr"/>
       <c r="H665" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C666" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/11</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D666" t="inlineStr"/>
-      <c r="E666" t="inlineStr"/>
-      <c r="F666" t="inlineStr"/>
-      <c r="G666" t="inlineStr"/>
+      <c r="E666" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
+      <c r="F666" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="G666" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
       <c r="H666" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C667" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersJAN/11</t>
+          <t>Core Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D667" t="inlineStr"/>
-      <c r="E667" t="inlineStr"/>
+      <c r="E667" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="F667" t="inlineStr"/>
-      <c r="G667" t="inlineStr"/>
+      <c r="G667" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="H667" t="inlineStr">
         <is>
           <t>3</t>
@@ -22210,29 +21756,33 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C668" t="inlineStr">
         <is>
-          <t>Non-Oil Exports MoMDEC</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D668" t="inlineStr"/>
       <c r="E668" t="inlineStr">
         <is>
-          <t>14.7%</t>
-        </is>
-      </c>
-      <c r="F668" t="inlineStr"/>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="F668" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="G668" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H668" t="inlineStr">
@@ -22244,29 +21794,29 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C669" t="inlineStr">
         <is>
-          <t>Non-Oil Exports YoYDEC</t>
+          <t>CPI FinalDEC</t>
         </is>
       </c>
       <c r="D669" t="inlineStr"/>
       <c r="E669" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>126.62</t>
         </is>
       </c>
       <c r="F669" t="inlineStr"/>
       <c r="G669" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>127</t>
         </is>
       </c>
       <c r="H669" t="inlineStr">
@@ -22278,23 +21828,23 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C670" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsJAN</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D670" t="inlineStr"/>
       <c r="E670" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>€5628M</t>
         </is>
       </c>
       <c r="F670" t="inlineStr"/>
@@ -22308,65 +21858,49 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C671" t="inlineStr">
         <is>
-          <t>House Price Index YoYDEC</t>
+          <t>Bank Loan Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D671" t="inlineStr"/>
-      <c r="E671" t="inlineStr">
-        <is>
-          <t>-5.7%</t>
-        </is>
-      </c>
+      <c r="E671" t="inlineStr"/>
       <c r="F671" t="inlineStr"/>
-      <c r="G671" t="inlineStr">
-        <is>
-          <t>-5.8%</t>
-        </is>
-      </c>
+      <c r="G671" t="inlineStr"/>
       <c r="H671" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C672" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Deposit Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D672" t="inlineStr"/>
-      <c r="E672" t="inlineStr">
-        <is>
-          <t>$6.52B</t>
-        </is>
-      </c>
+      <c r="E672" t="inlineStr"/>
       <c r="F672" t="inlineStr"/>
-      <c r="G672" t="inlineStr">
-        <is>
-          <t>$ 3.6B</t>
-        </is>
-      </c>
+      <c r="G672" t="inlineStr"/>
       <c r="H672" t="inlineStr">
         <is>
           <t>3</t>
@@ -22376,355 +21910,347 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C673" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoYQ4</t>
+          <t>Foreign Exchange ReservesJAN/10</t>
         </is>
       </c>
       <c r="D673" t="inlineStr"/>
-      <c r="E673" t="inlineStr">
-        <is>
-          <t>4.6%</t>
-        </is>
-      </c>
+      <c r="E673" t="inlineStr"/>
       <c r="F673" t="inlineStr"/>
-      <c r="G673" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
+      <c r="G673" t="inlineStr"/>
       <c r="H673" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C674" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Foreign Securities PurchasesNOV</t>
         </is>
       </c>
       <c r="D674" t="inlineStr"/>
       <c r="E674" t="inlineStr">
         <is>
-          <t>5.4%</t>
+          <t>C$21.55B</t>
         </is>
       </c>
       <c r="F674" t="inlineStr"/>
-      <c r="G674" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="G674" t="inlineStr"/>
       <c r="H674" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C675" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Foreign Securities Purchases by CanadiansNOV</t>
         </is>
       </c>
       <c r="D675" t="inlineStr"/>
       <c r="E675" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>C$-2.65B</t>
         </is>
       </c>
       <c r="F675" t="inlineStr"/>
-      <c r="G675" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="G675" t="inlineStr"/>
       <c r="H675" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C676" t="inlineStr">
         <is>
-          <t>Fixed Asset Investment (YTD) YoYDEC</t>
+          <t>Building Permits PrelDEC</t>
         </is>
       </c>
       <c r="D676" t="inlineStr"/>
       <c r="E676" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>1.493M</t>
         </is>
       </c>
       <c r="F676" t="inlineStr"/>
       <c r="G676" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>1.6M</t>
         </is>
       </c>
       <c r="H676" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C677" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQQ4</t>
+          <t>Housing StartsDEC</t>
         </is>
       </c>
       <c r="D677" t="inlineStr"/>
       <c r="E677" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>1.289M</t>
         </is>
       </c>
       <c r="F677" t="inlineStr"/>
       <c r="G677" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>1.5M</t>
         </is>
       </c>
       <c r="H677" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C678" t="inlineStr">
         <is>
-          <t>Industrial Capacity UtilizationQ4</t>
+          <t>Building Permits MoM PrelDEC</t>
         </is>
       </c>
       <c r="D678" t="inlineStr"/>
       <c r="E678" t="inlineStr">
         <is>
-          <t>75.1%</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F678" t="inlineStr"/>
-      <c r="G678" t="inlineStr">
-        <is>
-          <t>74.9%</t>
-        </is>
-      </c>
+      <c r="G678" t="inlineStr"/>
       <c r="H678" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C679" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Housing Starts MoMDEC</t>
         </is>
       </c>
       <c r="D679" t="inlineStr"/>
       <c r="E679" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>-1.8%</t>
         </is>
       </c>
       <c r="F679" t="inlineStr"/>
       <c r="G679" t="inlineStr">
         <is>
-          <t>5.00%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="H679" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C680" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D680" t="inlineStr"/>
-      <c r="E680" t="inlineStr"/>
+      <c r="E680" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="F680" t="inlineStr"/>
       <c r="G680" t="inlineStr"/>
       <c r="H680" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C681" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Capacity UtilizationDEC</t>
         </is>
       </c>
       <c r="D681" t="inlineStr"/>
       <c r="E681" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>76.8%</t>
         </is>
       </c>
       <c r="F681" t="inlineStr"/>
       <c r="G681" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>77.8%</t>
         </is>
       </c>
       <c r="H681" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C682" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D682" t="inlineStr"/>
       <c r="E682" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="F682" t="inlineStr"/>
       <c r="G682" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H682" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C683" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel MoMDEC</t>
+          <t>Manufacturing Production MoMDEC</t>
         </is>
       </c>
       <c r="D683" t="inlineStr"/>
-      <c r="E683" t="inlineStr"/>
+      <c r="E683" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F683" t="inlineStr"/>
-      <c r="G683" t="inlineStr"/>
+      <c r="G683" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H683" t="inlineStr">
         <is>
           <t>3</t>
@@ -22734,23 +22260,31 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C684" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel YoYDEC</t>
+          <t>Manufacturing Production YoYDEC</t>
         </is>
       </c>
       <c r="D684" t="inlineStr"/>
-      <c r="E684" t="inlineStr"/>
+      <c r="E684" t="inlineStr">
+        <is>
+          <t>-1%</t>
+        </is>
+      </c>
       <c r="F684" t="inlineStr"/>
-      <c r="G684" t="inlineStr"/>
+      <c r="G684" t="inlineStr">
+        <is>
+          <t>-0.9%</t>
+        </is>
+      </c>
       <c r="H684" t="inlineStr">
         <is>
           <t>3</t>
@@ -22760,31 +22294,23 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>12:50 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C685" t="inlineStr">
         <is>
-          <t>Loan Growth YoYDEC</t>
+          <t>Baker Hughes Oil Rig CountJAN/17</t>
         </is>
       </c>
       <c r="D685" t="inlineStr"/>
-      <c r="E685" t="inlineStr">
-        <is>
-          <t>10.79%</t>
-        </is>
-      </c>
+      <c r="E685" t="inlineStr"/>
       <c r="F685" t="inlineStr"/>
-      <c r="G685" t="inlineStr">
-        <is>
-          <t>10%</t>
-        </is>
-      </c>
+      <c r="G685" t="inlineStr"/>
       <c r="H685" t="inlineStr">
         <is>
           <t>3</t>
@@ -22794,25 +22320,21 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C686" t="inlineStr">
         <is>
-          <t>Deposit Facility RateJAN</t>
+          <t>Baker Hughes Total Rigs CountJAN/17</t>
         </is>
       </c>
       <c r="D686" t="inlineStr"/>
-      <c r="E686" t="inlineStr">
-        <is>
-          <t>5.25%</t>
-        </is>
-      </c>
+      <c r="E686" t="inlineStr"/>
       <c r="F686" t="inlineStr"/>
       <c r="G686" t="inlineStr"/>
       <c r="H686" t="inlineStr">
@@ -22822,25 +22344,21 @@
       </c>
     </row>
     <row r="687">
-      <c r="A687" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
+      <c r="A687" t="inlineStr"/>
       <c r="B687" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C687" t="inlineStr">
         <is>
-          <t>Lending Facility RateJAN</t>
+          <t>50-Year KTB Auction</t>
         </is>
       </c>
       <c r="D687" t="inlineStr"/>
       <c r="E687" t="inlineStr">
         <is>
-          <t>6.75%</t>
+          <t>2.40%</t>
         </is>
       </c>
       <c r="F687" t="inlineStr"/>
@@ -22854,880 +22372,102 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
-      <c r="B688" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C688" t="inlineStr">
-        <is>
-          <t>Current AccountNOV</t>
-        </is>
-      </c>
+          <t>Saturday January 18 2025</t>
+        </is>
+      </c>
+      <c r="B688" t="inlineStr"/>
+      <c r="C688" t="inlineStr"/>
       <c r="D688" t="inlineStr"/>
-      <c r="E688" t="inlineStr">
-        <is>
-          <t>€32B</t>
-        </is>
-      </c>
+      <c r="E688" t="inlineStr"/>
       <c r="F688" t="inlineStr"/>
       <c r="G688" t="inlineStr"/>
-      <c r="H688" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H688" t="inlineStr"/>
     </row>
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C689" t="inlineStr">
         <is>
-          <t>Current Account s.aNOV</t>
+          <t>Net Long-term TIC FlowsNOV</t>
         </is>
       </c>
       <c r="D689" t="inlineStr"/>
       <c r="E689" t="inlineStr">
         <is>
-          <t>€33.5B</t>
+          <t>$152.3B</t>
         </is>
       </c>
       <c r="F689" t="inlineStr"/>
       <c r="G689" t="inlineStr"/>
       <c r="H689" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C690" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Foreign Bond InvestmentNOV</t>
         </is>
       </c>
       <c r="D690" t="inlineStr"/>
       <c r="E690" t="inlineStr">
         <is>
-          <t>€-3.93B</t>
+          <t>$92.1B</t>
         </is>
       </c>
       <c r="F690" t="inlineStr"/>
       <c r="G690" t="inlineStr"/>
       <c r="H690" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C691" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Overall Net Capital FlowsNOV</t>
         </is>
       </c>
       <c r="D691" t="inlineStr"/>
       <c r="E691" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F691" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="G691" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+          <t>$203.6B</t>
+        </is>
+      </c>
+      <c r="F691" t="inlineStr"/>
+      <c r="G691" t="inlineStr"/>
       <c r="H691" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="692">
-      <c r="A692" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B692" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C692" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoY FinalDEC</t>
-        </is>
-      </c>
-      <c r="D692" t="inlineStr"/>
-      <c r="E692" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F692" t="inlineStr"/>
-      <c r="G692" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="H692" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="693">
-      <c r="A693" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B693" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C693" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoM FinalDEC</t>
-        </is>
-      </c>
-      <c r="D693" t="inlineStr"/>
-      <c r="E693" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F693" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G693" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H693" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="694">
-      <c r="A694" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B694" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C694" t="inlineStr">
-        <is>
-          <t>CPI FinalDEC</t>
-        </is>
-      </c>
-      <c r="D694" t="inlineStr"/>
-      <c r="E694" t="inlineStr">
-        <is>
-          <t>126.62</t>
-        </is>
-      </c>
-      <c r="F694" t="inlineStr"/>
-      <c r="G694" t="inlineStr">
-        <is>
-          <t>127</t>
-        </is>
-      </c>
-      <c r="H694" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="695">
-      <c r="A695" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B695" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C695" t="inlineStr">
-        <is>
-          <t>Current AccountNOV</t>
-        </is>
-      </c>
-      <c r="D695" t="inlineStr"/>
-      <c r="E695" t="inlineStr">
-        <is>
-          <t>€5628M</t>
-        </is>
-      </c>
-      <c r="F695" t="inlineStr"/>
-      <c r="G695" t="inlineStr"/>
-      <c r="H695" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="696">
-      <c r="A696" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
-      <c r="B696" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C696" t="inlineStr">
-        <is>
-          <t>Bank Loan Growth YoYJAN/03</t>
-        </is>
-      </c>
-      <c r="D696" t="inlineStr"/>
-      <c r="E696" t="inlineStr"/>
-      <c r="F696" t="inlineStr"/>
-      <c r="G696" t="inlineStr"/>
-      <c r="H696" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="697">
-      <c r="A697" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
-      <c r="B697" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C697" t="inlineStr">
-        <is>
-          <t>Deposit Growth YoYJAN/03</t>
-        </is>
-      </c>
-      <c r="D697" t="inlineStr"/>
-      <c r="E697" t="inlineStr"/>
-      <c r="F697" t="inlineStr"/>
-      <c r="G697" t="inlineStr"/>
-      <c r="H697" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="698">
-      <c r="A698" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
-      <c r="B698" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C698" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN/10</t>
-        </is>
-      </c>
-      <c r="D698" t="inlineStr"/>
-      <c r="E698" t="inlineStr"/>
-      <c r="F698" t="inlineStr"/>
-      <c r="G698" t="inlineStr"/>
-      <c r="H698" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="699">
-      <c r="A699" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B699" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C699" t="inlineStr">
-        <is>
-          <t>Foreign Securities PurchasesNOV</t>
-        </is>
-      </c>
-      <c r="D699" t="inlineStr"/>
-      <c r="E699" t="inlineStr">
-        <is>
-          <t>C$21.55B</t>
-        </is>
-      </c>
-      <c r="F699" t="inlineStr"/>
-      <c r="G699" t="inlineStr"/>
-      <c r="H699" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="700">
-      <c r="A700" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B700" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C700" t="inlineStr">
-        <is>
-          <t>Foreign Securities Purchases by CanadiansNOV</t>
-        </is>
-      </c>
-      <c r="D700" t="inlineStr"/>
-      <c r="E700" t="inlineStr">
-        <is>
-          <t>C$-2.65B</t>
-        </is>
-      </c>
-      <c r="F700" t="inlineStr"/>
-      <c r="G700" t="inlineStr"/>
-      <c r="H700" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="701">
-      <c r="A701" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B701" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C701" t="inlineStr">
-        <is>
-          <t>Building Permits PrelDEC</t>
-        </is>
-      </c>
-      <c r="D701" t="inlineStr"/>
-      <c r="E701" t="inlineStr">
-        <is>
-          <t>1.493M</t>
-        </is>
-      </c>
-      <c r="F701" t="inlineStr"/>
-      <c r="G701" t="inlineStr">
-        <is>
-          <t>1.6M</t>
-        </is>
-      </c>
-      <c r="H701" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="702">
-      <c r="A702" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B702" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C702" t="inlineStr">
-        <is>
-          <t>Housing StartsDEC</t>
-        </is>
-      </c>
-      <c r="D702" t="inlineStr"/>
-      <c r="E702" t="inlineStr">
-        <is>
-          <t>1.289M</t>
-        </is>
-      </c>
-      <c r="F702" t="inlineStr"/>
-      <c r="G702" t="inlineStr">
-        <is>
-          <t>1.5M</t>
-        </is>
-      </c>
-      <c r="H702" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="703">
-      <c r="A703" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B703" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C703" t="inlineStr">
-        <is>
-          <t>Building Permits MoM PrelDEC</t>
-        </is>
-      </c>
-      <c r="D703" t="inlineStr"/>
-      <c r="E703" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F703" t="inlineStr"/>
-      <c r="G703" t="inlineStr"/>
-      <c r="H703" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="704">
-      <c r="A704" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B704" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C704" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMDEC</t>
-        </is>
-      </c>
-      <c r="D704" t="inlineStr"/>
-      <c r="E704" t="inlineStr">
-        <is>
-          <t>-1.8%</t>
-        </is>
-      </c>
-      <c r="F704" t="inlineStr"/>
-      <c r="G704" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="H704" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="705">
-      <c r="A705" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B705" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C705" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMDEC</t>
-        </is>
-      </c>
-      <c r="D705" t="inlineStr"/>
-      <c r="E705" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F705" t="inlineStr"/>
-      <c r="G705" t="inlineStr"/>
-      <c r="H705" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="706">
-      <c r="A706" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B706" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C706" t="inlineStr">
-        <is>
-          <t>Capacity UtilizationDEC</t>
-        </is>
-      </c>
-      <c r="D706" t="inlineStr"/>
-      <c r="E706" t="inlineStr">
-        <is>
-          <t>76.8%</t>
-        </is>
-      </c>
-      <c r="F706" t="inlineStr"/>
-      <c r="G706" t="inlineStr">
-        <is>
-          <t>77.8%</t>
-        </is>
-      </c>
-      <c r="H706" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="707">
-      <c r="A707" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B707" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C707" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D707" t="inlineStr"/>
-      <c r="E707" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="F707" t="inlineStr"/>
-      <c r="G707" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="H707" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="708">
-      <c r="A708" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B708" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C708" t="inlineStr">
-        <is>
-          <t>Manufacturing Production MoMDEC</t>
-        </is>
-      </c>
-      <c r="D708" t="inlineStr"/>
-      <c r="E708" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F708" t="inlineStr"/>
-      <c r="G708" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H708" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="709">
-      <c r="A709" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B709" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C709" t="inlineStr">
-        <is>
-          <t>Manufacturing Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D709" t="inlineStr"/>
-      <c r="E709" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
-      <c r="F709" t="inlineStr"/>
-      <c r="G709" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="H709" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="710">
-      <c r="A710" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B710" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C710" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJAN/17</t>
-        </is>
-      </c>
-      <c r="D710" t="inlineStr"/>
-      <c r="E710" t="inlineStr"/>
-      <c r="F710" t="inlineStr"/>
-      <c r="G710" t="inlineStr"/>
-      <c r="H710" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="711">
-      <c r="A711" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B711" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C711" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJAN/17</t>
-        </is>
-      </c>
-      <c r="D711" t="inlineStr"/>
-      <c r="E711" t="inlineStr"/>
-      <c r="F711" t="inlineStr"/>
-      <c r="G711" t="inlineStr"/>
-      <c r="H711" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="712">
-      <c r="A712" t="inlineStr"/>
-      <c r="B712" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C712" t="inlineStr">
-        <is>
-          <t>50-Year KTB Auction</t>
-        </is>
-      </c>
-      <c r="D712" t="inlineStr"/>
-      <c r="E712" t="inlineStr">
-        <is>
-          <t>2.40%</t>
-        </is>
-      </c>
-      <c r="F712" t="inlineStr"/>
-      <c r="G712" t="inlineStr"/>
-      <c r="H712" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="713">
-      <c r="A713" t="inlineStr">
-        <is>
-          <t>Saturday January 18 2025</t>
-        </is>
-      </c>
-      <c r="B713" t="inlineStr"/>
-      <c r="C713" t="inlineStr"/>
-      <c r="D713" t="inlineStr"/>
-      <c r="E713" t="inlineStr"/>
-      <c r="F713" t="inlineStr"/>
-      <c r="G713" t="inlineStr"/>
-      <c r="H713" t="inlineStr"/>
-    </row>
-    <row r="714">
-      <c r="A714" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B714" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C714" t="inlineStr">
-        <is>
-          <t>Net Long-term TIC FlowsNOV</t>
-        </is>
-      </c>
-      <c r="D714" t="inlineStr"/>
-      <c r="E714" t="inlineStr">
-        <is>
-          <t>$152.3B</t>
-        </is>
-      </c>
-      <c r="F714" t="inlineStr"/>
-      <c r="G714" t="inlineStr"/>
-      <c r="H714" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="715">
-      <c r="A715" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B715" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C715" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentNOV</t>
-        </is>
-      </c>
-      <c r="D715" t="inlineStr"/>
-      <c r="E715" t="inlineStr">
-        <is>
-          <t>$92.1B</t>
-        </is>
-      </c>
-      <c r="F715" t="inlineStr"/>
-      <c r="G715" t="inlineStr"/>
-      <c r="H715" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="716">
-      <c r="A716" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B716" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C716" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsNOV</t>
-        </is>
-      </c>
-      <c r="D716" t="inlineStr"/>
-      <c r="E716" t="inlineStr">
-        <is>
-          <t>$203.6B</t>
-        </is>
-      </c>
-      <c r="F716" t="inlineStr"/>
-      <c r="G716" t="inlineStr"/>
-      <c r="H716" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-18.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H691"/>
+  <dimension ref="A1:H693"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15712,661 +15712,759 @@
       </c>
     </row>
     <row r="458">
-      <c r="A458" t="inlineStr">
-        <is>
-          <t>Monday January 13 2025</t>
-        </is>
-      </c>
-      <c r="B458" t="inlineStr"/>
-      <c r="C458" t="inlineStr"/>
+      <c r="A458" t="inlineStr"/>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>BR</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>BCB Focus Market Readout</t>
+        </is>
+      </c>
       <c r="D458" t="inlineStr"/>
       <c r="E458" t="inlineStr"/>
       <c r="F458" t="inlineStr"/>
       <c r="G458" t="inlineStr"/>
-      <c r="H458" t="inlineStr"/>
+      <c r="H458" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B459" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C459" t="inlineStr">
-        <is>
-          <t>ANZ-Indeed Job Ads MoMDEC</t>
-        </is>
-      </c>
+          <t>Tuesday January 14 2025</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr"/>
+      <c r="C459" t="inlineStr"/>
       <c r="D459" t="inlineStr"/>
-      <c r="E459" t="inlineStr">
-        <is>
-          <t>-1.3%</t>
-        </is>
-      </c>
+      <c r="E459" t="inlineStr"/>
       <c r="F459" t="inlineStr"/>
-      <c r="G459" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H459" t="n">
-        <v>3</v>
-      </c>
+      <c r="G459" t="inlineStr"/>
+      <c r="H459" t="inlineStr"/>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>TD-MI Inflation Gauge MoMDEC</t>
+          <t>Monthly Budget StatementDEC</t>
         </is>
       </c>
       <c r="D460" t="inlineStr"/>
       <c r="E460" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>$-367B</t>
         </is>
       </c>
       <c r="F460" t="inlineStr"/>
-      <c r="G460" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H460" t="n">
-        <v>3</v>
+      <c r="G460" t="inlineStr"/>
+      <c r="H460" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Westpac Consumer Confidence ChangeJAN</t>
         </is>
       </c>
       <c r="D461" t="inlineStr"/>
       <c r="E461" t="inlineStr">
         <is>
-          <t>$1.88B</t>
+          <t>-2%</t>
         </is>
       </c>
       <c r="F461" t="inlineStr"/>
       <c r="G461" t="inlineStr"/>
-      <c r="H461" t="n">
-        <v>3</v>
+      <c r="H461" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>Westpac Consumer Confidence IndexJAN</t>
         </is>
       </c>
       <c r="D462" t="inlineStr"/>
       <c r="E462" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>92.8</t>
         </is>
       </c>
       <c r="F462" t="inlineStr"/>
       <c r="G462" t="inlineStr"/>
-      <c r="H462" t="n">
-        <v>3</v>
+      <c r="H462" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D463" t="inlineStr"/>
       <c r="E463" t="inlineStr">
         <is>
-          <t>15.0%</t>
+          <t>¥2457B</t>
         </is>
       </c>
       <c r="F463" t="inlineStr"/>
-      <c r="G463" t="inlineStr"/>
-      <c r="H463" t="n">
-        <v>3</v>
+      <c r="G463" t="inlineStr">
+        <is>
+          <t>¥1990.0B</t>
+        </is>
+      </c>
+      <c r="H463" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>12-Month Bubill Auction</t>
+          <t>Bank Lending YoYDEC</t>
         </is>
       </c>
       <c r="D464" t="inlineStr"/>
-      <c r="E464" t="inlineStr"/>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
       <c r="F464" t="inlineStr"/>
-      <c r="G464" t="inlineStr"/>
-      <c r="H464" t="n">
-        <v>3</v>
+      <c r="G464" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
+      <c r="H464" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Building Permits MoM FinalNOV</t>
         </is>
       </c>
       <c r="D465" t="inlineStr"/>
       <c r="E465" t="inlineStr">
         <is>
-          <t>5.48%</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F465" t="inlineStr"/>
-      <c r="G465" t="inlineStr">
-        <is>
-          <t>6.0%</t>
-        </is>
-      </c>
-      <c r="H465" t="n">
-        <v>2</v>
+      <c r="G465" t="inlineStr"/>
+      <c r="H465" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Private House Approvals MoM FinalNOV</t>
         </is>
       </c>
       <c r="D466" t="inlineStr"/>
       <c r="E466" t="inlineStr">
         <is>
-          <t>-0.15%</t>
+          <t>-4.0%</t>
         </is>
       </c>
       <c r="F466" t="inlineStr"/>
-      <c r="G466" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H466" t="n">
-        <v>3</v>
+      <c r="G466" t="inlineStr"/>
+      <c r="H466" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>5-Year JGB Auction</t>
         </is>
       </c>
       <c r="D467" t="inlineStr"/>
-      <c r="E467" t="inlineStr"/>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t>0.734%</t>
+        </is>
+      </c>
       <c r="F467" t="inlineStr"/>
       <c r="G467" t="inlineStr"/>
-      <c r="H467" t="n">
-        <v>3</v>
+      <c r="H467" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Eco Watchers Survey CurrentDEC</t>
         </is>
       </c>
       <c r="D468" t="inlineStr"/>
-      <c r="E468" t="inlineStr"/>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t>49.4</t>
+        </is>
+      </c>
       <c r="F468" t="inlineStr"/>
-      <c r="G468" t="inlineStr"/>
-      <c r="H468" t="n">
-        <v>3</v>
+      <c r="G468" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
+      <c r="H468" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>Eco Watchers Survey OutlookDEC</t>
         </is>
       </c>
       <c r="D469" t="inlineStr"/>
-      <c r="E469" t="inlineStr"/>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>49.4</t>
+        </is>
+      </c>
       <c r="F469" t="inlineStr"/>
-      <c r="G469" t="inlineStr"/>
-      <c r="H469" t="n">
-        <v>3</v>
+      <c r="G469" t="inlineStr">
+        <is>
+          <t>49.6</t>
+        </is>
+      </c>
+      <c r="H469" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsDEC</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D470" t="inlineStr"/>
       <c r="E470" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>3.19%</t>
         </is>
       </c>
       <c r="F470" t="inlineStr"/>
-      <c r="G470" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="H470" t="n">
-        <v>3</v>
+      <c r="G470" t="inlineStr"/>
+      <c r="H470" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D471" t="inlineStr"/>
       <c r="E471" t="inlineStr">
         <is>
-          <t>4.205%</t>
+          <t>3.24%</t>
         </is>
       </c>
       <c r="F471" t="inlineStr"/>
       <c r="G471" t="inlineStr"/>
-      <c r="H471" t="n">
-        <v>3</v>
+      <c r="H471" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>WPI Food Index YoYDEC</t>
         </is>
       </c>
       <c r="D472" t="inlineStr"/>
       <c r="E472" t="inlineStr">
         <is>
-          <t>4.110%</t>
+          <t>8.92%</t>
         </is>
       </c>
       <c r="F472" t="inlineStr"/>
-      <c r="G472" t="inlineStr"/>
-      <c r="H472" t="n">
-        <v>3</v>
+      <c r="G472" t="inlineStr">
+        <is>
+          <t>10.2%</t>
+        </is>
+      </c>
+      <c r="H472" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - CornDEC</t>
+          <t>WPI Fuel YoYDEC</t>
         </is>
       </c>
       <c r="D473" t="inlineStr"/>
       <c r="E473" t="inlineStr">
         <is>
-          <t>1.760B</t>
+          <t>-5.83%</t>
         </is>
       </c>
       <c r="F473" t="inlineStr"/>
-      <c r="G473" t="inlineStr"/>
-      <c r="H473" t="n">
-        <v>3</v>
+      <c r="G473" t="inlineStr">
+        <is>
+          <t>-3.2%</t>
+        </is>
+      </c>
+      <c r="H473" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - SoyDEC</t>
+          <t>WPI Manufacturing YoYDEC</t>
         </is>
       </c>
       <c r="D474" t="inlineStr"/>
       <c r="E474" t="inlineStr">
         <is>
-          <t>0.342B</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="F474" t="inlineStr"/>
-      <c r="G474" t="inlineStr"/>
-      <c r="H474" t="n">
-        <v>3</v>
+      <c r="G474" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="H474" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - WheatDEC</t>
+          <t>Budget BalanceNOV</t>
         </is>
       </c>
       <c r="D475" t="inlineStr"/>
       <c r="E475" t="inlineStr">
         <is>
-          <t>1.98B</t>
+          <t>€-157.39B</t>
         </is>
       </c>
       <c r="F475" t="inlineStr"/>
       <c r="G475" t="inlineStr"/>
-      <c r="H475" t="n">
-        <v>3</v>
+      <c r="H475" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="476">
-      <c r="A476" t="inlineStr"/>
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>02:30 PM</t>
+        </is>
+      </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>3-Year KTB Auction</t>
+          <t>Industrial Production MoMNOV</t>
         </is>
       </c>
       <c r="D476" t="inlineStr"/>
       <c r="E476" t="inlineStr">
         <is>
-          <t>2.53%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F476" t="inlineStr"/>
       <c r="G476" t="inlineStr"/>
-      <c r="H476" t="n">
-        <v>3</v>
+      <c r="H476" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="477">
-      <c r="A477" t="inlineStr"/>
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>02:30 PM</t>
+        </is>
+      </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>Auto Production YoYDEC</t>
+          <t>Industrial Production YoYNOV</t>
         </is>
       </c>
       <c r="D477" t="inlineStr"/>
       <c r="E477" t="inlineStr">
         <is>
-          <t>-15.4%</t>
+          <t>-3.6%</t>
         </is>
       </c>
       <c r="F477" t="inlineStr"/>
       <c r="G477" t="inlineStr"/>
-      <c r="H477" t="n">
-        <v>3</v>
+      <c r="H477" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="478">
-      <c r="A478" t="inlineStr"/>
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>03:10 PM</t>
+        </is>
+      </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>Auto Sales YoYDEC</t>
+          <t>3-Month Letras Auction</t>
         </is>
       </c>
       <c r="D478" t="inlineStr"/>
-      <c r="E478" t="inlineStr">
-        <is>
-          <t>5.3%</t>
-        </is>
-      </c>
+      <c r="E478" t="inlineStr"/>
       <c r="F478" t="inlineStr"/>
       <c r="G478" t="inlineStr"/>
-      <c r="H478" t="n">
-        <v>3</v>
+      <c r="H478" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="479">
-      <c r="A479" t="inlineStr"/>
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>03:10 PM</t>
+        </is>
+      </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>Vehicle Sales YoYDEC</t>
+          <t>9-Month Letras Auction</t>
         </is>
       </c>
       <c r="D479" t="inlineStr"/>
-      <c r="E479" t="inlineStr">
-        <is>
-          <t>11.7%</t>
-        </is>
-      </c>
+      <c r="E479" t="inlineStr"/>
       <c r="F479" t="inlineStr"/>
-      <c r="G479" t="inlineStr">
-        <is>
-          <t>6.4%</t>
-        </is>
-      </c>
-      <c r="H479" t="n">
-        <v>3</v>
+      <c r="G479" t="inlineStr"/>
+      <c r="H479" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="480">
-      <c r="A480" t="inlineStr"/>
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>Vehicle Sales YoYDEC</t>
+          <t>20-Year Index-Linked Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D480" t="inlineStr"/>
       <c r="E480" t="inlineStr">
         <is>
-          <t>12%</t>
+          <t>1.200%</t>
         </is>
       </c>
       <c r="F480" t="inlineStr"/>
       <c r="G480" t="inlineStr"/>
-      <c r="H480" t="n">
-        <v>3</v>
+      <c r="H480" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="481">
-      <c r="A481" t="inlineStr"/>
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>04:00 PM</t>
+        </is>
+      </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>BCB Focus Market Readout</t>
+          <t>5-Year Bobl Auction</t>
         </is>
       </c>
       <c r="D481" t="inlineStr"/>
-      <c r="E481" t="inlineStr"/>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>2.04%</t>
+        </is>
+      </c>
       <c r="F481" t="inlineStr"/>
       <c r="G481" t="inlineStr"/>
-      <c r="H481" t="n">
-        <v>3</v>
+      <c r="H481" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>Tuesday January 14 2025</t>
-        </is>
-      </c>
-      <c r="B482" t="inlineStr"/>
-      <c r="C482" t="inlineStr"/>
+          <t>04:30 PM</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>NFIB Business Optimism IndexDEC</t>
+        </is>
+      </c>
       <c r="D482" t="inlineStr"/>
-      <c r="E482" t="inlineStr"/>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t>101.7</t>
+        </is>
+      </c>
       <c r="F482" t="inlineStr"/>
-      <c r="G482" t="inlineStr"/>
-      <c r="H482" t="inlineStr"/>
+      <c r="G482" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="H482" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
@@ -16376,605 +16474,647 @@
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>Monthly Budget StatementDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D483" t="inlineStr"/>
       <c r="E483" t="inlineStr">
         <is>
-          <t>$-367B</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F483" t="inlineStr"/>
-      <c r="G483" t="inlineStr"/>
-      <c r="H483" t="n">
-        <v>2</v>
+      <c r="G483" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H483" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>Westpac Consumer Confidence ChangeJAN</t>
+          <t>Core PPI MoMDEC</t>
         </is>
       </c>
       <c r="D484" t="inlineStr"/>
       <c r="E484" t="inlineStr">
         <is>
-          <t>-2%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F484" t="inlineStr"/>
       <c r="G484" t="inlineStr"/>
-      <c r="H484" t="n">
-        <v>1</v>
+      <c r="H484" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>Westpac Consumer Confidence IndexJAN</t>
+          <t>Core PPI YoYDEC</t>
         </is>
       </c>
       <c r="D485" t="inlineStr"/>
       <c r="E485" t="inlineStr">
         <is>
-          <t>92.8</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="F485" t="inlineStr"/>
-      <c r="G485" t="inlineStr"/>
-      <c r="H485" t="n">
-        <v>1</v>
+      <c r="G485" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
+      <c r="H485" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>PPIDEC</t>
         </is>
       </c>
       <c r="D486" t="inlineStr"/>
       <c r="E486" t="inlineStr">
         <is>
-          <t>¥2457B</t>
+          <t>146.493</t>
         </is>
       </c>
       <c r="F486" t="inlineStr"/>
       <c r="G486" t="inlineStr">
         <is>
-          <t>¥1990.0B</t>
-        </is>
-      </c>
-      <c r="H486" t="n">
-        <v>2</v>
+          <t>146.4</t>
+        </is>
+      </c>
+      <c r="H486" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>Bank Lending YoYDEC</t>
+          <t>PPI Ex Food, Energy and Trade MoMDEC</t>
         </is>
       </c>
       <c r="D487" t="inlineStr"/>
       <c r="E487" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F487" t="inlineStr"/>
-      <c r="G487" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="H487" t="n">
-        <v>3</v>
+      <c r="G487" t="inlineStr"/>
+      <c r="H487" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalNOV</t>
+          <t>PPI Ex Food, Energy and Trade YoYDEC</t>
         </is>
       </c>
       <c r="D488" t="inlineStr"/>
       <c r="E488" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="F488" t="inlineStr"/>
       <c r="G488" t="inlineStr"/>
-      <c r="H488" t="n">
-        <v>3</v>
+      <c r="H488" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>Private House Approvals MoM FinalNOV</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D489" t="inlineStr"/>
       <c r="E489" t="inlineStr">
         <is>
-          <t>-4.0%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F489" t="inlineStr"/>
-      <c r="G489" t="inlineStr"/>
-      <c r="H489" t="n">
-        <v>3</v>
+      <c r="G489" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
+      <c r="H489" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>5-Year JGB Auction</t>
+          <t>Redbook YoYJAN/11</t>
         </is>
       </c>
       <c r="D490" t="inlineStr"/>
       <c r="E490" t="inlineStr">
         <is>
-          <t>0.734%</t>
+          <t>6.8%</t>
         </is>
       </c>
       <c r="F490" t="inlineStr"/>
       <c r="G490" t="inlineStr"/>
-      <c r="H490" t="n">
-        <v>3</v>
+      <c r="H490" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:35 PM</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>Eco Watchers Survey CurrentDEC</t>
+          <t>RCM/TIPP Economic Optimism IndexJAN</t>
         </is>
       </c>
       <c r="D491" t="inlineStr"/>
       <c r="E491" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F491" t="inlineStr"/>
-      <c r="G491" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
-      <c r="H491" t="n">
-        <v>3</v>
+      <c r="G491" t="inlineStr"/>
+      <c r="H491" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="492">
-      <c r="A492" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
+      <c r="A492" t="inlineStr"/>
       <c r="B492" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>Eco Watchers Survey OutlookDEC</t>
+          <t>5-Year KTB Auction</t>
         </is>
       </c>
       <c r="D492" t="inlineStr"/>
       <c r="E492" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>2.680%</t>
         </is>
       </c>
       <c r="F492" t="inlineStr"/>
-      <c r="G492" t="inlineStr">
-        <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="H492" t="n">
-        <v>3</v>
+      <c r="G492" t="inlineStr"/>
+      <c r="H492" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B493" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C493" t="inlineStr">
-        <is>
-          <t>MAS 12-Week Bill Auction</t>
-        </is>
-      </c>
+          <t>Wednesday January 15 2025</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr"/>
+      <c r="C493" t="inlineStr"/>
       <c r="D493" t="inlineStr"/>
-      <c r="E493" t="inlineStr">
-        <is>
-          <t>3.19%</t>
-        </is>
-      </c>
+      <c r="E493" t="inlineStr"/>
       <c r="F493" t="inlineStr"/>
       <c r="G493" t="inlineStr"/>
-      <c r="H493" t="n">
-        <v>3</v>
-      </c>
+      <c r="H493" t="inlineStr"/>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D494" t="inlineStr"/>
       <c r="E494" t="inlineStr">
         <is>
-          <t>3.24%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F494" t="inlineStr"/>
-      <c r="G494" t="inlineStr"/>
-      <c r="H494" t="n">
-        <v>3</v>
+      <c r="G494" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="H494" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>WPI Food Index YoYDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D495" t="inlineStr"/>
       <c r="E495" t="inlineStr">
         <is>
-          <t>8.92%</t>
+          <t>166%</t>
         </is>
       </c>
       <c r="F495" t="inlineStr"/>
       <c r="G495" t="inlineStr">
         <is>
-          <t>10.2%</t>
-        </is>
-      </c>
-      <c r="H495" t="n">
-        <v>3</v>
+          <t>116.0%</t>
+        </is>
+      </c>
+      <c r="H495" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>WPI Fuel YoYDEC</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D496" t="inlineStr"/>
       <c r="E496" t="inlineStr">
         <is>
-          <t>-5.83%</t>
+          <t>7%</t>
         </is>
       </c>
       <c r="F496" t="inlineStr"/>
       <c r="G496" t="inlineStr">
         <is>
-          <t>-3.2%</t>
-        </is>
-      </c>
-      <c r="H496" t="n">
-        <v>3</v>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="H496" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>WPI Manufacturing YoYDEC</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D497" t="inlineStr"/>
       <c r="E497" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F497" t="inlineStr"/>
       <c r="G497" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="H497" t="n">
-        <v>3</v>
+          <t>4.5%</t>
+        </is>
+      </c>
+      <c r="H497" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>Budget BalanceNOV</t>
+          <t>API Crude Oil Stock ChangeJAN/10</t>
         </is>
       </c>
       <c r="D498" t="inlineStr"/>
       <c r="E498" t="inlineStr">
         <is>
-          <t>€-157.39B</t>
+          <t>-4.022M</t>
         </is>
       </c>
       <c r="F498" t="inlineStr"/>
       <c r="G498" t="inlineStr"/>
-      <c r="H498" t="n">
-        <v>3</v>
+      <c r="H498" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>Industrial Production MoMNOV</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D499" t="inlineStr"/>
       <c r="E499" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>$4.42B</t>
         </is>
       </c>
       <c r="F499" t="inlineStr"/>
-      <c r="G499" t="inlineStr"/>
-      <c r="H499" t="n">
-        <v>2</v>
+      <c r="G499" t="inlineStr">
+        <is>
+          <t>$ 2.8B</t>
+        </is>
+      </c>
+      <c r="H499" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>Exports YoYDEC</t>
         </is>
       </c>
       <c r="D500" t="inlineStr"/>
       <c r="E500" t="inlineStr">
         <is>
-          <t>-3.6%</t>
+          <t>9.14%</t>
         </is>
       </c>
       <c r="F500" t="inlineStr"/>
       <c r="G500" t="inlineStr"/>
-      <c r="H500" t="n">
-        <v>3</v>
+      <c r="H500" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>03:10 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>3-Month Letras Auction</t>
+          <t>Imports YoYDEC</t>
         </is>
       </c>
       <c r="D501" t="inlineStr"/>
-      <c r="E501" t="inlineStr"/>
+      <c r="E501" t="inlineStr">
+        <is>
+          <t>0.01%</t>
+        </is>
+      </c>
       <c r="F501" t="inlineStr"/>
       <c r="G501" t="inlineStr"/>
-      <c r="H501" t="n">
-        <v>3</v>
+      <c r="H501" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>03:10 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>9-Month Letras Auction</t>
+          <t>Machine Tool Orders YoYDEC</t>
         </is>
       </c>
       <c r="D502" t="inlineStr"/>
-      <c r="E502" t="inlineStr"/>
+      <c r="E502" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="F502" t="inlineStr"/>
       <c r="G502" t="inlineStr"/>
-      <c r="H502" t="n">
-        <v>3</v>
+      <c r="H502" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>20-Year Index-Linked Treasury Gilt Auction</t>
+          <t>WPI Inflation YoYDEC</t>
         </is>
       </c>
       <c r="D503" t="inlineStr"/>
       <c r="E503" t="inlineStr">
         <is>
-          <t>1.200%</t>
+          <t>1.89%</t>
         </is>
       </c>
       <c r="F503" t="inlineStr"/>
-      <c r="G503" t="inlineStr"/>
-      <c r="H503" t="n">
-        <v>3</v>
+      <c r="G503" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
+      <c r="H503" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
@@ -16984,663 +17124,783 @@
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>5-Year Bobl Auction</t>
+          <t>Wholesale Prices MoMDEC</t>
         </is>
       </c>
       <c r="D504" t="inlineStr"/>
       <c r="E504" t="inlineStr">
         <is>
-          <t>2.04%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F504" t="inlineStr"/>
-      <c r="G504" t="inlineStr"/>
-      <c r="H504" t="n">
-        <v>3</v>
+      <c r="G504" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H504" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>NFIB Business Optimism IndexDEC</t>
+          <t>Wholesale Prices YoYDEC</t>
         </is>
       </c>
       <c r="D505" t="inlineStr"/>
       <c r="E505" t="inlineStr">
         <is>
-          <t>101.7</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F505" t="inlineStr"/>
       <c r="G505" t="inlineStr">
         <is>
-          <t>102</t>
-        </is>
-      </c>
-      <c r="H505" t="n">
-        <v>3</v>
+          <t>2.2%</t>
+        </is>
+      </c>
+      <c r="H505" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D506" t="inlineStr"/>
       <c r="E506" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F506" t="inlineStr"/>
       <c r="G506" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H506" t="n">
-        <v>1</v>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="H506" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>Core PPI MoMDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D507" t="inlineStr"/>
       <c r="E507" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="F507" t="inlineStr"/>
-      <c r="G507" t="inlineStr"/>
-      <c r="H507" t="n">
-        <v>2</v>
+      <c r="G507" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="H507" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>Core PPI YoYDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D508" t="inlineStr"/>
       <c r="E508" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F508" t="inlineStr"/>
       <c r="G508" t="inlineStr">
         <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="H508" t="n">
-        <v>3</v>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="H508" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>PPIDEC</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D509" t="inlineStr"/>
       <c r="E509" t="inlineStr">
         <is>
-          <t>146.493</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="F509" t="inlineStr"/>
       <c r="G509" t="inlineStr">
         <is>
-          <t>146.4</t>
-        </is>
-      </c>
-      <c r="H509" t="n">
-        <v>3</v>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="H509" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade MoMDEC</t>
+          <t>PPI Core Output MoMDEC</t>
         </is>
       </c>
       <c r="D510" t="inlineStr"/>
       <c r="E510" t="inlineStr">
         <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F510" t="inlineStr"/>
+      <c r="G510" t="inlineStr">
+        <is>
           <t>0.1%</t>
         </is>
       </c>
-      <c r="F510" t="inlineStr"/>
-      <c r="G510" t="inlineStr"/>
-      <c r="H510" t="n">
-        <v>3</v>
+      <c r="H510" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade YoYDEC</t>
+          <t>PPI Core Output YoYDEC</t>
         </is>
       </c>
       <c r="D511" t="inlineStr"/>
       <c r="E511" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F511" t="inlineStr"/>
-      <c r="G511" t="inlineStr"/>
-      <c r="H511" t="n">
-        <v>3</v>
+      <c r="G511" t="inlineStr">
+        <is>
+          <t>2.1%</t>
+        </is>
+      </c>
+      <c r="H511" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>PPI Input MoMDEC</t>
         </is>
       </c>
       <c r="D512" t="inlineStr"/>
       <c r="E512" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F512" t="inlineStr"/>
       <c r="G512" t="inlineStr">
         <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="H512" t="n">
-        <v>3</v>
+          <t>-1.3%</t>
+        </is>
+      </c>
+      <c r="H512" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>07:25 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/11</t>
+          <t>PPI Input YoYDEC</t>
         </is>
       </c>
       <c r="D513" t="inlineStr"/>
       <c r="E513" t="inlineStr">
         <is>
-          <t>6.8%</t>
+          <t>-1.9%</t>
         </is>
       </c>
       <c r="F513" t="inlineStr"/>
-      <c r="G513" t="inlineStr"/>
-      <c r="H513" t="n">
-        <v>3</v>
+      <c r="G513" t="inlineStr">
+        <is>
+          <t>-1%</t>
+        </is>
+      </c>
+      <c r="H513" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>08:35 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>RCM/TIPP Economic Optimism IndexJAN</t>
+          <t>PPI Output MoMDEC</t>
         </is>
       </c>
       <c r="D514" t="inlineStr"/>
       <c r="E514" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F514" t="inlineStr"/>
-      <c r="G514" t="inlineStr"/>
-      <c r="H514" t="n">
-        <v>3</v>
+      <c r="G514" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="H514" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="515">
-      <c r="A515" t="inlineStr"/>
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>12:30 PM</t>
+        </is>
+      </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>5-Year KTB Auction</t>
+          <t>PPI Output YoYDEC</t>
         </is>
       </c>
       <c r="D515" t="inlineStr"/>
       <c r="E515" t="inlineStr">
         <is>
-          <t>2.680%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F515" t="inlineStr"/>
-      <c r="G515" t="inlineStr"/>
-      <c r="H515" t="n">
-        <v>3</v>
+      <c r="G515" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="H515" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>Wednesday January 15 2025</t>
-        </is>
-      </c>
-      <c r="B516" t="inlineStr"/>
-      <c r="C516" t="inlineStr"/>
+          <t>12:30 PM</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>Retail Price Index MoMDEC</t>
+        </is>
+      </c>
       <c r="D516" t="inlineStr"/>
-      <c r="E516" t="inlineStr"/>
+      <c r="E516" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="F516" t="inlineStr"/>
       <c r="G516" t="inlineStr"/>
-      <c r="H516" t="inlineStr"/>
+      <c r="H516" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Retail Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D517" t="inlineStr"/>
       <c r="E517" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F517" t="inlineStr"/>
       <c r="G517" t="inlineStr">
         <is>
-          <t>2.0%</t>
-        </is>
-      </c>
-      <c r="H517" t="n">
-        <v>3</v>
+          <t>3.0%</t>
+        </is>
+      </c>
+      <c r="H517" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D518" t="inlineStr"/>
       <c r="E518" t="inlineStr">
         <is>
-          <t>166%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F518" t="inlineStr"/>
       <c r="G518" t="inlineStr">
         <is>
-          <t>116.0%</t>
-        </is>
-      </c>
-      <c r="H518" t="n">
-        <v>3</v>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="H518" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>Export Prices YoYDEC</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D519" t="inlineStr"/>
       <c r="E519" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F519" t="inlineStr"/>
       <c r="G519" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="H519" t="n">
-        <v>3</v>
+          <t>1.6%</t>
+        </is>
+      </c>
+      <c r="H519" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Harmonised Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D520" t="inlineStr"/>
       <c r="E520" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="F520" t="inlineStr"/>
       <c r="G520" t="inlineStr">
         <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="H520" t="n">
-        <v>3</v>
+          <t>1.8%</t>
+        </is>
+      </c>
+      <c r="H520" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/10</t>
+          <t>Harmonised Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D521" t="inlineStr"/>
-      <c r="E521" t="inlineStr"/>
+      <c r="E521" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="F521" t="inlineStr"/>
-      <c r="G521" t="inlineStr"/>
-      <c r="H521" t="n">
-        <v>2</v>
+      <c r="G521" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="H521" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Harmonised Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D522" t="inlineStr"/>
       <c r="E522" t="inlineStr">
         <is>
-          <t>$4.42B</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F522" t="inlineStr"/>
-      <c r="G522" t="inlineStr">
-        <is>
-          <t>$ 2.8B</t>
-        </is>
-      </c>
-      <c r="H522" t="n">
-        <v>2</v>
+      <c r="G522" t="inlineStr"/>
+      <c r="H522" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>Exports YoYDEC</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D523" t="inlineStr"/>
       <c r="E523" t="inlineStr">
         <is>
-          <t>9.14%</t>
-        </is>
-      </c>
-      <c r="F523" t="inlineStr"/>
-      <c r="G523" t="inlineStr"/>
-      <c r="H523" t="n">
-        <v>3</v>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="F523" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G523" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="H523" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>Imports YoYDEC</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D524" t="inlineStr"/>
       <c r="E524" t="inlineStr">
         <is>
-          <t>0.01%</t>
-        </is>
-      </c>
-      <c r="F524" t="inlineStr"/>
-      <c r="G524" t="inlineStr"/>
-      <c r="H524" t="n">
-        <v>3</v>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="F524" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="G524" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="H524" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>Machine Tool Orders YoYDEC</t>
+          <t>Core Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D525" t="inlineStr"/>
       <c r="E525" t="inlineStr">
         <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="F525" t="inlineStr"/>
-      <c r="G525" t="inlineStr"/>
-      <c r="H525" t="n">
-        <v>3</v>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="F525" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="G525" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="H525" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>WPI Inflation YoYDEC</t>
+          <t>Harmonised Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D526" t="inlineStr"/>
       <c r="E526" t="inlineStr">
         <is>
-          <t>1.89%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F526" t="inlineStr"/>
       <c r="G526" t="inlineStr">
         <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="H526" t="n">
-        <v>3</v>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H526" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
@@ -17650,93 +17910,91 @@
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>Wholesale Prices MoMDEC</t>
+          <t>Full Year GDP Growth2025</t>
         </is>
       </c>
       <c r="D527" t="inlineStr"/>
       <c r="E527" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F527" t="inlineStr"/>
       <c r="G527" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H527" t="n">
-        <v>2</v>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="H527" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>Wholesale Prices YoYDEC</t>
+          <t>Industrial Production MoMNOV</t>
         </is>
       </c>
       <c r="D528" t="inlineStr"/>
       <c r="E528" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F528" t="inlineStr"/>
-      <c r="G528" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="H528" t="n">
-        <v>2</v>
+      <c r="G528" t="inlineStr"/>
+      <c r="H528" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Industrial Production YoYNOV</t>
         </is>
       </c>
       <c r="D529" t="inlineStr"/>
       <c r="E529" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>-1.2%</t>
         </is>
       </c>
       <c r="F529" t="inlineStr"/>
-      <c r="G529" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="H529" t="n">
-        <v>1</v>
+      <c r="G529" t="inlineStr"/>
+      <c r="H529" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
@@ -17746,841 +18004,803 @@
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>10-Year Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D530" t="inlineStr"/>
       <c r="E530" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>4.332%</t>
         </is>
       </c>
       <c r="F530" t="inlineStr"/>
-      <c r="G530" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="H530" t="n">
-        <v>2</v>
+      <c r="G530" t="inlineStr"/>
+      <c r="H530" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>30-Year Bund Auction</t>
         </is>
       </c>
       <c r="D531" t="inlineStr"/>
       <c r="E531" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>2.55%</t>
         </is>
       </c>
       <c r="F531" t="inlineStr"/>
-      <c r="G531" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H531" t="n">
-        <v>2</v>
+      <c r="G531" t="inlineStr"/>
+      <c r="H531" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>Gross Fixed Investment MoMOCT</t>
         </is>
       </c>
       <c r="D532" t="inlineStr"/>
       <c r="E532" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>-0.8%</t>
         </is>
       </c>
       <c r="F532" t="inlineStr"/>
-      <c r="G532" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H532" t="n">
-        <v>3</v>
+      <c r="G532" t="inlineStr"/>
+      <c r="H532" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>PPI Core Output MoMDEC</t>
+          <t>Gross Fixed Investment YoYOCT</t>
         </is>
       </c>
       <c r="D533" t="inlineStr"/>
       <c r="E533" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>-3.3%</t>
         </is>
       </c>
       <c r="F533" t="inlineStr"/>
-      <c r="G533" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H533" t="n">
-        <v>3</v>
+      <c r="G533" t="inlineStr"/>
+      <c r="H533" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>PPI Core Output YoYDEC</t>
+          <t>MBA 30-Year Mortgage RateJAN/10</t>
         </is>
       </c>
       <c r="D534" t="inlineStr"/>
-      <c r="E534" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="E534" t="inlineStr"/>
       <c r="F534" t="inlineStr"/>
-      <c r="G534" t="inlineStr">
-        <is>
-          <t>2.1%</t>
-        </is>
-      </c>
-      <c r="H534" t="n">
-        <v>3</v>
+      <c r="G534" t="inlineStr"/>
+      <c r="H534" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>PPI Input MoMDEC</t>
+          <t>MBA Mortgage ApplicationsJAN/10</t>
         </is>
       </c>
       <c r="D535" t="inlineStr"/>
-      <c r="E535" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="E535" t="inlineStr"/>
       <c r="F535" t="inlineStr"/>
-      <c r="G535" t="inlineStr">
-        <is>
-          <t>-1.3%</t>
-        </is>
-      </c>
-      <c r="H535" t="n">
-        <v>3</v>
+      <c r="G535" t="inlineStr"/>
+      <c r="H535" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>PPI Input YoYDEC</t>
+          <t>MBA Mortgage Market IndexJAN/10</t>
         </is>
       </c>
       <c r="D536" t="inlineStr"/>
-      <c r="E536" t="inlineStr">
-        <is>
-          <t>-1.9%</t>
-        </is>
-      </c>
+      <c r="E536" t="inlineStr"/>
       <c r="F536" t="inlineStr"/>
-      <c r="G536" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
-      <c r="H536" t="n">
-        <v>3</v>
+      <c r="G536" t="inlineStr"/>
+      <c r="H536" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>PPI Output MoMDEC</t>
+          <t>MBA Mortgage Refinance IndexJAN/10</t>
         </is>
       </c>
       <c r="D537" t="inlineStr"/>
-      <c r="E537" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="E537" t="inlineStr"/>
       <c r="F537" t="inlineStr"/>
-      <c r="G537" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H537" t="n">
-        <v>3</v>
+      <c r="G537" t="inlineStr"/>
+      <c r="H537" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>PPI Output YoYDEC</t>
+          <t>MBA Purchase IndexJAN/10</t>
         </is>
       </c>
       <c r="D538" t="inlineStr"/>
-      <c r="E538" t="inlineStr">
-        <is>
-          <t>-0.6%</t>
-        </is>
-      </c>
+      <c r="E538" t="inlineStr"/>
       <c r="F538" t="inlineStr"/>
-      <c r="G538" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="H538" t="n">
-        <v>3</v>
+      <c r="G538" t="inlineStr"/>
+      <c r="H538" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>Retail Price Index MoMDEC</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D539" t="inlineStr"/>
       <c r="E539" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>$616.5B</t>
         </is>
       </c>
       <c r="F539" t="inlineStr"/>
-      <c r="G539" t="inlineStr"/>
-      <c r="H539" t="n">
-        <v>3</v>
+      <c r="G539" t="inlineStr">
+        <is>
+          <t>$628.0B</t>
+        </is>
+      </c>
+      <c r="H539" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>Retail Price Index YoYDEC</t>
+          <t>Manufacturing Sales MoM FinalNOV</t>
         </is>
       </c>
       <c r="D540" t="inlineStr"/>
       <c r="E540" t="inlineStr">
         <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="F540" t="inlineStr"/>
+          <t>2.1%</t>
+        </is>
+      </c>
+      <c r="F540" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="G540" t="inlineStr">
         <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="H540" t="n">
-        <v>3</v>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="H540" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FinalDEC</t>
+          <t>New Motor Vehicle SalesNOV</t>
         </is>
       </c>
       <c r="D541" t="inlineStr"/>
       <c r="E541" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>163.6K</t>
         </is>
       </c>
       <c r="F541" t="inlineStr"/>
-      <c r="G541" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H541" t="n">
-        <v>2</v>
+      <c r="G541" t="inlineStr"/>
+      <c r="H541" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Wholesale Sales MoM FinalNOV</t>
         </is>
       </c>
       <c r="D542" t="inlineStr"/>
       <c r="E542" t="inlineStr">
         <is>
-          <t>1.3%</t>
-        </is>
-      </c>
-      <c r="F542" t="inlineStr"/>
+          <t>1%</t>
+        </is>
+      </c>
+      <c r="F542" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="G542" t="inlineStr">
         <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="H542" t="n">
-        <v>2</v>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="H542" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY FinalDEC</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D543" t="inlineStr"/>
       <c r="E543" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F543" t="inlineStr"/>
       <c r="G543" t="inlineStr">
         <is>
-          <t>1.8%</t>
-        </is>
-      </c>
-      <c r="H543" t="n">
-        <v>3</v>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="H543" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM FinalDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D544" t="inlineStr"/>
       <c r="E544" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F544" t="inlineStr"/>
       <c r="G544" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H544" t="n">
-        <v>3</v>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="H544" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY FinalDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D545" t="inlineStr"/>
       <c r="E545" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F545" t="inlineStr"/>
-      <c r="G545" t="inlineStr"/>
-      <c r="H545" t="n">
-        <v>3</v>
+      <c r="G545" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="H545" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FinalDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D546" t="inlineStr"/>
       <c r="E546" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F546" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="F546" t="inlineStr"/>
       <c r="G546" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H546" t="n">
-        <v>3</v>
+          <t>2.3%</t>
+        </is>
+      </c>
+      <c r="H546" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>CPIDEC</t>
         </is>
       </c>
       <c r="D547" t="inlineStr"/>
       <c r="E547" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F547" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+          <t>315.49</t>
+        </is>
+      </c>
+      <c r="F547" t="inlineStr"/>
       <c r="G547" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="H547" t="n">
-        <v>3</v>
+          <t>313.8</t>
+        </is>
+      </c>
+      <c r="H547" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FinalDEC</t>
+          <t>CPI s.aDEC</t>
         </is>
       </c>
       <c r="D548" t="inlineStr"/>
       <c r="E548" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F548" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+          <t>316.441</t>
+        </is>
+      </c>
+      <c r="F548" t="inlineStr"/>
       <c r="G548" t="inlineStr">
         <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="H548" t="n">
-        <v>3</v>
+          <t>317.4</t>
+        </is>
+      </c>
+      <c r="H548" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM FinalDEC</t>
+          <t>NY Empire State Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D549" t="inlineStr"/>
       <c r="E549" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="F549" t="inlineStr"/>
-      <c r="G549" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H549" t="n">
-        <v>3</v>
+      <c r="G549" t="inlineStr"/>
+      <c r="H549" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>Full Year GDP Growth2025</t>
+          <t>EIA Crude Oil Stocks ChangeJAN/10</t>
         </is>
       </c>
       <c r="D550" t="inlineStr"/>
-      <c r="E550" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
+      <c r="E550" t="inlineStr"/>
       <c r="F550" t="inlineStr"/>
-      <c r="G550" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="H550" t="n">
-        <v>1</v>
+      <c r="G550" t="inlineStr"/>
+      <c r="H550" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>Industrial Production MoMNOV</t>
+          <t>EIA Gasoline Stocks ChangeJAN/10</t>
         </is>
       </c>
       <c r="D551" t="inlineStr"/>
-      <c r="E551" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="E551" t="inlineStr"/>
       <c r="F551" t="inlineStr"/>
       <c r="G551" t="inlineStr"/>
-      <c r="H551" t="n">
-        <v>2</v>
+      <c r="H551" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>EIA Crude Oil Imports ChangeJAN/10</t>
         </is>
       </c>
       <c r="D552" t="inlineStr"/>
-      <c r="E552" t="inlineStr">
-        <is>
-          <t>-1.2%</t>
-        </is>
-      </c>
+      <c r="E552" t="inlineStr"/>
       <c r="F552" t="inlineStr"/>
       <c r="G552" t="inlineStr"/>
-      <c r="H552" t="n">
-        <v>3</v>
+      <c r="H552" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>10-Year Treasury Gilt Auction</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/10</t>
         </is>
       </c>
       <c r="D553" t="inlineStr"/>
-      <c r="E553" t="inlineStr">
-        <is>
-          <t>4.332%</t>
-        </is>
-      </c>
+      <c r="E553" t="inlineStr"/>
       <c r="F553" t="inlineStr"/>
       <c r="G553" t="inlineStr"/>
-      <c r="H553" t="n">
-        <v>3</v>
+      <c r="H553" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>30-Year Bund Auction</t>
+          <t>EIA Distillate Fuel Production ChangeJAN/10</t>
         </is>
       </c>
       <c r="D554" t="inlineStr"/>
-      <c r="E554" t="inlineStr">
-        <is>
-          <t>2.55%</t>
-        </is>
-      </c>
+      <c r="E554" t="inlineStr"/>
       <c r="F554" t="inlineStr"/>
       <c r="G554" t="inlineStr"/>
-      <c r="H554" t="n">
-        <v>3</v>
+      <c r="H554" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>Gross Fixed Investment MoMOCT</t>
+          <t>EIA Distillate Stocks ChangeJAN/10</t>
         </is>
       </c>
       <c r="D555" t="inlineStr"/>
-      <c r="E555" t="inlineStr">
-        <is>
-          <t>-0.8%</t>
-        </is>
-      </c>
+      <c r="E555" t="inlineStr"/>
       <c r="F555" t="inlineStr"/>
       <c r="G555" t="inlineStr"/>
-      <c r="H555" t="n">
-        <v>3</v>
+      <c r="H555" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>Gross Fixed Investment YoYOCT</t>
+          <t>EIA Gasoline Production ChangeJAN/10</t>
         </is>
       </c>
       <c r="D556" t="inlineStr"/>
-      <c r="E556" t="inlineStr">
-        <is>
-          <t>-3.3%</t>
-        </is>
-      </c>
+      <c r="E556" t="inlineStr"/>
       <c r="F556" t="inlineStr"/>
       <c r="G556" t="inlineStr"/>
-      <c r="H556" t="n">
-        <v>3</v>
+      <c r="H556" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
@@ -18590,21 +18810,23 @@
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJAN/10</t>
+          <t>EIA Heating Oil Stocks ChangeJAN/10</t>
         </is>
       </c>
       <c r="D557" t="inlineStr"/>
       <c r="E557" t="inlineStr"/>
       <c r="F557" t="inlineStr"/>
       <c r="G557" t="inlineStr"/>
-      <c r="H557" t="n">
-        <v>2</v>
+      <c r="H557" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B558" t="inlineStr">
@@ -18614,69 +18836,91 @@
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJAN/10</t>
+          <t>EIA Refinery Crude Runs ChangeJAN/10</t>
         </is>
       </c>
       <c r="D558" t="inlineStr"/>
       <c r="E558" t="inlineStr"/>
       <c r="F558" t="inlineStr"/>
       <c r="G558" t="inlineStr"/>
-      <c r="H558" t="n">
-        <v>3</v>
+      <c r="H558" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJAN/10</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D559" t="inlineStr"/>
-      <c r="E559" t="inlineStr"/>
+      <c r="E559" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="F559" t="inlineStr"/>
-      <c r="G559" t="inlineStr"/>
-      <c r="H559" t="n">
-        <v>3</v>
+      <c r="G559" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
+      <c r="H559" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJAN/10</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D560" t="inlineStr"/>
-      <c r="E560" t="inlineStr"/>
+      <c r="E560" t="inlineStr">
+        <is>
+          <t>8.9%</t>
+        </is>
+      </c>
       <c r="F560" t="inlineStr"/>
-      <c r="G560" t="inlineStr"/>
-      <c r="H560" t="n">
-        <v>3</v>
+      <c r="G560" t="inlineStr">
+        <is>
+          <t>9.5%</t>
+        </is>
+      </c>
+      <c r="H560" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B561" t="inlineStr">
@@ -18686,53 +18930,57 @@
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJAN/10</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="D561" t="inlineStr"/>
       <c r="E561" t="inlineStr"/>
       <c r="F561" t="inlineStr"/>
       <c r="G561" t="inlineStr"/>
-      <c r="H561" t="n">
-        <v>3</v>
+      <c r="H561" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D562" t="inlineStr"/>
       <c r="E562" t="inlineStr">
         <is>
-          <t>$616.5B</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="F562" t="inlineStr"/>
       <c r="G562" t="inlineStr">
         <is>
-          <t>$628.0B</t>
-        </is>
-      </c>
-      <c r="H562" t="n">
-        <v>3</v>
+          <t>49.8</t>
+        </is>
+      </c>
+      <c r="H562" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B563" t="inlineStr">
@@ -18742,1019 +18990,1139 @@
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>Manufacturing Sales MoM FinalNOV</t>
+          <t>5-Year Bond Auction</t>
         </is>
       </c>
       <c r="D563" t="inlineStr"/>
       <c r="E563" t="inlineStr">
         <is>
-          <t>2.1%</t>
-        </is>
-      </c>
-      <c r="F563" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G563" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H563" t="n">
-        <v>3</v>
+          <t>3.146%</t>
+        </is>
+      </c>
+      <c r="F563" t="inlineStr"/>
+      <c r="G563" t="inlineStr"/>
+      <c r="H563" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="564">
-      <c r="A564" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A564" t="inlineStr"/>
       <c r="B564" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>New Motor Vehicle SalesNOV</t>
+          <t>Passenger Vehicles Sales YoYDEC</t>
         </is>
       </c>
       <c r="D564" t="inlineStr"/>
       <c r="E564" t="inlineStr">
         <is>
-          <t>163.6K</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F564" t="inlineStr"/>
       <c r="G564" t="inlineStr"/>
-      <c r="H564" t="n">
-        <v>3</v>
+      <c r="H564" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="565">
-      <c r="A565" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A565" t="inlineStr"/>
       <c r="B565" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>Wholesale Sales MoM FinalNOV</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D565" t="inlineStr"/>
       <c r="E565" t="inlineStr">
         <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="F565" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F565" t="inlineStr"/>
       <c r="G565" t="inlineStr">
         <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="H565" t="n">
-        <v>3</v>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="H565" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="566">
-      <c r="A566" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A566" t="inlineStr"/>
       <c r="B566" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D566" t="inlineStr"/>
       <c r="E566" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="F566" t="inlineStr"/>
       <c r="G566" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="H566" t="n">
-        <v>1</v>
+          <t>2%</t>
+        </is>
+      </c>
+      <c r="H566" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="567">
-      <c r="A567" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A567" t="inlineStr"/>
       <c r="B567" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>Wholesale Prices YoYDEC</t>
         </is>
       </c>
       <c r="D567" t="inlineStr"/>
       <c r="E567" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F567" t="inlineStr"/>
       <c r="G567" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="H567" t="n">
-        <v>1</v>
+          <t>1.0%</t>
+        </is>
+      </c>
+      <c r="H567" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="568">
-      <c r="A568" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A568" t="inlineStr"/>
       <c r="B568" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D568" t="inlineStr"/>
-      <c r="E568" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="E568" t="inlineStr"/>
       <c r="F568" t="inlineStr"/>
-      <c r="G568" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H568" t="n">
-        <v>1</v>
+      <c r="G568" t="inlineStr"/>
+      <c r="H568" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="569">
-      <c r="A569" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A569" t="inlineStr"/>
       <c r="B569" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>OP</t>
         </is>
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>OPEC Monthly Report</t>
         </is>
       </c>
       <c r="D569" t="inlineStr"/>
-      <c r="E569" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E569" t="inlineStr"/>
       <c r="F569" t="inlineStr"/>
-      <c r="G569" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="H569" t="n">
-        <v>1</v>
+      <c r="G569" t="inlineStr"/>
+      <c r="H569" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="570">
-      <c r="A570" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A570" t="inlineStr"/>
       <c r="B570" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>CPIDEC</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D570" t="inlineStr"/>
       <c r="E570" t="inlineStr">
         <is>
-          <t>315.49</t>
+          <t>$-37.84B</t>
         </is>
       </c>
       <c r="F570" t="inlineStr"/>
       <c r="G570" t="inlineStr">
         <is>
-          <t>313.8</t>
-        </is>
-      </c>
-      <c r="H570" t="n">
-        <v>2</v>
+          <t>$ -23B</t>
+        </is>
+      </c>
+      <c r="H570" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="571">
-      <c r="A571" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A571" t="inlineStr"/>
       <c r="B571" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>CPI s.aDEC</t>
+          <t>ExportsDEC</t>
         </is>
       </c>
       <c r="D571" t="inlineStr"/>
       <c r="E571" t="inlineStr">
         <is>
-          <t>316.441</t>
+          <t>$32.11B</t>
         </is>
       </c>
       <c r="F571" t="inlineStr"/>
       <c r="G571" t="inlineStr">
         <is>
-          <t>317.4</t>
-        </is>
-      </c>
-      <c r="H571" t="n">
-        <v>2</v>
+          <t>$ 36B</t>
+        </is>
+      </c>
+      <c r="H571" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="572">
-      <c r="A572" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A572" t="inlineStr"/>
       <c r="B572" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>NY Empire State Manufacturing IndexJAN</t>
+          <t>ImportsDEC</t>
         </is>
       </c>
       <c r="D572" t="inlineStr"/>
       <c r="E572" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>$69.95B</t>
         </is>
       </c>
       <c r="F572" t="inlineStr"/>
-      <c r="G572" t="inlineStr"/>
-      <c r="H572" t="n">
-        <v>2</v>
+      <c r="G572" t="inlineStr">
+        <is>
+          <t>$ 59B</t>
+        </is>
+      </c>
+      <c r="H572" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B573" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C573" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/10</t>
-        </is>
-      </c>
+          <t>Thursday January 16 2025</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr"/>
+      <c r="C573" t="inlineStr"/>
       <c r="D573" t="inlineStr"/>
       <c r="E573" t="inlineStr"/>
       <c r="F573" t="inlineStr"/>
       <c r="G573" t="inlineStr"/>
-      <c r="H573" t="n">
-        <v>2</v>
-      </c>
+      <c r="H573" t="inlineStr"/>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeJAN/10</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D574" t="inlineStr"/>
-      <c r="E574" t="inlineStr"/>
+      <c r="E574" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="F574" t="inlineStr"/>
-      <c r="G574" t="inlineStr"/>
-      <c r="H574" t="n">
-        <v>2</v>
+      <c r="G574" t="inlineStr">
+        <is>
+          <t>3.30%</t>
+        </is>
+      </c>
+      <c r="H574" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeJAN/10</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D575" t="inlineStr"/>
-      <c r="E575" t="inlineStr"/>
+      <c r="E575" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="F575" t="inlineStr"/>
       <c r="G575" t="inlineStr"/>
-      <c r="H575" t="n">
-        <v>3</v>
+      <c r="H575" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/10</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D576" t="inlineStr"/>
-      <c r="E576" t="inlineStr"/>
+      <c r="E576" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
       <c r="F576" t="inlineStr"/>
-      <c r="G576" t="inlineStr"/>
-      <c r="H576" t="n">
-        <v>3</v>
+      <c r="G576" t="inlineStr">
+        <is>
+          <t>3.6%</t>
+        </is>
+      </c>
+      <c r="H576" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>05:31 AM</t>
         </is>
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/10</t>
+          <t>RICS House Price BalanceDEC</t>
         </is>
       </c>
       <c r="D577" t="inlineStr"/>
-      <c r="E577" t="inlineStr"/>
+      <c r="E577" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
+      </c>
       <c r="F577" t="inlineStr"/>
-      <c r="G577" t="inlineStr"/>
-      <c r="H577" t="n">
-        <v>3</v>
+      <c r="G577" t="inlineStr">
+        <is>
+          <t>17.0%</t>
+        </is>
+      </c>
+      <c r="H577" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeJAN/10</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D578" t="inlineStr"/>
-      <c r="E578" t="inlineStr"/>
+      <c r="E578" t="inlineStr">
+        <is>
+          <t>3.9%</t>
+        </is>
+      </c>
       <c r="F578" t="inlineStr"/>
-      <c r="G578" t="inlineStr"/>
-      <c r="H578" t="n">
-        <v>3</v>
+      <c r="G578" t="inlineStr">
+        <is>
+          <t>4.30%</t>
+        </is>
+      </c>
+      <c r="H578" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeJAN/10</t>
+          <t>Employment ChangeDEC</t>
         </is>
       </c>
       <c r="D579" t="inlineStr"/>
-      <c r="E579" t="inlineStr"/>
+      <c r="E579" t="inlineStr">
+        <is>
+          <t>35.6K</t>
+        </is>
+      </c>
       <c r="F579" t="inlineStr"/>
-      <c r="G579" t="inlineStr"/>
-      <c r="H579" t="n">
-        <v>3</v>
+      <c r="G579" t="inlineStr">
+        <is>
+          <t>25.1K</t>
+        </is>
+      </c>
+      <c r="H579" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C580" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/10</t>
+          <t>Full Time Employment ChgDEC</t>
         </is>
       </c>
       <c r="D580" t="inlineStr"/>
-      <c r="E580" t="inlineStr"/>
+      <c r="E580" t="inlineStr">
+        <is>
+          <t>52.6K</t>
+        </is>
+      </c>
       <c r="F580" t="inlineStr"/>
       <c r="G580" t="inlineStr"/>
-      <c r="H580" t="n">
-        <v>3</v>
+      <c r="H580" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/10</t>
+          <t>Part Time Employment ChgDEC</t>
         </is>
       </c>
       <c r="D581" t="inlineStr"/>
-      <c r="E581" t="inlineStr"/>
+      <c r="E581" t="inlineStr">
+        <is>
+          <t>-17.0K</t>
+        </is>
+      </c>
       <c r="F581" t="inlineStr"/>
       <c r="G581" t="inlineStr"/>
-      <c r="H581" t="n">
-        <v>3</v>
+      <c r="H581" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Participation RateDEC</t>
         </is>
       </c>
       <c r="D582" t="inlineStr"/>
       <c r="E582" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="F582" t="inlineStr"/>
       <c r="G582" t="inlineStr">
         <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="H582" t="n">
-        <v>2</v>
+          <t>66.8%</t>
+        </is>
+      </c>
+      <c r="H582" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Interest Rate Decision</t>
         </is>
       </c>
       <c r="D583" t="inlineStr"/>
       <c r="E583" t="inlineStr">
         <is>
-          <t>8.9%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="F583" t="inlineStr"/>
-      <c r="G583" t="inlineStr">
-        <is>
-          <t>9.5%</t>
-        </is>
-      </c>
-      <c r="H583" t="n">
-        <v>2</v>
+      <c r="G583" t="inlineStr"/>
+      <c r="H583" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>20-Year JGB Auction</t>
         </is>
       </c>
       <c r="D584" t="inlineStr"/>
-      <c r="E584" t="inlineStr"/>
+      <c r="E584" t="inlineStr">
+        <is>
+          <t>1.879%</t>
+        </is>
+      </c>
       <c r="F584" t="inlineStr"/>
       <c r="G584" t="inlineStr"/>
-      <c r="H584" t="n">
-        <v>3</v>
+      <c r="H584" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>52-Week Bill Auction</t>
         </is>
       </c>
       <c r="D585" t="inlineStr"/>
       <c r="E585" t="inlineStr">
         <is>
-          <t>50.1</t>
+          <t>0.4796%</t>
         </is>
       </c>
       <c r="F585" t="inlineStr"/>
-      <c r="G585" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
-      <c r="H585" t="n">
-        <v>2</v>
+      <c r="G585" t="inlineStr"/>
+      <c r="H585" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>5-Year Bond Auction</t>
+          <t>6-Month T-Bill Auction</t>
         </is>
       </c>
       <c r="D586" t="inlineStr"/>
       <c r="E586" t="inlineStr">
         <is>
-          <t>3.146%</t>
+          <t>3.02%</t>
         </is>
       </c>
       <c r="F586" t="inlineStr"/>
       <c r="G586" t="inlineStr"/>
-      <c r="H586" t="n">
-        <v>3</v>
+      <c r="H586" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="587">
-      <c r="A587" t="inlineStr"/>
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>12:30 PM</t>
+        </is>
+      </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>Passenger Vehicles Sales YoYDEC</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D587" t="inlineStr"/>
       <c r="E587" t="inlineStr">
         <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="F587" t="inlineStr"/>
-      <c r="G587" t="inlineStr"/>
-      <c r="H587" t="n">
-        <v>3</v>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="F587" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G587" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="H587" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="588">
-      <c r="A588" t="inlineStr"/>
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>12:30 PM</t>
+        </is>
+      </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D588" t="inlineStr"/>
       <c r="E588" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="F588" t="inlineStr"/>
       <c r="G588" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H588" t="n">
-        <v>3</v>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="H588" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="589">
-      <c r="A589" t="inlineStr"/>
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>12:30 PM</t>
+        </is>
+      </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Harmonised Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D589" t="inlineStr"/>
       <c r="E589" t="inlineStr">
         <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="F589" t="inlineStr"/>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="F589" t="inlineStr">
+        <is>
+          <t>2.9%</t>
+        </is>
+      </c>
       <c r="G589" t="inlineStr">
         <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="H589" t="n">
-        <v>3</v>
+          <t>2.9%</t>
+        </is>
+      </c>
+      <c r="H589" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="590">
-      <c r="A590" t="inlineStr"/>
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>12:30 PM</t>
+        </is>
+      </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>Wholesale Prices YoYDEC</t>
+          <t>Harmonised Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D590" t="inlineStr"/>
       <c r="E590" t="inlineStr">
         <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="F590" t="inlineStr"/>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="F590" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="G590" t="inlineStr">
         <is>
-          <t>1.0%</t>
-        </is>
-      </c>
-      <c r="H590" t="n">
-        <v>3</v>
+          <t>0.7%</t>
+        </is>
+      </c>
+      <c r="H590" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="591">
-      <c r="A591" t="inlineStr"/>
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>12:30 PM</t>
+        </is>
+      </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
         <is>
-          <t>Budget BalanceDEC</t>
+          <t>GDP MoMNOV</t>
         </is>
       </c>
       <c r="D591" t="inlineStr"/>
-      <c r="E591" t="inlineStr"/>
+      <c r="E591" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="F591" t="inlineStr"/>
-      <c r="G591" t="inlineStr"/>
-      <c r="H591" t="n">
-        <v>3</v>
+      <c r="G591" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="H591" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="592">
-      <c r="A592" t="inlineStr"/>
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>12:30 PM</t>
+        </is>
+      </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>OP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>OPEC Monthly Report</t>
+          <t>GDP YoYNOV</t>
         </is>
       </c>
       <c r="D592" t="inlineStr"/>
-      <c r="E592" t="inlineStr"/>
+      <c r="E592" t="inlineStr">
+        <is>
+          <t>1.3%</t>
+        </is>
+      </c>
       <c r="F592" t="inlineStr"/>
-      <c r="G592" t="inlineStr"/>
-      <c r="H592" t="n">
-        <v>3</v>
+      <c r="G592" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="H592" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="593">
-      <c r="A593" t="inlineStr"/>
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>12:30 PM</t>
+        </is>
+      </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>GDP 3-Month AvgNOV</t>
         </is>
       </c>
       <c r="D593" t="inlineStr"/>
       <c r="E593" t="inlineStr">
         <is>
-          <t>$-37.84B</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F593" t="inlineStr"/>
       <c r="G593" t="inlineStr">
         <is>
-          <t>$ -23B</t>
-        </is>
-      </c>
-      <c r="H593" t="n">
-        <v>3</v>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H593" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="594">
-      <c r="A594" t="inlineStr"/>
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>12:30 PM</t>
+        </is>
+      </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>ExportsDEC</t>
+          <t>Goods Trade BalanceNOV</t>
         </is>
       </c>
       <c r="D594" t="inlineStr"/>
       <c r="E594" t="inlineStr">
         <is>
-          <t>$32.11B</t>
+          <t>£-18.97B</t>
         </is>
       </c>
       <c r="F594" t="inlineStr"/>
-      <c r="G594" t="inlineStr">
-        <is>
-          <t>$ 36B</t>
-        </is>
-      </c>
-      <c r="H594" t="n">
-        <v>3</v>
+      <c r="G594" t="inlineStr"/>
+      <c r="H594" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="595">
-      <c r="A595" t="inlineStr"/>
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>12:30 PM</t>
+        </is>
+      </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>ImportsDEC</t>
+          <t>Goods Trade Balance Non-EUNOV</t>
         </is>
       </c>
       <c r="D595" t="inlineStr"/>
       <c r="E595" t="inlineStr">
         <is>
-          <t>$69.95B</t>
+          <t>£-7.28B</t>
         </is>
       </c>
       <c r="F595" t="inlineStr"/>
-      <c r="G595" t="inlineStr">
-        <is>
-          <t>$ 59B</t>
-        </is>
-      </c>
-      <c r="H595" t="n">
-        <v>3</v>
+      <c r="G595" t="inlineStr"/>
+      <c r="H595" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>Thursday January 16 2025</t>
-        </is>
-      </c>
-      <c r="B596" t="inlineStr"/>
-      <c r="C596" t="inlineStr"/>
+          <t>12:30 PM</t>
+        </is>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="C596" t="inlineStr">
+        <is>
+          <t>Industrial Production MoMNOV</t>
+        </is>
+      </c>
       <c r="D596" t="inlineStr"/>
-      <c r="E596" t="inlineStr"/>
+      <c r="E596" t="inlineStr">
+        <is>
+          <t>-0.6%</t>
+        </is>
+      </c>
       <c r="F596" t="inlineStr"/>
       <c r="G596" t="inlineStr"/>
-      <c r="H596" t="inlineStr"/>
+      <c r="H596" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Manufacturing Production MoMNOV</t>
         </is>
       </c>
       <c r="D597" t="inlineStr"/>
       <c r="E597" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F597" t="inlineStr"/>
-      <c r="G597" t="inlineStr">
-        <is>
-          <t>3.30%</t>
-        </is>
-      </c>
-      <c r="H597" t="n">
-        <v>2</v>
+      <c r="G597" t="inlineStr"/>
+      <c r="H597" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D598" t="inlineStr"/>
       <c r="E598" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>£-3.72B</t>
         </is>
       </c>
       <c r="F598" t="inlineStr"/>
       <c r="G598" t="inlineStr"/>
-      <c r="H598" t="n">
-        <v>3</v>
+      <c r="H598" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C599" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D599" t="inlineStr"/>
       <c r="E599" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F599" t="inlineStr"/>
       <c r="G599" t="inlineStr">
         <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="H599" t="n">
-        <v>3</v>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="H599" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>05:31 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B600" t="inlineStr">
@@ -19764,1145 +20132,1161 @@
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t>RICS House Price BalanceDEC</t>
+          <t>Industrial Production YoYNOV</t>
         </is>
       </c>
       <c r="D600" t="inlineStr"/>
       <c r="E600" t="inlineStr">
         <is>
-          <t>25%</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F600" t="inlineStr"/>
-      <c r="G600" t="inlineStr">
-        <is>
-          <t>17.0%</t>
-        </is>
-      </c>
-      <c r="H600" t="n">
-        <v>2</v>
+      <c r="G600" t="inlineStr"/>
+      <c r="H600" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C601" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Manufacturing Production YoYNOV</t>
         </is>
       </c>
       <c r="D601" t="inlineStr"/>
       <c r="E601" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F601" t="inlineStr"/>
-      <c r="G601" t="inlineStr">
-        <is>
-          <t>4.30%</t>
-        </is>
-      </c>
-      <c r="H601" t="n">
-        <v>1</v>
+      <c r="G601" t="inlineStr"/>
+      <c r="H601" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C602" t="inlineStr">
         <is>
-          <t>Employment ChangeDEC</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D602" t="inlineStr"/>
       <c r="E602" t="inlineStr">
         <is>
-          <t>35.6K</t>
+          <t>€5.153B</t>
         </is>
       </c>
       <c r="F602" t="inlineStr"/>
-      <c r="G602" t="inlineStr">
-        <is>
-          <t>25.1K</t>
-        </is>
-      </c>
-      <c r="H602" t="n">
-        <v>2</v>
+      <c r="G602" t="inlineStr"/>
+      <c r="H602" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C603" t="inlineStr">
         <is>
-          <t>Full Time Employment ChgDEC</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D603" t="inlineStr"/>
       <c r="E603" t="inlineStr">
         <is>
-          <t>52.6K</t>
-        </is>
-      </c>
-      <c r="F603" t="inlineStr"/>
-      <c r="G603" t="inlineStr"/>
-      <c r="H603" t="n">
-        <v>2</v>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="F603" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="G603" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="H603" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C604" t="inlineStr">
         <is>
-          <t>Part Time Employment ChgDEC</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D604" t="inlineStr"/>
       <c r="E604" t="inlineStr">
         <is>
-          <t>-17.0K</t>
-        </is>
-      </c>
-      <c r="F604" t="inlineStr"/>
-      <c r="G604" t="inlineStr"/>
-      <c r="H604" t="n">
-        <v>3</v>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="F604" t="inlineStr">
+        <is>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="G604" t="inlineStr">
+        <is>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="H604" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C605" t="inlineStr">
         <is>
-          <t>Participation RateDEC</t>
+          <t>Harmonised Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D605" t="inlineStr"/>
       <c r="E605" t="inlineStr">
         <is>
-          <t>67%</t>
-        </is>
-      </c>
-      <c r="F605" t="inlineStr"/>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="F605" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="G605" t="inlineStr">
         <is>
-          <t>66.8%</t>
-        </is>
-      </c>
-      <c r="H605" t="n">
-        <v>3</v>
+          <t>1.4%</t>
+        </is>
+      </c>
+      <c r="H605" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C606" t="inlineStr">
         <is>
-          <t>Interest Rate Decision</t>
+          <t>Harmonised Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D606" t="inlineStr"/>
       <c r="E606" t="inlineStr">
         <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="F606" t="inlineStr"/>
-      <c r="G606" t="inlineStr"/>
-      <c r="H606" t="n">
-        <v>2</v>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="F606" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="G606" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="H606" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>03:10 PM</t>
         </is>
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C607" t="inlineStr">
         <is>
-          <t>20-Year JGB Auction</t>
+          <t>Bonos Auction</t>
         </is>
       </c>
       <c r="D607" t="inlineStr"/>
-      <c r="E607" t="inlineStr">
-        <is>
-          <t>1.879%</t>
-        </is>
-      </c>
+      <c r="E607" t="inlineStr"/>
       <c r="F607" t="inlineStr"/>
       <c r="G607" t="inlineStr"/>
-      <c r="H607" t="n">
-        <v>3</v>
+      <c r="H607" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>03:10 PM</t>
         </is>
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C608" t="inlineStr">
         <is>
-          <t>52-Week Bill Auction</t>
+          <t>Index-Linked Obligacion Auction</t>
         </is>
       </c>
       <c r="D608" t="inlineStr"/>
-      <c r="E608" t="inlineStr">
-        <is>
-          <t>0.4796%</t>
-        </is>
-      </c>
+      <c r="E608" t="inlineStr"/>
       <c r="F608" t="inlineStr"/>
       <c r="G608" t="inlineStr"/>
-      <c r="H608" t="n">
-        <v>3</v>
+      <c r="H608" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:10 PM</t>
         </is>
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C609" t="inlineStr">
         <is>
-          <t>6-Month T-Bill Auction</t>
+          <t>Obligacion Auction</t>
         </is>
       </c>
       <c r="D609" t="inlineStr"/>
-      <c r="E609" t="inlineStr">
-        <is>
-          <t>3.02%</t>
-        </is>
-      </c>
+      <c r="E609" t="inlineStr"/>
       <c r="F609" t="inlineStr"/>
       <c r="G609" t="inlineStr"/>
-      <c r="H609" t="n">
-        <v>3</v>
+      <c r="H609" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C610" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FinalDEC</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D610" t="inlineStr"/>
       <c r="E610" t="inlineStr">
         <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="F610" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G610" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H610" t="n">
-        <v>2</v>
+          <t>€6.8B</t>
+        </is>
+      </c>
+      <c r="F610" t="inlineStr"/>
+      <c r="G610" t="inlineStr"/>
+      <c r="H610" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C611" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Foreign Exchange ReservesJAN/10</t>
         </is>
       </c>
       <c r="D611" t="inlineStr"/>
-      <c r="E611" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
+      <c r="E611" t="inlineStr"/>
       <c r="F611" t="inlineStr"/>
-      <c r="G611" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="H611" t="n">
-        <v>2</v>
+      <c r="G611" t="inlineStr"/>
+      <c r="H611" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C612" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY FinalDEC</t>
+          <t>IBC-BR Economic ActivityNOV</t>
         </is>
       </c>
       <c r="D612" t="inlineStr"/>
       <c r="E612" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F612" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="G612" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="H612" t="n">
-        <v>3</v>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F612" t="inlineStr"/>
+      <c r="G612" t="inlineStr"/>
+      <c r="H612" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C613" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM FinalDEC</t>
+          <t>NIESR Monthly GDP TrackerDEC</t>
         </is>
       </c>
       <c r="D613" t="inlineStr"/>
       <c r="E613" t="inlineStr">
         <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="F613" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F613" t="inlineStr"/>
       <c r="G613" t="inlineStr">
         <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="H613" t="n">
-        <v>3</v>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="H613" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:45 PM</t>
         </is>
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C614" t="inlineStr">
         <is>
-          <t>GDP MoMNOV</t>
+          <t>Housing StartsDEC</t>
         </is>
       </c>
       <c r="D614" t="inlineStr"/>
       <c r="E614" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>262.4K</t>
         </is>
       </c>
       <c r="F614" t="inlineStr"/>
       <c r="G614" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H614" t="n">
-        <v>1</v>
+          <t>220K</t>
+        </is>
+      </c>
+      <c r="H614" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C615" t="inlineStr">
         <is>
-          <t>GDP YoYNOV</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D615" t="inlineStr"/>
       <c r="E615" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F615" t="inlineStr"/>
       <c r="G615" t="inlineStr">
         <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="H615" t="n">
-        <v>1</v>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="H615" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C616" t="inlineStr">
         <is>
-          <t>GDP 3-Month AvgNOV</t>
+          <t>Export Prices MoMDEC</t>
         </is>
       </c>
       <c r="D616" t="inlineStr"/>
       <c r="E616" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F616" t="inlineStr"/>
       <c r="G616" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H616" t="n">
-        <v>2</v>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="H616" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C617" t="inlineStr">
         <is>
-          <t>Goods Trade BalanceNOV</t>
+          <t>Import Prices MoMDEC</t>
         </is>
       </c>
       <c r="D617" t="inlineStr"/>
       <c r="E617" t="inlineStr">
         <is>
-          <t>£-18.97B</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F617" t="inlineStr"/>
       <c r="G617" t="inlineStr"/>
-      <c r="H617" t="n">
-        <v>2</v>
+      <c r="H617" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C618" t="inlineStr">
         <is>
-          <t>Goods Trade Balance Non-EUNOV</t>
+          <t>Initial Jobless ClaimsJAN/11</t>
         </is>
       </c>
       <c r="D618" t="inlineStr"/>
-      <c r="E618" t="inlineStr">
-        <is>
-          <t>£-7.28B</t>
-        </is>
-      </c>
+      <c r="E618" t="inlineStr"/>
       <c r="F618" t="inlineStr"/>
       <c r="G618" t="inlineStr"/>
-      <c r="H618" t="n">
-        <v>2</v>
+      <c r="H618" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C619" t="inlineStr">
         <is>
-          <t>Industrial Production MoMNOV</t>
+          <t>Philadelphia Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D619" t="inlineStr"/>
       <c r="E619" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>-16.4</t>
         </is>
       </c>
       <c r="F619" t="inlineStr"/>
       <c r="G619" t="inlineStr"/>
-      <c r="H619" t="n">
-        <v>2</v>
+      <c r="H619" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C620" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMNOV</t>
+          <t>Retail Sales Ex Autos MoMDEC</t>
         </is>
       </c>
       <c r="D620" t="inlineStr"/>
       <c r="E620" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F620" t="inlineStr"/>
-      <c r="G620" t="inlineStr"/>
-      <c r="H620" t="n">
-        <v>2</v>
+      <c r="G620" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="H620" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C621" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Continuing Jobless ClaimsJAN/04</t>
         </is>
       </c>
       <c r="D621" t="inlineStr"/>
-      <c r="E621" t="inlineStr">
-        <is>
-          <t>£-3.72B</t>
-        </is>
-      </c>
+      <c r="E621" t="inlineStr"/>
       <c r="F621" t="inlineStr"/>
       <c r="G621" t="inlineStr"/>
-      <c r="H621" t="n">
-        <v>3</v>
+      <c r="H621" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C622" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D622" t="inlineStr"/>
       <c r="E622" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F622" t="inlineStr"/>
-      <c r="G622" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H622" t="n">
-        <v>3</v>
+      <c r="G622" t="inlineStr"/>
+      <c r="H622" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C623" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D623" t="inlineStr"/>
       <c r="E623" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F623" t="inlineStr"/>
-      <c r="G623" t="inlineStr"/>
-      <c r="H623" t="n">
-        <v>3</v>
+      <c r="G623" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
+      <c r="H623" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C624" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYNOV</t>
+          <t>Jobless Claims 4-week AverageJAN/11</t>
         </is>
       </c>
       <c r="D624" t="inlineStr"/>
-      <c r="E624" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="E624" t="inlineStr"/>
       <c r="F624" t="inlineStr"/>
       <c r="G624" t="inlineStr"/>
-      <c r="H624" t="n">
-        <v>3</v>
+      <c r="H624" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C625" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Philly Fed Business ConditionsJAN</t>
         </is>
       </c>
       <c r="D625" t="inlineStr"/>
       <c r="E625" t="inlineStr">
         <is>
-          <t>€5.153B</t>
+          <t>30.7</t>
         </is>
       </c>
       <c r="F625" t="inlineStr"/>
       <c r="G625" t="inlineStr"/>
-      <c r="H625" t="n">
-        <v>2</v>
+      <c r="H625" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C626" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FinalDEC</t>
+          <t>Philly Fed CAPEX IndexJAN</t>
         </is>
       </c>
       <c r="D626" t="inlineStr"/>
       <c r="E626" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F626" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G626" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H626" t="n">
-        <v>2</v>
+          <t>18.8</t>
+        </is>
+      </c>
+      <c r="F626" t="inlineStr"/>
+      <c r="G626" t="inlineStr"/>
+      <c r="H626" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C627" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Philly Fed EmploymentJAN</t>
         </is>
       </c>
       <c r="D627" t="inlineStr"/>
       <c r="E627" t="inlineStr">
         <is>
-          <t>1.3%</t>
-        </is>
-      </c>
-      <c r="F627" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
-      <c r="G627" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
-      <c r="H627" t="n">
-        <v>2</v>
+          <t>6.6</t>
+        </is>
+      </c>
+      <c r="F627" t="inlineStr"/>
+      <c r="G627" t="inlineStr"/>
+      <c r="H627" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C628" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY FinalDEC</t>
+          <t>Philly Fed New OrdersJAN</t>
         </is>
       </c>
       <c r="D628" t="inlineStr"/>
       <c r="E628" t="inlineStr">
         <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="F628" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="G628" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="H628" t="n">
-        <v>3</v>
+          <t>-4.3</t>
+        </is>
+      </c>
+      <c r="F628" t="inlineStr"/>
+      <c r="G628" t="inlineStr"/>
+      <c r="H628" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C629" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM FinalDEC</t>
+          <t>Philly Fed Prices PaidJAN</t>
         </is>
       </c>
       <c r="D629" t="inlineStr"/>
       <c r="E629" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F629" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G629" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H629" t="n">
-        <v>3</v>
+          <t>31.2</t>
+        </is>
+      </c>
+      <c r="F629" t="inlineStr"/>
+      <c r="G629" t="inlineStr"/>
+      <c r="H629" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>03:10 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C630" t="inlineStr">
         <is>
-          <t>Bonos Auction</t>
+          <t>Retail Sales Ex Gas/Autos MoMDEC</t>
         </is>
       </c>
       <c r="D630" t="inlineStr"/>
-      <c r="E630" t="inlineStr"/>
+      <c r="E630" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F630" t="inlineStr"/>
-      <c r="G630" t="inlineStr"/>
-      <c r="H630" t="n">
-        <v>3</v>
+      <c r="G630" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="H630" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>03:10 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C631" t="inlineStr">
         <is>
-          <t>Index-Linked Obligacion Auction</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D631" t="inlineStr"/>
-      <c r="E631" t="inlineStr"/>
+      <c r="E631" t="inlineStr">
+        <is>
+          <t>3.8%</t>
+        </is>
+      </c>
       <c r="F631" t="inlineStr"/>
-      <c r="G631" t="inlineStr"/>
-      <c r="H631" t="n">
-        <v>3</v>
+      <c r="G631" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="H631" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>03:10 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C632" t="inlineStr">
         <is>
-          <t>Obligacion Auction</t>
+          <t>Business Inventories MoMNOV</t>
         </is>
       </c>
       <c r="D632" t="inlineStr"/>
-      <c r="E632" t="inlineStr"/>
+      <c r="E632" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="F632" t="inlineStr"/>
       <c r="G632" t="inlineStr"/>
-      <c r="H632" t="n">
-        <v>3</v>
+      <c r="H632" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C633" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>NAHB Housing Market IndexJAN</t>
         </is>
       </c>
       <c r="D633" t="inlineStr"/>
       <c r="E633" t="inlineStr">
         <is>
-          <t>€6.8B</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F633" t="inlineStr"/>
       <c r="G633" t="inlineStr"/>
-      <c r="H633" t="n">
-        <v>2</v>
+      <c r="H633" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C634" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/10</t>
+          <t>Retail Inventories Ex Autos MoMNOV</t>
         </is>
       </c>
       <c r="D634" t="inlineStr"/>
-      <c r="E634" t="inlineStr"/>
+      <c r="E634" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="F634" t="inlineStr"/>
       <c r="G634" t="inlineStr"/>
-      <c r="H634" t="n">
-        <v>3</v>
+      <c r="H634" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C635" t="inlineStr">
         <is>
-          <t>IBC-BR Economic ActivityNOV</t>
+          <t>EIA Natural Gas Stocks ChangeJAN/10</t>
         </is>
       </c>
       <c r="D635" t="inlineStr"/>
-      <c r="E635" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E635" t="inlineStr"/>
       <c r="F635" t="inlineStr"/>
       <c r="G635" t="inlineStr"/>
-      <c r="H635" t="n">
-        <v>3</v>
+      <c r="H635" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C636" t="inlineStr">
         <is>
-          <t>NIESR Monthly GDP TrackerDEC</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D636" t="inlineStr"/>
-      <c r="E636" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="E636" t="inlineStr"/>
       <c r="F636" t="inlineStr"/>
-      <c r="G636" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H636" t="n">
-        <v>3</v>
+      <c r="G636" t="inlineStr"/>
+      <c r="H636" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C637" t="inlineStr">
         <is>
-          <t>Housing StartsDEC</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="D637" t="inlineStr"/>
-      <c r="E637" t="inlineStr">
-        <is>
-          <t>262.4K</t>
-        </is>
-      </c>
+      <c r="E637" t="inlineStr"/>
       <c r="F637" t="inlineStr"/>
-      <c r="G637" t="inlineStr">
-        <is>
-          <t>220K</t>
-        </is>
-      </c>
-      <c r="H637" t="n">
-        <v>2</v>
+      <c r="G637" t="inlineStr"/>
+      <c r="H637" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B638" t="inlineStr">
@@ -20912,29 +21296,23 @@
       </c>
       <c r="C638" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>15-Year Mortgage RateJAN/16</t>
         </is>
       </c>
       <c r="D638" t="inlineStr"/>
-      <c r="E638" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="E638" t="inlineStr"/>
       <c r="F638" t="inlineStr"/>
-      <c r="G638" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H638" t="n">
-        <v>1</v>
+      <c r="G638" t="inlineStr"/>
+      <c r="H638" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B639" t="inlineStr">
@@ -20944,57 +21322,37 @@
       </c>
       <c r="C639" t="inlineStr">
         <is>
-          <t>Export Prices MoMDEC</t>
+          <t>30-Year Mortgage RateJAN/16</t>
         </is>
       </c>
       <c r="D639" t="inlineStr"/>
-      <c r="E639" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="E639" t="inlineStr"/>
       <c r="F639" t="inlineStr"/>
-      <c r="G639" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H639" t="n">
-        <v>2</v>
+      <c r="G639" t="inlineStr"/>
+      <c r="H639" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B640" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C640" t="inlineStr">
-        <is>
-          <t>Import Prices MoMDEC</t>
-        </is>
-      </c>
+          <t>Friday January 17 2025</t>
+        </is>
+      </c>
+      <c r="B640" t="inlineStr"/>
+      <c r="C640" t="inlineStr"/>
       <c r="D640" t="inlineStr"/>
-      <c r="E640" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E640" t="inlineStr"/>
       <c r="F640" t="inlineStr"/>
       <c r="G640" t="inlineStr"/>
-      <c r="H640" t="n">
-        <v>2</v>
-      </c>
+      <c r="H640" t="inlineStr"/>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B641" t="inlineStr">
@@ -21004,613 +21362,709 @@
       </c>
       <c r="C641" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsJAN/11</t>
+          <t>Fed Balance SheetJAN/15</t>
         </is>
       </c>
       <c r="D641" t="inlineStr"/>
       <c r="E641" t="inlineStr"/>
       <c r="F641" t="inlineStr"/>
       <c r="G641" t="inlineStr"/>
-      <c r="H641" t="n">
-        <v>2</v>
+      <c r="H641" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C642" t="inlineStr">
         <is>
-          <t>Philadelphia Fed Manufacturing IndexJAN</t>
+          <t>Reuters Tankan IndexJAN</t>
         </is>
       </c>
       <c r="D642" t="inlineStr"/>
       <c r="E642" t="inlineStr">
         <is>
-          <t>-16.4</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="F642" t="inlineStr"/>
-      <c r="G642" t="inlineStr"/>
-      <c r="H642" t="n">
-        <v>2</v>
+      <c r="G642" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H642" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C643" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Autos MoMDEC</t>
+          <t>Foreign Bond InvestmentJAN/11</t>
         </is>
       </c>
       <c r="D643" t="inlineStr"/>
-      <c r="E643" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E643" t="inlineStr"/>
       <c r="F643" t="inlineStr"/>
-      <c r="G643" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="H643" t="n">
-        <v>2</v>
+      <c r="G643" t="inlineStr"/>
+      <c r="H643" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C644" t="inlineStr">
         <is>
-          <t>Continuing Jobless ClaimsJAN/04</t>
+          <t>Stock Investment by ForeignersJAN/11</t>
         </is>
       </c>
       <c r="D644" t="inlineStr"/>
       <c r="E644" t="inlineStr"/>
       <c r="F644" t="inlineStr"/>
       <c r="G644" t="inlineStr"/>
-      <c r="H644" t="n">
-        <v>3</v>
+      <c r="H644" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C645" t="inlineStr">
         <is>
-          <t>Export Prices YoYDEC</t>
+          <t>Non-Oil Exports MoMDEC</t>
         </is>
       </c>
       <c r="D645" t="inlineStr"/>
       <c r="E645" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>14.7%</t>
         </is>
       </c>
       <c r="F645" t="inlineStr"/>
-      <c r="G645" t="inlineStr"/>
-      <c r="H645" t="n">
-        <v>3</v>
+      <c r="G645" t="inlineStr">
+        <is>
+          <t>1.2%</t>
+        </is>
+      </c>
+      <c r="H645" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C646" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Non-Oil Exports YoYDEC</t>
         </is>
       </c>
       <c r="D646" t="inlineStr"/>
       <c r="E646" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="F646" t="inlineStr"/>
       <c r="G646" t="inlineStr">
         <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="H646" t="n">
-        <v>3</v>
+          <t>7.5%</t>
+        </is>
+      </c>
+      <c r="H646" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C647" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageJAN/11</t>
+          <t>Consumer Inflation ExpectationsJAN</t>
         </is>
       </c>
       <c r="D647" t="inlineStr"/>
-      <c r="E647" t="inlineStr"/>
+      <c r="E647" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
       <c r="F647" t="inlineStr"/>
       <c r="G647" t="inlineStr"/>
-      <c r="H647" t="n">
-        <v>3</v>
+      <c r="H647" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C648" t="inlineStr">
         <is>
-          <t>Philly Fed Business ConditionsJAN</t>
+          <t>House Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D648" t="inlineStr"/>
       <c r="E648" t="inlineStr">
         <is>
-          <t>30.7</t>
+          <t>-5.7%</t>
         </is>
       </c>
       <c r="F648" t="inlineStr"/>
-      <c r="G648" t="inlineStr"/>
-      <c r="H648" t="n">
-        <v>3</v>
+      <c r="G648" t="inlineStr">
+        <is>
+          <t>-5.8%</t>
+        </is>
+      </c>
+      <c r="H648" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C649" t="inlineStr">
         <is>
-          <t>Philly Fed CAPEX IndexJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D649" t="inlineStr"/>
       <c r="E649" t="inlineStr">
         <is>
-          <t>18.8</t>
+          <t>$6.52B</t>
         </is>
       </c>
       <c r="F649" t="inlineStr"/>
-      <c r="G649" t="inlineStr"/>
-      <c r="H649" t="n">
-        <v>3</v>
+      <c r="G649" t="inlineStr">
+        <is>
+          <t>$ 3.6B</t>
+        </is>
+      </c>
+      <c r="H649" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C650" t="inlineStr">
         <is>
-          <t>Philly Fed EmploymentJAN</t>
+          <t>GDP Growth Rate YoYQ4</t>
         </is>
       </c>
       <c r="D650" t="inlineStr"/>
       <c r="E650" t="inlineStr">
         <is>
-          <t>6.6</t>
+          <t>4.6%</t>
         </is>
       </c>
       <c r="F650" t="inlineStr"/>
-      <c r="G650" t="inlineStr"/>
-      <c r="H650" t="n">
-        <v>3</v>
+      <c r="G650" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
+      <c r="H650" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C651" t="inlineStr">
         <is>
-          <t>Philly Fed New OrdersJAN</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D651" t="inlineStr"/>
       <c r="E651" t="inlineStr">
         <is>
-          <t>-4.3</t>
+          <t>5.4%</t>
         </is>
       </c>
       <c r="F651" t="inlineStr"/>
-      <c r="G651" t="inlineStr"/>
-      <c r="H651" t="n">
-        <v>3</v>
+      <c r="G651" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
+      <c r="H651" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C652" t="inlineStr">
         <is>
-          <t>Philly Fed Prices PaidJAN</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D652" t="inlineStr"/>
       <c r="E652" t="inlineStr">
         <is>
-          <t>31.2</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F652" t="inlineStr"/>
-      <c r="G652" t="inlineStr"/>
-      <c r="H652" t="n">
-        <v>3</v>
+      <c r="G652" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="H652" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C653" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Gas/Autos MoMDEC</t>
+          <t>Fixed Asset Investment (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D653" t="inlineStr"/>
       <c r="E653" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F653" t="inlineStr"/>
       <c r="G653" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H653" t="n">
-        <v>3</v>
+          <t>3.1%</t>
+        </is>
+      </c>
+      <c r="H653" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C654" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>GDP Growth Rate QoQQ4</t>
         </is>
       </c>
       <c r="D654" t="inlineStr"/>
       <c r="E654" t="inlineStr">
         <is>
-          <t>3.8%</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="F654" t="inlineStr"/>
       <c r="G654" t="inlineStr">
         <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="H654" t="n">
-        <v>3</v>
+          <t>0.7%</t>
+        </is>
+      </c>
+      <c r="H654" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C655" t="inlineStr">
         <is>
-          <t>Business Inventories MoMNOV</t>
+          <t>Industrial Capacity UtilizationQ4</t>
         </is>
       </c>
       <c r="D655" t="inlineStr"/>
       <c r="E655" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>75.1%</t>
         </is>
       </c>
       <c r="F655" t="inlineStr"/>
-      <c r="G655" t="inlineStr"/>
-      <c r="H655" t="n">
-        <v>2</v>
+      <c r="G655" t="inlineStr">
+        <is>
+          <t>74.9%</t>
+        </is>
+      </c>
+      <c r="H655" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C656" t="inlineStr">
         <is>
-          <t>NAHB Housing Market IndexJAN</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D656" t="inlineStr"/>
       <c r="E656" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="F656" t="inlineStr"/>
-      <c r="G656" t="inlineStr"/>
-      <c r="H656" t="n">
-        <v>2</v>
+      <c r="G656" t="inlineStr">
+        <is>
+          <t>5.00%</t>
+        </is>
+      </c>
+      <c r="H656" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C657" t="inlineStr">
         <is>
-          <t>Retail Inventories Ex Autos MoMNOV</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D657" t="inlineStr"/>
-      <c r="E657" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E657" t="inlineStr"/>
       <c r="F657" t="inlineStr"/>
       <c r="G657" t="inlineStr"/>
-      <c r="H657" t="n">
-        <v>3</v>
+      <c r="H657" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C658" t="inlineStr">
         <is>
-          <t>EIA Natural Gas Stocks ChangeJAN/10</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D658" t="inlineStr"/>
-      <c r="E658" t="inlineStr"/>
+      <c r="E658" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F658" t="inlineStr"/>
-      <c r="G658" t="inlineStr"/>
-      <c r="H658" t="n">
-        <v>3</v>
+      <c r="G658" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H658" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C659" t="inlineStr">
         <is>
-          <t>4-Week Bill Auction</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D659" t="inlineStr"/>
-      <c r="E659" t="inlineStr"/>
+      <c r="E659" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="F659" t="inlineStr"/>
-      <c r="G659" t="inlineStr"/>
-      <c r="H659" t="n">
-        <v>3</v>
+      <c r="G659" t="inlineStr">
+        <is>
+          <t>3.5%</t>
+        </is>
+      </c>
+      <c r="H659" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C660" t="inlineStr">
         <is>
-          <t>8-Week Bill Auction</t>
+          <t>Retail Sales ex Fuel MoMDEC</t>
         </is>
       </c>
       <c r="D660" t="inlineStr"/>
       <c r="E660" t="inlineStr"/>
       <c r="F660" t="inlineStr"/>
       <c r="G660" t="inlineStr"/>
-      <c r="H660" t="n">
-        <v>3</v>
+      <c r="H660" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C661" t="inlineStr">
         <is>
-          <t>15-Year Mortgage RateJAN/16</t>
+          <t>Retail Sales ex Fuel YoYDEC</t>
         </is>
       </c>
       <c r="D661" t="inlineStr"/>
       <c r="E661" t="inlineStr"/>
       <c r="F661" t="inlineStr"/>
       <c r="G661" t="inlineStr"/>
-      <c r="H661" t="n">
-        <v>3</v>
+      <c r="H661" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>12:50 PM</t>
         </is>
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C662" t="inlineStr">
         <is>
-          <t>30-Year Mortgage RateJAN/16</t>
+          <t>Loan Growth YoYDEC</t>
         </is>
       </c>
       <c r="D662" t="inlineStr"/>
-      <c r="E662" t="inlineStr"/>
+      <c r="E662" t="inlineStr">
+        <is>
+          <t>10.79%</t>
+        </is>
+      </c>
       <c r="F662" t="inlineStr"/>
-      <c r="G662" t="inlineStr"/>
-      <c r="H662" t="n">
-        <v>3</v>
+      <c r="G662" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="H662" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C663" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Deposit Facility RateJAN</t>
         </is>
       </c>
       <c r="D663" t="inlineStr"/>
       <c r="E663" t="inlineStr">
         <is>
-          <t>€32B</t>
+          <t>5.25%</t>
         </is>
       </c>
       <c r="F663" t="inlineStr"/>
@@ -21624,23 +22078,23 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C664" t="inlineStr">
         <is>
-          <t>Current Account s.aNOV</t>
+          <t>Lending Facility RateJAN</t>
         </is>
       </c>
       <c r="D664" t="inlineStr"/>
       <c r="E664" t="inlineStr">
         <is>
-          <t>€33.5B</t>
+          <t>6.75%</t>
         </is>
       </c>
       <c r="F664" t="inlineStr"/>
@@ -21659,32 +22113,32 @@
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C665" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D665" t="inlineStr"/>
       <c r="E665" t="inlineStr">
         <is>
-          <t>€-3.93B</t>
+          <t>€32B</t>
         </is>
       </c>
       <c r="F665" t="inlineStr"/>
       <c r="G665" t="inlineStr"/>
       <c r="H665" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B666" t="inlineStr">
@@ -21694,62 +22148,50 @@
       </c>
       <c r="C666" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Current Account s.aNOV</t>
         </is>
       </c>
       <c r="D666" t="inlineStr"/>
       <c r="E666" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F666" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="G666" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+          <t>€33.5B</t>
+        </is>
+      </c>
+      <c r="F666" t="inlineStr"/>
+      <c r="G666" t="inlineStr"/>
       <c r="H666" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C667" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FinalDEC</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D667" t="inlineStr"/>
       <c r="E667" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>€-3.93B</t>
         </is>
       </c>
       <c r="F667" t="inlineStr"/>
-      <c r="G667" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="G667" t="inlineStr"/>
       <c r="H667" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -21766,28 +22208,28 @@
       </c>
       <c r="C668" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FinalDEC</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D668" t="inlineStr"/>
       <c r="E668" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="F668" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="G668" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="H668" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -21804,19 +22246,19 @@
       </c>
       <c r="C669" t="inlineStr">
         <is>
-          <t>CPI FinalDEC</t>
+          <t>Core Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D669" t="inlineStr"/>
       <c r="E669" t="inlineStr">
         <is>
-          <t>126.62</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="F669" t="inlineStr"/>
       <c r="G669" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="H669" t="inlineStr">
@@ -21833,22 +22275,30 @@
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C670" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D670" t="inlineStr"/>
       <c r="E670" t="inlineStr">
         <is>
-          <t>€5628M</t>
-        </is>
-      </c>
-      <c r="F670" t="inlineStr"/>
-      <c r="G670" t="inlineStr"/>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="F670" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G670" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H670" t="inlineStr">
         <is>
           <t>3</t>
@@ -21858,23 +22308,31 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C671" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/03</t>
+          <t>CPI FinalDEC</t>
         </is>
       </c>
       <c r="D671" t="inlineStr"/>
-      <c r="E671" t="inlineStr"/>
+      <c r="E671" t="inlineStr">
+        <is>
+          <t>126.62</t>
+        </is>
+      </c>
       <c r="F671" t="inlineStr"/>
-      <c r="G671" t="inlineStr"/>
+      <c r="G671" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
       <c r="H671" t="inlineStr">
         <is>
           <t>3</t>
@@ -21884,21 +22342,25 @@
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C672" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/03</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D672" t="inlineStr"/>
-      <c r="E672" t="inlineStr"/>
+      <c r="E672" t="inlineStr">
+        <is>
+          <t>€5628M</t>
+        </is>
+      </c>
       <c r="F672" t="inlineStr"/>
       <c r="G672" t="inlineStr"/>
       <c r="H672" t="inlineStr">
@@ -21920,7 +22382,7 @@
       </c>
       <c r="C673" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/10</t>
+          <t>Bank Loan Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D673" t="inlineStr"/>
@@ -21936,25 +22398,21 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C674" t="inlineStr">
         <is>
-          <t>Foreign Securities PurchasesNOV</t>
+          <t>Deposit Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D674" t="inlineStr"/>
-      <c r="E674" t="inlineStr">
-        <is>
-          <t>C$21.55B</t>
-        </is>
-      </c>
+      <c r="E674" t="inlineStr"/>
       <c r="F674" t="inlineStr"/>
       <c r="G674" t="inlineStr"/>
       <c r="H674" t="inlineStr">
@@ -21966,25 +22424,21 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C675" t="inlineStr">
         <is>
-          <t>Foreign Securities Purchases by CanadiansNOV</t>
+          <t>Foreign Exchange ReservesJAN/10</t>
         </is>
       </c>
       <c r="D675" t="inlineStr"/>
-      <c r="E675" t="inlineStr">
-        <is>
-          <t>C$-2.65B</t>
-        </is>
-      </c>
+      <c r="E675" t="inlineStr"/>
       <c r="F675" t="inlineStr"/>
       <c r="G675" t="inlineStr"/>
       <c r="H675" t="inlineStr">
@@ -22001,29 +22455,25 @@
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C676" t="inlineStr">
         <is>
-          <t>Building Permits PrelDEC</t>
+          <t>Foreign Securities PurchasesNOV</t>
         </is>
       </c>
       <c r="D676" t="inlineStr"/>
       <c r="E676" t="inlineStr">
         <is>
-          <t>1.493M</t>
+          <t>C$21.55B</t>
         </is>
       </c>
       <c r="F676" t="inlineStr"/>
-      <c r="G676" t="inlineStr">
-        <is>
-          <t>1.6M</t>
-        </is>
-      </c>
+      <c r="G676" t="inlineStr"/>
       <c r="H676" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -22035,29 +22485,25 @@
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C677" t="inlineStr">
         <is>
-          <t>Housing StartsDEC</t>
+          <t>Foreign Securities Purchases by CanadiansNOV</t>
         </is>
       </c>
       <c r="D677" t="inlineStr"/>
       <c r="E677" t="inlineStr">
         <is>
-          <t>1.289M</t>
+          <t>C$-2.65B</t>
         </is>
       </c>
       <c r="F677" t="inlineStr"/>
-      <c r="G677" t="inlineStr">
-        <is>
-          <t>1.5M</t>
-        </is>
-      </c>
+      <c r="G677" t="inlineStr"/>
       <c r="H677" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -22074,20 +22520,24 @@
       </c>
       <c r="C678" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>Building Permits PrelDEC</t>
         </is>
       </c>
       <c r="D678" t="inlineStr"/>
       <c r="E678" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>1.493M</t>
         </is>
       </c>
       <c r="F678" t="inlineStr"/>
-      <c r="G678" t="inlineStr"/>
+      <c r="G678" t="inlineStr">
+        <is>
+          <t>1.6M</t>
+        </is>
+      </c>
       <c r="H678" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -22104,31 +22554,31 @@
       </c>
       <c r="C679" t="inlineStr">
         <is>
-          <t>Housing Starts MoMDEC</t>
+          <t>Housing StartsDEC</t>
         </is>
       </c>
       <c r="D679" t="inlineStr"/>
       <c r="E679" t="inlineStr">
         <is>
-          <t>-1.8%</t>
+          <t>1.289M</t>
         </is>
       </c>
       <c r="F679" t="inlineStr"/>
       <c r="G679" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>1.5M</t>
         </is>
       </c>
       <c r="H679" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B680" t="inlineStr">
@@ -22138,13 +22588,13 @@
       </c>
       <c r="C680" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Building Permits MoM PrelDEC</t>
         </is>
       </c>
       <c r="D680" t="inlineStr"/>
       <c r="E680" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F680" t="inlineStr"/>
@@ -22158,7 +22608,7 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B681" t="inlineStr">
@@ -22168,24 +22618,24 @@
       </c>
       <c r="C681" t="inlineStr">
         <is>
-          <t>Capacity UtilizationDEC</t>
+          <t>Housing Starts MoMDEC</t>
         </is>
       </c>
       <c r="D681" t="inlineStr"/>
       <c r="E681" t="inlineStr">
         <is>
-          <t>76.8%</t>
+          <t>-1.8%</t>
         </is>
       </c>
       <c r="F681" t="inlineStr"/>
       <c r="G681" t="inlineStr">
         <is>
-          <t>77.8%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="H681" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -22202,24 +22652,20 @@
       </c>
       <c r="C682" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D682" t="inlineStr"/>
       <c r="E682" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F682" t="inlineStr"/>
-      <c r="G682" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
+      <c r="G682" t="inlineStr"/>
       <c r="H682" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -22236,19 +22682,19 @@
       </c>
       <c r="C683" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMDEC</t>
+          <t>Capacity UtilizationDEC</t>
         </is>
       </c>
       <c r="D683" t="inlineStr"/>
       <c r="E683" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>76.8%</t>
         </is>
       </c>
       <c r="F683" t="inlineStr"/>
       <c r="G683" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>77.8%</t>
         </is>
       </c>
       <c r="H683" t="inlineStr">
@@ -22270,19 +22716,19 @@
       </c>
       <c r="C684" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYDEC</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D684" t="inlineStr"/>
       <c r="E684" t="inlineStr">
         <is>
-          <t>-1%</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="F684" t="inlineStr"/>
       <c r="G684" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H684" t="inlineStr">
@@ -22294,7 +22740,7 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B685" t="inlineStr">
@@ -22304,13 +22750,21 @@
       </c>
       <c r="C685" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/17</t>
+          <t>Manufacturing Production MoMDEC</t>
         </is>
       </c>
       <c r="D685" t="inlineStr"/>
-      <c r="E685" t="inlineStr"/>
+      <c r="E685" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F685" t="inlineStr"/>
-      <c r="G685" t="inlineStr"/>
+      <c r="G685" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H685" t="inlineStr">
         <is>
           <t>3</t>
@@ -22320,47 +22774,55 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
+          <t>07:45 PM</t>
+        </is>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C686" t="inlineStr">
+        <is>
+          <t>Manufacturing Production YoYDEC</t>
+        </is>
+      </c>
+      <c r="D686" t="inlineStr"/>
+      <c r="E686" t="inlineStr">
+        <is>
+          <t>-1%</t>
+        </is>
+      </c>
+      <c r="F686" t="inlineStr"/>
+      <c r="G686" t="inlineStr">
+        <is>
+          <t>-0.9%</t>
+        </is>
+      </c>
+      <c r="H686" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
           <t>11:30 PM</t>
         </is>
       </c>
-      <c r="B686" t="inlineStr">
+      <c r="B687" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="C686" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJAN/17</t>
-        </is>
-      </c>
-      <c r="D686" t="inlineStr"/>
-      <c r="E686" t="inlineStr"/>
-      <c r="F686" t="inlineStr"/>
-      <c r="G686" t="inlineStr"/>
-      <c r="H686" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="687">
-      <c r="A687" t="inlineStr"/>
-      <c r="B687" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
       <c r="C687" t="inlineStr">
         <is>
-          <t>50-Year KTB Auction</t>
+          <t>Baker Hughes Oil Rig CountJAN/17</t>
         </is>
       </c>
       <c r="D687" t="inlineStr"/>
-      <c r="E687" t="inlineStr">
-        <is>
-          <t>2.40%</t>
-        </is>
-      </c>
+      <c r="E687" t="inlineStr"/>
       <c r="F687" t="inlineStr"/>
       <c r="G687" t="inlineStr"/>
       <c r="H687" t="inlineStr">
@@ -22372,76 +22834,68 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>Saturday January 18 2025</t>
-        </is>
-      </c>
-      <c r="B688" t="inlineStr"/>
-      <c r="C688" t="inlineStr"/>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C688" t="inlineStr">
+        <is>
+          <t>Baker Hughes Total Rigs CountJAN/17</t>
+        </is>
+      </c>
       <c r="D688" t="inlineStr"/>
       <c r="E688" t="inlineStr"/>
       <c r="F688" t="inlineStr"/>
       <c r="G688" t="inlineStr"/>
-      <c r="H688" t="inlineStr"/>
+      <c r="H688" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="689">
-      <c r="A689" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
+      <c r="A689" t="inlineStr"/>
       <c r="B689" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C689" t="inlineStr">
         <is>
-          <t>Net Long-term TIC FlowsNOV</t>
+          <t>50-Year KTB Auction</t>
         </is>
       </c>
       <c r="D689" t="inlineStr"/>
       <c r="E689" t="inlineStr">
         <is>
-          <t>$152.3B</t>
+          <t>2.40%</t>
         </is>
       </c>
       <c r="F689" t="inlineStr"/>
       <c r="G689" t="inlineStr"/>
       <c r="H689" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B690" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C690" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentNOV</t>
-        </is>
-      </c>
+          <t>Saturday January 18 2025</t>
+        </is>
+      </c>
+      <c r="B690" t="inlineStr"/>
+      <c r="C690" t="inlineStr"/>
       <c r="D690" t="inlineStr"/>
-      <c r="E690" t="inlineStr">
-        <is>
-          <t>$92.1B</t>
-        </is>
-      </c>
+      <c r="E690" t="inlineStr"/>
       <c r="F690" t="inlineStr"/>
       <c r="G690" t="inlineStr"/>
-      <c r="H690" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H690" t="inlineStr"/>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr">
@@ -22456,18 +22910,78 @@
       </c>
       <c r="C691" t="inlineStr">
         <is>
-          <t>Overall Net Capital FlowsNOV</t>
+          <t>Net Long-term TIC FlowsNOV</t>
         </is>
       </c>
       <c r="D691" t="inlineStr"/>
       <c r="E691" t="inlineStr">
         <is>
-          <t>$203.6B</t>
+          <t>$152.3B</t>
         </is>
       </c>
       <c r="F691" t="inlineStr"/>
       <c r="G691" t="inlineStr"/>
       <c r="H691" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>02:30 AM</t>
+        </is>
+      </c>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C692" t="inlineStr">
+        <is>
+          <t>Foreign Bond InvestmentNOV</t>
+        </is>
+      </c>
+      <c r="D692" t="inlineStr"/>
+      <c r="E692" t="inlineStr">
+        <is>
+          <t>$92.1B</t>
+        </is>
+      </c>
+      <c r="F692" t="inlineStr"/>
+      <c r="G692" t="inlineStr"/>
+      <c r="H692" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>02:30 AM</t>
+        </is>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C693" t="inlineStr">
+        <is>
+          <t>Overall Net Capital FlowsNOV</t>
+        </is>
+      </c>
+      <c r="D693" t="inlineStr"/>
+      <c r="E693" t="inlineStr">
+        <is>
+          <t>$203.6B</t>
+        </is>
+      </c>
+      <c r="F693" t="inlineStr"/>
+      <c r="G693" t="inlineStr"/>
+      <c r="H693" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-18.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H693"/>
+  <dimension ref="A1:H668"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15727,10 +15727,8 @@
       <c r="E458" t="inlineStr"/>
       <c r="F458" t="inlineStr"/>
       <c r="G458" t="inlineStr"/>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H458" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="459">
@@ -15771,10 +15769,8 @@
       </c>
       <c r="F460" t="inlineStr"/>
       <c r="G460" t="inlineStr"/>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H460" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="461">
@@ -15801,10 +15797,8 @@
       </c>
       <c r="F461" t="inlineStr"/>
       <c r="G461" t="inlineStr"/>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H461" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="462">
@@ -15831,10 +15825,8 @@
       </c>
       <c r="F462" t="inlineStr"/>
       <c r="G462" t="inlineStr"/>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H462" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="463">
@@ -15865,10 +15857,8 @@
           <t>¥1990.0B</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H463" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="464">
@@ -15899,10 +15889,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H464" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="465">
@@ -15929,10 +15917,8 @@
       </c>
       <c r="F465" t="inlineStr"/>
       <c r="G465" t="inlineStr"/>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H465" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="466">
@@ -15959,10 +15945,8 @@
       </c>
       <c r="F466" t="inlineStr"/>
       <c r="G466" t="inlineStr"/>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H466" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="467">
@@ -15989,10 +15973,8 @@
       </c>
       <c r="F467" t="inlineStr"/>
       <c r="G467" t="inlineStr"/>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H467" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="468">
@@ -16023,10 +16005,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H468" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="469">
@@ -16057,10 +16037,8 @@
           <t>49.6</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H469" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="470">
@@ -16087,10 +16065,8 @@
       </c>
       <c r="F470" t="inlineStr"/>
       <c r="G470" t="inlineStr"/>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H470" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="471">
@@ -16117,10 +16093,8 @@
       </c>
       <c r="F471" t="inlineStr"/>
       <c r="G471" t="inlineStr"/>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H471" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="472">
@@ -16151,10 +16125,8 @@
           <t>10.2%</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H472" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="473">
@@ -16185,10 +16157,8 @@
           <t>-3.2%</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H473" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="474">
@@ -16219,10 +16189,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H474" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="475">
@@ -16249,10 +16217,8 @@
       </c>
       <c r="F475" t="inlineStr"/>
       <c r="G475" t="inlineStr"/>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H475" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="476">
@@ -16279,10 +16245,8 @@
       </c>
       <c r="F476" t="inlineStr"/>
       <c r="G476" t="inlineStr"/>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H476" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="477">
@@ -16309,10 +16273,8 @@
       </c>
       <c r="F477" t="inlineStr"/>
       <c r="G477" t="inlineStr"/>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H477" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="478">
@@ -16335,10 +16297,8 @@
       <c r="E478" t="inlineStr"/>
       <c r="F478" t="inlineStr"/>
       <c r="G478" t="inlineStr"/>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H478" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="479">
@@ -16361,10 +16321,8 @@
       <c r="E479" t="inlineStr"/>
       <c r="F479" t="inlineStr"/>
       <c r="G479" t="inlineStr"/>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H479" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="480">
@@ -16391,10 +16349,8 @@
       </c>
       <c r="F480" t="inlineStr"/>
       <c r="G480" t="inlineStr"/>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H480" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="481">
@@ -16421,10 +16377,8 @@
       </c>
       <c r="F481" t="inlineStr"/>
       <c r="G481" t="inlineStr"/>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H481" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="482">
@@ -16455,10 +16409,8 @@
           <t>102</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H482" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="483">
@@ -16489,10 +16441,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H483" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="484">
@@ -16519,10 +16469,8 @@
       </c>
       <c r="F484" t="inlineStr"/>
       <c r="G484" t="inlineStr"/>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H484" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="485">
@@ -16553,10 +16501,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H485" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="486">
@@ -16587,10 +16533,8 @@
           <t>146.4</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H486" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="487">
@@ -16617,10 +16561,8 @@
       </c>
       <c r="F487" t="inlineStr"/>
       <c r="G487" t="inlineStr"/>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H487" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="488">
@@ -16647,10 +16589,8 @@
       </c>
       <c r="F488" t="inlineStr"/>
       <c r="G488" t="inlineStr"/>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H488" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="489">
@@ -16681,10 +16621,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H489" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="490">
@@ -16711,10 +16649,8 @@
       </c>
       <c r="F490" t="inlineStr"/>
       <c r="G490" t="inlineStr"/>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H490" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="491">
@@ -16741,10 +16677,8 @@
       </c>
       <c r="F491" t="inlineStr"/>
       <c r="G491" t="inlineStr"/>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H491" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="492">
@@ -16767,10 +16701,8 @@
       </c>
       <c r="F492" t="inlineStr"/>
       <c r="G492" t="inlineStr"/>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H492" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="493">
@@ -16815,10 +16747,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H494" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="495">
@@ -16849,10 +16779,8 @@
           <t>116.0%</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H495" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="496">
@@ -16883,10 +16811,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H496" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="497">
@@ -16917,10 +16843,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H497" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="498">
@@ -16947,10 +16871,8 @@
       </c>
       <c r="F498" t="inlineStr"/>
       <c r="G498" t="inlineStr"/>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H498" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="499">
@@ -16981,10 +16903,8 @@
           <t>$ 2.8B</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H499" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="500">
@@ -17011,10 +16931,8 @@
       </c>
       <c r="F500" t="inlineStr"/>
       <c r="G500" t="inlineStr"/>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H500" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="501">
@@ -17041,10 +16959,8 @@
       </c>
       <c r="F501" t="inlineStr"/>
       <c r="G501" t="inlineStr"/>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H501" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="502">
@@ -17071,10 +16987,8 @@
       </c>
       <c r="F502" t="inlineStr"/>
       <c r="G502" t="inlineStr"/>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H502" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="503">
@@ -17105,10 +17019,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H503" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="504">
@@ -17139,10 +17051,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H504" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="505">
@@ -17173,10 +17083,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H505" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="506">
@@ -17207,10 +17115,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H506" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="507">
@@ -17241,10 +17147,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H507" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="508">
@@ -17275,10 +17179,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H508" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="509">
@@ -17309,10 +17211,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H509" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="510">
@@ -17343,10 +17243,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H510" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="511">
@@ -17377,10 +17275,8 @@
           <t>2.1%</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H511" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="512">
@@ -17411,10 +17307,8 @@
           <t>-1.3%</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H512" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="513">
@@ -17445,10 +17339,8 @@
           <t>-1%</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H513" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="514">
@@ -17479,10 +17371,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H514" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="515">
@@ -17513,10 +17403,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H515" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="516">
@@ -17543,10 +17431,8 @@
       </c>
       <c r="F516" t="inlineStr"/>
       <c r="G516" t="inlineStr"/>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H516" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="517">
@@ -17577,10 +17463,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H517" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="518">
@@ -17611,10 +17495,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H518" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="519">
@@ -17645,10 +17527,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H519" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="520">
@@ -17679,10 +17559,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H520" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="521">
@@ -17713,10 +17591,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H521" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="522">
@@ -17743,10 +17619,8 @@
       </c>
       <c r="F522" t="inlineStr"/>
       <c r="G522" t="inlineStr"/>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H522" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="523">
@@ -17781,10 +17655,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H523" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="524">
@@ -17819,10 +17691,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H524" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="525">
@@ -17857,10 +17727,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H525" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="526">
@@ -17891,10 +17759,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H526" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="527">
@@ -17925,10 +17791,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H527" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="528">
@@ -17955,10 +17819,8 @@
       </c>
       <c r="F528" t="inlineStr"/>
       <c r="G528" t="inlineStr"/>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H528" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="529">
@@ -17985,10 +17847,8 @@
       </c>
       <c r="F529" t="inlineStr"/>
       <c r="G529" t="inlineStr"/>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H529" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="530">
@@ -18015,10 +17875,8 @@
       </c>
       <c r="F530" t="inlineStr"/>
       <c r="G530" t="inlineStr"/>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H530" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="531">
@@ -18045,10 +17903,8 @@
       </c>
       <c r="F531" t="inlineStr"/>
       <c r="G531" t="inlineStr"/>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H531" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="532">
@@ -18075,10 +17931,8 @@
       </c>
       <c r="F532" t="inlineStr"/>
       <c r="G532" t="inlineStr"/>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H532" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="533">
@@ -18105,10 +17959,8 @@
       </c>
       <c r="F533" t="inlineStr"/>
       <c r="G533" t="inlineStr"/>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H533" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="534">
@@ -18131,10 +17983,8 @@
       <c r="E534" t="inlineStr"/>
       <c r="F534" t="inlineStr"/>
       <c r="G534" t="inlineStr"/>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H534" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="535">
@@ -18157,10 +18007,8 @@
       <c r="E535" t="inlineStr"/>
       <c r="F535" t="inlineStr"/>
       <c r="G535" t="inlineStr"/>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H535" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="536">
@@ -18183,10 +18031,8 @@
       <c r="E536" t="inlineStr"/>
       <c r="F536" t="inlineStr"/>
       <c r="G536" t="inlineStr"/>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H536" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="537">
@@ -18209,10 +18055,8 @@
       <c r="E537" t="inlineStr"/>
       <c r="F537" t="inlineStr"/>
       <c r="G537" t="inlineStr"/>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H537" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="538">
@@ -18235,10 +18079,8 @@
       <c r="E538" t="inlineStr"/>
       <c r="F538" t="inlineStr"/>
       <c r="G538" t="inlineStr"/>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H538" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="539">
@@ -18269,10 +18111,8 @@
           <t>$628.0B</t>
         </is>
       </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H539" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="540">
@@ -18307,10 +18147,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H540" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="541">
@@ -18337,10 +18175,8 @@
       </c>
       <c r="F541" t="inlineStr"/>
       <c r="G541" t="inlineStr"/>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H541" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="542">
@@ -18375,10 +18211,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H542" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="543">
@@ -18409,10 +18243,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H543" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="544">
@@ -18443,10 +18275,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H544" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="545">
@@ -18477,10 +18307,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H545" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="546">
@@ -18511,10 +18339,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H546" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="547">
@@ -18545,10 +18371,8 @@
           <t>313.8</t>
         </is>
       </c>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H547" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="548">
@@ -18579,10 +18403,8 @@
           <t>317.4</t>
         </is>
       </c>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H548" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="549">
@@ -18609,10 +18431,8 @@
       </c>
       <c r="F549" t="inlineStr"/>
       <c r="G549" t="inlineStr"/>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H549" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="550">
@@ -18635,10 +18455,8 @@
       <c r="E550" t="inlineStr"/>
       <c r="F550" t="inlineStr"/>
       <c r="G550" t="inlineStr"/>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H550" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="551">
@@ -18661,10 +18479,8 @@
       <c r="E551" t="inlineStr"/>
       <c r="F551" t="inlineStr"/>
       <c r="G551" t="inlineStr"/>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H551" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="552">
@@ -18687,10 +18503,8 @@
       <c r="E552" t="inlineStr"/>
       <c r="F552" t="inlineStr"/>
       <c r="G552" t="inlineStr"/>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H552" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="553">
@@ -18713,10 +18527,8 @@
       <c r="E553" t="inlineStr"/>
       <c r="F553" t="inlineStr"/>
       <c r="G553" t="inlineStr"/>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H553" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="554">
@@ -18739,10 +18551,8 @@
       <c r="E554" t="inlineStr"/>
       <c r="F554" t="inlineStr"/>
       <c r="G554" t="inlineStr"/>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H554" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="555">
@@ -18765,10 +18575,8 @@
       <c r="E555" t="inlineStr"/>
       <c r="F555" t="inlineStr"/>
       <c r="G555" t="inlineStr"/>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H555" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="556">
@@ -18791,10 +18599,8 @@
       <c r="E556" t="inlineStr"/>
       <c r="F556" t="inlineStr"/>
       <c r="G556" t="inlineStr"/>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H556" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="557">
@@ -18817,10 +18623,8 @@
       <c r="E557" t="inlineStr"/>
       <c r="F557" t="inlineStr"/>
       <c r="G557" t="inlineStr"/>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H557" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="558">
@@ -18843,10 +18647,8 @@
       <c r="E558" t="inlineStr"/>
       <c r="F558" t="inlineStr"/>
       <c r="G558" t="inlineStr"/>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H558" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="559">
@@ -18877,10 +18679,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H559" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H559" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="560">
@@ -18911,10 +18711,8 @@
           <t>9.5%</t>
         </is>
       </c>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H560" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="561">
@@ -18937,10 +18735,8 @@
       <c r="E561" t="inlineStr"/>
       <c r="F561" t="inlineStr"/>
       <c r="G561" t="inlineStr"/>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H561" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="562">
@@ -18971,10 +18767,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H562" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H562" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="563">
@@ -19001,10 +18795,8 @@
       </c>
       <c r="F563" t="inlineStr"/>
       <c r="G563" t="inlineStr"/>
-      <c r="H563" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H563" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="564">
@@ -19027,10 +18819,8 @@
       </c>
       <c r="F564" t="inlineStr"/>
       <c r="G564" t="inlineStr"/>
-      <c r="H564" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H564" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="565">
@@ -19057,10 +18847,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H565" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H565" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="566">
@@ -19087,10 +18875,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H566" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H566" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="567">
@@ -19117,10 +18903,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H567" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H567" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="568">
@@ -19139,10 +18923,8 @@
       <c r="E568" t="inlineStr"/>
       <c r="F568" t="inlineStr"/>
       <c r="G568" t="inlineStr"/>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H568" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="569">
@@ -19161,10 +18943,8 @@
       <c r="E569" t="inlineStr"/>
       <c r="F569" t="inlineStr"/>
       <c r="G569" t="inlineStr"/>
-      <c r="H569" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H569" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="570">
@@ -19191,10 +18971,8 @@
           <t>$ -23B</t>
         </is>
       </c>
-      <c r="H570" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H570" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="571">
@@ -19221,10 +18999,8 @@
           <t>$ 36B</t>
         </is>
       </c>
-      <c r="H571" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H571" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="572">
@@ -19251,10 +19027,8 @@
           <t>$ 59B</t>
         </is>
       </c>
-      <c r="H572" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H572" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="573">
@@ -19299,10 +19073,8 @@
           <t>3.30%</t>
         </is>
       </c>
-      <c r="H574" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H574" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="575">
@@ -19329,10 +19101,8 @@
       </c>
       <c r="F575" t="inlineStr"/>
       <c r="G575" t="inlineStr"/>
-      <c r="H575" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H575" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="576">
@@ -19363,10 +19133,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H576" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H576" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="577">
@@ -19397,10 +19165,8 @@
           <t>17.0%</t>
         </is>
       </c>
-      <c r="H577" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H577" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="578">
@@ -19431,10 +19197,8 @@
           <t>4.30%</t>
         </is>
       </c>
-      <c r="H578" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H578" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="579">
@@ -19465,10 +19229,8 @@
           <t>25.1K</t>
         </is>
       </c>
-      <c r="H579" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H579" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="580">
@@ -19495,10 +19257,8 @@
       </c>
       <c r="F580" t="inlineStr"/>
       <c r="G580" t="inlineStr"/>
-      <c r="H580" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H580" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="581">
@@ -19525,10 +19285,8 @@
       </c>
       <c r="F581" t="inlineStr"/>
       <c r="G581" t="inlineStr"/>
-      <c r="H581" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H581" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="582">
@@ -19559,10 +19317,8 @@
           <t>66.8%</t>
         </is>
       </c>
-      <c r="H582" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H582" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="583">
@@ -19589,10 +19345,8 @@
       </c>
       <c r="F583" t="inlineStr"/>
       <c r="G583" t="inlineStr"/>
-      <c r="H583" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H583" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="584">
@@ -19619,10 +19373,8 @@
       </c>
       <c r="F584" t="inlineStr"/>
       <c r="G584" t="inlineStr"/>
-      <c r="H584" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H584" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="585">
@@ -19649,10 +19401,8 @@
       </c>
       <c r="F585" t="inlineStr"/>
       <c r="G585" t="inlineStr"/>
-      <c r="H585" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H585" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="586">
@@ -19679,10 +19429,8 @@
       </c>
       <c r="F586" t="inlineStr"/>
       <c r="G586" t="inlineStr"/>
-      <c r="H586" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H586" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="587">
@@ -19717,10 +19465,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H587" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H587" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="588">
@@ -19751,10 +19497,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H588" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H588" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="589">
@@ -19789,10 +19533,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H589" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H589" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="590">
@@ -19827,10 +19569,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H590" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H590" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="591">
@@ -19861,10 +19601,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H591" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H591" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="592">
@@ -19895,10 +19633,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H592" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H592" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="593">
@@ -19929,10 +19665,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H593" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H593" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="594">
@@ -19959,10 +19693,8 @@
       </c>
       <c r="F594" t="inlineStr"/>
       <c r="G594" t="inlineStr"/>
-      <c r="H594" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H594" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="595">
@@ -19989,10 +19721,8 @@
       </c>
       <c r="F595" t="inlineStr"/>
       <c r="G595" t="inlineStr"/>
-      <c r="H595" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H595" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="596">
@@ -20019,10 +19749,8 @@
       </c>
       <c r="F596" t="inlineStr"/>
       <c r="G596" t="inlineStr"/>
-      <c r="H596" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H596" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="597">
@@ -20049,10 +19777,8 @@
       </c>
       <c r="F597" t="inlineStr"/>
       <c r="G597" t="inlineStr"/>
-      <c r="H597" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H597" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="598">
@@ -20079,10 +19805,8 @@
       </c>
       <c r="F598" t="inlineStr"/>
       <c r="G598" t="inlineStr"/>
-      <c r="H598" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H598" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="599">
@@ -20113,10 +19837,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H599" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H599" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="600">
@@ -20143,10 +19865,8 @@
       </c>
       <c r="F600" t="inlineStr"/>
       <c r="G600" t="inlineStr"/>
-      <c r="H600" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H600" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="601">
@@ -20173,10 +19893,8 @@
       </c>
       <c r="F601" t="inlineStr"/>
       <c r="G601" t="inlineStr"/>
-      <c r="H601" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H601" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="602">
@@ -20203,10 +19921,8 @@
       </c>
       <c r="F602" t="inlineStr"/>
       <c r="G602" t="inlineStr"/>
-      <c r="H602" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H602" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="603">
@@ -20241,10 +19957,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H603" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H603" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="604">
@@ -20279,10 +19993,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H604" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H604" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="605">
@@ -20317,10 +20029,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H605" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H605" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="606">
@@ -20355,10 +20065,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H606" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H606" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="607">
@@ -20381,10 +20089,8 @@
       <c r="E607" t="inlineStr"/>
       <c r="F607" t="inlineStr"/>
       <c r="G607" t="inlineStr"/>
-      <c r="H607" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H607" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="608">
@@ -20407,10 +20113,8 @@
       <c r="E608" t="inlineStr"/>
       <c r="F608" t="inlineStr"/>
       <c r="G608" t="inlineStr"/>
-      <c r="H608" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H608" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="609">
@@ -20433,10 +20137,8 @@
       <c r="E609" t="inlineStr"/>
       <c r="F609" t="inlineStr"/>
       <c r="G609" t="inlineStr"/>
-      <c r="H609" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H609" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="610">
@@ -20463,10 +20165,8 @@
       </c>
       <c r="F610" t="inlineStr"/>
       <c r="G610" t="inlineStr"/>
-      <c r="H610" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H610" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="611">
@@ -20489,10 +20189,8 @@
       <c r="E611" t="inlineStr"/>
       <c r="F611" t="inlineStr"/>
       <c r="G611" t="inlineStr"/>
-      <c r="H611" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H611" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="612">
@@ -20519,10 +20217,8 @@
       </c>
       <c r="F612" t="inlineStr"/>
       <c r="G612" t="inlineStr"/>
-      <c r="H612" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H612" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="613">
@@ -20553,10 +20249,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H613" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H613" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="614">
@@ -20587,10 +20281,8 @@
           <t>220K</t>
         </is>
       </c>
-      <c r="H614" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H614" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="615">
@@ -20621,10 +20313,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H615" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H615" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="616">
@@ -20655,10 +20345,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H616" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H616" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="617">
@@ -20685,10 +20373,8 @@
       </c>
       <c r="F617" t="inlineStr"/>
       <c r="G617" t="inlineStr"/>
-      <c r="H617" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H617" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="618">
@@ -20711,10 +20397,8 @@
       <c r="E618" t="inlineStr"/>
       <c r="F618" t="inlineStr"/>
       <c r="G618" t="inlineStr"/>
-      <c r="H618" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H618" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="619">
@@ -20741,10 +20425,8 @@
       </c>
       <c r="F619" t="inlineStr"/>
       <c r="G619" t="inlineStr"/>
-      <c r="H619" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H619" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="620">
@@ -20775,10 +20457,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H620" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H620" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="621">
@@ -20801,10 +20481,8 @@
       <c r="E621" t="inlineStr"/>
       <c r="F621" t="inlineStr"/>
       <c r="G621" t="inlineStr"/>
-      <c r="H621" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H621" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="622">
@@ -20831,10 +20509,8 @@
       </c>
       <c r="F622" t="inlineStr"/>
       <c r="G622" t="inlineStr"/>
-      <c r="H622" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H622" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="623">
@@ -20865,10 +20541,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H623" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H623" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="624">
@@ -20891,10 +20565,8 @@
       <c r="E624" t="inlineStr"/>
       <c r="F624" t="inlineStr"/>
       <c r="G624" t="inlineStr"/>
-      <c r="H624" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H624" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="625">
@@ -20921,10 +20593,8 @@
       </c>
       <c r="F625" t="inlineStr"/>
       <c r="G625" t="inlineStr"/>
-      <c r="H625" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H625" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="626">
@@ -20951,10 +20621,8 @@
       </c>
       <c r="F626" t="inlineStr"/>
       <c r="G626" t="inlineStr"/>
-      <c r="H626" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H626" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="627">
@@ -20981,10 +20649,8 @@
       </c>
       <c r="F627" t="inlineStr"/>
       <c r="G627" t="inlineStr"/>
-      <c r="H627" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H627" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="628">
@@ -21011,10 +20677,8 @@
       </c>
       <c r="F628" t="inlineStr"/>
       <c r="G628" t="inlineStr"/>
-      <c r="H628" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H628" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="629">
@@ -21041,10 +20705,8 @@
       </c>
       <c r="F629" t="inlineStr"/>
       <c r="G629" t="inlineStr"/>
-      <c r="H629" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H629" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="630">
@@ -21075,10 +20737,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H630" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H630" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="631">
@@ -21109,10 +20769,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H631" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H631" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="632">
@@ -21139,10 +20797,8 @@
       </c>
       <c r="F632" t="inlineStr"/>
       <c r="G632" t="inlineStr"/>
-      <c r="H632" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H632" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="633">
@@ -21169,10 +20825,8 @@
       </c>
       <c r="F633" t="inlineStr"/>
       <c r="G633" t="inlineStr"/>
-      <c r="H633" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H633" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="634">
@@ -21199,10 +20853,8 @@
       </c>
       <c r="F634" t="inlineStr"/>
       <c r="G634" t="inlineStr"/>
-      <c r="H634" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H634" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="635">
@@ -21225,10 +20877,8 @@
       <c r="E635" t="inlineStr"/>
       <c r="F635" t="inlineStr"/>
       <c r="G635" t="inlineStr"/>
-      <c r="H635" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H635" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="636">
@@ -21251,10 +20901,8 @@
       <c r="E636" t="inlineStr"/>
       <c r="F636" t="inlineStr"/>
       <c r="G636" t="inlineStr"/>
-      <c r="H636" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H636" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="637">
@@ -21277,10 +20925,8 @@
       <c r="E637" t="inlineStr"/>
       <c r="F637" t="inlineStr"/>
       <c r="G637" t="inlineStr"/>
-      <c r="H637" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H637" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="638">
@@ -21303,10 +20949,8 @@
       <c r="E638" t="inlineStr"/>
       <c r="F638" t="inlineStr"/>
       <c r="G638" t="inlineStr"/>
-      <c r="H638" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H638" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="639">
@@ -21329,44 +20973,62 @@
       <c r="E639" t="inlineStr"/>
       <c r="F639" t="inlineStr"/>
       <c r="G639" t="inlineStr"/>
-      <c r="H639" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H639" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>Friday January 17 2025</t>
-        </is>
-      </c>
-      <c r="B640" t="inlineStr"/>
-      <c r="C640" t="inlineStr"/>
+          <t>02:30 PM</t>
+        </is>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C640" t="inlineStr">
+        <is>
+          <t>Current AccountNOV</t>
+        </is>
+      </c>
       <c r="D640" t="inlineStr"/>
-      <c r="E640" t="inlineStr"/>
+      <c r="E640" t="inlineStr">
+        <is>
+          <t>€32B</t>
+        </is>
+      </c>
       <c r="F640" t="inlineStr"/>
       <c r="G640" t="inlineStr"/>
-      <c r="H640" t="inlineStr"/>
+      <c r="H640" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C641" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/15</t>
+          <t>Current Account s.aNOV</t>
         </is>
       </c>
       <c r="D641" t="inlineStr"/>
-      <c r="E641" t="inlineStr"/>
+      <c r="E641" t="inlineStr">
+        <is>
+          <t>€33.5B</t>
+        </is>
+      </c>
       <c r="F641" t="inlineStr"/>
       <c r="G641" t="inlineStr"/>
       <c r="H641" t="inlineStr">
@@ -21378,83 +21040,99 @@
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C642" t="inlineStr">
         <is>
-          <t>Reuters Tankan IndexJAN</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D642" t="inlineStr"/>
       <c r="E642" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>€-3.93B</t>
         </is>
       </c>
       <c r="F642" t="inlineStr"/>
-      <c r="G642" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G642" t="inlineStr"/>
       <c r="H642" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C643" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/11</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D643" t="inlineStr"/>
-      <c r="E643" t="inlineStr"/>
-      <c r="F643" t="inlineStr"/>
-      <c r="G643" t="inlineStr"/>
+      <c r="E643" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
+      <c r="F643" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="G643" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
       <c r="H643" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C644" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersJAN/11</t>
+          <t>Core Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D644" t="inlineStr"/>
-      <c r="E644" t="inlineStr"/>
+      <c r="E644" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="F644" t="inlineStr"/>
-      <c r="G644" t="inlineStr"/>
+      <c r="G644" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="H644" t="inlineStr">
         <is>
           <t>3</t>
@@ -21464,29 +21142,33 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C645" t="inlineStr">
         <is>
-          <t>Non-Oil Exports MoMDEC</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D645" t="inlineStr"/>
       <c r="E645" t="inlineStr">
         <is>
-          <t>14.7%</t>
-        </is>
-      </c>
-      <c r="F645" t="inlineStr"/>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="F645" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="G645" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H645" t="inlineStr">
@@ -21498,29 +21180,29 @@
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C646" t="inlineStr">
         <is>
-          <t>Non-Oil Exports YoYDEC</t>
+          <t>CPI FinalDEC</t>
         </is>
       </c>
       <c r="D646" t="inlineStr"/>
       <c r="E646" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>126.62</t>
         </is>
       </c>
       <c r="F646" t="inlineStr"/>
       <c r="G646" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>127</t>
         </is>
       </c>
       <c r="H646" t="inlineStr">
@@ -21532,23 +21214,23 @@
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C647" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsJAN</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D647" t="inlineStr"/>
       <c r="E647" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>€5628M</t>
         </is>
       </c>
       <c r="F647" t="inlineStr"/>
@@ -21562,65 +21244,49 @@
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C648" t="inlineStr">
         <is>
-          <t>House Price Index YoYDEC</t>
+          <t>Bank Loan Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D648" t="inlineStr"/>
-      <c r="E648" t="inlineStr">
-        <is>
-          <t>-5.7%</t>
-        </is>
-      </c>
+      <c r="E648" t="inlineStr"/>
       <c r="F648" t="inlineStr"/>
-      <c r="G648" t="inlineStr">
-        <is>
-          <t>-5.8%</t>
-        </is>
-      </c>
+      <c r="G648" t="inlineStr"/>
       <c r="H648" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C649" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Deposit Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D649" t="inlineStr"/>
-      <c r="E649" t="inlineStr">
-        <is>
-          <t>$6.52B</t>
-        </is>
-      </c>
+      <c r="E649" t="inlineStr"/>
       <c r="F649" t="inlineStr"/>
-      <c r="G649" t="inlineStr">
-        <is>
-          <t>$ 3.6B</t>
-        </is>
-      </c>
+      <c r="G649" t="inlineStr"/>
       <c r="H649" t="inlineStr">
         <is>
           <t>3</t>
@@ -21630,355 +21296,347 @@
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C650" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoYQ4</t>
+          <t>Foreign Exchange ReservesJAN/10</t>
         </is>
       </c>
       <c r="D650" t="inlineStr"/>
-      <c r="E650" t="inlineStr">
-        <is>
-          <t>4.6%</t>
-        </is>
-      </c>
+      <c r="E650" t="inlineStr"/>
       <c r="F650" t="inlineStr"/>
-      <c r="G650" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
+      <c r="G650" t="inlineStr"/>
       <c r="H650" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C651" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Foreign Securities PurchasesNOV</t>
         </is>
       </c>
       <c r="D651" t="inlineStr"/>
       <c r="E651" t="inlineStr">
         <is>
-          <t>5.4%</t>
+          <t>C$21.55B</t>
         </is>
       </c>
       <c r="F651" t="inlineStr"/>
-      <c r="G651" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="G651" t="inlineStr"/>
       <c r="H651" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C652" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Foreign Securities Purchases by CanadiansNOV</t>
         </is>
       </c>
       <c r="D652" t="inlineStr"/>
       <c r="E652" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>C$-2.65B</t>
         </is>
       </c>
       <c r="F652" t="inlineStr"/>
-      <c r="G652" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="G652" t="inlineStr"/>
       <c r="H652" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C653" t="inlineStr">
         <is>
-          <t>Fixed Asset Investment (YTD) YoYDEC</t>
+          <t>Building Permits PrelDEC</t>
         </is>
       </c>
       <c r="D653" t="inlineStr"/>
       <c r="E653" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>1.493M</t>
         </is>
       </c>
       <c r="F653" t="inlineStr"/>
       <c r="G653" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>1.6M</t>
         </is>
       </c>
       <c r="H653" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C654" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQQ4</t>
+          <t>Housing StartsDEC</t>
         </is>
       </c>
       <c r="D654" t="inlineStr"/>
       <c r="E654" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>1.289M</t>
         </is>
       </c>
       <c r="F654" t="inlineStr"/>
       <c r="G654" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>1.5M</t>
         </is>
       </c>
       <c r="H654" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C655" t="inlineStr">
         <is>
-          <t>Industrial Capacity UtilizationQ4</t>
+          <t>Building Permits MoM PrelDEC</t>
         </is>
       </c>
       <c r="D655" t="inlineStr"/>
       <c r="E655" t="inlineStr">
         <is>
-          <t>75.1%</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F655" t="inlineStr"/>
-      <c r="G655" t="inlineStr">
-        <is>
-          <t>74.9%</t>
-        </is>
-      </c>
+      <c r="G655" t="inlineStr"/>
       <c r="H655" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C656" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Housing Starts MoMDEC</t>
         </is>
       </c>
       <c r="D656" t="inlineStr"/>
       <c r="E656" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>-1.8%</t>
         </is>
       </c>
       <c r="F656" t="inlineStr"/>
       <c r="G656" t="inlineStr">
         <is>
-          <t>5.00%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="H656" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C657" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D657" t="inlineStr"/>
-      <c r="E657" t="inlineStr"/>
+      <c r="E657" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="F657" t="inlineStr"/>
       <c r="G657" t="inlineStr"/>
       <c r="H657" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C658" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Capacity UtilizationDEC</t>
         </is>
       </c>
       <c r="D658" t="inlineStr"/>
       <c r="E658" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>76.8%</t>
         </is>
       </c>
       <c r="F658" t="inlineStr"/>
       <c r="G658" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>77.8%</t>
         </is>
       </c>
       <c r="H658" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C659" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D659" t="inlineStr"/>
       <c r="E659" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="F659" t="inlineStr"/>
       <c r="G659" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H659" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C660" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel MoMDEC</t>
+          <t>Manufacturing Production MoMDEC</t>
         </is>
       </c>
       <c r="D660" t="inlineStr"/>
-      <c r="E660" t="inlineStr"/>
+      <c r="E660" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F660" t="inlineStr"/>
-      <c r="G660" t="inlineStr"/>
+      <c r="G660" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H660" t="inlineStr">
         <is>
           <t>3</t>
@@ -21988,23 +21646,31 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C661" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel YoYDEC</t>
+          <t>Manufacturing Production YoYDEC</t>
         </is>
       </c>
       <c r="D661" t="inlineStr"/>
-      <c r="E661" t="inlineStr"/>
+      <c r="E661" t="inlineStr">
+        <is>
+          <t>-1%</t>
+        </is>
+      </c>
       <c r="F661" t="inlineStr"/>
-      <c r="G661" t="inlineStr"/>
+      <c r="G661" t="inlineStr">
+        <is>
+          <t>-0.9%</t>
+        </is>
+      </c>
       <c r="H661" t="inlineStr">
         <is>
           <t>3</t>
@@ -22014,31 +21680,23 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>12:50 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C662" t="inlineStr">
         <is>
-          <t>Loan Growth YoYDEC</t>
+          <t>Baker Hughes Oil Rig CountJAN/17</t>
         </is>
       </c>
       <c r="D662" t="inlineStr"/>
-      <c r="E662" t="inlineStr">
-        <is>
-          <t>10.79%</t>
-        </is>
-      </c>
+      <c r="E662" t="inlineStr"/>
       <c r="F662" t="inlineStr"/>
-      <c r="G662" t="inlineStr">
-        <is>
-          <t>10%</t>
-        </is>
-      </c>
+      <c r="G662" t="inlineStr"/>
       <c r="H662" t="inlineStr">
         <is>
           <t>3</t>
@@ -22048,25 +21706,21 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C663" t="inlineStr">
         <is>
-          <t>Deposit Facility RateJAN</t>
+          <t>Baker Hughes Total Rigs CountJAN/17</t>
         </is>
       </c>
       <c r="D663" t="inlineStr"/>
-      <c r="E663" t="inlineStr">
-        <is>
-          <t>5.25%</t>
-        </is>
-      </c>
+      <c r="E663" t="inlineStr"/>
       <c r="F663" t="inlineStr"/>
       <c r="G663" t="inlineStr"/>
       <c r="H663" t="inlineStr">
@@ -22076,25 +21730,21 @@
       </c>
     </row>
     <row r="664">
-      <c r="A664" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
+      <c r="A664" t="inlineStr"/>
       <c r="B664" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C664" t="inlineStr">
         <is>
-          <t>Lending Facility RateJAN</t>
+          <t>50-Year KTB Auction</t>
         </is>
       </c>
       <c r="D664" t="inlineStr"/>
       <c r="E664" t="inlineStr">
         <is>
-          <t>6.75%</t>
+          <t>2.40%</t>
         </is>
       </c>
       <c r="F664" t="inlineStr"/>
@@ -22108,880 +21758,102 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
-      <c r="B665" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C665" t="inlineStr">
-        <is>
-          <t>Current AccountNOV</t>
-        </is>
-      </c>
+          <t>Saturday January 18 2025</t>
+        </is>
+      </c>
+      <c r="B665" t="inlineStr"/>
+      <c r="C665" t="inlineStr"/>
       <c r="D665" t="inlineStr"/>
-      <c r="E665" t="inlineStr">
-        <is>
-          <t>€32B</t>
-        </is>
-      </c>
+      <c r="E665" t="inlineStr"/>
       <c r="F665" t="inlineStr"/>
       <c r="G665" t="inlineStr"/>
-      <c r="H665" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H665" t="inlineStr"/>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C666" t="inlineStr">
         <is>
-          <t>Current Account s.aNOV</t>
+          <t>Net Long-term TIC FlowsNOV</t>
         </is>
       </c>
       <c r="D666" t="inlineStr"/>
       <c r="E666" t="inlineStr">
         <is>
-          <t>€33.5B</t>
+          <t>$152.3B</t>
         </is>
       </c>
       <c r="F666" t="inlineStr"/>
       <c r="G666" t="inlineStr"/>
       <c r="H666" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C667" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Foreign Bond InvestmentNOV</t>
         </is>
       </c>
       <c r="D667" t="inlineStr"/>
       <c r="E667" t="inlineStr">
         <is>
-          <t>€-3.93B</t>
+          <t>$92.1B</t>
         </is>
       </c>
       <c r="F667" t="inlineStr"/>
       <c r="G667" t="inlineStr"/>
       <c r="H667" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C668" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Overall Net Capital FlowsNOV</t>
         </is>
       </c>
       <c r="D668" t="inlineStr"/>
       <c r="E668" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F668" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="G668" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+          <t>$203.6B</t>
+        </is>
+      </c>
+      <c r="F668" t="inlineStr"/>
+      <c r="G668" t="inlineStr"/>
       <c r="H668" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="669">
-      <c r="A669" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B669" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C669" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoY FinalDEC</t>
-        </is>
-      </c>
-      <c r="D669" t="inlineStr"/>
-      <c r="E669" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F669" t="inlineStr"/>
-      <c r="G669" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="H669" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="670">
-      <c r="A670" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B670" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C670" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoM FinalDEC</t>
-        </is>
-      </c>
-      <c r="D670" t="inlineStr"/>
-      <c r="E670" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F670" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G670" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H670" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="671">
-      <c r="A671" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B671" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C671" t="inlineStr">
-        <is>
-          <t>CPI FinalDEC</t>
-        </is>
-      </c>
-      <c r="D671" t="inlineStr"/>
-      <c r="E671" t="inlineStr">
-        <is>
-          <t>126.62</t>
-        </is>
-      </c>
-      <c r="F671" t="inlineStr"/>
-      <c r="G671" t="inlineStr">
-        <is>
-          <t>127</t>
-        </is>
-      </c>
-      <c r="H671" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="672">
-      <c r="A672" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B672" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C672" t="inlineStr">
-        <is>
-          <t>Current AccountNOV</t>
-        </is>
-      </c>
-      <c r="D672" t="inlineStr"/>
-      <c r="E672" t="inlineStr">
-        <is>
-          <t>€5628M</t>
-        </is>
-      </c>
-      <c r="F672" t="inlineStr"/>
-      <c r="G672" t="inlineStr"/>
-      <c r="H672" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="673">
-      <c r="A673" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
-      <c r="B673" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C673" t="inlineStr">
-        <is>
-          <t>Bank Loan Growth YoYJAN/03</t>
-        </is>
-      </c>
-      <c r="D673" t="inlineStr"/>
-      <c r="E673" t="inlineStr"/>
-      <c r="F673" t="inlineStr"/>
-      <c r="G673" t="inlineStr"/>
-      <c r="H673" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="674">
-      <c r="A674" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
-      <c r="B674" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C674" t="inlineStr">
-        <is>
-          <t>Deposit Growth YoYJAN/03</t>
-        </is>
-      </c>
-      <c r="D674" t="inlineStr"/>
-      <c r="E674" t="inlineStr"/>
-      <c r="F674" t="inlineStr"/>
-      <c r="G674" t="inlineStr"/>
-      <c r="H674" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="675">
-      <c r="A675" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
-      <c r="B675" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C675" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN/10</t>
-        </is>
-      </c>
-      <c r="D675" t="inlineStr"/>
-      <c r="E675" t="inlineStr"/>
-      <c r="F675" t="inlineStr"/>
-      <c r="G675" t="inlineStr"/>
-      <c r="H675" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="676">
-      <c r="A676" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B676" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C676" t="inlineStr">
-        <is>
-          <t>Foreign Securities PurchasesNOV</t>
-        </is>
-      </c>
-      <c r="D676" t="inlineStr"/>
-      <c r="E676" t="inlineStr">
-        <is>
-          <t>C$21.55B</t>
-        </is>
-      </c>
-      <c r="F676" t="inlineStr"/>
-      <c r="G676" t="inlineStr"/>
-      <c r="H676" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="677">
-      <c r="A677" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B677" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C677" t="inlineStr">
-        <is>
-          <t>Foreign Securities Purchases by CanadiansNOV</t>
-        </is>
-      </c>
-      <c r="D677" t="inlineStr"/>
-      <c r="E677" t="inlineStr">
-        <is>
-          <t>C$-2.65B</t>
-        </is>
-      </c>
-      <c r="F677" t="inlineStr"/>
-      <c r="G677" t="inlineStr"/>
-      <c r="H677" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="678">
-      <c r="A678" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B678" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C678" t="inlineStr">
-        <is>
-          <t>Building Permits PrelDEC</t>
-        </is>
-      </c>
-      <c r="D678" t="inlineStr"/>
-      <c r="E678" t="inlineStr">
-        <is>
-          <t>1.493M</t>
-        </is>
-      </c>
-      <c r="F678" t="inlineStr"/>
-      <c r="G678" t="inlineStr">
-        <is>
-          <t>1.6M</t>
-        </is>
-      </c>
-      <c r="H678" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="679">
-      <c r="A679" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B679" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C679" t="inlineStr">
-        <is>
-          <t>Housing StartsDEC</t>
-        </is>
-      </c>
-      <c r="D679" t="inlineStr"/>
-      <c r="E679" t="inlineStr">
-        <is>
-          <t>1.289M</t>
-        </is>
-      </c>
-      <c r="F679" t="inlineStr"/>
-      <c r="G679" t="inlineStr">
-        <is>
-          <t>1.5M</t>
-        </is>
-      </c>
-      <c r="H679" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="680">
-      <c r="A680" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B680" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C680" t="inlineStr">
-        <is>
-          <t>Building Permits MoM PrelDEC</t>
-        </is>
-      </c>
-      <c r="D680" t="inlineStr"/>
-      <c r="E680" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F680" t="inlineStr"/>
-      <c r="G680" t="inlineStr"/>
-      <c r="H680" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="681">
-      <c r="A681" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B681" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C681" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMDEC</t>
-        </is>
-      </c>
-      <c r="D681" t="inlineStr"/>
-      <c r="E681" t="inlineStr">
-        <is>
-          <t>-1.8%</t>
-        </is>
-      </c>
-      <c r="F681" t="inlineStr"/>
-      <c r="G681" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="H681" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="682">
-      <c r="A682" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B682" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C682" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMDEC</t>
-        </is>
-      </c>
-      <c r="D682" t="inlineStr"/>
-      <c r="E682" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F682" t="inlineStr"/>
-      <c r="G682" t="inlineStr"/>
-      <c r="H682" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="683">
-      <c r="A683" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B683" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C683" t="inlineStr">
-        <is>
-          <t>Capacity UtilizationDEC</t>
-        </is>
-      </c>
-      <c r="D683" t="inlineStr"/>
-      <c r="E683" t="inlineStr">
-        <is>
-          <t>76.8%</t>
-        </is>
-      </c>
-      <c r="F683" t="inlineStr"/>
-      <c r="G683" t="inlineStr">
-        <is>
-          <t>77.8%</t>
-        </is>
-      </c>
-      <c r="H683" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="684">
-      <c r="A684" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B684" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C684" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D684" t="inlineStr"/>
-      <c r="E684" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="F684" t="inlineStr"/>
-      <c r="G684" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="H684" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="685">
-      <c r="A685" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B685" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C685" t="inlineStr">
-        <is>
-          <t>Manufacturing Production MoMDEC</t>
-        </is>
-      </c>
-      <c r="D685" t="inlineStr"/>
-      <c r="E685" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F685" t="inlineStr"/>
-      <c r="G685" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H685" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="686">
-      <c r="A686" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B686" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C686" t="inlineStr">
-        <is>
-          <t>Manufacturing Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D686" t="inlineStr"/>
-      <c r="E686" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
-      <c r="F686" t="inlineStr"/>
-      <c r="G686" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="H686" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="687">
-      <c r="A687" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B687" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C687" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJAN/17</t>
-        </is>
-      </c>
-      <c r="D687" t="inlineStr"/>
-      <c r="E687" t="inlineStr"/>
-      <c r="F687" t="inlineStr"/>
-      <c r="G687" t="inlineStr"/>
-      <c r="H687" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="688">
-      <c r="A688" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B688" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C688" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJAN/17</t>
-        </is>
-      </c>
-      <c r="D688" t="inlineStr"/>
-      <c r="E688" t="inlineStr"/>
-      <c r="F688" t="inlineStr"/>
-      <c r="G688" t="inlineStr"/>
-      <c r="H688" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="689">
-      <c r="A689" t="inlineStr"/>
-      <c r="B689" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C689" t="inlineStr">
-        <is>
-          <t>50-Year KTB Auction</t>
-        </is>
-      </c>
-      <c r="D689" t="inlineStr"/>
-      <c r="E689" t="inlineStr">
-        <is>
-          <t>2.40%</t>
-        </is>
-      </c>
-      <c r="F689" t="inlineStr"/>
-      <c r="G689" t="inlineStr"/>
-      <c r="H689" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="690">
-      <c r="A690" t="inlineStr">
-        <is>
-          <t>Saturday January 18 2025</t>
-        </is>
-      </c>
-      <c r="B690" t="inlineStr"/>
-      <c r="C690" t="inlineStr"/>
-      <c r="D690" t="inlineStr"/>
-      <c r="E690" t="inlineStr"/>
-      <c r="F690" t="inlineStr"/>
-      <c r="G690" t="inlineStr"/>
-      <c r="H690" t="inlineStr"/>
-    </row>
-    <row r="691">
-      <c r="A691" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B691" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C691" t="inlineStr">
-        <is>
-          <t>Net Long-term TIC FlowsNOV</t>
-        </is>
-      </c>
-      <c r="D691" t="inlineStr"/>
-      <c r="E691" t="inlineStr">
-        <is>
-          <t>$152.3B</t>
-        </is>
-      </c>
-      <c r="F691" t="inlineStr"/>
-      <c r="G691" t="inlineStr"/>
-      <c r="H691" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="692">
-      <c r="A692" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B692" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C692" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentNOV</t>
-        </is>
-      </c>
-      <c r="D692" t="inlineStr"/>
-      <c r="E692" t="inlineStr">
-        <is>
-          <t>$92.1B</t>
-        </is>
-      </c>
-      <c r="F692" t="inlineStr"/>
-      <c r="G692" t="inlineStr"/>
-      <c r="H692" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="693">
-      <c r="A693" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B693" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C693" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsNOV</t>
-        </is>
-      </c>
-      <c r="D693" t="inlineStr"/>
-      <c r="E693" t="inlineStr">
-        <is>
-          <t>$203.6B</t>
-        </is>
-      </c>
-      <c r="F693" t="inlineStr"/>
-      <c r="G693" t="inlineStr"/>
-      <c r="H693" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-18.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H693"/>
+  <dimension ref="A1:H667"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15525,10 +15525,8 @@
       </c>
       <c r="F451" t="inlineStr"/>
       <c r="G451" t="inlineStr"/>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H451" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="452">
@@ -15555,10 +15553,8 @@
       </c>
       <c r="F452" t="inlineStr"/>
       <c r="G452" t="inlineStr"/>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H452" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="453">
@@ -15581,10 +15577,8 @@
       </c>
       <c r="F453" t="inlineStr"/>
       <c r="G453" t="inlineStr"/>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H453" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="454">
@@ -15607,10 +15601,8 @@
       </c>
       <c r="F454" t="inlineStr"/>
       <c r="G454" t="inlineStr"/>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H454" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="455">
@@ -15633,10 +15625,8 @@
       </c>
       <c r="F455" t="inlineStr"/>
       <c r="G455" t="inlineStr"/>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H455" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="456">
@@ -15663,10 +15653,8 @@
           <t>6.4%</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H456" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="457">
@@ -15689,10 +15677,8 @@
       </c>
       <c r="F457" t="inlineStr"/>
       <c r="G457" t="inlineStr"/>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H457" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="458">
@@ -15711,10 +15697,8 @@
       <c r="E458" t="inlineStr"/>
       <c r="F458" t="inlineStr"/>
       <c r="G458" t="inlineStr"/>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H458" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="459">
@@ -15755,10 +15739,8 @@
       </c>
       <c r="F460" t="inlineStr"/>
       <c r="G460" t="inlineStr"/>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H460" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="461">
@@ -15785,10 +15767,8 @@
       </c>
       <c r="F461" t="inlineStr"/>
       <c r="G461" t="inlineStr"/>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H461" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="462">
@@ -15815,10 +15795,8 @@
       </c>
       <c r="F462" t="inlineStr"/>
       <c r="G462" t="inlineStr"/>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H462" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="463">
@@ -15849,10 +15827,8 @@
           <t>¥1990.0B</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H463" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="464">
@@ -15883,10 +15859,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H464" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="465">
@@ -15913,10 +15887,8 @@
       </c>
       <c r="F465" t="inlineStr"/>
       <c r="G465" t="inlineStr"/>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H465" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="466">
@@ -15943,10 +15915,8 @@
       </c>
       <c r="F466" t="inlineStr"/>
       <c r="G466" t="inlineStr"/>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H466" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="467">
@@ -15973,10 +15943,8 @@
       </c>
       <c r="F467" t="inlineStr"/>
       <c r="G467" t="inlineStr"/>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H467" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="468">
@@ -16007,10 +15975,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H468" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="469">
@@ -16041,10 +16007,8 @@
           <t>49.6</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H469" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="470">
@@ -16071,10 +16035,8 @@
       </c>
       <c r="F470" t="inlineStr"/>
       <c r="G470" t="inlineStr"/>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H470" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="471">
@@ -16101,10 +16063,8 @@
       </c>
       <c r="F471" t="inlineStr"/>
       <c r="G471" t="inlineStr"/>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H471" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="472">
@@ -16135,10 +16095,8 @@
           <t>10.2%</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H472" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="473">
@@ -16169,10 +16127,8 @@
           <t>-3.2%</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H473" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="474">
@@ -16203,10 +16159,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H474" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="475">
@@ -16233,10 +16187,8 @@
       </c>
       <c r="F475" t="inlineStr"/>
       <c r="G475" t="inlineStr"/>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H475" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="476">
@@ -16263,10 +16215,8 @@
       </c>
       <c r="F476" t="inlineStr"/>
       <c r="G476" t="inlineStr"/>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H476" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="477">
@@ -16293,10 +16243,8 @@
       </c>
       <c r="F477" t="inlineStr"/>
       <c r="G477" t="inlineStr"/>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H477" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="478">
@@ -16319,10 +16267,8 @@
       <c r="E478" t="inlineStr"/>
       <c r="F478" t="inlineStr"/>
       <c r="G478" t="inlineStr"/>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H478" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="479">
@@ -16345,10 +16291,8 @@
       <c r="E479" t="inlineStr"/>
       <c r="F479" t="inlineStr"/>
       <c r="G479" t="inlineStr"/>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H479" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="480">
@@ -16375,10 +16319,8 @@
       </c>
       <c r="F480" t="inlineStr"/>
       <c r="G480" t="inlineStr"/>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H480" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="481">
@@ -16405,10 +16347,8 @@
       </c>
       <c r="F481" t="inlineStr"/>
       <c r="G481" t="inlineStr"/>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H481" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="482">
@@ -16439,10 +16379,8 @@
           <t>102</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H482" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="483">
@@ -16473,10 +16411,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H483" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="484">
@@ -16503,10 +16439,8 @@
       </c>
       <c r="F484" t="inlineStr"/>
       <c r="G484" t="inlineStr"/>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H484" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="485">
@@ -16537,10 +16471,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H485" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="486">
@@ -16571,10 +16503,8 @@
           <t>146.4</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H486" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="487">
@@ -16601,10 +16531,8 @@
       </c>
       <c r="F487" t="inlineStr"/>
       <c r="G487" t="inlineStr"/>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H487" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="488">
@@ -16631,10 +16559,8 @@
       </c>
       <c r="F488" t="inlineStr"/>
       <c r="G488" t="inlineStr"/>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H488" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="489">
@@ -16665,10 +16591,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H489" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="490">
@@ -16695,10 +16619,8 @@
       </c>
       <c r="F490" t="inlineStr"/>
       <c r="G490" t="inlineStr"/>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H490" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="491">
@@ -16725,10 +16647,8 @@
       </c>
       <c r="F491" t="inlineStr"/>
       <c r="G491" t="inlineStr"/>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H491" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="492">
@@ -16751,10 +16671,8 @@
       </c>
       <c r="F492" t="inlineStr"/>
       <c r="G492" t="inlineStr"/>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H492" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="493">
@@ -16799,10 +16717,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H494" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="495">
@@ -16833,10 +16749,8 @@
           <t>116.0%</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H495" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="496">
@@ -16867,10 +16781,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H496" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="497">
@@ -16901,10 +16813,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H497" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="498">
@@ -16931,10 +16841,8 @@
       </c>
       <c r="F498" t="inlineStr"/>
       <c r="G498" t="inlineStr"/>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H498" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="499">
@@ -16965,10 +16873,8 @@
           <t>$ 2.8B</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H499" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="500">
@@ -16995,10 +16901,8 @@
       </c>
       <c r="F500" t="inlineStr"/>
       <c r="G500" t="inlineStr"/>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H500" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="501">
@@ -17025,10 +16929,8 @@
       </c>
       <c r="F501" t="inlineStr"/>
       <c r="G501" t="inlineStr"/>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H501" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="502">
@@ -17055,10 +16957,8 @@
       </c>
       <c r="F502" t="inlineStr"/>
       <c r="G502" t="inlineStr"/>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H502" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="503">
@@ -17089,10 +16989,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H503" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="504">
@@ -17123,10 +17021,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H504" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="505">
@@ -17157,10 +17053,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H505" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="506">
@@ -17191,10 +17085,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H506" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="507">
@@ -17225,10 +17117,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H507" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="508">
@@ -17259,10 +17149,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H508" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="509">
@@ -17293,10 +17181,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H509" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="510">
@@ -17327,10 +17213,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H510" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="511">
@@ -17361,10 +17245,8 @@
           <t>2.1%</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H511" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="512">
@@ -17395,10 +17277,8 @@
           <t>-1.3%</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H512" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="513">
@@ -17429,10 +17309,8 @@
           <t>-1%</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H513" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="514">
@@ -17463,10 +17341,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H514" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="515">
@@ -17497,10 +17373,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H515" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="516">
@@ -17527,10 +17401,8 @@
       </c>
       <c r="F516" t="inlineStr"/>
       <c r="G516" t="inlineStr"/>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H516" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="517">
@@ -17561,10 +17433,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H517" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="518">
@@ -17595,10 +17465,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H518" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="519">
@@ -17629,10 +17497,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H519" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="520">
@@ -17663,10 +17529,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H520" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="521">
@@ -17697,10 +17561,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H521" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="522">
@@ -17727,10 +17589,8 @@
       </c>
       <c r="F522" t="inlineStr"/>
       <c r="G522" t="inlineStr"/>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H522" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="523">
@@ -17765,10 +17625,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H523" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="524">
@@ -17803,10 +17661,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H524" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="525">
@@ -17841,10 +17697,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H525" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="526">
@@ -17875,10 +17729,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H526" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="527">
@@ -17909,10 +17761,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H527" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="528">
@@ -17939,10 +17789,8 @@
       </c>
       <c r="F528" t="inlineStr"/>
       <c r="G528" t="inlineStr"/>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H528" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="529">
@@ -17969,10 +17817,8 @@
       </c>
       <c r="F529" t="inlineStr"/>
       <c r="G529" t="inlineStr"/>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H529" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="530">
@@ -17999,10 +17845,8 @@
       </c>
       <c r="F530" t="inlineStr"/>
       <c r="G530" t="inlineStr"/>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H530" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="531">
@@ -18029,10 +17873,8 @@
       </c>
       <c r="F531" t="inlineStr"/>
       <c r="G531" t="inlineStr"/>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H531" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="532">
@@ -18059,10 +17901,8 @@
       </c>
       <c r="F532" t="inlineStr"/>
       <c r="G532" t="inlineStr"/>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H532" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="533">
@@ -18089,10 +17929,8 @@
       </c>
       <c r="F533" t="inlineStr"/>
       <c r="G533" t="inlineStr"/>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H533" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="534">
@@ -18115,10 +17953,8 @@
       <c r="E534" t="inlineStr"/>
       <c r="F534" t="inlineStr"/>
       <c r="G534" t="inlineStr"/>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H534" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="535">
@@ -18141,10 +17977,8 @@
       <c r="E535" t="inlineStr"/>
       <c r="F535" t="inlineStr"/>
       <c r="G535" t="inlineStr"/>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H535" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="536">
@@ -18167,10 +18001,8 @@
       <c r="E536" t="inlineStr"/>
       <c r="F536" t="inlineStr"/>
       <c r="G536" t="inlineStr"/>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H536" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="537">
@@ -18193,10 +18025,8 @@
       <c r="E537" t="inlineStr"/>
       <c r="F537" t="inlineStr"/>
       <c r="G537" t="inlineStr"/>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H537" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="538">
@@ -18219,10 +18049,8 @@
       <c r="E538" t="inlineStr"/>
       <c r="F538" t="inlineStr"/>
       <c r="G538" t="inlineStr"/>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H538" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="539">
@@ -18253,10 +18081,8 @@
           <t>$628.0B</t>
         </is>
       </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H539" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="540">
@@ -18291,10 +18117,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H540" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="541">
@@ -18321,10 +18145,8 @@
       </c>
       <c r="F541" t="inlineStr"/>
       <c r="G541" t="inlineStr"/>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H541" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="542">
@@ -18359,10 +18181,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H542" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="543">
@@ -18393,10 +18213,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H543" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="544">
@@ -18427,10 +18245,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H544" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="545">
@@ -18461,10 +18277,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H545" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="546">
@@ -18495,10 +18309,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H546" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="547">
@@ -18529,10 +18341,8 @@
           <t>313.8</t>
         </is>
       </c>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H547" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="548">
@@ -18563,10 +18373,8 @@
           <t>317.4</t>
         </is>
       </c>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H548" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="549">
@@ -18593,10 +18401,8 @@
       </c>
       <c r="F549" t="inlineStr"/>
       <c r="G549" t="inlineStr"/>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H549" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="550">
@@ -18619,10 +18425,8 @@
       <c r="E550" t="inlineStr"/>
       <c r="F550" t="inlineStr"/>
       <c r="G550" t="inlineStr"/>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H550" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="551">
@@ -18645,10 +18449,8 @@
       <c r="E551" t="inlineStr"/>
       <c r="F551" t="inlineStr"/>
       <c r="G551" t="inlineStr"/>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H551" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="552">
@@ -18671,10 +18473,8 @@
       <c r="E552" t="inlineStr"/>
       <c r="F552" t="inlineStr"/>
       <c r="G552" t="inlineStr"/>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H552" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="553">
@@ -18697,10 +18497,8 @@
       <c r="E553" t="inlineStr"/>
       <c r="F553" t="inlineStr"/>
       <c r="G553" t="inlineStr"/>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H553" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="554">
@@ -18723,10 +18521,8 @@
       <c r="E554" t="inlineStr"/>
       <c r="F554" t="inlineStr"/>
       <c r="G554" t="inlineStr"/>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H554" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="555">
@@ -18749,10 +18545,8 @@
       <c r="E555" t="inlineStr"/>
       <c r="F555" t="inlineStr"/>
       <c r="G555" t="inlineStr"/>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H555" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="556">
@@ -18775,10 +18569,8 @@
       <c r="E556" t="inlineStr"/>
       <c r="F556" t="inlineStr"/>
       <c r="G556" t="inlineStr"/>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H556" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="557">
@@ -18801,10 +18593,8 @@
       <c r="E557" t="inlineStr"/>
       <c r="F557" t="inlineStr"/>
       <c r="G557" t="inlineStr"/>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H557" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="558">
@@ -18827,10 +18617,8 @@
       <c r="E558" t="inlineStr"/>
       <c r="F558" t="inlineStr"/>
       <c r="G558" t="inlineStr"/>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H558" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="559">
@@ -18861,10 +18649,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H559" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H559" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="560">
@@ -18895,10 +18681,8 @@
           <t>9.5%</t>
         </is>
       </c>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H560" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="561">
@@ -18921,10 +18705,8 @@
       <c r="E561" t="inlineStr"/>
       <c r="F561" t="inlineStr"/>
       <c r="G561" t="inlineStr"/>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H561" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="562">
@@ -18955,10 +18737,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H562" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H562" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="563">
@@ -18985,10 +18765,8 @@
       </c>
       <c r="F563" t="inlineStr"/>
       <c r="G563" t="inlineStr"/>
-      <c r="H563" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H563" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="564">
@@ -19011,10 +18789,8 @@
       </c>
       <c r="F564" t="inlineStr"/>
       <c r="G564" t="inlineStr"/>
-      <c r="H564" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H564" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="565">
@@ -19041,10 +18817,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H565" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H565" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="566">
@@ -19071,10 +18845,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H566" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H566" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="567">
@@ -19101,10 +18873,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H567" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H567" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="568">
@@ -19123,10 +18893,8 @@
       <c r="E568" t="inlineStr"/>
       <c r="F568" t="inlineStr"/>
       <c r="G568" t="inlineStr"/>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H568" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="569">
@@ -19145,10 +18913,8 @@
       <c r="E569" t="inlineStr"/>
       <c r="F569" t="inlineStr"/>
       <c r="G569" t="inlineStr"/>
-      <c r="H569" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H569" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="570">
@@ -19175,10 +18941,8 @@
           <t>$ -23B</t>
         </is>
       </c>
-      <c r="H570" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H570" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="571">
@@ -19205,10 +18969,8 @@
           <t>$ 36B</t>
         </is>
       </c>
-      <c r="H571" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H571" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="572">
@@ -19235,10 +18997,8 @@
           <t>$ 59B</t>
         </is>
       </c>
-      <c r="H572" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H572" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="573">
@@ -19283,10 +19043,8 @@
           <t>3.30%</t>
         </is>
       </c>
-      <c r="H574" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H574" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="575">
@@ -19313,10 +19071,8 @@
       </c>
       <c r="F575" t="inlineStr"/>
       <c r="G575" t="inlineStr"/>
-      <c r="H575" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H575" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="576">
@@ -19347,10 +19103,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H576" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H576" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="577">
@@ -19381,10 +19135,8 @@
           <t>17.0%</t>
         </is>
       </c>
-      <c r="H577" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H577" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="578">
@@ -19415,10 +19167,8 @@
           <t>4.30%</t>
         </is>
       </c>
-      <c r="H578" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H578" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="579">
@@ -19449,10 +19199,8 @@
           <t>25.1K</t>
         </is>
       </c>
-      <c r="H579" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H579" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="580">
@@ -19479,10 +19227,8 @@
       </c>
       <c r="F580" t="inlineStr"/>
       <c r="G580" t="inlineStr"/>
-      <c r="H580" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H580" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="581">
@@ -19509,10 +19255,8 @@
       </c>
       <c r="F581" t="inlineStr"/>
       <c r="G581" t="inlineStr"/>
-      <c r="H581" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H581" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="582">
@@ -19543,10 +19287,8 @@
           <t>66.8%</t>
         </is>
       </c>
-      <c r="H582" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H582" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="583">
@@ -19573,10 +19315,8 @@
       </c>
       <c r="F583" t="inlineStr"/>
       <c r="G583" t="inlineStr"/>
-      <c r="H583" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H583" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="584">
@@ -19603,10 +19343,8 @@
       </c>
       <c r="F584" t="inlineStr"/>
       <c r="G584" t="inlineStr"/>
-      <c r="H584" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H584" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="585">
@@ -19633,10 +19371,8 @@
       </c>
       <c r="F585" t="inlineStr"/>
       <c r="G585" t="inlineStr"/>
-      <c r="H585" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H585" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="586">
@@ -19663,10 +19399,8 @@
       </c>
       <c r="F586" t="inlineStr"/>
       <c r="G586" t="inlineStr"/>
-      <c r="H586" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H586" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="587">
@@ -19701,10 +19435,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H587" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H587" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="588">
@@ -19735,10 +19467,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H588" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H588" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="589">
@@ -19773,10 +19503,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H589" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H589" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="590">
@@ -19811,10 +19539,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H590" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H590" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="591">
@@ -19845,10 +19571,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H591" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H591" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="592">
@@ -19879,10 +19603,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H592" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H592" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="593">
@@ -19913,10 +19635,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H593" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H593" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="594">
@@ -19943,10 +19663,8 @@
       </c>
       <c r="F594" t="inlineStr"/>
       <c r="G594" t="inlineStr"/>
-      <c r="H594" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H594" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="595">
@@ -19973,10 +19691,8 @@
       </c>
       <c r="F595" t="inlineStr"/>
       <c r="G595" t="inlineStr"/>
-      <c r="H595" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H595" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="596">
@@ -20003,10 +19719,8 @@
       </c>
       <c r="F596" t="inlineStr"/>
       <c r="G596" t="inlineStr"/>
-      <c r="H596" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H596" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="597">
@@ -20033,10 +19747,8 @@
       </c>
       <c r="F597" t="inlineStr"/>
       <c r="G597" t="inlineStr"/>
-      <c r="H597" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H597" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="598">
@@ -20063,10 +19775,8 @@
       </c>
       <c r="F598" t="inlineStr"/>
       <c r="G598" t="inlineStr"/>
-      <c r="H598" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H598" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="599">
@@ -20097,10 +19807,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H599" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H599" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="600">
@@ -20127,10 +19835,8 @@
       </c>
       <c r="F600" t="inlineStr"/>
       <c r="G600" t="inlineStr"/>
-      <c r="H600" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H600" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="601">
@@ -20157,10 +19863,8 @@
       </c>
       <c r="F601" t="inlineStr"/>
       <c r="G601" t="inlineStr"/>
-      <c r="H601" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H601" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="602">
@@ -20187,10 +19891,8 @@
       </c>
       <c r="F602" t="inlineStr"/>
       <c r="G602" t="inlineStr"/>
-      <c r="H602" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H602" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="603">
@@ -20225,10 +19927,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H603" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H603" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="604">
@@ -20263,10 +19963,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H604" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H604" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="605">
@@ -20301,10 +19999,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H605" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H605" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="606">
@@ -20339,10 +20035,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H606" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H606" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="607">
@@ -20365,10 +20059,8 @@
       <c r="E607" t="inlineStr"/>
       <c r="F607" t="inlineStr"/>
       <c r="G607" t="inlineStr"/>
-      <c r="H607" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H607" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="608">
@@ -20391,10 +20083,8 @@
       <c r="E608" t="inlineStr"/>
       <c r="F608" t="inlineStr"/>
       <c r="G608" t="inlineStr"/>
-      <c r="H608" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H608" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="609">
@@ -20417,10 +20107,8 @@
       <c r="E609" t="inlineStr"/>
       <c r="F609" t="inlineStr"/>
       <c r="G609" t="inlineStr"/>
-      <c r="H609" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H609" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="610">
@@ -20447,10 +20135,8 @@
       </c>
       <c r="F610" t="inlineStr"/>
       <c r="G610" t="inlineStr"/>
-      <c r="H610" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H610" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="611">
@@ -20473,10 +20159,8 @@
       <c r="E611" t="inlineStr"/>
       <c r="F611" t="inlineStr"/>
       <c r="G611" t="inlineStr"/>
-      <c r="H611" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H611" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="612">
@@ -20503,10 +20187,8 @@
       </c>
       <c r="F612" t="inlineStr"/>
       <c r="G612" t="inlineStr"/>
-      <c r="H612" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H612" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="613">
@@ -20537,10 +20219,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H613" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H613" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="614">
@@ -20571,10 +20251,8 @@
           <t>220K</t>
         </is>
       </c>
-      <c r="H614" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H614" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="615">
@@ -20605,10 +20283,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H615" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H615" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="616">
@@ -20639,10 +20315,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H616" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H616" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="617">
@@ -20669,10 +20343,8 @@
       </c>
       <c r="F617" t="inlineStr"/>
       <c r="G617" t="inlineStr"/>
-      <c r="H617" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H617" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="618">
@@ -20695,10 +20367,8 @@
       <c r="E618" t="inlineStr"/>
       <c r="F618" t="inlineStr"/>
       <c r="G618" t="inlineStr"/>
-      <c r="H618" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H618" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="619">
@@ -20725,10 +20395,8 @@
       </c>
       <c r="F619" t="inlineStr"/>
       <c r="G619" t="inlineStr"/>
-      <c r="H619" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H619" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="620">
@@ -20759,10 +20427,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H620" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H620" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="621">
@@ -20785,10 +20451,8 @@
       <c r="E621" t="inlineStr"/>
       <c r="F621" t="inlineStr"/>
       <c r="G621" t="inlineStr"/>
-      <c r="H621" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H621" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="622">
@@ -20815,10 +20479,8 @@
       </c>
       <c r="F622" t="inlineStr"/>
       <c r="G622" t="inlineStr"/>
-      <c r="H622" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H622" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="623">
@@ -20849,10 +20511,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H623" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H623" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="624">
@@ -20875,10 +20535,8 @@
       <c r="E624" t="inlineStr"/>
       <c r="F624" t="inlineStr"/>
       <c r="G624" t="inlineStr"/>
-      <c r="H624" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H624" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="625">
@@ -20905,10 +20563,8 @@
       </c>
       <c r="F625" t="inlineStr"/>
       <c r="G625" t="inlineStr"/>
-      <c r="H625" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H625" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="626">
@@ -20935,10 +20591,8 @@
       </c>
       <c r="F626" t="inlineStr"/>
       <c r="G626" t="inlineStr"/>
-      <c r="H626" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H626" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="627">
@@ -20965,10 +20619,8 @@
       </c>
       <c r="F627" t="inlineStr"/>
       <c r="G627" t="inlineStr"/>
-      <c r="H627" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H627" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="628">
@@ -20995,10 +20647,8 @@
       </c>
       <c r="F628" t="inlineStr"/>
       <c r="G628" t="inlineStr"/>
-      <c r="H628" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H628" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="629">
@@ -21025,10 +20675,8 @@
       </c>
       <c r="F629" t="inlineStr"/>
       <c r="G629" t="inlineStr"/>
-      <c r="H629" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H629" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="630">
@@ -21059,10 +20707,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H630" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H630" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="631">
@@ -21093,10 +20739,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H631" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H631" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="632">
@@ -21123,10 +20767,8 @@
       </c>
       <c r="F632" t="inlineStr"/>
       <c r="G632" t="inlineStr"/>
-      <c r="H632" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H632" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="633">
@@ -21153,10 +20795,8 @@
       </c>
       <c r="F633" t="inlineStr"/>
       <c r="G633" t="inlineStr"/>
-      <c r="H633" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H633" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="634">
@@ -21183,10 +20823,8 @@
       </c>
       <c r="F634" t="inlineStr"/>
       <c r="G634" t="inlineStr"/>
-      <c r="H634" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H634" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="635">
@@ -21209,10 +20847,8 @@
       <c r="E635" t="inlineStr"/>
       <c r="F635" t="inlineStr"/>
       <c r="G635" t="inlineStr"/>
-      <c r="H635" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H635" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="636">
@@ -21235,10 +20871,8 @@
       <c r="E636" t="inlineStr"/>
       <c r="F636" t="inlineStr"/>
       <c r="G636" t="inlineStr"/>
-      <c r="H636" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H636" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="637">
@@ -21261,10 +20895,8 @@
       <c r="E637" t="inlineStr"/>
       <c r="F637" t="inlineStr"/>
       <c r="G637" t="inlineStr"/>
-      <c r="H637" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H637" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="638">
@@ -21287,10 +20919,8 @@
       <c r="E638" t="inlineStr"/>
       <c r="F638" t="inlineStr"/>
       <c r="G638" t="inlineStr"/>
-      <c r="H638" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H638" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="639">
@@ -21313,106 +20943,136 @@
       <c r="E639" t="inlineStr"/>
       <c r="F639" t="inlineStr"/>
       <c r="G639" t="inlineStr"/>
-      <c r="H639" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H639" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>Friday January 17 2025</t>
-        </is>
-      </c>
-      <c r="B640" t="inlineStr"/>
-      <c r="C640" t="inlineStr"/>
+          <t>02:30 PM</t>
+        </is>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C640" t="inlineStr">
+        <is>
+          <t>Current Account s.aNOV</t>
+        </is>
+      </c>
       <c r="D640" t="inlineStr"/>
-      <c r="E640" t="inlineStr"/>
+      <c r="E640" t="inlineStr">
+        <is>
+          <t>€33.5B</t>
+        </is>
+      </c>
       <c r="F640" t="inlineStr"/>
       <c r="G640" t="inlineStr"/>
-      <c r="H640" t="inlineStr"/>
+      <c r="H640" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C641" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/15</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D641" t="inlineStr"/>
-      <c r="E641" t="inlineStr"/>
+      <c r="E641" t="inlineStr">
+        <is>
+          <t>€-3.93B</t>
+        </is>
+      </c>
       <c r="F641" t="inlineStr"/>
       <c r="G641" t="inlineStr"/>
       <c r="H641" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C642" t="inlineStr">
         <is>
-          <t>Reuters Tankan IndexJAN</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D642" t="inlineStr"/>
       <c r="E642" t="inlineStr">
         <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="F642" t="inlineStr"/>
+          <t>2.2%</t>
+        </is>
+      </c>
+      <c r="F642" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
       <c r="G642" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="H642" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C643" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/11</t>
+          <t>Core Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D643" t="inlineStr"/>
-      <c r="E643" t="inlineStr"/>
+      <c r="E643" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="F643" t="inlineStr"/>
-      <c r="G643" t="inlineStr"/>
+      <c r="G643" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="H643" t="inlineStr">
         <is>
           <t>3</t>
@@ -21422,23 +21082,35 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C644" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersJAN/11</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D644" t="inlineStr"/>
-      <c r="E644" t="inlineStr"/>
-      <c r="F644" t="inlineStr"/>
-      <c r="G644" t="inlineStr"/>
+      <c r="E644" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="F644" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G644" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H644" t="inlineStr">
         <is>
           <t>3</t>
@@ -21448,29 +21120,29 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C645" t="inlineStr">
         <is>
-          <t>Non-Oil Exports MoMDEC</t>
+          <t>CPI FinalDEC</t>
         </is>
       </c>
       <c r="D645" t="inlineStr"/>
       <c r="E645" t="inlineStr">
         <is>
-          <t>14.7%</t>
+          <t>126.62</t>
         </is>
       </c>
       <c r="F645" t="inlineStr"/>
       <c r="G645" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>127</t>
         </is>
       </c>
       <c r="H645" t="inlineStr">
@@ -21482,31 +21154,27 @@
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C646" t="inlineStr">
         <is>
-          <t>Non-Oil Exports YoYDEC</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D646" t="inlineStr"/>
       <c r="E646" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>€5628M</t>
         </is>
       </c>
       <c r="F646" t="inlineStr"/>
-      <c r="G646" t="inlineStr">
-        <is>
-          <t>7.5%</t>
-        </is>
-      </c>
+      <c r="G646" t="inlineStr"/>
       <c r="H646" t="inlineStr">
         <is>
           <t>3</t>
@@ -21516,25 +21184,21 @@
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C647" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsJAN</t>
+          <t>Bank Loan Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D647" t="inlineStr"/>
-      <c r="E647" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
+      <c r="E647" t="inlineStr"/>
       <c r="F647" t="inlineStr"/>
       <c r="G647" t="inlineStr"/>
       <c r="H647" t="inlineStr">
@@ -21546,65 +21210,49 @@
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C648" t="inlineStr">
         <is>
-          <t>House Price Index YoYDEC</t>
+          <t>Deposit Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D648" t="inlineStr"/>
-      <c r="E648" t="inlineStr">
-        <is>
-          <t>-5.7%</t>
-        </is>
-      </c>
+      <c r="E648" t="inlineStr"/>
       <c r="F648" t="inlineStr"/>
-      <c r="G648" t="inlineStr">
-        <is>
-          <t>-5.8%</t>
-        </is>
-      </c>
+      <c r="G648" t="inlineStr"/>
       <c r="H648" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C649" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Foreign Exchange ReservesJAN/10</t>
         </is>
       </c>
       <c r="D649" t="inlineStr"/>
-      <c r="E649" t="inlineStr">
-        <is>
-          <t>$6.52B</t>
-        </is>
-      </c>
+      <c r="E649" t="inlineStr"/>
       <c r="F649" t="inlineStr"/>
-      <c r="G649" t="inlineStr">
-        <is>
-          <t>$ 3.6B</t>
-        </is>
-      </c>
+      <c r="G649" t="inlineStr"/>
       <c r="H649" t="inlineStr">
         <is>
           <t>3</t>
@@ -21614,97 +21262,89 @@
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C650" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoYQ4</t>
+          <t>Foreign Securities PurchasesNOV</t>
         </is>
       </c>
       <c r="D650" t="inlineStr"/>
       <c r="E650" t="inlineStr">
         <is>
-          <t>4.6%</t>
+          <t>C$21.55B</t>
         </is>
       </c>
       <c r="F650" t="inlineStr"/>
-      <c r="G650" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
+      <c r="G650" t="inlineStr"/>
       <c r="H650" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C651" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Foreign Securities Purchases by CanadiansNOV</t>
         </is>
       </c>
       <c r="D651" t="inlineStr"/>
       <c r="E651" t="inlineStr">
         <is>
-          <t>5.4%</t>
+          <t>C$-2.65B</t>
         </is>
       </c>
       <c r="F651" t="inlineStr"/>
-      <c r="G651" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="G651" t="inlineStr"/>
       <c r="H651" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C652" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Building Permits PrelDEC</t>
         </is>
       </c>
       <c r="D652" t="inlineStr"/>
       <c r="E652" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>1.493M</t>
         </is>
       </c>
       <c r="F652" t="inlineStr"/>
       <c r="G652" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>1.6M</t>
         </is>
       </c>
       <c r="H652" t="inlineStr">
@@ -21716,65 +21356,61 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C653" t="inlineStr">
         <is>
-          <t>Fixed Asset Investment (YTD) YoYDEC</t>
+          <t>Housing StartsDEC</t>
         </is>
       </c>
       <c r="D653" t="inlineStr"/>
       <c r="E653" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>1.289M</t>
         </is>
       </c>
       <c r="F653" t="inlineStr"/>
       <c r="G653" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>1.5M</t>
         </is>
       </c>
       <c r="H653" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C654" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQQ4</t>
+          <t>Building Permits MoM PrelDEC</t>
         </is>
       </c>
       <c r="D654" t="inlineStr"/>
       <c r="E654" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F654" t="inlineStr"/>
-      <c r="G654" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="G654" t="inlineStr"/>
       <c r="H654" t="inlineStr">
         <is>
           <t>2</t>
@@ -21784,91 +21420,95 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C655" t="inlineStr">
         <is>
-          <t>Industrial Capacity UtilizationQ4</t>
+          <t>Housing Starts MoMDEC</t>
         </is>
       </c>
       <c r="D655" t="inlineStr"/>
       <c r="E655" t="inlineStr">
         <is>
-          <t>75.1%</t>
+          <t>-1.8%</t>
         </is>
       </c>
       <c r="F655" t="inlineStr"/>
       <c r="G655" t="inlineStr">
         <is>
-          <t>74.9%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="H655" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C656" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D656" t="inlineStr"/>
       <c r="E656" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F656" t="inlineStr"/>
-      <c r="G656" t="inlineStr">
-        <is>
-          <t>5.00%</t>
-        </is>
-      </c>
+      <c r="G656" t="inlineStr"/>
       <c r="H656" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C657" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Capacity UtilizationDEC</t>
         </is>
       </c>
       <c r="D657" t="inlineStr"/>
-      <c r="E657" t="inlineStr"/>
+      <c r="E657" t="inlineStr">
+        <is>
+          <t>76.8%</t>
+        </is>
+      </c>
       <c r="F657" t="inlineStr"/>
-      <c r="G657" t="inlineStr"/>
+      <c r="G657" t="inlineStr">
+        <is>
+          <t>77.8%</t>
+        </is>
+      </c>
       <c r="H657" t="inlineStr">
         <is>
           <t>3</t>
@@ -21878,91 +21518,99 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C658" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D658" t="inlineStr"/>
       <c r="E658" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="F658" t="inlineStr"/>
       <c r="G658" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H658" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C659" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Manufacturing Production MoMDEC</t>
         </is>
       </c>
       <c r="D659" t="inlineStr"/>
       <c r="E659" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F659" t="inlineStr"/>
       <c r="G659" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H659" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C660" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel MoMDEC</t>
+          <t>Manufacturing Production YoYDEC</t>
         </is>
       </c>
       <c r="D660" t="inlineStr"/>
-      <c r="E660" t="inlineStr"/>
+      <c r="E660" t="inlineStr">
+        <is>
+          <t>-1%</t>
+        </is>
+      </c>
       <c r="F660" t="inlineStr"/>
-      <c r="G660" t="inlineStr"/>
+      <c r="G660" t="inlineStr">
+        <is>
+          <t>-0.9%</t>
+        </is>
+      </c>
       <c r="H660" t="inlineStr">
         <is>
           <t>3</t>
@@ -21972,17 +21620,17 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C661" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel YoYDEC</t>
+          <t>Baker Hughes Oil Rig CountJAN/17</t>
         </is>
       </c>
       <c r="D661" t="inlineStr"/>
@@ -21998,31 +21646,23 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>12:50 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C662" t="inlineStr">
         <is>
-          <t>Loan Growth YoYDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/17</t>
         </is>
       </c>
       <c r="D662" t="inlineStr"/>
-      <c r="E662" t="inlineStr">
-        <is>
-          <t>10.79%</t>
-        </is>
-      </c>
+      <c r="E662" t="inlineStr"/>
       <c r="F662" t="inlineStr"/>
-      <c r="G662" t="inlineStr">
-        <is>
-          <t>10%</t>
-        </is>
-      </c>
+      <c r="G662" t="inlineStr"/>
       <c r="H662" t="inlineStr">
         <is>
           <t>3</t>
@@ -22030,25 +21670,21 @@
       </c>
     </row>
     <row r="663">
-      <c r="A663" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
+      <c r="A663" t="inlineStr"/>
       <c r="B663" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C663" t="inlineStr">
         <is>
-          <t>Deposit Facility RateJAN</t>
+          <t>50-Year KTB Auction</t>
         </is>
       </c>
       <c r="D663" t="inlineStr"/>
       <c r="E663" t="inlineStr">
         <is>
-          <t>5.25%</t>
+          <t>2.40%</t>
         </is>
       </c>
       <c r="F663" t="inlineStr"/>
@@ -22062,83 +21698,67 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B664" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="C664" t="inlineStr">
-        <is>
-          <t>Lending Facility RateJAN</t>
-        </is>
-      </c>
+          <t>Saturday January 18 2025</t>
+        </is>
+      </c>
+      <c r="B664" t="inlineStr"/>
+      <c r="C664" t="inlineStr"/>
       <c r="D664" t="inlineStr"/>
-      <c r="E664" t="inlineStr">
-        <is>
-          <t>6.75%</t>
-        </is>
-      </c>
+      <c r="E664" t="inlineStr"/>
       <c r="F664" t="inlineStr"/>
       <c r="G664" t="inlineStr"/>
-      <c r="H664" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H664" t="inlineStr"/>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C665" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Net Long-term TIC FlowsNOV</t>
         </is>
       </c>
       <c r="D665" t="inlineStr"/>
       <c r="E665" t="inlineStr">
         <is>
-          <t>€32B</t>
+          <t>$152.3B</t>
         </is>
       </c>
       <c r="F665" t="inlineStr"/>
       <c r="G665" t="inlineStr"/>
       <c r="H665" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C666" t="inlineStr">
         <is>
-          <t>Current Account s.aNOV</t>
+          <t>Foreign Bond InvestmentNOV</t>
         </is>
       </c>
       <c r="D666" t="inlineStr"/>
       <c r="E666" t="inlineStr">
         <is>
-          <t>€33.5B</t>
+          <t>$92.1B</t>
         </is>
       </c>
       <c r="F666" t="inlineStr"/>
@@ -22152,820 +21772,28 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C667" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Overall Net Capital FlowsNOV</t>
         </is>
       </c>
       <c r="D667" t="inlineStr"/>
       <c r="E667" t="inlineStr">
         <is>
-          <t>€-3.93B</t>
+          <t>$203.6B</t>
         </is>
       </c>
       <c r="F667" t="inlineStr"/>
       <c r="G667" t="inlineStr"/>
       <c r="H667" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="668">
-      <c r="A668" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B668" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C668" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoY FinalDEC</t>
-        </is>
-      </c>
-      <c r="D668" t="inlineStr"/>
-      <c r="E668" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F668" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="G668" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="H668" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="669">
-      <c r="A669" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B669" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C669" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoY FinalDEC</t>
-        </is>
-      </c>
-      <c r="D669" t="inlineStr"/>
-      <c r="E669" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F669" t="inlineStr"/>
-      <c r="G669" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="H669" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="670">
-      <c r="A670" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B670" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C670" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoM FinalDEC</t>
-        </is>
-      </c>
-      <c r="D670" t="inlineStr"/>
-      <c r="E670" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F670" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G670" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H670" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="671">
-      <c r="A671" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B671" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C671" t="inlineStr">
-        <is>
-          <t>CPI FinalDEC</t>
-        </is>
-      </c>
-      <c r="D671" t="inlineStr"/>
-      <c r="E671" t="inlineStr">
-        <is>
-          <t>126.62</t>
-        </is>
-      </c>
-      <c r="F671" t="inlineStr"/>
-      <c r="G671" t="inlineStr">
-        <is>
-          <t>127</t>
-        </is>
-      </c>
-      <c r="H671" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="672">
-      <c r="A672" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B672" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C672" t="inlineStr">
-        <is>
-          <t>Current AccountNOV</t>
-        </is>
-      </c>
-      <c r="D672" t="inlineStr"/>
-      <c r="E672" t="inlineStr">
-        <is>
-          <t>€5628M</t>
-        </is>
-      </c>
-      <c r="F672" t="inlineStr"/>
-      <c r="G672" t="inlineStr"/>
-      <c r="H672" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="673">
-      <c r="A673" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
-      <c r="B673" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C673" t="inlineStr">
-        <is>
-          <t>Bank Loan Growth YoYJAN/03</t>
-        </is>
-      </c>
-      <c r="D673" t="inlineStr"/>
-      <c r="E673" t="inlineStr"/>
-      <c r="F673" t="inlineStr"/>
-      <c r="G673" t="inlineStr"/>
-      <c r="H673" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="674">
-      <c r="A674" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
-      <c r="B674" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C674" t="inlineStr">
-        <is>
-          <t>Deposit Growth YoYJAN/03</t>
-        </is>
-      </c>
-      <c r="D674" t="inlineStr"/>
-      <c r="E674" t="inlineStr"/>
-      <c r="F674" t="inlineStr"/>
-      <c r="G674" t="inlineStr"/>
-      <c r="H674" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="675">
-      <c r="A675" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
-      <c r="B675" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C675" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN/10</t>
-        </is>
-      </c>
-      <c r="D675" t="inlineStr"/>
-      <c r="E675" t="inlineStr"/>
-      <c r="F675" t="inlineStr"/>
-      <c r="G675" t="inlineStr"/>
-      <c r="H675" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="676">
-      <c r="A676" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B676" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C676" t="inlineStr">
-        <is>
-          <t>Foreign Securities PurchasesNOV</t>
-        </is>
-      </c>
-      <c r="D676" t="inlineStr"/>
-      <c r="E676" t="inlineStr">
-        <is>
-          <t>C$21.55B</t>
-        </is>
-      </c>
-      <c r="F676" t="inlineStr"/>
-      <c r="G676" t="inlineStr"/>
-      <c r="H676" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="677">
-      <c r="A677" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B677" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C677" t="inlineStr">
-        <is>
-          <t>Foreign Securities Purchases by CanadiansNOV</t>
-        </is>
-      </c>
-      <c r="D677" t="inlineStr"/>
-      <c r="E677" t="inlineStr">
-        <is>
-          <t>C$-2.65B</t>
-        </is>
-      </c>
-      <c r="F677" t="inlineStr"/>
-      <c r="G677" t="inlineStr"/>
-      <c r="H677" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="678">
-      <c r="A678" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B678" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C678" t="inlineStr">
-        <is>
-          <t>Building Permits PrelDEC</t>
-        </is>
-      </c>
-      <c r="D678" t="inlineStr"/>
-      <c r="E678" t="inlineStr">
-        <is>
-          <t>1.493M</t>
-        </is>
-      </c>
-      <c r="F678" t="inlineStr"/>
-      <c r="G678" t="inlineStr">
-        <is>
-          <t>1.6M</t>
-        </is>
-      </c>
-      <c r="H678" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="679">
-      <c r="A679" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B679" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C679" t="inlineStr">
-        <is>
-          <t>Housing StartsDEC</t>
-        </is>
-      </c>
-      <c r="D679" t="inlineStr"/>
-      <c r="E679" t="inlineStr">
-        <is>
-          <t>1.289M</t>
-        </is>
-      </c>
-      <c r="F679" t="inlineStr"/>
-      <c r="G679" t="inlineStr">
-        <is>
-          <t>1.5M</t>
-        </is>
-      </c>
-      <c r="H679" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="680">
-      <c r="A680" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B680" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C680" t="inlineStr">
-        <is>
-          <t>Building Permits MoM PrelDEC</t>
-        </is>
-      </c>
-      <c r="D680" t="inlineStr"/>
-      <c r="E680" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F680" t="inlineStr"/>
-      <c r="G680" t="inlineStr"/>
-      <c r="H680" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="681">
-      <c r="A681" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B681" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C681" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMDEC</t>
-        </is>
-      </c>
-      <c r="D681" t="inlineStr"/>
-      <c r="E681" t="inlineStr">
-        <is>
-          <t>-1.8%</t>
-        </is>
-      </c>
-      <c r="F681" t="inlineStr"/>
-      <c r="G681" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="H681" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="682">
-      <c r="A682" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B682" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C682" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMDEC</t>
-        </is>
-      </c>
-      <c r="D682" t="inlineStr"/>
-      <c r="E682" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F682" t="inlineStr"/>
-      <c r="G682" t="inlineStr"/>
-      <c r="H682" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="683">
-      <c r="A683" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B683" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C683" t="inlineStr">
-        <is>
-          <t>Capacity UtilizationDEC</t>
-        </is>
-      </c>
-      <c r="D683" t="inlineStr"/>
-      <c r="E683" t="inlineStr">
-        <is>
-          <t>76.8%</t>
-        </is>
-      </c>
-      <c r="F683" t="inlineStr"/>
-      <c r="G683" t="inlineStr">
-        <is>
-          <t>77.8%</t>
-        </is>
-      </c>
-      <c r="H683" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="684">
-      <c r="A684" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B684" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C684" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D684" t="inlineStr"/>
-      <c r="E684" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="F684" t="inlineStr"/>
-      <c r="G684" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="H684" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="685">
-      <c r="A685" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B685" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C685" t="inlineStr">
-        <is>
-          <t>Manufacturing Production MoMDEC</t>
-        </is>
-      </c>
-      <c r="D685" t="inlineStr"/>
-      <c r="E685" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F685" t="inlineStr"/>
-      <c r="G685" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H685" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="686">
-      <c r="A686" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B686" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C686" t="inlineStr">
-        <is>
-          <t>Manufacturing Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D686" t="inlineStr"/>
-      <c r="E686" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
-      <c r="F686" t="inlineStr"/>
-      <c r="G686" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="H686" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="687">
-      <c r="A687" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B687" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C687" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJAN/17</t>
-        </is>
-      </c>
-      <c r="D687" t="inlineStr"/>
-      <c r="E687" t="inlineStr"/>
-      <c r="F687" t="inlineStr"/>
-      <c r="G687" t="inlineStr"/>
-      <c r="H687" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="688">
-      <c r="A688" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B688" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C688" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJAN/17</t>
-        </is>
-      </c>
-      <c r="D688" t="inlineStr"/>
-      <c r="E688" t="inlineStr"/>
-      <c r="F688" t="inlineStr"/>
-      <c r="G688" t="inlineStr"/>
-      <c r="H688" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="689">
-      <c r="A689" t="inlineStr"/>
-      <c r="B689" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C689" t="inlineStr">
-        <is>
-          <t>50-Year KTB Auction</t>
-        </is>
-      </c>
-      <c r="D689" t="inlineStr"/>
-      <c r="E689" t="inlineStr">
-        <is>
-          <t>2.40%</t>
-        </is>
-      </c>
-      <c r="F689" t="inlineStr"/>
-      <c r="G689" t="inlineStr"/>
-      <c r="H689" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="690">
-      <c r="A690" t="inlineStr">
-        <is>
-          <t>Saturday January 18 2025</t>
-        </is>
-      </c>
-      <c r="B690" t="inlineStr"/>
-      <c r="C690" t="inlineStr"/>
-      <c r="D690" t="inlineStr"/>
-      <c r="E690" t="inlineStr"/>
-      <c r="F690" t="inlineStr"/>
-      <c r="G690" t="inlineStr"/>
-      <c r="H690" t="inlineStr"/>
-    </row>
-    <row r="691">
-      <c r="A691" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B691" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C691" t="inlineStr">
-        <is>
-          <t>Net Long-term TIC FlowsNOV</t>
-        </is>
-      </c>
-      <c r="D691" t="inlineStr"/>
-      <c r="E691" t="inlineStr">
-        <is>
-          <t>$152.3B</t>
-        </is>
-      </c>
-      <c r="F691" t="inlineStr"/>
-      <c r="G691" t="inlineStr"/>
-      <c r="H691" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="692">
-      <c r="A692" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B692" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C692" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentNOV</t>
-        </is>
-      </c>
-      <c r="D692" t="inlineStr"/>
-      <c r="E692" t="inlineStr">
-        <is>
-          <t>$92.1B</t>
-        </is>
-      </c>
-      <c r="F692" t="inlineStr"/>
-      <c r="G692" t="inlineStr"/>
-      <c r="H692" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="693">
-      <c r="A693" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B693" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C693" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsNOV</t>
-        </is>
-      </c>
-      <c r="D693" t="inlineStr"/>
-      <c r="E693" t="inlineStr">
-        <is>
-          <t>$203.6B</t>
-        </is>
-      </c>
-      <c r="F693" t="inlineStr"/>
-      <c r="G693" t="inlineStr"/>
-      <c r="H693" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-18.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H698"/>
+  <dimension ref="A1:H674"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13731,10 +13731,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H394" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="395">
@@ -13765,10 +13763,8 @@
           <t>4.9%</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H395" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="396">
@@ -13803,10 +13799,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H396" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="397">
@@ -13841,10 +13835,8 @@
           <t>-1.4%</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H397" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="398">
@@ -13875,10 +13867,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H398" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="399">
@@ -13909,10 +13899,8 @@
           <t>-2.5%</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H399" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="400">
@@ -13947,10 +13935,8 @@
           <t>6.8%</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H400" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="401">
@@ -13985,10 +13971,8 @@
           <t>11.0K</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H401" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="402">
@@ -14019,10 +14003,8 @@
           <t>10K</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H402" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="403">
@@ -14053,10 +14035,8 @@
           <t>1K</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H403" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="404">
@@ -14087,10 +14067,8 @@
           <t>65%</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H404" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="405">
@@ -14121,10 +14099,8 @@
           <t>3.9%</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H405" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="406">
@@ -14159,10 +14135,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H406" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="407">
@@ -14197,10 +14171,8 @@
           <t>200K</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H407" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="408">
@@ -14235,10 +14207,8 @@
           <t>4.30%</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H408" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="409">
@@ -14273,10 +14243,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H409" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="410">
@@ -14311,10 +14279,8 @@
           <t>4%</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H410" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="411">
@@ -14345,10 +14311,8 @@
           <t>62.8%</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H411" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="412">
@@ -14383,10 +14347,8 @@
           <t>34.3</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H412" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="413">
@@ -14417,10 +14379,8 @@
           <t>15K</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H413" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="414">
@@ -14455,10 +14415,8 @@
           <t>29K</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H414" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="415">
@@ -14493,10 +14451,8 @@
           <t>185K</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H415" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="416">
@@ -14527,10 +14483,8 @@
           <t>7.9%</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H416" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="417">
@@ -14561,10 +14515,8 @@
           <t>€22.5B</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H417" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="418">
@@ -14599,10 +14551,8 @@
           <t>75</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H418" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="419">
@@ -14633,10 +14583,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H419" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="420">
@@ -14667,10 +14615,8 @@
           <t>74</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H420" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="421">
@@ -14701,10 +14647,8 @@
           <t>78</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H421" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="422">
@@ -14735,10 +14679,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H422" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="423">
@@ -14761,10 +14703,8 @@
       <c r="E423" t="inlineStr"/>
       <c r="F423" t="inlineStr"/>
       <c r="G423" t="inlineStr"/>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H423" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="424">
@@ -14791,10 +14731,8 @@
       </c>
       <c r="F424" t="inlineStr"/>
       <c r="G424" t="inlineStr"/>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H424" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="425">
@@ -14821,10 +14759,8 @@
       </c>
       <c r="F425" t="inlineStr"/>
       <c r="G425" t="inlineStr"/>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H425" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="426">
@@ -14847,10 +14783,8 @@
       </c>
       <c r="F426" t="inlineStr"/>
       <c r="G426" t="inlineStr"/>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H426" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="427">
@@ -14877,10 +14811,8 @@
           <t>4.7%</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H427" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="428">
@@ -14907,10 +14839,8 @@
           <t>CNY690.0B</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H428" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="429">
@@ -14937,10 +14867,8 @@
         </is>
       </c>
       <c r="G429" t="inlineStr"/>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H429" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="430">
@@ -14967,10 +14895,8 @@
           <t>7.5%</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H430" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="431">
@@ -14997,10 +14923,8 @@
           <t>CNY1850.0B</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H431" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="432">
@@ -15049,10 +14973,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H433" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="434">
@@ -15087,10 +15009,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H434" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="435">
@@ -15125,10 +15045,8 @@
           <t>-2.4%</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H435" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="436">
@@ -15159,10 +15077,8 @@
           <t>$ 85B</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H436" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="437">
@@ -15189,10 +15105,8 @@
       </c>
       <c r="F437" t="inlineStr"/>
       <c r="G437" t="inlineStr"/>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H437" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="438">
@@ -15219,10 +15133,8 @@
       </c>
       <c r="F438" t="inlineStr"/>
       <c r="G438" t="inlineStr"/>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H438" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="439">
@@ -15267,10 +15179,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H440" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="441">
@@ -15301,10 +15211,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H441" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="442">
@@ -15331,10 +15239,8 @@
       </c>
       <c r="F442" t="inlineStr"/>
       <c r="G442" t="inlineStr"/>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H442" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="443">
@@ -15361,10 +15267,8 @@
       </c>
       <c r="F443" t="inlineStr"/>
       <c r="G443" t="inlineStr"/>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H443" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="444">
@@ -15391,10 +15295,8 @@
       </c>
       <c r="F444" t="inlineStr"/>
       <c r="G444" t="inlineStr"/>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H444" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="445">
@@ -15417,10 +15319,8 @@
       <c r="E445" t="inlineStr"/>
       <c r="F445" t="inlineStr"/>
       <c r="G445" t="inlineStr"/>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H445" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="446">
@@ -15451,10 +15351,8 @@
           <t>6.0%</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H446" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="447">
@@ -15485,10 +15383,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H447" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="448">
@@ -15511,10 +15407,8 @@
       <c r="E448" t="inlineStr"/>
       <c r="F448" t="inlineStr"/>
       <c r="G448" t="inlineStr"/>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H448" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="449">
@@ -15537,10 +15431,8 @@
       <c r="E449" t="inlineStr"/>
       <c r="F449" t="inlineStr"/>
       <c r="G449" t="inlineStr"/>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H449" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="450">
@@ -15563,10 +15455,8 @@
       <c r="E450" t="inlineStr"/>
       <c r="F450" t="inlineStr"/>
       <c r="G450" t="inlineStr"/>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H450" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="451">
@@ -15597,10 +15487,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H451" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="452">
@@ -15627,10 +15515,8 @@
       </c>
       <c r="F452" t="inlineStr"/>
       <c r="G452" t="inlineStr"/>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H452" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="453">
@@ -15657,10 +15543,8 @@
       </c>
       <c r="F453" t="inlineStr"/>
       <c r="G453" t="inlineStr"/>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H453" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="454">
@@ -15687,10 +15571,8 @@
       </c>
       <c r="F454" t="inlineStr"/>
       <c r="G454" t="inlineStr"/>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H454" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="455">
@@ -15717,10 +15599,8 @@
       </c>
       <c r="F455" t="inlineStr"/>
       <c r="G455" t="inlineStr"/>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H455" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="456">
@@ -15747,10 +15627,8 @@
       </c>
       <c r="F456" t="inlineStr"/>
       <c r="G456" t="inlineStr"/>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H456" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="457">
@@ -15773,10 +15651,8 @@
       </c>
       <c r="F457" t="inlineStr"/>
       <c r="G457" t="inlineStr"/>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H457" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="458">
@@ -15799,10 +15675,8 @@
       </c>
       <c r="F458" t="inlineStr"/>
       <c r="G458" t="inlineStr"/>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H458" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="459">
@@ -15825,10 +15699,8 @@
       </c>
       <c r="F459" t="inlineStr"/>
       <c r="G459" t="inlineStr"/>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H459" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="460">
@@ -15855,10 +15727,8 @@
           <t>6.4%</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H460" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="461">
@@ -15881,10 +15751,8 @@
       </c>
       <c r="F461" t="inlineStr"/>
       <c r="G461" t="inlineStr"/>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H461" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="462">
@@ -15903,10 +15771,8 @@
       <c r="E462" t="inlineStr"/>
       <c r="F462" t="inlineStr"/>
       <c r="G462" t="inlineStr"/>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H462" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="463">
@@ -15947,10 +15813,8 @@
       </c>
       <c r="F464" t="inlineStr"/>
       <c r="G464" t="inlineStr"/>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H464" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="465">
@@ -15977,10 +15841,8 @@
       </c>
       <c r="F465" t="inlineStr"/>
       <c r="G465" t="inlineStr"/>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H465" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="466">
@@ -16007,10 +15869,8 @@
       </c>
       <c r="F466" t="inlineStr"/>
       <c r="G466" t="inlineStr"/>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H466" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="467">
@@ -16041,10 +15901,8 @@
           <t>¥1990.0B</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H467" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="468">
@@ -16075,10 +15933,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H468" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="469">
@@ -16105,10 +15961,8 @@
       </c>
       <c r="F469" t="inlineStr"/>
       <c r="G469" t="inlineStr"/>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H469" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="470">
@@ -16135,10 +15989,8 @@
       </c>
       <c r="F470" t="inlineStr"/>
       <c r="G470" t="inlineStr"/>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H470" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="471">
@@ -16165,10 +16017,8 @@
       </c>
       <c r="F471" t="inlineStr"/>
       <c r="G471" t="inlineStr"/>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H471" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="472">
@@ -16199,10 +16049,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H472" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="473">
@@ -16233,10 +16081,8 @@
           <t>49.6</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H473" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="474">
@@ -16263,10 +16109,8 @@
       </c>
       <c r="F474" t="inlineStr"/>
       <c r="G474" t="inlineStr"/>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H474" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="475">
@@ -16293,10 +16137,8 @@
       </c>
       <c r="F475" t="inlineStr"/>
       <c r="G475" t="inlineStr"/>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H475" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="476">
@@ -16327,10 +16169,8 @@
           <t>10.2%</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H476" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="477">
@@ -16361,10 +16201,8 @@
           <t>-3.2%</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H477" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="478">
@@ -16395,10 +16233,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H478" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="479">
@@ -16425,10 +16261,8 @@
       </c>
       <c r="F479" t="inlineStr"/>
       <c r="G479" t="inlineStr"/>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H479" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="480">
@@ -16455,10 +16289,8 @@
       </c>
       <c r="F480" t="inlineStr"/>
       <c r="G480" t="inlineStr"/>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H480" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="481">
@@ -16485,10 +16317,8 @@
       </c>
       <c r="F481" t="inlineStr"/>
       <c r="G481" t="inlineStr"/>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H481" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="482">
@@ -16511,10 +16341,8 @@
       <c r="E482" t="inlineStr"/>
       <c r="F482" t="inlineStr"/>
       <c r="G482" t="inlineStr"/>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H482" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="483">
@@ -16537,10 +16365,8 @@
       <c r="E483" t="inlineStr"/>
       <c r="F483" t="inlineStr"/>
       <c r="G483" t="inlineStr"/>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H483" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="484">
@@ -16567,10 +16393,8 @@
       </c>
       <c r="F484" t="inlineStr"/>
       <c r="G484" t="inlineStr"/>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H484" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="485">
@@ -16597,10 +16421,8 @@
       </c>
       <c r="F485" t="inlineStr"/>
       <c r="G485" t="inlineStr"/>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H485" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="486">
@@ -16631,10 +16453,8 @@
           <t>102</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H486" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="487">
@@ -16665,10 +16485,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H487" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="488">
@@ -16695,10 +16513,8 @@
       </c>
       <c r="F488" t="inlineStr"/>
       <c r="G488" t="inlineStr"/>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H488" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="489">
@@ -16729,10 +16545,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H489" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="490">
@@ -16763,10 +16577,8 @@
           <t>146.4</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H490" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="491">
@@ -16793,10 +16605,8 @@
       </c>
       <c r="F491" t="inlineStr"/>
       <c r="G491" t="inlineStr"/>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H491" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="492">
@@ -16823,10 +16633,8 @@
       </c>
       <c r="F492" t="inlineStr"/>
       <c r="G492" t="inlineStr"/>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H492" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="493">
@@ -16857,10 +16665,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H493" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="494">
@@ -16887,10 +16693,8 @@
       </c>
       <c r="F494" t="inlineStr"/>
       <c r="G494" t="inlineStr"/>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H494" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="495">
@@ -16917,10 +16721,8 @@
       </c>
       <c r="F495" t="inlineStr"/>
       <c r="G495" t="inlineStr"/>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H495" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="496">
@@ -16943,10 +16745,8 @@
       </c>
       <c r="F496" t="inlineStr"/>
       <c r="G496" t="inlineStr"/>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H496" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="497">
@@ -16991,10 +16791,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H498" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="499">
@@ -17025,10 +16823,8 @@
           <t>116.0%</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H499" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="500">
@@ -17059,10 +16855,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H500" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="501">
@@ -17093,10 +16887,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H501" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="502">
@@ -17123,10 +16915,8 @@
       </c>
       <c r="F502" t="inlineStr"/>
       <c r="G502" t="inlineStr"/>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H502" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="503">
@@ -17157,10 +16947,8 @@
           <t>$ 2.8B</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H503" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="504">
@@ -17187,10 +16975,8 @@
       </c>
       <c r="F504" t="inlineStr"/>
       <c r="G504" t="inlineStr"/>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H504" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="505">
@@ -17217,10 +17003,8 @@
       </c>
       <c r="F505" t="inlineStr"/>
       <c r="G505" t="inlineStr"/>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H505" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="506">
@@ -17247,10 +17031,8 @@
       </c>
       <c r="F506" t="inlineStr"/>
       <c r="G506" t="inlineStr"/>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H506" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="507">
@@ -17281,10 +17063,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H507" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="508">
@@ -17315,10 +17095,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H508" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="509">
@@ -17349,10 +17127,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H509" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="510">
@@ -17383,10 +17159,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H510" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="511">
@@ -17417,10 +17191,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H511" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="512">
@@ -17451,10 +17223,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H512" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="513">
@@ -17485,10 +17255,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H513" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="514">
@@ -17519,10 +17287,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H514" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="515">
@@ -17553,10 +17319,8 @@
           <t>2.1%</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H515" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="516">
@@ -17587,10 +17351,8 @@
           <t>-1.3%</t>
         </is>
       </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H516" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="517">
@@ -17621,10 +17383,8 @@
           <t>-1%</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H517" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="518">
@@ -17655,10 +17415,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H518" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="519">
@@ -17689,10 +17447,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H519" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="520">
@@ -17719,10 +17475,8 @@
       </c>
       <c r="F520" t="inlineStr"/>
       <c r="G520" t="inlineStr"/>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H520" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="521">
@@ -17753,10 +17507,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H521" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="522">
@@ -17779,10 +17531,8 @@
       <c r="E522" t="inlineStr"/>
       <c r="F522" t="inlineStr"/>
       <c r="G522" t="inlineStr"/>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H522" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="523">
@@ -17809,10 +17559,8 @@
       </c>
       <c r="F523" t="inlineStr"/>
       <c r="G523" t="inlineStr"/>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H523" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="524">
@@ -17839,10 +17587,8 @@
       </c>
       <c r="F524" t="inlineStr"/>
       <c r="G524" t="inlineStr"/>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H524" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="525">
@@ -17873,10 +17619,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H525" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="526">
@@ -17907,10 +17651,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H526" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="527">
@@ -17941,10 +17683,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H527" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="528">
@@ -17975,10 +17715,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H528" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="529">
@@ -18005,10 +17743,8 @@
       </c>
       <c r="F529" t="inlineStr"/>
       <c r="G529" t="inlineStr"/>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H529" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="530">
@@ -18043,10 +17779,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H530" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="531">
@@ -18081,10 +17815,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H531" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="532">
@@ -18119,10 +17851,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H532" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="533">
@@ -18153,10 +17883,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H533" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="534">
@@ -18187,10 +17915,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H534" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="535">
@@ -18217,10 +17943,8 @@
       </c>
       <c r="F535" t="inlineStr"/>
       <c r="G535" t="inlineStr"/>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H535" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="536">
@@ -18247,10 +17971,8 @@
       </c>
       <c r="F536" t="inlineStr"/>
       <c r="G536" t="inlineStr"/>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H536" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="537">
@@ -18277,10 +17999,8 @@
       </c>
       <c r="F537" t="inlineStr"/>
       <c r="G537" t="inlineStr"/>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H537" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="538">
@@ -18307,10 +18027,8 @@
       </c>
       <c r="F538" t="inlineStr"/>
       <c r="G538" t="inlineStr"/>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H538" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="539">
@@ -18337,10 +18055,8 @@
       </c>
       <c r="F539" t="inlineStr"/>
       <c r="G539" t="inlineStr"/>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H539" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="540">
@@ -18367,10 +18083,8 @@
       </c>
       <c r="F540" t="inlineStr"/>
       <c r="G540" t="inlineStr"/>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H540" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="541">
@@ -18393,10 +18107,8 @@
       <c r="E541" t="inlineStr"/>
       <c r="F541" t="inlineStr"/>
       <c r="G541" t="inlineStr"/>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H541" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="542">
@@ -18419,10 +18131,8 @@
       <c r="E542" t="inlineStr"/>
       <c r="F542" t="inlineStr"/>
       <c r="G542" t="inlineStr"/>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H542" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="543">
@@ -18445,10 +18155,8 @@
       <c r="E543" t="inlineStr"/>
       <c r="F543" t="inlineStr"/>
       <c r="G543" t="inlineStr"/>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H543" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="544">
@@ -18471,10 +18179,8 @@
       <c r="E544" t="inlineStr"/>
       <c r="F544" t="inlineStr"/>
       <c r="G544" t="inlineStr"/>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H544" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="545">
@@ -18497,10 +18203,8 @@
       <c r="E545" t="inlineStr"/>
       <c r="F545" t="inlineStr"/>
       <c r="G545" t="inlineStr"/>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H545" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="546">
@@ -18531,10 +18235,8 @@
           <t>$628.0B</t>
         </is>
       </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H546" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="547">
@@ -18569,10 +18271,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H547" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="548">
@@ -18599,10 +18299,8 @@
       </c>
       <c r="F548" t="inlineStr"/>
       <c r="G548" t="inlineStr"/>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H548" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="549">
@@ -18637,10 +18335,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H549" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="550">
@@ -18671,10 +18367,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H550" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="551">
@@ -18705,10 +18399,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H551" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="552">
@@ -18739,10 +18431,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H552" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="553">
@@ -18773,10 +18463,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H553" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="554">
@@ -18807,10 +18495,8 @@
           <t>313.8</t>
         </is>
       </c>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H554" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="555">
@@ -18841,10 +18527,8 @@
           <t>317.4</t>
         </is>
       </c>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H555" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="556">
@@ -18871,10 +18555,8 @@
       </c>
       <c r="F556" t="inlineStr"/>
       <c r="G556" t="inlineStr"/>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H556" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="557">
@@ -18897,10 +18579,8 @@
       <c r="E557" t="inlineStr"/>
       <c r="F557" t="inlineStr"/>
       <c r="G557" t="inlineStr"/>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H557" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="558">
@@ -18923,10 +18603,8 @@
       <c r="E558" t="inlineStr"/>
       <c r="F558" t="inlineStr"/>
       <c r="G558" t="inlineStr"/>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H558" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="559">
@@ -18949,10 +18627,8 @@
       <c r="E559" t="inlineStr"/>
       <c r="F559" t="inlineStr"/>
       <c r="G559" t="inlineStr"/>
-      <c r="H559" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H559" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="560">
@@ -18975,10 +18651,8 @@
       <c r="E560" t="inlineStr"/>
       <c r="F560" t="inlineStr"/>
       <c r="G560" t="inlineStr"/>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H560" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="561">
@@ -19001,10 +18675,8 @@
       <c r="E561" t="inlineStr"/>
       <c r="F561" t="inlineStr"/>
       <c r="G561" t="inlineStr"/>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H561" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="562">
@@ -19027,10 +18699,8 @@
       <c r="E562" t="inlineStr"/>
       <c r="F562" t="inlineStr"/>
       <c r="G562" t="inlineStr"/>
-      <c r="H562" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H562" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="563">
@@ -19053,10 +18723,8 @@
       <c r="E563" t="inlineStr"/>
       <c r="F563" t="inlineStr"/>
       <c r="G563" t="inlineStr"/>
-      <c r="H563" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H563" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="564">
@@ -19079,10 +18747,8 @@
       <c r="E564" t="inlineStr"/>
       <c r="F564" t="inlineStr"/>
       <c r="G564" t="inlineStr"/>
-      <c r="H564" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H564" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="565">
@@ -19105,10 +18771,8 @@
       <c r="E565" t="inlineStr"/>
       <c r="F565" t="inlineStr"/>
       <c r="G565" t="inlineStr"/>
-      <c r="H565" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H565" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="566">
@@ -19139,10 +18803,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H566" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H566" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="567">
@@ -19173,10 +18835,8 @@
           <t>9.5%</t>
         </is>
       </c>
-      <c r="H567" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H567" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="568">
@@ -19199,10 +18859,8 @@
       <c r="E568" t="inlineStr"/>
       <c r="F568" t="inlineStr"/>
       <c r="G568" t="inlineStr"/>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H568" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="569">
@@ -19233,10 +18891,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H569" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H569" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="570">
@@ -19263,10 +18919,8 @@
       </c>
       <c r="F570" t="inlineStr"/>
       <c r="G570" t="inlineStr"/>
-      <c r="H570" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H570" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="571">
@@ -19289,10 +18943,8 @@
       </c>
       <c r="F571" t="inlineStr"/>
       <c r="G571" t="inlineStr"/>
-      <c r="H571" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H571" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="572">
@@ -19319,10 +18971,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H572" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H572" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="573">
@@ -19349,10 +18999,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H573" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H573" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="574">
@@ -19379,10 +19027,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H574" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H574" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="575">
@@ -19401,10 +19047,8 @@
       <c r="E575" t="inlineStr"/>
       <c r="F575" t="inlineStr"/>
       <c r="G575" t="inlineStr"/>
-      <c r="H575" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H575" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="576">
@@ -19423,10 +19067,8 @@
       <c r="E576" t="inlineStr"/>
       <c r="F576" t="inlineStr"/>
       <c r="G576" t="inlineStr"/>
-      <c r="H576" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H576" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="577">
@@ -19453,10 +19095,8 @@
           <t>$ -23B</t>
         </is>
       </c>
-      <c r="H577" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H577" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="578">
@@ -19483,10 +19123,8 @@
           <t>$ 36B</t>
         </is>
       </c>
-      <c r="H578" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H578" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="579">
@@ -19513,10 +19151,8 @@
           <t>$ 59B</t>
         </is>
       </c>
-      <c r="H579" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H579" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="580">
@@ -19561,10 +19197,8 @@
           <t>3.30%</t>
         </is>
       </c>
-      <c r="H581" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H581" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="582">
@@ -19591,10 +19225,8 @@
       </c>
       <c r="F582" t="inlineStr"/>
       <c r="G582" t="inlineStr"/>
-      <c r="H582" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H582" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="583">
@@ -19625,10 +19257,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H583" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H583" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="584">
@@ -19659,10 +19289,8 @@
           <t>17.0%</t>
         </is>
       </c>
-      <c r="H584" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H584" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="585">
@@ -19693,10 +19321,8 @@
           <t>4.30%</t>
         </is>
       </c>
-      <c r="H585" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H585" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="586">
@@ -19727,10 +19353,8 @@
           <t>25.1K</t>
         </is>
       </c>
-      <c r="H586" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H586" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="587">
@@ -19757,10 +19381,8 @@
       </c>
       <c r="F587" t="inlineStr"/>
       <c r="G587" t="inlineStr"/>
-      <c r="H587" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H587" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="588">
@@ -19787,10 +19409,8 @@
       </c>
       <c r="F588" t="inlineStr"/>
       <c r="G588" t="inlineStr"/>
-      <c r="H588" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H588" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="589">
@@ -19821,10 +19441,8 @@
           <t>66.8%</t>
         </is>
       </c>
-      <c r="H589" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H589" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="590">
@@ -19851,10 +19469,8 @@
       </c>
       <c r="F590" t="inlineStr"/>
       <c r="G590" t="inlineStr"/>
-      <c r="H590" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H590" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="591">
@@ -19881,10 +19497,8 @@
       </c>
       <c r="F591" t="inlineStr"/>
       <c r="G591" t="inlineStr"/>
-      <c r="H591" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H591" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="592">
@@ -19911,10 +19525,8 @@
       </c>
       <c r="F592" t="inlineStr"/>
       <c r="G592" t="inlineStr"/>
-      <c r="H592" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H592" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="593">
@@ -19941,10 +19553,8 @@
       </c>
       <c r="F593" t="inlineStr"/>
       <c r="G593" t="inlineStr"/>
-      <c r="H593" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H593" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="594">
@@ -19979,10 +19589,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H594" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H594" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="595">
@@ -20013,10 +19621,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H595" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H595" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="596">
@@ -20051,10 +19657,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H596" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H596" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="597">
@@ -20089,10 +19693,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H597" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H597" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="598">
@@ -20123,10 +19725,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H598" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H598" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="599">
@@ -20157,10 +19757,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H599" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H599" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="600">
@@ -20191,10 +19789,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H600" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H600" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="601">
@@ -20221,10 +19817,8 @@
       </c>
       <c r="F601" t="inlineStr"/>
       <c r="G601" t="inlineStr"/>
-      <c r="H601" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H601" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="602">
@@ -20251,10 +19845,8 @@
       </c>
       <c r="F602" t="inlineStr"/>
       <c r="G602" t="inlineStr"/>
-      <c r="H602" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H602" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="603">
@@ -20281,10 +19873,8 @@
       </c>
       <c r="F603" t="inlineStr"/>
       <c r="G603" t="inlineStr"/>
-      <c r="H603" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H603" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="604">
@@ -20311,10 +19901,8 @@
       </c>
       <c r="F604" t="inlineStr"/>
       <c r="G604" t="inlineStr"/>
-      <c r="H604" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H604" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="605">
@@ -20341,10 +19929,8 @@
       </c>
       <c r="F605" t="inlineStr"/>
       <c r="G605" t="inlineStr"/>
-      <c r="H605" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H605" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="606">
@@ -20375,10 +19961,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H606" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H606" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="607">
@@ -20405,10 +19989,8 @@
       </c>
       <c r="F607" t="inlineStr"/>
       <c r="G607" t="inlineStr"/>
-      <c r="H607" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H607" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="608">
@@ -20435,10 +20017,8 @@
       </c>
       <c r="F608" t="inlineStr"/>
       <c r="G608" t="inlineStr"/>
-      <c r="H608" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H608" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="609">
@@ -20465,10 +20045,8 @@
       </c>
       <c r="F609" t="inlineStr"/>
       <c r="G609" t="inlineStr"/>
-      <c r="H609" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H609" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="610">
@@ -20503,10 +20081,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H610" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H610" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="611">
@@ -20541,10 +20117,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H611" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H611" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="612">
@@ -20579,10 +20153,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H612" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H612" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="613">
@@ -20617,10 +20189,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H613" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H613" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="614">
@@ -20643,10 +20213,8 @@
       <c r="E614" t="inlineStr"/>
       <c r="F614" t="inlineStr"/>
       <c r="G614" t="inlineStr"/>
-      <c r="H614" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H614" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="615">
@@ -20669,10 +20237,8 @@
       <c r="E615" t="inlineStr"/>
       <c r="F615" t="inlineStr"/>
       <c r="G615" t="inlineStr"/>
-      <c r="H615" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H615" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="616">
@@ -20695,10 +20261,8 @@
       <c r="E616" t="inlineStr"/>
       <c r="F616" t="inlineStr"/>
       <c r="G616" t="inlineStr"/>
-      <c r="H616" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H616" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="617">
@@ -20725,10 +20289,8 @@
       </c>
       <c r="F617" t="inlineStr"/>
       <c r="G617" t="inlineStr"/>
-      <c r="H617" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H617" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="618">
@@ -20751,10 +20313,8 @@
       <c r="E618" t="inlineStr"/>
       <c r="F618" t="inlineStr"/>
       <c r="G618" t="inlineStr"/>
-      <c r="H618" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H618" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="619">
@@ -20781,10 +20341,8 @@
       </c>
       <c r="F619" t="inlineStr"/>
       <c r="G619" t="inlineStr"/>
-      <c r="H619" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H619" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="620">
@@ -20815,10 +20373,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H620" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H620" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="621">
@@ -20849,10 +20405,8 @@
           <t>220K</t>
         </is>
       </c>
-      <c r="H621" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H621" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="622">
@@ -20883,10 +20437,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H622" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H622" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="623">
@@ -20917,10 +20469,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H623" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H623" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="624">
@@ -20947,10 +20497,8 @@
       </c>
       <c r="F624" t="inlineStr"/>
       <c r="G624" t="inlineStr"/>
-      <c r="H624" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H624" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="625">
@@ -20973,10 +20521,8 @@
       <c r="E625" t="inlineStr"/>
       <c r="F625" t="inlineStr"/>
       <c r="G625" t="inlineStr"/>
-      <c r="H625" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H625" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="626">
@@ -21003,10 +20549,8 @@
       </c>
       <c r="F626" t="inlineStr"/>
       <c r="G626" t="inlineStr"/>
-      <c r="H626" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H626" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="627">
@@ -21037,10 +20581,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H627" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H627" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="628">
@@ -21063,10 +20605,8 @@
       <c r="E628" t="inlineStr"/>
       <c r="F628" t="inlineStr"/>
       <c r="G628" t="inlineStr"/>
-      <c r="H628" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H628" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="629">
@@ -21093,10 +20633,8 @@
       </c>
       <c r="F629" t="inlineStr"/>
       <c r="G629" t="inlineStr"/>
-      <c r="H629" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H629" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="630">
@@ -21127,10 +20665,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H630" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H630" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="631">
@@ -21153,10 +20689,8 @@
       <c r="E631" t="inlineStr"/>
       <c r="F631" t="inlineStr"/>
       <c r="G631" t="inlineStr"/>
-      <c r="H631" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H631" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="632">
@@ -21183,10 +20717,8 @@
       </c>
       <c r="F632" t="inlineStr"/>
       <c r="G632" t="inlineStr"/>
-      <c r="H632" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H632" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="633">
@@ -21213,10 +20745,8 @@
       </c>
       <c r="F633" t="inlineStr"/>
       <c r="G633" t="inlineStr"/>
-      <c r="H633" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H633" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="634">
@@ -21243,10 +20773,8 @@
       </c>
       <c r="F634" t="inlineStr"/>
       <c r="G634" t="inlineStr"/>
-      <c r="H634" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H634" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="635">
@@ -21273,10 +20801,8 @@
       </c>
       <c r="F635" t="inlineStr"/>
       <c r="G635" t="inlineStr"/>
-      <c r="H635" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H635" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="636">
@@ -21303,10 +20829,8 @@
       </c>
       <c r="F636" t="inlineStr"/>
       <c r="G636" t="inlineStr"/>
-      <c r="H636" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H636" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="637">
@@ -21337,10 +20861,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H637" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H637" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="638">
@@ -21371,10 +20893,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H638" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H638" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="639">
@@ -21401,10 +20921,8 @@
       </c>
       <c r="F639" t="inlineStr"/>
       <c r="G639" t="inlineStr"/>
-      <c r="H639" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H639" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="640">
@@ -21431,10 +20949,8 @@
       </c>
       <c r="F640" t="inlineStr"/>
       <c r="G640" t="inlineStr"/>
-      <c r="H640" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H640" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="641">
@@ -21461,10 +20977,8 @@
       </c>
       <c r="F641" t="inlineStr"/>
       <c r="G641" t="inlineStr"/>
-      <c r="H641" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H641" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="642">
@@ -21487,10 +21001,8 @@
       <c r="E642" t="inlineStr"/>
       <c r="F642" t="inlineStr"/>
       <c r="G642" t="inlineStr"/>
-      <c r="H642" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H642" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="643">
@@ -21513,10 +21025,8 @@
       <c r="E643" t="inlineStr"/>
       <c r="F643" t="inlineStr"/>
       <c r="G643" t="inlineStr"/>
-      <c r="H643" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H643" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="644">
@@ -21539,10 +21049,8 @@
       <c r="E644" t="inlineStr"/>
       <c r="F644" t="inlineStr"/>
       <c r="G644" t="inlineStr"/>
-      <c r="H644" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H644" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="645">
@@ -21565,10 +21073,8 @@
       <c r="E645" t="inlineStr"/>
       <c r="F645" t="inlineStr"/>
       <c r="G645" t="inlineStr"/>
-      <c r="H645" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H645" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="646">
@@ -21591,106 +21097,140 @@
       <c r="E646" t="inlineStr"/>
       <c r="F646" t="inlineStr"/>
       <c r="G646" t="inlineStr"/>
-      <c r="H646" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H646" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>Friday January 17 2025</t>
-        </is>
-      </c>
-      <c r="B647" t="inlineStr"/>
-      <c r="C647" t="inlineStr"/>
+          <t>02:30 PM</t>
+        </is>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C647" t="inlineStr">
+        <is>
+          <t>Current Account s.aNOV</t>
+        </is>
+      </c>
       <c r="D647" t="inlineStr"/>
-      <c r="E647" t="inlineStr"/>
+      <c r="E647" t="inlineStr">
+        <is>
+          <t>€33.5B</t>
+        </is>
+      </c>
       <c r="F647" t="inlineStr"/>
       <c r="G647" t="inlineStr"/>
-      <c r="H647" t="inlineStr"/>
+      <c r="H647" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C648" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/15</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D648" t="inlineStr"/>
-      <c r="E648" t="inlineStr"/>
+      <c r="E648" t="inlineStr">
+        <is>
+          <t>€-3.93B</t>
+        </is>
+      </c>
       <c r="F648" t="inlineStr"/>
       <c r="G648" t="inlineStr"/>
       <c r="H648" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C649" t="inlineStr">
         <is>
-          <t>Reuters Tankan IndexJAN</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D649" t="inlineStr"/>
       <c r="E649" t="inlineStr">
         <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="F649" t="inlineStr"/>
+          <t>2.2%</t>
+        </is>
+      </c>
+      <c r="F649" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
       <c r="G649" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="H649" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C650" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/11</t>
+          <t>Core Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D650" t="inlineStr"/>
-      <c r="E650" t="inlineStr"/>
-      <c r="F650" t="inlineStr"/>
-      <c r="G650" t="inlineStr"/>
+      <c r="E650" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="F650" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="G650" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="H650" t="inlineStr">
         <is>
           <t>3</t>
@@ -21700,23 +21240,35 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C651" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersJAN/11</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D651" t="inlineStr"/>
-      <c r="E651" t="inlineStr"/>
-      <c r="F651" t="inlineStr"/>
-      <c r="G651" t="inlineStr"/>
+      <c r="E651" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="F651" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G651" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H651" t="inlineStr">
         <is>
           <t>3</t>
@@ -21726,29 +21278,33 @@
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C652" t="inlineStr">
         <is>
-          <t>Non-Oil Exports MoMDEC</t>
+          <t>CPI FinalDEC</t>
         </is>
       </c>
       <c r="D652" t="inlineStr"/>
       <c r="E652" t="inlineStr">
         <is>
-          <t>14.7%</t>
-        </is>
-      </c>
-      <c r="F652" t="inlineStr"/>
+          <t>126.62</t>
+        </is>
+      </c>
+      <c r="F652" t="inlineStr">
+        <is>
+          <t>127.08</t>
+        </is>
+      </c>
       <c r="G652" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>127</t>
         </is>
       </c>
       <c r="H652" t="inlineStr">
@@ -21760,31 +21316,27 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C653" t="inlineStr">
         <is>
-          <t>Non-Oil Exports YoYDEC</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D653" t="inlineStr"/>
       <c r="E653" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>€5628M</t>
         </is>
       </c>
       <c r="F653" t="inlineStr"/>
-      <c r="G653" t="inlineStr">
-        <is>
-          <t>7.5%</t>
-        </is>
-      </c>
+      <c r="G653" t="inlineStr"/>
       <c r="H653" t="inlineStr">
         <is>
           <t>3</t>
@@ -21794,25 +21346,21 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C654" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsJAN</t>
+          <t>Bank Loan Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D654" t="inlineStr"/>
-      <c r="E654" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
+      <c r="E654" t="inlineStr"/>
       <c r="F654" t="inlineStr"/>
       <c r="G654" t="inlineStr"/>
       <c r="H654" t="inlineStr">
@@ -21824,65 +21372,49 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C655" t="inlineStr">
         <is>
-          <t>House Price Index YoYDEC</t>
+          <t>Deposit Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D655" t="inlineStr"/>
-      <c r="E655" t="inlineStr">
-        <is>
-          <t>-5.7%</t>
-        </is>
-      </c>
+      <c r="E655" t="inlineStr"/>
       <c r="F655" t="inlineStr"/>
-      <c r="G655" t="inlineStr">
-        <is>
-          <t>-5.8%</t>
-        </is>
-      </c>
+      <c r="G655" t="inlineStr"/>
       <c r="H655" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C656" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Foreign Exchange ReservesJAN/10</t>
         </is>
       </c>
       <c r="D656" t="inlineStr"/>
-      <c r="E656" t="inlineStr">
-        <is>
-          <t>$6.52B</t>
-        </is>
-      </c>
+      <c r="E656" t="inlineStr"/>
       <c r="F656" t="inlineStr"/>
-      <c r="G656" t="inlineStr">
-        <is>
-          <t>$ 3.6B</t>
-        </is>
-      </c>
+      <c r="G656" t="inlineStr"/>
       <c r="H656" t="inlineStr">
         <is>
           <t>3</t>
@@ -21892,97 +21424,89 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C657" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoYQ4</t>
+          <t>Foreign Securities PurchasesNOV</t>
         </is>
       </c>
       <c r="D657" t="inlineStr"/>
       <c r="E657" t="inlineStr">
         <is>
-          <t>4.6%</t>
+          <t>C$21.55B</t>
         </is>
       </c>
       <c r="F657" t="inlineStr"/>
-      <c r="G657" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
+      <c r="G657" t="inlineStr"/>
       <c r="H657" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C658" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Foreign Securities Purchases by CanadiansNOV</t>
         </is>
       </c>
       <c r="D658" t="inlineStr"/>
       <c r="E658" t="inlineStr">
         <is>
-          <t>5.4%</t>
+          <t>C$-2.65B</t>
         </is>
       </c>
       <c r="F658" t="inlineStr"/>
-      <c r="G658" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="G658" t="inlineStr"/>
       <c r="H658" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C659" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Building Permits PrelDEC</t>
         </is>
       </c>
       <c r="D659" t="inlineStr"/>
       <c r="E659" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>1.493M</t>
         </is>
       </c>
       <c r="F659" t="inlineStr"/>
       <c r="G659" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>1.6M</t>
         </is>
       </c>
       <c r="H659" t="inlineStr">
@@ -21994,65 +21518,61 @@
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C660" t="inlineStr">
         <is>
-          <t>Fixed Asset Investment (YTD) YoYDEC</t>
+          <t>Housing StartsDEC</t>
         </is>
       </c>
       <c r="D660" t="inlineStr"/>
       <c r="E660" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>1.289M</t>
         </is>
       </c>
       <c r="F660" t="inlineStr"/>
       <c r="G660" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>1.5M</t>
         </is>
       </c>
       <c r="H660" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C661" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQQ4</t>
+          <t>Building Permits MoM PrelDEC</t>
         </is>
       </c>
       <c r="D661" t="inlineStr"/>
       <c r="E661" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F661" t="inlineStr"/>
-      <c r="G661" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="G661" t="inlineStr"/>
       <c r="H661" t="inlineStr">
         <is>
           <t>2</t>
@@ -22062,91 +21582,95 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C662" t="inlineStr">
         <is>
-          <t>Industrial Capacity UtilizationQ4</t>
+          <t>Housing Starts MoMDEC</t>
         </is>
       </c>
       <c r="D662" t="inlineStr"/>
       <c r="E662" t="inlineStr">
         <is>
-          <t>75.1%</t>
+          <t>-1.8%</t>
         </is>
       </c>
       <c r="F662" t="inlineStr"/>
       <c r="G662" t="inlineStr">
         <is>
-          <t>74.9%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="H662" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C663" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D663" t="inlineStr"/>
       <c r="E663" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F663" t="inlineStr"/>
-      <c r="G663" t="inlineStr">
-        <is>
-          <t>5.00%</t>
-        </is>
-      </c>
+      <c r="G663" t="inlineStr"/>
       <c r="H663" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C664" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Capacity UtilizationDEC</t>
         </is>
       </c>
       <c r="D664" t="inlineStr"/>
-      <c r="E664" t="inlineStr"/>
+      <c r="E664" t="inlineStr">
+        <is>
+          <t>76.8%</t>
+        </is>
+      </c>
       <c r="F664" t="inlineStr"/>
-      <c r="G664" t="inlineStr"/>
+      <c r="G664" t="inlineStr">
+        <is>
+          <t>77.8%</t>
+        </is>
+      </c>
       <c r="H664" t="inlineStr">
         <is>
           <t>3</t>
@@ -22156,91 +21680,99 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C665" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D665" t="inlineStr"/>
       <c r="E665" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="F665" t="inlineStr"/>
       <c r="G665" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H665" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C666" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Manufacturing Production MoMDEC</t>
         </is>
       </c>
       <c r="D666" t="inlineStr"/>
       <c r="E666" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F666" t="inlineStr"/>
       <c r="G666" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H666" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C667" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel MoMDEC</t>
+          <t>Manufacturing Production YoYDEC</t>
         </is>
       </c>
       <c r="D667" t="inlineStr"/>
-      <c r="E667" t="inlineStr"/>
+      <c r="E667" t="inlineStr">
+        <is>
+          <t>-1%</t>
+        </is>
+      </c>
       <c r="F667" t="inlineStr"/>
-      <c r="G667" t="inlineStr"/>
+      <c r="G667" t="inlineStr">
+        <is>
+          <t>-0.9%</t>
+        </is>
+      </c>
       <c r="H667" t="inlineStr">
         <is>
           <t>3</t>
@@ -22250,17 +21782,17 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C668" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel YoYDEC</t>
+          <t>Baker Hughes Oil Rig CountJAN/17</t>
         </is>
       </c>
       <c r="D668" t="inlineStr"/>
@@ -22276,31 +21808,23 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>12:50 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C669" t="inlineStr">
         <is>
-          <t>Loan Growth YoYDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/17</t>
         </is>
       </c>
       <c r="D669" t="inlineStr"/>
-      <c r="E669" t="inlineStr">
-        <is>
-          <t>10.79%</t>
-        </is>
-      </c>
+      <c r="E669" t="inlineStr"/>
       <c r="F669" t="inlineStr"/>
-      <c r="G669" t="inlineStr">
-        <is>
-          <t>10%</t>
-        </is>
-      </c>
+      <c r="G669" t="inlineStr"/>
       <c r="H669" t="inlineStr">
         <is>
           <t>3</t>
@@ -22308,25 +21832,21 @@
       </c>
     </row>
     <row r="670">
-      <c r="A670" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
+      <c r="A670" t="inlineStr"/>
       <c r="B670" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C670" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>50-Year KTB Auction</t>
         </is>
       </c>
       <c r="D670" t="inlineStr"/>
       <c r="E670" t="inlineStr">
         <is>
-          <t>€32B</t>
+          <t>2.40%</t>
         </is>
       </c>
       <c r="F670" t="inlineStr"/>
@@ -22340,53 +21860,37 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
-      <c r="B671" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C671" t="inlineStr">
-        <is>
-          <t>Current Account s.aNOV</t>
-        </is>
-      </c>
+          <t>Saturday January 18 2025</t>
+        </is>
+      </c>
+      <c r="B671" t="inlineStr"/>
+      <c r="C671" t="inlineStr"/>
       <c r="D671" t="inlineStr"/>
-      <c r="E671" t="inlineStr">
-        <is>
-          <t>€33.5B</t>
-        </is>
-      </c>
+      <c r="E671" t="inlineStr"/>
       <c r="F671" t="inlineStr"/>
       <c r="G671" t="inlineStr"/>
-      <c r="H671" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H671" t="inlineStr"/>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C672" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Net Long-term TIC FlowsNOV</t>
         </is>
       </c>
       <c r="D672" t="inlineStr"/>
       <c r="E672" t="inlineStr">
         <is>
-          <t>€-3.93B</t>
+          <t>$152.3B</t>
         </is>
       </c>
       <c r="F672" t="inlineStr"/>
@@ -22400,790 +21904,58 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C673" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Foreign Bond InvestmentNOV</t>
         </is>
       </c>
       <c r="D673" t="inlineStr"/>
       <c r="E673" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F673" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="G673" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+          <t>$92.1B</t>
+        </is>
+      </c>
+      <c r="F673" t="inlineStr"/>
+      <c r="G673" t="inlineStr"/>
       <c r="H673" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C674" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FinalDEC</t>
+          <t>Overall Net Capital FlowsNOV</t>
         </is>
       </c>
       <c r="D674" t="inlineStr"/>
       <c r="E674" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>$203.6B</t>
         </is>
       </c>
       <c r="F674" t="inlineStr"/>
-      <c r="G674" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="G674" t="inlineStr"/>
       <c r="H674" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="675">
-      <c r="A675" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B675" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C675" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoM FinalDEC</t>
-        </is>
-      </c>
-      <c r="D675" t="inlineStr"/>
-      <c r="E675" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F675" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G675" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H675" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="676">
-      <c r="A676" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B676" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C676" t="inlineStr">
-        <is>
-          <t>CPI FinalDEC</t>
-        </is>
-      </c>
-      <c r="D676" t="inlineStr"/>
-      <c r="E676" t="inlineStr">
-        <is>
-          <t>126.62</t>
-        </is>
-      </c>
-      <c r="F676" t="inlineStr"/>
-      <c r="G676" t="inlineStr">
-        <is>
-          <t>127</t>
-        </is>
-      </c>
-      <c r="H676" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="677">
-      <c r="A677" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B677" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C677" t="inlineStr">
-        <is>
-          <t>Current AccountNOV</t>
-        </is>
-      </c>
-      <c r="D677" t="inlineStr"/>
-      <c r="E677" t="inlineStr">
-        <is>
-          <t>€5628M</t>
-        </is>
-      </c>
-      <c r="F677" t="inlineStr"/>
-      <c r="G677" t="inlineStr"/>
-      <c r="H677" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="678">
-      <c r="A678" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
-      <c r="B678" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C678" t="inlineStr">
-        <is>
-          <t>Bank Loan Growth YoYJAN/03</t>
-        </is>
-      </c>
-      <c r="D678" t="inlineStr"/>
-      <c r="E678" t="inlineStr"/>
-      <c r="F678" t="inlineStr"/>
-      <c r="G678" t="inlineStr"/>
-      <c r="H678" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="679">
-      <c r="A679" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
-      <c r="B679" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C679" t="inlineStr">
-        <is>
-          <t>Deposit Growth YoYJAN/03</t>
-        </is>
-      </c>
-      <c r="D679" t="inlineStr"/>
-      <c r="E679" t="inlineStr"/>
-      <c r="F679" t="inlineStr"/>
-      <c r="G679" t="inlineStr"/>
-      <c r="H679" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="680">
-      <c r="A680" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
-      <c r="B680" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C680" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN/10</t>
-        </is>
-      </c>
-      <c r="D680" t="inlineStr"/>
-      <c r="E680" t="inlineStr"/>
-      <c r="F680" t="inlineStr"/>
-      <c r="G680" t="inlineStr"/>
-      <c r="H680" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="681">
-      <c r="A681" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B681" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C681" t="inlineStr">
-        <is>
-          <t>Foreign Securities PurchasesNOV</t>
-        </is>
-      </c>
-      <c r="D681" t="inlineStr"/>
-      <c r="E681" t="inlineStr">
-        <is>
-          <t>C$21.55B</t>
-        </is>
-      </c>
-      <c r="F681" t="inlineStr"/>
-      <c r="G681" t="inlineStr"/>
-      <c r="H681" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="682">
-      <c r="A682" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B682" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C682" t="inlineStr">
-        <is>
-          <t>Foreign Securities Purchases by CanadiansNOV</t>
-        </is>
-      </c>
-      <c r="D682" t="inlineStr"/>
-      <c r="E682" t="inlineStr">
-        <is>
-          <t>C$-2.65B</t>
-        </is>
-      </c>
-      <c r="F682" t="inlineStr"/>
-      <c r="G682" t="inlineStr"/>
-      <c r="H682" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="683">
-      <c r="A683" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B683" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C683" t="inlineStr">
-        <is>
-          <t>Building Permits PrelDEC</t>
-        </is>
-      </c>
-      <c r="D683" t="inlineStr"/>
-      <c r="E683" t="inlineStr">
-        <is>
-          <t>1.493M</t>
-        </is>
-      </c>
-      <c r="F683" t="inlineStr"/>
-      <c r="G683" t="inlineStr">
-        <is>
-          <t>1.6M</t>
-        </is>
-      </c>
-      <c r="H683" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="684">
-      <c r="A684" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B684" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C684" t="inlineStr">
-        <is>
-          <t>Housing StartsDEC</t>
-        </is>
-      </c>
-      <c r="D684" t="inlineStr"/>
-      <c r="E684" t="inlineStr">
-        <is>
-          <t>1.289M</t>
-        </is>
-      </c>
-      <c r="F684" t="inlineStr"/>
-      <c r="G684" t="inlineStr">
-        <is>
-          <t>1.5M</t>
-        </is>
-      </c>
-      <c r="H684" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="685">
-      <c r="A685" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B685" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C685" t="inlineStr">
-        <is>
-          <t>Building Permits MoM PrelDEC</t>
-        </is>
-      </c>
-      <c r="D685" t="inlineStr"/>
-      <c r="E685" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F685" t="inlineStr"/>
-      <c r="G685" t="inlineStr"/>
-      <c r="H685" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="686">
-      <c r="A686" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B686" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C686" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMDEC</t>
-        </is>
-      </c>
-      <c r="D686" t="inlineStr"/>
-      <c r="E686" t="inlineStr">
-        <is>
-          <t>-1.8%</t>
-        </is>
-      </c>
-      <c r="F686" t="inlineStr"/>
-      <c r="G686" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="H686" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="687">
-      <c r="A687" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B687" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C687" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMDEC</t>
-        </is>
-      </c>
-      <c r="D687" t="inlineStr"/>
-      <c r="E687" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F687" t="inlineStr"/>
-      <c r="G687" t="inlineStr"/>
-      <c r="H687" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="688">
-      <c r="A688" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B688" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C688" t="inlineStr">
-        <is>
-          <t>Capacity UtilizationDEC</t>
-        </is>
-      </c>
-      <c r="D688" t="inlineStr"/>
-      <c r="E688" t="inlineStr">
-        <is>
-          <t>76.8%</t>
-        </is>
-      </c>
-      <c r="F688" t="inlineStr"/>
-      <c r="G688" t="inlineStr">
-        <is>
-          <t>77.8%</t>
-        </is>
-      </c>
-      <c r="H688" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="689">
-      <c r="A689" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B689" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C689" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D689" t="inlineStr"/>
-      <c r="E689" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="F689" t="inlineStr"/>
-      <c r="G689" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="H689" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="690">
-      <c r="A690" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B690" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C690" t="inlineStr">
-        <is>
-          <t>Manufacturing Production MoMDEC</t>
-        </is>
-      </c>
-      <c r="D690" t="inlineStr"/>
-      <c r="E690" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F690" t="inlineStr"/>
-      <c r="G690" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H690" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="691">
-      <c r="A691" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B691" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C691" t="inlineStr">
-        <is>
-          <t>Manufacturing Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D691" t="inlineStr"/>
-      <c r="E691" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
-      <c r="F691" t="inlineStr"/>
-      <c r="G691" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="H691" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="692">
-      <c r="A692" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B692" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C692" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJAN/17</t>
-        </is>
-      </c>
-      <c r="D692" t="inlineStr"/>
-      <c r="E692" t="inlineStr"/>
-      <c r="F692" t="inlineStr"/>
-      <c r="G692" t="inlineStr"/>
-      <c r="H692" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="693">
-      <c r="A693" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B693" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C693" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJAN/17</t>
-        </is>
-      </c>
-      <c r="D693" t="inlineStr"/>
-      <c r="E693" t="inlineStr"/>
-      <c r="F693" t="inlineStr"/>
-      <c r="G693" t="inlineStr"/>
-      <c r="H693" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="694">
-      <c r="A694" t="inlineStr"/>
-      <c r="B694" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C694" t="inlineStr">
-        <is>
-          <t>50-Year KTB Auction</t>
-        </is>
-      </c>
-      <c r="D694" t="inlineStr"/>
-      <c r="E694" t="inlineStr">
-        <is>
-          <t>2.40%</t>
-        </is>
-      </c>
-      <c r="F694" t="inlineStr"/>
-      <c r="G694" t="inlineStr"/>
-      <c r="H694" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="695">
-      <c r="A695" t="inlineStr">
-        <is>
-          <t>Saturday January 18 2025</t>
-        </is>
-      </c>
-      <c r="B695" t="inlineStr"/>
-      <c r="C695" t="inlineStr"/>
-      <c r="D695" t="inlineStr"/>
-      <c r="E695" t="inlineStr"/>
-      <c r="F695" t="inlineStr"/>
-      <c r="G695" t="inlineStr"/>
-      <c r="H695" t="inlineStr"/>
-    </row>
-    <row r="696">
-      <c r="A696" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B696" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C696" t="inlineStr">
-        <is>
-          <t>Net Long-term TIC FlowsNOV</t>
-        </is>
-      </c>
-      <c r="D696" t="inlineStr"/>
-      <c r="E696" t="inlineStr">
-        <is>
-          <t>$152.3B</t>
-        </is>
-      </c>
-      <c r="F696" t="inlineStr"/>
-      <c r="G696" t="inlineStr"/>
-      <c r="H696" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="697">
-      <c r="A697" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B697" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C697" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentNOV</t>
-        </is>
-      </c>
-      <c r="D697" t="inlineStr"/>
-      <c r="E697" t="inlineStr">
-        <is>
-          <t>$92.1B</t>
-        </is>
-      </c>
-      <c r="F697" t="inlineStr"/>
-      <c r="G697" t="inlineStr"/>
-      <c r="H697" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="698">
-      <c r="A698" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B698" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C698" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsNOV</t>
-        </is>
-      </c>
-      <c r="D698" t="inlineStr"/>
-      <c r="E698" t="inlineStr">
-        <is>
-          <t>$203.6B</t>
-        </is>
-      </c>
-      <c r="F698" t="inlineStr"/>
-      <c r="G698" t="inlineStr"/>
-      <c r="H698" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-18.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H674"/>
+  <dimension ref="A1:H677"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15138,1345 +15138,1481 @@
       </c>
     </row>
     <row r="439">
-      <c r="A439" t="inlineStr">
-        <is>
-          <t>Monday January 13 2025</t>
-        </is>
-      </c>
-      <c r="B439" t="inlineStr"/>
-      <c r="C439" t="inlineStr"/>
+      <c r="A439" t="inlineStr"/>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>Vehicle Sales YoYDEC</t>
+        </is>
+      </c>
       <c r="D439" t="inlineStr"/>
-      <c r="E439" t="inlineStr"/>
+      <c r="E439" t="inlineStr">
+        <is>
+          <t>11.7%</t>
+        </is>
+      </c>
       <c r="F439" t="inlineStr"/>
-      <c r="G439" t="inlineStr"/>
-      <c r="H439" t="inlineStr"/>
+      <c r="G439" t="inlineStr">
+        <is>
+          <t>6.4%</t>
+        </is>
+      </c>
+      <c r="H439" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="440">
-      <c r="A440" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
+      <c r="A440" t="inlineStr"/>
       <c r="B440" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>ANZ-Indeed Job Ads MoMDEC</t>
+          <t>Vehicle Sales YoYDEC</t>
         </is>
       </c>
       <c r="D440" t="inlineStr"/>
       <c r="E440" t="inlineStr">
         <is>
-          <t>-1.3%</t>
+          <t>12%</t>
         </is>
       </c>
       <c r="F440" t="inlineStr"/>
-      <c r="G440" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H440" t="n">
-        <v>3</v>
+      <c r="G440" t="inlineStr"/>
+      <c r="H440" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="441">
-      <c r="A441" t="inlineStr">
-        <is>
-          <t>06:30 AM</t>
-        </is>
-      </c>
+      <c r="A441" t="inlineStr"/>
       <c r="B441" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>TD-MI Inflation Gauge MoMDEC</t>
+          <t>BCB Focus Market Readout</t>
         </is>
       </c>
       <c r="D441" t="inlineStr"/>
-      <c r="E441" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E441" t="inlineStr"/>
       <c r="F441" t="inlineStr"/>
-      <c r="G441" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H441" t="n">
-        <v>3</v>
+      <c r="G441" t="inlineStr"/>
+      <c r="H441" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B442" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C442" t="inlineStr">
-        <is>
-          <t>Current AccountNOV</t>
-        </is>
-      </c>
+          <t>Tuesday January 14 2025</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr"/>
+      <c r="C442" t="inlineStr"/>
       <c r="D442" t="inlineStr"/>
-      <c r="E442" t="inlineStr">
-        <is>
-          <t>$1.88B</t>
-        </is>
-      </c>
+      <c r="E442" t="inlineStr"/>
       <c r="F442" t="inlineStr"/>
       <c r="G442" t="inlineStr"/>
-      <c r="H442" t="n">
-        <v>3</v>
-      </c>
+      <c r="H442" t="inlineStr"/>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>Monthly Budget StatementDEC</t>
         </is>
       </c>
       <c r="D443" t="inlineStr"/>
       <c r="E443" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>$-367B</t>
         </is>
       </c>
       <c r="F443" t="inlineStr"/>
       <c r="G443" t="inlineStr"/>
-      <c r="H443" t="n">
-        <v>3</v>
+      <c r="H443" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Westpac Consumer Confidence ChangeJAN</t>
         </is>
       </c>
       <c r="D444" t="inlineStr"/>
       <c r="E444" t="inlineStr">
         <is>
-          <t>15.0%</t>
+          <t>-2%</t>
         </is>
       </c>
       <c r="F444" t="inlineStr"/>
       <c r="G444" t="inlineStr"/>
-      <c r="H444" t="n">
-        <v>3</v>
+      <c r="H444" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>12-Month Bubill Auction</t>
+          <t>Westpac Consumer Confidence IndexJAN</t>
         </is>
       </c>
       <c r="D445" t="inlineStr"/>
-      <c r="E445" t="inlineStr"/>
+      <c r="E445" t="inlineStr">
+        <is>
+          <t>92.8</t>
+        </is>
+      </c>
       <c r="F445" t="inlineStr"/>
       <c r="G445" t="inlineStr"/>
-      <c r="H445" t="n">
-        <v>3</v>
+      <c r="H445" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D446" t="inlineStr"/>
       <c r="E446" t="inlineStr">
         <is>
-          <t>5.48%</t>
+          <t>¥2457B</t>
         </is>
       </c>
       <c r="F446" t="inlineStr"/>
       <c r="G446" t="inlineStr">
         <is>
-          <t>6.0%</t>
-        </is>
-      </c>
-      <c r="H446" t="n">
-        <v>2</v>
+          <t>¥1990.0B</t>
+        </is>
+      </c>
+      <c r="H446" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Bank Lending YoYDEC</t>
         </is>
       </c>
       <c r="D447" t="inlineStr"/>
       <c r="E447" t="inlineStr">
         <is>
-          <t>-0.15%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F447" t="inlineStr"/>
       <c r="G447" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H447" t="n">
-        <v>3</v>
+          <t>3.1%</t>
+        </is>
+      </c>
+      <c r="H447" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Building Permits MoM FinalNOV</t>
         </is>
       </c>
       <c r="D448" t="inlineStr"/>
-      <c r="E448" t="inlineStr"/>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="F448" t="inlineStr"/>
       <c r="G448" t="inlineStr"/>
-      <c r="H448" t="n">
-        <v>3</v>
+      <c r="H448" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Private House Approvals MoM FinalNOV</t>
         </is>
       </c>
       <c r="D449" t="inlineStr"/>
-      <c r="E449" t="inlineStr"/>
+      <c r="E449" t="inlineStr">
+        <is>
+          <t>-4.0%</t>
+        </is>
+      </c>
       <c r="F449" t="inlineStr"/>
       <c r="G449" t="inlineStr"/>
-      <c r="H449" t="n">
-        <v>3</v>
+      <c r="H449" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>5-Year JGB Auction</t>
         </is>
       </c>
       <c r="D450" t="inlineStr"/>
-      <c r="E450" t="inlineStr"/>
+      <c r="E450" t="inlineStr">
+        <is>
+          <t>0.734%</t>
+        </is>
+      </c>
       <c r="F450" t="inlineStr"/>
       <c r="G450" t="inlineStr"/>
-      <c r="H450" t="n">
-        <v>3</v>
+      <c r="H450" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsDEC</t>
+          <t>Eco Watchers Survey CurrentDEC</t>
         </is>
       </c>
       <c r="D451" t="inlineStr"/>
       <c r="E451" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>49.4</t>
         </is>
       </c>
       <c r="F451" t="inlineStr"/>
       <c r="G451" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="H451" t="n">
-        <v>3</v>
+          <t>49.8</t>
+        </is>
+      </c>
+      <c r="H451" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Eco Watchers Survey OutlookDEC</t>
         </is>
       </c>
       <c r="D452" t="inlineStr"/>
       <c r="E452" t="inlineStr">
         <is>
-          <t>4.205%</t>
+          <t>49.4</t>
         </is>
       </c>
       <c r="F452" t="inlineStr"/>
-      <c r="G452" t="inlineStr"/>
-      <c r="H452" t="n">
-        <v>3</v>
+      <c r="G452" t="inlineStr">
+        <is>
+          <t>49.6</t>
+        </is>
+      </c>
+      <c r="H452" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D453" t="inlineStr"/>
       <c r="E453" t="inlineStr">
         <is>
-          <t>4.110%</t>
+          <t>3.19%</t>
         </is>
       </c>
       <c r="F453" t="inlineStr"/>
       <c r="G453" t="inlineStr"/>
-      <c r="H453" t="n">
-        <v>3</v>
+      <c r="H453" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - CornDEC</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D454" t="inlineStr"/>
       <c r="E454" t="inlineStr">
         <is>
-          <t>1.760B</t>
+          <t>3.24%</t>
         </is>
       </c>
       <c r="F454" t="inlineStr"/>
       <c r="G454" t="inlineStr"/>
-      <c r="H454" t="n">
-        <v>3</v>
+      <c r="H454" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - SoyDEC</t>
+          <t>WPI Food Index YoYDEC</t>
         </is>
       </c>
       <c r="D455" t="inlineStr"/>
       <c r="E455" t="inlineStr">
         <is>
-          <t>0.342B</t>
+          <t>8.92%</t>
         </is>
       </c>
       <c r="F455" t="inlineStr"/>
-      <c r="G455" t="inlineStr"/>
-      <c r="H455" t="n">
-        <v>3</v>
+      <c r="G455" t="inlineStr">
+        <is>
+          <t>10.2%</t>
+        </is>
+      </c>
+      <c r="H455" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - WheatDEC</t>
+          <t>WPI Fuel YoYDEC</t>
         </is>
       </c>
       <c r="D456" t="inlineStr"/>
       <c r="E456" t="inlineStr">
         <is>
-          <t>1.98B</t>
+          <t>-5.83%</t>
         </is>
       </c>
       <c r="F456" t="inlineStr"/>
-      <c r="G456" t="inlineStr"/>
-      <c r="H456" t="n">
-        <v>3</v>
+      <c r="G456" t="inlineStr">
+        <is>
+          <t>-3.2%</t>
+        </is>
+      </c>
+      <c r="H456" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="457">
-      <c r="A457" t="inlineStr"/>
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>12:00 PM</t>
+        </is>
+      </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>3-Year KTB Auction</t>
+          <t>WPI Manufacturing YoYDEC</t>
         </is>
       </c>
       <c r="D457" t="inlineStr"/>
       <c r="E457" t="inlineStr">
         <is>
-          <t>2.53%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="F457" t="inlineStr"/>
-      <c r="G457" t="inlineStr"/>
-      <c r="H457" t="n">
-        <v>3</v>
+      <c r="G457" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="H457" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="458">
-      <c r="A458" t="inlineStr"/>
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>01:15 PM</t>
+        </is>
+      </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>Auto Production YoYDEC</t>
+          <t>Budget BalanceNOV</t>
         </is>
       </c>
       <c r="D458" t="inlineStr"/>
       <c r="E458" t="inlineStr">
         <is>
-          <t>-15.4%</t>
+          <t>€-157.39B</t>
         </is>
       </c>
       <c r="F458" t="inlineStr"/>
       <c r="G458" t="inlineStr"/>
-      <c r="H458" t="n">
-        <v>3</v>
+      <c r="H458" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="459">
-      <c r="A459" t="inlineStr"/>
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>02:30 PM</t>
+        </is>
+      </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>Auto Sales YoYDEC</t>
+          <t>Industrial Production MoMNOV</t>
         </is>
       </c>
       <c r="D459" t="inlineStr"/>
       <c r="E459" t="inlineStr">
         <is>
-          <t>5.3%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F459" t="inlineStr"/>
       <c r="G459" t="inlineStr"/>
-      <c r="H459" t="n">
-        <v>3</v>
+      <c r="H459" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="460">
-      <c r="A460" t="inlineStr"/>
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>02:30 PM</t>
+        </is>
+      </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>Vehicle Sales YoYDEC</t>
+          <t>Industrial Production YoYNOV</t>
         </is>
       </c>
       <c r="D460" t="inlineStr"/>
       <c r="E460" t="inlineStr">
         <is>
-          <t>11.7%</t>
+          <t>-3.6%</t>
         </is>
       </c>
       <c r="F460" t="inlineStr"/>
-      <c r="G460" t="inlineStr">
-        <is>
-          <t>6.4%</t>
-        </is>
-      </c>
-      <c r="H460" t="n">
-        <v>3</v>
+      <c r="G460" t="inlineStr"/>
+      <c r="H460" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="461">
-      <c r="A461" t="inlineStr"/>
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>03:10 PM</t>
+        </is>
+      </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>Vehicle Sales YoYDEC</t>
+          <t>3-Month Letras Auction</t>
         </is>
       </c>
       <c r="D461" t="inlineStr"/>
-      <c r="E461" t="inlineStr">
-        <is>
-          <t>12%</t>
-        </is>
-      </c>
+      <c r="E461" t="inlineStr"/>
       <c r="F461" t="inlineStr"/>
       <c r="G461" t="inlineStr"/>
-      <c r="H461" t="n">
-        <v>3</v>
+      <c r="H461" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="462">
-      <c r="A462" t="inlineStr"/>
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>03:10 PM</t>
+        </is>
+      </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>BCB Focus Market Readout</t>
+          <t>9-Month Letras Auction</t>
         </is>
       </c>
       <c r="D462" t="inlineStr"/>
       <c r="E462" t="inlineStr"/>
       <c r="F462" t="inlineStr"/>
       <c r="G462" t="inlineStr"/>
-      <c r="H462" t="n">
-        <v>3</v>
+      <c r="H462" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>Tuesday January 14 2025</t>
-        </is>
-      </c>
-      <c r="B463" t="inlineStr"/>
-      <c r="C463" t="inlineStr"/>
+          <t>03:30 PM</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>20-Year Index-Linked Treasury Gilt Auction</t>
+        </is>
+      </c>
       <c r="D463" t="inlineStr"/>
-      <c r="E463" t="inlineStr"/>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>1.200%</t>
+        </is>
+      </c>
       <c r="F463" t="inlineStr"/>
       <c r="G463" t="inlineStr"/>
-      <c r="H463" t="inlineStr"/>
+      <c r="H463" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>Monthly Budget StatementDEC</t>
+          <t>5-Year Bobl Auction</t>
         </is>
       </c>
       <c r="D464" t="inlineStr"/>
       <c r="E464" t="inlineStr">
         <is>
-          <t>$-367B</t>
+          <t>2.04%</t>
         </is>
       </c>
       <c r="F464" t="inlineStr"/>
       <c r="G464" t="inlineStr"/>
-      <c r="H464" t="n">
-        <v>2</v>
+      <c r="H464" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>Westpac Consumer Confidence ChangeJAN</t>
+          <t>NFIB Business Optimism IndexDEC</t>
         </is>
       </c>
       <c r="D465" t="inlineStr"/>
       <c r="E465" t="inlineStr">
         <is>
-          <t>-2%</t>
+          <t>101.7</t>
         </is>
       </c>
       <c r="F465" t="inlineStr"/>
-      <c r="G465" t="inlineStr"/>
-      <c r="H465" t="n">
-        <v>1</v>
+      <c r="G465" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="H465" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>Westpac Consumer Confidence IndexJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D466" t="inlineStr"/>
       <c r="E466" t="inlineStr">
         <is>
-          <t>92.8</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F466" t="inlineStr"/>
-      <c r="G466" t="inlineStr"/>
-      <c r="H466" t="n">
-        <v>1</v>
+      <c r="G466" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H466" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Core PPI MoMDEC</t>
         </is>
       </c>
       <c r="D467" t="inlineStr"/>
       <c r="E467" t="inlineStr">
         <is>
-          <t>¥2457B</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F467" t="inlineStr"/>
-      <c r="G467" t="inlineStr">
-        <is>
-          <t>¥1990.0B</t>
-        </is>
-      </c>
-      <c r="H467" t="n">
-        <v>2</v>
+      <c r="G467" t="inlineStr"/>
+      <c r="H467" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>Bank Lending YoYDEC</t>
+          <t>Core PPI YoYDEC</t>
         </is>
       </c>
       <c r="D468" t="inlineStr"/>
       <c r="E468" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="F468" t="inlineStr"/>
       <c r="G468" t="inlineStr">
         <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="H468" t="n">
-        <v>3</v>
+          <t>3.2%</t>
+        </is>
+      </c>
+      <c r="H468" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalNOV</t>
+          <t>PPIDEC</t>
         </is>
       </c>
       <c r="D469" t="inlineStr"/>
       <c r="E469" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>146.493</t>
         </is>
       </c>
       <c r="F469" t="inlineStr"/>
-      <c r="G469" t="inlineStr"/>
-      <c r="H469" t="n">
-        <v>3</v>
+      <c r="G469" t="inlineStr">
+        <is>
+          <t>146.4</t>
+        </is>
+      </c>
+      <c r="H469" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>Private House Approvals MoM FinalNOV</t>
+          <t>PPI Ex Food, Energy and Trade MoMDEC</t>
         </is>
       </c>
       <c r="D470" t="inlineStr"/>
       <c r="E470" t="inlineStr">
         <is>
-          <t>-4.0%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F470" t="inlineStr"/>
       <c r="G470" t="inlineStr"/>
-      <c r="H470" t="n">
-        <v>3</v>
+      <c r="H470" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>5-Year JGB Auction</t>
+          <t>PPI Ex Food, Energy and Trade YoYDEC</t>
         </is>
       </c>
       <c r="D471" t="inlineStr"/>
       <c r="E471" t="inlineStr">
         <is>
-          <t>0.734%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="F471" t="inlineStr"/>
       <c r="G471" t="inlineStr"/>
-      <c r="H471" t="n">
-        <v>3</v>
+      <c r="H471" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>Eco Watchers Survey CurrentDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D472" t="inlineStr"/>
       <c r="E472" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F472" t="inlineStr"/>
       <c r="G472" t="inlineStr">
         <is>
-          <t>49.8</t>
-        </is>
-      </c>
-      <c r="H472" t="n">
-        <v>3</v>
+          <t>3.0%</t>
+        </is>
+      </c>
+      <c r="H472" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>Eco Watchers Survey OutlookDEC</t>
+          <t>Redbook YoYJAN/11</t>
         </is>
       </c>
       <c r="D473" t="inlineStr"/>
       <c r="E473" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>6.8%</t>
         </is>
       </c>
       <c r="F473" t="inlineStr"/>
-      <c r="G473" t="inlineStr">
-        <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="H473" t="n">
-        <v>3</v>
+      <c r="G473" t="inlineStr"/>
+      <c r="H473" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:35 PM</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>RCM/TIPP Economic Optimism IndexJAN</t>
         </is>
       </c>
       <c r="D474" t="inlineStr"/>
       <c r="E474" t="inlineStr">
         <is>
-          <t>3.19%</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F474" t="inlineStr"/>
       <c r="G474" t="inlineStr"/>
-      <c r="H474" t="n">
-        <v>3</v>
+      <c r="H474" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="475">
-      <c r="A475" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
+      <c r="A475" t="inlineStr"/>
       <c r="B475" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>5-Year KTB Auction</t>
         </is>
       </c>
       <c r="D475" t="inlineStr"/>
       <c r="E475" t="inlineStr">
         <is>
-          <t>3.24%</t>
+          <t>2.680%</t>
         </is>
       </c>
       <c r="F475" t="inlineStr"/>
       <c r="G475" t="inlineStr"/>
-      <c r="H475" t="n">
-        <v>3</v>
+      <c r="H475" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B476" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C476" t="inlineStr">
-        <is>
-          <t>WPI Food Index YoYDEC</t>
-        </is>
-      </c>
+          <t>Wednesday January 15 2025</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr"/>
+      <c r="C476" t="inlineStr"/>
       <c r="D476" t="inlineStr"/>
-      <c r="E476" t="inlineStr">
-        <is>
-          <t>8.92%</t>
-        </is>
-      </c>
+      <c r="E476" t="inlineStr"/>
       <c r="F476" t="inlineStr"/>
-      <c r="G476" t="inlineStr">
-        <is>
-          <t>10.2%</t>
-        </is>
-      </c>
-      <c r="H476" t="n">
-        <v>3</v>
-      </c>
+      <c r="G476" t="inlineStr"/>
+      <c r="H476" t="inlineStr"/>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>WPI Fuel YoYDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D477" t="inlineStr"/>
       <c r="E477" t="inlineStr">
         <is>
-          <t>-5.83%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F477" t="inlineStr"/>
       <c r="G477" t="inlineStr">
         <is>
-          <t>-3.2%</t>
-        </is>
-      </c>
-      <c r="H477" t="n">
-        <v>3</v>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="H477" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>WPI Manufacturing YoYDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D478" t="inlineStr"/>
       <c r="E478" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>166%</t>
         </is>
       </c>
       <c r="F478" t="inlineStr"/>
       <c r="G478" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="H478" t="n">
-        <v>3</v>
+          <t>116.0%</t>
+        </is>
+      </c>
+      <c r="H478" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>Budget BalanceNOV</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D479" t="inlineStr"/>
       <c r="E479" t="inlineStr">
         <is>
-          <t>€-157.39B</t>
+          <t>7%</t>
         </is>
       </c>
       <c r="F479" t="inlineStr"/>
-      <c r="G479" t="inlineStr"/>
-      <c r="H479" t="n">
-        <v>3</v>
+      <c r="G479" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="H479" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>Industrial Production MoMNOV</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D480" t="inlineStr"/>
       <c r="E480" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F480" t="inlineStr"/>
-      <c r="G480" t="inlineStr"/>
-      <c r="H480" t="n">
-        <v>2</v>
+      <c r="G480" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
+      <c r="H480" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>API Crude Oil Stock ChangeJAN/10</t>
         </is>
       </c>
       <c r="D481" t="inlineStr"/>
       <c r="E481" t="inlineStr">
         <is>
-          <t>-3.6%</t>
+          <t>-4.022M</t>
         </is>
       </c>
       <c r="F481" t="inlineStr"/>
       <c r="G481" t="inlineStr"/>
-      <c r="H481" t="n">
-        <v>3</v>
+      <c r="H481" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>03:10 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>3-Month Letras Auction</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D482" t="inlineStr"/>
-      <c r="E482" t="inlineStr"/>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t>$4.42B</t>
+        </is>
+      </c>
       <c r="F482" t="inlineStr"/>
-      <c r="G482" t="inlineStr"/>
-      <c r="H482" t="n">
-        <v>3</v>
+      <c r="G482" t="inlineStr">
+        <is>
+          <t>$ 2.8B</t>
+        </is>
+      </c>
+      <c r="H482" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>03:10 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>9-Month Letras Auction</t>
+          <t>Exports YoYDEC</t>
         </is>
       </c>
       <c r="D483" t="inlineStr"/>
-      <c r="E483" t="inlineStr"/>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t>9.14%</t>
+        </is>
+      </c>
       <c r="F483" t="inlineStr"/>
       <c r="G483" t="inlineStr"/>
-      <c r="H483" t="n">
-        <v>3</v>
+      <c r="H483" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>20-Year Index-Linked Treasury Gilt Auction</t>
+          <t>Imports YoYDEC</t>
         </is>
       </c>
       <c r="D484" t="inlineStr"/>
       <c r="E484" t="inlineStr">
         <is>
-          <t>1.200%</t>
+          <t>0.01%</t>
         </is>
       </c>
       <c r="F484" t="inlineStr"/>
       <c r="G484" t="inlineStr"/>
-      <c r="H484" t="n">
-        <v>3</v>
+      <c r="H484" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>5-Year Bobl Auction</t>
+          <t>Machine Tool Orders YoYDEC</t>
         </is>
       </c>
       <c r="D485" t="inlineStr"/>
       <c r="E485" t="inlineStr">
         <is>
-          <t>2.04%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="F485" t="inlineStr"/>
       <c r="G485" t="inlineStr"/>
-      <c r="H485" t="n">
-        <v>3</v>
+      <c r="H485" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>NFIB Business Optimism IndexDEC</t>
+          <t>WPI Inflation YoYDEC</t>
         </is>
       </c>
       <c r="D486" t="inlineStr"/>
       <c r="E486" t="inlineStr">
         <is>
-          <t>101.7</t>
+          <t>1.89%</t>
         </is>
       </c>
       <c r="F486" t="inlineStr"/>
       <c r="G486" t="inlineStr">
         <is>
-          <t>102</t>
-        </is>
-      </c>
-      <c r="H486" t="n">
-        <v>3</v>
+          <t>1.9%</t>
+        </is>
+      </c>
+      <c r="H486" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Wholesale Prices MoMDEC</t>
         </is>
       </c>
       <c r="D487" t="inlineStr"/>
       <c r="E487" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F487" t="inlineStr"/>
@@ -16485,116 +16621,128 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H487" t="n">
-        <v>1</v>
+      <c r="H487" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>Core PPI MoMDEC</t>
+          <t>Wholesale Prices YoYDEC</t>
         </is>
       </c>
       <c r="D488" t="inlineStr"/>
       <c r="E488" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F488" t="inlineStr"/>
-      <c r="G488" t="inlineStr"/>
-      <c r="H488" t="n">
-        <v>2</v>
+      <c r="G488" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
+      <c r="H488" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>Core PPI YoYDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D489" t="inlineStr"/>
       <c r="E489" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F489" t="inlineStr"/>
       <c r="G489" t="inlineStr">
         <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="H489" t="n">
-        <v>3</v>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="H489" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>PPIDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D490" t="inlineStr"/>
       <c r="E490" t="inlineStr">
         <is>
-          <t>146.493</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="F490" t="inlineStr"/>
       <c r="G490" t="inlineStr">
         <is>
-          <t>146.4</t>
-        </is>
-      </c>
-      <c r="H490" t="n">
-        <v>3</v>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="H490" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade MoMDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D491" t="inlineStr"/>
@@ -16604,325 +16752,379 @@
         </is>
       </c>
       <c r="F491" t="inlineStr"/>
-      <c r="G491" t="inlineStr"/>
-      <c r="H491" t="n">
-        <v>3</v>
+      <c r="G491" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="H491" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade YoYDEC</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D492" t="inlineStr"/>
       <c r="E492" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="F492" t="inlineStr"/>
-      <c r="G492" t="inlineStr"/>
-      <c r="H492" t="n">
-        <v>3</v>
+      <c r="G492" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="H492" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>PPI Core Output MoMDEC</t>
         </is>
       </c>
       <c r="D493" t="inlineStr"/>
       <c r="E493" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F493" t="inlineStr"/>
       <c r="G493" t="inlineStr">
         <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="H493" t="n">
-        <v>3</v>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="H493" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>07:25 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/11</t>
+          <t>PPI Core Output YoYDEC</t>
         </is>
       </c>
       <c r="D494" t="inlineStr"/>
       <c r="E494" t="inlineStr">
         <is>
-          <t>6.8%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F494" t="inlineStr"/>
-      <c r="G494" t="inlineStr"/>
-      <c r="H494" t="n">
-        <v>3</v>
+      <c r="G494" t="inlineStr">
+        <is>
+          <t>2.1%</t>
+        </is>
+      </c>
+      <c r="H494" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>08:35 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>RCM/TIPP Economic Optimism IndexJAN</t>
+          <t>PPI Input MoMDEC</t>
         </is>
       </c>
       <c r="D495" t="inlineStr"/>
       <c r="E495" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F495" t="inlineStr"/>
-      <c r="G495" t="inlineStr"/>
-      <c r="H495" t="n">
-        <v>3</v>
+      <c r="G495" t="inlineStr">
+        <is>
+          <t>-1.3%</t>
+        </is>
+      </c>
+      <c r="H495" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="496">
-      <c r="A496" t="inlineStr"/>
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>12:30 PM</t>
+        </is>
+      </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>5-Year KTB Auction</t>
+          <t>PPI Input YoYDEC</t>
         </is>
       </c>
       <c r="D496" t="inlineStr"/>
       <c r="E496" t="inlineStr">
         <is>
-          <t>2.680%</t>
+          <t>-1.9%</t>
         </is>
       </c>
       <c r="F496" t="inlineStr"/>
-      <c r="G496" t="inlineStr"/>
-      <c r="H496" t="n">
-        <v>3</v>
+      <c r="G496" t="inlineStr">
+        <is>
+          <t>-1%</t>
+        </is>
+      </c>
+      <c r="H496" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>Wednesday January 15 2025</t>
-        </is>
-      </c>
-      <c r="B497" t="inlineStr"/>
-      <c r="C497" t="inlineStr"/>
+          <t>12:30 PM</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>PPI Output MoMDEC</t>
+        </is>
+      </c>
       <c r="D497" t="inlineStr"/>
-      <c r="E497" t="inlineStr"/>
+      <c r="E497" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="F497" t="inlineStr"/>
-      <c r="G497" t="inlineStr"/>
-      <c r="H497" t="inlineStr"/>
+      <c r="G497" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="H497" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>PPI Output YoYDEC</t>
         </is>
       </c>
       <c r="D498" t="inlineStr"/>
       <c r="E498" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F498" t="inlineStr"/>
       <c r="G498" t="inlineStr">
         <is>
-          <t>2.0%</t>
-        </is>
-      </c>
-      <c r="H498" t="n">
-        <v>3</v>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="H498" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Retail Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D499" t="inlineStr"/>
       <c r="E499" t="inlineStr">
         <is>
-          <t>166%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F499" t="inlineStr"/>
-      <c r="G499" t="inlineStr">
-        <is>
-          <t>116.0%</t>
-        </is>
-      </c>
-      <c r="H499" t="n">
-        <v>3</v>
+      <c r="G499" t="inlineStr"/>
+      <c r="H499" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>Export Prices YoYDEC</t>
+          <t>Retail Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D500" t="inlineStr"/>
       <c r="E500" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F500" t="inlineStr"/>
       <c r="G500" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="H500" t="n">
-        <v>3</v>
+          <t>3.0%</t>
+        </is>
+      </c>
+      <c r="H500" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Interest Rate Decision</t>
         </is>
       </c>
       <c r="D501" t="inlineStr"/>
-      <c r="E501" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
+      <c r="E501" t="inlineStr"/>
       <c r="F501" t="inlineStr"/>
-      <c r="G501" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="H501" t="n">
-        <v>3</v>
+      <c r="G501" t="inlineStr"/>
+      <c r="H501" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/10</t>
+          <t>Deposit Facility RateJAN</t>
         </is>
       </c>
       <c r="D502" t="inlineStr"/>
       <c r="E502" t="inlineStr">
         <is>
-          <t>-4.022M</t>
+          <t>5.25%</t>
         </is>
       </c>
       <c r="F502" t="inlineStr"/>
       <c r="G502" t="inlineStr"/>
-      <c r="H502" t="n">
-        <v>2</v>
+      <c r="H502" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
@@ -16932,347 +17134,385 @@
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Lending Facility RateJAN</t>
         </is>
       </c>
       <c r="D503" t="inlineStr"/>
       <c r="E503" t="inlineStr">
         <is>
-          <t>$4.42B</t>
+          <t>6.75%</t>
         </is>
       </c>
       <c r="F503" t="inlineStr"/>
-      <c r="G503" t="inlineStr">
-        <is>
-          <t>$ 2.8B</t>
-        </is>
-      </c>
-      <c r="H503" t="n">
-        <v>2</v>
+      <c r="G503" t="inlineStr"/>
+      <c r="H503" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>Exports YoYDEC</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D504" t="inlineStr"/>
       <c r="E504" t="inlineStr">
         <is>
-          <t>9.14%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F504" t="inlineStr"/>
-      <c r="G504" t="inlineStr"/>
-      <c r="H504" t="n">
-        <v>3</v>
+      <c r="G504" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="H504" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>Imports YoYDEC</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D505" t="inlineStr"/>
       <c r="E505" t="inlineStr">
         <is>
-          <t>0.01%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F505" t="inlineStr"/>
-      <c r="G505" t="inlineStr"/>
-      <c r="H505" t="n">
-        <v>3</v>
+      <c r="G505" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
+      <c r="H505" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>Machine Tool Orders YoYDEC</t>
+          <t>Harmonised Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D506" t="inlineStr"/>
       <c r="E506" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="F506" t="inlineStr"/>
-      <c r="G506" t="inlineStr"/>
-      <c r="H506" t="n">
-        <v>3</v>
+      <c r="G506" t="inlineStr">
+        <is>
+          <t>1.8%</t>
+        </is>
+      </c>
+      <c r="H506" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>WPI Inflation YoYDEC</t>
+          <t>Harmonised Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D507" t="inlineStr"/>
       <c r="E507" t="inlineStr">
         <is>
-          <t>1.89%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F507" t="inlineStr"/>
       <c r="G507" t="inlineStr">
         <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="H507" t="n">
-        <v>3</v>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="H507" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>Wholesale Prices MoMDEC</t>
+          <t>Harmonised Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D508" t="inlineStr"/>
       <c r="E508" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F508" t="inlineStr"/>
-      <c r="G508" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H508" t="n">
-        <v>2</v>
+      <c r="G508" t="inlineStr"/>
+      <c r="H508" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>Wholesale Prices YoYDEC</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D509" t="inlineStr"/>
       <c r="E509" t="inlineStr">
         <is>
-          <t>-0.6%</t>
-        </is>
-      </c>
-      <c r="F509" t="inlineStr"/>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="F509" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="G509" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="H509" t="n">
-        <v>2</v>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="H509" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D510" t="inlineStr"/>
       <c r="E510" t="inlineStr">
         <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="F510" t="inlineStr"/>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="F510" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="G510" t="inlineStr">
         <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="H510" t="n">
-        <v>1</v>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="H510" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>Core Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D511" t="inlineStr"/>
       <c r="E511" t="inlineStr">
         <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="F511" t="inlineStr"/>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="F511" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="G511" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="H511" t="n">
-        <v>2</v>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="H511" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Harmonised Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D512" t="inlineStr"/>
       <c r="E512" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F512" t="inlineStr"/>
       <c r="G512" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H512" t="n">
-        <v>2</v>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H512" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>Full Year GDP Growth2025</t>
         </is>
       </c>
       <c r="D513" t="inlineStr"/>
       <c r="E513" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F513" t="inlineStr"/>
       <c r="G513" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H513" t="n">
-        <v>3</v>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="H513" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>PPI Core Output MoMDEC</t>
+          <t>Industrial Production MoMNOV</t>
         </is>
       </c>
       <c r="D514" t="inlineStr"/>
@@ -17282,51 +17522,47 @@
         </is>
       </c>
       <c r="F514" t="inlineStr"/>
-      <c r="G514" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H514" t="n">
-        <v>3</v>
+      <c r="G514" t="inlineStr"/>
+      <c r="H514" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>PPI Core Output YoYDEC</t>
+          <t>Industrial Production YoYNOV</t>
         </is>
       </c>
       <c r="D515" t="inlineStr"/>
       <c r="E515" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>-1.2%</t>
         </is>
       </c>
       <c r="F515" t="inlineStr"/>
-      <c r="G515" t="inlineStr">
-        <is>
-          <t>2.1%</t>
-        </is>
-      </c>
-      <c r="H515" t="n">
-        <v>3</v>
+      <c r="G515" t="inlineStr"/>
+      <c r="H515" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
@@ -17336,761 +17572,751 @@
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>PPI Input MoMDEC</t>
+          <t>10-Year Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D516" t="inlineStr"/>
       <c r="E516" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>4.332%</t>
         </is>
       </c>
       <c r="F516" t="inlineStr"/>
-      <c r="G516" t="inlineStr">
-        <is>
-          <t>-1.3%</t>
-        </is>
-      </c>
-      <c r="H516" t="n">
-        <v>3</v>
+      <c r="G516" t="inlineStr"/>
+      <c r="H516" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>PPI Input YoYDEC</t>
+          <t>30-Year Bund Auction</t>
         </is>
       </c>
       <c r="D517" t="inlineStr"/>
       <c r="E517" t="inlineStr">
         <is>
-          <t>-1.9%</t>
+          <t>2.55%</t>
         </is>
       </c>
       <c r="F517" t="inlineStr"/>
-      <c r="G517" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
-      <c r="H517" t="n">
-        <v>3</v>
+      <c r="G517" t="inlineStr"/>
+      <c r="H517" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>PPI Output MoMDEC</t>
+          <t>Gross Fixed Investment MoMOCT</t>
         </is>
       </c>
       <c r="D518" t="inlineStr"/>
       <c r="E518" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>-0.8%</t>
         </is>
       </c>
       <c r="F518" t="inlineStr"/>
-      <c r="G518" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H518" t="n">
-        <v>3</v>
+      <c r="G518" t="inlineStr"/>
+      <c r="H518" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>PPI Output YoYDEC</t>
+          <t>Gross Fixed Investment YoYOCT</t>
         </is>
       </c>
       <c r="D519" t="inlineStr"/>
       <c r="E519" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>-3.3%</t>
         </is>
       </c>
       <c r="F519" t="inlineStr"/>
-      <c r="G519" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="H519" t="n">
-        <v>3</v>
+      <c r="G519" t="inlineStr"/>
+      <c r="H519" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>Retail Price Index MoMDEC</t>
+          <t>MBA 30-Year Mortgage RateJAN/10</t>
         </is>
       </c>
       <c r="D520" t="inlineStr"/>
-      <c r="E520" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E520" t="inlineStr"/>
       <c r="F520" t="inlineStr"/>
       <c r="G520" t="inlineStr"/>
-      <c r="H520" t="n">
-        <v>3</v>
+      <c r="H520" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>Retail Price Index YoYDEC</t>
+          <t>MBA Mortgage ApplicationsJAN/10</t>
         </is>
       </c>
       <c r="D521" t="inlineStr"/>
-      <c r="E521" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="E521" t="inlineStr"/>
       <c r="F521" t="inlineStr"/>
-      <c r="G521" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="H521" t="n">
-        <v>3</v>
+      <c r="G521" t="inlineStr"/>
+      <c r="H521" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>Interest Rate Decision</t>
+          <t>MBA Mortgage Market IndexJAN/10</t>
         </is>
       </c>
       <c r="D522" t="inlineStr"/>
       <c r="E522" t="inlineStr"/>
       <c r="F522" t="inlineStr"/>
       <c r="G522" t="inlineStr"/>
-      <c r="H522" t="n">
-        <v>2</v>
+      <c r="H522" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>Deposit Facility RateJAN</t>
+          <t>MBA Mortgage Refinance IndexJAN/10</t>
         </is>
       </c>
       <c r="D523" t="inlineStr"/>
-      <c r="E523" t="inlineStr">
-        <is>
-          <t>5.25%</t>
-        </is>
-      </c>
+      <c r="E523" t="inlineStr"/>
       <c r="F523" t="inlineStr"/>
       <c r="G523" t="inlineStr"/>
-      <c r="H523" t="n">
-        <v>3</v>
+      <c r="H523" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>Lending Facility RateJAN</t>
+          <t>MBA Purchase IndexJAN/10</t>
         </is>
       </c>
       <c r="D524" t="inlineStr"/>
-      <c r="E524" t="inlineStr">
-        <is>
-          <t>6.75%</t>
-        </is>
-      </c>
+      <c r="E524" t="inlineStr"/>
       <c r="F524" t="inlineStr"/>
       <c r="G524" t="inlineStr"/>
-      <c r="H524" t="n">
-        <v>3</v>
+      <c r="H524" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FinalDEC</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D525" t="inlineStr"/>
       <c r="E525" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>$616.5B</t>
         </is>
       </c>
       <c r="F525" t="inlineStr"/>
       <c r="G525" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H525" t="n">
-        <v>2</v>
+          <t>$628.0B</t>
+        </is>
+      </c>
+      <c r="H525" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Manufacturing Sales MoM FinalNOV</t>
         </is>
       </c>
       <c r="D526" t="inlineStr"/>
       <c r="E526" t="inlineStr">
         <is>
-          <t>1.3%</t>
-        </is>
-      </c>
-      <c r="F526" t="inlineStr"/>
+          <t>2.1%</t>
+        </is>
+      </c>
+      <c r="F526" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="G526" t="inlineStr">
         <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="H526" t="n">
-        <v>2</v>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="H526" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY FinalDEC</t>
+          <t>New Motor Vehicle SalesNOV</t>
         </is>
       </c>
       <c r="D527" t="inlineStr"/>
       <c r="E527" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>163.6K</t>
         </is>
       </c>
       <c r="F527" t="inlineStr"/>
-      <c r="G527" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
-      <c r="H527" t="n">
-        <v>3</v>
+      <c r="G527" t="inlineStr"/>
+      <c r="H527" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM FinalDEC</t>
+          <t>Wholesale Sales MoM FinalNOV</t>
         </is>
       </c>
       <c r="D528" t="inlineStr"/>
       <c r="E528" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F528" t="inlineStr"/>
+          <t>1%</t>
+        </is>
+      </c>
+      <c r="F528" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="G528" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H528" t="n">
-        <v>3</v>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="H528" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY FinalDEC</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D529" t="inlineStr"/>
       <c r="E529" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F529" t="inlineStr"/>
-      <c r="G529" t="inlineStr"/>
-      <c r="H529" t="n">
-        <v>3</v>
+      <c r="G529" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="H529" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FinalDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D530" t="inlineStr"/>
       <c r="E530" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F530" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="F530" t="inlineStr"/>
       <c r="G530" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H530" t="n">
-        <v>3</v>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="H530" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D531" t="inlineStr"/>
       <c r="E531" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F531" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F531" t="inlineStr"/>
       <c r="G531" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="H531" t="n">
-        <v>3</v>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="H531" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FinalDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D532" t="inlineStr"/>
       <c r="E532" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F532" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="F532" t="inlineStr"/>
       <c r="G532" t="inlineStr">
         <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="H532" t="n">
-        <v>3</v>
+          <t>2.3%</t>
+        </is>
+      </c>
+      <c r="H532" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM FinalDEC</t>
+          <t>CPIDEC</t>
         </is>
       </c>
       <c r="D533" t="inlineStr"/>
       <c r="E533" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>315.49</t>
         </is>
       </c>
       <c r="F533" t="inlineStr"/>
       <c r="G533" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H533" t="n">
-        <v>3</v>
+          <t>313.8</t>
+        </is>
+      </c>
+      <c r="H533" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>Full Year GDP Growth2025</t>
+          <t>CPI s.aDEC</t>
         </is>
       </c>
       <c r="D534" t="inlineStr"/>
       <c r="E534" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>316.441</t>
         </is>
       </c>
       <c r="F534" t="inlineStr"/>
       <c r="G534" t="inlineStr">
         <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="H534" t="n">
-        <v>1</v>
+          <t>317.4</t>
+        </is>
+      </c>
+      <c r="H534" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>Industrial Production MoMNOV</t>
+          <t>NY Empire State Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D535" t="inlineStr"/>
       <c r="E535" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="F535" t="inlineStr"/>
       <c r="G535" t="inlineStr"/>
-      <c r="H535" t="n">
-        <v>2</v>
+      <c r="H535" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>EIA Crude Oil Stocks ChangeJAN/10</t>
         </is>
       </c>
       <c r="D536" t="inlineStr"/>
-      <c r="E536" t="inlineStr">
-        <is>
-          <t>-1.2%</t>
-        </is>
-      </c>
+      <c r="E536" t="inlineStr"/>
       <c r="F536" t="inlineStr"/>
       <c r="G536" t="inlineStr"/>
-      <c r="H536" t="n">
-        <v>3</v>
+      <c r="H536" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>10-Year Treasury Gilt Auction</t>
+          <t>EIA Gasoline Stocks ChangeJAN/10</t>
         </is>
       </c>
       <c r="D537" t="inlineStr"/>
-      <c r="E537" t="inlineStr">
-        <is>
-          <t>4.332%</t>
-        </is>
-      </c>
+      <c r="E537" t="inlineStr"/>
       <c r="F537" t="inlineStr"/>
       <c r="G537" t="inlineStr"/>
-      <c r="H537" t="n">
-        <v>3</v>
+      <c r="H537" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>30-Year Bund Auction</t>
+          <t>EIA Crude Oil Imports ChangeJAN/10</t>
         </is>
       </c>
       <c r="D538" t="inlineStr"/>
-      <c r="E538" t="inlineStr">
-        <is>
-          <t>2.55%</t>
-        </is>
-      </c>
+      <c r="E538" t="inlineStr"/>
       <c r="F538" t="inlineStr"/>
       <c r="G538" t="inlineStr"/>
-      <c r="H538" t="n">
-        <v>3</v>
+      <c r="H538" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>Gross Fixed Investment MoMOCT</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/10</t>
         </is>
       </c>
       <c r="D539" t="inlineStr"/>
-      <c r="E539" t="inlineStr">
-        <is>
-          <t>-0.8%</t>
-        </is>
-      </c>
+      <c r="E539" t="inlineStr"/>
       <c r="F539" t="inlineStr"/>
       <c r="G539" t="inlineStr"/>
-      <c r="H539" t="n">
-        <v>3</v>
+      <c r="H539" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>Gross Fixed Investment YoYOCT</t>
+          <t>EIA Distillate Fuel Production ChangeJAN/10</t>
         </is>
       </c>
       <c r="D540" t="inlineStr"/>
-      <c r="E540" t="inlineStr">
-        <is>
-          <t>-3.3%</t>
-        </is>
-      </c>
+      <c r="E540" t="inlineStr"/>
       <c r="F540" t="inlineStr"/>
       <c r="G540" t="inlineStr"/>
-      <c r="H540" t="n">
-        <v>3</v>
+      <c r="H540" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
@@ -18100,21 +18326,23 @@
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJAN/10</t>
+          <t>EIA Distillate Stocks ChangeJAN/10</t>
         </is>
       </c>
       <c r="D541" t="inlineStr"/>
       <c r="E541" t="inlineStr"/>
       <c r="F541" t="inlineStr"/>
       <c r="G541" t="inlineStr"/>
-      <c r="H541" t="n">
-        <v>2</v>
+      <c r="H541" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
@@ -18124,21 +18352,23 @@
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJAN/10</t>
+          <t>EIA Gasoline Production ChangeJAN/10</t>
         </is>
       </c>
       <c r="D542" t="inlineStr"/>
       <c r="E542" t="inlineStr"/>
       <c r="F542" t="inlineStr"/>
       <c r="G542" t="inlineStr"/>
-      <c r="H542" t="n">
-        <v>3</v>
+      <c r="H542" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
@@ -18148,21 +18378,23 @@
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJAN/10</t>
+          <t>EIA Heating Oil Stocks ChangeJAN/10</t>
         </is>
       </c>
       <c r="D543" t="inlineStr"/>
       <c r="E543" t="inlineStr"/>
       <c r="F543" t="inlineStr"/>
       <c r="G543" t="inlineStr"/>
-      <c r="H543" t="n">
-        <v>3</v>
+      <c r="H543" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
@@ -18172,45 +18404,57 @@
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJAN/10</t>
+          <t>EIA Refinery Crude Runs ChangeJAN/10</t>
         </is>
       </c>
       <c r="D544" t="inlineStr"/>
       <c r="E544" t="inlineStr"/>
       <c r="F544" t="inlineStr"/>
       <c r="G544" t="inlineStr"/>
-      <c r="H544" t="n">
-        <v>3</v>
+      <c r="H544" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJAN/10</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D545" t="inlineStr"/>
-      <c r="E545" t="inlineStr"/>
+      <c r="E545" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="F545" t="inlineStr"/>
-      <c r="G545" t="inlineStr"/>
-      <c r="H545" t="n">
-        <v>3</v>
+      <c r="G545" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
+      <c r="H545" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
@@ -18220,93 +18464,91 @@
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D546" t="inlineStr"/>
       <c r="E546" t="inlineStr">
         <is>
-          <t>$616.5B</t>
+          <t>8.9%</t>
         </is>
       </c>
       <c r="F546" t="inlineStr"/>
       <c r="G546" t="inlineStr">
         <is>
-          <t>$628.0B</t>
-        </is>
-      </c>
-      <c r="H546" t="n">
-        <v>3</v>
+          <t>9.5%</t>
+        </is>
+      </c>
+      <c r="H546" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>Manufacturing Sales MoM FinalNOV</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="D547" t="inlineStr"/>
-      <c r="E547" t="inlineStr">
-        <is>
-          <t>2.1%</t>
-        </is>
-      </c>
-      <c r="F547" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G547" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H547" t="n">
-        <v>3</v>
+      <c r="E547" t="inlineStr"/>
+      <c r="F547" t="inlineStr"/>
+      <c r="G547" t="inlineStr"/>
+      <c r="H547" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>New Motor Vehicle SalesNOV</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D548" t="inlineStr"/>
       <c r="E548" t="inlineStr">
         <is>
-          <t>163.6K</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="F548" t="inlineStr"/>
-      <c r="G548" t="inlineStr"/>
-      <c r="H548" t="n">
-        <v>3</v>
+      <c r="G548" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
+      <c r="H548" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
@@ -18316,955 +18558,1075 @@
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>Wholesale Sales MoM FinalNOV</t>
+          <t>5-Year Bond Auction</t>
         </is>
       </c>
       <c r="D549" t="inlineStr"/>
       <c r="E549" t="inlineStr">
         <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="F549" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="G549" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="H549" t="n">
-        <v>3</v>
+          <t>3.146%</t>
+        </is>
+      </c>
+      <c r="F549" t="inlineStr"/>
+      <c r="G549" t="inlineStr"/>
+      <c r="H549" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="550">
-      <c r="A550" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A550" t="inlineStr"/>
       <c r="B550" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>Passenger Vehicles Sales YoYDEC</t>
         </is>
       </c>
       <c r="D550" t="inlineStr"/>
       <c r="E550" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F550" t="inlineStr"/>
-      <c r="G550" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="H550" t="n">
-        <v>1</v>
+      <c r="G550" t="inlineStr"/>
+      <c r="H550" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="551">
-      <c r="A551" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A551" t="inlineStr"/>
       <c r="B551" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D551" t="inlineStr"/>
       <c r="E551" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F551" t="inlineStr"/>
       <c r="G551" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="H551" t="n">
-        <v>1</v>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="H551" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="552">
-      <c r="A552" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A552" t="inlineStr"/>
       <c r="B552" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D552" t="inlineStr"/>
       <c r="E552" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="F552" t="inlineStr"/>
       <c r="G552" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H552" t="n">
-        <v>1</v>
+          <t>2%</t>
+        </is>
+      </c>
+      <c r="H552" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="553">
-      <c r="A553" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A553" t="inlineStr"/>
       <c r="B553" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Wholesale Prices YoYDEC</t>
         </is>
       </c>
       <c r="D553" t="inlineStr"/>
       <c r="E553" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F553" t="inlineStr"/>
       <c r="G553" t="inlineStr">
         <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="H553" t="n">
-        <v>1</v>
+          <t>1.0%</t>
+        </is>
+      </c>
+      <c r="H553" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="554">
-      <c r="A554" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A554" t="inlineStr"/>
       <c r="B554" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>CPIDEC</t>
+          <t>Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D554" t="inlineStr"/>
-      <c r="E554" t="inlineStr">
-        <is>
-          <t>315.49</t>
-        </is>
-      </c>
+      <c r="E554" t="inlineStr"/>
       <c r="F554" t="inlineStr"/>
-      <c r="G554" t="inlineStr">
-        <is>
-          <t>313.8</t>
-        </is>
-      </c>
-      <c r="H554" t="n">
-        <v>2</v>
+      <c r="G554" t="inlineStr"/>
+      <c r="H554" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="555">
-      <c r="A555" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A555" t="inlineStr"/>
       <c r="B555" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>OP</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>CPI s.aDEC</t>
+          <t>OPEC Monthly Report</t>
         </is>
       </c>
       <c r="D555" t="inlineStr"/>
-      <c r="E555" t="inlineStr">
-        <is>
-          <t>316.441</t>
-        </is>
-      </c>
+      <c r="E555" t="inlineStr"/>
       <c r="F555" t="inlineStr"/>
-      <c r="G555" t="inlineStr">
-        <is>
-          <t>317.4</t>
-        </is>
-      </c>
-      <c r="H555" t="n">
-        <v>2</v>
+      <c r="G555" t="inlineStr"/>
+      <c r="H555" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="556">
-      <c r="A556" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A556" t="inlineStr"/>
       <c r="B556" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>NY Empire State Manufacturing IndexJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D556" t="inlineStr"/>
       <c r="E556" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>$-37.84B</t>
         </is>
       </c>
       <c r="F556" t="inlineStr"/>
-      <c r="G556" t="inlineStr"/>
-      <c r="H556" t="n">
-        <v>2</v>
+      <c r="G556" t="inlineStr">
+        <is>
+          <t>$ -23B</t>
+        </is>
+      </c>
+      <c r="H556" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="557">
-      <c r="A557" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
+      <c r="A557" t="inlineStr"/>
       <c r="B557" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/10</t>
+          <t>ExportsDEC</t>
         </is>
       </c>
       <c r="D557" t="inlineStr"/>
-      <c r="E557" t="inlineStr"/>
+      <c r="E557" t="inlineStr">
+        <is>
+          <t>$32.11B</t>
+        </is>
+      </c>
       <c r="F557" t="inlineStr"/>
-      <c r="G557" t="inlineStr"/>
-      <c r="H557" t="n">
-        <v>2</v>
+      <c r="G557" t="inlineStr">
+        <is>
+          <t>$ 36B</t>
+        </is>
+      </c>
+      <c r="H557" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="558">
-      <c r="A558" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
+      <c r="A558" t="inlineStr"/>
       <c r="B558" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeJAN/10</t>
+          <t>ImportsDEC</t>
         </is>
       </c>
       <c r="D558" t="inlineStr"/>
-      <c r="E558" t="inlineStr"/>
+      <c r="E558" t="inlineStr">
+        <is>
+          <t>$69.95B</t>
+        </is>
+      </c>
       <c r="F558" t="inlineStr"/>
-      <c r="G558" t="inlineStr"/>
-      <c r="H558" t="n">
-        <v>2</v>
+      <c r="G558" t="inlineStr">
+        <is>
+          <t>$ 59B</t>
+        </is>
+      </c>
+      <c r="H558" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B559" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C559" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeJAN/10</t>
-        </is>
-      </c>
+          <t>Thursday January 16 2025</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr"/>
+      <c r="C559" t="inlineStr"/>
       <c r="D559" t="inlineStr"/>
       <c r="E559" t="inlineStr"/>
       <c r="F559" t="inlineStr"/>
       <c r="G559" t="inlineStr"/>
-      <c r="H559" t="n">
-        <v>3</v>
-      </c>
+      <c r="H559" t="inlineStr"/>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/10</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D560" t="inlineStr"/>
-      <c r="E560" t="inlineStr"/>
+      <c r="E560" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="F560" t="inlineStr"/>
-      <c r="G560" t="inlineStr"/>
-      <c r="H560" t="n">
-        <v>3</v>
+      <c r="G560" t="inlineStr">
+        <is>
+          <t>3.30%</t>
+        </is>
+      </c>
+      <c r="H560" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/10</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D561" t="inlineStr"/>
-      <c r="E561" t="inlineStr"/>
+      <c r="E561" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="F561" t="inlineStr"/>
       <c r="G561" t="inlineStr"/>
-      <c r="H561" t="n">
-        <v>3</v>
+      <c r="H561" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeJAN/10</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D562" t="inlineStr"/>
-      <c r="E562" t="inlineStr"/>
+      <c r="E562" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
       <c r="F562" t="inlineStr"/>
-      <c r="G562" t="inlineStr"/>
-      <c r="H562" t="n">
-        <v>3</v>
+      <c r="G562" t="inlineStr">
+        <is>
+          <t>3.6%</t>
+        </is>
+      </c>
+      <c r="H562" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>05:31 AM</t>
         </is>
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeJAN/10</t>
+          <t>RICS House Price BalanceDEC</t>
         </is>
       </c>
       <c r="D563" t="inlineStr"/>
-      <c r="E563" t="inlineStr"/>
+      <c r="E563" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
+      </c>
       <c r="F563" t="inlineStr"/>
-      <c r="G563" t="inlineStr"/>
-      <c r="H563" t="n">
-        <v>3</v>
+      <c r="G563" t="inlineStr">
+        <is>
+          <t>17.0%</t>
+        </is>
+      </c>
+      <c r="H563" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/10</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D564" t="inlineStr"/>
-      <c r="E564" t="inlineStr"/>
+      <c r="E564" t="inlineStr">
+        <is>
+          <t>3.9%</t>
+        </is>
+      </c>
       <c r="F564" t="inlineStr"/>
-      <c r="G564" t="inlineStr"/>
-      <c r="H564" t="n">
-        <v>3</v>
+      <c r="G564" t="inlineStr">
+        <is>
+          <t>4.30%</t>
+        </is>
+      </c>
+      <c r="H564" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/10</t>
+          <t>Employment ChangeDEC</t>
         </is>
       </c>
       <c r="D565" t="inlineStr"/>
-      <c r="E565" t="inlineStr"/>
+      <c r="E565" t="inlineStr">
+        <is>
+          <t>35.6K</t>
+        </is>
+      </c>
       <c r="F565" t="inlineStr"/>
-      <c r="G565" t="inlineStr"/>
-      <c r="H565" t="n">
-        <v>3</v>
+      <c r="G565" t="inlineStr">
+        <is>
+          <t>25.1K</t>
+        </is>
+      </c>
+      <c r="H565" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Full Time Employment ChgDEC</t>
         </is>
       </c>
       <c r="D566" t="inlineStr"/>
       <c r="E566" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>52.6K</t>
         </is>
       </c>
       <c r="F566" t="inlineStr"/>
-      <c r="G566" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="H566" t="n">
-        <v>2</v>
+      <c r="G566" t="inlineStr"/>
+      <c r="H566" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Part Time Employment ChgDEC</t>
         </is>
       </c>
       <c r="D567" t="inlineStr"/>
       <c r="E567" t="inlineStr">
         <is>
-          <t>8.9%</t>
+          <t>-17.0K</t>
         </is>
       </c>
       <c r="F567" t="inlineStr"/>
-      <c r="G567" t="inlineStr">
-        <is>
-          <t>9.5%</t>
-        </is>
-      </c>
-      <c r="H567" t="n">
-        <v>2</v>
+      <c r="G567" t="inlineStr"/>
+      <c r="H567" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>Participation RateDEC</t>
         </is>
       </c>
       <c r="D568" t="inlineStr"/>
-      <c r="E568" t="inlineStr"/>
+      <c r="E568" t="inlineStr">
+        <is>
+          <t>67%</t>
+        </is>
+      </c>
       <c r="F568" t="inlineStr"/>
-      <c r="G568" t="inlineStr"/>
-      <c r="H568" t="n">
-        <v>3</v>
+      <c r="G568" t="inlineStr">
+        <is>
+          <t>66.8%</t>
+        </is>
+      </c>
+      <c r="H568" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>Interest Rate Decision</t>
         </is>
       </c>
       <c r="D569" t="inlineStr"/>
       <c r="E569" t="inlineStr">
         <is>
-          <t>50.1</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="F569" t="inlineStr"/>
-      <c r="G569" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
-      <c r="H569" t="n">
-        <v>2</v>
+      <c r="G569" t="inlineStr"/>
+      <c r="H569" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>5-Year Bond Auction</t>
+          <t>20-Year JGB Auction</t>
         </is>
       </c>
       <c r="D570" t="inlineStr"/>
       <c r="E570" t="inlineStr">
         <is>
-          <t>3.146%</t>
+          <t>1.879%</t>
         </is>
       </c>
       <c r="F570" t="inlineStr"/>
       <c r="G570" t="inlineStr"/>
-      <c r="H570" t="n">
-        <v>3</v>
+      <c r="H570" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="571">
-      <c r="A571" t="inlineStr"/>
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>09:05 AM</t>
+        </is>
+      </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>Passenger Vehicles Sales YoYDEC</t>
+          <t>52-Week Bill Auction</t>
         </is>
       </c>
       <c r="D571" t="inlineStr"/>
       <c r="E571" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>0.4796%</t>
         </is>
       </c>
       <c r="F571" t="inlineStr"/>
       <c r="G571" t="inlineStr"/>
-      <c r="H571" t="n">
-        <v>3</v>
+      <c r="H571" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="572">
-      <c r="A572" t="inlineStr"/>
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>6-Month T-Bill Auction</t>
         </is>
       </c>
       <c r="D572" t="inlineStr"/>
       <c r="E572" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>3.02%</t>
         </is>
       </c>
       <c r="F572" t="inlineStr"/>
-      <c r="G572" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H572" t="n">
-        <v>3</v>
+      <c r="G572" t="inlineStr"/>
+      <c r="H572" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="573">
-      <c r="A573" t="inlineStr"/>
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>12:30 PM</t>
+        </is>
+      </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D573" t="inlineStr"/>
       <c r="E573" t="inlineStr">
         <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="F573" t="inlineStr"/>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="F573" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="G573" t="inlineStr">
         <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="H573" t="n">
-        <v>3</v>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="H573" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="574">
-      <c r="A574" t="inlineStr"/>
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>12:30 PM</t>
+        </is>
+      </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>Wholesale Prices YoYDEC</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D574" t="inlineStr"/>
       <c r="E574" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="F574" t="inlineStr"/>
       <c r="G574" t="inlineStr">
         <is>
-          <t>1.0%</t>
-        </is>
-      </c>
-      <c r="H574" t="n">
-        <v>3</v>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="H574" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="575">
-      <c r="A575" t="inlineStr"/>
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>12:30 PM</t>
+        </is>
+      </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>Budget BalanceDEC</t>
+          <t>Harmonised Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D575" t="inlineStr"/>
-      <c r="E575" t="inlineStr"/>
-      <c r="F575" t="inlineStr"/>
-      <c r="G575" t="inlineStr"/>
-      <c r="H575" t="n">
-        <v>3</v>
+      <c r="E575" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="F575" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="G575" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="H575" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="576">
-      <c r="A576" t="inlineStr"/>
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>12:30 PM</t>
+        </is>
+      </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>OP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>OPEC Monthly Report</t>
+          <t>Harmonised Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D576" t="inlineStr"/>
-      <c r="E576" t="inlineStr"/>
-      <c r="F576" t="inlineStr"/>
-      <c r="G576" t="inlineStr"/>
-      <c r="H576" t="n">
-        <v>3</v>
+      <c r="E576" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="F576" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
+      <c r="G576" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
+      <c r="H576" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="577">
-      <c r="A577" t="inlineStr"/>
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>12:30 PM</t>
+        </is>
+      </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>GDP MoMNOV</t>
         </is>
       </c>
       <c r="D577" t="inlineStr"/>
       <c r="E577" t="inlineStr">
         <is>
-          <t>$-37.84B</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F577" t="inlineStr"/>
       <c r="G577" t="inlineStr">
         <is>
-          <t>$ -23B</t>
-        </is>
-      </c>
-      <c r="H577" t="n">
-        <v>3</v>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="H577" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="578">
-      <c r="A578" t="inlineStr"/>
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>12:30 PM</t>
+        </is>
+      </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>ExportsDEC</t>
+          <t>GDP YoYNOV</t>
         </is>
       </c>
       <c r="D578" t="inlineStr"/>
       <c r="E578" t="inlineStr">
         <is>
-          <t>$32.11B</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F578" t="inlineStr"/>
       <c r="G578" t="inlineStr">
         <is>
-          <t>$ 36B</t>
-        </is>
-      </c>
-      <c r="H578" t="n">
-        <v>3</v>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="H578" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="579">
-      <c r="A579" t="inlineStr"/>
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>12:30 PM</t>
+        </is>
+      </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>ImportsDEC</t>
+          <t>GDP 3-Month AvgNOV</t>
         </is>
       </c>
       <c r="D579" t="inlineStr"/>
       <c r="E579" t="inlineStr">
         <is>
-          <t>$69.95B</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F579" t="inlineStr"/>
       <c r="G579" t="inlineStr">
         <is>
-          <t>$ 59B</t>
-        </is>
-      </c>
-      <c r="H579" t="n">
-        <v>3</v>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H579" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>Thursday January 16 2025</t>
-        </is>
-      </c>
-      <c r="B580" t="inlineStr"/>
-      <c r="C580" t="inlineStr"/>
+          <t>12:30 PM</t>
+        </is>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="C580" t="inlineStr">
+        <is>
+          <t>Goods Trade BalanceNOV</t>
+        </is>
+      </c>
       <c r="D580" t="inlineStr"/>
-      <c r="E580" t="inlineStr"/>
+      <c r="E580" t="inlineStr">
+        <is>
+          <t>£-18.97B</t>
+        </is>
+      </c>
       <c r="F580" t="inlineStr"/>
       <c r="G580" t="inlineStr"/>
-      <c r="H580" t="inlineStr"/>
+      <c r="H580" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Goods Trade Balance Non-EUNOV</t>
         </is>
       </c>
       <c r="D581" t="inlineStr"/>
       <c r="E581" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>£-7.28B</t>
         </is>
       </c>
       <c r="F581" t="inlineStr"/>
-      <c r="G581" t="inlineStr">
-        <is>
-          <t>3.30%</t>
-        </is>
-      </c>
-      <c r="H581" t="n">
-        <v>2</v>
+      <c r="G581" t="inlineStr"/>
+      <c r="H581" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Industrial Production MoMNOV</t>
         </is>
       </c>
       <c r="D582" t="inlineStr"/>
       <c r="E582" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F582" t="inlineStr"/>
       <c r="G582" t="inlineStr"/>
-      <c r="H582" t="n">
-        <v>3</v>
+      <c r="H582" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Manufacturing Production MoMNOV</t>
         </is>
       </c>
       <c r="D583" t="inlineStr"/>
       <c r="E583" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F583" t="inlineStr"/>
-      <c r="G583" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="H583" t="n">
-        <v>3</v>
+      <c r="G583" t="inlineStr"/>
+      <c r="H583" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>05:31 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B584" t="inlineStr">
@@ -19274,465 +19636,467 @@
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>RICS House Price BalanceDEC</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D584" t="inlineStr"/>
       <c r="E584" t="inlineStr">
         <is>
-          <t>25%</t>
+          <t>£-3.72B</t>
         </is>
       </c>
       <c r="F584" t="inlineStr"/>
-      <c r="G584" t="inlineStr">
-        <is>
-          <t>17.0%</t>
-        </is>
-      </c>
-      <c r="H584" t="n">
-        <v>2</v>
+      <c r="G584" t="inlineStr"/>
+      <c r="H584" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D585" t="inlineStr"/>
       <c r="E585" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F585" t="inlineStr"/>
       <c r="G585" t="inlineStr">
         <is>
-          <t>4.30%</t>
-        </is>
-      </c>
-      <c r="H585" t="n">
-        <v>1</v>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="H585" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>Employment ChangeDEC</t>
+          <t>Industrial Production YoYNOV</t>
         </is>
       </c>
       <c r="D586" t="inlineStr"/>
       <c r="E586" t="inlineStr">
         <is>
-          <t>35.6K</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F586" t="inlineStr"/>
-      <c r="G586" t="inlineStr">
-        <is>
-          <t>25.1K</t>
-        </is>
-      </c>
-      <c r="H586" t="n">
-        <v>2</v>
+      <c r="G586" t="inlineStr"/>
+      <c r="H586" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>Full Time Employment ChgDEC</t>
+          <t>Manufacturing Production YoYNOV</t>
         </is>
       </c>
       <c r="D587" t="inlineStr"/>
       <c r="E587" t="inlineStr">
         <is>
-          <t>52.6K</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F587" t="inlineStr"/>
       <c r="G587" t="inlineStr"/>
-      <c r="H587" t="n">
-        <v>2</v>
+      <c r="H587" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>Part Time Employment ChgDEC</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D588" t="inlineStr"/>
       <c r="E588" t="inlineStr">
         <is>
-          <t>-17.0K</t>
+          <t>€5.153B</t>
         </is>
       </c>
       <c r="F588" t="inlineStr"/>
       <c r="G588" t="inlineStr"/>
-      <c r="H588" t="n">
-        <v>3</v>
+      <c r="H588" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>Participation RateDEC</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D589" t="inlineStr"/>
       <c r="E589" t="inlineStr">
         <is>
-          <t>67%</t>
-        </is>
-      </c>
-      <c r="F589" t="inlineStr"/>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="F589" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="G589" t="inlineStr">
         <is>
-          <t>66.8%</t>
-        </is>
-      </c>
-      <c r="H589" t="n">
-        <v>3</v>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="H589" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>Interest Rate Decision</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D590" t="inlineStr"/>
       <c r="E590" t="inlineStr">
         <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="F590" t="inlineStr"/>
-      <c r="G590" t="inlineStr"/>
-      <c r="H590" t="n">
-        <v>2</v>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="F590" t="inlineStr">
+        <is>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="G590" t="inlineStr">
+        <is>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="H590" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
         <is>
-          <t>20-Year JGB Auction</t>
+          <t>Harmonised Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D591" t="inlineStr"/>
       <c r="E591" t="inlineStr">
         <is>
-          <t>1.879%</t>
-        </is>
-      </c>
-      <c r="F591" t="inlineStr"/>
-      <c r="G591" t="inlineStr"/>
-      <c r="H591" t="n">
-        <v>3</v>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="F591" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
+      <c r="G591" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
+      <c r="H591" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>52-Week Bill Auction</t>
+          <t>Harmonised Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D592" t="inlineStr"/>
       <c r="E592" t="inlineStr">
         <is>
-          <t>0.4796%</t>
-        </is>
-      </c>
-      <c r="F592" t="inlineStr"/>
-      <c r="G592" t="inlineStr"/>
-      <c r="H592" t="n">
-        <v>3</v>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="F592" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="G592" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="H592" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:10 PM</t>
         </is>
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>6-Month T-Bill Auction</t>
+          <t>Bonos Auction</t>
         </is>
       </c>
       <c r="D593" t="inlineStr"/>
-      <c r="E593" t="inlineStr">
-        <is>
-          <t>3.02%</t>
-        </is>
-      </c>
+      <c r="E593" t="inlineStr"/>
       <c r="F593" t="inlineStr"/>
       <c r="G593" t="inlineStr"/>
-      <c r="H593" t="n">
-        <v>3</v>
+      <c r="H593" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:10 PM</t>
         </is>
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FinalDEC</t>
+          <t>Index-Linked Obligacion Auction</t>
         </is>
       </c>
       <c r="D594" t="inlineStr"/>
-      <c r="E594" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="F594" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G594" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H594" t="n">
-        <v>2</v>
+      <c r="E594" t="inlineStr"/>
+      <c r="F594" t="inlineStr"/>
+      <c r="G594" t="inlineStr"/>
+      <c r="H594" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:10 PM</t>
         </is>
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Obligacion Auction</t>
         </is>
       </c>
       <c r="D595" t="inlineStr"/>
-      <c r="E595" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
+      <c r="E595" t="inlineStr"/>
       <c r="F595" t="inlineStr"/>
-      <c r="G595" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="H595" t="n">
-        <v>2</v>
+      <c r="G595" t="inlineStr"/>
+      <c r="H595" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY FinalDEC</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D596" t="inlineStr"/>
       <c r="E596" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F596" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="G596" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="H596" t="n">
-        <v>3</v>
+          <t>€6.8B</t>
+        </is>
+      </c>
+      <c r="F596" t="inlineStr"/>
+      <c r="G596" t="inlineStr"/>
+      <c r="H596" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM FinalDEC</t>
+          <t>Foreign Exchange ReservesJAN/10</t>
         </is>
       </c>
       <c r="D597" t="inlineStr"/>
-      <c r="E597" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="F597" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="G597" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="H597" t="n">
-        <v>3</v>
+      <c r="E597" t="inlineStr"/>
+      <c r="F597" t="inlineStr"/>
+      <c r="G597" t="inlineStr"/>
+      <c r="H597" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t>GDP MoMNOV</t>
+          <t>IBC-BR Economic ActivityNOV</t>
         </is>
       </c>
       <c r="D598" t="inlineStr"/>
       <c r="E598" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F598" t="inlineStr"/>
-      <c r="G598" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H598" t="n">
-        <v>1</v>
+      <c r="G598" t="inlineStr"/>
+      <c r="H598" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B599" t="inlineStr">
@@ -19742,677 +20106,703 @@
       </c>
       <c r="C599" t="inlineStr">
         <is>
-          <t>GDP YoYNOV</t>
+          <t>NIESR Monthly GDP TrackerDEC</t>
         </is>
       </c>
       <c r="D599" t="inlineStr"/>
       <c r="E599" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F599" t="inlineStr"/>
       <c r="G599" t="inlineStr">
         <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="H599" t="n">
-        <v>1</v>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="H599" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:45 PM</t>
         </is>
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t>GDP 3-Month AvgNOV</t>
+          <t>Housing StartsDEC</t>
         </is>
       </c>
       <c r="D600" t="inlineStr"/>
       <c r="E600" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>262.4K</t>
         </is>
       </c>
       <c r="F600" t="inlineStr"/>
       <c r="G600" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H600" t="n">
-        <v>2</v>
+          <t>220K</t>
+        </is>
+      </c>
+      <c r="H600" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C601" t="inlineStr">
         <is>
-          <t>Goods Trade BalanceNOV</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D601" t="inlineStr"/>
       <c r="E601" t="inlineStr">
         <is>
-          <t>£-18.97B</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F601" t="inlineStr"/>
-      <c r="G601" t="inlineStr"/>
-      <c r="H601" t="n">
-        <v>2</v>
+      <c r="G601" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="H601" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C602" t="inlineStr">
         <is>
-          <t>Goods Trade Balance Non-EUNOV</t>
+          <t>Export Prices MoMDEC</t>
         </is>
       </c>
       <c r="D602" t="inlineStr"/>
       <c r="E602" t="inlineStr">
         <is>
-          <t>£-7.28B</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F602" t="inlineStr"/>
-      <c r="G602" t="inlineStr"/>
-      <c r="H602" t="n">
-        <v>2</v>
+      <c r="G602" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="H602" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C603" t="inlineStr">
         <is>
-          <t>Industrial Production MoMNOV</t>
+          <t>Import Prices MoMDEC</t>
         </is>
       </c>
       <c r="D603" t="inlineStr"/>
       <c r="E603" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F603" t="inlineStr"/>
       <c r="G603" t="inlineStr"/>
-      <c r="H603" t="n">
-        <v>2</v>
+      <c r="H603" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C604" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMNOV</t>
+          <t>Initial Jobless ClaimsJAN/11</t>
         </is>
       </c>
       <c r="D604" t="inlineStr"/>
-      <c r="E604" t="inlineStr">
-        <is>
-          <t>-0.6%</t>
-        </is>
-      </c>
+      <c r="E604" t="inlineStr"/>
       <c r="F604" t="inlineStr"/>
       <c r="G604" t="inlineStr"/>
-      <c r="H604" t="n">
-        <v>2</v>
+      <c r="H604" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C605" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Philadelphia Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D605" t="inlineStr"/>
       <c r="E605" t="inlineStr">
         <is>
-          <t>£-3.72B</t>
+          <t>-16.4</t>
         </is>
       </c>
       <c r="F605" t="inlineStr"/>
       <c r="G605" t="inlineStr"/>
-      <c r="H605" t="n">
-        <v>3</v>
+      <c r="H605" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C606" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>Retail Sales Ex Autos MoMDEC</t>
         </is>
       </c>
       <c r="D606" t="inlineStr"/>
       <c r="E606" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F606" t="inlineStr"/>
       <c r="G606" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H606" t="n">
-        <v>3</v>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="H606" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C607" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>Continuing Jobless ClaimsJAN/04</t>
         </is>
       </c>
       <c r="D607" t="inlineStr"/>
-      <c r="E607" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="E607" t="inlineStr"/>
       <c r="F607" t="inlineStr"/>
       <c r="G607" t="inlineStr"/>
-      <c r="H607" t="n">
-        <v>3</v>
+      <c r="H607" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C608" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYNOV</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D608" t="inlineStr"/>
       <c r="E608" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F608" t="inlineStr"/>
       <c r="G608" t="inlineStr"/>
-      <c r="H608" t="n">
-        <v>3</v>
+      <c r="H608" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C609" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D609" t="inlineStr"/>
       <c r="E609" t="inlineStr">
         <is>
-          <t>€5.153B</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F609" t="inlineStr"/>
-      <c r="G609" t="inlineStr"/>
-      <c r="H609" t="n">
-        <v>2</v>
+      <c r="G609" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
+      <c r="H609" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C610" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FinalDEC</t>
+          <t>Jobless Claims 4-week AverageJAN/11</t>
         </is>
       </c>
       <c r="D610" t="inlineStr"/>
-      <c r="E610" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F610" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G610" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H610" t="n">
-        <v>2</v>
+      <c r="E610" t="inlineStr"/>
+      <c r="F610" t="inlineStr"/>
+      <c r="G610" t="inlineStr"/>
+      <c r="H610" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C611" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Philly Fed Business ConditionsJAN</t>
         </is>
       </c>
       <c r="D611" t="inlineStr"/>
       <c r="E611" t="inlineStr">
         <is>
-          <t>1.3%</t>
-        </is>
-      </c>
-      <c r="F611" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
-      <c r="G611" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
-      <c r="H611" t="n">
-        <v>2</v>
+          <t>30.7</t>
+        </is>
+      </c>
+      <c r="F611" t="inlineStr"/>
+      <c r="G611" t="inlineStr"/>
+      <c r="H611" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C612" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY FinalDEC</t>
+          <t>Philly Fed CAPEX IndexJAN</t>
         </is>
       </c>
       <c r="D612" t="inlineStr"/>
       <c r="E612" t="inlineStr">
         <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="F612" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="G612" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="H612" t="n">
-        <v>3</v>
+          <t>18.8</t>
+        </is>
+      </c>
+      <c r="F612" t="inlineStr"/>
+      <c r="G612" t="inlineStr"/>
+      <c r="H612" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C613" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM FinalDEC</t>
+          <t>Philly Fed EmploymentJAN</t>
         </is>
       </c>
       <c r="D613" t="inlineStr"/>
       <c r="E613" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F613" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G613" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H613" t="n">
-        <v>3</v>
+          <t>6.6</t>
+        </is>
+      </c>
+      <c r="F613" t="inlineStr"/>
+      <c r="G613" t="inlineStr"/>
+      <c r="H613" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>03:10 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C614" t="inlineStr">
         <is>
-          <t>Bonos Auction</t>
+          <t>Philly Fed New OrdersJAN</t>
         </is>
       </c>
       <c r="D614" t="inlineStr"/>
-      <c r="E614" t="inlineStr"/>
+      <c r="E614" t="inlineStr">
+        <is>
+          <t>-4.3</t>
+        </is>
+      </c>
       <c r="F614" t="inlineStr"/>
       <c r="G614" t="inlineStr"/>
-      <c r="H614" t="n">
-        <v>3</v>
+      <c r="H614" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>03:10 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C615" t="inlineStr">
         <is>
-          <t>Index-Linked Obligacion Auction</t>
+          <t>Philly Fed Prices PaidJAN</t>
         </is>
       </c>
       <c r="D615" t="inlineStr"/>
-      <c r="E615" t="inlineStr"/>
+      <c r="E615" t="inlineStr">
+        <is>
+          <t>31.2</t>
+        </is>
+      </c>
       <c r="F615" t="inlineStr"/>
       <c r="G615" t="inlineStr"/>
-      <c r="H615" t="n">
-        <v>3</v>
+      <c r="H615" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>03:10 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C616" t="inlineStr">
         <is>
-          <t>Obligacion Auction</t>
+          <t>Retail Sales Ex Gas/Autos MoMDEC</t>
         </is>
       </c>
       <c r="D616" t="inlineStr"/>
-      <c r="E616" t="inlineStr"/>
+      <c r="E616" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F616" t="inlineStr"/>
-      <c r="G616" t="inlineStr"/>
-      <c r="H616" t="n">
-        <v>3</v>
+      <c r="G616" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="H616" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C617" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D617" t="inlineStr"/>
       <c r="E617" t="inlineStr">
         <is>
-          <t>€6.8B</t>
+          <t>3.8%</t>
         </is>
       </c>
       <c r="F617" t="inlineStr"/>
-      <c r="G617" t="inlineStr"/>
-      <c r="H617" t="n">
-        <v>2</v>
+      <c r="G617" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="H617" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C618" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/10</t>
+          <t>Business Inventories MoMNOV</t>
         </is>
       </c>
       <c r="D618" t="inlineStr"/>
-      <c r="E618" t="inlineStr"/>
+      <c r="E618" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="F618" t="inlineStr"/>
       <c r="G618" t="inlineStr"/>
-      <c r="H618" t="n">
-        <v>3</v>
+      <c r="H618" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C619" t="inlineStr">
         <is>
-          <t>IBC-BR Economic ActivityNOV</t>
+          <t>NAHB Housing Market IndexJAN</t>
         </is>
       </c>
       <c r="D619" t="inlineStr"/>
       <c r="E619" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F619" t="inlineStr"/>
       <c r="G619" t="inlineStr"/>
-      <c r="H619" t="n">
-        <v>3</v>
+      <c r="H619" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C620" t="inlineStr">
         <is>
-          <t>NIESR Monthly GDP TrackerDEC</t>
+          <t>Retail Inventories Ex Autos MoMNOV</t>
         </is>
       </c>
       <c r="D620" t="inlineStr"/>
       <c r="E620" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F620" t="inlineStr"/>
-      <c r="G620" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H620" t="n">
-        <v>3</v>
+      <c r="G620" t="inlineStr"/>
+      <c r="H620" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C621" t="inlineStr">
         <is>
-          <t>Housing StartsDEC</t>
+          <t>EIA Natural Gas Stocks ChangeJAN/10</t>
         </is>
       </c>
       <c r="D621" t="inlineStr"/>
-      <c r="E621" t="inlineStr">
-        <is>
-          <t>262.4K</t>
-        </is>
-      </c>
+      <c r="E621" t="inlineStr"/>
       <c r="F621" t="inlineStr"/>
-      <c r="G621" t="inlineStr">
-        <is>
-          <t>220K</t>
-        </is>
-      </c>
-      <c r="H621" t="n">
-        <v>2</v>
+      <c r="G621" t="inlineStr"/>
+      <c r="H621" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B622" t="inlineStr">
@@ -20422,29 +20812,23 @@
       </c>
       <c r="C622" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D622" t="inlineStr"/>
-      <c r="E622" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="E622" t="inlineStr"/>
       <c r="F622" t="inlineStr"/>
-      <c r="G622" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H622" t="n">
-        <v>1</v>
+      <c r="G622" t="inlineStr"/>
+      <c r="H622" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B623" t="inlineStr">
@@ -20454,29 +20838,23 @@
       </c>
       <c r="C623" t="inlineStr">
         <is>
-          <t>Export Prices MoMDEC</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="D623" t="inlineStr"/>
-      <c r="E623" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="E623" t="inlineStr"/>
       <c r="F623" t="inlineStr"/>
-      <c r="G623" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H623" t="n">
-        <v>2</v>
+      <c r="G623" t="inlineStr"/>
+      <c r="H623" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B624" t="inlineStr">
@@ -20486,25 +20864,23 @@
       </c>
       <c r="C624" t="inlineStr">
         <is>
-          <t>Import Prices MoMDEC</t>
+          <t>15-Year Mortgage RateJAN/16</t>
         </is>
       </c>
       <c r="D624" t="inlineStr"/>
-      <c r="E624" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E624" t="inlineStr"/>
       <c r="F624" t="inlineStr"/>
       <c r="G624" t="inlineStr"/>
-      <c r="H624" t="n">
-        <v>2</v>
+      <c r="H624" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B625" t="inlineStr">
@@ -20514,49 +20890,37 @@
       </c>
       <c r="C625" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsJAN/11</t>
+          <t>30-Year Mortgage RateJAN/16</t>
         </is>
       </c>
       <c r="D625" t="inlineStr"/>
       <c r="E625" t="inlineStr"/>
       <c r="F625" t="inlineStr"/>
       <c r="G625" t="inlineStr"/>
-      <c r="H625" t="n">
-        <v>2</v>
+      <c r="H625" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B626" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C626" t="inlineStr">
-        <is>
-          <t>Philadelphia Fed Manufacturing IndexJAN</t>
-        </is>
-      </c>
+          <t>Friday January 17 2025</t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr"/>
+      <c r="C626" t="inlineStr"/>
       <c r="D626" t="inlineStr"/>
-      <c r="E626" t="inlineStr">
-        <is>
-          <t>-16.4</t>
-        </is>
-      </c>
+      <c r="E626" t="inlineStr"/>
       <c r="F626" t="inlineStr"/>
       <c r="G626" t="inlineStr"/>
-      <c r="H626" t="n">
-        <v>2</v>
-      </c>
+      <c r="H626" t="inlineStr"/>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B627" t="inlineStr">
@@ -20566,314 +20930,348 @@
       </c>
       <c r="C627" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Autos MoMDEC</t>
+          <t>Fed Balance SheetJAN/15</t>
         </is>
       </c>
       <c r="D627" t="inlineStr"/>
-      <c r="E627" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E627" t="inlineStr"/>
       <c r="F627" t="inlineStr"/>
-      <c r="G627" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="H627" t="n">
-        <v>2</v>
+      <c r="G627" t="inlineStr"/>
+      <c r="H627" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C628" t="inlineStr">
         <is>
-          <t>Continuing Jobless ClaimsJAN/04</t>
+          <t>Reuters Tankan IndexJAN</t>
         </is>
       </c>
       <c r="D628" t="inlineStr"/>
-      <c r="E628" t="inlineStr"/>
+      <c r="E628" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
       <c r="F628" t="inlineStr"/>
-      <c r="G628" t="inlineStr"/>
-      <c r="H628" t="n">
-        <v>3</v>
+      <c r="G628" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H628" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C629" t="inlineStr">
         <is>
-          <t>Export Prices YoYDEC</t>
+          <t>Foreign Bond InvestmentJAN/11</t>
         </is>
       </c>
       <c r="D629" t="inlineStr"/>
-      <c r="E629" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="E629" t="inlineStr"/>
       <c r="F629" t="inlineStr"/>
       <c r="G629" t="inlineStr"/>
-      <c r="H629" t="n">
-        <v>3</v>
+      <c r="H629" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C630" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Stock Investment by ForeignersJAN/11</t>
         </is>
       </c>
       <c r="D630" t="inlineStr"/>
-      <c r="E630" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
+      <c r="E630" t="inlineStr"/>
       <c r="F630" t="inlineStr"/>
-      <c r="G630" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="H630" t="n">
-        <v>3</v>
+      <c r="G630" t="inlineStr"/>
+      <c r="H630" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C631" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageJAN/11</t>
+          <t>Non-Oil Exports MoMDEC</t>
         </is>
       </c>
       <c r="D631" t="inlineStr"/>
-      <c r="E631" t="inlineStr"/>
+      <c r="E631" t="inlineStr">
+        <is>
+          <t>14.7%</t>
+        </is>
+      </c>
       <c r="F631" t="inlineStr"/>
-      <c r="G631" t="inlineStr"/>
-      <c r="H631" t="n">
-        <v>3</v>
+      <c r="G631" t="inlineStr">
+        <is>
+          <t>1.2%</t>
+        </is>
+      </c>
+      <c r="H631" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C632" t="inlineStr">
         <is>
-          <t>Philly Fed Business ConditionsJAN</t>
+          <t>Non-Oil Exports YoYDEC</t>
         </is>
       </c>
       <c r="D632" t="inlineStr"/>
       <c r="E632" t="inlineStr">
         <is>
-          <t>30.7</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="F632" t="inlineStr"/>
-      <c r="G632" t="inlineStr"/>
-      <c r="H632" t="n">
-        <v>3</v>
+      <c r="G632" t="inlineStr">
+        <is>
+          <t>7.5%</t>
+        </is>
+      </c>
+      <c r="H632" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C633" t="inlineStr">
         <is>
-          <t>Philly Fed CAPEX IndexJAN</t>
+          <t>Consumer Inflation ExpectationsJAN</t>
         </is>
       </c>
       <c r="D633" t="inlineStr"/>
       <c r="E633" t="inlineStr">
         <is>
-          <t>18.8</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="F633" t="inlineStr"/>
       <c r="G633" t="inlineStr"/>
-      <c r="H633" t="n">
-        <v>3</v>
+      <c r="H633" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C634" t="inlineStr">
         <is>
-          <t>Philly Fed EmploymentJAN</t>
+          <t>House Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D634" t="inlineStr"/>
       <c r="E634" t="inlineStr">
         <is>
-          <t>6.6</t>
+          <t>-5.7%</t>
         </is>
       </c>
       <c r="F634" t="inlineStr"/>
-      <c r="G634" t="inlineStr"/>
-      <c r="H634" t="n">
-        <v>3</v>
+      <c r="G634" t="inlineStr">
+        <is>
+          <t>-5.8%</t>
+        </is>
+      </c>
+      <c r="H634" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C635" t="inlineStr">
         <is>
-          <t>Philly Fed New OrdersJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D635" t="inlineStr"/>
       <c r="E635" t="inlineStr">
         <is>
-          <t>-4.3</t>
+          <t>$6.52B</t>
         </is>
       </c>
       <c r="F635" t="inlineStr"/>
-      <c r="G635" t="inlineStr"/>
-      <c r="H635" t="n">
-        <v>3</v>
+      <c r="G635" t="inlineStr">
+        <is>
+          <t>$ 3.6B</t>
+        </is>
+      </c>
+      <c r="H635" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C636" t="inlineStr">
         <is>
-          <t>Philly Fed Prices PaidJAN</t>
+          <t>GDP Growth Rate YoYQ4</t>
         </is>
       </c>
       <c r="D636" t="inlineStr"/>
       <c r="E636" t="inlineStr">
         <is>
-          <t>31.2</t>
+          <t>4.6%</t>
         </is>
       </c>
       <c r="F636" t="inlineStr"/>
-      <c r="G636" t="inlineStr"/>
-      <c r="H636" t="n">
-        <v>3</v>
+      <c r="G636" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
+      <c r="H636" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C637" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Gas/Autos MoMDEC</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D637" t="inlineStr"/>
       <c r="E637" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>5.4%</t>
         </is>
       </c>
       <c r="F637" t="inlineStr"/>
       <c r="G637" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H637" t="n">
-        <v>3</v>
+          <t>4.3%</t>
+        </is>
+      </c>
+      <c r="H637" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C638" t="inlineStr">
@@ -20884,245 +21282,295 @@
       <c r="D638" t="inlineStr"/>
       <c r="E638" t="inlineStr">
         <is>
-          <t>3.8%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F638" t="inlineStr"/>
       <c r="G638" t="inlineStr">
         <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="H638" t="n">
-        <v>3</v>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="H638" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C639" t="inlineStr">
         <is>
-          <t>Business Inventories MoMNOV</t>
+          <t>Fixed Asset Investment (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D639" t="inlineStr"/>
       <c r="E639" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F639" t="inlineStr"/>
-      <c r="G639" t="inlineStr"/>
-      <c r="H639" t="n">
-        <v>2</v>
+      <c r="G639" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
+      <c r="H639" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C640" t="inlineStr">
         <is>
-          <t>NAHB Housing Market IndexJAN</t>
+          <t>GDP Growth Rate QoQQ4</t>
         </is>
       </c>
       <c r="D640" t="inlineStr"/>
       <c r="E640" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="F640" t="inlineStr"/>
-      <c r="G640" t="inlineStr"/>
-      <c r="H640" t="n">
-        <v>2</v>
+      <c r="G640" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
+      <c r="H640" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C641" t="inlineStr">
         <is>
-          <t>Retail Inventories Ex Autos MoMNOV</t>
+          <t>Industrial Capacity UtilizationQ4</t>
         </is>
       </c>
       <c r="D641" t="inlineStr"/>
       <c r="E641" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>75.1%</t>
         </is>
       </c>
       <c r="F641" t="inlineStr"/>
-      <c r="G641" t="inlineStr"/>
-      <c r="H641" t="n">
-        <v>3</v>
+      <c r="G641" t="inlineStr">
+        <is>
+          <t>74.9%</t>
+        </is>
+      </c>
+      <c r="H641" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C642" t="inlineStr">
         <is>
-          <t>EIA Natural Gas Stocks ChangeJAN/10</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D642" t="inlineStr"/>
-      <c r="E642" t="inlineStr"/>
+      <c r="E642" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
       <c r="F642" t="inlineStr"/>
-      <c r="G642" t="inlineStr"/>
-      <c r="H642" t="n">
-        <v>3</v>
+      <c r="G642" t="inlineStr">
+        <is>
+          <t>5.00%</t>
+        </is>
+      </c>
+      <c r="H642" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C643" t="inlineStr">
         <is>
-          <t>4-Week Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D643" t="inlineStr"/>
       <c r="E643" t="inlineStr"/>
       <c r="F643" t="inlineStr"/>
       <c r="G643" t="inlineStr"/>
-      <c r="H643" t="n">
-        <v>3</v>
+      <c r="H643" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C644" t="inlineStr">
         <is>
-          <t>8-Week Bill Auction</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D644" t="inlineStr"/>
-      <c r="E644" t="inlineStr"/>
+      <c r="E644" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F644" t="inlineStr"/>
-      <c r="G644" t="inlineStr"/>
-      <c r="H644" t="n">
-        <v>3</v>
+      <c r="G644" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H644" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C645" t="inlineStr">
         <is>
-          <t>15-Year Mortgage RateJAN/16</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D645" t="inlineStr"/>
-      <c r="E645" t="inlineStr"/>
+      <c r="E645" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="F645" t="inlineStr"/>
-      <c r="G645" t="inlineStr"/>
-      <c r="H645" t="n">
-        <v>3</v>
+      <c r="G645" t="inlineStr">
+        <is>
+          <t>3.5%</t>
+        </is>
+      </c>
+      <c r="H645" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C646" t="inlineStr">
         <is>
-          <t>30-Year Mortgage RateJAN/16</t>
+          <t>Retail Sales ex Fuel MoMDEC</t>
         </is>
       </c>
       <c r="D646" t="inlineStr"/>
       <c r="E646" t="inlineStr"/>
       <c r="F646" t="inlineStr"/>
       <c r="G646" t="inlineStr"/>
-      <c r="H646" t="n">
-        <v>3</v>
+      <c r="H646" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C647" t="inlineStr">
         <is>
-          <t>Current Account s.aNOV</t>
+          <t>Retail Sales ex Fuel YoYDEC</t>
         </is>
       </c>
       <c r="D647" t="inlineStr"/>
-      <c r="E647" t="inlineStr">
-        <is>
-          <t>€33.5B</t>
-        </is>
-      </c>
+      <c r="E647" t="inlineStr"/>
       <c r="F647" t="inlineStr"/>
       <c r="G647" t="inlineStr"/>
       <c r="H647" t="inlineStr">
@@ -21134,37 +21582,41 @@
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>12:50 PM</t>
         </is>
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C648" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Loan Growth YoYDEC</t>
         </is>
       </c>
       <c r="D648" t="inlineStr"/>
       <c r="E648" t="inlineStr">
         <is>
-          <t>€-3.93B</t>
+          <t>10.79%</t>
         </is>
       </c>
       <c r="F648" t="inlineStr"/>
-      <c r="G648" t="inlineStr"/>
+      <c r="G648" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
       <c r="H648" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B649" t="inlineStr">
@@ -21174,35 +21626,27 @@
       </c>
       <c r="C649" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D649" t="inlineStr"/>
       <c r="E649" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F649" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="G649" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+          <t>€32B</t>
+        </is>
+      </c>
+      <c r="F649" t="inlineStr"/>
+      <c r="G649" t="inlineStr"/>
       <c r="H649" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B650" t="inlineStr">
@@ -21212,25 +21656,17 @@
       </c>
       <c r="C650" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FinalDEC</t>
+          <t>Current Account s.aNOV</t>
         </is>
       </c>
       <c r="D650" t="inlineStr"/>
       <c r="E650" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F650" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="G650" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+          <t>€33.5B</t>
+        </is>
+      </c>
+      <c r="F650" t="inlineStr"/>
+      <c r="G650" t="inlineStr"/>
       <c r="H650" t="inlineStr">
         <is>
           <t>3</t>
@@ -21240,38 +21676,30 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C651" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FinalDEC</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D651" t="inlineStr"/>
       <c r="E651" t="inlineStr">
         <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F651" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G651" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>€-3.93B</t>
+        </is>
+      </c>
+      <c r="F651" t="inlineStr"/>
+      <c r="G651" t="inlineStr"/>
       <c r="H651" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -21288,28 +21716,28 @@
       </c>
       <c r="C652" t="inlineStr">
         <is>
-          <t>CPI FinalDEC</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D652" t="inlineStr"/>
       <c r="E652" t="inlineStr">
         <is>
-          <t>126.62</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="F652" t="inlineStr">
         <is>
-          <t>127.08</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="G652" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="H652" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -21321,22 +21749,30 @@
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C653" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Core Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D653" t="inlineStr"/>
       <c r="E653" t="inlineStr">
         <is>
-          <t>€5628M</t>
-        </is>
-      </c>
-      <c r="F653" t="inlineStr"/>
-      <c r="G653" t="inlineStr"/>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="F653" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="G653" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="H653" t="inlineStr">
         <is>
           <t>3</t>
@@ -21346,23 +21782,35 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C654" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/03</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D654" t="inlineStr"/>
-      <c r="E654" t="inlineStr"/>
-      <c r="F654" t="inlineStr"/>
-      <c r="G654" t="inlineStr"/>
+      <c r="E654" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="F654" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G654" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H654" t="inlineStr">
         <is>
           <t>3</t>
@@ -21372,23 +21820,35 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C655" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/03</t>
+          <t>CPI FinalDEC</t>
         </is>
       </c>
       <c r="D655" t="inlineStr"/>
-      <c r="E655" t="inlineStr"/>
-      <c r="F655" t="inlineStr"/>
-      <c r="G655" t="inlineStr"/>
+      <c r="E655" t="inlineStr">
+        <is>
+          <t>126.62</t>
+        </is>
+      </c>
+      <c r="F655" t="inlineStr">
+        <is>
+          <t>127.08</t>
+        </is>
+      </c>
+      <c r="G655" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
       <c r="H655" t="inlineStr">
         <is>
           <t>3</t>
@@ -21398,21 +21858,25 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C656" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/10</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D656" t="inlineStr"/>
-      <c r="E656" t="inlineStr"/>
+      <c r="E656" t="inlineStr">
+        <is>
+          <t>€5628M</t>
+        </is>
+      </c>
       <c r="F656" t="inlineStr"/>
       <c r="G656" t="inlineStr"/>
       <c r="H656" t="inlineStr">
@@ -21424,25 +21888,21 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C657" t="inlineStr">
         <is>
-          <t>Foreign Securities PurchasesNOV</t>
+          <t>Bank Loan Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D657" t="inlineStr"/>
-      <c r="E657" t="inlineStr">
-        <is>
-          <t>C$21.55B</t>
-        </is>
-      </c>
+      <c r="E657" t="inlineStr"/>
       <c r="F657" t="inlineStr"/>
       <c r="G657" t="inlineStr"/>
       <c r="H657" t="inlineStr">
@@ -21454,25 +21914,21 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C658" t="inlineStr">
         <is>
-          <t>Foreign Securities Purchases by CanadiansNOV</t>
+          <t>Deposit Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D658" t="inlineStr"/>
-      <c r="E658" t="inlineStr">
-        <is>
-          <t>C$-2.65B</t>
-        </is>
-      </c>
+      <c r="E658" t="inlineStr"/>
       <c r="F658" t="inlineStr"/>
       <c r="G658" t="inlineStr"/>
       <c r="H658" t="inlineStr">
@@ -21484,34 +21940,26 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C659" t="inlineStr">
         <is>
-          <t>Building Permits PrelDEC</t>
+          <t>Foreign Exchange ReservesJAN/10</t>
         </is>
       </c>
       <c r="D659" t="inlineStr"/>
-      <c r="E659" t="inlineStr">
-        <is>
-          <t>1.493M</t>
-        </is>
-      </c>
+      <c r="E659" t="inlineStr"/>
       <c r="F659" t="inlineStr"/>
-      <c r="G659" t="inlineStr">
-        <is>
-          <t>1.6M</t>
-        </is>
-      </c>
+      <c r="G659" t="inlineStr"/>
       <c r="H659" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -21523,29 +21971,25 @@
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C660" t="inlineStr">
         <is>
-          <t>Housing StartsDEC</t>
+          <t>Foreign Securities PurchasesNOV</t>
         </is>
       </c>
       <c r="D660" t="inlineStr"/>
       <c r="E660" t="inlineStr">
         <is>
-          <t>1.289M</t>
+          <t>C$21.55B</t>
         </is>
       </c>
       <c r="F660" t="inlineStr"/>
-      <c r="G660" t="inlineStr">
-        <is>
-          <t>1.5M</t>
-        </is>
-      </c>
+      <c r="G660" t="inlineStr"/>
       <c r="H660" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -21557,25 +22001,25 @@
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C661" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>Foreign Securities Purchases by CanadiansNOV</t>
         </is>
       </c>
       <c r="D661" t="inlineStr"/>
       <c r="E661" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>C$-2.65B</t>
         </is>
       </c>
       <c r="F661" t="inlineStr"/>
       <c r="G661" t="inlineStr"/>
       <c r="H661" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -21592,31 +22036,31 @@
       </c>
       <c r="C662" t="inlineStr">
         <is>
-          <t>Housing Starts MoMDEC</t>
+          <t>Building Permits PrelDEC</t>
         </is>
       </c>
       <c r="D662" t="inlineStr"/>
       <c r="E662" t="inlineStr">
         <is>
-          <t>-1.8%</t>
+          <t>1.493M</t>
         </is>
       </c>
       <c r="F662" t="inlineStr"/>
       <c r="G662" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>1.6M</t>
         </is>
       </c>
       <c r="H662" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B663" t="inlineStr">
@@ -21626,27 +22070,31 @@
       </c>
       <c r="C663" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Housing StartsDEC</t>
         </is>
       </c>
       <c r="D663" t="inlineStr"/>
       <c r="E663" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>1.289M</t>
         </is>
       </c>
       <c r="F663" t="inlineStr"/>
-      <c r="G663" t="inlineStr"/>
+      <c r="G663" t="inlineStr">
+        <is>
+          <t>1.5M</t>
+        </is>
+      </c>
       <c r="H663" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B664" t="inlineStr">
@@ -21656,31 +22104,27 @@
       </c>
       <c r="C664" t="inlineStr">
         <is>
-          <t>Capacity UtilizationDEC</t>
+          <t>Building Permits MoM PrelDEC</t>
         </is>
       </c>
       <c r="D664" t="inlineStr"/>
       <c r="E664" t="inlineStr">
         <is>
-          <t>76.8%</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F664" t="inlineStr"/>
-      <c r="G664" t="inlineStr">
-        <is>
-          <t>77.8%</t>
-        </is>
-      </c>
+      <c r="G664" t="inlineStr"/>
       <c r="H664" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B665" t="inlineStr">
@@ -21690,24 +22134,24 @@
       </c>
       <c r="C665" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Housing Starts MoMDEC</t>
         </is>
       </c>
       <c r="D665" t="inlineStr"/>
       <c r="E665" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>-1.8%</t>
         </is>
       </c>
       <c r="F665" t="inlineStr"/>
       <c r="G665" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="H665" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -21724,24 +22168,20 @@
       </c>
       <c r="C666" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D666" t="inlineStr"/>
       <c r="E666" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F666" t="inlineStr"/>
-      <c r="G666" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G666" t="inlineStr"/>
       <c r="H666" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -21758,19 +22198,19 @@
       </c>
       <c r="C667" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYDEC</t>
+          <t>Capacity UtilizationDEC</t>
         </is>
       </c>
       <c r="D667" t="inlineStr"/>
       <c r="E667" t="inlineStr">
         <is>
-          <t>-1%</t>
+          <t>76.8%</t>
         </is>
       </c>
       <c r="F667" t="inlineStr"/>
       <c r="G667" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>77.8%</t>
         </is>
       </c>
       <c r="H667" t="inlineStr">
@@ -21782,7 +22222,7 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B668" t="inlineStr">
@@ -21792,13 +22232,21 @@
       </c>
       <c r="C668" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/17</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D668" t="inlineStr"/>
-      <c r="E668" t="inlineStr"/>
+      <c r="E668" t="inlineStr">
+        <is>
+          <t>-0.9%</t>
+        </is>
+      </c>
       <c r="F668" t="inlineStr"/>
-      <c r="G668" t="inlineStr"/>
+      <c r="G668" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="H668" t="inlineStr">
         <is>
           <t>3</t>
@@ -21808,7 +22256,7 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B669" t="inlineStr">
@@ -21818,13 +22266,21 @@
       </c>
       <c r="C669" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/17</t>
+          <t>Manufacturing Production MoMDEC</t>
         </is>
       </c>
       <c r="D669" t="inlineStr"/>
-      <c r="E669" t="inlineStr"/>
+      <c r="E669" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F669" t="inlineStr"/>
-      <c r="G669" t="inlineStr"/>
+      <c r="G669" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H669" t="inlineStr">
         <is>
           <t>3</t>
@@ -21832,25 +22288,33 @@
       </c>
     </row>
     <row r="670">
-      <c r="A670" t="inlineStr"/>
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>07:45 PM</t>
+        </is>
+      </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C670" t="inlineStr">
         <is>
-          <t>50-Year KTB Auction</t>
+          <t>Manufacturing Production YoYDEC</t>
         </is>
       </c>
       <c r="D670" t="inlineStr"/>
       <c r="E670" t="inlineStr">
         <is>
-          <t>2.40%</t>
+          <t>-1%</t>
         </is>
       </c>
       <c r="F670" t="inlineStr"/>
-      <c r="G670" t="inlineStr"/>
+      <c r="G670" t="inlineStr">
+        <is>
+          <t>-0.9%</t>
+        </is>
+      </c>
       <c r="H670" t="inlineStr">
         <is>
           <t>3</t>
@@ -21860,21 +22324,33 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>Saturday January 18 2025</t>
-        </is>
-      </c>
-      <c r="B671" t="inlineStr"/>
-      <c r="C671" t="inlineStr"/>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C671" t="inlineStr">
+        <is>
+          <t>Baker Hughes Oil Rig CountJAN/17</t>
+        </is>
+      </c>
       <c r="D671" t="inlineStr"/>
       <c r="E671" t="inlineStr"/>
       <c r="F671" t="inlineStr"/>
       <c r="G671" t="inlineStr"/>
-      <c r="H671" t="inlineStr"/>
+      <c r="H671" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B672" t="inlineStr">
@@ -21884,43 +22360,35 @@
       </c>
       <c r="C672" t="inlineStr">
         <is>
-          <t>Net Long-term TIC FlowsNOV</t>
+          <t>Baker Hughes Total Rigs CountJAN/17</t>
         </is>
       </c>
       <c r="D672" t="inlineStr"/>
-      <c r="E672" t="inlineStr">
-        <is>
-          <t>$152.3B</t>
-        </is>
-      </c>
+      <c r="E672" t="inlineStr"/>
       <c r="F672" t="inlineStr"/>
       <c r="G672" t="inlineStr"/>
       <c r="H672" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="673">
-      <c r="A673" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
+      <c r="A673" t="inlineStr"/>
       <c r="B673" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C673" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentNOV</t>
+          <t>50-Year KTB Auction</t>
         </is>
       </c>
       <c r="D673" t="inlineStr"/>
       <c r="E673" t="inlineStr">
         <is>
-          <t>$92.1B</t>
+          <t>2.40%</t>
         </is>
       </c>
       <c r="F673" t="inlineStr"/>
@@ -21934,28 +22402,102 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B674" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C674" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsNOV</t>
-        </is>
-      </c>
+          <t>Saturday January 18 2025</t>
+        </is>
+      </c>
+      <c r="B674" t="inlineStr"/>
+      <c r="C674" t="inlineStr"/>
       <c r="D674" t="inlineStr"/>
-      <c r="E674" t="inlineStr">
-        <is>
-          <t>$203.6B</t>
-        </is>
-      </c>
+      <c r="E674" t="inlineStr"/>
       <c r="F674" t="inlineStr"/>
       <c r="G674" t="inlineStr"/>
-      <c r="H674" t="inlineStr">
+      <c r="H674" t="inlineStr"/>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>02:30 AM</t>
+        </is>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C675" t="inlineStr">
+        <is>
+          <t>Net Long-term TIC FlowsNOV</t>
+        </is>
+      </c>
+      <c r="D675" t="inlineStr"/>
+      <c r="E675" t="inlineStr">
+        <is>
+          <t>$152.3B</t>
+        </is>
+      </c>
+      <c r="F675" t="inlineStr"/>
+      <c r="G675" t="inlineStr"/>
+      <c r="H675" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>02:30 AM</t>
+        </is>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C676" t="inlineStr">
+        <is>
+          <t>Foreign Bond InvestmentNOV</t>
+        </is>
+      </c>
+      <c r="D676" t="inlineStr"/>
+      <c r="E676" t="inlineStr">
+        <is>
+          <t>$92.1B</t>
+        </is>
+      </c>
+      <c r="F676" t="inlineStr"/>
+      <c r="G676" t="inlineStr"/>
+      <c r="H676" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>02:30 AM</t>
+        </is>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C677" t="inlineStr">
+        <is>
+          <t>Overall Net Capital FlowsNOV</t>
+        </is>
+      </c>
+      <c r="D677" t="inlineStr"/>
+      <c r="E677" t="inlineStr">
+        <is>
+          <t>$203.6B</t>
+        </is>
+      </c>
+      <c r="F677" t="inlineStr"/>
+      <c r="G677" t="inlineStr"/>
+      <c r="H677" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-18.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H677"/>
+  <dimension ref="A1:H653"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15161,10 +15161,8 @@
           <t>6.4%</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H439" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="440">
@@ -15187,10 +15185,8 @@
       </c>
       <c r="F440" t="inlineStr"/>
       <c r="G440" t="inlineStr"/>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H440" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="441">
@@ -15209,10 +15205,8 @@
       <c r="E441" t="inlineStr"/>
       <c r="F441" t="inlineStr"/>
       <c r="G441" t="inlineStr"/>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H441" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="442">
@@ -15253,10 +15247,8 @@
       </c>
       <c r="F443" t="inlineStr"/>
       <c r="G443" t="inlineStr"/>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H443" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="444">
@@ -15283,10 +15275,8 @@
       </c>
       <c r="F444" t="inlineStr"/>
       <c r="G444" t="inlineStr"/>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H444" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="445">
@@ -15313,10 +15303,8 @@
       </c>
       <c r="F445" t="inlineStr"/>
       <c r="G445" t="inlineStr"/>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H445" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="446">
@@ -15347,10 +15335,8 @@
           <t>¥1990.0B</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H446" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="447">
@@ -15381,10 +15367,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H447" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="448">
@@ -15411,10 +15395,8 @@
       </c>
       <c r="F448" t="inlineStr"/>
       <c r="G448" t="inlineStr"/>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H448" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="449">
@@ -15441,10 +15423,8 @@
       </c>
       <c r="F449" t="inlineStr"/>
       <c r="G449" t="inlineStr"/>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H449" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="450">
@@ -15471,10 +15451,8 @@
       </c>
       <c r="F450" t="inlineStr"/>
       <c r="G450" t="inlineStr"/>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H450" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="451">
@@ -15505,10 +15483,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H451" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="452">
@@ -15539,10 +15515,8 @@
           <t>49.6</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H452" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="453">
@@ -15569,10 +15543,8 @@
       </c>
       <c r="F453" t="inlineStr"/>
       <c r="G453" t="inlineStr"/>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H453" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="454">
@@ -15599,10 +15571,8 @@
       </c>
       <c r="F454" t="inlineStr"/>
       <c r="G454" t="inlineStr"/>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H454" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="455">
@@ -15633,10 +15603,8 @@
           <t>10.2%</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H455" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="456">
@@ -15667,10 +15635,8 @@
           <t>-3.2%</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H456" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="457">
@@ -15701,10 +15667,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H457" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="458">
@@ -15731,10 +15695,8 @@
       </c>
       <c r="F458" t="inlineStr"/>
       <c r="G458" t="inlineStr"/>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H458" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="459">
@@ -15761,10 +15723,8 @@
       </c>
       <c r="F459" t="inlineStr"/>
       <c r="G459" t="inlineStr"/>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H459" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="460">
@@ -15791,10 +15751,8 @@
       </c>
       <c r="F460" t="inlineStr"/>
       <c r="G460" t="inlineStr"/>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H460" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="461">
@@ -15817,10 +15775,8 @@
       <c r="E461" t="inlineStr"/>
       <c r="F461" t="inlineStr"/>
       <c r="G461" t="inlineStr"/>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H461" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="462">
@@ -15843,10 +15799,8 @@
       <c r="E462" t="inlineStr"/>
       <c r="F462" t="inlineStr"/>
       <c r="G462" t="inlineStr"/>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H462" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="463">
@@ -15873,10 +15827,8 @@
       </c>
       <c r="F463" t="inlineStr"/>
       <c r="G463" t="inlineStr"/>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H463" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="464">
@@ -15903,10 +15855,8 @@
       </c>
       <c r="F464" t="inlineStr"/>
       <c r="G464" t="inlineStr"/>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H464" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="465">
@@ -15937,10 +15887,8 @@
           <t>102</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H465" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="466">
@@ -15971,10 +15919,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H466" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="467">
@@ -16001,10 +15947,8 @@
       </c>
       <c r="F467" t="inlineStr"/>
       <c r="G467" t="inlineStr"/>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H467" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="468">
@@ -16035,10 +15979,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H468" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="469">
@@ -16069,10 +16011,8 @@
           <t>146.4</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H469" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="470">
@@ -16099,10 +16039,8 @@
       </c>
       <c r="F470" t="inlineStr"/>
       <c r="G470" t="inlineStr"/>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H470" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="471">
@@ -16129,10 +16067,8 @@
       </c>
       <c r="F471" t="inlineStr"/>
       <c r="G471" t="inlineStr"/>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H471" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="472">
@@ -16163,10 +16099,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H472" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="473">
@@ -16193,10 +16127,8 @@
       </c>
       <c r="F473" t="inlineStr"/>
       <c r="G473" t="inlineStr"/>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H473" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="474">
@@ -16223,10 +16155,8 @@
       </c>
       <c r="F474" t="inlineStr"/>
       <c r="G474" t="inlineStr"/>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H474" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="475">
@@ -16249,10 +16179,8 @@
       </c>
       <c r="F475" t="inlineStr"/>
       <c r="G475" t="inlineStr"/>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H475" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="476">
@@ -16297,10 +16225,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H477" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="478">
@@ -16331,10 +16257,8 @@
           <t>116.0%</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H478" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="479">
@@ -16365,10 +16289,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H479" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="480">
@@ -16399,10 +16321,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H480" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="481">
@@ -16429,10 +16349,8 @@
       </c>
       <c r="F481" t="inlineStr"/>
       <c r="G481" t="inlineStr"/>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H481" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="482">
@@ -16463,10 +16381,8 @@
           <t>$ 2.8B</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H482" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="483">
@@ -16493,10 +16409,8 @@
       </c>
       <c r="F483" t="inlineStr"/>
       <c r="G483" t="inlineStr"/>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H483" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="484">
@@ -16523,10 +16437,8 @@
       </c>
       <c r="F484" t="inlineStr"/>
       <c r="G484" t="inlineStr"/>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H484" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="485">
@@ -16553,10 +16465,8 @@
       </c>
       <c r="F485" t="inlineStr"/>
       <c r="G485" t="inlineStr"/>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H485" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="486">
@@ -16587,10 +16497,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H486" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="487">
@@ -16621,10 +16529,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H487" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="488">
@@ -16655,10 +16561,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H488" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="489">
@@ -16689,10 +16593,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H489" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="490">
@@ -16723,10 +16625,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H490" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="491">
@@ -16757,10 +16657,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H491" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="492">
@@ -16791,10 +16689,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H492" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="493">
@@ -16825,10 +16721,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H493" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="494">
@@ -16859,10 +16753,8 @@
           <t>2.1%</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H494" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="495">
@@ -16893,10 +16785,8 @@
           <t>-1.3%</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H495" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="496">
@@ -16927,10 +16817,8 @@
           <t>-1%</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H496" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="497">
@@ -16961,10 +16849,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H497" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="498">
@@ -16995,10 +16881,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H498" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="499">
@@ -17025,10 +16909,8 @@
       </c>
       <c r="F499" t="inlineStr"/>
       <c r="G499" t="inlineStr"/>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H499" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="500">
@@ -17059,10 +16941,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H500" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="501">
@@ -17085,10 +16965,8 @@
       <c r="E501" t="inlineStr"/>
       <c r="F501" t="inlineStr"/>
       <c r="G501" t="inlineStr"/>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H501" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="502">
@@ -17115,10 +16993,8 @@
       </c>
       <c r="F502" t="inlineStr"/>
       <c r="G502" t="inlineStr"/>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H502" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="503">
@@ -17145,10 +17021,8 @@
       </c>
       <c r="F503" t="inlineStr"/>
       <c r="G503" t="inlineStr"/>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H503" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="504">
@@ -17179,10 +17053,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H504" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="505">
@@ -17213,10 +17085,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H505" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="506">
@@ -17247,10 +17117,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H506" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="507">
@@ -17281,10 +17149,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H507" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="508">
@@ -17311,10 +17177,8 @@
       </c>
       <c r="F508" t="inlineStr"/>
       <c r="G508" t="inlineStr"/>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H508" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="509">
@@ -17349,10 +17213,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H509" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="510">
@@ -17387,10 +17249,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H510" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="511">
@@ -17425,10 +17285,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H511" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="512">
@@ -17459,10 +17317,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H512" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="513">
@@ -17493,10 +17349,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H513" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="514">
@@ -17523,10 +17377,8 @@
       </c>
       <c r="F514" t="inlineStr"/>
       <c r="G514" t="inlineStr"/>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H514" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="515">
@@ -17553,10 +17405,8 @@
       </c>
       <c r="F515" t="inlineStr"/>
       <c r="G515" t="inlineStr"/>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H515" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="516">
@@ -17583,10 +17433,8 @@
       </c>
       <c r="F516" t="inlineStr"/>
       <c r="G516" t="inlineStr"/>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H516" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="517">
@@ -17613,10 +17461,8 @@
       </c>
       <c r="F517" t="inlineStr"/>
       <c r="G517" t="inlineStr"/>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H517" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="518">
@@ -17643,10 +17489,8 @@
       </c>
       <c r="F518" t="inlineStr"/>
       <c r="G518" t="inlineStr"/>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H518" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="519">
@@ -17673,10 +17517,8 @@
       </c>
       <c r="F519" t="inlineStr"/>
       <c r="G519" t="inlineStr"/>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H519" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="520">
@@ -17699,10 +17541,8 @@
       <c r="E520" t="inlineStr"/>
       <c r="F520" t="inlineStr"/>
       <c r="G520" t="inlineStr"/>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H520" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="521">
@@ -17725,10 +17565,8 @@
       <c r="E521" t="inlineStr"/>
       <c r="F521" t="inlineStr"/>
       <c r="G521" t="inlineStr"/>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H521" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="522">
@@ -17751,10 +17589,8 @@
       <c r="E522" t="inlineStr"/>
       <c r="F522" t="inlineStr"/>
       <c r="G522" t="inlineStr"/>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H522" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="523">
@@ -17777,10 +17613,8 @@
       <c r="E523" t="inlineStr"/>
       <c r="F523" t="inlineStr"/>
       <c r="G523" t="inlineStr"/>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H523" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="524">
@@ -17803,10 +17637,8 @@
       <c r="E524" t="inlineStr"/>
       <c r="F524" t="inlineStr"/>
       <c r="G524" t="inlineStr"/>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H524" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="525">
@@ -17837,10 +17669,8 @@
           <t>$628.0B</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H525" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="526">
@@ -17875,10 +17705,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H526" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="527">
@@ -17905,10 +17733,8 @@
       </c>
       <c r="F527" t="inlineStr"/>
       <c r="G527" t="inlineStr"/>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H527" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="528">
@@ -17943,10 +17769,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H528" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="529">
@@ -17977,10 +17801,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H529" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="530">
@@ -18011,10 +17833,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H530" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="531">
@@ -18045,10 +17865,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H531" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="532">
@@ -18079,10 +17897,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H532" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="533">
@@ -18113,10 +17929,8 @@
           <t>313.8</t>
         </is>
       </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H533" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="534">
@@ -18147,10 +17961,8 @@
           <t>317.4</t>
         </is>
       </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H534" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="535">
@@ -18177,10 +17989,8 @@
       </c>
       <c r="F535" t="inlineStr"/>
       <c r="G535" t="inlineStr"/>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H535" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="536">
@@ -18203,10 +18013,8 @@
       <c r="E536" t="inlineStr"/>
       <c r="F536" t="inlineStr"/>
       <c r="G536" t="inlineStr"/>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H536" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="537">
@@ -18229,10 +18037,8 @@
       <c r="E537" t="inlineStr"/>
       <c r="F537" t="inlineStr"/>
       <c r="G537" t="inlineStr"/>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H537" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="538">
@@ -18255,10 +18061,8 @@
       <c r="E538" t="inlineStr"/>
       <c r="F538" t="inlineStr"/>
       <c r="G538" t="inlineStr"/>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H538" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="539">
@@ -18281,10 +18085,8 @@
       <c r="E539" t="inlineStr"/>
       <c r="F539" t="inlineStr"/>
       <c r="G539" t="inlineStr"/>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H539" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="540">
@@ -18307,10 +18109,8 @@
       <c r="E540" t="inlineStr"/>
       <c r="F540" t="inlineStr"/>
       <c r="G540" t="inlineStr"/>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H540" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="541">
@@ -18333,10 +18133,8 @@
       <c r="E541" t="inlineStr"/>
       <c r="F541" t="inlineStr"/>
       <c r="G541" t="inlineStr"/>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H541" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="542">
@@ -18359,10 +18157,8 @@
       <c r="E542" t="inlineStr"/>
       <c r="F542" t="inlineStr"/>
       <c r="G542" t="inlineStr"/>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H542" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="543">
@@ -18385,10 +18181,8 @@
       <c r="E543" t="inlineStr"/>
       <c r="F543" t="inlineStr"/>
       <c r="G543" t="inlineStr"/>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H543" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="544">
@@ -18411,10 +18205,8 @@
       <c r="E544" t="inlineStr"/>
       <c r="F544" t="inlineStr"/>
       <c r="G544" t="inlineStr"/>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H544" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="545">
@@ -18445,10 +18237,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H545" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="546">
@@ -18479,10 +18269,8 @@
           <t>9.5%</t>
         </is>
       </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H546" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="547">
@@ -18505,10 +18293,8 @@
       <c r="E547" t="inlineStr"/>
       <c r="F547" t="inlineStr"/>
       <c r="G547" t="inlineStr"/>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H547" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="548">
@@ -18539,10 +18325,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H548" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="549">
@@ -18569,10 +18353,8 @@
       </c>
       <c r="F549" t="inlineStr"/>
       <c r="G549" t="inlineStr"/>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H549" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="550">
@@ -18595,10 +18377,8 @@
       </c>
       <c r="F550" t="inlineStr"/>
       <c r="G550" t="inlineStr"/>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H550" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="551">
@@ -18625,10 +18405,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H551" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="552">
@@ -18655,10 +18433,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H552" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="553">
@@ -18685,10 +18461,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H553" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="554">
@@ -18707,10 +18481,8 @@
       <c r="E554" t="inlineStr"/>
       <c r="F554" t="inlineStr"/>
       <c r="G554" t="inlineStr"/>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H554" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="555">
@@ -18729,10 +18501,8 @@
       <c r="E555" t="inlineStr"/>
       <c r="F555" t="inlineStr"/>
       <c r="G555" t="inlineStr"/>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H555" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="556">
@@ -18759,10 +18529,8 @@
           <t>$ -23B</t>
         </is>
       </c>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H556" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="557">
@@ -18789,10 +18557,8 @@
           <t>$ 36B</t>
         </is>
       </c>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H557" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="558">
@@ -18819,10 +18585,8 @@
           <t>$ 59B</t>
         </is>
       </c>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H558" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="559">
@@ -18867,10 +18631,8 @@
           <t>3.30%</t>
         </is>
       </c>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H560" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="561">
@@ -18897,10 +18659,8 @@
       </c>
       <c r="F561" t="inlineStr"/>
       <c r="G561" t="inlineStr"/>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H561" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="562">
@@ -18931,10 +18691,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H562" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H562" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="563">
@@ -18965,10 +18723,8 @@
           <t>17.0%</t>
         </is>
       </c>
-      <c r="H563" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H563" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="564">
@@ -18999,10 +18755,8 @@
           <t>4.30%</t>
         </is>
       </c>
-      <c r="H564" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H564" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="565">
@@ -19033,10 +18787,8 @@
           <t>25.1K</t>
         </is>
       </c>
-      <c r="H565" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H565" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="566">
@@ -19063,10 +18815,8 @@
       </c>
       <c r="F566" t="inlineStr"/>
       <c r="G566" t="inlineStr"/>
-      <c r="H566" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H566" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="567">
@@ -19093,10 +18843,8 @@
       </c>
       <c r="F567" t="inlineStr"/>
       <c r="G567" t="inlineStr"/>
-      <c r="H567" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H567" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="568">
@@ -19127,10 +18875,8 @@
           <t>66.8%</t>
         </is>
       </c>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H568" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="569">
@@ -19157,10 +18903,8 @@
       </c>
       <c r="F569" t="inlineStr"/>
       <c r="G569" t="inlineStr"/>
-      <c r="H569" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H569" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="570">
@@ -19187,10 +18931,8 @@
       </c>
       <c r="F570" t="inlineStr"/>
       <c r="G570" t="inlineStr"/>
-      <c r="H570" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H570" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="571">
@@ -19217,10 +18959,8 @@
       </c>
       <c r="F571" t="inlineStr"/>
       <c r="G571" t="inlineStr"/>
-      <c r="H571" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H571" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="572">
@@ -19247,10 +18987,8 @@
       </c>
       <c r="F572" t="inlineStr"/>
       <c r="G572" t="inlineStr"/>
-      <c r="H572" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H572" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="573">
@@ -19285,10 +19023,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H573" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H573" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="574">
@@ -19319,10 +19055,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H574" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H574" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="575">
@@ -19357,10 +19091,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H575" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H575" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="576">
@@ -19395,10 +19127,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H576" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H576" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="577">
@@ -19429,10 +19159,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H577" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H577" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="578">
@@ -19463,10 +19191,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H578" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H578" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="579">
@@ -19497,10 +19223,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H579" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H579" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="580">
@@ -19527,10 +19251,8 @@
       </c>
       <c r="F580" t="inlineStr"/>
       <c r="G580" t="inlineStr"/>
-      <c r="H580" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H580" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="581">
@@ -19557,10 +19279,8 @@
       </c>
       <c r="F581" t="inlineStr"/>
       <c r="G581" t="inlineStr"/>
-      <c r="H581" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H581" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="582">
@@ -19587,10 +19307,8 @@
       </c>
       <c r="F582" t="inlineStr"/>
       <c r="G582" t="inlineStr"/>
-      <c r="H582" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H582" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="583">
@@ -19617,10 +19335,8 @@
       </c>
       <c r="F583" t="inlineStr"/>
       <c r="G583" t="inlineStr"/>
-      <c r="H583" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H583" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="584">
@@ -19647,10 +19363,8 @@
       </c>
       <c r="F584" t="inlineStr"/>
       <c r="G584" t="inlineStr"/>
-      <c r="H584" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H584" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="585">
@@ -19681,10 +19395,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H585" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H585" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="586">
@@ -19711,10 +19423,8 @@
       </c>
       <c r="F586" t="inlineStr"/>
       <c r="G586" t="inlineStr"/>
-      <c r="H586" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H586" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="587">
@@ -19741,10 +19451,8 @@
       </c>
       <c r="F587" t="inlineStr"/>
       <c r="G587" t="inlineStr"/>
-      <c r="H587" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H587" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="588">
@@ -19771,10 +19479,8 @@
       </c>
       <c r="F588" t="inlineStr"/>
       <c r="G588" t="inlineStr"/>
-      <c r="H588" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H588" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="589">
@@ -19809,10 +19515,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H589" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H589" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="590">
@@ -19847,10 +19551,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H590" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H590" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="591">
@@ -19885,10 +19587,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H591" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H591" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="592">
@@ -19923,10 +19623,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H592" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H592" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="593">
@@ -19949,10 +19647,8 @@
       <c r="E593" t="inlineStr"/>
       <c r="F593" t="inlineStr"/>
       <c r="G593" t="inlineStr"/>
-      <c r="H593" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H593" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="594">
@@ -19975,10 +19671,8 @@
       <c r="E594" t="inlineStr"/>
       <c r="F594" t="inlineStr"/>
       <c r="G594" t="inlineStr"/>
-      <c r="H594" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H594" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="595">
@@ -20001,10 +19695,8 @@
       <c r="E595" t="inlineStr"/>
       <c r="F595" t="inlineStr"/>
       <c r="G595" t="inlineStr"/>
-      <c r="H595" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H595" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="596">
@@ -20031,10 +19723,8 @@
       </c>
       <c r="F596" t="inlineStr"/>
       <c r="G596" t="inlineStr"/>
-      <c r="H596" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H596" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="597">
@@ -20057,10 +19747,8 @@
       <c r="E597" t="inlineStr"/>
       <c r="F597" t="inlineStr"/>
       <c r="G597" t="inlineStr"/>
-      <c r="H597" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H597" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="598">
@@ -20087,10 +19775,8 @@
       </c>
       <c r="F598" t="inlineStr"/>
       <c r="G598" t="inlineStr"/>
-      <c r="H598" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H598" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="599">
@@ -20121,10 +19807,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H599" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H599" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="600">
@@ -20155,10 +19839,8 @@
           <t>220K</t>
         </is>
       </c>
-      <c r="H600" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H600" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="601">
@@ -20189,10 +19871,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H601" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H601" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="602">
@@ -20223,10 +19903,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H602" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H602" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="603">
@@ -20253,10 +19931,8 @@
       </c>
       <c r="F603" t="inlineStr"/>
       <c r="G603" t="inlineStr"/>
-      <c r="H603" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H603" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="604">
@@ -20279,10 +19955,8 @@
       <c r="E604" t="inlineStr"/>
       <c r="F604" t="inlineStr"/>
       <c r="G604" t="inlineStr"/>
-      <c r="H604" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H604" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="605">
@@ -20309,10 +19983,8 @@
       </c>
       <c r="F605" t="inlineStr"/>
       <c r="G605" t="inlineStr"/>
-      <c r="H605" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H605" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="606">
@@ -20343,10 +20015,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H606" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H606" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="607">
@@ -20369,10 +20039,8 @@
       <c r="E607" t="inlineStr"/>
       <c r="F607" t="inlineStr"/>
       <c r="G607" t="inlineStr"/>
-      <c r="H607" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H607" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="608">
@@ -20399,10 +20067,8 @@
       </c>
       <c r="F608" t="inlineStr"/>
       <c r="G608" t="inlineStr"/>
-      <c r="H608" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H608" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="609">
@@ -20433,10 +20099,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H609" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H609" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="610">
@@ -20459,10 +20123,8 @@
       <c r="E610" t="inlineStr"/>
       <c r="F610" t="inlineStr"/>
       <c r="G610" t="inlineStr"/>
-      <c r="H610" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H610" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="611">
@@ -20489,10 +20151,8 @@
       </c>
       <c r="F611" t="inlineStr"/>
       <c r="G611" t="inlineStr"/>
-      <c r="H611" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H611" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="612">
@@ -20519,10 +20179,8 @@
       </c>
       <c r="F612" t="inlineStr"/>
       <c r="G612" t="inlineStr"/>
-      <c r="H612" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H612" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="613">
@@ -20549,10 +20207,8 @@
       </c>
       <c r="F613" t="inlineStr"/>
       <c r="G613" t="inlineStr"/>
-      <c r="H613" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H613" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="614">
@@ -20579,10 +20235,8 @@
       </c>
       <c r="F614" t="inlineStr"/>
       <c r="G614" t="inlineStr"/>
-      <c r="H614" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H614" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="615">
@@ -20609,10 +20263,8 @@
       </c>
       <c r="F615" t="inlineStr"/>
       <c r="G615" t="inlineStr"/>
-      <c r="H615" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H615" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="616">
@@ -20643,10 +20295,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H616" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H616" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="617">
@@ -20677,10 +20327,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H617" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H617" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="618">
@@ -20707,10 +20355,8 @@
       </c>
       <c r="F618" t="inlineStr"/>
       <c r="G618" t="inlineStr"/>
-      <c r="H618" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H618" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="619">
@@ -20737,10 +20383,8 @@
       </c>
       <c r="F619" t="inlineStr"/>
       <c r="G619" t="inlineStr"/>
-      <c r="H619" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H619" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="620">
@@ -20767,10 +20411,8 @@
       </c>
       <c r="F620" t="inlineStr"/>
       <c r="G620" t="inlineStr"/>
-      <c r="H620" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H620" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="621">
@@ -20793,10 +20435,8 @@
       <c r="E621" t="inlineStr"/>
       <c r="F621" t="inlineStr"/>
       <c r="G621" t="inlineStr"/>
-      <c r="H621" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H621" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="622">
@@ -20819,10 +20459,8 @@
       <c r="E622" t="inlineStr"/>
       <c r="F622" t="inlineStr"/>
       <c r="G622" t="inlineStr"/>
-      <c r="H622" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H622" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="623">
@@ -20845,10 +20483,8 @@
       <c r="E623" t="inlineStr"/>
       <c r="F623" t="inlineStr"/>
       <c r="G623" t="inlineStr"/>
-      <c r="H623" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H623" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="624">
@@ -20871,10 +20507,8 @@
       <c r="E624" t="inlineStr"/>
       <c r="F624" t="inlineStr"/>
       <c r="G624" t="inlineStr"/>
-      <c r="H624" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H624" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="625">
@@ -20897,106 +20531,140 @@
       <c r="E625" t="inlineStr"/>
       <c r="F625" t="inlineStr"/>
       <c r="G625" t="inlineStr"/>
-      <c r="H625" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H625" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>Friday January 17 2025</t>
-        </is>
-      </c>
-      <c r="B626" t="inlineStr"/>
-      <c r="C626" t="inlineStr"/>
+          <t>02:30 PM</t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C626" t="inlineStr">
+        <is>
+          <t>Current Account s.aNOV</t>
+        </is>
+      </c>
       <c r="D626" t="inlineStr"/>
-      <c r="E626" t="inlineStr"/>
+      <c r="E626" t="inlineStr">
+        <is>
+          <t>€33.5B</t>
+        </is>
+      </c>
       <c r="F626" t="inlineStr"/>
       <c r="G626" t="inlineStr"/>
-      <c r="H626" t="inlineStr"/>
+      <c r="H626" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C627" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/15</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D627" t="inlineStr"/>
-      <c r="E627" t="inlineStr"/>
+      <c r="E627" t="inlineStr">
+        <is>
+          <t>€-3.93B</t>
+        </is>
+      </c>
       <c r="F627" t="inlineStr"/>
       <c r="G627" t="inlineStr"/>
       <c r="H627" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C628" t="inlineStr">
         <is>
-          <t>Reuters Tankan IndexJAN</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D628" t="inlineStr"/>
       <c r="E628" t="inlineStr">
         <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="F628" t="inlineStr"/>
+          <t>2.2%</t>
+        </is>
+      </c>
+      <c r="F628" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
       <c r="G628" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="H628" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C629" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/11</t>
+          <t>Core Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D629" t="inlineStr"/>
-      <c r="E629" t="inlineStr"/>
-      <c r="F629" t="inlineStr"/>
-      <c r="G629" t="inlineStr"/>
+      <c r="E629" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="F629" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="G629" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="H629" t="inlineStr">
         <is>
           <t>3</t>
@@ -21006,23 +20674,35 @@
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C630" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersJAN/11</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D630" t="inlineStr"/>
-      <c r="E630" t="inlineStr"/>
-      <c r="F630" t="inlineStr"/>
-      <c r="G630" t="inlineStr"/>
+      <c r="E630" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="F630" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G630" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H630" t="inlineStr">
         <is>
           <t>3</t>
@@ -21032,29 +20712,33 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C631" t="inlineStr">
         <is>
-          <t>Non-Oil Exports MoMDEC</t>
+          <t>CPI FinalDEC</t>
         </is>
       </c>
       <c r="D631" t="inlineStr"/>
       <c r="E631" t="inlineStr">
         <is>
-          <t>14.7%</t>
-        </is>
-      </c>
-      <c r="F631" t="inlineStr"/>
+          <t>126.62</t>
+        </is>
+      </c>
+      <c r="F631" t="inlineStr">
+        <is>
+          <t>127.08</t>
+        </is>
+      </c>
       <c r="G631" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>127</t>
         </is>
       </c>
       <c r="H631" t="inlineStr">
@@ -21066,31 +20750,27 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C632" t="inlineStr">
         <is>
-          <t>Non-Oil Exports YoYDEC</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D632" t="inlineStr"/>
       <c r="E632" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>€5628M</t>
         </is>
       </c>
       <c r="F632" t="inlineStr"/>
-      <c r="G632" t="inlineStr">
-        <is>
-          <t>7.5%</t>
-        </is>
-      </c>
+      <c r="G632" t="inlineStr"/>
       <c r="H632" t="inlineStr">
         <is>
           <t>3</t>
@@ -21100,25 +20780,21 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C633" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsJAN</t>
+          <t>Bank Loan Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D633" t="inlineStr"/>
-      <c r="E633" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
+      <c r="E633" t="inlineStr"/>
       <c r="F633" t="inlineStr"/>
       <c r="G633" t="inlineStr"/>
       <c r="H633" t="inlineStr">
@@ -21130,65 +20806,49 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C634" t="inlineStr">
         <is>
-          <t>House Price Index YoYDEC</t>
+          <t>Deposit Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D634" t="inlineStr"/>
-      <c r="E634" t="inlineStr">
-        <is>
-          <t>-5.7%</t>
-        </is>
-      </c>
+      <c r="E634" t="inlineStr"/>
       <c r="F634" t="inlineStr"/>
-      <c r="G634" t="inlineStr">
-        <is>
-          <t>-5.8%</t>
-        </is>
-      </c>
+      <c r="G634" t="inlineStr"/>
       <c r="H634" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C635" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Foreign Exchange ReservesJAN/10</t>
         </is>
       </c>
       <c r="D635" t="inlineStr"/>
-      <c r="E635" t="inlineStr">
-        <is>
-          <t>$6.52B</t>
-        </is>
-      </c>
+      <c r="E635" t="inlineStr"/>
       <c r="F635" t="inlineStr"/>
-      <c r="G635" t="inlineStr">
-        <is>
-          <t>$ 3.6B</t>
-        </is>
-      </c>
+      <c r="G635" t="inlineStr"/>
       <c r="H635" t="inlineStr">
         <is>
           <t>3</t>
@@ -21198,97 +20858,89 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C636" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoYQ4</t>
+          <t>Foreign Securities PurchasesNOV</t>
         </is>
       </c>
       <c r="D636" t="inlineStr"/>
       <c r="E636" t="inlineStr">
         <is>
-          <t>4.6%</t>
+          <t>C$21.55B</t>
         </is>
       </c>
       <c r="F636" t="inlineStr"/>
-      <c r="G636" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
+      <c r="G636" t="inlineStr"/>
       <c r="H636" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C637" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Foreign Securities Purchases by CanadiansNOV</t>
         </is>
       </c>
       <c r="D637" t="inlineStr"/>
       <c r="E637" t="inlineStr">
         <is>
-          <t>5.4%</t>
+          <t>C$-2.65B</t>
         </is>
       </c>
       <c r="F637" t="inlineStr"/>
-      <c r="G637" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="G637" t="inlineStr"/>
       <c r="H637" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C638" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Building Permits PrelDEC</t>
         </is>
       </c>
       <c r="D638" t="inlineStr"/>
       <c r="E638" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>1.493M</t>
         </is>
       </c>
       <c r="F638" t="inlineStr"/>
       <c r="G638" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>1.6M</t>
         </is>
       </c>
       <c r="H638" t="inlineStr">
@@ -21300,65 +20952,61 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C639" t="inlineStr">
         <is>
-          <t>Fixed Asset Investment (YTD) YoYDEC</t>
+          <t>Housing StartsDEC</t>
         </is>
       </c>
       <c r="D639" t="inlineStr"/>
       <c r="E639" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>1.289M</t>
         </is>
       </c>
       <c r="F639" t="inlineStr"/>
       <c r="G639" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>1.5M</t>
         </is>
       </c>
       <c r="H639" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C640" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQQ4</t>
+          <t>Building Permits MoM PrelDEC</t>
         </is>
       </c>
       <c r="D640" t="inlineStr"/>
       <c r="E640" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F640" t="inlineStr"/>
-      <c r="G640" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="G640" t="inlineStr"/>
       <c r="H640" t="inlineStr">
         <is>
           <t>2</t>
@@ -21368,91 +21016,95 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C641" t="inlineStr">
         <is>
-          <t>Industrial Capacity UtilizationQ4</t>
+          <t>Housing Starts MoMDEC</t>
         </is>
       </c>
       <c r="D641" t="inlineStr"/>
       <c r="E641" t="inlineStr">
         <is>
-          <t>75.1%</t>
+          <t>-1.8%</t>
         </is>
       </c>
       <c r="F641" t="inlineStr"/>
       <c r="G641" t="inlineStr">
         <is>
-          <t>74.9%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="H641" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C642" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D642" t="inlineStr"/>
       <c r="E642" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F642" t="inlineStr"/>
-      <c r="G642" t="inlineStr">
-        <is>
-          <t>5.00%</t>
-        </is>
-      </c>
+      <c r="G642" t="inlineStr"/>
       <c r="H642" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C643" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Capacity UtilizationDEC</t>
         </is>
       </c>
       <c r="D643" t="inlineStr"/>
-      <c r="E643" t="inlineStr"/>
+      <c r="E643" t="inlineStr">
+        <is>
+          <t>76.8%</t>
+        </is>
+      </c>
       <c r="F643" t="inlineStr"/>
-      <c r="G643" t="inlineStr"/>
+      <c r="G643" t="inlineStr">
+        <is>
+          <t>77.8%</t>
+        </is>
+      </c>
       <c r="H643" t="inlineStr">
         <is>
           <t>3</t>
@@ -21462,91 +21114,99 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C644" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D644" t="inlineStr"/>
       <c r="E644" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="F644" t="inlineStr"/>
       <c r="G644" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H644" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C645" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Manufacturing Production MoMDEC</t>
         </is>
       </c>
       <c r="D645" t="inlineStr"/>
       <c r="E645" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F645" t="inlineStr"/>
       <c r="G645" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H645" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C646" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel MoMDEC</t>
+          <t>Manufacturing Production YoYDEC</t>
         </is>
       </c>
       <c r="D646" t="inlineStr"/>
-      <c r="E646" t="inlineStr"/>
+      <c r="E646" t="inlineStr">
+        <is>
+          <t>-1%</t>
+        </is>
+      </c>
       <c r="F646" t="inlineStr"/>
-      <c r="G646" t="inlineStr"/>
+      <c r="G646" t="inlineStr">
+        <is>
+          <t>-0.9%</t>
+        </is>
+      </c>
       <c r="H646" t="inlineStr">
         <is>
           <t>3</t>
@@ -21556,17 +21216,17 @@
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C647" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel YoYDEC</t>
+          <t>Baker Hughes Oil Rig CountJAN/17</t>
         </is>
       </c>
       <c r="D647" t="inlineStr"/>
@@ -21582,31 +21242,23 @@
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>12:50 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C648" t="inlineStr">
         <is>
-          <t>Loan Growth YoYDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/17</t>
         </is>
       </c>
       <c r="D648" t="inlineStr"/>
-      <c r="E648" t="inlineStr">
-        <is>
-          <t>10.79%</t>
-        </is>
-      </c>
+      <c r="E648" t="inlineStr"/>
       <c r="F648" t="inlineStr"/>
-      <c r="G648" t="inlineStr">
-        <is>
-          <t>10%</t>
-        </is>
-      </c>
+      <c r="G648" t="inlineStr"/>
       <c r="H648" t="inlineStr">
         <is>
           <t>3</t>
@@ -21614,25 +21266,21 @@
       </c>
     </row>
     <row r="649">
-      <c r="A649" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
+      <c r="A649" t="inlineStr"/>
       <c r="B649" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C649" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>50-Year KTB Auction</t>
         </is>
       </c>
       <c r="D649" t="inlineStr"/>
       <c r="E649" t="inlineStr">
         <is>
-          <t>€32B</t>
+          <t>2.40%</t>
         </is>
       </c>
       <c r="F649" t="inlineStr"/>
@@ -21646,53 +21294,37 @@
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
-      <c r="B650" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C650" t="inlineStr">
-        <is>
-          <t>Current Account s.aNOV</t>
-        </is>
-      </c>
+          <t>Saturday January 18 2025</t>
+        </is>
+      </c>
+      <c r="B650" t="inlineStr"/>
+      <c r="C650" t="inlineStr"/>
       <c r="D650" t="inlineStr"/>
-      <c r="E650" t="inlineStr">
-        <is>
-          <t>€33.5B</t>
-        </is>
-      </c>
+      <c r="E650" t="inlineStr"/>
       <c r="F650" t="inlineStr"/>
       <c r="G650" t="inlineStr"/>
-      <c r="H650" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H650" t="inlineStr"/>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C651" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Net Long-term TIC FlowsNOV</t>
         </is>
       </c>
       <c r="D651" t="inlineStr"/>
       <c r="E651" t="inlineStr">
         <is>
-          <t>€-3.93B</t>
+          <t>$152.3B</t>
         </is>
       </c>
       <c r="F651" t="inlineStr"/>
@@ -21706,798 +21338,58 @@
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C652" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Foreign Bond InvestmentNOV</t>
         </is>
       </c>
       <c r="D652" t="inlineStr"/>
       <c r="E652" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F652" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="G652" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+          <t>$92.1B</t>
+        </is>
+      </c>
+      <c r="F652" t="inlineStr"/>
+      <c r="G652" t="inlineStr"/>
       <c r="H652" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C653" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FinalDEC</t>
+          <t>Overall Net Capital FlowsNOV</t>
         </is>
       </c>
       <c r="D653" t="inlineStr"/>
       <c r="E653" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F653" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="G653" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+          <t>$203.6B</t>
+        </is>
+      </c>
+      <c r="F653" t="inlineStr"/>
+      <c r="G653" t="inlineStr"/>
       <c r="H653" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="654">
-      <c r="A654" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B654" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C654" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoM FinalDEC</t>
-        </is>
-      </c>
-      <c r="D654" t="inlineStr"/>
-      <c r="E654" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F654" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G654" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H654" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="655">
-      <c r="A655" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B655" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C655" t="inlineStr">
-        <is>
-          <t>CPI FinalDEC</t>
-        </is>
-      </c>
-      <c r="D655" t="inlineStr"/>
-      <c r="E655" t="inlineStr">
-        <is>
-          <t>126.62</t>
-        </is>
-      </c>
-      <c r="F655" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
-      <c r="G655" t="inlineStr">
-        <is>
-          <t>127</t>
-        </is>
-      </c>
-      <c r="H655" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="656">
-      <c r="A656" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B656" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C656" t="inlineStr">
-        <is>
-          <t>Current AccountNOV</t>
-        </is>
-      </c>
-      <c r="D656" t="inlineStr"/>
-      <c r="E656" t="inlineStr">
-        <is>
-          <t>€5628M</t>
-        </is>
-      </c>
-      <c r="F656" t="inlineStr"/>
-      <c r="G656" t="inlineStr"/>
-      <c r="H656" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="657">
-      <c r="A657" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
-      <c r="B657" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C657" t="inlineStr">
-        <is>
-          <t>Bank Loan Growth YoYJAN/03</t>
-        </is>
-      </c>
-      <c r="D657" t="inlineStr"/>
-      <c r="E657" t="inlineStr"/>
-      <c r="F657" t="inlineStr"/>
-      <c r="G657" t="inlineStr"/>
-      <c r="H657" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="658">
-      <c r="A658" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
-      <c r="B658" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C658" t="inlineStr">
-        <is>
-          <t>Deposit Growth YoYJAN/03</t>
-        </is>
-      </c>
-      <c r="D658" t="inlineStr"/>
-      <c r="E658" t="inlineStr"/>
-      <c r="F658" t="inlineStr"/>
-      <c r="G658" t="inlineStr"/>
-      <c r="H658" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="659">
-      <c r="A659" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
-      <c r="B659" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C659" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN/10</t>
-        </is>
-      </c>
-      <c r="D659" t="inlineStr"/>
-      <c r="E659" t="inlineStr"/>
-      <c r="F659" t="inlineStr"/>
-      <c r="G659" t="inlineStr"/>
-      <c r="H659" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="660">
-      <c r="A660" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B660" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C660" t="inlineStr">
-        <is>
-          <t>Foreign Securities PurchasesNOV</t>
-        </is>
-      </c>
-      <c r="D660" t="inlineStr"/>
-      <c r="E660" t="inlineStr">
-        <is>
-          <t>C$21.55B</t>
-        </is>
-      </c>
-      <c r="F660" t="inlineStr"/>
-      <c r="G660" t="inlineStr"/>
-      <c r="H660" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="661">
-      <c r="A661" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B661" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C661" t="inlineStr">
-        <is>
-          <t>Foreign Securities Purchases by CanadiansNOV</t>
-        </is>
-      </c>
-      <c r="D661" t="inlineStr"/>
-      <c r="E661" t="inlineStr">
-        <is>
-          <t>C$-2.65B</t>
-        </is>
-      </c>
-      <c r="F661" t="inlineStr"/>
-      <c r="G661" t="inlineStr"/>
-      <c r="H661" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="662">
-      <c r="A662" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B662" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C662" t="inlineStr">
-        <is>
-          <t>Building Permits PrelDEC</t>
-        </is>
-      </c>
-      <c r="D662" t="inlineStr"/>
-      <c r="E662" t="inlineStr">
-        <is>
-          <t>1.493M</t>
-        </is>
-      </c>
-      <c r="F662" t="inlineStr"/>
-      <c r="G662" t="inlineStr">
-        <is>
-          <t>1.6M</t>
-        </is>
-      </c>
-      <c r="H662" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="663">
-      <c r="A663" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B663" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C663" t="inlineStr">
-        <is>
-          <t>Housing StartsDEC</t>
-        </is>
-      </c>
-      <c r="D663" t="inlineStr"/>
-      <c r="E663" t="inlineStr">
-        <is>
-          <t>1.289M</t>
-        </is>
-      </c>
-      <c r="F663" t="inlineStr"/>
-      <c r="G663" t="inlineStr">
-        <is>
-          <t>1.5M</t>
-        </is>
-      </c>
-      <c r="H663" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="664">
-      <c r="A664" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B664" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C664" t="inlineStr">
-        <is>
-          <t>Building Permits MoM PrelDEC</t>
-        </is>
-      </c>
-      <c r="D664" t="inlineStr"/>
-      <c r="E664" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F664" t="inlineStr"/>
-      <c r="G664" t="inlineStr"/>
-      <c r="H664" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="665">
-      <c r="A665" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B665" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C665" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMDEC</t>
-        </is>
-      </c>
-      <c r="D665" t="inlineStr"/>
-      <c r="E665" t="inlineStr">
-        <is>
-          <t>-1.8%</t>
-        </is>
-      </c>
-      <c r="F665" t="inlineStr"/>
-      <c r="G665" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="H665" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="666">
-      <c r="A666" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B666" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C666" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMDEC</t>
-        </is>
-      </c>
-      <c r="D666" t="inlineStr"/>
-      <c r="E666" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F666" t="inlineStr"/>
-      <c r="G666" t="inlineStr"/>
-      <c r="H666" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="667">
-      <c r="A667" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B667" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C667" t="inlineStr">
-        <is>
-          <t>Capacity UtilizationDEC</t>
-        </is>
-      </c>
-      <c r="D667" t="inlineStr"/>
-      <c r="E667" t="inlineStr">
-        <is>
-          <t>76.8%</t>
-        </is>
-      </c>
-      <c r="F667" t="inlineStr"/>
-      <c r="G667" t="inlineStr">
-        <is>
-          <t>77.8%</t>
-        </is>
-      </c>
-      <c r="H667" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="668">
-      <c r="A668" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B668" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C668" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D668" t="inlineStr"/>
-      <c r="E668" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="F668" t="inlineStr"/>
-      <c r="G668" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="H668" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="669">
-      <c r="A669" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B669" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C669" t="inlineStr">
-        <is>
-          <t>Manufacturing Production MoMDEC</t>
-        </is>
-      </c>
-      <c r="D669" t="inlineStr"/>
-      <c r="E669" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F669" t="inlineStr"/>
-      <c r="G669" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H669" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="670">
-      <c r="A670" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B670" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C670" t="inlineStr">
-        <is>
-          <t>Manufacturing Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D670" t="inlineStr"/>
-      <c r="E670" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
-      <c r="F670" t="inlineStr"/>
-      <c r="G670" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="H670" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="671">
-      <c r="A671" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B671" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C671" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJAN/17</t>
-        </is>
-      </c>
-      <c r="D671" t="inlineStr"/>
-      <c r="E671" t="inlineStr"/>
-      <c r="F671" t="inlineStr"/>
-      <c r="G671" t="inlineStr"/>
-      <c r="H671" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="672">
-      <c r="A672" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B672" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C672" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJAN/17</t>
-        </is>
-      </c>
-      <c r="D672" t="inlineStr"/>
-      <c r="E672" t="inlineStr"/>
-      <c r="F672" t="inlineStr"/>
-      <c r="G672" t="inlineStr"/>
-      <c r="H672" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="673">
-      <c r="A673" t="inlineStr"/>
-      <c r="B673" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C673" t="inlineStr">
-        <is>
-          <t>50-Year KTB Auction</t>
-        </is>
-      </c>
-      <c r="D673" t="inlineStr"/>
-      <c r="E673" t="inlineStr">
-        <is>
-          <t>2.40%</t>
-        </is>
-      </c>
-      <c r="F673" t="inlineStr"/>
-      <c r="G673" t="inlineStr"/>
-      <c r="H673" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="674">
-      <c r="A674" t="inlineStr">
-        <is>
-          <t>Saturday January 18 2025</t>
-        </is>
-      </c>
-      <c r="B674" t="inlineStr"/>
-      <c r="C674" t="inlineStr"/>
-      <c r="D674" t="inlineStr"/>
-      <c r="E674" t="inlineStr"/>
-      <c r="F674" t="inlineStr"/>
-      <c r="G674" t="inlineStr"/>
-      <c r="H674" t="inlineStr"/>
-    </row>
-    <row r="675">
-      <c r="A675" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B675" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C675" t="inlineStr">
-        <is>
-          <t>Net Long-term TIC FlowsNOV</t>
-        </is>
-      </c>
-      <c r="D675" t="inlineStr"/>
-      <c r="E675" t="inlineStr">
-        <is>
-          <t>$152.3B</t>
-        </is>
-      </c>
-      <c r="F675" t="inlineStr"/>
-      <c r="G675" t="inlineStr"/>
-      <c r="H675" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="676">
-      <c r="A676" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B676" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C676" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentNOV</t>
-        </is>
-      </c>
-      <c r="D676" t="inlineStr"/>
-      <c r="E676" t="inlineStr">
-        <is>
-          <t>$92.1B</t>
-        </is>
-      </c>
-      <c r="F676" t="inlineStr"/>
-      <c r="G676" t="inlineStr"/>
-      <c r="H676" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="677">
-      <c r="A677" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B677" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C677" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsNOV</t>
-        </is>
-      </c>
-      <c r="D677" t="inlineStr"/>
-      <c r="E677" t="inlineStr">
-        <is>
-          <t>$203.6B</t>
-        </is>
-      </c>
-      <c r="F677" t="inlineStr"/>
-      <c r="G677" t="inlineStr"/>
-      <c r="H677" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-18.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H677"/>
+  <dimension ref="A1:H653"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14951,10 +14951,8 @@
       </c>
       <c r="F432" t="inlineStr"/>
       <c r="G432" t="inlineStr"/>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H432" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="433">
@@ -14981,10 +14979,8 @@
       </c>
       <c r="F433" t="inlineStr"/>
       <c r="G433" t="inlineStr"/>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H433" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="434">
@@ -15011,10 +15007,8 @@
       </c>
       <c r="F434" t="inlineStr"/>
       <c r="G434" t="inlineStr"/>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H434" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="435">
@@ -15041,10 +15035,8 @@
       </c>
       <c r="F435" t="inlineStr"/>
       <c r="G435" t="inlineStr"/>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H435" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="436">
@@ -15067,10 +15059,8 @@
       </c>
       <c r="F436" t="inlineStr"/>
       <c r="G436" t="inlineStr"/>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H436" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="437">
@@ -15093,10 +15083,8 @@
       </c>
       <c r="F437" t="inlineStr"/>
       <c r="G437" t="inlineStr"/>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H437" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="438">
@@ -15119,10 +15107,8 @@
       </c>
       <c r="F438" t="inlineStr"/>
       <c r="G438" t="inlineStr"/>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H438" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="439">
@@ -15149,10 +15135,8 @@
           <t>6.4%</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H439" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="440">
@@ -15175,10 +15159,8 @@
       </c>
       <c r="F440" t="inlineStr"/>
       <c r="G440" t="inlineStr"/>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H440" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="441">
@@ -15197,10 +15179,8 @@
       <c r="E441" t="inlineStr"/>
       <c r="F441" t="inlineStr"/>
       <c r="G441" t="inlineStr"/>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H441" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="442">
@@ -15241,10 +15221,8 @@
       </c>
       <c r="F443" t="inlineStr"/>
       <c r="G443" t="inlineStr"/>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H443" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="444">
@@ -15271,10 +15249,8 @@
       </c>
       <c r="F444" t="inlineStr"/>
       <c r="G444" t="inlineStr"/>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H444" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="445">
@@ -15301,10 +15277,8 @@
       </c>
       <c r="F445" t="inlineStr"/>
       <c r="G445" t="inlineStr"/>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H445" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="446">
@@ -15335,10 +15309,8 @@
           <t>¥1990.0B</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H446" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="447">
@@ -15369,10 +15341,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H447" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="448">
@@ -15399,10 +15369,8 @@
       </c>
       <c r="F448" t="inlineStr"/>
       <c r="G448" t="inlineStr"/>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H448" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="449">
@@ -15429,10 +15397,8 @@
       </c>
       <c r="F449" t="inlineStr"/>
       <c r="G449" t="inlineStr"/>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H449" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="450">
@@ -15459,10 +15425,8 @@
       </c>
       <c r="F450" t="inlineStr"/>
       <c r="G450" t="inlineStr"/>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H450" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="451">
@@ -15493,10 +15457,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H451" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="452">
@@ -15527,10 +15489,8 @@
           <t>49.6</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H452" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="453">
@@ -15557,10 +15517,8 @@
       </c>
       <c r="F453" t="inlineStr"/>
       <c r="G453" t="inlineStr"/>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H453" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="454">
@@ -15587,10 +15545,8 @@
       </c>
       <c r="F454" t="inlineStr"/>
       <c r="G454" t="inlineStr"/>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H454" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="455">
@@ -15621,10 +15577,8 @@
           <t>10.2%</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H455" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="456">
@@ -15655,10 +15609,8 @@
           <t>-3.2%</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H456" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="457">
@@ -15689,10 +15641,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H457" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="458">
@@ -15719,10 +15669,8 @@
       </c>
       <c r="F458" t="inlineStr"/>
       <c r="G458" t="inlineStr"/>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H458" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="459">
@@ -15749,10 +15697,8 @@
       </c>
       <c r="F459" t="inlineStr"/>
       <c r="G459" t="inlineStr"/>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H459" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="460">
@@ -15779,10 +15725,8 @@
       </c>
       <c r="F460" t="inlineStr"/>
       <c r="G460" t="inlineStr"/>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H460" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="461">
@@ -15805,10 +15749,8 @@
       <c r="E461" t="inlineStr"/>
       <c r="F461" t="inlineStr"/>
       <c r="G461" t="inlineStr"/>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H461" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="462">
@@ -15831,10 +15773,8 @@
       <c r="E462" t="inlineStr"/>
       <c r="F462" t="inlineStr"/>
       <c r="G462" t="inlineStr"/>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H462" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="463">
@@ -15861,10 +15801,8 @@
       </c>
       <c r="F463" t="inlineStr"/>
       <c r="G463" t="inlineStr"/>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H463" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="464">
@@ -15891,10 +15829,8 @@
       </c>
       <c r="F464" t="inlineStr"/>
       <c r="G464" t="inlineStr"/>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H464" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="465">
@@ -15925,10 +15861,8 @@
           <t>102</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H465" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="466">
@@ -15959,10 +15893,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H466" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="467">
@@ -15989,10 +15921,8 @@
       </c>
       <c r="F467" t="inlineStr"/>
       <c r="G467" t="inlineStr"/>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H467" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="468">
@@ -16023,10 +15953,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H468" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="469">
@@ -16057,10 +15985,8 @@
           <t>146.4</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H469" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="470">
@@ -16087,10 +16013,8 @@
       </c>
       <c r="F470" t="inlineStr"/>
       <c r="G470" t="inlineStr"/>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H470" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="471">
@@ -16117,10 +16041,8 @@
       </c>
       <c r="F471" t="inlineStr"/>
       <c r="G471" t="inlineStr"/>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H471" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="472">
@@ -16151,10 +16073,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H472" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="473">
@@ -16181,10 +16101,8 @@
       </c>
       <c r="F473" t="inlineStr"/>
       <c r="G473" t="inlineStr"/>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H473" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="474">
@@ -16211,10 +16129,8 @@
       </c>
       <c r="F474" t="inlineStr"/>
       <c r="G474" t="inlineStr"/>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H474" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="475">
@@ -16237,10 +16153,8 @@
       </c>
       <c r="F475" t="inlineStr"/>
       <c r="G475" t="inlineStr"/>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H475" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="476">
@@ -16285,10 +16199,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H477" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="478">
@@ -16319,10 +16231,8 @@
           <t>116.0%</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H478" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="479">
@@ -16353,10 +16263,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H479" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="480">
@@ -16387,10 +16295,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H480" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="481">
@@ -16417,10 +16323,8 @@
       </c>
       <c r="F481" t="inlineStr"/>
       <c r="G481" t="inlineStr"/>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H481" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="482">
@@ -16451,10 +16355,8 @@
           <t>$ 2.8B</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H482" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="483">
@@ -16481,10 +16383,8 @@
       </c>
       <c r="F483" t="inlineStr"/>
       <c r="G483" t="inlineStr"/>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H483" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="484">
@@ -16511,10 +16411,8 @@
       </c>
       <c r="F484" t="inlineStr"/>
       <c r="G484" t="inlineStr"/>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H484" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="485">
@@ -16541,10 +16439,8 @@
       </c>
       <c r="F485" t="inlineStr"/>
       <c r="G485" t="inlineStr"/>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H485" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="486">
@@ -16575,10 +16471,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H486" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="487">
@@ -16609,10 +16503,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H487" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="488">
@@ -16643,10 +16535,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H488" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="489">
@@ -16677,10 +16567,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H489" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="490">
@@ -16711,10 +16599,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H490" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="491">
@@ -16745,10 +16631,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H491" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="492">
@@ -16779,10 +16663,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H492" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="493">
@@ -16813,10 +16695,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H493" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="494">
@@ -16847,10 +16727,8 @@
           <t>2.1%</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H494" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="495">
@@ -16881,10 +16759,8 @@
           <t>-1.3%</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H495" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="496">
@@ -16915,10 +16791,8 @@
           <t>-1%</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H496" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="497">
@@ -16949,10 +16823,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H497" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="498">
@@ -16983,10 +16855,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H498" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="499">
@@ -17013,10 +16883,8 @@
       </c>
       <c r="F499" t="inlineStr"/>
       <c r="G499" t="inlineStr"/>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H499" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="500">
@@ -17047,10 +16915,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H500" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="501">
@@ -17073,10 +16939,8 @@
       <c r="E501" t="inlineStr"/>
       <c r="F501" t="inlineStr"/>
       <c r="G501" t="inlineStr"/>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H501" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="502">
@@ -17103,10 +16967,8 @@
       </c>
       <c r="F502" t="inlineStr"/>
       <c r="G502" t="inlineStr"/>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H502" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="503">
@@ -17133,10 +16995,8 @@
       </c>
       <c r="F503" t="inlineStr"/>
       <c r="G503" t="inlineStr"/>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H503" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="504">
@@ -17167,10 +17027,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H504" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="505">
@@ -17201,10 +17059,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H505" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="506">
@@ -17235,10 +17091,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H506" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="507">
@@ -17269,10 +17123,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H507" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="508">
@@ -17299,10 +17151,8 @@
       </c>
       <c r="F508" t="inlineStr"/>
       <c r="G508" t="inlineStr"/>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H508" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="509">
@@ -17337,10 +17187,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H509" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="510">
@@ -17375,10 +17223,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H510" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="511">
@@ -17413,10 +17259,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H511" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="512">
@@ -17447,10 +17291,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H512" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="513">
@@ -17481,10 +17323,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H513" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="514">
@@ -17511,10 +17351,8 @@
       </c>
       <c r="F514" t="inlineStr"/>
       <c r="G514" t="inlineStr"/>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H514" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="515">
@@ -17541,10 +17379,8 @@
       </c>
       <c r="F515" t="inlineStr"/>
       <c r="G515" t="inlineStr"/>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H515" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="516">
@@ -17571,10 +17407,8 @@
       </c>
       <c r="F516" t="inlineStr"/>
       <c r="G516" t="inlineStr"/>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H516" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="517">
@@ -17601,10 +17435,8 @@
       </c>
       <c r="F517" t="inlineStr"/>
       <c r="G517" t="inlineStr"/>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H517" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="518">
@@ -17631,10 +17463,8 @@
       </c>
       <c r="F518" t="inlineStr"/>
       <c r="G518" t="inlineStr"/>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H518" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="519">
@@ -17661,10 +17491,8 @@
       </c>
       <c r="F519" t="inlineStr"/>
       <c r="G519" t="inlineStr"/>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H519" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="520">
@@ -17687,10 +17515,8 @@
       <c r="E520" t="inlineStr"/>
       <c r="F520" t="inlineStr"/>
       <c r="G520" t="inlineStr"/>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H520" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="521">
@@ -17713,10 +17539,8 @@
       <c r="E521" t="inlineStr"/>
       <c r="F521" t="inlineStr"/>
       <c r="G521" t="inlineStr"/>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H521" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="522">
@@ -17739,10 +17563,8 @@
       <c r="E522" t="inlineStr"/>
       <c r="F522" t="inlineStr"/>
       <c r="G522" t="inlineStr"/>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H522" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="523">
@@ -17765,10 +17587,8 @@
       <c r="E523" t="inlineStr"/>
       <c r="F523" t="inlineStr"/>
       <c r="G523" t="inlineStr"/>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H523" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="524">
@@ -17791,10 +17611,8 @@
       <c r="E524" t="inlineStr"/>
       <c r="F524" t="inlineStr"/>
       <c r="G524" t="inlineStr"/>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H524" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="525">
@@ -17825,10 +17643,8 @@
           <t>$628.0B</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H525" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="526">
@@ -17863,10 +17679,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H526" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="527">
@@ -17893,10 +17707,8 @@
       </c>
       <c r="F527" t="inlineStr"/>
       <c r="G527" t="inlineStr"/>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H527" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="528">
@@ -17931,10 +17743,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H528" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="529">
@@ -17965,10 +17775,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H529" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="530">
@@ -17999,10 +17807,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H530" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="531">
@@ -18033,10 +17839,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H531" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="532">
@@ -18067,10 +17871,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H532" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="533">
@@ -18101,10 +17903,8 @@
           <t>313.8</t>
         </is>
       </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H533" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="534">
@@ -18135,10 +17935,8 @@
           <t>317.4</t>
         </is>
       </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H534" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="535">
@@ -18165,10 +17963,8 @@
       </c>
       <c r="F535" t="inlineStr"/>
       <c r="G535" t="inlineStr"/>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H535" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="536">
@@ -18191,10 +17987,8 @@
       <c r="E536" t="inlineStr"/>
       <c r="F536" t="inlineStr"/>
       <c r="G536" t="inlineStr"/>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H536" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="537">
@@ -18217,10 +18011,8 @@
       <c r="E537" t="inlineStr"/>
       <c r="F537" t="inlineStr"/>
       <c r="G537" t="inlineStr"/>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H537" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="538">
@@ -18243,10 +18035,8 @@
       <c r="E538" t="inlineStr"/>
       <c r="F538" t="inlineStr"/>
       <c r="G538" t="inlineStr"/>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H538" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="539">
@@ -18269,10 +18059,8 @@
       <c r="E539" t="inlineStr"/>
       <c r="F539" t="inlineStr"/>
       <c r="G539" t="inlineStr"/>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H539" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="540">
@@ -18295,10 +18083,8 @@
       <c r="E540" t="inlineStr"/>
       <c r="F540" t="inlineStr"/>
       <c r="G540" t="inlineStr"/>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H540" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="541">
@@ -18321,10 +18107,8 @@
       <c r="E541" t="inlineStr"/>
       <c r="F541" t="inlineStr"/>
       <c r="G541" t="inlineStr"/>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H541" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="542">
@@ -18347,10 +18131,8 @@
       <c r="E542" t="inlineStr"/>
       <c r="F542" t="inlineStr"/>
       <c r="G542" t="inlineStr"/>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H542" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="543">
@@ -18373,10 +18155,8 @@
       <c r="E543" t="inlineStr"/>
       <c r="F543" t="inlineStr"/>
       <c r="G543" t="inlineStr"/>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H543" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="544">
@@ -18399,10 +18179,8 @@
       <c r="E544" t="inlineStr"/>
       <c r="F544" t="inlineStr"/>
       <c r="G544" t="inlineStr"/>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H544" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="545">
@@ -18433,10 +18211,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H545" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="546">
@@ -18467,10 +18243,8 @@
           <t>9.5%</t>
         </is>
       </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H546" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="547">
@@ -18493,10 +18267,8 @@
       <c r="E547" t="inlineStr"/>
       <c r="F547" t="inlineStr"/>
       <c r="G547" t="inlineStr"/>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H547" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="548">
@@ -18527,10 +18299,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H548" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="549">
@@ -18557,10 +18327,8 @@
       </c>
       <c r="F549" t="inlineStr"/>
       <c r="G549" t="inlineStr"/>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H549" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="550">
@@ -18583,10 +18351,8 @@
       </c>
       <c r="F550" t="inlineStr"/>
       <c r="G550" t="inlineStr"/>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H550" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="551">
@@ -18613,10 +18379,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H551" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="552">
@@ -18643,10 +18407,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H552" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="553">
@@ -18673,10 +18435,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H553" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="554">
@@ -18695,10 +18455,8 @@
       <c r="E554" t="inlineStr"/>
       <c r="F554" t="inlineStr"/>
       <c r="G554" t="inlineStr"/>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H554" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="555">
@@ -18717,10 +18475,8 @@
       <c r="E555" t="inlineStr"/>
       <c r="F555" t="inlineStr"/>
       <c r="G555" t="inlineStr"/>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H555" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="556">
@@ -18747,10 +18503,8 @@
           <t>$ -23B</t>
         </is>
       </c>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H556" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="557">
@@ -18777,10 +18531,8 @@
           <t>$ 36B</t>
         </is>
       </c>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H557" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="558">
@@ -18807,10 +18559,8 @@
           <t>$ 59B</t>
         </is>
       </c>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H558" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="559">
@@ -18855,10 +18605,8 @@
           <t>3.30%</t>
         </is>
       </c>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H560" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="561">
@@ -18885,10 +18633,8 @@
       </c>
       <c r="F561" t="inlineStr"/>
       <c r="G561" t="inlineStr"/>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H561" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="562">
@@ -18919,10 +18665,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H562" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H562" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="563">
@@ -18953,10 +18697,8 @@
           <t>17.0%</t>
         </is>
       </c>
-      <c r="H563" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H563" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="564">
@@ -18987,10 +18729,8 @@
           <t>4.30%</t>
         </is>
       </c>
-      <c r="H564" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H564" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="565">
@@ -19021,10 +18761,8 @@
           <t>25.1K</t>
         </is>
       </c>
-      <c r="H565" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H565" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="566">
@@ -19051,10 +18789,8 @@
       </c>
       <c r="F566" t="inlineStr"/>
       <c r="G566" t="inlineStr"/>
-      <c r="H566" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H566" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="567">
@@ -19081,10 +18817,8 @@
       </c>
       <c r="F567" t="inlineStr"/>
       <c r="G567" t="inlineStr"/>
-      <c r="H567" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H567" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="568">
@@ -19115,10 +18849,8 @@
           <t>66.8%</t>
         </is>
       </c>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H568" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="569">
@@ -19145,10 +18877,8 @@
       </c>
       <c r="F569" t="inlineStr"/>
       <c r="G569" t="inlineStr"/>
-      <c r="H569" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H569" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="570">
@@ -19175,10 +18905,8 @@
       </c>
       <c r="F570" t="inlineStr"/>
       <c r="G570" t="inlineStr"/>
-      <c r="H570" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H570" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="571">
@@ -19205,10 +18933,8 @@
       </c>
       <c r="F571" t="inlineStr"/>
       <c r="G571" t="inlineStr"/>
-      <c r="H571" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H571" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="572">
@@ -19235,10 +18961,8 @@
       </c>
       <c r="F572" t="inlineStr"/>
       <c r="G572" t="inlineStr"/>
-      <c r="H572" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H572" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="573">
@@ -19273,10 +18997,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H573" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H573" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="574">
@@ -19307,10 +19029,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H574" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H574" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="575">
@@ -19345,10 +19065,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H575" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H575" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="576">
@@ -19383,10 +19101,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H576" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H576" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="577">
@@ -19417,10 +19133,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H577" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H577" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="578">
@@ -19451,10 +19165,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H578" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H578" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="579">
@@ -19485,10 +19197,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H579" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H579" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="580">
@@ -19515,10 +19225,8 @@
       </c>
       <c r="F580" t="inlineStr"/>
       <c r="G580" t="inlineStr"/>
-      <c r="H580" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H580" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="581">
@@ -19545,10 +19253,8 @@
       </c>
       <c r="F581" t="inlineStr"/>
       <c r="G581" t="inlineStr"/>
-      <c r="H581" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H581" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="582">
@@ -19575,10 +19281,8 @@
       </c>
       <c r="F582" t="inlineStr"/>
       <c r="G582" t="inlineStr"/>
-      <c r="H582" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H582" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="583">
@@ -19605,10 +19309,8 @@
       </c>
       <c r="F583" t="inlineStr"/>
       <c r="G583" t="inlineStr"/>
-      <c r="H583" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H583" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="584">
@@ -19635,10 +19337,8 @@
       </c>
       <c r="F584" t="inlineStr"/>
       <c r="G584" t="inlineStr"/>
-      <c r="H584" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H584" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="585">
@@ -19669,10 +19369,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H585" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H585" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="586">
@@ -19699,10 +19397,8 @@
       </c>
       <c r="F586" t="inlineStr"/>
       <c r="G586" t="inlineStr"/>
-      <c r="H586" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H586" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="587">
@@ -19729,10 +19425,8 @@
       </c>
       <c r="F587" t="inlineStr"/>
       <c r="G587" t="inlineStr"/>
-      <c r="H587" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H587" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="588">
@@ -19759,10 +19453,8 @@
       </c>
       <c r="F588" t="inlineStr"/>
       <c r="G588" t="inlineStr"/>
-      <c r="H588" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H588" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="589">
@@ -19797,10 +19489,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H589" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H589" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="590">
@@ -19835,10 +19525,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H590" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H590" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="591">
@@ -19873,10 +19561,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H591" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H591" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="592">
@@ -19911,10 +19597,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H592" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H592" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="593">
@@ -19937,10 +19621,8 @@
       <c r="E593" t="inlineStr"/>
       <c r="F593" t="inlineStr"/>
       <c r="G593" t="inlineStr"/>
-      <c r="H593" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H593" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="594">
@@ -19963,10 +19645,8 @@
       <c r="E594" t="inlineStr"/>
       <c r="F594" t="inlineStr"/>
       <c r="G594" t="inlineStr"/>
-      <c r="H594" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H594" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="595">
@@ -19989,10 +19669,8 @@
       <c r="E595" t="inlineStr"/>
       <c r="F595" t="inlineStr"/>
       <c r="G595" t="inlineStr"/>
-      <c r="H595" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H595" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="596">
@@ -20019,10 +19697,8 @@
       </c>
       <c r="F596" t="inlineStr"/>
       <c r="G596" t="inlineStr"/>
-      <c r="H596" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H596" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="597">
@@ -20045,10 +19721,8 @@
       <c r="E597" t="inlineStr"/>
       <c r="F597" t="inlineStr"/>
       <c r="G597" t="inlineStr"/>
-      <c r="H597" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H597" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="598">
@@ -20075,10 +19749,8 @@
       </c>
       <c r="F598" t="inlineStr"/>
       <c r="G598" t="inlineStr"/>
-      <c r="H598" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H598" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="599">
@@ -20109,10 +19781,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H599" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H599" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="600">
@@ -20143,10 +19813,8 @@
           <t>220K</t>
         </is>
       </c>
-      <c r="H600" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H600" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="601">
@@ -20177,10 +19845,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H601" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H601" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="602">
@@ -20211,10 +19877,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H602" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H602" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="603">
@@ -20241,10 +19905,8 @@
       </c>
       <c r="F603" t="inlineStr"/>
       <c r="G603" t="inlineStr"/>
-      <c r="H603" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H603" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="604">
@@ -20267,10 +19929,8 @@
       <c r="E604" t="inlineStr"/>
       <c r="F604" t="inlineStr"/>
       <c r="G604" t="inlineStr"/>
-      <c r="H604" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H604" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="605">
@@ -20297,10 +19957,8 @@
       </c>
       <c r="F605" t="inlineStr"/>
       <c r="G605" t="inlineStr"/>
-      <c r="H605" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H605" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="606">
@@ -20331,10 +19989,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H606" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H606" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="607">
@@ -20357,10 +20013,8 @@
       <c r="E607" t="inlineStr"/>
       <c r="F607" t="inlineStr"/>
       <c r="G607" t="inlineStr"/>
-      <c r="H607" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H607" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="608">
@@ -20387,10 +20041,8 @@
       </c>
       <c r="F608" t="inlineStr"/>
       <c r="G608" t="inlineStr"/>
-      <c r="H608" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H608" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="609">
@@ -20421,10 +20073,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H609" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H609" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="610">
@@ -20447,10 +20097,8 @@
       <c r="E610" t="inlineStr"/>
       <c r="F610" t="inlineStr"/>
       <c r="G610" t="inlineStr"/>
-      <c r="H610" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H610" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="611">
@@ -20477,10 +20125,8 @@
       </c>
       <c r="F611" t="inlineStr"/>
       <c r="G611" t="inlineStr"/>
-      <c r="H611" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H611" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="612">
@@ -20507,10 +20153,8 @@
       </c>
       <c r="F612" t="inlineStr"/>
       <c r="G612" t="inlineStr"/>
-      <c r="H612" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H612" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="613">
@@ -20537,10 +20181,8 @@
       </c>
       <c r="F613" t="inlineStr"/>
       <c r="G613" t="inlineStr"/>
-      <c r="H613" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H613" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="614">
@@ -20567,10 +20209,8 @@
       </c>
       <c r="F614" t="inlineStr"/>
       <c r="G614" t="inlineStr"/>
-      <c r="H614" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H614" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="615">
@@ -20597,10 +20237,8 @@
       </c>
       <c r="F615" t="inlineStr"/>
       <c r="G615" t="inlineStr"/>
-      <c r="H615" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H615" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="616">
@@ -20631,10 +20269,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H616" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H616" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="617">
@@ -20665,10 +20301,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H617" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H617" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="618">
@@ -20695,10 +20329,8 @@
       </c>
       <c r="F618" t="inlineStr"/>
       <c r="G618" t="inlineStr"/>
-      <c r="H618" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H618" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="619">
@@ -20725,10 +20357,8 @@
       </c>
       <c r="F619" t="inlineStr"/>
       <c r="G619" t="inlineStr"/>
-      <c r="H619" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H619" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="620">
@@ -20755,10 +20385,8 @@
       </c>
       <c r="F620" t="inlineStr"/>
       <c r="G620" t="inlineStr"/>
-      <c r="H620" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H620" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="621">
@@ -20781,10 +20409,8 @@
       <c r="E621" t="inlineStr"/>
       <c r="F621" t="inlineStr"/>
       <c r="G621" t="inlineStr"/>
-      <c r="H621" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H621" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="622">
@@ -20807,10 +20433,8 @@
       <c r="E622" t="inlineStr"/>
       <c r="F622" t="inlineStr"/>
       <c r="G622" t="inlineStr"/>
-      <c r="H622" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H622" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="623">
@@ -20833,10 +20457,8 @@
       <c r="E623" t="inlineStr"/>
       <c r="F623" t="inlineStr"/>
       <c r="G623" t="inlineStr"/>
-      <c r="H623" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H623" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="624">
@@ -20859,10 +20481,8 @@
       <c r="E624" t="inlineStr"/>
       <c r="F624" t="inlineStr"/>
       <c r="G624" t="inlineStr"/>
-      <c r="H624" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H624" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="625">
@@ -20885,106 +20505,140 @@
       <c r="E625" t="inlineStr"/>
       <c r="F625" t="inlineStr"/>
       <c r="G625" t="inlineStr"/>
-      <c r="H625" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H625" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>Friday January 17 2025</t>
-        </is>
-      </c>
-      <c r="B626" t="inlineStr"/>
-      <c r="C626" t="inlineStr"/>
+          <t>02:30 PM</t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C626" t="inlineStr">
+        <is>
+          <t>Current Account s.aNOV</t>
+        </is>
+      </c>
       <c r="D626" t="inlineStr"/>
-      <c r="E626" t="inlineStr"/>
+      <c r="E626" t="inlineStr">
+        <is>
+          <t>€33.5B</t>
+        </is>
+      </c>
       <c r="F626" t="inlineStr"/>
       <c r="G626" t="inlineStr"/>
-      <c r="H626" t="inlineStr"/>
+      <c r="H626" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C627" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/15</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D627" t="inlineStr"/>
-      <c r="E627" t="inlineStr"/>
+      <c r="E627" t="inlineStr">
+        <is>
+          <t>€-3.93B</t>
+        </is>
+      </c>
       <c r="F627" t="inlineStr"/>
       <c r="G627" t="inlineStr"/>
       <c r="H627" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C628" t="inlineStr">
         <is>
-          <t>Reuters Tankan IndexJAN</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D628" t="inlineStr"/>
       <c r="E628" t="inlineStr">
         <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="F628" t="inlineStr"/>
+          <t>2.2%</t>
+        </is>
+      </c>
+      <c r="F628" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
       <c r="G628" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="H628" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C629" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/11</t>
+          <t>Core Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D629" t="inlineStr"/>
-      <c r="E629" t="inlineStr"/>
-      <c r="F629" t="inlineStr"/>
-      <c r="G629" t="inlineStr"/>
+      <c r="E629" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="F629" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="G629" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="H629" t="inlineStr">
         <is>
           <t>3</t>
@@ -20994,23 +20648,35 @@
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C630" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersJAN/11</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D630" t="inlineStr"/>
-      <c r="E630" t="inlineStr"/>
-      <c r="F630" t="inlineStr"/>
-      <c r="G630" t="inlineStr"/>
+      <c r="E630" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="F630" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G630" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H630" t="inlineStr">
         <is>
           <t>3</t>
@@ -21020,29 +20686,33 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C631" t="inlineStr">
         <is>
-          <t>Non-Oil Exports MoMDEC</t>
+          <t>CPI FinalDEC</t>
         </is>
       </c>
       <c r="D631" t="inlineStr"/>
       <c r="E631" t="inlineStr">
         <is>
-          <t>14.7%</t>
-        </is>
-      </c>
-      <c r="F631" t="inlineStr"/>
+          <t>126.62</t>
+        </is>
+      </c>
+      <c r="F631" t="inlineStr">
+        <is>
+          <t>127.08</t>
+        </is>
+      </c>
       <c r="G631" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>127</t>
         </is>
       </c>
       <c r="H631" t="inlineStr">
@@ -21054,31 +20724,27 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C632" t="inlineStr">
         <is>
-          <t>Non-Oil Exports YoYDEC</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D632" t="inlineStr"/>
       <c r="E632" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>€5628M</t>
         </is>
       </c>
       <c r="F632" t="inlineStr"/>
-      <c r="G632" t="inlineStr">
-        <is>
-          <t>7.5%</t>
-        </is>
-      </c>
+      <c r="G632" t="inlineStr"/>
       <c r="H632" t="inlineStr">
         <is>
           <t>3</t>
@@ -21088,25 +20754,21 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C633" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsJAN</t>
+          <t>Bank Loan Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D633" t="inlineStr"/>
-      <c r="E633" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
+      <c r="E633" t="inlineStr"/>
       <c r="F633" t="inlineStr"/>
       <c r="G633" t="inlineStr"/>
       <c r="H633" t="inlineStr">
@@ -21118,65 +20780,49 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C634" t="inlineStr">
         <is>
-          <t>House Price Index YoYDEC</t>
+          <t>Deposit Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D634" t="inlineStr"/>
-      <c r="E634" t="inlineStr">
-        <is>
-          <t>-5.7%</t>
-        </is>
-      </c>
+      <c r="E634" t="inlineStr"/>
       <c r="F634" t="inlineStr"/>
-      <c r="G634" t="inlineStr">
-        <is>
-          <t>-5.8%</t>
-        </is>
-      </c>
+      <c r="G634" t="inlineStr"/>
       <c r="H634" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C635" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Foreign Exchange ReservesJAN/10</t>
         </is>
       </c>
       <c r="D635" t="inlineStr"/>
-      <c r="E635" t="inlineStr">
-        <is>
-          <t>$6.52B</t>
-        </is>
-      </c>
+      <c r="E635" t="inlineStr"/>
       <c r="F635" t="inlineStr"/>
-      <c r="G635" t="inlineStr">
-        <is>
-          <t>$ 3.6B</t>
-        </is>
-      </c>
+      <c r="G635" t="inlineStr"/>
       <c r="H635" t="inlineStr">
         <is>
           <t>3</t>
@@ -21186,97 +20832,89 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C636" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoYQ4</t>
+          <t>Foreign Securities PurchasesNOV</t>
         </is>
       </c>
       <c r="D636" t="inlineStr"/>
       <c r="E636" t="inlineStr">
         <is>
-          <t>4.6%</t>
+          <t>C$21.55B</t>
         </is>
       </c>
       <c r="F636" t="inlineStr"/>
-      <c r="G636" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
+      <c r="G636" t="inlineStr"/>
       <c r="H636" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C637" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Foreign Securities Purchases by CanadiansNOV</t>
         </is>
       </c>
       <c r="D637" t="inlineStr"/>
       <c r="E637" t="inlineStr">
         <is>
-          <t>5.4%</t>
+          <t>C$-2.65B</t>
         </is>
       </c>
       <c r="F637" t="inlineStr"/>
-      <c r="G637" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="G637" t="inlineStr"/>
       <c r="H637" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C638" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Building Permits PrelDEC</t>
         </is>
       </c>
       <c r="D638" t="inlineStr"/>
       <c r="E638" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>1.493M</t>
         </is>
       </c>
       <c r="F638" t="inlineStr"/>
       <c r="G638" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>1.6M</t>
         </is>
       </c>
       <c r="H638" t="inlineStr">
@@ -21288,65 +20926,61 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C639" t="inlineStr">
         <is>
-          <t>Fixed Asset Investment (YTD) YoYDEC</t>
+          <t>Housing StartsDEC</t>
         </is>
       </c>
       <c r="D639" t="inlineStr"/>
       <c r="E639" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>1.289M</t>
         </is>
       </c>
       <c r="F639" t="inlineStr"/>
       <c r="G639" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>1.5M</t>
         </is>
       </c>
       <c r="H639" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C640" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQQ4</t>
+          <t>Building Permits MoM PrelDEC</t>
         </is>
       </c>
       <c r="D640" t="inlineStr"/>
       <c r="E640" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F640" t="inlineStr"/>
-      <c r="G640" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="G640" t="inlineStr"/>
       <c r="H640" t="inlineStr">
         <is>
           <t>2</t>
@@ -21356,91 +20990,95 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C641" t="inlineStr">
         <is>
-          <t>Industrial Capacity UtilizationQ4</t>
+          <t>Housing Starts MoMDEC</t>
         </is>
       </c>
       <c r="D641" t="inlineStr"/>
       <c r="E641" t="inlineStr">
         <is>
-          <t>75.1%</t>
+          <t>-1.8%</t>
         </is>
       </c>
       <c r="F641" t="inlineStr"/>
       <c r="G641" t="inlineStr">
         <is>
-          <t>74.9%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="H641" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C642" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D642" t="inlineStr"/>
       <c r="E642" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F642" t="inlineStr"/>
-      <c r="G642" t="inlineStr">
-        <is>
-          <t>5.00%</t>
-        </is>
-      </c>
+      <c r="G642" t="inlineStr"/>
       <c r="H642" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C643" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Capacity UtilizationDEC</t>
         </is>
       </c>
       <c r="D643" t="inlineStr"/>
-      <c r="E643" t="inlineStr"/>
+      <c r="E643" t="inlineStr">
+        <is>
+          <t>76.8%</t>
+        </is>
+      </c>
       <c r="F643" t="inlineStr"/>
-      <c r="G643" t="inlineStr"/>
+      <c r="G643" t="inlineStr">
+        <is>
+          <t>77.8%</t>
+        </is>
+      </c>
       <c r="H643" t="inlineStr">
         <is>
           <t>3</t>
@@ -21450,91 +21088,99 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C644" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D644" t="inlineStr"/>
       <c r="E644" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="F644" t="inlineStr"/>
       <c r="G644" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H644" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C645" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Manufacturing Production MoMDEC</t>
         </is>
       </c>
       <c r="D645" t="inlineStr"/>
       <c r="E645" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F645" t="inlineStr"/>
       <c r="G645" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H645" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C646" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel MoMDEC</t>
+          <t>Manufacturing Production YoYDEC</t>
         </is>
       </c>
       <c r="D646" t="inlineStr"/>
-      <c r="E646" t="inlineStr"/>
+      <c r="E646" t="inlineStr">
+        <is>
+          <t>-1%</t>
+        </is>
+      </c>
       <c r="F646" t="inlineStr"/>
-      <c r="G646" t="inlineStr"/>
+      <c r="G646" t="inlineStr">
+        <is>
+          <t>-0.9%</t>
+        </is>
+      </c>
       <c r="H646" t="inlineStr">
         <is>
           <t>3</t>
@@ -21544,17 +21190,17 @@
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C647" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel YoYDEC</t>
+          <t>Baker Hughes Oil Rig CountJAN/17</t>
         </is>
       </c>
       <c r="D647" t="inlineStr"/>
@@ -21570,31 +21216,23 @@
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>12:50 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C648" t="inlineStr">
         <is>
-          <t>Loan Growth YoYDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/17</t>
         </is>
       </c>
       <c r="D648" t="inlineStr"/>
-      <c r="E648" t="inlineStr">
-        <is>
-          <t>10.79%</t>
-        </is>
-      </c>
+      <c r="E648" t="inlineStr"/>
       <c r="F648" t="inlineStr"/>
-      <c r="G648" t="inlineStr">
-        <is>
-          <t>10%</t>
-        </is>
-      </c>
+      <c r="G648" t="inlineStr"/>
       <c r="H648" t="inlineStr">
         <is>
           <t>3</t>
@@ -21602,25 +21240,21 @@
       </c>
     </row>
     <row r="649">
-      <c r="A649" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
+      <c r="A649" t="inlineStr"/>
       <c r="B649" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C649" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>50-Year KTB Auction</t>
         </is>
       </c>
       <c r="D649" t="inlineStr"/>
       <c r="E649" t="inlineStr">
         <is>
-          <t>€32B</t>
+          <t>2.40%</t>
         </is>
       </c>
       <c r="F649" t="inlineStr"/>
@@ -21634,53 +21268,37 @@
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
-      <c r="B650" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C650" t="inlineStr">
-        <is>
-          <t>Current Account s.aNOV</t>
-        </is>
-      </c>
+          <t>Saturday January 18 2025</t>
+        </is>
+      </c>
+      <c r="B650" t="inlineStr"/>
+      <c r="C650" t="inlineStr"/>
       <c r="D650" t="inlineStr"/>
-      <c r="E650" t="inlineStr">
-        <is>
-          <t>€33.5B</t>
-        </is>
-      </c>
+      <c r="E650" t="inlineStr"/>
       <c r="F650" t="inlineStr"/>
       <c r="G650" t="inlineStr"/>
-      <c r="H650" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H650" t="inlineStr"/>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C651" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Net Long-term TIC FlowsNOV</t>
         </is>
       </c>
       <c r="D651" t="inlineStr"/>
       <c r="E651" t="inlineStr">
         <is>
-          <t>€-3.93B</t>
+          <t>$152.3B</t>
         </is>
       </c>
       <c r="F651" t="inlineStr"/>
@@ -21694,798 +21312,58 @@
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C652" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Foreign Bond InvestmentNOV</t>
         </is>
       </c>
       <c r="D652" t="inlineStr"/>
       <c r="E652" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F652" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="G652" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+          <t>$92.1B</t>
+        </is>
+      </c>
+      <c r="F652" t="inlineStr"/>
+      <c r="G652" t="inlineStr"/>
       <c r="H652" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C653" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FinalDEC</t>
+          <t>Overall Net Capital FlowsNOV</t>
         </is>
       </c>
       <c r="D653" t="inlineStr"/>
       <c r="E653" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F653" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="G653" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+          <t>$203.6B</t>
+        </is>
+      </c>
+      <c r="F653" t="inlineStr"/>
+      <c r="G653" t="inlineStr"/>
       <c r="H653" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="654">
-      <c r="A654" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B654" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C654" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoM FinalDEC</t>
-        </is>
-      </c>
-      <c r="D654" t="inlineStr"/>
-      <c r="E654" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F654" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G654" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H654" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="655">
-      <c r="A655" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B655" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C655" t="inlineStr">
-        <is>
-          <t>CPI FinalDEC</t>
-        </is>
-      </c>
-      <c r="D655" t="inlineStr"/>
-      <c r="E655" t="inlineStr">
-        <is>
-          <t>126.62</t>
-        </is>
-      </c>
-      <c r="F655" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
-      <c r="G655" t="inlineStr">
-        <is>
-          <t>127</t>
-        </is>
-      </c>
-      <c r="H655" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="656">
-      <c r="A656" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B656" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C656" t="inlineStr">
-        <is>
-          <t>Current AccountNOV</t>
-        </is>
-      </c>
-      <c r="D656" t="inlineStr"/>
-      <c r="E656" t="inlineStr">
-        <is>
-          <t>€5628M</t>
-        </is>
-      </c>
-      <c r="F656" t="inlineStr"/>
-      <c r="G656" t="inlineStr"/>
-      <c r="H656" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="657">
-      <c r="A657" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
-      <c r="B657" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C657" t="inlineStr">
-        <is>
-          <t>Bank Loan Growth YoYJAN/03</t>
-        </is>
-      </c>
-      <c r="D657" t="inlineStr"/>
-      <c r="E657" t="inlineStr"/>
-      <c r="F657" t="inlineStr"/>
-      <c r="G657" t="inlineStr"/>
-      <c r="H657" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="658">
-      <c r="A658" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
-      <c r="B658" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C658" t="inlineStr">
-        <is>
-          <t>Deposit Growth YoYJAN/03</t>
-        </is>
-      </c>
-      <c r="D658" t="inlineStr"/>
-      <c r="E658" t="inlineStr"/>
-      <c r="F658" t="inlineStr"/>
-      <c r="G658" t="inlineStr"/>
-      <c r="H658" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="659">
-      <c r="A659" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
-      <c r="B659" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C659" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN/10</t>
-        </is>
-      </c>
-      <c r="D659" t="inlineStr"/>
-      <c r="E659" t="inlineStr"/>
-      <c r="F659" t="inlineStr"/>
-      <c r="G659" t="inlineStr"/>
-      <c r="H659" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="660">
-      <c r="A660" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B660" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C660" t="inlineStr">
-        <is>
-          <t>Foreign Securities PurchasesNOV</t>
-        </is>
-      </c>
-      <c r="D660" t="inlineStr"/>
-      <c r="E660" t="inlineStr">
-        <is>
-          <t>C$21.55B</t>
-        </is>
-      </c>
-      <c r="F660" t="inlineStr"/>
-      <c r="G660" t="inlineStr"/>
-      <c r="H660" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="661">
-      <c r="A661" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B661" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C661" t="inlineStr">
-        <is>
-          <t>Foreign Securities Purchases by CanadiansNOV</t>
-        </is>
-      </c>
-      <c r="D661" t="inlineStr"/>
-      <c r="E661" t="inlineStr">
-        <is>
-          <t>C$-2.65B</t>
-        </is>
-      </c>
-      <c r="F661" t="inlineStr"/>
-      <c r="G661" t="inlineStr"/>
-      <c r="H661" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="662">
-      <c r="A662" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B662" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C662" t="inlineStr">
-        <is>
-          <t>Building Permits PrelDEC</t>
-        </is>
-      </c>
-      <c r="D662" t="inlineStr"/>
-      <c r="E662" t="inlineStr">
-        <is>
-          <t>1.493M</t>
-        </is>
-      </c>
-      <c r="F662" t="inlineStr"/>
-      <c r="G662" t="inlineStr">
-        <is>
-          <t>1.6M</t>
-        </is>
-      </c>
-      <c r="H662" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="663">
-      <c r="A663" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B663" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C663" t="inlineStr">
-        <is>
-          <t>Housing StartsDEC</t>
-        </is>
-      </c>
-      <c r="D663" t="inlineStr"/>
-      <c r="E663" t="inlineStr">
-        <is>
-          <t>1.289M</t>
-        </is>
-      </c>
-      <c r="F663" t="inlineStr"/>
-      <c r="G663" t="inlineStr">
-        <is>
-          <t>1.5M</t>
-        </is>
-      </c>
-      <c r="H663" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="664">
-      <c r="A664" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B664" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C664" t="inlineStr">
-        <is>
-          <t>Building Permits MoM PrelDEC</t>
-        </is>
-      </c>
-      <c r="D664" t="inlineStr"/>
-      <c r="E664" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F664" t="inlineStr"/>
-      <c r="G664" t="inlineStr"/>
-      <c r="H664" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="665">
-      <c r="A665" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B665" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C665" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMDEC</t>
-        </is>
-      </c>
-      <c r="D665" t="inlineStr"/>
-      <c r="E665" t="inlineStr">
-        <is>
-          <t>-1.8%</t>
-        </is>
-      </c>
-      <c r="F665" t="inlineStr"/>
-      <c r="G665" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="H665" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="666">
-      <c r="A666" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B666" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C666" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMDEC</t>
-        </is>
-      </c>
-      <c r="D666" t="inlineStr"/>
-      <c r="E666" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F666" t="inlineStr"/>
-      <c r="G666" t="inlineStr"/>
-      <c r="H666" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="667">
-      <c r="A667" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B667" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C667" t="inlineStr">
-        <is>
-          <t>Capacity UtilizationDEC</t>
-        </is>
-      </c>
-      <c r="D667" t="inlineStr"/>
-      <c r="E667" t="inlineStr">
-        <is>
-          <t>76.8%</t>
-        </is>
-      </c>
-      <c r="F667" t="inlineStr"/>
-      <c r="G667" t="inlineStr">
-        <is>
-          <t>77.8%</t>
-        </is>
-      </c>
-      <c r="H667" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="668">
-      <c r="A668" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B668" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C668" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D668" t="inlineStr"/>
-      <c r="E668" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="F668" t="inlineStr"/>
-      <c r="G668" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="H668" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="669">
-      <c r="A669" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B669" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C669" t="inlineStr">
-        <is>
-          <t>Manufacturing Production MoMDEC</t>
-        </is>
-      </c>
-      <c r="D669" t="inlineStr"/>
-      <c r="E669" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F669" t="inlineStr"/>
-      <c r="G669" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H669" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="670">
-      <c r="A670" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B670" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C670" t="inlineStr">
-        <is>
-          <t>Manufacturing Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D670" t="inlineStr"/>
-      <c r="E670" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
-      <c r="F670" t="inlineStr"/>
-      <c r="G670" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="H670" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="671">
-      <c r="A671" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B671" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C671" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJAN/17</t>
-        </is>
-      </c>
-      <c r="D671" t="inlineStr"/>
-      <c r="E671" t="inlineStr"/>
-      <c r="F671" t="inlineStr"/>
-      <c r="G671" t="inlineStr"/>
-      <c r="H671" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="672">
-      <c r="A672" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B672" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C672" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJAN/17</t>
-        </is>
-      </c>
-      <c r="D672" t="inlineStr"/>
-      <c r="E672" t="inlineStr"/>
-      <c r="F672" t="inlineStr"/>
-      <c r="G672" t="inlineStr"/>
-      <c r="H672" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="673">
-      <c r="A673" t="inlineStr"/>
-      <c r="B673" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C673" t="inlineStr">
-        <is>
-          <t>50-Year KTB Auction</t>
-        </is>
-      </c>
-      <c r="D673" t="inlineStr"/>
-      <c r="E673" t="inlineStr">
-        <is>
-          <t>2.40%</t>
-        </is>
-      </c>
-      <c r="F673" t="inlineStr"/>
-      <c r="G673" t="inlineStr"/>
-      <c r="H673" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="674">
-      <c r="A674" t="inlineStr">
-        <is>
-          <t>Saturday January 18 2025</t>
-        </is>
-      </c>
-      <c r="B674" t="inlineStr"/>
-      <c r="C674" t="inlineStr"/>
-      <c r="D674" t="inlineStr"/>
-      <c r="E674" t="inlineStr"/>
-      <c r="F674" t="inlineStr"/>
-      <c r="G674" t="inlineStr"/>
-      <c r="H674" t="inlineStr"/>
-    </row>
-    <row r="675">
-      <c r="A675" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B675" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C675" t="inlineStr">
-        <is>
-          <t>Net Long-term TIC FlowsNOV</t>
-        </is>
-      </c>
-      <c r="D675" t="inlineStr"/>
-      <c r="E675" t="inlineStr">
-        <is>
-          <t>$152.3B</t>
-        </is>
-      </c>
-      <c r="F675" t="inlineStr"/>
-      <c r="G675" t="inlineStr"/>
-      <c r="H675" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="676">
-      <c r="A676" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B676" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C676" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentNOV</t>
-        </is>
-      </c>
-      <c r="D676" t="inlineStr"/>
-      <c r="E676" t="inlineStr">
-        <is>
-          <t>$92.1B</t>
-        </is>
-      </c>
-      <c r="F676" t="inlineStr"/>
-      <c r="G676" t="inlineStr"/>
-      <c r="H676" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="677">
-      <c r="A677" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B677" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C677" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsNOV</t>
-        </is>
-      </c>
-      <c r="D677" t="inlineStr"/>
-      <c r="E677" t="inlineStr">
-        <is>
-          <t>$203.6B</t>
-        </is>
-      </c>
-      <c r="F677" t="inlineStr"/>
-      <c r="G677" t="inlineStr"/>
-      <c r="H677" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-18.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H653"/>
+  <dimension ref="A1:H629"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18587,10 +18587,8 @@
       </c>
       <c r="F559" t="inlineStr"/>
       <c r="G559" t="inlineStr"/>
-      <c r="H559" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H559" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="560">
@@ -18617,10 +18615,8 @@
       </c>
       <c r="F560" t="inlineStr"/>
       <c r="G560" t="inlineStr"/>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H560" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="561">
@@ -18651,10 +18647,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H561" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="562">
@@ -18681,10 +18675,8 @@
       </c>
       <c r="F562" t="inlineStr"/>
       <c r="G562" t="inlineStr"/>
-      <c r="H562" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H562" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="563">
@@ -18711,10 +18703,8 @@
       </c>
       <c r="F563" t="inlineStr"/>
       <c r="G563" t="inlineStr"/>
-      <c r="H563" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H563" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="564">
@@ -18741,10 +18731,8 @@
       </c>
       <c r="F564" t="inlineStr"/>
       <c r="G564" t="inlineStr"/>
-      <c r="H564" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H564" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="565">
@@ -18779,10 +18767,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H565" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H565" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="566">
@@ -18817,10 +18803,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H566" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H566" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="567">
@@ -18855,10 +18839,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H567" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H567" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="568">
@@ -18893,10 +18875,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H568" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="569">
@@ -18919,10 +18899,8 @@
       <c r="E569" t="inlineStr"/>
       <c r="F569" t="inlineStr"/>
       <c r="G569" t="inlineStr"/>
-      <c r="H569" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H569" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="570">
@@ -18945,10 +18923,8 @@
       <c r="E570" t="inlineStr"/>
       <c r="F570" t="inlineStr"/>
       <c r="G570" t="inlineStr"/>
-      <c r="H570" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H570" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="571">
@@ -18971,10 +18947,8 @@
       <c r="E571" t="inlineStr"/>
       <c r="F571" t="inlineStr"/>
       <c r="G571" t="inlineStr"/>
-      <c r="H571" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H571" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="572">
@@ -19001,10 +18975,8 @@
       </c>
       <c r="F572" t="inlineStr"/>
       <c r="G572" t="inlineStr"/>
-      <c r="H572" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H572" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="573">
@@ -19027,10 +18999,8 @@
       <c r="E573" t="inlineStr"/>
       <c r="F573" t="inlineStr"/>
       <c r="G573" t="inlineStr"/>
-      <c r="H573" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H573" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="574">
@@ -19057,10 +19027,8 @@
       </c>
       <c r="F574" t="inlineStr"/>
       <c r="G574" t="inlineStr"/>
-      <c r="H574" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H574" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="575">
@@ -19091,10 +19059,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H575" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H575" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="576">
@@ -19125,10 +19091,8 @@
           <t>220K</t>
         </is>
       </c>
-      <c r="H576" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H576" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="577">
@@ -19159,10 +19123,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H577" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H577" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="578">
@@ -19193,10 +19155,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H578" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H578" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="579">
@@ -19223,10 +19183,8 @@
       </c>
       <c r="F579" t="inlineStr"/>
       <c r="G579" t="inlineStr"/>
-      <c r="H579" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H579" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="580">
@@ -19257,10 +19215,8 @@
           <t>209.0K</t>
         </is>
       </c>
-      <c r="H580" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H580" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="581">
@@ -19287,10 +19243,8 @@
       </c>
       <c r="F581" t="inlineStr"/>
       <c r="G581" t="inlineStr"/>
-      <c r="H581" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H581" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="582">
@@ -19321,10 +19275,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H582" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H582" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="583">
@@ -19355,10 +19307,8 @@
           <t>1870.0K</t>
         </is>
       </c>
-      <c r="H583" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H583" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="584">
@@ -19385,10 +19335,8 @@
       </c>
       <c r="F584" t="inlineStr"/>
       <c r="G584" t="inlineStr"/>
-      <c r="H584" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H584" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="585">
@@ -19419,10 +19367,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H585" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H585" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="586">
@@ -19453,10 +19399,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="H586" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H586" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="587">
@@ -19483,10 +19427,8 @@
       </c>
       <c r="F587" t="inlineStr"/>
       <c r="G587" t="inlineStr"/>
-      <c r="H587" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H587" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="588">
@@ -19513,10 +19455,8 @@
       </c>
       <c r="F588" t="inlineStr"/>
       <c r="G588" t="inlineStr"/>
-      <c r="H588" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H588" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="589">
@@ -19543,10 +19483,8 @@
       </c>
       <c r="F589" t="inlineStr"/>
       <c r="G589" t="inlineStr"/>
-      <c r="H589" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H589" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="590">
@@ -19573,10 +19511,8 @@
       </c>
       <c r="F590" t="inlineStr"/>
       <c r="G590" t="inlineStr"/>
-      <c r="H590" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H590" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="591">
@@ -19603,10 +19539,8 @@
       </c>
       <c r="F591" t="inlineStr"/>
       <c r="G591" t="inlineStr"/>
-      <c r="H591" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H591" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="592">
@@ -19637,10 +19571,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H592" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H592" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="593">
@@ -19671,10 +19603,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H593" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H593" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="594">
@@ -19701,10 +19631,8 @@
       </c>
       <c r="F594" t="inlineStr"/>
       <c r="G594" t="inlineStr"/>
-      <c r="H594" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H594" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="595">
@@ -19731,10 +19659,8 @@
       </c>
       <c r="F595" t="inlineStr"/>
       <c r="G595" t="inlineStr"/>
-      <c r="H595" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H595" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="596">
@@ -19761,10 +19687,8 @@
       </c>
       <c r="F596" t="inlineStr"/>
       <c r="G596" t="inlineStr"/>
-      <c r="H596" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H596" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="597">
@@ -19787,10 +19711,8 @@
       <c r="E597" t="inlineStr"/>
       <c r="F597" t="inlineStr"/>
       <c r="G597" t="inlineStr"/>
-      <c r="H597" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H597" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="598">
@@ -19813,10 +19735,8 @@
       <c r="E598" t="inlineStr"/>
       <c r="F598" t="inlineStr"/>
       <c r="G598" t="inlineStr"/>
-      <c r="H598" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H598" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="599">
@@ -19839,10 +19759,8 @@
       <c r="E599" t="inlineStr"/>
       <c r="F599" t="inlineStr"/>
       <c r="G599" t="inlineStr"/>
-      <c r="H599" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H599" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="600">
@@ -19865,10 +19783,8 @@
       <c r="E600" t="inlineStr"/>
       <c r="F600" t="inlineStr"/>
       <c r="G600" t="inlineStr"/>
-      <c r="H600" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H600" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="601">
@@ -19891,106 +19807,140 @@
       <c r="E601" t="inlineStr"/>
       <c r="F601" t="inlineStr"/>
       <c r="G601" t="inlineStr"/>
-      <c r="H601" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H601" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>Friday January 17 2025</t>
-        </is>
-      </c>
-      <c r="B602" t="inlineStr"/>
-      <c r="C602" t="inlineStr"/>
+          <t>02:30 PM</t>
+        </is>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C602" t="inlineStr">
+        <is>
+          <t>Current Account s.aNOV</t>
+        </is>
+      </c>
       <c r="D602" t="inlineStr"/>
-      <c r="E602" t="inlineStr"/>
+      <c r="E602" t="inlineStr">
+        <is>
+          <t>€33.5B</t>
+        </is>
+      </c>
       <c r="F602" t="inlineStr"/>
       <c r="G602" t="inlineStr"/>
-      <c r="H602" t="inlineStr"/>
+      <c r="H602" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C603" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/15</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D603" t="inlineStr"/>
-      <c r="E603" t="inlineStr"/>
+      <c r="E603" t="inlineStr">
+        <is>
+          <t>€-3.93B</t>
+        </is>
+      </c>
       <c r="F603" t="inlineStr"/>
       <c r="G603" t="inlineStr"/>
       <c r="H603" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C604" t="inlineStr">
         <is>
-          <t>Reuters Tankan IndexJAN</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D604" t="inlineStr"/>
       <c r="E604" t="inlineStr">
         <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="F604" t="inlineStr"/>
+          <t>2.2%</t>
+        </is>
+      </c>
+      <c r="F604" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
       <c r="G604" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="H604" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C605" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/11</t>
+          <t>Core Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D605" t="inlineStr"/>
-      <c r="E605" t="inlineStr"/>
-      <c r="F605" t="inlineStr"/>
-      <c r="G605" t="inlineStr"/>
+      <c r="E605" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="F605" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="G605" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="H605" t="inlineStr">
         <is>
           <t>3</t>
@@ -20000,23 +19950,35 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C606" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersJAN/11</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D606" t="inlineStr"/>
-      <c r="E606" t="inlineStr"/>
-      <c r="F606" t="inlineStr"/>
-      <c r="G606" t="inlineStr"/>
+      <c r="E606" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="F606" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G606" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H606" t="inlineStr">
         <is>
           <t>3</t>
@@ -20026,29 +19988,33 @@
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C607" t="inlineStr">
         <is>
-          <t>Non-Oil Exports MoMDEC</t>
+          <t>CPI FinalDEC</t>
         </is>
       </c>
       <c r="D607" t="inlineStr"/>
       <c r="E607" t="inlineStr">
         <is>
-          <t>14.7%</t>
-        </is>
-      </c>
-      <c r="F607" t="inlineStr"/>
+          <t>126.62</t>
+        </is>
+      </c>
+      <c r="F607" t="inlineStr">
+        <is>
+          <t>127.08</t>
+        </is>
+      </c>
       <c r="G607" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>127</t>
         </is>
       </c>
       <c r="H607" t="inlineStr">
@@ -20060,31 +20026,27 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C608" t="inlineStr">
         <is>
-          <t>Non-Oil Exports YoYDEC</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D608" t="inlineStr"/>
       <c r="E608" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>€5628M</t>
         </is>
       </c>
       <c r="F608" t="inlineStr"/>
-      <c r="G608" t="inlineStr">
-        <is>
-          <t>7.5%</t>
-        </is>
-      </c>
+      <c r="G608" t="inlineStr"/>
       <c r="H608" t="inlineStr">
         <is>
           <t>3</t>
@@ -20094,25 +20056,21 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C609" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsJAN</t>
+          <t>Bank Loan Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D609" t="inlineStr"/>
-      <c r="E609" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
+      <c r="E609" t="inlineStr"/>
       <c r="F609" t="inlineStr"/>
       <c r="G609" t="inlineStr"/>
       <c r="H609" t="inlineStr">
@@ -20124,65 +20082,49 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C610" t="inlineStr">
         <is>
-          <t>House Price Index YoYDEC</t>
+          <t>Deposit Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D610" t="inlineStr"/>
-      <c r="E610" t="inlineStr">
-        <is>
-          <t>-5.7%</t>
-        </is>
-      </c>
+      <c r="E610" t="inlineStr"/>
       <c r="F610" t="inlineStr"/>
-      <c r="G610" t="inlineStr">
-        <is>
-          <t>-5.8%</t>
-        </is>
-      </c>
+      <c r="G610" t="inlineStr"/>
       <c r="H610" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C611" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Foreign Exchange ReservesJAN/10</t>
         </is>
       </c>
       <c r="D611" t="inlineStr"/>
-      <c r="E611" t="inlineStr">
-        <is>
-          <t>$6.52B</t>
-        </is>
-      </c>
+      <c r="E611" t="inlineStr"/>
       <c r="F611" t="inlineStr"/>
-      <c r="G611" t="inlineStr">
-        <is>
-          <t>$ 3.6B</t>
-        </is>
-      </c>
+      <c r="G611" t="inlineStr"/>
       <c r="H611" t="inlineStr">
         <is>
           <t>3</t>
@@ -20192,97 +20134,89 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C612" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoYQ4</t>
+          <t>Foreign Securities PurchasesNOV</t>
         </is>
       </c>
       <c r="D612" t="inlineStr"/>
       <c r="E612" t="inlineStr">
         <is>
-          <t>4.6%</t>
+          <t>C$21.55B</t>
         </is>
       </c>
       <c r="F612" t="inlineStr"/>
-      <c r="G612" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
+      <c r="G612" t="inlineStr"/>
       <c r="H612" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C613" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Foreign Securities Purchases by CanadiansNOV</t>
         </is>
       </c>
       <c r="D613" t="inlineStr"/>
       <c r="E613" t="inlineStr">
         <is>
-          <t>5.4%</t>
+          <t>C$-2.65B</t>
         </is>
       </c>
       <c r="F613" t="inlineStr"/>
-      <c r="G613" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="G613" t="inlineStr"/>
       <c r="H613" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C614" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Building Permits PrelDEC</t>
         </is>
       </c>
       <c r="D614" t="inlineStr"/>
       <c r="E614" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>1.493M</t>
         </is>
       </c>
       <c r="F614" t="inlineStr"/>
       <c r="G614" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>1.6M</t>
         </is>
       </c>
       <c r="H614" t="inlineStr">
@@ -20294,65 +20228,61 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C615" t="inlineStr">
         <is>
-          <t>Fixed Asset Investment (YTD) YoYDEC</t>
+          <t>Housing StartsDEC</t>
         </is>
       </c>
       <c r="D615" t="inlineStr"/>
       <c r="E615" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>1.289M</t>
         </is>
       </c>
       <c r="F615" t="inlineStr"/>
       <c r="G615" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>1.5M</t>
         </is>
       </c>
       <c r="H615" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C616" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQQ4</t>
+          <t>Building Permits MoM PrelDEC</t>
         </is>
       </c>
       <c r="D616" t="inlineStr"/>
       <c r="E616" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F616" t="inlineStr"/>
-      <c r="G616" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="G616" t="inlineStr"/>
       <c r="H616" t="inlineStr">
         <is>
           <t>2</t>
@@ -20362,91 +20292,95 @@
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C617" t="inlineStr">
         <is>
-          <t>Industrial Capacity UtilizationQ4</t>
+          <t>Housing Starts MoMDEC</t>
         </is>
       </c>
       <c r="D617" t="inlineStr"/>
       <c r="E617" t="inlineStr">
         <is>
-          <t>75.1%</t>
+          <t>-1.8%</t>
         </is>
       </c>
       <c r="F617" t="inlineStr"/>
       <c r="G617" t="inlineStr">
         <is>
-          <t>74.9%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="H617" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C618" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D618" t="inlineStr"/>
       <c r="E618" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F618" t="inlineStr"/>
-      <c r="G618" t="inlineStr">
-        <is>
-          <t>5.00%</t>
-        </is>
-      </c>
+      <c r="G618" t="inlineStr"/>
       <c r="H618" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C619" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Capacity UtilizationDEC</t>
         </is>
       </c>
       <c r="D619" t="inlineStr"/>
-      <c r="E619" t="inlineStr"/>
+      <c r="E619" t="inlineStr">
+        <is>
+          <t>76.8%</t>
+        </is>
+      </c>
       <c r="F619" t="inlineStr"/>
-      <c r="G619" t="inlineStr"/>
+      <c r="G619" t="inlineStr">
+        <is>
+          <t>77.8%</t>
+        </is>
+      </c>
       <c r="H619" t="inlineStr">
         <is>
           <t>3</t>
@@ -20456,91 +20390,99 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C620" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D620" t="inlineStr"/>
       <c r="E620" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="F620" t="inlineStr"/>
       <c r="G620" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H620" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C621" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Manufacturing Production MoMDEC</t>
         </is>
       </c>
       <c r="D621" t="inlineStr"/>
       <c r="E621" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F621" t="inlineStr"/>
       <c r="G621" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H621" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C622" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel MoMDEC</t>
+          <t>Manufacturing Production YoYDEC</t>
         </is>
       </c>
       <c r="D622" t="inlineStr"/>
-      <c r="E622" t="inlineStr"/>
+      <c r="E622" t="inlineStr">
+        <is>
+          <t>-1%</t>
+        </is>
+      </c>
       <c r="F622" t="inlineStr"/>
-      <c r="G622" t="inlineStr"/>
+      <c r="G622" t="inlineStr">
+        <is>
+          <t>-0.9%</t>
+        </is>
+      </c>
       <c r="H622" t="inlineStr">
         <is>
           <t>3</t>
@@ -20550,17 +20492,17 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C623" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel YoYDEC</t>
+          <t>Baker Hughes Oil Rig CountJAN/17</t>
         </is>
       </c>
       <c r="D623" t="inlineStr"/>
@@ -20576,31 +20518,23 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>12:50 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C624" t="inlineStr">
         <is>
-          <t>Loan Growth YoYDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/17</t>
         </is>
       </c>
       <c r="D624" t="inlineStr"/>
-      <c r="E624" t="inlineStr">
-        <is>
-          <t>10.79%</t>
-        </is>
-      </c>
+      <c r="E624" t="inlineStr"/>
       <c r="F624" t="inlineStr"/>
-      <c r="G624" t="inlineStr">
-        <is>
-          <t>10%</t>
-        </is>
-      </c>
+      <c r="G624" t="inlineStr"/>
       <c r="H624" t="inlineStr">
         <is>
           <t>3</t>
@@ -20608,25 +20542,21 @@
       </c>
     </row>
     <row r="625">
-      <c r="A625" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
+      <c r="A625" t="inlineStr"/>
       <c r="B625" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C625" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>50-Year KTB Auction</t>
         </is>
       </c>
       <c r="D625" t="inlineStr"/>
       <c r="E625" t="inlineStr">
         <is>
-          <t>€32B</t>
+          <t>2.40%</t>
         </is>
       </c>
       <c r="F625" t="inlineStr"/>
@@ -20640,53 +20570,37 @@
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
-      <c r="B626" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C626" t="inlineStr">
-        <is>
-          <t>Current Account s.aNOV</t>
-        </is>
-      </c>
+          <t>Saturday January 18 2025</t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr"/>
+      <c r="C626" t="inlineStr"/>
       <c r="D626" t="inlineStr"/>
-      <c r="E626" t="inlineStr">
-        <is>
-          <t>€33.5B</t>
-        </is>
-      </c>
+      <c r="E626" t="inlineStr"/>
       <c r="F626" t="inlineStr"/>
       <c r="G626" t="inlineStr"/>
-      <c r="H626" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H626" t="inlineStr"/>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C627" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Net Long-term TIC FlowsNOV</t>
         </is>
       </c>
       <c r="D627" t="inlineStr"/>
       <c r="E627" t="inlineStr">
         <is>
-          <t>€-3.93B</t>
+          <t>$152.3B</t>
         </is>
       </c>
       <c r="F627" t="inlineStr"/>
@@ -20700,798 +20614,58 @@
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C628" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Foreign Bond InvestmentNOV</t>
         </is>
       </c>
       <c r="D628" t="inlineStr"/>
       <c r="E628" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F628" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="G628" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+          <t>$92.1B</t>
+        </is>
+      </c>
+      <c r="F628" t="inlineStr"/>
+      <c r="G628" t="inlineStr"/>
       <c r="H628" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C629" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FinalDEC</t>
+          <t>Overall Net Capital FlowsNOV</t>
         </is>
       </c>
       <c r="D629" t="inlineStr"/>
       <c r="E629" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F629" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="G629" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+          <t>$203.6B</t>
+        </is>
+      </c>
+      <c r="F629" t="inlineStr"/>
+      <c r="G629" t="inlineStr"/>
       <c r="H629" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="630">
-      <c r="A630" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B630" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C630" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoM FinalDEC</t>
-        </is>
-      </c>
-      <c r="D630" t="inlineStr"/>
-      <c r="E630" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F630" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G630" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H630" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="631">
-      <c r="A631" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B631" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C631" t="inlineStr">
-        <is>
-          <t>CPI FinalDEC</t>
-        </is>
-      </c>
-      <c r="D631" t="inlineStr"/>
-      <c r="E631" t="inlineStr">
-        <is>
-          <t>126.62</t>
-        </is>
-      </c>
-      <c r="F631" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
-      <c r="G631" t="inlineStr">
-        <is>
-          <t>127</t>
-        </is>
-      </c>
-      <c r="H631" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="632">
-      <c r="A632" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B632" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C632" t="inlineStr">
-        <is>
-          <t>Current AccountNOV</t>
-        </is>
-      </c>
-      <c r="D632" t="inlineStr"/>
-      <c r="E632" t="inlineStr">
-        <is>
-          <t>€5628M</t>
-        </is>
-      </c>
-      <c r="F632" t="inlineStr"/>
-      <c r="G632" t="inlineStr"/>
-      <c r="H632" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="633">
-      <c r="A633" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
-      <c r="B633" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C633" t="inlineStr">
-        <is>
-          <t>Bank Loan Growth YoYJAN/03</t>
-        </is>
-      </c>
-      <c r="D633" t="inlineStr"/>
-      <c r="E633" t="inlineStr"/>
-      <c r="F633" t="inlineStr"/>
-      <c r="G633" t="inlineStr"/>
-      <c r="H633" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="634">
-      <c r="A634" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
-      <c r="B634" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C634" t="inlineStr">
-        <is>
-          <t>Deposit Growth YoYJAN/03</t>
-        </is>
-      </c>
-      <c r="D634" t="inlineStr"/>
-      <c r="E634" t="inlineStr"/>
-      <c r="F634" t="inlineStr"/>
-      <c r="G634" t="inlineStr"/>
-      <c r="H634" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="635">
-      <c r="A635" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
-      <c r="B635" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C635" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN/10</t>
-        </is>
-      </c>
-      <c r="D635" t="inlineStr"/>
-      <c r="E635" t="inlineStr"/>
-      <c r="F635" t="inlineStr"/>
-      <c r="G635" t="inlineStr"/>
-      <c r="H635" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="636">
-      <c r="A636" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B636" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C636" t="inlineStr">
-        <is>
-          <t>Foreign Securities PurchasesNOV</t>
-        </is>
-      </c>
-      <c r="D636" t="inlineStr"/>
-      <c r="E636" t="inlineStr">
-        <is>
-          <t>C$21.55B</t>
-        </is>
-      </c>
-      <c r="F636" t="inlineStr"/>
-      <c r="G636" t="inlineStr"/>
-      <c r="H636" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="637">
-      <c r="A637" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B637" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C637" t="inlineStr">
-        <is>
-          <t>Foreign Securities Purchases by CanadiansNOV</t>
-        </is>
-      </c>
-      <c r="D637" t="inlineStr"/>
-      <c r="E637" t="inlineStr">
-        <is>
-          <t>C$-2.65B</t>
-        </is>
-      </c>
-      <c r="F637" t="inlineStr"/>
-      <c r="G637" t="inlineStr"/>
-      <c r="H637" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="638">
-      <c r="A638" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B638" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C638" t="inlineStr">
-        <is>
-          <t>Building Permits PrelDEC</t>
-        </is>
-      </c>
-      <c r="D638" t="inlineStr"/>
-      <c r="E638" t="inlineStr">
-        <is>
-          <t>1.493M</t>
-        </is>
-      </c>
-      <c r="F638" t="inlineStr"/>
-      <c r="G638" t="inlineStr">
-        <is>
-          <t>1.6M</t>
-        </is>
-      </c>
-      <c r="H638" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="639">
-      <c r="A639" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B639" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C639" t="inlineStr">
-        <is>
-          <t>Housing StartsDEC</t>
-        </is>
-      </c>
-      <c r="D639" t="inlineStr"/>
-      <c r="E639" t="inlineStr">
-        <is>
-          <t>1.289M</t>
-        </is>
-      </c>
-      <c r="F639" t="inlineStr"/>
-      <c r="G639" t="inlineStr">
-        <is>
-          <t>1.5M</t>
-        </is>
-      </c>
-      <c r="H639" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="640">
-      <c r="A640" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B640" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C640" t="inlineStr">
-        <is>
-          <t>Building Permits MoM PrelDEC</t>
-        </is>
-      </c>
-      <c r="D640" t="inlineStr"/>
-      <c r="E640" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F640" t="inlineStr"/>
-      <c r="G640" t="inlineStr"/>
-      <c r="H640" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="641">
-      <c r="A641" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B641" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C641" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMDEC</t>
-        </is>
-      </c>
-      <c r="D641" t="inlineStr"/>
-      <c r="E641" t="inlineStr">
-        <is>
-          <t>-1.8%</t>
-        </is>
-      </c>
-      <c r="F641" t="inlineStr"/>
-      <c r="G641" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="H641" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="642">
-      <c r="A642" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B642" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C642" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMDEC</t>
-        </is>
-      </c>
-      <c r="D642" t="inlineStr"/>
-      <c r="E642" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F642" t="inlineStr"/>
-      <c r="G642" t="inlineStr"/>
-      <c r="H642" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="643">
-      <c r="A643" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B643" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C643" t="inlineStr">
-        <is>
-          <t>Capacity UtilizationDEC</t>
-        </is>
-      </c>
-      <c r="D643" t="inlineStr"/>
-      <c r="E643" t="inlineStr">
-        <is>
-          <t>76.8%</t>
-        </is>
-      </c>
-      <c r="F643" t="inlineStr"/>
-      <c r="G643" t="inlineStr">
-        <is>
-          <t>77.8%</t>
-        </is>
-      </c>
-      <c r="H643" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="644">
-      <c r="A644" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B644" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C644" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D644" t="inlineStr"/>
-      <c r="E644" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="F644" t="inlineStr"/>
-      <c r="G644" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="H644" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="645">
-      <c r="A645" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B645" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C645" t="inlineStr">
-        <is>
-          <t>Manufacturing Production MoMDEC</t>
-        </is>
-      </c>
-      <c r="D645" t="inlineStr"/>
-      <c r="E645" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F645" t="inlineStr"/>
-      <c r="G645" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H645" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="646">
-      <c r="A646" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B646" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C646" t="inlineStr">
-        <is>
-          <t>Manufacturing Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D646" t="inlineStr"/>
-      <c r="E646" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
-      <c r="F646" t="inlineStr"/>
-      <c r="G646" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="H646" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="647">
-      <c r="A647" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B647" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C647" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJAN/17</t>
-        </is>
-      </c>
-      <c r="D647" t="inlineStr"/>
-      <c r="E647" t="inlineStr"/>
-      <c r="F647" t="inlineStr"/>
-      <c r="G647" t="inlineStr"/>
-      <c r="H647" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="648">
-      <c r="A648" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B648" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C648" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJAN/17</t>
-        </is>
-      </c>
-      <c r="D648" t="inlineStr"/>
-      <c r="E648" t="inlineStr"/>
-      <c r="F648" t="inlineStr"/>
-      <c r="G648" t="inlineStr"/>
-      <c r="H648" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="649">
-      <c r="A649" t="inlineStr"/>
-      <c r="B649" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C649" t="inlineStr">
-        <is>
-          <t>50-Year KTB Auction</t>
-        </is>
-      </c>
-      <c r="D649" t="inlineStr"/>
-      <c r="E649" t="inlineStr">
-        <is>
-          <t>2.40%</t>
-        </is>
-      </c>
-      <c r="F649" t="inlineStr"/>
-      <c r="G649" t="inlineStr"/>
-      <c r="H649" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="650">
-      <c r="A650" t="inlineStr">
-        <is>
-          <t>Saturday January 18 2025</t>
-        </is>
-      </c>
-      <c r="B650" t="inlineStr"/>
-      <c r="C650" t="inlineStr"/>
-      <c r="D650" t="inlineStr"/>
-      <c r="E650" t="inlineStr"/>
-      <c r="F650" t="inlineStr"/>
-      <c r="G650" t="inlineStr"/>
-      <c r="H650" t="inlineStr"/>
-    </row>
-    <row r="651">
-      <c r="A651" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B651" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C651" t="inlineStr">
-        <is>
-          <t>Net Long-term TIC FlowsNOV</t>
-        </is>
-      </c>
-      <c r="D651" t="inlineStr"/>
-      <c r="E651" t="inlineStr">
-        <is>
-          <t>$152.3B</t>
-        </is>
-      </c>
-      <c r="F651" t="inlineStr"/>
-      <c r="G651" t="inlineStr"/>
-      <c r="H651" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="652">
-      <c r="A652" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B652" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C652" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentNOV</t>
-        </is>
-      </c>
-      <c r="D652" t="inlineStr"/>
-      <c r="E652" t="inlineStr">
-        <is>
-          <t>$92.1B</t>
-        </is>
-      </c>
-      <c r="F652" t="inlineStr"/>
-      <c r="G652" t="inlineStr"/>
-      <c r="H652" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="653">
-      <c r="A653" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B653" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C653" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsNOV</t>
-        </is>
-      </c>
-      <c r="D653" t="inlineStr"/>
-      <c r="E653" t="inlineStr">
-        <is>
-          <t>$203.6B</t>
-        </is>
-      </c>
-      <c r="F653" t="inlineStr"/>
-      <c r="G653" t="inlineStr"/>
-      <c r="H653" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-18.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H655"/>
+  <dimension ref="A1:H631"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15207,10 +15207,8 @@
       </c>
       <c r="F442" t="inlineStr"/>
       <c r="G442" t="inlineStr"/>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H442" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="443">
@@ -15241,10 +15239,8 @@
           <t>102</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H443" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="444">
@@ -15275,10 +15271,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H444" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="445">
@@ -15305,10 +15299,8 @@
       </c>
       <c r="F445" t="inlineStr"/>
       <c r="G445" t="inlineStr"/>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H445" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="446">
@@ -15339,10 +15331,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H446" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="447">
@@ -15373,10 +15363,8 @@
           <t>146.4</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H447" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="448">
@@ -15403,10 +15391,8 @@
       </c>
       <c r="F448" t="inlineStr"/>
       <c r="G448" t="inlineStr"/>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H448" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="449">
@@ -15433,10 +15419,8 @@
       </c>
       <c r="F449" t="inlineStr"/>
       <c r="G449" t="inlineStr"/>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H449" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="450">
@@ -15467,10 +15451,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H450" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="451">
@@ -15497,10 +15479,8 @@
       </c>
       <c r="F451" t="inlineStr"/>
       <c r="G451" t="inlineStr"/>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H451" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="452">
@@ -15527,10 +15507,8 @@
       </c>
       <c r="F452" t="inlineStr"/>
       <c r="G452" t="inlineStr"/>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H452" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="453">
@@ -15553,10 +15531,8 @@
       </c>
       <c r="F453" t="inlineStr"/>
       <c r="G453" t="inlineStr"/>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H453" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="454">
@@ -15601,10 +15577,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H455" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="456">
@@ -15635,10 +15609,8 @@
           <t>116.0%</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H456" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="457">
@@ -15669,10 +15641,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H457" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="458">
@@ -15703,10 +15673,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H458" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="459">
@@ -15733,10 +15701,8 @@
       </c>
       <c r="F459" t="inlineStr"/>
       <c r="G459" t="inlineStr"/>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H459" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="460">
@@ -15767,10 +15733,8 @@
           <t>$ 2.8B</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H460" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="461">
@@ -15797,10 +15761,8 @@
       </c>
       <c r="F461" t="inlineStr"/>
       <c r="G461" t="inlineStr"/>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H461" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="462">
@@ -15827,10 +15789,8 @@
       </c>
       <c r="F462" t="inlineStr"/>
       <c r="G462" t="inlineStr"/>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H462" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="463">
@@ -15857,10 +15817,8 @@
       </c>
       <c r="F463" t="inlineStr"/>
       <c r="G463" t="inlineStr"/>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H463" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="464">
@@ -15891,10 +15849,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H464" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="465">
@@ -15925,10 +15881,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H465" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="466">
@@ -15959,10 +15913,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H466" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="467">
@@ -15993,10 +15945,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H467" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="468">
@@ -16027,10 +15977,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H468" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="469">
@@ -16061,10 +16009,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H469" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="470">
@@ -16095,10 +16041,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H470" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="471">
@@ -16129,10 +16073,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H471" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="472">
@@ -16163,10 +16105,8 @@
           <t>2.1%</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H472" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="473">
@@ -16197,10 +16137,8 @@
           <t>-1.3%</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H473" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="474">
@@ -16231,10 +16169,8 @@
           <t>-1%</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H474" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="475">
@@ -16265,10 +16201,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H475" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="476">
@@ -16299,10 +16233,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H476" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="477">
@@ -16329,10 +16261,8 @@
       </c>
       <c r="F477" t="inlineStr"/>
       <c r="G477" t="inlineStr"/>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H477" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="478">
@@ -16363,10 +16293,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H478" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="479">
@@ -16389,10 +16317,8 @@
       <c r="E479" t="inlineStr"/>
       <c r="F479" t="inlineStr"/>
       <c r="G479" t="inlineStr"/>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H479" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="480">
@@ -16419,10 +16345,8 @@
       </c>
       <c r="F480" t="inlineStr"/>
       <c r="G480" t="inlineStr"/>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H480" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="481">
@@ -16449,10 +16373,8 @@
       </c>
       <c r="F481" t="inlineStr"/>
       <c r="G481" t="inlineStr"/>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H481" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="482">
@@ -16483,10 +16405,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H482" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="483">
@@ -16517,10 +16437,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H483" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="484">
@@ -16551,10 +16469,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H484" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="485">
@@ -16585,10 +16501,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H485" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="486">
@@ -16615,10 +16529,8 @@
       </c>
       <c r="F486" t="inlineStr"/>
       <c r="G486" t="inlineStr"/>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H486" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="487">
@@ -16653,10 +16565,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H487" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="488">
@@ -16691,10 +16601,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H488" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="489">
@@ -16729,10 +16637,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H489" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="490">
@@ -16763,10 +16669,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H490" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="491">
@@ -16797,10 +16701,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H491" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="492">
@@ -16827,10 +16729,8 @@
       </c>
       <c r="F492" t="inlineStr"/>
       <c r="G492" t="inlineStr"/>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H492" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="493">
@@ -16857,10 +16757,8 @@
       </c>
       <c r="F493" t="inlineStr"/>
       <c r="G493" t="inlineStr"/>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H493" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="494">
@@ -16887,10 +16785,8 @@
       </c>
       <c r="F494" t="inlineStr"/>
       <c r="G494" t="inlineStr"/>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H494" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="495">
@@ -16917,10 +16813,8 @@
       </c>
       <c r="F495" t="inlineStr"/>
       <c r="G495" t="inlineStr"/>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H495" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="496">
@@ -16947,10 +16841,8 @@
       </c>
       <c r="F496" t="inlineStr"/>
       <c r="G496" t="inlineStr"/>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H496" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="497">
@@ -16977,10 +16869,8 @@
       </c>
       <c r="F497" t="inlineStr"/>
       <c r="G497" t="inlineStr"/>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H497" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="498">
@@ -17007,10 +16897,8 @@
       </c>
       <c r="F498" t="inlineStr"/>
       <c r="G498" t="inlineStr"/>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H498" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="499">
@@ -17037,10 +16925,8 @@
       </c>
       <c r="F499" t="inlineStr"/>
       <c r="G499" t="inlineStr"/>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H499" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="500">
@@ -17063,10 +16949,8 @@
       <c r="E500" t="inlineStr"/>
       <c r="F500" t="inlineStr"/>
       <c r="G500" t="inlineStr"/>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H500" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="501">
@@ -17089,10 +16973,8 @@
       <c r="E501" t="inlineStr"/>
       <c r="F501" t="inlineStr"/>
       <c r="G501" t="inlineStr"/>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H501" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="502">
@@ -17115,10 +16997,8 @@
       <c r="E502" t="inlineStr"/>
       <c r="F502" t="inlineStr"/>
       <c r="G502" t="inlineStr"/>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H502" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="503">
@@ -17149,10 +17029,8 @@
           <t>$628.0B</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H503" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="504">
@@ -17187,10 +17065,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H504" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="505">
@@ -17217,10 +17093,8 @@
       </c>
       <c r="F505" t="inlineStr"/>
       <c r="G505" t="inlineStr"/>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H505" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="506">
@@ -17255,10 +17129,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H506" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="507">
@@ -17289,10 +17161,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H507" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="508">
@@ -17323,10 +17193,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H508" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="509">
@@ -17357,10 +17225,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H509" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="510">
@@ -17391,10 +17257,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H510" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="511">
@@ -17425,10 +17289,8 @@
           <t>313.8</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H511" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="512">
@@ -17459,10 +17321,8 @@
           <t>317.4</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H512" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="513">
@@ -17489,10 +17349,8 @@
       </c>
       <c r="F513" t="inlineStr"/>
       <c r="G513" t="inlineStr"/>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H513" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="514">
@@ -17519,10 +17377,8 @@
       </c>
       <c r="F514" t="inlineStr"/>
       <c r="G514" t="inlineStr"/>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H514" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="515">
@@ -17545,10 +17401,8 @@
       <c r="E515" t="inlineStr"/>
       <c r="F515" t="inlineStr"/>
       <c r="G515" t="inlineStr"/>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H515" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="516">
@@ -17571,10 +17425,8 @@
       <c r="E516" t="inlineStr"/>
       <c r="F516" t="inlineStr"/>
       <c r="G516" t="inlineStr"/>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H516" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="517">
@@ -17597,10 +17449,8 @@
       <c r="E517" t="inlineStr"/>
       <c r="F517" t="inlineStr"/>
       <c r="G517" t="inlineStr"/>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H517" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="518">
@@ -17627,10 +17477,8 @@
       </c>
       <c r="F518" t="inlineStr"/>
       <c r="G518" t="inlineStr"/>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H518" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="519">
@@ -17657,10 +17505,8 @@
       </c>
       <c r="F519" t="inlineStr"/>
       <c r="G519" t="inlineStr"/>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H519" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="520">
@@ -17687,10 +17533,8 @@
       </c>
       <c r="F520" t="inlineStr"/>
       <c r="G520" t="inlineStr"/>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H520" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="521">
@@ -17717,10 +17561,8 @@
       </c>
       <c r="F521" t="inlineStr"/>
       <c r="G521" t="inlineStr"/>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H521" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="522">
@@ -17747,10 +17589,8 @@
       </c>
       <c r="F522" t="inlineStr"/>
       <c r="G522" t="inlineStr"/>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H522" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="523">
@@ -17781,10 +17621,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H523" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="524">
@@ -17815,10 +17653,8 @@
           <t>9.5%</t>
         </is>
       </c>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H524" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="525">
@@ -17845,10 +17681,8 @@
       </c>
       <c r="F525" t="inlineStr"/>
       <c r="G525" t="inlineStr"/>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H525" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="526">
@@ -17879,10 +17713,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H526" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="527">
@@ -17909,10 +17741,8 @@
       </c>
       <c r="F527" t="inlineStr"/>
       <c r="G527" t="inlineStr"/>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H527" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="528">
@@ -17935,10 +17765,8 @@
       </c>
       <c r="F528" t="inlineStr"/>
       <c r="G528" t="inlineStr"/>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H528" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="529">
@@ -17965,10 +17793,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H529" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="530">
@@ -17995,10 +17821,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H530" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="531">
@@ -18025,10 +17849,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H531" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="532">
@@ -18047,10 +17869,8 @@
       <c r="E532" t="inlineStr"/>
       <c r="F532" t="inlineStr"/>
       <c r="G532" t="inlineStr"/>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H532" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="533">
@@ -18069,10 +17889,8 @@
       <c r="E533" t="inlineStr"/>
       <c r="F533" t="inlineStr"/>
       <c r="G533" t="inlineStr"/>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H533" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="534">
@@ -18099,10 +17917,8 @@
           <t>$ -23B</t>
         </is>
       </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H534" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="535">
@@ -18129,10 +17945,8 @@
           <t>$ 36B</t>
         </is>
       </c>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H535" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="536">
@@ -18159,10 +17973,8 @@
           <t>$ 59B</t>
         </is>
       </c>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H536" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="537">
@@ -18207,10 +18019,8 @@
           <t>3.30%</t>
         </is>
       </c>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H538" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="539">
@@ -18237,10 +18047,8 @@
       </c>
       <c r="F539" t="inlineStr"/>
       <c r="G539" t="inlineStr"/>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H539" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="540">
@@ -18271,10 +18079,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H540" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="541">
@@ -18305,10 +18111,8 @@
           <t>17.0%</t>
         </is>
       </c>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H541" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="542">
@@ -18339,10 +18143,8 @@
           <t>4.30%</t>
         </is>
       </c>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H542" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="543">
@@ -18373,10 +18175,8 @@
           <t>25.1K</t>
         </is>
       </c>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H543" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="544">
@@ -18403,10 +18203,8 @@
       </c>
       <c r="F544" t="inlineStr"/>
       <c r="G544" t="inlineStr"/>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H544" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="545">
@@ -18433,10 +18231,8 @@
       </c>
       <c r="F545" t="inlineStr"/>
       <c r="G545" t="inlineStr"/>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H545" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="546">
@@ -18467,10 +18263,8 @@
           <t>66.8%</t>
         </is>
       </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H546" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="547">
@@ -18497,10 +18291,8 @@
       </c>
       <c r="F547" t="inlineStr"/>
       <c r="G547" t="inlineStr"/>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H547" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="548">
@@ -18527,10 +18319,8 @@
       </c>
       <c r="F548" t="inlineStr"/>
       <c r="G548" t="inlineStr"/>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H548" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="549">
@@ -18557,10 +18347,8 @@
       </c>
       <c r="F549" t="inlineStr"/>
       <c r="G549" t="inlineStr"/>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H549" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="550">
@@ -18587,10 +18375,8 @@
       </c>
       <c r="F550" t="inlineStr"/>
       <c r="G550" t="inlineStr"/>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H550" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="551">
@@ -18625,10 +18411,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H551" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="552">
@@ -18659,10 +18443,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H552" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="553">
@@ -18697,10 +18479,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H553" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="554">
@@ -18735,10 +18515,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H554" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="555">
@@ -18769,10 +18547,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H555" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="556">
@@ -18803,10 +18579,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H556" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="557">
@@ -18837,10 +18611,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H557" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="558">
@@ -18867,10 +18639,8 @@
       </c>
       <c r="F558" t="inlineStr"/>
       <c r="G558" t="inlineStr"/>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H558" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="559">
@@ -18897,10 +18667,8 @@
       </c>
       <c r="F559" t="inlineStr"/>
       <c r="G559" t="inlineStr"/>
-      <c r="H559" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H559" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="560">
@@ -18927,10 +18695,8 @@
       </c>
       <c r="F560" t="inlineStr"/>
       <c r="G560" t="inlineStr"/>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H560" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="561">
@@ -18957,10 +18723,8 @@
       </c>
       <c r="F561" t="inlineStr"/>
       <c r="G561" t="inlineStr"/>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H561" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="562">
@@ -18987,10 +18751,8 @@
       </c>
       <c r="F562" t="inlineStr"/>
       <c r="G562" t="inlineStr"/>
-      <c r="H562" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H562" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="563">
@@ -19021,10 +18783,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H563" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H563" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="564">
@@ -19051,10 +18811,8 @@
       </c>
       <c r="F564" t="inlineStr"/>
       <c r="G564" t="inlineStr"/>
-      <c r="H564" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H564" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="565">
@@ -19081,10 +18839,8 @@
       </c>
       <c r="F565" t="inlineStr"/>
       <c r="G565" t="inlineStr"/>
-      <c r="H565" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H565" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="566">
@@ -19111,10 +18867,8 @@
       </c>
       <c r="F566" t="inlineStr"/>
       <c r="G566" t="inlineStr"/>
-      <c r="H566" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H566" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="567">
@@ -19149,10 +18903,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H567" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H567" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="568">
@@ -19187,10 +18939,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H568" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="569">
@@ -19225,10 +18975,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H569" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H569" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="570">
@@ -19263,10 +19011,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H570" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H570" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="571">
@@ -19289,10 +19035,8 @@
       <c r="E571" t="inlineStr"/>
       <c r="F571" t="inlineStr"/>
       <c r="G571" t="inlineStr"/>
-      <c r="H571" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H571" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="572">
@@ -19315,10 +19059,8 @@
       <c r="E572" t="inlineStr"/>
       <c r="F572" t="inlineStr"/>
       <c r="G572" t="inlineStr"/>
-      <c r="H572" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H572" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="573">
@@ -19341,10 +19083,8 @@
       <c r="E573" t="inlineStr"/>
       <c r="F573" t="inlineStr"/>
       <c r="G573" t="inlineStr"/>
-      <c r="H573" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H573" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="574">
@@ -19371,10 +19111,8 @@
       </c>
       <c r="F574" t="inlineStr"/>
       <c r="G574" t="inlineStr"/>
-      <c r="H574" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H574" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="575">
@@ -19397,10 +19135,8 @@
       <c r="E575" t="inlineStr"/>
       <c r="F575" t="inlineStr"/>
       <c r="G575" t="inlineStr"/>
-      <c r="H575" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H575" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="576">
@@ -19427,10 +19163,8 @@
       </c>
       <c r="F576" t="inlineStr"/>
       <c r="G576" t="inlineStr"/>
-      <c r="H576" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H576" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="577">
@@ -19461,10 +19195,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H577" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H577" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="578">
@@ -19495,10 +19227,8 @@
           <t>220K</t>
         </is>
       </c>
-      <c r="H578" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H578" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="579">
@@ -19529,10 +19259,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H579" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H579" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="580">
@@ -19563,10 +19291,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H580" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H580" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="581">
@@ -19593,10 +19319,8 @@
       </c>
       <c r="F581" t="inlineStr"/>
       <c r="G581" t="inlineStr"/>
-      <c r="H581" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H581" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="582">
@@ -19627,10 +19351,8 @@
           <t>209.0K</t>
         </is>
       </c>
-      <c r="H582" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H582" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="583">
@@ -19657,10 +19379,8 @@
       </c>
       <c r="F583" t="inlineStr"/>
       <c r="G583" t="inlineStr"/>
-      <c r="H583" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H583" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="584">
@@ -19691,10 +19411,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H584" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H584" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="585">
@@ -19725,10 +19443,8 @@
           <t>1870.0K</t>
         </is>
       </c>
-      <c r="H585" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H585" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="586">
@@ -19755,10 +19471,8 @@
       </c>
       <c r="F586" t="inlineStr"/>
       <c r="G586" t="inlineStr"/>
-      <c r="H586" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H586" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="587">
@@ -19789,10 +19503,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H587" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H587" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="588">
@@ -19823,10 +19535,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="H588" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H588" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="589">
@@ -19853,10 +19563,8 @@
       </c>
       <c r="F589" t="inlineStr"/>
       <c r="G589" t="inlineStr"/>
-      <c r="H589" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H589" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="590">
@@ -19883,10 +19591,8 @@
       </c>
       <c r="F590" t="inlineStr"/>
       <c r="G590" t="inlineStr"/>
-      <c r="H590" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H590" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="591">
@@ -19913,10 +19619,8 @@
       </c>
       <c r="F591" t="inlineStr"/>
       <c r="G591" t="inlineStr"/>
-      <c r="H591" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H591" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="592">
@@ -19943,10 +19647,8 @@
       </c>
       <c r="F592" t="inlineStr"/>
       <c r="G592" t="inlineStr"/>
-      <c r="H592" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H592" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="593">
@@ -19973,10 +19675,8 @@
       </c>
       <c r="F593" t="inlineStr"/>
       <c r="G593" t="inlineStr"/>
-      <c r="H593" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H593" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="594">
@@ -20007,10 +19707,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H594" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H594" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="595">
@@ -20041,10 +19739,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H595" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H595" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="596">
@@ -20071,10 +19767,8 @@
       </c>
       <c r="F596" t="inlineStr"/>
       <c r="G596" t="inlineStr"/>
-      <c r="H596" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H596" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="597">
@@ -20101,10 +19795,8 @@
       </c>
       <c r="F597" t="inlineStr"/>
       <c r="G597" t="inlineStr"/>
-      <c r="H597" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H597" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="598">
@@ -20131,10 +19823,8 @@
       </c>
       <c r="F598" t="inlineStr"/>
       <c r="G598" t="inlineStr"/>
-      <c r="H598" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H598" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="599">
@@ -20161,10 +19851,8 @@
       </c>
       <c r="F599" t="inlineStr"/>
       <c r="G599" t="inlineStr"/>
-      <c r="H599" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H599" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="600">
@@ -20187,10 +19875,8 @@
       <c r="E600" t="inlineStr"/>
       <c r="F600" t="inlineStr"/>
       <c r="G600" t="inlineStr"/>
-      <c r="H600" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H600" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="601">
@@ -20213,10 +19899,8 @@
       <c r="E601" t="inlineStr"/>
       <c r="F601" t="inlineStr"/>
       <c r="G601" t="inlineStr"/>
-      <c r="H601" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H601" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="602">
@@ -20239,10 +19923,8 @@
       <c r="E602" t="inlineStr"/>
       <c r="F602" t="inlineStr"/>
       <c r="G602" t="inlineStr"/>
-      <c r="H602" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H602" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="603">
@@ -20265,106 +19947,140 @@
       <c r="E603" t="inlineStr"/>
       <c r="F603" t="inlineStr"/>
       <c r="G603" t="inlineStr"/>
-      <c r="H603" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H603" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>Friday January 17 2025</t>
-        </is>
-      </c>
-      <c r="B604" t="inlineStr"/>
-      <c r="C604" t="inlineStr"/>
+          <t>02:30 PM</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C604" t="inlineStr">
+        <is>
+          <t>Current Account s.aNOV</t>
+        </is>
+      </c>
       <c r="D604" t="inlineStr"/>
-      <c r="E604" t="inlineStr"/>
+      <c r="E604" t="inlineStr">
+        <is>
+          <t>€33.5B</t>
+        </is>
+      </c>
       <c r="F604" t="inlineStr"/>
       <c r="G604" t="inlineStr"/>
-      <c r="H604" t="inlineStr"/>
+      <c r="H604" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C605" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/15</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D605" t="inlineStr"/>
-      <c r="E605" t="inlineStr"/>
+      <c r="E605" t="inlineStr">
+        <is>
+          <t>€-3.93B</t>
+        </is>
+      </c>
       <c r="F605" t="inlineStr"/>
       <c r="G605" t="inlineStr"/>
       <c r="H605" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C606" t="inlineStr">
         <is>
-          <t>Reuters Tankan IndexJAN</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D606" t="inlineStr"/>
       <c r="E606" t="inlineStr">
         <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="F606" t="inlineStr"/>
+          <t>2.2%</t>
+        </is>
+      </c>
+      <c r="F606" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
       <c r="G606" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="H606" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C607" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/11</t>
+          <t>Core Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D607" t="inlineStr"/>
-      <c r="E607" t="inlineStr"/>
-      <c r="F607" t="inlineStr"/>
-      <c r="G607" t="inlineStr"/>
+      <c r="E607" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="F607" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="G607" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="H607" t="inlineStr">
         <is>
           <t>3</t>
@@ -20374,23 +20090,35 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C608" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersJAN/11</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D608" t="inlineStr"/>
-      <c r="E608" t="inlineStr"/>
-      <c r="F608" t="inlineStr"/>
-      <c r="G608" t="inlineStr"/>
+      <c r="E608" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="F608" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G608" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H608" t="inlineStr">
         <is>
           <t>3</t>
@@ -20400,29 +20128,33 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C609" t="inlineStr">
         <is>
-          <t>Non-Oil Exports MoMDEC</t>
+          <t>CPI FinalDEC</t>
         </is>
       </c>
       <c r="D609" t="inlineStr"/>
       <c r="E609" t="inlineStr">
         <is>
-          <t>14.7%</t>
-        </is>
-      </c>
-      <c r="F609" t="inlineStr"/>
+          <t>126.62</t>
+        </is>
+      </c>
+      <c r="F609" t="inlineStr">
+        <is>
+          <t>127.08</t>
+        </is>
+      </c>
       <c r="G609" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>127</t>
         </is>
       </c>
       <c r="H609" t="inlineStr">
@@ -20434,31 +20166,27 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C610" t="inlineStr">
         <is>
-          <t>Non-Oil Exports YoYDEC</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D610" t="inlineStr"/>
       <c r="E610" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>€5628M</t>
         </is>
       </c>
       <c r="F610" t="inlineStr"/>
-      <c r="G610" t="inlineStr">
-        <is>
-          <t>7.5%</t>
-        </is>
-      </c>
+      <c r="G610" t="inlineStr"/>
       <c r="H610" t="inlineStr">
         <is>
           <t>3</t>
@@ -20468,25 +20196,21 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C611" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsJAN</t>
+          <t>Bank Loan Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D611" t="inlineStr"/>
-      <c r="E611" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
+      <c r="E611" t="inlineStr"/>
       <c r="F611" t="inlineStr"/>
       <c r="G611" t="inlineStr"/>
       <c r="H611" t="inlineStr">
@@ -20498,65 +20222,49 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C612" t="inlineStr">
         <is>
-          <t>House Price Index YoYDEC</t>
+          <t>Deposit Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D612" t="inlineStr"/>
-      <c r="E612" t="inlineStr">
-        <is>
-          <t>-5.7%</t>
-        </is>
-      </c>
+      <c r="E612" t="inlineStr"/>
       <c r="F612" t="inlineStr"/>
-      <c r="G612" t="inlineStr">
-        <is>
-          <t>-5.8%</t>
-        </is>
-      </c>
+      <c r="G612" t="inlineStr"/>
       <c r="H612" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C613" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Foreign Exchange ReservesJAN/10</t>
         </is>
       </c>
       <c r="D613" t="inlineStr"/>
-      <c r="E613" t="inlineStr">
-        <is>
-          <t>$6.52B</t>
-        </is>
-      </c>
+      <c r="E613" t="inlineStr"/>
       <c r="F613" t="inlineStr"/>
-      <c r="G613" t="inlineStr">
-        <is>
-          <t>$ 3.6B</t>
-        </is>
-      </c>
+      <c r="G613" t="inlineStr"/>
       <c r="H613" t="inlineStr">
         <is>
           <t>3</t>
@@ -20566,97 +20274,89 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C614" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoYQ4</t>
+          <t>Foreign Securities PurchasesNOV</t>
         </is>
       </c>
       <c r="D614" t="inlineStr"/>
       <c r="E614" t="inlineStr">
         <is>
-          <t>4.6%</t>
+          <t>C$21.55B</t>
         </is>
       </c>
       <c r="F614" t="inlineStr"/>
-      <c r="G614" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
+      <c r="G614" t="inlineStr"/>
       <c r="H614" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C615" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Foreign Securities Purchases by CanadiansNOV</t>
         </is>
       </c>
       <c r="D615" t="inlineStr"/>
       <c r="E615" t="inlineStr">
         <is>
-          <t>5.4%</t>
+          <t>C$-2.65B</t>
         </is>
       </c>
       <c r="F615" t="inlineStr"/>
-      <c r="G615" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="G615" t="inlineStr"/>
       <c r="H615" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C616" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Building Permits PrelDEC</t>
         </is>
       </c>
       <c r="D616" t="inlineStr"/>
       <c r="E616" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>1.493M</t>
         </is>
       </c>
       <c r="F616" t="inlineStr"/>
       <c r="G616" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>1.6M</t>
         </is>
       </c>
       <c r="H616" t="inlineStr">
@@ -20668,65 +20368,61 @@
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C617" t="inlineStr">
         <is>
-          <t>Fixed Asset Investment (YTD) YoYDEC</t>
+          <t>Housing StartsDEC</t>
         </is>
       </c>
       <c r="D617" t="inlineStr"/>
       <c r="E617" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>1.289M</t>
         </is>
       </c>
       <c r="F617" t="inlineStr"/>
       <c r="G617" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>1.5M</t>
         </is>
       </c>
       <c r="H617" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C618" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQQ4</t>
+          <t>Building Permits MoM PrelDEC</t>
         </is>
       </c>
       <c r="D618" t="inlineStr"/>
       <c r="E618" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F618" t="inlineStr"/>
-      <c r="G618" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="G618" t="inlineStr"/>
       <c r="H618" t="inlineStr">
         <is>
           <t>2</t>
@@ -20736,91 +20432,95 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C619" t="inlineStr">
         <is>
-          <t>Industrial Capacity UtilizationQ4</t>
+          <t>Housing Starts MoMDEC</t>
         </is>
       </c>
       <c r="D619" t="inlineStr"/>
       <c r="E619" t="inlineStr">
         <is>
-          <t>75.1%</t>
+          <t>-1.8%</t>
         </is>
       </c>
       <c r="F619" t="inlineStr"/>
       <c r="G619" t="inlineStr">
         <is>
-          <t>74.9%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="H619" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C620" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D620" t="inlineStr"/>
       <c r="E620" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F620" t="inlineStr"/>
-      <c r="G620" t="inlineStr">
-        <is>
-          <t>5.00%</t>
-        </is>
-      </c>
+      <c r="G620" t="inlineStr"/>
       <c r="H620" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C621" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Capacity UtilizationDEC</t>
         </is>
       </c>
       <c r="D621" t="inlineStr"/>
-      <c r="E621" t="inlineStr"/>
+      <c r="E621" t="inlineStr">
+        <is>
+          <t>76.8%</t>
+        </is>
+      </c>
       <c r="F621" t="inlineStr"/>
-      <c r="G621" t="inlineStr"/>
+      <c r="G621" t="inlineStr">
+        <is>
+          <t>77.8%</t>
+        </is>
+      </c>
       <c r="H621" t="inlineStr">
         <is>
           <t>3</t>
@@ -20830,91 +20530,99 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C622" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D622" t="inlineStr"/>
       <c r="E622" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="F622" t="inlineStr"/>
       <c r="G622" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H622" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C623" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Manufacturing Production MoMDEC</t>
         </is>
       </c>
       <c r="D623" t="inlineStr"/>
       <c r="E623" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F623" t="inlineStr"/>
       <c r="G623" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H623" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C624" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel MoMDEC</t>
+          <t>Manufacturing Production YoYDEC</t>
         </is>
       </c>
       <c r="D624" t="inlineStr"/>
-      <c r="E624" t="inlineStr"/>
+      <c r="E624" t="inlineStr">
+        <is>
+          <t>-1%</t>
+        </is>
+      </c>
       <c r="F624" t="inlineStr"/>
-      <c r="G624" t="inlineStr"/>
+      <c r="G624" t="inlineStr">
+        <is>
+          <t>-0.9%</t>
+        </is>
+      </c>
       <c r="H624" t="inlineStr">
         <is>
           <t>3</t>
@@ -20924,17 +20632,17 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C625" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel YoYDEC</t>
+          <t>Baker Hughes Oil Rig CountJAN/17</t>
         </is>
       </c>
       <c r="D625" t="inlineStr"/>
@@ -20950,31 +20658,23 @@
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>12:50 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C626" t="inlineStr">
         <is>
-          <t>Loan Growth YoYDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/17</t>
         </is>
       </c>
       <c r="D626" t="inlineStr"/>
-      <c r="E626" t="inlineStr">
-        <is>
-          <t>10.79%</t>
-        </is>
-      </c>
+      <c r="E626" t="inlineStr"/>
       <c r="F626" t="inlineStr"/>
-      <c r="G626" t="inlineStr">
-        <is>
-          <t>10%</t>
-        </is>
-      </c>
+      <c r="G626" t="inlineStr"/>
       <c r="H626" t="inlineStr">
         <is>
           <t>3</t>
@@ -20982,25 +20682,21 @@
       </c>
     </row>
     <row r="627">
-      <c r="A627" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
+      <c r="A627" t="inlineStr"/>
       <c r="B627" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C627" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>50-Year KTB Auction</t>
         </is>
       </c>
       <c r="D627" t="inlineStr"/>
       <c r="E627" t="inlineStr">
         <is>
-          <t>€32B</t>
+          <t>2.40%</t>
         </is>
       </c>
       <c r="F627" t="inlineStr"/>
@@ -21014,53 +20710,37 @@
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
-      <c r="B628" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C628" t="inlineStr">
-        <is>
-          <t>Current Account s.aNOV</t>
-        </is>
-      </c>
+          <t>Saturday January 18 2025</t>
+        </is>
+      </c>
+      <c r="B628" t="inlineStr"/>
+      <c r="C628" t="inlineStr"/>
       <c r="D628" t="inlineStr"/>
-      <c r="E628" t="inlineStr">
-        <is>
-          <t>€33.5B</t>
-        </is>
-      </c>
+      <c r="E628" t="inlineStr"/>
       <c r="F628" t="inlineStr"/>
       <c r="G628" t="inlineStr"/>
-      <c r="H628" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H628" t="inlineStr"/>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C629" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Net Long-term TIC FlowsNOV</t>
         </is>
       </c>
       <c r="D629" t="inlineStr"/>
       <c r="E629" t="inlineStr">
         <is>
-          <t>€-3.93B</t>
+          <t>$152.3B</t>
         </is>
       </c>
       <c r="F629" t="inlineStr"/>
@@ -21074,798 +20754,58 @@
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C630" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Foreign Bond InvestmentNOV</t>
         </is>
       </c>
       <c r="D630" t="inlineStr"/>
       <c r="E630" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F630" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="G630" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+          <t>$92.1B</t>
+        </is>
+      </c>
+      <c r="F630" t="inlineStr"/>
+      <c r="G630" t="inlineStr"/>
       <c r="H630" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C631" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FinalDEC</t>
+          <t>Overall Net Capital FlowsNOV</t>
         </is>
       </c>
       <c r="D631" t="inlineStr"/>
       <c r="E631" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F631" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="G631" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+          <t>$203.6B</t>
+        </is>
+      </c>
+      <c r="F631" t="inlineStr"/>
+      <c r="G631" t="inlineStr"/>
       <c r="H631" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="632">
-      <c r="A632" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B632" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C632" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoM FinalDEC</t>
-        </is>
-      </c>
-      <c r="D632" t="inlineStr"/>
-      <c r="E632" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F632" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G632" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H632" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="633">
-      <c r="A633" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B633" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C633" t="inlineStr">
-        <is>
-          <t>CPI FinalDEC</t>
-        </is>
-      </c>
-      <c r="D633" t="inlineStr"/>
-      <c r="E633" t="inlineStr">
-        <is>
-          <t>126.62</t>
-        </is>
-      </c>
-      <c r="F633" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
-      <c r="G633" t="inlineStr">
-        <is>
-          <t>127</t>
-        </is>
-      </c>
-      <c r="H633" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="634">
-      <c r="A634" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B634" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C634" t="inlineStr">
-        <is>
-          <t>Current AccountNOV</t>
-        </is>
-      </c>
-      <c r="D634" t="inlineStr"/>
-      <c r="E634" t="inlineStr">
-        <is>
-          <t>€5628M</t>
-        </is>
-      </c>
-      <c r="F634" t="inlineStr"/>
-      <c r="G634" t="inlineStr"/>
-      <c r="H634" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="635">
-      <c r="A635" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
-      <c r="B635" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C635" t="inlineStr">
-        <is>
-          <t>Bank Loan Growth YoYJAN/03</t>
-        </is>
-      </c>
-      <c r="D635" t="inlineStr"/>
-      <c r="E635" t="inlineStr"/>
-      <c r="F635" t="inlineStr"/>
-      <c r="G635" t="inlineStr"/>
-      <c r="H635" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="636">
-      <c r="A636" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
-      <c r="B636" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C636" t="inlineStr">
-        <is>
-          <t>Deposit Growth YoYJAN/03</t>
-        </is>
-      </c>
-      <c r="D636" t="inlineStr"/>
-      <c r="E636" t="inlineStr"/>
-      <c r="F636" t="inlineStr"/>
-      <c r="G636" t="inlineStr"/>
-      <c r="H636" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="637">
-      <c r="A637" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
-      <c r="B637" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C637" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN/10</t>
-        </is>
-      </c>
-      <c r="D637" t="inlineStr"/>
-      <c r="E637" t="inlineStr"/>
-      <c r="F637" t="inlineStr"/>
-      <c r="G637" t="inlineStr"/>
-      <c r="H637" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="638">
-      <c r="A638" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B638" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C638" t="inlineStr">
-        <is>
-          <t>Foreign Securities PurchasesNOV</t>
-        </is>
-      </c>
-      <c r="D638" t="inlineStr"/>
-      <c r="E638" t="inlineStr">
-        <is>
-          <t>C$21.55B</t>
-        </is>
-      </c>
-      <c r="F638" t="inlineStr"/>
-      <c r="G638" t="inlineStr"/>
-      <c r="H638" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="639">
-      <c r="A639" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B639" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C639" t="inlineStr">
-        <is>
-          <t>Foreign Securities Purchases by CanadiansNOV</t>
-        </is>
-      </c>
-      <c r="D639" t="inlineStr"/>
-      <c r="E639" t="inlineStr">
-        <is>
-          <t>C$-2.65B</t>
-        </is>
-      </c>
-      <c r="F639" t="inlineStr"/>
-      <c r="G639" t="inlineStr"/>
-      <c r="H639" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="640">
-      <c r="A640" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B640" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C640" t="inlineStr">
-        <is>
-          <t>Building Permits PrelDEC</t>
-        </is>
-      </c>
-      <c r="D640" t="inlineStr"/>
-      <c r="E640" t="inlineStr">
-        <is>
-          <t>1.493M</t>
-        </is>
-      </c>
-      <c r="F640" t="inlineStr"/>
-      <c r="G640" t="inlineStr">
-        <is>
-          <t>1.6M</t>
-        </is>
-      </c>
-      <c r="H640" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="641">
-      <c r="A641" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B641" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C641" t="inlineStr">
-        <is>
-          <t>Housing StartsDEC</t>
-        </is>
-      </c>
-      <c r="D641" t="inlineStr"/>
-      <c r="E641" t="inlineStr">
-        <is>
-          <t>1.289M</t>
-        </is>
-      </c>
-      <c r="F641" t="inlineStr"/>
-      <c r="G641" t="inlineStr">
-        <is>
-          <t>1.5M</t>
-        </is>
-      </c>
-      <c r="H641" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="642">
-      <c r="A642" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B642" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C642" t="inlineStr">
-        <is>
-          <t>Building Permits MoM PrelDEC</t>
-        </is>
-      </c>
-      <c r="D642" t="inlineStr"/>
-      <c r="E642" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F642" t="inlineStr"/>
-      <c r="G642" t="inlineStr"/>
-      <c r="H642" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="643">
-      <c r="A643" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B643" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C643" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMDEC</t>
-        </is>
-      </c>
-      <c r="D643" t="inlineStr"/>
-      <c r="E643" t="inlineStr">
-        <is>
-          <t>-1.8%</t>
-        </is>
-      </c>
-      <c r="F643" t="inlineStr"/>
-      <c r="G643" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="H643" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="644">
-      <c r="A644" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B644" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C644" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMDEC</t>
-        </is>
-      </c>
-      <c r="D644" t="inlineStr"/>
-      <c r="E644" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F644" t="inlineStr"/>
-      <c r="G644" t="inlineStr"/>
-      <c r="H644" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="645">
-      <c r="A645" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B645" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C645" t="inlineStr">
-        <is>
-          <t>Capacity UtilizationDEC</t>
-        </is>
-      </c>
-      <c r="D645" t="inlineStr"/>
-      <c r="E645" t="inlineStr">
-        <is>
-          <t>76.8%</t>
-        </is>
-      </c>
-      <c r="F645" t="inlineStr"/>
-      <c r="G645" t="inlineStr">
-        <is>
-          <t>77.8%</t>
-        </is>
-      </c>
-      <c r="H645" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="646">
-      <c r="A646" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B646" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C646" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D646" t="inlineStr"/>
-      <c r="E646" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="F646" t="inlineStr"/>
-      <c r="G646" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="H646" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="647">
-      <c r="A647" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B647" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C647" t="inlineStr">
-        <is>
-          <t>Manufacturing Production MoMDEC</t>
-        </is>
-      </c>
-      <c r="D647" t="inlineStr"/>
-      <c r="E647" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F647" t="inlineStr"/>
-      <c r="G647" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H647" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="648">
-      <c r="A648" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B648" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C648" t="inlineStr">
-        <is>
-          <t>Manufacturing Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D648" t="inlineStr"/>
-      <c r="E648" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
-      <c r="F648" t="inlineStr"/>
-      <c r="G648" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="H648" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="649">
-      <c r="A649" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B649" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C649" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJAN/17</t>
-        </is>
-      </c>
-      <c r="D649" t="inlineStr"/>
-      <c r="E649" t="inlineStr"/>
-      <c r="F649" t="inlineStr"/>
-      <c r="G649" t="inlineStr"/>
-      <c r="H649" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="650">
-      <c r="A650" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B650" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C650" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJAN/17</t>
-        </is>
-      </c>
-      <c r="D650" t="inlineStr"/>
-      <c r="E650" t="inlineStr"/>
-      <c r="F650" t="inlineStr"/>
-      <c r="G650" t="inlineStr"/>
-      <c r="H650" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="651">
-      <c r="A651" t="inlineStr"/>
-      <c r="B651" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C651" t="inlineStr">
-        <is>
-          <t>50-Year KTB Auction</t>
-        </is>
-      </c>
-      <c r="D651" t="inlineStr"/>
-      <c r="E651" t="inlineStr">
-        <is>
-          <t>2.40%</t>
-        </is>
-      </c>
-      <c r="F651" t="inlineStr"/>
-      <c r="G651" t="inlineStr"/>
-      <c r="H651" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="652">
-      <c r="A652" t="inlineStr">
-        <is>
-          <t>Saturday January 18 2025</t>
-        </is>
-      </c>
-      <c r="B652" t="inlineStr"/>
-      <c r="C652" t="inlineStr"/>
-      <c r="D652" t="inlineStr"/>
-      <c r="E652" t="inlineStr"/>
-      <c r="F652" t="inlineStr"/>
-      <c r="G652" t="inlineStr"/>
-      <c r="H652" t="inlineStr"/>
-    </row>
-    <row r="653">
-      <c r="A653" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B653" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C653" t="inlineStr">
-        <is>
-          <t>Net Long-term TIC FlowsNOV</t>
-        </is>
-      </c>
-      <c r="D653" t="inlineStr"/>
-      <c r="E653" t="inlineStr">
-        <is>
-          <t>$152.3B</t>
-        </is>
-      </c>
-      <c r="F653" t="inlineStr"/>
-      <c r="G653" t="inlineStr"/>
-      <c r="H653" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="654">
-      <c r="A654" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B654" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C654" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentNOV</t>
-        </is>
-      </c>
-      <c r="D654" t="inlineStr"/>
-      <c r="E654" t="inlineStr">
-        <is>
-          <t>$92.1B</t>
-        </is>
-      </c>
-      <c r="F654" t="inlineStr"/>
-      <c r="G654" t="inlineStr"/>
-      <c r="H654" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="655">
-      <c r="A655" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B655" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C655" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsNOV</t>
-        </is>
-      </c>
-      <c r="D655" t="inlineStr"/>
-      <c r="E655" t="inlineStr">
-        <is>
-          <t>$203.6B</t>
-        </is>
-      </c>
-      <c r="F655" t="inlineStr"/>
-      <c r="G655" t="inlineStr"/>
-      <c r="H655" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-18.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H631"/>
+  <dimension ref="A1:H607"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18001,10 +18001,8 @@
       </c>
       <c r="F537" t="inlineStr"/>
       <c r="G537" t="inlineStr"/>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H537" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="538">
@@ -18031,10 +18029,8 @@
       </c>
       <c r="F538" t="inlineStr"/>
       <c r="G538" t="inlineStr"/>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H538" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="539">
@@ -18065,10 +18061,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H539" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="540">
@@ -18095,10 +18089,8 @@
       </c>
       <c r="F540" t="inlineStr"/>
       <c r="G540" t="inlineStr"/>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H540" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="541">
@@ -18125,10 +18117,8 @@
       </c>
       <c r="F541" t="inlineStr"/>
       <c r="G541" t="inlineStr"/>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H541" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="542">
@@ -18155,10 +18145,8 @@
       </c>
       <c r="F542" t="inlineStr"/>
       <c r="G542" t="inlineStr"/>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H542" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="543">
@@ -18193,10 +18181,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H543" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="544">
@@ -18231,10 +18217,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H544" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="545">
@@ -18269,10 +18253,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H545" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="546">
@@ -18307,10 +18289,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H546" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="547">
@@ -18333,10 +18313,8 @@
       <c r="E547" t="inlineStr"/>
       <c r="F547" t="inlineStr"/>
       <c r="G547" t="inlineStr"/>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H547" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="548">
@@ -18359,10 +18337,8 @@
       <c r="E548" t="inlineStr"/>
       <c r="F548" t="inlineStr"/>
       <c r="G548" t="inlineStr"/>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H548" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="549">
@@ -18385,10 +18361,8 @@
       <c r="E549" t="inlineStr"/>
       <c r="F549" t="inlineStr"/>
       <c r="G549" t="inlineStr"/>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H549" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="550">
@@ -18415,10 +18389,8 @@
       </c>
       <c r="F550" t="inlineStr"/>
       <c r="G550" t="inlineStr"/>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H550" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="551">
@@ -18441,10 +18413,8 @@
       <c r="E551" t="inlineStr"/>
       <c r="F551" t="inlineStr"/>
       <c r="G551" t="inlineStr"/>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H551" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="552">
@@ -18471,10 +18441,8 @@
       </c>
       <c r="F552" t="inlineStr"/>
       <c r="G552" t="inlineStr"/>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H552" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="553">
@@ -18505,10 +18473,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H553" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="554">
@@ -18539,10 +18505,8 @@
           <t>220K</t>
         </is>
       </c>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H554" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="555">
@@ -18573,10 +18537,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H555" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="556">
@@ -18607,10 +18569,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H556" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="557">
@@ -18637,10 +18597,8 @@
       </c>
       <c r="F557" t="inlineStr"/>
       <c r="G557" t="inlineStr"/>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H557" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="558">
@@ -18671,10 +18629,8 @@
           <t>209.0K</t>
         </is>
       </c>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H558" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="559">
@@ -18701,10 +18657,8 @@
       </c>
       <c r="F559" t="inlineStr"/>
       <c r="G559" t="inlineStr"/>
-      <c r="H559" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H559" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="560">
@@ -18735,10 +18689,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H560" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="561">
@@ -18769,10 +18721,8 @@
           <t>1870.0K</t>
         </is>
       </c>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H561" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="562">
@@ -18799,10 +18749,8 @@
       </c>
       <c r="F562" t="inlineStr"/>
       <c r="G562" t="inlineStr"/>
-      <c r="H562" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H562" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="563">
@@ -18833,10 +18781,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H563" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H563" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="564">
@@ -18867,10 +18813,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="H564" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H564" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="565">
@@ -18897,10 +18841,8 @@
       </c>
       <c r="F565" t="inlineStr"/>
       <c r="G565" t="inlineStr"/>
-      <c r="H565" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H565" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="566">
@@ -18927,10 +18869,8 @@
       </c>
       <c r="F566" t="inlineStr"/>
       <c r="G566" t="inlineStr"/>
-      <c r="H566" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H566" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="567">
@@ -18957,10 +18897,8 @@
       </c>
       <c r="F567" t="inlineStr"/>
       <c r="G567" t="inlineStr"/>
-      <c r="H567" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H567" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="568">
@@ -18987,10 +18925,8 @@
       </c>
       <c r="F568" t="inlineStr"/>
       <c r="G568" t="inlineStr"/>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H568" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="569">
@@ -19017,10 +18953,8 @@
       </c>
       <c r="F569" t="inlineStr"/>
       <c r="G569" t="inlineStr"/>
-      <c r="H569" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H569" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="570">
@@ -19051,10 +18985,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H570" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H570" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="571">
@@ -19085,10 +19017,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H571" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H571" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="572">
@@ -19115,10 +19045,8 @@
       </c>
       <c r="F572" t="inlineStr"/>
       <c r="G572" t="inlineStr"/>
-      <c r="H572" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H572" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="573">
@@ -19145,10 +19073,8 @@
       </c>
       <c r="F573" t="inlineStr"/>
       <c r="G573" t="inlineStr"/>
-      <c r="H573" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H573" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="574">
@@ -19175,10 +19101,8 @@
       </c>
       <c r="F574" t="inlineStr"/>
       <c r="G574" t="inlineStr"/>
-      <c r="H574" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H574" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="575">
@@ -19205,10 +19129,8 @@
       </c>
       <c r="F575" t="inlineStr"/>
       <c r="G575" t="inlineStr"/>
-      <c r="H575" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H575" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="576">
@@ -19231,10 +19153,8 @@
       <c r="E576" t="inlineStr"/>
       <c r="F576" t="inlineStr"/>
       <c r="G576" t="inlineStr"/>
-      <c r="H576" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H576" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="577">
@@ -19257,10 +19177,8 @@
       <c r="E577" t="inlineStr"/>
       <c r="F577" t="inlineStr"/>
       <c r="G577" t="inlineStr"/>
-      <c r="H577" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H577" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="578">
@@ -19283,10 +19201,8 @@
       <c r="E578" t="inlineStr"/>
       <c r="F578" t="inlineStr"/>
       <c r="G578" t="inlineStr"/>
-      <c r="H578" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H578" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="579">
@@ -19309,106 +19225,140 @@
       <c r="E579" t="inlineStr"/>
       <c r="F579" t="inlineStr"/>
       <c r="G579" t="inlineStr"/>
-      <c r="H579" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H579" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>Friday January 17 2025</t>
-        </is>
-      </c>
-      <c r="B580" t="inlineStr"/>
-      <c r="C580" t="inlineStr"/>
+          <t>02:30 PM</t>
+        </is>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C580" t="inlineStr">
+        <is>
+          <t>Current Account s.aNOV</t>
+        </is>
+      </c>
       <c r="D580" t="inlineStr"/>
-      <c r="E580" t="inlineStr"/>
+      <c r="E580" t="inlineStr">
+        <is>
+          <t>€33.5B</t>
+        </is>
+      </c>
       <c r="F580" t="inlineStr"/>
       <c r="G580" t="inlineStr"/>
-      <c r="H580" t="inlineStr"/>
+      <c r="H580" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/15</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D581" t="inlineStr"/>
-      <c r="E581" t="inlineStr"/>
+      <c r="E581" t="inlineStr">
+        <is>
+          <t>€-3.93B</t>
+        </is>
+      </c>
       <c r="F581" t="inlineStr"/>
       <c r="G581" t="inlineStr"/>
       <c r="H581" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>Reuters Tankan IndexJAN</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D582" t="inlineStr"/>
       <c r="E582" t="inlineStr">
         <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="F582" t="inlineStr"/>
+          <t>2.2%</t>
+        </is>
+      </c>
+      <c r="F582" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
       <c r="G582" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="H582" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/11</t>
+          <t>Core Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D583" t="inlineStr"/>
-      <c r="E583" t="inlineStr"/>
-      <c r="F583" t="inlineStr"/>
-      <c r="G583" t="inlineStr"/>
+      <c r="E583" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="F583" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="G583" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="H583" t="inlineStr">
         <is>
           <t>3</t>
@@ -19418,23 +19368,35 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersJAN/11</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D584" t="inlineStr"/>
-      <c r="E584" t="inlineStr"/>
-      <c r="F584" t="inlineStr"/>
-      <c r="G584" t="inlineStr"/>
+      <c r="E584" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="F584" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G584" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H584" t="inlineStr">
         <is>
           <t>3</t>
@@ -19444,29 +19406,33 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>Non-Oil Exports MoMDEC</t>
+          <t>CPI FinalDEC</t>
         </is>
       </c>
       <c r="D585" t="inlineStr"/>
       <c r="E585" t="inlineStr">
         <is>
-          <t>14.7%</t>
-        </is>
-      </c>
-      <c r="F585" t="inlineStr"/>
+          <t>126.62</t>
+        </is>
+      </c>
+      <c r="F585" t="inlineStr">
+        <is>
+          <t>127.08</t>
+        </is>
+      </c>
       <c r="G585" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>127</t>
         </is>
       </c>
       <c r="H585" t="inlineStr">
@@ -19478,31 +19444,27 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>Non-Oil Exports YoYDEC</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D586" t="inlineStr"/>
       <c r="E586" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>€5628M</t>
         </is>
       </c>
       <c r="F586" t="inlineStr"/>
-      <c r="G586" t="inlineStr">
-        <is>
-          <t>7.5%</t>
-        </is>
-      </c>
+      <c r="G586" t="inlineStr"/>
       <c r="H586" t="inlineStr">
         <is>
           <t>3</t>
@@ -19512,23 +19474,23 @@
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsJAN</t>
+          <t>Bank Loan Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D587" t="inlineStr"/>
       <c r="E587" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>11.5%</t>
         </is>
       </c>
       <c r="F587" t="inlineStr"/>
@@ -19542,65 +19504,53 @@
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>House Price Index YoYDEC</t>
+          <t>Deposit Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D588" t="inlineStr"/>
       <c r="E588" t="inlineStr">
         <is>
-          <t>-5.7%</t>
+          <t>11.5%</t>
         </is>
       </c>
       <c r="F588" t="inlineStr"/>
-      <c r="G588" t="inlineStr">
-        <is>
-          <t>-5.8%</t>
-        </is>
-      </c>
+      <c r="G588" t="inlineStr"/>
       <c r="H588" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Foreign Exchange ReservesJAN/10</t>
         </is>
       </c>
       <c r="D589" t="inlineStr"/>
-      <c r="E589" t="inlineStr">
-        <is>
-          <t>$6.52B</t>
-        </is>
-      </c>
+      <c r="E589" t="inlineStr"/>
       <c r="F589" t="inlineStr"/>
-      <c r="G589" t="inlineStr">
-        <is>
-          <t>$ 3.6B</t>
-        </is>
-      </c>
+      <c r="G589" t="inlineStr"/>
       <c r="H589" t="inlineStr">
         <is>
           <t>3</t>
@@ -19610,97 +19560,89 @@
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoYQ4</t>
+          <t>Foreign Securities PurchasesNOV</t>
         </is>
       </c>
       <c r="D590" t="inlineStr"/>
       <c r="E590" t="inlineStr">
         <is>
-          <t>4.6%</t>
+          <t>C$21.55B</t>
         </is>
       </c>
       <c r="F590" t="inlineStr"/>
-      <c r="G590" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
+      <c r="G590" t="inlineStr"/>
       <c r="H590" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Foreign Securities Purchases by CanadiansNOV</t>
         </is>
       </c>
       <c r="D591" t="inlineStr"/>
       <c r="E591" t="inlineStr">
         <is>
-          <t>5.4%</t>
+          <t>C$-2.65B</t>
         </is>
       </c>
       <c r="F591" t="inlineStr"/>
-      <c r="G591" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="G591" t="inlineStr"/>
       <c r="H591" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Building Permits PrelDEC</t>
         </is>
       </c>
       <c r="D592" t="inlineStr"/>
       <c r="E592" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>1.493M</t>
         </is>
       </c>
       <c r="F592" t="inlineStr"/>
       <c r="G592" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>1.6M</t>
         </is>
       </c>
       <c r="H592" t="inlineStr">
@@ -19712,65 +19654,61 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>Fixed Asset Investment (YTD) YoYDEC</t>
+          <t>Housing StartsDEC</t>
         </is>
       </c>
       <c r="D593" t="inlineStr"/>
       <c r="E593" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>1.289M</t>
         </is>
       </c>
       <c r="F593" t="inlineStr"/>
       <c r="G593" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>1.5M</t>
         </is>
       </c>
       <c r="H593" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQQ4</t>
+          <t>Building Permits MoM PrelDEC</t>
         </is>
       </c>
       <c r="D594" t="inlineStr"/>
       <c r="E594" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F594" t="inlineStr"/>
-      <c r="G594" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="G594" t="inlineStr"/>
       <c r="H594" t="inlineStr">
         <is>
           <t>2</t>
@@ -19780,91 +19718,95 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>Industrial Capacity UtilizationQ4</t>
+          <t>Housing Starts MoMDEC</t>
         </is>
       </c>
       <c r="D595" t="inlineStr"/>
       <c r="E595" t="inlineStr">
         <is>
-          <t>75.1%</t>
+          <t>-1.8%</t>
         </is>
       </c>
       <c r="F595" t="inlineStr"/>
       <c r="G595" t="inlineStr">
         <is>
-          <t>74.9%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="H595" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D596" t="inlineStr"/>
       <c r="E596" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F596" t="inlineStr"/>
-      <c r="G596" t="inlineStr">
-        <is>
-          <t>5.00%</t>
-        </is>
-      </c>
+      <c r="G596" t="inlineStr"/>
       <c r="H596" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Capacity UtilizationDEC</t>
         </is>
       </c>
       <c r="D597" t="inlineStr"/>
-      <c r="E597" t="inlineStr"/>
+      <c r="E597" t="inlineStr">
+        <is>
+          <t>76.8%</t>
+        </is>
+      </c>
       <c r="F597" t="inlineStr"/>
-      <c r="G597" t="inlineStr"/>
+      <c r="G597" t="inlineStr">
+        <is>
+          <t>77.8%</t>
+        </is>
+      </c>
       <c r="H597" t="inlineStr">
         <is>
           <t>3</t>
@@ -19874,95 +19816,99 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D598" t="inlineStr"/>
       <c r="E598" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="F598" t="inlineStr"/>
       <c r="G598" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H598" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C599" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Manufacturing Production MoMDEC</t>
         </is>
       </c>
       <c r="D599" t="inlineStr"/>
       <c r="E599" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F599" t="inlineStr"/>
       <c r="G599" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H599" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel MoMDEC</t>
+          <t>Manufacturing Production YoYDEC</t>
         </is>
       </c>
       <c r="D600" t="inlineStr"/>
       <c r="E600" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>-1%</t>
         </is>
       </c>
       <c r="F600" t="inlineStr"/>
-      <c r="G600" t="inlineStr"/>
+      <c r="G600" t="inlineStr">
+        <is>
+          <t>-0.9%</t>
+        </is>
+      </c>
       <c r="H600" t="inlineStr">
         <is>
           <t>3</t>
@@ -19972,25 +19918,21 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C601" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel YoYDEC</t>
+          <t>Baker Hughes Oil Rig CountJAN/17</t>
         </is>
       </c>
       <c r="D601" t="inlineStr"/>
-      <c r="E601" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E601" t="inlineStr"/>
       <c r="F601" t="inlineStr"/>
       <c r="G601" t="inlineStr"/>
       <c r="H601" t="inlineStr">
@@ -20002,31 +19944,23 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>12:50 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C602" t="inlineStr">
         <is>
-          <t>Loan Growth YoYDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/17</t>
         </is>
       </c>
       <c r="D602" t="inlineStr"/>
-      <c r="E602" t="inlineStr">
-        <is>
-          <t>10.79%</t>
-        </is>
-      </c>
+      <c r="E602" t="inlineStr"/>
       <c r="F602" t="inlineStr"/>
-      <c r="G602" t="inlineStr">
-        <is>
-          <t>10%</t>
-        </is>
-      </c>
+      <c r="G602" t="inlineStr"/>
       <c r="H602" t="inlineStr">
         <is>
           <t>3</t>
@@ -20034,25 +19968,21 @@
       </c>
     </row>
     <row r="603">
-      <c r="A603" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
+      <c r="A603" t="inlineStr"/>
       <c r="B603" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C603" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>50-Year KTB Auction</t>
         </is>
       </c>
       <c r="D603" t="inlineStr"/>
       <c r="E603" t="inlineStr">
         <is>
-          <t>€32B</t>
+          <t>2.40%</t>
         </is>
       </c>
       <c r="F603" t="inlineStr"/>
@@ -20066,53 +19996,37 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
-      <c r="B604" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C604" t="inlineStr">
-        <is>
-          <t>Current Account s.aNOV</t>
-        </is>
-      </c>
+          <t>Saturday January 18 2025</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr"/>
+      <c r="C604" t="inlineStr"/>
       <c r="D604" t="inlineStr"/>
-      <c r="E604" t="inlineStr">
-        <is>
-          <t>€33.5B</t>
-        </is>
-      </c>
+      <c r="E604" t="inlineStr"/>
       <c r="F604" t="inlineStr"/>
       <c r="G604" t="inlineStr"/>
-      <c r="H604" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H604" t="inlineStr"/>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C605" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Net Long-term TIC FlowsNOV</t>
         </is>
       </c>
       <c r="D605" t="inlineStr"/>
       <c r="E605" t="inlineStr">
         <is>
-          <t>€-3.93B</t>
+          <t>$152.3B</t>
         </is>
       </c>
       <c r="F605" t="inlineStr"/>
@@ -20126,806 +20040,58 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C606" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Foreign Bond InvestmentNOV</t>
         </is>
       </c>
       <c r="D606" t="inlineStr"/>
       <c r="E606" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F606" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="G606" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+          <t>$92.1B</t>
+        </is>
+      </c>
+      <c r="F606" t="inlineStr"/>
+      <c r="G606" t="inlineStr"/>
       <c r="H606" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C607" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FinalDEC</t>
+          <t>Overall Net Capital FlowsNOV</t>
         </is>
       </c>
       <c r="D607" t="inlineStr"/>
       <c r="E607" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F607" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="G607" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+          <t>$203.6B</t>
+        </is>
+      </c>
+      <c r="F607" t="inlineStr"/>
+      <c r="G607" t="inlineStr"/>
       <c r="H607" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="608">
-      <c r="A608" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B608" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C608" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoM FinalDEC</t>
-        </is>
-      </c>
-      <c r="D608" t="inlineStr"/>
-      <c r="E608" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F608" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G608" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H608" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="609">
-      <c r="A609" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B609" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C609" t="inlineStr">
-        <is>
-          <t>CPI FinalDEC</t>
-        </is>
-      </c>
-      <c r="D609" t="inlineStr"/>
-      <c r="E609" t="inlineStr">
-        <is>
-          <t>126.62</t>
-        </is>
-      </c>
-      <c r="F609" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
-      <c r="G609" t="inlineStr">
-        <is>
-          <t>127</t>
-        </is>
-      </c>
-      <c r="H609" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="610">
-      <c r="A610" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B610" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C610" t="inlineStr">
-        <is>
-          <t>Current AccountNOV</t>
-        </is>
-      </c>
-      <c r="D610" t="inlineStr"/>
-      <c r="E610" t="inlineStr">
-        <is>
-          <t>€5628M</t>
-        </is>
-      </c>
-      <c r="F610" t="inlineStr"/>
-      <c r="G610" t="inlineStr"/>
-      <c r="H610" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="611">
-      <c r="A611" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
-      <c r="B611" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C611" t="inlineStr">
-        <is>
-          <t>Bank Loan Growth YoYJAN/03</t>
-        </is>
-      </c>
-      <c r="D611" t="inlineStr"/>
-      <c r="E611" t="inlineStr">
-        <is>
-          <t>11.5%</t>
-        </is>
-      </c>
-      <c r="F611" t="inlineStr"/>
-      <c r="G611" t="inlineStr"/>
-      <c r="H611" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="612">
-      <c r="A612" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
-      <c r="B612" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C612" t="inlineStr">
-        <is>
-          <t>Deposit Growth YoYJAN/03</t>
-        </is>
-      </c>
-      <c r="D612" t="inlineStr"/>
-      <c r="E612" t="inlineStr">
-        <is>
-          <t>11.5%</t>
-        </is>
-      </c>
-      <c r="F612" t="inlineStr"/>
-      <c r="G612" t="inlineStr"/>
-      <c r="H612" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="613">
-      <c r="A613" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
-      <c r="B613" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C613" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN/10</t>
-        </is>
-      </c>
-      <c r="D613" t="inlineStr"/>
-      <c r="E613" t="inlineStr"/>
-      <c r="F613" t="inlineStr"/>
-      <c r="G613" t="inlineStr"/>
-      <c r="H613" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="614">
-      <c r="A614" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B614" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C614" t="inlineStr">
-        <is>
-          <t>Foreign Securities PurchasesNOV</t>
-        </is>
-      </c>
-      <c r="D614" t="inlineStr"/>
-      <c r="E614" t="inlineStr">
-        <is>
-          <t>C$21.55B</t>
-        </is>
-      </c>
-      <c r="F614" t="inlineStr"/>
-      <c r="G614" t="inlineStr"/>
-      <c r="H614" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="615">
-      <c r="A615" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B615" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C615" t="inlineStr">
-        <is>
-          <t>Foreign Securities Purchases by CanadiansNOV</t>
-        </is>
-      </c>
-      <c r="D615" t="inlineStr"/>
-      <c r="E615" t="inlineStr">
-        <is>
-          <t>C$-2.65B</t>
-        </is>
-      </c>
-      <c r="F615" t="inlineStr"/>
-      <c r="G615" t="inlineStr"/>
-      <c r="H615" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="616">
-      <c r="A616" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B616" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C616" t="inlineStr">
-        <is>
-          <t>Building Permits PrelDEC</t>
-        </is>
-      </c>
-      <c r="D616" t="inlineStr"/>
-      <c r="E616" t="inlineStr">
-        <is>
-          <t>1.493M</t>
-        </is>
-      </c>
-      <c r="F616" t="inlineStr"/>
-      <c r="G616" t="inlineStr">
-        <is>
-          <t>1.6M</t>
-        </is>
-      </c>
-      <c r="H616" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="617">
-      <c r="A617" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B617" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C617" t="inlineStr">
-        <is>
-          <t>Housing StartsDEC</t>
-        </is>
-      </c>
-      <c r="D617" t="inlineStr"/>
-      <c r="E617" t="inlineStr">
-        <is>
-          <t>1.289M</t>
-        </is>
-      </c>
-      <c r="F617" t="inlineStr"/>
-      <c r="G617" t="inlineStr">
-        <is>
-          <t>1.5M</t>
-        </is>
-      </c>
-      <c r="H617" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="618">
-      <c r="A618" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B618" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C618" t="inlineStr">
-        <is>
-          <t>Building Permits MoM PrelDEC</t>
-        </is>
-      </c>
-      <c r="D618" t="inlineStr"/>
-      <c r="E618" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F618" t="inlineStr"/>
-      <c r="G618" t="inlineStr"/>
-      <c r="H618" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="619">
-      <c r="A619" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B619" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C619" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMDEC</t>
-        </is>
-      </c>
-      <c r="D619" t="inlineStr"/>
-      <c r="E619" t="inlineStr">
-        <is>
-          <t>-1.8%</t>
-        </is>
-      </c>
-      <c r="F619" t="inlineStr"/>
-      <c r="G619" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="H619" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="620">
-      <c r="A620" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B620" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C620" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMDEC</t>
-        </is>
-      </c>
-      <c r="D620" t="inlineStr"/>
-      <c r="E620" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F620" t="inlineStr"/>
-      <c r="G620" t="inlineStr"/>
-      <c r="H620" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="621">
-      <c r="A621" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B621" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C621" t="inlineStr">
-        <is>
-          <t>Capacity UtilizationDEC</t>
-        </is>
-      </c>
-      <c r="D621" t="inlineStr"/>
-      <c r="E621" t="inlineStr">
-        <is>
-          <t>76.8%</t>
-        </is>
-      </c>
-      <c r="F621" t="inlineStr"/>
-      <c r="G621" t="inlineStr">
-        <is>
-          <t>77.8%</t>
-        </is>
-      </c>
-      <c r="H621" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="622">
-      <c r="A622" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B622" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C622" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D622" t="inlineStr"/>
-      <c r="E622" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="F622" t="inlineStr"/>
-      <c r="G622" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="H622" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="623">
-      <c r="A623" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B623" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C623" t="inlineStr">
-        <is>
-          <t>Manufacturing Production MoMDEC</t>
-        </is>
-      </c>
-      <c r="D623" t="inlineStr"/>
-      <c r="E623" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F623" t="inlineStr"/>
-      <c r="G623" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H623" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="624">
-      <c r="A624" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B624" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C624" t="inlineStr">
-        <is>
-          <t>Manufacturing Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D624" t="inlineStr"/>
-      <c r="E624" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
-      <c r="F624" t="inlineStr"/>
-      <c r="G624" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="H624" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="625">
-      <c r="A625" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B625" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C625" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJAN/17</t>
-        </is>
-      </c>
-      <c r="D625" t="inlineStr"/>
-      <c r="E625" t="inlineStr"/>
-      <c r="F625" t="inlineStr"/>
-      <c r="G625" t="inlineStr"/>
-      <c r="H625" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="626">
-      <c r="A626" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B626" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C626" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJAN/17</t>
-        </is>
-      </c>
-      <c r="D626" t="inlineStr"/>
-      <c r="E626" t="inlineStr"/>
-      <c r="F626" t="inlineStr"/>
-      <c r="G626" t="inlineStr"/>
-      <c r="H626" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="627">
-      <c r="A627" t="inlineStr"/>
-      <c r="B627" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C627" t="inlineStr">
-        <is>
-          <t>50-Year KTB Auction</t>
-        </is>
-      </c>
-      <c r="D627" t="inlineStr"/>
-      <c r="E627" t="inlineStr">
-        <is>
-          <t>2.40%</t>
-        </is>
-      </c>
-      <c r="F627" t="inlineStr"/>
-      <c r="G627" t="inlineStr"/>
-      <c r="H627" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="628">
-      <c r="A628" t="inlineStr">
-        <is>
-          <t>Saturday January 18 2025</t>
-        </is>
-      </c>
-      <c r="B628" t="inlineStr"/>
-      <c r="C628" t="inlineStr"/>
-      <c r="D628" t="inlineStr"/>
-      <c r="E628" t="inlineStr"/>
-      <c r="F628" t="inlineStr"/>
-      <c r="G628" t="inlineStr"/>
-      <c r="H628" t="inlineStr"/>
-    </row>
-    <row r="629">
-      <c r="A629" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B629" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C629" t="inlineStr">
-        <is>
-          <t>Net Long-term TIC FlowsNOV</t>
-        </is>
-      </c>
-      <c r="D629" t="inlineStr"/>
-      <c r="E629" t="inlineStr">
-        <is>
-          <t>$152.3B</t>
-        </is>
-      </c>
-      <c r="F629" t="inlineStr"/>
-      <c r="G629" t="inlineStr"/>
-      <c r="H629" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="630">
-      <c r="A630" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B630" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C630" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentNOV</t>
-        </is>
-      </c>
-      <c r="D630" t="inlineStr"/>
-      <c r="E630" t="inlineStr">
-        <is>
-          <t>$92.1B</t>
-        </is>
-      </c>
-      <c r="F630" t="inlineStr"/>
-      <c r="G630" t="inlineStr"/>
-      <c r="H630" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="631">
-      <c r="A631" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B631" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C631" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsNOV</t>
-        </is>
-      </c>
-      <c r="D631" t="inlineStr"/>
-      <c r="E631" t="inlineStr">
-        <is>
-          <t>$203.6B</t>
-        </is>
-      </c>
-      <c r="F631" t="inlineStr"/>
-      <c r="G631" t="inlineStr"/>
-      <c r="H631" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-18.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H721"/>
+  <dimension ref="A1:H697"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14753,10 +14753,8 @@
       </c>
       <c r="F417" t="inlineStr"/>
       <c r="G417" t="inlineStr"/>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H417" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="418">
@@ -14787,10 +14785,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H418" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="419">
@@ -14821,10 +14817,8 @@
           <t>4.9%</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H419" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="420">
@@ -14859,10 +14853,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H420" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="421">
@@ -14897,10 +14889,8 @@
           <t>-1.4%</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H421" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="422">
@@ -14931,10 +14921,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H422" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="423">
@@ -14965,10 +14953,8 @@
           <t>-2.5%</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H423" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="424">
@@ -15003,10 +14989,8 @@
           <t>6.8%</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H424" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="425">
@@ -15041,10 +15025,8 @@
           <t>11.0K</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H425" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="426">
@@ -15075,10 +15057,8 @@
           <t>10K</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H426" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="427">
@@ -15109,10 +15089,8 @@
           <t>1K</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H427" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="428">
@@ -15143,10 +15121,8 @@
           <t>65%</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H428" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="429">
@@ -15177,10 +15153,8 @@
           <t>3.9%</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H429" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="430">
@@ -15215,10 +15189,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H430" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="431">
@@ -15253,10 +15225,8 @@
           <t>200K</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H431" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="432">
@@ -15291,10 +15261,8 @@
           <t>4.30%</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H432" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="433">
@@ -15329,10 +15297,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H433" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="434">
@@ -15367,10 +15333,8 @@
           <t>4%</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H434" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="435">
@@ -15401,10 +15365,8 @@
           <t>62.8%</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H435" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="436">
@@ -15439,10 +15401,8 @@
           <t>34.3</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H436" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="437">
@@ -15473,10 +15433,8 @@
           <t>15K</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H437" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="438">
@@ -15511,10 +15469,8 @@
           <t>29K</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H438" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="439">
@@ -15549,10 +15505,8 @@
           <t>185K</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H439" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="440">
@@ -15583,10 +15537,8 @@
           <t>7.9%</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H440" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="441">
@@ -15617,10 +15569,8 @@
           <t>€22.5B</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H441" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="442">
@@ -15655,10 +15605,8 @@
           <t>75</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H442" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="443">
@@ -15689,10 +15637,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H443" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="444">
@@ -15723,10 +15669,8 @@
           <t>74</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H444" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="445">
@@ -15757,10 +15701,8 @@
           <t>78</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H445" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="446">
@@ -15791,10 +15733,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H446" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="447">
@@ -15817,10 +15757,8 @@
       <c r="E447" t="inlineStr"/>
       <c r="F447" t="inlineStr"/>
       <c r="G447" t="inlineStr"/>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H447" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="448">
@@ -15847,10 +15785,8 @@
       </c>
       <c r="F448" t="inlineStr"/>
       <c r="G448" t="inlineStr"/>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H448" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="449">
@@ -15877,10 +15813,8 @@
       </c>
       <c r="F449" t="inlineStr"/>
       <c r="G449" t="inlineStr"/>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H449" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="450">
@@ -15903,10 +15837,8 @@
       </c>
       <c r="F450" t="inlineStr"/>
       <c r="G450" t="inlineStr"/>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H450" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="451">
@@ -15933,10 +15865,8 @@
           <t>4.7%</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H451" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="452">
@@ -15963,10 +15893,8 @@
           <t>CNY690.0B</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H452" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="453">
@@ -15993,10 +15921,8 @@
         </is>
       </c>
       <c r="G453" t="inlineStr"/>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H453" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="454">
@@ -16023,10 +15949,8 @@
           <t>7.5%</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H454" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="455">
@@ -16053,10 +15977,8 @@
           <t>CNY1850.0B</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H455" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="456">
@@ -16097,10 +16019,8 @@
       </c>
       <c r="F457" t="inlineStr"/>
       <c r="G457" t="inlineStr"/>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H457" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="458">
@@ -16145,10 +16065,8 @@
           <t>$ 85B</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H459" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="460">
@@ -16175,10 +16093,8 @@
       </c>
       <c r="F460" t="inlineStr"/>
       <c r="G460" t="inlineStr"/>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H460" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="461">
@@ -16205,10 +16121,8 @@
       </c>
       <c r="F461" t="inlineStr"/>
       <c r="G461" t="inlineStr"/>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H461" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="462">
@@ -16253,10 +16167,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H463" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="464">
@@ -16287,10 +16199,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H464" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="465">
@@ -16317,10 +16227,8 @@
       </c>
       <c r="F465" t="inlineStr"/>
       <c r="G465" t="inlineStr"/>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H465" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="466">
@@ -16347,10 +16255,8 @@
       </c>
       <c r="F466" t="inlineStr"/>
       <c r="G466" t="inlineStr"/>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H466" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="467">
@@ -16377,10 +16283,8 @@
       </c>
       <c r="F467" t="inlineStr"/>
       <c r="G467" t="inlineStr"/>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H467" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="468">
@@ -16407,10 +16311,8 @@
       </c>
       <c r="F468" t="inlineStr"/>
       <c r="G468" t="inlineStr"/>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H468" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="469">
@@ -16441,10 +16343,8 @@
           <t>6.0%</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H469" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="470">
@@ -16475,10 +16375,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H470" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="471">
@@ -16505,10 +16403,8 @@
       </c>
       <c r="F471" t="inlineStr"/>
       <c r="G471" t="inlineStr"/>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H471" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="472">
@@ -16535,10 +16431,8 @@
       </c>
       <c r="F472" t="inlineStr"/>
       <c r="G472" t="inlineStr"/>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H472" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="473">
@@ -16565,10 +16459,8 @@
       </c>
       <c r="F473" t="inlineStr"/>
       <c r="G473" t="inlineStr"/>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H473" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="474">
@@ -16599,10 +16491,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H474" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="475">
@@ -16629,10 +16519,8 @@
       </c>
       <c r="F475" t="inlineStr"/>
       <c r="G475" t="inlineStr"/>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H475" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="476">
@@ -16659,10 +16547,8 @@
       </c>
       <c r="F476" t="inlineStr"/>
       <c r="G476" t="inlineStr"/>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H476" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="477">
@@ -16689,10 +16575,8 @@
       </c>
       <c r="F477" t="inlineStr"/>
       <c r="G477" t="inlineStr"/>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H477" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="478">
@@ -16719,10 +16603,8 @@
       </c>
       <c r="F478" t="inlineStr"/>
       <c r="G478" t="inlineStr"/>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H478" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="479">
@@ -16749,10 +16631,8 @@
       </c>
       <c r="F479" t="inlineStr"/>
       <c r="G479" t="inlineStr"/>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H479" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="480">
@@ -16775,10 +16655,8 @@
       </c>
       <c r="F480" t="inlineStr"/>
       <c r="G480" t="inlineStr"/>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H480" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="481">
@@ -16801,10 +16679,8 @@
       </c>
       <c r="F481" t="inlineStr"/>
       <c r="G481" t="inlineStr"/>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H481" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="482">
@@ -16827,10 +16703,8 @@
       </c>
       <c r="F482" t="inlineStr"/>
       <c r="G482" t="inlineStr"/>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H482" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="483">
@@ -16857,10 +16731,8 @@
           <t>6.4%</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H483" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="484">
@@ -16883,10 +16755,8 @@
       </c>
       <c r="F484" t="inlineStr"/>
       <c r="G484" t="inlineStr"/>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H484" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="485">
@@ -16905,10 +16775,8 @@
       <c r="E485" t="inlineStr"/>
       <c r="F485" t="inlineStr"/>
       <c r="G485" t="inlineStr"/>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H485" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="486">
@@ -16949,10 +16817,8 @@
       </c>
       <c r="F487" t="inlineStr"/>
       <c r="G487" t="inlineStr"/>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H487" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="488">
@@ -16979,10 +16845,8 @@
       </c>
       <c r="F488" t="inlineStr"/>
       <c r="G488" t="inlineStr"/>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H488" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="489">
@@ -17009,10 +16873,8 @@
       </c>
       <c r="F489" t="inlineStr"/>
       <c r="G489" t="inlineStr"/>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H489" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="490">
@@ -17043,10 +16905,8 @@
           <t>¥1990.0B</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H490" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="491">
@@ -17077,10 +16937,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H491" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="492">
@@ -17107,10 +16965,8 @@
       </c>
       <c r="F492" t="inlineStr"/>
       <c r="G492" t="inlineStr"/>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H492" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="493">
@@ -17137,10 +16993,8 @@
       </c>
       <c r="F493" t="inlineStr"/>
       <c r="G493" t="inlineStr"/>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H493" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="494">
@@ -17167,10 +17021,8 @@
       </c>
       <c r="F494" t="inlineStr"/>
       <c r="G494" t="inlineStr"/>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H494" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="495">
@@ -17201,10 +17053,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H495" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="496">
@@ -17235,10 +17085,8 @@
           <t>49.6</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H496" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="497">
@@ -17265,10 +17113,8 @@
       </c>
       <c r="F497" t="inlineStr"/>
       <c r="G497" t="inlineStr"/>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H497" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="498">
@@ -17295,10 +17141,8 @@
       </c>
       <c r="F498" t="inlineStr"/>
       <c r="G498" t="inlineStr"/>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H498" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="499">
@@ -17329,10 +17173,8 @@
           <t>10.2%</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H499" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="500">
@@ -17363,10 +17205,8 @@
           <t>-3.2%</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H500" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="501">
@@ -17397,10 +17237,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H501" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="502">
@@ -17427,10 +17265,8 @@
       </c>
       <c r="F502" t="inlineStr"/>
       <c r="G502" t="inlineStr"/>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H502" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="503">
@@ -17457,10 +17293,8 @@
       </c>
       <c r="F503" t="inlineStr"/>
       <c r="G503" t="inlineStr"/>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H503" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="504">
@@ -17487,10 +17321,8 @@
       </c>
       <c r="F504" t="inlineStr"/>
       <c r="G504" t="inlineStr"/>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H504" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="505">
@@ -17517,10 +17349,8 @@
       </c>
       <c r="F505" t="inlineStr"/>
       <c r="G505" t="inlineStr"/>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H505" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="506">
@@ -17547,10 +17377,8 @@
       </c>
       <c r="F506" t="inlineStr"/>
       <c r="G506" t="inlineStr"/>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H506" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="507">
@@ -17577,10 +17405,8 @@
       </c>
       <c r="F507" t="inlineStr"/>
       <c r="G507" t="inlineStr"/>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H507" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="508">
@@ -17607,10 +17433,8 @@
       </c>
       <c r="F508" t="inlineStr"/>
       <c r="G508" t="inlineStr"/>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H508" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="509">
@@ -17641,10 +17465,8 @@
           <t>102</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H509" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="510">
@@ -17675,10 +17497,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H510" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="511">
@@ -17705,10 +17525,8 @@
       </c>
       <c r="F511" t="inlineStr"/>
       <c r="G511" t="inlineStr"/>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H511" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="512">
@@ -17739,10 +17557,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H512" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="513">
@@ -17773,10 +17589,8 @@
           <t>146.4</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H513" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="514">
@@ -17803,10 +17617,8 @@
       </c>
       <c r="F514" t="inlineStr"/>
       <c r="G514" t="inlineStr"/>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H514" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="515">
@@ -17833,10 +17645,8 @@
       </c>
       <c r="F515" t="inlineStr"/>
       <c r="G515" t="inlineStr"/>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H515" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="516">
@@ -17867,10 +17677,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H516" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="517">
@@ -17897,10 +17705,8 @@
       </c>
       <c r="F517" t="inlineStr"/>
       <c r="G517" t="inlineStr"/>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H517" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="518">
@@ -17927,10 +17733,8 @@
       </c>
       <c r="F518" t="inlineStr"/>
       <c r="G518" t="inlineStr"/>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H518" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="519">
@@ -17953,10 +17757,8 @@
       </c>
       <c r="F519" t="inlineStr"/>
       <c r="G519" t="inlineStr"/>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H519" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="520">
@@ -18001,10 +17803,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H521" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="522">
@@ -18035,10 +17835,8 @@
           <t>116.0%</t>
         </is>
       </c>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H522" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="523">
@@ -18069,10 +17867,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H523" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="524">
@@ -18103,10 +17899,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H524" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="525">
@@ -18133,10 +17927,8 @@
       </c>
       <c r="F525" t="inlineStr"/>
       <c r="G525" t="inlineStr"/>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H525" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="526">
@@ -18167,10 +17959,8 @@
           <t>$ 2.8B</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H526" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="527">
@@ -18197,10 +17987,8 @@
       </c>
       <c r="F527" t="inlineStr"/>
       <c r="G527" t="inlineStr"/>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H527" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="528">
@@ -18227,10 +18015,8 @@
       </c>
       <c r="F528" t="inlineStr"/>
       <c r="G528" t="inlineStr"/>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H528" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="529">
@@ -18257,10 +18043,8 @@
       </c>
       <c r="F529" t="inlineStr"/>
       <c r="G529" t="inlineStr"/>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H529" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="530">
@@ -18291,10 +18075,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H530" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="531">
@@ -18325,10 +18107,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H531" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="532">
@@ -18359,10 +18139,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H532" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="533">
@@ -18393,10 +18171,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H533" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="534">
@@ -18427,10 +18203,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H534" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="535">
@@ -18461,10 +18235,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H535" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="536">
@@ -18495,10 +18267,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H536" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="537">
@@ -18529,10 +18299,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H537" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="538">
@@ -18563,10 +18331,8 @@
           <t>2.1%</t>
         </is>
       </c>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H538" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="539">
@@ -18597,10 +18363,8 @@
           <t>-1.3%</t>
         </is>
       </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H539" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="540">
@@ -18631,10 +18395,8 @@
           <t>-1%</t>
         </is>
       </c>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H540" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="541">
@@ -18665,10 +18427,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H541" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="542">
@@ -18699,10 +18459,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H542" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="543">
@@ -18729,10 +18487,8 @@
       </c>
       <c r="F543" t="inlineStr"/>
       <c r="G543" t="inlineStr"/>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H543" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="544">
@@ -18763,10 +18519,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H544" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="545">
@@ -18793,10 +18547,8 @@
       </c>
       <c r="F545" t="inlineStr"/>
       <c r="G545" t="inlineStr"/>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H545" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="546">
@@ -18823,10 +18575,8 @@
       </c>
       <c r="F546" t="inlineStr"/>
       <c r="G546" t="inlineStr"/>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H546" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="547">
@@ -18853,10 +18603,8 @@
       </c>
       <c r="F547" t="inlineStr"/>
       <c r="G547" t="inlineStr"/>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H547" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="548">
@@ -18887,10 +18635,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H548" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="549">
@@ -18921,10 +18667,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H549" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="550">
@@ -18955,10 +18699,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H550" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="551">
@@ -18989,10 +18731,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H551" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="552">
@@ -19019,10 +18759,8 @@
       </c>
       <c r="F552" t="inlineStr"/>
       <c r="G552" t="inlineStr"/>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H552" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="553">
@@ -19057,10 +18795,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H553" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="554">
@@ -19095,10 +18831,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H554" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="555">
@@ -19133,10 +18867,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H555" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="556">
@@ -19167,10 +18899,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H556" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="557">
@@ -19201,10 +18931,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H557" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="558">
@@ -19231,10 +18959,8 @@
       </c>
       <c r="F558" t="inlineStr"/>
       <c r="G558" t="inlineStr"/>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H558" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="559">
@@ -19261,10 +18987,8 @@
       </c>
       <c r="F559" t="inlineStr"/>
       <c r="G559" t="inlineStr"/>
-      <c r="H559" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H559" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="560">
@@ -19291,10 +19015,8 @@
       </c>
       <c r="F560" t="inlineStr"/>
       <c r="G560" t="inlineStr"/>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H560" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="561">
@@ -19321,10 +19043,8 @@
       </c>
       <c r="F561" t="inlineStr"/>
       <c r="G561" t="inlineStr"/>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H561" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="562">
@@ -19351,10 +19071,8 @@
       </c>
       <c r="F562" t="inlineStr"/>
       <c r="G562" t="inlineStr"/>
-      <c r="H562" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H562" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="563">
@@ -19381,10 +19099,8 @@
       </c>
       <c r="F563" t="inlineStr"/>
       <c r="G563" t="inlineStr"/>
-      <c r="H563" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H563" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="564">
@@ -19411,10 +19127,8 @@
       </c>
       <c r="F564" t="inlineStr"/>
       <c r="G564" t="inlineStr"/>
-      <c r="H564" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H564" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="565">
@@ -19441,10 +19155,8 @@
       </c>
       <c r="F565" t="inlineStr"/>
       <c r="G565" t="inlineStr"/>
-      <c r="H565" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H565" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="566">
@@ -19471,10 +19183,8 @@
       </c>
       <c r="F566" t="inlineStr"/>
       <c r="G566" t="inlineStr"/>
-      <c r="H566" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H566" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="567">
@@ -19501,10 +19211,8 @@
       </c>
       <c r="F567" t="inlineStr"/>
       <c r="G567" t="inlineStr"/>
-      <c r="H567" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H567" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="568">
@@ -19531,10 +19239,8 @@
       </c>
       <c r="F568" t="inlineStr"/>
       <c r="G568" t="inlineStr"/>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H568" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="569">
@@ -19565,10 +19271,8 @@
           <t>$628.0B</t>
         </is>
       </c>
-      <c r="H569" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H569" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="570">
@@ -19603,10 +19307,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H570" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H570" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="571">
@@ -19633,10 +19335,8 @@
       </c>
       <c r="F571" t="inlineStr"/>
       <c r="G571" t="inlineStr"/>
-      <c r="H571" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H571" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="572">
@@ -19671,10 +19371,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H572" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H572" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="573">
@@ -19705,10 +19403,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H573" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H573" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="574">
@@ -19739,10 +19435,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H574" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H574" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="575">
@@ -19773,10 +19467,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H575" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H575" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="576">
@@ -19807,10 +19499,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H576" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H576" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="577">
@@ -19841,10 +19531,8 @@
           <t>313.8</t>
         </is>
       </c>
-      <c r="H577" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H577" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="578">
@@ -19875,10 +19563,8 @@
           <t>317.4</t>
         </is>
       </c>
-      <c r="H578" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H578" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="579">
@@ -19905,10 +19591,8 @@
       </c>
       <c r="F579" t="inlineStr"/>
       <c r="G579" t="inlineStr"/>
-      <c r="H579" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H579" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="580">
@@ -19935,10 +19619,8 @@
       </c>
       <c r="F580" t="inlineStr"/>
       <c r="G580" t="inlineStr"/>
-      <c r="H580" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H580" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="581">
@@ -19961,10 +19643,8 @@
       <c r="E581" t="inlineStr"/>
       <c r="F581" t="inlineStr"/>
       <c r="G581" t="inlineStr"/>
-      <c r="H581" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H581" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="582">
@@ -19987,10 +19667,8 @@
       <c r="E582" t="inlineStr"/>
       <c r="F582" t="inlineStr"/>
       <c r="G582" t="inlineStr"/>
-      <c r="H582" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H582" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="583">
@@ -20013,10 +19691,8 @@
       <c r="E583" t="inlineStr"/>
       <c r="F583" t="inlineStr"/>
       <c r="G583" t="inlineStr"/>
-      <c r="H583" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H583" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="584">
@@ -20043,10 +19719,8 @@
       </c>
       <c r="F584" t="inlineStr"/>
       <c r="G584" t="inlineStr"/>
-      <c r="H584" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H584" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="585">
@@ -20073,10 +19747,8 @@
       </c>
       <c r="F585" t="inlineStr"/>
       <c r="G585" t="inlineStr"/>
-      <c r="H585" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H585" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="586">
@@ -20103,10 +19775,8 @@
       </c>
       <c r="F586" t="inlineStr"/>
       <c r="G586" t="inlineStr"/>
-      <c r="H586" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H586" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="587">
@@ -20133,10 +19803,8 @@
       </c>
       <c r="F587" t="inlineStr"/>
       <c r="G587" t="inlineStr"/>
-      <c r="H587" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H587" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="588">
@@ -20163,10 +19831,8 @@
       </c>
       <c r="F588" t="inlineStr"/>
       <c r="G588" t="inlineStr"/>
-      <c r="H588" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H588" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="589">
@@ -20197,10 +19863,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H589" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H589" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="590">
@@ -20231,10 +19895,8 @@
           <t>9.5%</t>
         </is>
       </c>
-      <c r="H590" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H590" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="591">
@@ -20261,10 +19923,8 @@
       </c>
       <c r="F591" t="inlineStr"/>
       <c r="G591" t="inlineStr"/>
-      <c r="H591" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H591" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="592">
@@ -20295,10 +19955,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H592" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H592" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="593">
@@ -20325,10 +19983,8 @@
       </c>
       <c r="F593" t="inlineStr"/>
       <c r="G593" t="inlineStr"/>
-      <c r="H593" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H593" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="594">
@@ -20351,10 +20007,8 @@
       </c>
       <c r="F594" t="inlineStr"/>
       <c r="G594" t="inlineStr"/>
-      <c r="H594" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H594" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="595">
@@ -20381,10 +20035,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H595" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H595" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="596">
@@ -20411,10 +20063,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H596" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H596" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="597">
@@ -20441,10 +20091,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H597" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H597" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="598">
@@ -20467,10 +20115,8 @@
       </c>
       <c r="F598" t="inlineStr"/>
       <c r="G598" t="inlineStr"/>
-      <c r="H598" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H598" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="599">
@@ -20489,10 +20135,8 @@
       <c r="E599" t="inlineStr"/>
       <c r="F599" t="inlineStr"/>
       <c r="G599" t="inlineStr"/>
-      <c r="H599" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H599" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="600">
@@ -20519,10 +20163,8 @@
           <t>$ -23B</t>
         </is>
       </c>
-      <c r="H600" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H600" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="601">
@@ -20549,10 +20191,8 @@
           <t>$ 36B</t>
         </is>
       </c>
-      <c r="H601" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H601" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="602">
@@ -20579,10 +20219,8 @@
           <t>$ 59B</t>
         </is>
       </c>
-      <c r="H602" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H602" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="603">
@@ -20627,10 +20265,8 @@
           <t>3.30%</t>
         </is>
       </c>
-      <c r="H604" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H604" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="605">
@@ -20657,10 +20293,8 @@
       </c>
       <c r="F605" t="inlineStr"/>
       <c r="G605" t="inlineStr"/>
-      <c r="H605" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H605" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="606">
@@ -20691,10 +20325,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H606" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H606" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="607">
@@ -20725,10 +20357,8 @@
           <t>17.0%</t>
         </is>
       </c>
-      <c r="H607" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H607" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="608">
@@ -20759,10 +20389,8 @@
           <t>4.30%</t>
         </is>
       </c>
-      <c r="H608" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H608" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="609">
@@ -20793,10 +20421,8 @@
           <t>25.1K</t>
         </is>
       </c>
-      <c r="H609" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H609" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="610">
@@ -20823,10 +20449,8 @@
       </c>
       <c r="F610" t="inlineStr"/>
       <c r="G610" t="inlineStr"/>
-      <c r="H610" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H610" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="611">
@@ -20853,10 +20477,8 @@
       </c>
       <c r="F611" t="inlineStr"/>
       <c r="G611" t="inlineStr"/>
-      <c r="H611" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H611" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="612">
@@ -20887,10 +20509,8 @@
           <t>66.8%</t>
         </is>
       </c>
-      <c r="H612" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H612" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="613">
@@ -20917,10 +20537,8 @@
       </c>
       <c r="F613" t="inlineStr"/>
       <c r="G613" t="inlineStr"/>
-      <c r="H613" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H613" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="614">
@@ -20947,10 +20565,8 @@
       </c>
       <c r="F614" t="inlineStr"/>
       <c r="G614" t="inlineStr"/>
-      <c r="H614" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H614" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="615">
@@ -20977,10 +20593,8 @@
       </c>
       <c r="F615" t="inlineStr"/>
       <c r="G615" t="inlineStr"/>
-      <c r="H615" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H615" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="616">
@@ -21007,10 +20621,8 @@
       </c>
       <c r="F616" t="inlineStr"/>
       <c r="G616" t="inlineStr"/>
-      <c r="H616" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H616" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="617">
@@ -21045,10 +20657,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H617" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H617" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="618">
@@ -21079,10 +20689,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H618" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H618" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="619">
@@ -21117,10 +20725,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H619" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H619" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="620">
@@ -21155,10 +20761,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H620" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H620" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="621">
@@ -21189,10 +20793,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H621" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H621" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="622">
@@ -21223,10 +20825,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H622" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H622" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="623">
@@ -21257,10 +20857,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H623" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H623" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="624">
@@ -21287,10 +20885,8 @@
       </c>
       <c r="F624" t="inlineStr"/>
       <c r="G624" t="inlineStr"/>
-      <c r="H624" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H624" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="625">
@@ -21317,10 +20913,8 @@
       </c>
       <c r="F625" t="inlineStr"/>
       <c r="G625" t="inlineStr"/>
-      <c r="H625" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H625" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="626">
@@ -21347,10 +20941,8 @@
       </c>
       <c r="F626" t="inlineStr"/>
       <c r="G626" t="inlineStr"/>
-      <c r="H626" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H626" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="627">
@@ -21377,10 +20969,8 @@
       </c>
       <c r="F627" t="inlineStr"/>
       <c r="G627" t="inlineStr"/>
-      <c r="H627" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H627" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="628">
@@ -21407,10 +20997,8 @@
       </c>
       <c r="F628" t="inlineStr"/>
       <c r="G628" t="inlineStr"/>
-      <c r="H628" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H628" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="629">
@@ -21441,10 +21029,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H629" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H629" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="630">
@@ -21471,10 +21057,8 @@
       </c>
       <c r="F630" t="inlineStr"/>
       <c r="G630" t="inlineStr"/>
-      <c r="H630" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H630" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="631">
@@ -21501,10 +21085,8 @@
       </c>
       <c r="F631" t="inlineStr"/>
       <c r="G631" t="inlineStr"/>
-      <c r="H631" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H631" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="632">
@@ -21531,10 +21113,8 @@
       </c>
       <c r="F632" t="inlineStr"/>
       <c r="G632" t="inlineStr"/>
-      <c r="H632" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H632" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="633">
@@ -21569,10 +21149,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H633" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H633" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="634">
@@ -21607,10 +21185,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H634" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H634" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="635">
@@ -21645,10 +21221,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H635" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H635" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="636">
@@ -21683,10 +21257,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H636" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H636" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="637">
@@ -21709,10 +21281,8 @@
       <c r="E637" t="inlineStr"/>
       <c r="F637" t="inlineStr"/>
       <c r="G637" t="inlineStr"/>
-      <c r="H637" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H637" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="638">
@@ -21735,10 +21305,8 @@
       <c r="E638" t="inlineStr"/>
       <c r="F638" t="inlineStr"/>
       <c r="G638" t="inlineStr"/>
-      <c r="H638" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H638" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="639">
@@ -21761,10 +21329,8 @@
       <c r="E639" t="inlineStr"/>
       <c r="F639" t="inlineStr"/>
       <c r="G639" t="inlineStr"/>
-      <c r="H639" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H639" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="640">
@@ -21791,10 +21357,8 @@
       </c>
       <c r="F640" t="inlineStr"/>
       <c r="G640" t="inlineStr"/>
-      <c r="H640" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H640" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="641">
@@ -21817,10 +21381,8 @@
       <c r="E641" t="inlineStr"/>
       <c r="F641" t="inlineStr"/>
       <c r="G641" t="inlineStr"/>
-      <c r="H641" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H641" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="642">
@@ -21847,10 +21409,8 @@
       </c>
       <c r="F642" t="inlineStr"/>
       <c r="G642" t="inlineStr"/>
-      <c r="H642" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H642" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="643">
@@ -21881,10 +21441,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H643" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H643" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="644">
@@ -21915,10 +21473,8 @@
           <t>220K</t>
         </is>
       </c>
-      <c r="H644" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H644" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="645">
@@ -21949,10 +21505,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H645" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H645" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="646">
@@ -21983,10 +21537,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H646" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H646" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="647">
@@ -22013,10 +21565,8 @@
       </c>
       <c r="F647" t="inlineStr"/>
       <c r="G647" t="inlineStr"/>
-      <c r="H647" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H647" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="648">
@@ -22047,10 +21597,8 @@
           <t>209.0K</t>
         </is>
       </c>
-      <c r="H648" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H648" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="649">
@@ -22077,10 +21625,8 @@
       </c>
       <c r="F649" t="inlineStr"/>
       <c r="G649" t="inlineStr"/>
-      <c r="H649" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H649" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="650">
@@ -22111,10 +21657,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H650" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H650" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="651">
@@ -22145,10 +21689,8 @@
           <t>1870.0K</t>
         </is>
       </c>
-      <c r="H651" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H651" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="652">
@@ -22175,10 +21717,8 @@
       </c>
       <c r="F652" t="inlineStr"/>
       <c r="G652" t="inlineStr"/>
-      <c r="H652" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H652" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="653">
@@ -22209,10 +21749,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H653" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H653" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="654">
@@ -22243,10 +21781,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="H654" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H654" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="655">
@@ -22273,10 +21809,8 @@
       </c>
       <c r="F655" t="inlineStr"/>
       <c r="G655" t="inlineStr"/>
-      <c r="H655" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H655" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="656">
@@ -22303,10 +21837,8 @@
       </c>
       <c r="F656" t="inlineStr"/>
       <c r="G656" t="inlineStr"/>
-      <c r="H656" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H656" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="657">
@@ -22333,10 +21865,8 @@
       </c>
       <c r="F657" t="inlineStr"/>
       <c r="G657" t="inlineStr"/>
-      <c r="H657" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H657" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="658">
@@ -22363,10 +21893,8 @@
       </c>
       <c r="F658" t="inlineStr"/>
       <c r="G658" t="inlineStr"/>
-      <c r="H658" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H658" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="659">
@@ -22393,10 +21921,8 @@
       </c>
       <c r="F659" t="inlineStr"/>
       <c r="G659" t="inlineStr"/>
-      <c r="H659" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H659" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="660">
@@ -22427,10 +21953,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H660" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H660" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="661">
@@ -22461,10 +21985,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H661" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H661" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="662">
@@ -22491,10 +22013,8 @@
       </c>
       <c r="F662" t="inlineStr"/>
       <c r="G662" t="inlineStr"/>
-      <c r="H662" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H662" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="663">
@@ -22521,10 +22041,8 @@
       </c>
       <c r="F663" t="inlineStr"/>
       <c r="G663" t="inlineStr"/>
-      <c r="H663" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H663" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="664">
@@ -22551,10 +22069,8 @@
       </c>
       <c r="F664" t="inlineStr"/>
       <c r="G664" t="inlineStr"/>
-      <c r="H664" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H664" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="665">
@@ -22581,10 +22097,8 @@
       </c>
       <c r="F665" t="inlineStr"/>
       <c r="G665" t="inlineStr"/>
-      <c r="H665" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H665" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="666">
@@ -22607,10 +22121,8 @@
       <c r="E666" t="inlineStr"/>
       <c r="F666" t="inlineStr"/>
       <c r="G666" t="inlineStr"/>
-      <c r="H666" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H666" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="667">
@@ -22633,10 +22145,8 @@
       <c r="E667" t="inlineStr"/>
       <c r="F667" t="inlineStr"/>
       <c r="G667" t="inlineStr"/>
-      <c r="H667" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H667" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="668">
@@ -22659,10 +22169,8 @@
       <c r="E668" t="inlineStr"/>
       <c r="F668" t="inlineStr"/>
       <c r="G668" t="inlineStr"/>
-      <c r="H668" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H668" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="669">
@@ -22685,106 +22193,140 @@
       <c r="E669" t="inlineStr"/>
       <c r="F669" t="inlineStr"/>
       <c r="G669" t="inlineStr"/>
-      <c r="H669" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H669" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>Friday January 17 2025</t>
-        </is>
-      </c>
-      <c r="B670" t="inlineStr"/>
-      <c r="C670" t="inlineStr"/>
+          <t>02:30 PM</t>
+        </is>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C670" t="inlineStr">
+        <is>
+          <t>Current Account s.aNOV</t>
+        </is>
+      </c>
       <c r="D670" t="inlineStr"/>
-      <c r="E670" t="inlineStr"/>
+      <c r="E670" t="inlineStr">
+        <is>
+          <t>€33.5B</t>
+        </is>
+      </c>
       <c r="F670" t="inlineStr"/>
       <c r="G670" t="inlineStr"/>
-      <c r="H670" t="inlineStr"/>
+      <c r="H670" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C671" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/15</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D671" t="inlineStr"/>
-      <c r="E671" t="inlineStr"/>
+      <c r="E671" t="inlineStr">
+        <is>
+          <t>€-3.93B</t>
+        </is>
+      </c>
       <c r="F671" t="inlineStr"/>
       <c r="G671" t="inlineStr"/>
       <c r="H671" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C672" t="inlineStr">
         <is>
-          <t>Reuters Tankan IndexJAN</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D672" t="inlineStr"/>
       <c r="E672" t="inlineStr">
         <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="F672" t="inlineStr"/>
+          <t>2.2%</t>
+        </is>
+      </c>
+      <c r="F672" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
       <c r="G672" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="H672" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C673" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/11</t>
+          <t>Core Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D673" t="inlineStr"/>
-      <c r="E673" t="inlineStr"/>
-      <c r="F673" t="inlineStr"/>
-      <c r="G673" t="inlineStr"/>
+      <c r="E673" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="F673" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="G673" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="H673" t="inlineStr">
         <is>
           <t>3</t>
@@ -22794,23 +22336,35 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C674" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersJAN/11</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D674" t="inlineStr"/>
-      <c r="E674" t="inlineStr"/>
-      <c r="F674" t="inlineStr"/>
-      <c r="G674" t="inlineStr"/>
+      <c r="E674" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="F674" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G674" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H674" t="inlineStr">
         <is>
           <t>3</t>
@@ -22820,29 +22374,33 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C675" t="inlineStr">
         <is>
-          <t>Non-Oil Exports MoMDEC</t>
+          <t>CPI FinalDEC</t>
         </is>
       </c>
       <c r="D675" t="inlineStr"/>
       <c r="E675" t="inlineStr">
         <is>
-          <t>14.7%</t>
-        </is>
-      </c>
-      <c r="F675" t="inlineStr"/>
+          <t>126.62</t>
+        </is>
+      </c>
+      <c r="F675" t="inlineStr">
+        <is>
+          <t>127.08</t>
+        </is>
+      </c>
       <c r="G675" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>127</t>
         </is>
       </c>
       <c r="H675" t="inlineStr">
@@ -22854,31 +22412,27 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C676" t="inlineStr">
         <is>
-          <t>Non-Oil Exports YoYDEC</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D676" t="inlineStr"/>
       <c r="E676" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>€5628M</t>
         </is>
       </c>
       <c r="F676" t="inlineStr"/>
-      <c r="G676" t="inlineStr">
-        <is>
-          <t>7.5%</t>
-        </is>
-      </c>
+      <c r="G676" t="inlineStr"/>
       <c r="H676" t="inlineStr">
         <is>
           <t>3</t>
@@ -22888,23 +22442,23 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C677" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsJAN</t>
+          <t>Bank Loan Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D677" t="inlineStr"/>
       <c r="E677" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>11.5%</t>
         </is>
       </c>
       <c r="F677" t="inlineStr"/>
@@ -22918,65 +22472,53 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C678" t="inlineStr">
         <is>
-          <t>House Price Index YoYDEC</t>
+          <t>Deposit Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D678" t="inlineStr"/>
       <c r="E678" t="inlineStr">
         <is>
-          <t>-5.7%</t>
+          <t>11.5%</t>
         </is>
       </c>
       <c r="F678" t="inlineStr"/>
-      <c r="G678" t="inlineStr">
-        <is>
-          <t>-5.8%</t>
-        </is>
-      </c>
+      <c r="G678" t="inlineStr"/>
       <c r="H678" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C679" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Foreign Exchange ReservesJAN/10</t>
         </is>
       </c>
       <c r="D679" t="inlineStr"/>
-      <c r="E679" t="inlineStr">
-        <is>
-          <t>$6.52B</t>
-        </is>
-      </c>
+      <c r="E679" t="inlineStr"/>
       <c r="F679" t="inlineStr"/>
-      <c r="G679" t="inlineStr">
-        <is>
-          <t>$ 3.6B</t>
-        </is>
-      </c>
+      <c r="G679" t="inlineStr"/>
       <c r="H679" t="inlineStr">
         <is>
           <t>3</t>
@@ -22986,97 +22528,89 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C680" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoYQ4</t>
+          <t>Foreign Securities PurchasesNOV</t>
         </is>
       </c>
       <c r="D680" t="inlineStr"/>
       <c r="E680" t="inlineStr">
         <is>
-          <t>4.6%</t>
+          <t>C$21.55B</t>
         </is>
       </c>
       <c r="F680" t="inlineStr"/>
-      <c r="G680" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
+      <c r="G680" t="inlineStr"/>
       <c r="H680" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C681" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Foreign Securities Purchases by CanadiansNOV</t>
         </is>
       </c>
       <c r="D681" t="inlineStr"/>
       <c r="E681" t="inlineStr">
         <is>
-          <t>5.4%</t>
+          <t>C$-2.65B</t>
         </is>
       </c>
       <c r="F681" t="inlineStr"/>
-      <c r="G681" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="G681" t="inlineStr"/>
       <c r="H681" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C682" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Building Permits PrelDEC</t>
         </is>
       </c>
       <c r="D682" t="inlineStr"/>
       <c r="E682" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>1.493M</t>
         </is>
       </c>
       <c r="F682" t="inlineStr"/>
       <c r="G682" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>1.6M</t>
         </is>
       </c>
       <c r="H682" t="inlineStr">
@@ -23088,65 +22622,61 @@
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C683" t="inlineStr">
         <is>
-          <t>Fixed Asset Investment (YTD) YoYDEC</t>
+          <t>Housing StartsDEC</t>
         </is>
       </c>
       <c r="D683" t="inlineStr"/>
       <c r="E683" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>1.289M</t>
         </is>
       </c>
       <c r="F683" t="inlineStr"/>
       <c r="G683" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>1.5M</t>
         </is>
       </c>
       <c r="H683" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C684" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQQ4</t>
+          <t>Building Permits MoM PrelDEC</t>
         </is>
       </c>
       <c r="D684" t="inlineStr"/>
       <c r="E684" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F684" t="inlineStr"/>
-      <c r="G684" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="G684" t="inlineStr"/>
       <c r="H684" t="inlineStr">
         <is>
           <t>2</t>
@@ -23156,91 +22686,95 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C685" t="inlineStr">
         <is>
-          <t>Industrial Capacity UtilizationQ4</t>
+          <t>Housing Starts MoMDEC</t>
         </is>
       </c>
       <c r="D685" t="inlineStr"/>
       <c r="E685" t="inlineStr">
         <is>
-          <t>75.1%</t>
+          <t>-1.8%</t>
         </is>
       </c>
       <c r="F685" t="inlineStr"/>
       <c r="G685" t="inlineStr">
         <is>
-          <t>74.9%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="H685" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C686" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D686" t="inlineStr"/>
       <c r="E686" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F686" t="inlineStr"/>
-      <c r="G686" t="inlineStr">
-        <is>
-          <t>5.00%</t>
-        </is>
-      </c>
+      <c r="G686" t="inlineStr"/>
       <c r="H686" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C687" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Capacity UtilizationDEC</t>
         </is>
       </c>
       <c r="D687" t="inlineStr"/>
-      <c r="E687" t="inlineStr"/>
+      <c r="E687" t="inlineStr">
+        <is>
+          <t>76.8%</t>
+        </is>
+      </c>
       <c r="F687" t="inlineStr"/>
-      <c r="G687" t="inlineStr"/>
+      <c r="G687" t="inlineStr">
+        <is>
+          <t>77.8%</t>
+        </is>
+      </c>
       <c r="H687" t="inlineStr">
         <is>
           <t>3</t>
@@ -23250,95 +22784,99 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C688" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D688" t="inlineStr"/>
       <c r="E688" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="F688" t="inlineStr"/>
       <c r="G688" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H688" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C689" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Manufacturing Production MoMDEC</t>
         </is>
       </c>
       <c r="D689" t="inlineStr"/>
       <c r="E689" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F689" t="inlineStr"/>
       <c r="G689" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H689" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C690" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel MoMDEC</t>
+          <t>Manufacturing Production YoYDEC</t>
         </is>
       </c>
       <c r="D690" t="inlineStr"/>
       <c r="E690" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>-1%</t>
         </is>
       </c>
       <c r="F690" t="inlineStr"/>
-      <c r="G690" t="inlineStr"/>
+      <c r="G690" t="inlineStr">
+        <is>
+          <t>-0.9%</t>
+        </is>
+      </c>
       <c r="H690" t="inlineStr">
         <is>
           <t>3</t>
@@ -23348,25 +22886,21 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C691" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel YoYDEC</t>
+          <t>Baker Hughes Oil Rig CountJAN/17</t>
         </is>
       </c>
       <c r="D691" t="inlineStr"/>
-      <c r="E691" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E691" t="inlineStr"/>
       <c r="F691" t="inlineStr"/>
       <c r="G691" t="inlineStr"/>
       <c r="H691" t="inlineStr">
@@ -23378,31 +22912,23 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>12:50 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C692" t="inlineStr">
         <is>
-          <t>Loan Growth YoYDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/17</t>
         </is>
       </c>
       <c r="D692" t="inlineStr"/>
-      <c r="E692" t="inlineStr">
-        <is>
-          <t>10.79%</t>
-        </is>
-      </c>
+      <c r="E692" t="inlineStr"/>
       <c r="F692" t="inlineStr"/>
-      <c r="G692" t="inlineStr">
-        <is>
-          <t>10%</t>
-        </is>
-      </c>
+      <c r="G692" t="inlineStr"/>
       <c r="H692" t="inlineStr">
         <is>
           <t>3</t>
@@ -23410,25 +22936,21 @@
       </c>
     </row>
     <row r="693">
-      <c r="A693" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
+      <c r="A693" t="inlineStr"/>
       <c r="B693" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C693" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>50-Year KTB Auction</t>
         </is>
       </c>
       <c r="D693" t="inlineStr"/>
       <c r="E693" t="inlineStr">
         <is>
-          <t>€32B</t>
+          <t>2.40%</t>
         </is>
       </c>
       <c r="F693" t="inlineStr"/>
@@ -23442,53 +22964,37 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
-      <c r="B694" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C694" t="inlineStr">
-        <is>
-          <t>Current Account s.aNOV</t>
-        </is>
-      </c>
+          <t>Saturday January 18 2025</t>
+        </is>
+      </c>
+      <c r="B694" t="inlineStr"/>
+      <c r="C694" t="inlineStr"/>
       <c r="D694" t="inlineStr"/>
-      <c r="E694" t="inlineStr">
-        <is>
-          <t>€33.5B</t>
-        </is>
-      </c>
+      <c r="E694" t="inlineStr"/>
       <c r="F694" t="inlineStr"/>
       <c r="G694" t="inlineStr"/>
-      <c r="H694" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H694" t="inlineStr"/>
     </row>
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C695" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Net Long-term TIC FlowsNOV</t>
         </is>
       </c>
       <c r="D695" t="inlineStr"/>
       <c r="E695" t="inlineStr">
         <is>
-          <t>€-3.93B</t>
+          <t>$152.3B</t>
         </is>
       </c>
       <c r="F695" t="inlineStr"/>
@@ -23502,806 +23008,58 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C696" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Foreign Bond InvestmentNOV</t>
         </is>
       </c>
       <c r="D696" t="inlineStr"/>
       <c r="E696" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F696" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="G696" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+          <t>$92.1B</t>
+        </is>
+      </c>
+      <c r="F696" t="inlineStr"/>
+      <c r="G696" t="inlineStr"/>
       <c r="H696" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C697" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FinalDEC</t>
+          <t>Overall Net Capital FlowsNOV</t>
         </is>
       </c>
       <c r="D697" t="inlineStr"/>
       <c r="E697" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F697" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="G697" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+          <t>$203.6B</t>
+        </is>
+      </c>
+      <c r="F697" t="inlineStr"/>
+      <c r="G697" t="inlineStr"/>
       <c r="H697" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="698">
-      <c r="A698" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B698" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C698" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoM FinalDEC</t>
-        </is>
-      </c>
-      <c r="D698" t="inlineStr"/>
-      <c r="E698" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F698" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G698" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H698" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="699">
-      <c r="A699" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B699" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C699" t="inlineStr">
-        <is>
-          <t>CPI FinalDEC</t>
-        </is>
-      </c>
-      <c r="D699" t="inlineStr"/>
-      <c r="E699" t="inlineStr">
-        <is>
-          <t>126.62</t>
-        </is>
-      </c>
-      <c r="F699" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
-      <c r="G699" t="inlineStr">
-        <is>
-          <t>127</t>
-        </is>
-      </c>
-      <c r="H699" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="700">
-      <c r="A700" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B700" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C700" t="inlineStr">
-        <is>
-          <t>Current AccountNOV</t>
-        </is>
-      </c>
-      <c r="D700" t="inlineStr"/>
-      <c r="E700" t="inlineStr">
-        <is>
-          <t>€5628M</t>
-        </is>
-      </c>
-      <c r="F700" t="inlineStr"/>
-      <c r="G700" t="inlineStr"/>
-      <c r="H700" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="701">
-      <c r="A701" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
-      <c r="B701" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C701" t="inlineStr">
-        <is>
-          <t>Bank Loan Growth YoYJAN/03</t>
-        </is>
-      </c>
-      <c r="D701" t="inlineStr"/>
-      <c r="E701" t="inlineStr">
-        <is>
-          <t>11.5%</t>
-        </is>
-      </c>
-      <c r="F701" t="inlineStr"/>
-      <c r="G701" t="inlineStr"/>
-      <c r="H701" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="702">
-      <c r="A702" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
-      <c r="B702" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C702" t="inlineStr">
-        <is>
-          <t>Deposit Growth YoYJAN/03</t>
-        </is>
-      </c>
-      <c r="D702" t="inlineStr"/>
-      <c r="E702" t="inlineStr">
-        <is>
-          <t>11.5%</t>
-        </is>
-      </c>
-      <c r="F702" t="inlineStr"/>
-      <c r="G702" t="inlineStr"/>
-      <c r="H702" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="703">
-      <c r="A703" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
-      <c r="B703" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C703" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN/10</t>
-        </is>
-      </c>
-      <c r="D703" t="inlineStr"/>
-      <c r="E703" t="inlineStr"/>
-      <c r="F703" t="inlineStr"/>
-      <c r="G703" t="inlineStr"/>
-      <c r="H703" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="704">
-      <c r="A704" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B704" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C704" t="inlineStr">
-        <is>
-          <t>Foreign Securities PurchasesNOV</t>
-        </is>
-      </c>
-      <c r="D704" t="inlineStr"/>
-      <c r="E704" t="inlineStr">
-        <is>
-          <t>C$21.55B</t>
-        </is>
-      </c>
-      <c r="F704" t="inlineStr"/>
-      <c r="G704" t="inlineStr"/>
-      <c r="H704" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="705">
-      <c r="A705" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B705" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C705" t="inlineStr">
-        <is>
-          <t>Foreign Securities Purchases by CanadiansNOV</t>
-        </is>
-      </c>
-      <c r="D705" t="inlineStr"/>
-      <c r="E705" t="inlineStr">
-        <is>
-          <t>C$-2.65B</t>
-        </is>
-      </c>
-      <c r="F705" t="inlineStr"/>
-      <c r="G705" t="inlineStr"/>
-      <c r="H705" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="706">
-      <c r="A706" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B706" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C706" t="inlineStr">
-        <is>
-          <t>Building Permits PrelDEC</t>
-        </is>
-      </c>
-      <c r="D706" t="inlineStr"/>
-      <c r="E706" t="inlineStr">
-        <is>
-          <t>1.493M</t>
-        </is>
-      </c>
-      <c r="F706" t="inlineStr"/>
-      <c r="G706" t="inlineStr">
-        <is>
-          <t>1.6M</t>
-        </is>
-      </c>
-      <c r="H706" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="707">
-      <c r="A707" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B707" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C707" t="inlineStr">
-        <is>
-          <t>Housing StartsDEC</t>
-        </is>
-      </c>
-      <c r="D707" t="inlineStr"/>
-      <c r="E707" t="inlineStr">
-        <is>
-          <t>1.289M</t>
-        </is>
-      </c>
-      <c r="F707" t="inlineStr"/>
-      <c r="G707" t="inlineStr">
-        <is>
-          <t>1.5M</t>
-        </is>
-      </c>
-      <c r="H707" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="708">
-      <c r="A708" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B708" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C708" t="inlineStr">
-        <is>
-          <t>Building Permits MoM PrelDEC</t>
-        </is>
-      </c>
-      <c r="D708" t="inlineStr"/>
-      <c r="E708" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F708" t="inlineStr"/>
-      <c r="G708" t="inlineStr"/>
-      <c r="H708" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="709">
-      <c r="A709" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B709" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C709" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMDEC</t>
-        </is>
-      </c>
-      <c r="D709" t="inlineStr"/>
-      <c r="E709" t="inlineStr">
-        <is>
-          <t>-1.8%</t>
-        </is>
-      </c>
-      <c r="F709" t="inlineStr"/>
-      <c r="G709" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="H709" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="710">
-      <c r="A710" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B710" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C710" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMDEC</t>
-        </is>
-      </c>
-      <c r="D710" t="inlineStr"/>
-      <c r="E710" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F710" t="inlineStr"/>
-      <c r="G710" t="inlineStr"/>
-      <c r="H710" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="711">
-      <c r="A711" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B711" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C711" t="inlineStr">
-        <is>
-          <t>Capacity UtilizationDEC</t>
-        </is>
-      </c>
-      <c r="D711" t="inlineStr"/>
-      <c r="E711" t="inlineStr">
-        <is>
-          <t>76.8%</t>
-        </is>
-      </c>
-      <c r="F711" t="inlineStr"/>
-      <c r="G711" t="inlineStr">
-        <is>
-          <t>77.8%</t>
-        </is>
-      </c>
-      <c r="H711" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="712">
-      <c r="A712" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B712" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C712" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D712" t="inlineStr"/>
-      <c r="E712" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="F712" t="inlineStr"/>
-      <c r="G712" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="H712" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="713">
-      <c r="A713" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B713" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C713" t="inlineStr">
-        <is>
-          <t>Manufacturing Production MoMDEC</t>
-        </is>
-      </c>
-      <c r="D713" t="inlineStr"/>
-      <c r="E713" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F713" t="inlineStr"/>
-      <c r="G713" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H713" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="714">
-      <c r="A714" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B714" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C714" t="inlineStr">
-        <is>
-          <t>Manufacturing Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D714" t="inlineStr"/>
-      <c r="E714" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
-      <c r="F714" t="inlineStr"/>
-      <c r="G714" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="H714" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="715">
-      <c r="A715" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B715" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C715" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJAN/17</t>
-        </is>
-      </c>
-      <c r="D715" t="inlineStr"/>
-      <c r="E715" t="inlineStr"/>
-      <c r="F715" t="inlineStr"/>
-      <c r="G715" t="inlineStr"/>
-      <c r="H715" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="716">
-      <c r="A716" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B716" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C716" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJAN/17</t>
-        </is>
-      </c>
-      <c r="D716" t="inlineStr"/>
-      <c r="E716" t="inlineStr"/>
-      <c r="F716" t="inlineStr"/>
-      <c r="G716" t="inlineStr"/>
-      <c r="H716" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="717">
-      <c r="A717" t="inlineStr"/>
-      <c r="B717" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C717" t="inlineStr">
-        <is>
-          <t>50-Year KTB Auction</t>
-        </is>
-      </c>
-      <c r="D717" t="inlineStr"/>
-      <c r="E717" t="inlineStr">
-        <is>
-          <t>2.40%</t>
-        </is>
-      </c>
-      <c r="F717" t="inlineStr"/>
-      <c r="G717" t="inlineStr"/>
-      <c r="H717" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="718">
-      <c r="A718" t="inlineStr">
-        <is>
-          <t>Saturday January 18 2025</t>
-        </is>
-      </c>
-      <c r="B718" t="inlineStr"/>
-      <c r="C718" t="inlineStr"/>
-      <c r="D718" t="inlineStr"/>
-      <c r="E718" t="inlineStr"/>
-      <c r="F718" t="inlineStr"/>
-      <c r="G718" t="inlineStr"/>
-      <c r="H718" t="inlineStr"/>
-    </row>
-    <row r="719">
-      <c r="A719" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B719" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C719" t="inlineStr">
-        <is>
-          <t>Net Long-term TIC FlowsNOV</t>
-        </is>
-      </c>
-      <c r="D719" t="inlineStr"/>
-      <c r="E719" t="inlineStr">
-        <is>
-          <t>$152.3B</t>
-        </is>
-      </c>
-      <c r="F719" t="inlineStr"/>
-      <c r="G719" t="inlineStr"/>
-      <c r="H719" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="720">
-      <c r="A720" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B720" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C720" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentNOV</t>
-        </is>
-      </c>
-      <c r="D720" t="inlineStr"/>
-      <c r="E720" t="inlineStr">
-        <is>
-          <t>$92.1B</t>
-        </is>
-      </c>
-      <c r="F720" t="inlineStr"/>
-      <c r="G720" t="inlineStr"/>
-      <c r="H720" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="721">
-      <c r="A721" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B721" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C721" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsNOV</t>
-        </is>
-      </c>
-      <c r="D721" t="inlineStr"/>
-      <c r="E721" t="inlineStr">
-        <is>
-          <t>$203.6B</t>
-        </is>
-      </c>
-      <c r="F721" t="inlineStr"/>
-      <c r="G721" t="inlineStr"/>
-      <c r="H721" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-18.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H697"/>
+  <dimension ref="A1:H700"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16126,1369 +16126,1489 @@
       </c>
     </row>
     <row r="462">
-      <c r="A462" t="inlineStr">
-        <is>
-          <t>Monday January 13 2025</t>
-        </is>
-      </c>
-      <c r="B462" t="inlineStr"/>
-      <c r="C462" t="inlineStr"/>
+      <c r="A462" t="inlineStr"/>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>Vehicle Sales YoYDEC</t>
+        </is>
+      </c>
       <c r="D462" t="inlineStr"/>
-      <c r="E462" t="inlineStr"/>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t>11.7%</t>
+        </is>
+      </c>
       <c r="F462" t="inlineStr"/>
-      <c r="G462" t="inlineStr"/>
-      <c r="H462" t="inlineStr"/>
+      <c r="G462" t="inlineStr">
+        <is>
+          <t>6.4%</t>
+        </is>
+      </c>
+      <c r="H462" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="463">
-      <c r="A463" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
+      <c r="A463" t="inlineStr"/>
       <c r="B463" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>ANZ-Indeed Job Ads MoMDEC</t>
+          <t>Vehicle Sales YoYDEC</t>
         </is>
       </c>
       <c r="D463" t="inlineStr"/>
       <c r="E463" t="inlineStr">
         <is>
-          <t>-1.3%</t>
+          <t>12%</t>
         </is>
       </c>
       <c r="F463" t="inlineStr"/>
-      <c r="G463" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H463" t="n">
-        <v>3</v>
+      <c r="G463" t="inlineStr"/>
+      <c r="H463" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="464">
-      <c r="A464" t="inlineStr">
-        <is>
-          <t>06:30 AM</t>
-        </is>
-      </c>
+      <c r="A464" t="inlineStr"/>
       <c r="B464" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>TD-MI Inflation Gauge MoMDEC</t>
+          <t>BCB Focus Market Readout</t>
         </is>
       </c>
       <c r="D464" t="inlineStr"/>
-      <c r="E464" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E464" t="inlineStr"/>
       <c r="F464" t="inlineStr"/>
-      <c r="G464" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H464" t="n">
-        <v>3</v>
+      <c r="G464" t="inlineStr"/>
+      <c r="H464" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B465" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C465" t="inlineStr">
-        <is>
-          <t>Current AccountNOV</t>
-        </is>
-      </c>
+          <t>Tuesday January 14 2025</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr"/>
+      <c r="C465" t="inlineStr"/>
       <c r="D465" t="inlineStr"/>
-      <c r="E465" t="inlineStr">
-        <is>
-          <t>$1.88B</t>
-        </is>
-      </c>
+      <c r="E465" t="inlineStr"/>
       <c r="F465" t="inlineStr"/>
       <c r="G465" t="inlineStr"/>
-      <c r="H465" t="n">
-        <v>3</v>
-      </c>
+      <c r="H465" t="inlineStr"/>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>Monthly Budget StatementDEC</t>
         </is>
       </c>
       <c r="D466" t="inlineStr"/>
       <c r="E466" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>$-367B</t>
         </is>
       </c>
       <c r="F466" t="inlineStr"/>
       <c r="G466" t="inlineStr"/>
-      <c r="H466" t="n">
-        <v>3</v>
+      <c r="H466" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Westpac Consumer Confidence ChangeJAN</t>
         </is>
       </c>
       <c r="D467" t="inlineStr"/>
       <c r="E467" t="inlineStr">
         <is>
-          <t>15.0%</t>
+          <t>-2%</t>
         </is>
       </c>
       <c r="F467" t="inlineStr"/>
       <c r="G467" t="inlineStr"/>
-      <c r="H467" t="n">
-        <v>3</v>
+      <c r="H467" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>12-Month Bubill Auction</t>
+          <t>Westpac Consumer Confidence IndexJAN</t>
         </is>
       </c>
       <c r="D468" t="inlineStr"/>
       <c r="E468" t="inlineStr">
         <is>
-          <t>2.6672%</t>
+          <t>92.8</t>
         </is>
       </c>
       <c r="F468" t="inlineStr"/>
       <c r="G468" t="inlineStr"/>
-      <c r="H468" t="n">
-        <v>3</v>
+      <c r="H468" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D469" t="inlineStr"/>
       <c r="E469" t="inlineStr">
         <is>
-          <t>5.48%</t>
+          <t>¥2457B</t>
         </is>
       </c>
       <c r="F469" t="inlineStr"/>
       <c r="G469" t="inlineStr">
         <is>
-          <t>6.0%</t>
-        </is>
-      </c>
-      <c r="H469" t="n">
-        <v>2</v>
+          <t>¥1990.0B</t>
+        </is>
+      </c>
+      <c r="H469" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Bank Lending YoYDEC</t>
         </is>
       </c>
       <c r="D470" t="inlineStr"/>
       <c r="E470" t="inlineStr">
         <is>
-          <t>-0.15%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F470" t="inlineStr"/>
       <c r="G470" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H470" t="n">
-        <v>3</v>
+          <t>3.1%</t>
+        </is>
+      </c>
+      <c r="H470" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Building Permits MoM FinalNOV</t>
         </is>
       </c>
       <c r="D471" t="inlineStr"/>
       <c r="E471" t="inlineStr">
         <is>
-          <t>2.435%</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F471" t="inlineStr"/>
       <c r="G471" t="inlineStr"/>
-      <c r="H471" t="n">
-        <v>3</v>
+      <c r="H471" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Private House Approvals MoM FinalNOV</t>
         </is>
       </c>
       <c r="D472" t="inlineStr"/>
       <c r="E472" t="inlineStr">
         <is>
-          <t>2.704%</t>
+          <t>-4.0%</t>
         </is>
       </c>
       <c r="F472" t="inlineStr"/>
       <c r="G472" t="inlineStr"/>
-      <c r="H472" t="n">
-        <v>3</v>
+      <c r="H472" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>5-Year JGB Auction</t>
         </is>
       </c>
       <c r="D473" t="inlineStr"/>
       <c r="E473" t="inlineStr">
         <is>
-          <t>2.592%</t>
+          <t>0.734%</t>
         </is>
       </c>
       <c r="F473" t="inlineStr"/>
       <c r="G473" t="inlineStr"/>
-      <c r="H473" t="n">
-        <v>3</v>
+      <c r="H473" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsDEC</t>
+          <t>Eco Watchers Survey CurrentDEC</t>
         </is>
       </c>
       <c r="D474" t="inlineStr"/>
       <c r="E474" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>49.4</t>
         </is>
       </c>
       <c r="F474" t="inlineStr"/>
       <c r="G474" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="H474" t="n">
-        <v>3</v>
+          <t>49.8</t>
+        </is>
+      </c>
+      <c r="H474" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Eco Watchers Survey OutlookDEC</t>
         </is>
       </c>
       <c r="D475" t="inlineStr"/>
       <c r="E475" t="inlineStr">
         <is>
-          <t>4.205%</t>
+          <t>49.4</t>
         </is>
       </c>
       <c r="F475" t="inlineStr"/>
-      <c r="G475" t="inlineStr"/>
-      <c r="H475" t="n">
-        <v>3</v>
+      <c r="G475" t="inlineStr">
+        <is>
+          <t>49.6</t>
+        </is>
+      </c>
+      <c r="H475" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D476" t="inlineStr"/>
       <c r="E476" t="inlineStr">
         <is>
-          <t>4.110%</t>
+          <t>3.19%</t>
         </is>
       </c>
       <c r="F476" t="inlineStr"/>
       <c r="G476" t="inlineStr"/>
-      <c r="H476" t="n">
-        <v>3</v>
+      <c r="H476" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - CornDEC</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D477" t="inlineStr"/>
       <c r="E477" t="inlineStr">
         <is>
-          <t>1.760B</t>
+          <t>3.24%</t>
         </is>
       </c>
       <c r="F477" t="inlineStr"/>
       <c r="G477" t="inlineStr"/>
-      <c r="H477" t="n">
-        <v>3</v>
+      <c r="H477" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - SoyDEC</t>
+          <t>WPI Food Index YoYDEC</t>
         </is>
       </c>
       <c r="D478" t="inlineStr"/>
       <c r="E478" t="inlineStr">
         <is>
-          <t>0.342B</t>
+          <t>8.92%</t>
         </is>
       </c>
       <c r="F478" t="inlineStr"/>
-      <c r="G478" t="inlineStr"/>
-      <c r="H478" t="n">
-        <v>3</v>
+      <c r="G478" t="inlineStr">
+        <is>
+          <t>10.2%</t>
+        </is>
+      </c>
+      <c r="H478" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - WheatDEC</t>
+          <t>WPI Fuel YoYDEC</t>
         </is>
       </c>
       <c r="D479" t="inlineStr"/>
       <c r="E479" t="inlineStr">
         <is>
-          <t>1.98B</t>
+          <t>-5.83%</t>
         </is>
       </c>
       <c r="F479" t="inlineStr"/>
-      <c r="G479" t="inlineStr"/>
-      <c r="H479" t="n">
-        <v>3</v>
+      <c r="G479" t="inlineStr">
+        <is>
+          <t>-3.2%</t>
+        </is>
+      </c>
+      <c r="H479" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="480">
-      <c r="A480" t="inlineStr"/>
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>12:00 PM</t>
+        </is>
+      </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>3-Year KTB Auction</t>
+          <t>WPI Manufacturing YoYDEC</t>
         </is>
       </c>
       <c r="D480" t="inlineStr"/>
       <c r="E480" t="inlineStr">
         <is>
-          <t>2.53%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="F480" t="inlineStr"/>
-      <c r="G480" t="inlineStr"/>
-      <c r="H480" t="n">
-        <v>3</v>
+      <c r="G480" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="H480" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="481">
-      <c r="A481" t="inlineStr"/>
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>01:15 PM</t>
+        </is>
+      </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>Auto Production YoYDEC</t>
+          <t>Budget BalanceNOV</t>
         </is>
       </c>
       <c r="D481" t="inlineStr"/>
       <c r="E481" t="inlineStr">
         <is>
-          <t>-15.4%</t>
+          <t>€-157.39B</t>
         </is>
       </c>
       <c r="F481" t="inlineStr"/>
       <c r="G481" t="inlineStr"/>
-      <c r="H481" t="n">
-        <v>3</v>
+      <c r="H481" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="482">
-      <c r="A482" t="inlineStr"/>
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>02:30 PM</t>
+        </is>
+      </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>Auto Sales YoYDEC</t>
+          <t>Industrial Production MoMNOV</t>
         </is>
       </c>
       <c r="D482" t="inlineStr"/>
       <c r="E482" t="inlineStr">
         <is>
-          <t>5.3%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F482" t="inlineStr"/>
       <c r="G482" t="inlineStr"/>
-      <c r="H482" t="n">
-        <v>3</v>
+      <c r="H482" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="483">
-      <c r="A483" t="inlineStr"/>
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>02:30 PM</t>
+        </is>
+      </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>Vehicle Sales YoYDEC</t>
+          <t>Industrial Production YoYNOV</t>
         </is>
       </c>
       <c r="D483" t="inlineStr"/>
       <c r="E483" t="inlineStr">
         <is>
-          <t>11.7%</t>
+          <t>-3.6%</t>
         </is>
       </c>
       <c r="F483" t="inlineStr"/>
-      <c r="G483" t="inlineStr">
-        <is>
-          <t>6.4%</t>
-        </is>
-      </c>
-      <c r="H483" t="n">
-        <v>3</v>
+      <c r="G483" t="inlineStr"/>
+      <c r="H483" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="484">
-      <c r="A484" t="inlineStr"/>
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>03:10 PM</t>
+        </is>
+      </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>Vehicle Sales YoYDEC</t>
+          <t>3-Month Letras Auction</t>
         </is>
       </c>
       <c r="D484" t="inlineStr"/>
       <c r="E484" t="inlineStr">
         <is>
-          <t>12%</t>
+          <t>2.567%</t>
         </is>
       </c>
       <c r="F484" t="inlineStr"/>
       <c r="G484" t="inlineStr"/>
-      <c r="H484" t="n">
-        <v>3</v>
+      <c r="H484" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="485">
-      <c r="A485" t="inlineStr"/>
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>03:10 PM</t>
+        </is>
+      </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>BCB Focus Market Readout</t>
+          <t>9-Month Letras Auction</t>
         </is>
       </c>
       <c r="D485" t="inlineStr"/>
-      <c r="E485" t="inlineStr"/>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>2.366%</t>
+        </is>
+      </c>
       <c r="F485" t="inlineStr"/>
       <c r="G485" t="inlineStr"/>
-      <c r="H485" t="n">
-        <v>3</v>
+      <c r="H485" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>Tuesday January 14 2025</t>
-        </is>
-      </c>
-      <c r="B486" t="inlineStr"/>
-      <c r="C486" t="inlineStr"/>
+          <t>03:30 PM</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>20-Year Index-Linked Treasury Gilt Auction</t>
+        </is>
+      </c>
       <c r="D486" t="inlineStr"/>
-      <c r="E486" t="inlineStr"/>
+      <c r="E486" t="inlineStr">
+        <is>
+          <t>1.200%</t>
+        </is>
+      </c>
       <c r="F486" t="inlineStr"/>
       <c r="G486" t="inlineStr"/>
-      <c r="H486" t="inlineStr"/>
+      <c r="H486" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>Monthly Budget StatementDEC</t>
+          <t>5-Year Bobl Auction</t>
         </is>
       </c>
       <c r="D487" t="inlineStr"/>
       <c r="E487" t="inlineStr">
         <is>
-          <t>$-367B</t>
+          <t>2.04%</t>
         </is>
       </c>
       <c r="F487" t="inlineStr"/>
       <c r="G487" t="inlineStr"/>
-      <c r="H487" t="n">
-        <v>2</v>
+      <c r="H487" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>Westpac Consumer Confidence ChangeJAN</t>
+          <t>NFIB Business Optimism IndexDEC</t>
         </is>
       </c>
       <c r="D488" t="inlineStr"/>
       <c r="E488" t="inlineStr">
         <is>
-          <t>-2%</t>
+          <t>101.7</t>
         </is>
       </c>
       <c r="F488" t="inlineStr"/>
-      <c r="G488" t="inlineStr"/>
-      <c r="H488" t="n">
-        <v>1</v>
+      <c r="G488" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="H488" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>Westpac Consumer Confidence IndexJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D489" t="inlineStr"/>
       <c r="E489" t="inlineStr">
         <is>
-          <t>92.8</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F489" t="inlineStr"/>
-      <c r="G489" t="inlineStr"/>
-      <c r="H489" t="n">
-        <v>1</v>
+      <c r="G489" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H489" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Core PPI MoMDEC</t>
         </is>
       </c>
       <c r="D490" t="inlineStr"/>
       <c r="E490" t="inlineStr">
         <is>
-          <t>¥2457B</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F490" t="inlineStr"/>
-      <c r="G490" t="inlineStr">
-        <is>
-          <t>¥1990.0B</t>
-        </is>
-      </c>
-      <c r="H490" t="n">
-        <v>2</v>
+      <c r="G490" t="inlineStr"/>
+      <c r="H490" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>Bank Lending YoYDEC</t>
+          <t>Core PPI YoYDEC</t>
         </is>
       </c>
       <c r="D491" t="inlineStr"/>
       <c r="E491" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="F491" t="inlineStr"/>
       <c r="G491" t="inlineStr">
         <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="H491" t="n">
-        <v>3</v>
+          <t>3.2%</t>
+        </is>
+      </c>
+      <c r="H491" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalNOV</t>
+          <t>PPIDEC</t>
         </is>
       </c>
       <c r="D492" t="inlineStr"/>
       <c r="E492" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>146.493</t>
         </is>
       </c>
       <c r="F492" t="inlineStr"/>
-      <c r="G492" t="inlineStr"/>
-      <c r="H492" t="n">
-        <v>3</v>
+      <c r="G492" t="inlineStr">
+        <is>
+          <t>146.4</t>
+        </is>
+      </c>
+      <c r="H492" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>Private House Approvals MoM FinalNOV</t>
+          <t>PPI Ex Food, Energy and Trade MoMDEC</t>
         </is>
       </c>
       <c r="D493" t="inlineStr"/>
       <c r="E493" t="inlineStr">
         <is>
-          <t>-4.0%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F493" t="inlineStr"/>
       <c r="G493" t="inlineStr"/>
-      <c r="H493" t="n">
-        <v>3</v>
+      <c r="H493" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>5-Year JGB Auction</t>
+          <t>PPI Ex Food, Energy and Trade YoYDEC</t>
         </is>
       </c>
       <c r="D494" t="inlineStr"/>
       <c r="E494" t="inlineStr">
         <is>
-          <t>0.734%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="F494" t="inlineStr"/>
       <c r="G494" t="inlineStr"/>
-      <c r="H494" t="n">
-        <v>3</v>
+      <c r="H494" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>Eco Watchers Survey CurrentDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D495" t="inlineStr"/>
       <c r="E495" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F495" t="inlineStr"/>
       <c r="G495" t="inlineStr">
         <is>
-          <t>49.8</t>
-        </is>
-      </c>
-      <c r="H495" t="n">
-        <v>3</v>
+          <t>3.0%</t>
+        </is>
+      </c>
+      <c r="H495" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>Eco Watchers Survey OutlookDEC</t>
+          <t>Redbook YoYJAN/11</t>
         </is>
       </c>
       <c r="D496" t="inlineStr"/>
       <c r="E496" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>6.8%</t>
         </is>
       </c>
       <c r="F496" t="inlineStr"/>
-      <c r="G496" t="inlineStr">
-        <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="H496" t="n">
-        <v>3</v>
+      <c r="G496" t="inlineStr"/>
+      <c r="H496" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:35 PM</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>RCM/TIPP Economic Optimism IndexJAN</t>
         </is>
       </c>
       <c r="D497" t="inlineStr"/>
       <c r="E497" t="inlineStr">
         <is>
-          <t>3.19%</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F497" t="inlineStr"/>
       <c r="G497" t="inlineStr"/>
-      <c r="H497" t="n">
-        <v>3</v>
+      <c r="H497" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="498">
-      <c r="A498" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
+      <c r="A498" t="inlineStr"/>
       <c r="B498" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>5-Year KTB Auction</t>
         </is>
       </c>
       <c r="D498" t="inlineStr"/>
       <c r="E498" t="inlineStr">
         <is>
-          <t>3.24%</t>
+          <t>2.680%</t>
         </is>
       </c>
       <c r="F498" t="inlineStr"/>
       <c r="G498" t="inlineStr"/>
-      <c r="H498" t="n">
-        <v>3</v>
+      <c r="H498" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B499" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C499" t="inlineStr">
-        <is>
-          <t>WPI Food Index YoYDEC</t>
-        </is>
-      </c>
+          <t>Wednesday January 15 2025</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr"/>
+      <c r="C499" t="inlineStr"/>
       <c r="D499" t="inlineStr"/>
-      <c r="E499" t="inlineStr">
-        <is>
-          <t>8.92%</t>
-        </is>
-      </c>
+      <c r="E499" t="inlineStr"/>
       <c r="F499" t="inlineStr"/>
-      <c r="G499" t="inlineStr">
-        <is>
-          <t>10.2%</t>
-        </is>
-      </c>
-      <c r="H499" t="n">
-        <v>3</v>
-      </c>
+      <c r="G499" t="inlineStr"/>
+      <c r="H499" t="inlineStr"/>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>WPI Fuel YoYDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D500" t="inlineStr"/>
       <c r="E500" t="inlineStr">
         <is>
-          <t>-5.83%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F500" t="inlineStr"/>
       <c r="G500" t="inlineStr">
         <is>
-          <t>-3.2%</t>
-        </is>
-      </c>
-      <c r="H500" t="n">
-        <v>3</v>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="H500" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>WPI Manufacturing YoYDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D501" t="inlineStr"/>
       <c r="E501" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>166%</t>
         </is>
       </c>
       <c r="F501" t="inlineStr"/>
       <c r="G501" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="H501" t="n">
-        <v>3</v>
+          <t>116.0%</t>
+        </is>
+      </c>
+      <c r="H501" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>Budget BalanceNOV</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D502" t="inlineStr"/>
       <c r="E502" t="inlineStr">
         <is>
-          <t>€-157.39B</t>
+          <t>7%</t>
         </is>
       </c>
       <c r="F502" t="inlineStr"/>
-      <c r="G502" t="inlineStr"/>
-      <c r="H502" t="n">
-        <v>3</v>
+      <c r="G502" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="H502" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>Industrial Production MoMNOV</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D503" t="inlineStr"/>
       <c r="E503" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F503" t="inlineStr"/>
-      <c r="G503" t="inlineStr"/>
-      <c r="H503" t="n">
-        <v>2</v>
+      <c r="G503" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
+      <c r="H503" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>API Crude Oil Stock ChangeJAN/10</t>
         </is>
       </c>
       <c r="D504" t="inlineStr"/>
       <c r="E504" t="inlineStr">
         <is>
-          <t>-3.6%</t>
+          <t>-4.022M</t>
         </is>
       </c>
       <c r="F504" t="inlineStr"/>
       <c r="G504" t="inlineStr"/>
-      <c r="H504" t="n">
-        <v>3</v>
+      <c r="H504" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>03:10 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>3-Month Letras Auction</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D505" t="inlineStr"/>
       <c r="E505" t="inlineStr">
         <is>
-          <t>2.567%</t>
+          <t>$4.42B</t>
         </is>
       </c>
       <c r="F505" t="inlineStr"/>
-      <c r="G505" t="inlineStr"/>
-      <c r="H505" t="n">
-        <v>3</v>
+      <c r="G505" t="inlineStr">
+        <is>
+          <t>$ 2.8B</t>
+        </is>
+      </c>
+      <c r="H505" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>03:10 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>9-Month Letras Auction</t>
+          <t>Exports YoYDEC</t>
         </is>
       </c>
       <c r="D506" t="inlineStr"/>
       <c r="E506" t="inlineStr">
         <is>
-          <t>2.366%</t>
+          <t>9.14%</t>
         </is>
       </c>
       <c r="F506" t="inlineStr"/>
       <c r="G506" t="inlineStr"/>
-      <c r="H506" t="n">
-        <v>3</v>
+      <c r="H506" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>20-Year Index-Linked Treasury Gilt Auction</t>
+          <t>Imports YoYDEC</t>
         </is>
       </c>
       <c r="D507" t="inlineStr"/>
       <c r="E507" t="inlineStr">
         <is>
-          <t>1.200%</t>
+          <t>0.01%</t>
         </is>
       </c>
       <c r="F507" t="inlineStr"/>
       <c r="G507" t="inlineStr"/>
-      <c r="H507" t="n">
-        <v>3</v>
+      <c r="H507" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>5-Year Bobl Auction</t>
+          <t>Machine Tool Orders YoYDEC</t>
         </is>
       </c>
       <c r="D508" t="inlineStr"/>
       <c r="E508" t="inlineStr">
         <is>
-          <t>2.04%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="F508" t="inlineStr"/>
       <c r="G508" t="inlineStr"/>
-      <c r="H508" t="n">
-        <v>3</v>
+      <c r="H508" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>NFIB Business Optimism IndexDEC</t>
+          <t>WPI Inflation YoYDEC</t>
         </is>
       </c>
       <c r="D509" t="inlineStr"/>
       <c r="E509" t="inlineStr">
         <is>
-          <t>101.7</t>
+          <t>1.89%</t>
         </is>
       </c>
       <c r="F509" t="inlineStr"/>
       <c r="G509" t="inlineStr">
         <is>
-          <t>102</t>
-        </is>
-      </c>
-      <c r="H509" t="n">
-        <v>3</v>
+          <t>1.9%</t>
+        </is>
+      </c>
+      <c r="H509" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Wholesale Prices MoMDEC</t>
         </is>
       </c>
       <c r="D510" t="inlineStr"/>
       <c r="E510" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F510" t="inlineStr"/>
@@ -17497,116 +17617,128 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H510" t="n">
-        <v>1</v>
+      <c r="H510" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>Core PPI MoMDEC</t>
+          <t>Wholesale Prices YoYDEC</t>
         </is>
       </c>
       <c r="D511" t="inlineStr"/>
       <c r="E511" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F511" t="inlineStr"/>
-      <c r="G511" t="inlineStr"/>
-      <c r="H511" t="n">
-        <v>2</v>
+      <c r="G511" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
+      <c r="H511" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>Core PPI YoYDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D512" t="inlineStr"/>
       <c r="E512" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F512" t="inlineStr"/>
       <c r="G512" t="inlineStr">
         <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="H512" t="n">
-        <v>3</v>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="H512" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>PPIDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D513" t="inlineStr"/>
       <c r="E513" t="inlineStr">
         <is>
-          <t>146.493</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="F513" t="inlineStr"/>
       <c r="G513" t="inlineStr">
         <is>
-          <t>146.4</t>
-        </is>
-      </c>
-      <c r="H513" t="n">
-        <v>3</v>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="H513" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade MoMDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D514" t="inlineStr"/>
@@ -17616,325 +17748,383 @@
         </is>
       </c>
       <c r="F514" t="inlineStr"/>
-      <c r="G514" t="inlineStr"/>
-      <c r="H514" t="n">
-        <v>3</v>
+      <c r="G514" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="H514" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade YoYDEC</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D515" t="inlineStr"/>
       <c r="E515" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="F515" t="inlineStr"/>
-      <c r="G515" t="inlineStr"/>
-      <c r="H515" t="n">
-        <v>3</v>
+      <c r="G515" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="H515" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>PPI Core Output MoMDEC</t>
         </is>
       </c>
       <c r="D516" t="inlineStr"/>
       <c r="E516" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F516" t="inlineStr"/>
       <c r="G516" t="inlineStr">
         <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="H516" t="n">
-        <v>3</v>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="H516" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>07:25 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/11</t>
+          <t>PPI Core Output YoYDEC</t>
         </is>
       </c>
       <c r="D517" t="inlineStr"/>
       <c r="E517" t="inlineStr">
         <is>
-          <t>6.8%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F517" t="inlineStr"/>
-      <c r="G517" t="inlineStr"/>
-      <c r="H517" t="n">
-        <v>3</v>
+      <c r="G517" t="inlineStr">
+        <is>
+          <t>2.1%</t>
+        </is>
+      </c>
+      <c r="H517" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>08:35 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>RCM/TIPP Economic Optimism IndexJAN</t>
+          <t>PPI Input MoMDEC</t>
         </is>
       </c>
       <c r="D518" t="inlineStr"/>
       <c r="E518" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F518" t="inlineStr"/>
-      <c r="G518" t="inlineStr"/>
-      <c r="H518" t="n">
-        <v>3</v>
+      <c r="G518" t="inlineStr">
+        <is>
+          <t>-1.3%</t>
+        </is>
+      </c>
+      <c r="H518" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="519">
-      <c r="A519" t="inlineStr"/>
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>12:30 PM</t>
+        </is>
+      </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>5-Year KTB Auction</t>
+          <t>PPI Input YoYDEC</t>
         </is>
       </c>
       <c r="D519" t="inlineStr"/>
       <c r="E519" t="inlineStr">
         <is>
-          <t>2.680%</t>
+          <t>-1.9%</t>
         </is>
       </c>
       <c r="F519" t="inlineStr"/>
-      <c r="G519" t="inlineStr"/>
-      <c r="H519" t="n">
-        <v>3</v>
+      <c r="G519" t="inlineStr">
+        <is>
+          <t>-1%</t>
+        </is>
+      </c>
+      <c r="H519" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>Wednesday January 15 2025</t>
-        </is>
-      </c>
-      <c r="B520" t="inlineStr"/>
-      <c r="C520" t="inlineStr"/>
+          <t>12:30 PM</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>PPI Output MoMDEC</t>
+        </is>
+      </c>
       <c r="D520" t="inlineStr"/>
-      <c r="E520" t="inlineStr"/>
+      <c r="E520" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="F520" t="inlineStr"/>
-      <c r="G520" t="inlineStr"/>
-      <c r="H520" t="inlineStr"/>
+      <c r="G520" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="H520" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>PPI Output YoYDEC</t>
         </is>
       </c>
       <c r="D521" t="inlineStr"/>
       <c r="E521" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F521" t="inlineStr"/>
       <c r="G521" t="inlineStr">
         <is>
-          <t>2.0%</t>
-        </is>
-      </c>
-      <c r="H521" t="n">
-        <v>3</v>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="H521" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Retail Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D522" t="inlineStr"/>
       <c r="E522" t="inlineStr">
         <is>
-          <t>166%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F522" t="inlineStr"/>
-      <c r="G522" t="inlineStr">
-        <is>
-          <t>116.0%</t>
-        </is>
-      </c>
-      <c r="H522" t="n">
-        <v>3</v>
+      <c r="G522" t="inlineStr"/>
+      <c r="H522" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>Export Prices YoYDEC</t>
+          <t>Retail Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D523" t="inlineStr"/>
       <c r="E523" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F523" t="inlineStr"/>
       <c r="G523" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="H523" t="n">
-        <v>3</v>
+          <t>3.0%</t>
+        </is>
+      </c>
+      <c r="H523" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Interest Rate Decision</t>
         </is>
       </c>
       <c r="D524" t="inlineStr"/>
       <c r="E524" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>6%</t>
         </is>
       </c>
       <c r="F524" t="inlineStr"/>
-      <c r="G524" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="H524" t="n">
-        <v>3</v>
+      <c r="G524" t="inlineStr"/>
+      <c r="H524" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/10</t>
+          <t>Deposit Facility RateJAN</t>
         </is>
       </c>
       <c r="D525" t="inlineStr"/>
       <c r="E525" t="inlineStr">
         <is>
-          <t>-4.022M</t>
+          <t>5.25%</t>
         </is>
       </c>
       <c r="F525" t="inlineStr"/>
       <c r="G525" t="inlineStr"/>
-      <c r="H525" t="n">
-        <v>2</v>
+      <c r="H525" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
@@ -17944,347 +18134,385 @@
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Lending Facility RateJAN</t>
         </is>
       </c>
       <c r="D526" t="inlineStr"/>
       <c r="E526" t="inlineStr">
         <is>
-          <t>$4.42B</t>
+          <t>6.75%</t>
         </is>
       </c>
       <c r="F526" t="inlineStr"/>
-      <c r="G526" t="inlineStr">
-        <is>
-          <t>$ 2.8B</t>
-        </is>
-      </c>
-      <c r="H526" t="n">
-        <v>2</v>
+      <c r="G526" t="inlineStr"/>
+      <c r="H526" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>Exports YoYDEC</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D527" t="inlineStr"/>
       <c r="E527" t="inlineStr">
         <is>
-          <t>9.14%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F527" t="inlineStr"/>
-      <c r="G527" t="inlineStr"/>
-      <c r="H527" t="n">
-        <v>3</v>
+      <c r="G527" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="H527" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>Imports YoYDEC</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D528" t="inlineStr"/>
       <c r="E528" t="inlineStr">
         <is>
-          <t>0.01%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F528" t="inlineStr"/>
-      <c r="G528" t="inlineStr"/>
-      <c r="H528" t="n">
-        <v>3</v>
+      <c r="G528" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
+      <c r="H528" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>Machine Tool Orders YoYDEC</t>
+          <t>Harmonised Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D529" t="inlineStr"/>
       <c r="E529" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="F529" t="inlineStr"/>
-      <c r="G529" t="inlineStr"/>
-      <c r="H529" t="n">
-        <v>3</v>
+      <c r="G529" t="inlineStr">
+        <is>
+          <t>1.8%</t>
+        </is>
+      </c>
+      <c r="H529" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>WPI Inflation YoYDEC</t>
+          <t>Harmonised Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D530" t="inlineStr"/>
       <c r="E530" t="inlineStr">
         <is>
-          <t>1.89%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F530" t="inlineStr"/>
       <c r="G530" t="inlineStr">
         <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="H530" t="n">
-        <v>3</v>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="H530" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>Wholesale Prices MoMDEC</t>
+          <t>Harmonised Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D531" t="inlineStr"/>
       <c r="E531" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F531" t="inlineStr"/>
-      <c r="G531" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H531" t="n">
-        <v>2</v>
+      <c r="G531" t="inlineStr"/>
+      <c r="H531" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>Wholesale Prices YoYDEC</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D532" t="inlineStr"/>
       <c r="E532" t="inlineStr">
         <is>
-          <t>-0.6%</t>
-        </is>
-      </c>
-      <c r="F532" t="inlineStr"/>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="F532" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="G532" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="H532" t="n">
-        <v>2</v>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="H532" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D533" t="inlineStr"/>
       <c r="E533" t="inlineStr">
         <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="F533" t="inlineStr"/>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="F533" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="G533" t="inlineStr">
         <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="H533" t="n">
-        <v>1</v>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="H533" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>Core Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D534" t="inlineStr"/>
       <c r="E534" t="inlineStr">
         <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="F534" t="inlineStr"/>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="F534" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="G534" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="H534" t="n">
-        <v>2</v>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="H534" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Harmonised Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D535" t="inlineStr"/>
       <c r="E535" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F535" t="inlineStr"/>
       <c r="G535" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H535" t="n">
-        <v>2</v>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H535" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>Full Year GDP Growth2025</t>
         </is>
       </c>
       <c r="D536" t="inlineStr"/>
       <c r="E536" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F536" t="inlineStr"/>
       <c r="G536" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H536" t="n">
-        <v>3</v>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="H536" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>PPI Core Output MoMDEC</t>
+          <t>Industrial Production MoMNOV</t>
         </is>
       </c>
       <c r="D537" t="inlineStr"/>
@@ -18294,51 +18522,47 @@
         </is>
       </c>
       <c r="F537" t="inlineStr"/>
-      <c r="G537" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H537" t="n">
-        <v>3</v>
+      <c r="G537" t="inlineStr"/>
+      <c r="H537" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>PPI Core Output YoYDEC</t>
+          <t>Industrial Production YoYNOV</t>
         </is>
       </c>
       <c r="D538" t="inlineStr"/>
       <c r="E538" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>-1.2%</t>
         </is>
       </c>
       <c r="F538" t="inlineStr"/>
-      <c r="G538" t="inlineStr">
-        <is>
-          <t>2.1%</t>
-        </is>
-      </c>
-      <c r="H538" t="n">
-        <v>3</v>
+      <c r="G538" t="inlineStr"/>
+      <c r="H538" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
@@ -18348,765 +18572,779 @@
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>PPI Input MoMDEC</t>
+          <t>10-Year Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D539" t="inlineStr"/>
       <c r="E539" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>4.332%</t>
         </is>
       </c>
       <c r="F539" t="inlineStr"/>
-      <c r="G539" t="inlineStr">
-        <is>
-          <t>-1.3%</t>
-        </is>
-      </c>
-      <c r="H539" t="n">
-        <v>3</v>
+      <c r="G539" t="inlineStr"/>
+      <c r="H539" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>PPI Input YoYDEC</t>
+          <t>30-Year Bund Auction</t>
         </is>
       </c>
       <c r="D540" t="inlineStr"/>
       <c r="E540" t="inlineStr">
         <is>
-          <t>-1.9%</t>
+          <t>2.55%</t>
         </is>
       </c>
       <c r="F540" t="inlineStr"/>
-      <c r="G540" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
-      <c r="H540" t="n">
-        <v>3</v>
+      <c r="G540" t="inlineStr"/>
+      <c r="H540" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>PPI Output MoMDEC</t>
+          <t>Gross Fixed Investment MoMOCT</t>
         </is>
       </c>
       <c r="D541" t="inlineStr"/>
       <c r="E541" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>-0.8%</t>
         </is>
       </c>
       <c r="F541" t="inlineStr"/>
-      <c r="G541" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H541" t="n">
-        <v>3</v>
+      <c r="G541" t="inlineStr"/>
+      <c r="H541" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>PPI Output YoYDEC</t>
+          <t>Gross Fixed Investment YoYOCT</t>
         </is>
       </c>
       <c r="D542" t="inlineStr"/>
       <c r="E542" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>-3.3%</t>
         </is>
       </c>
       <c r="F542" t="inlineStr"/>
-      <c r="G542" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="H542" t="n">
-        <v>3</v>
+      <c r="G542" t="inlineStr"/>
+      <c r="H542" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>Retail Price Index MoMDEC</t>
+          <t>MBA 30-Year Mortgage RateJAN/10</t>
         </is>
       </c>
       <c r="D543" t="inlineStr"/>
       <c r="E543" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>6.99%</t>
         </is>
       </c>
       <c r="F543" t="inlineStr"/>
       <c r="G543" t="inlineStr"/>
-      <c r="H543" t="n">
-        <v>3</v>
+      <c r="H543" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>Retail Price Index YoYDEC</t>
+          <t>MBA Mortgage ApplicationsJAN/10</t>
         </is>
       </c>
       <c r="D544" t="inlineStr"/>
       <c r="E544" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>-3.7%</t>
         </is>
       </c>
       <c r="F544" t="inlineStr"/>
-      <c r="G544" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="H544" t="n">
-        <v>3</v>
+      <c r="G544" t="inlineStr"/>
+      <c r="H544" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>Interest Rate Decision</t>
+          <t>MBA Mortgage Market IndexJAN/10</t>
         </is>
       </c>
       <c r="D545" t="inlineStr"/>
       <c r="E545" t="inlineStr">
         <is>
-          <t>6%</t>
+          <t>168.4</t>
         </is>
       </c>
       <c r="F545" t="inlineStr"/>
       <c r="G545" t="inlineStr"/>
-      <c r="H545" t="n">
-        <v>2</v>
+      <c r="H545" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>Deposit Facility RateJAN</t>
+          <t>MBA Mortgage Refinance IndexJAN/10</t>
         </is>
       </c>
       <c r="D546" t="inlineStr"/>
       <c r="E546" t="inlineStr">
         <is>
-          <t>5.25%</t>
+          <t>401.1</t>
         </is>
       </c>
       <c r="F546" t="inlineStr"/>
       <c r="G546" t="inlineStr"/>
-      <c r="H546" t="n">
-        <v>3</v>
+      <c r="H546" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>Lending Facility RateJAN</t>
+          <t>MBA Purchase IndexJAN/10</t>
         </is>
       </c>
       <c r="D547" t="inlineStr"/>
       <c r="E547" t="inlineStr">
         <is>
-          <t>6.75%</t>
+          <t>127.7</t>
         </is>
       </c>
       <c r="F547" t="inlineStr"/>
       <c r="G547" t="inlineStr"/>
-      <c r="H547" t="n">
-        <v>3</v>
+      <c r="H547" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FinalDEC</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D548" t="inlineStr"/>
       <c r="E548" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>$616.5B</t>
         </is>
       </c>
       <c r="F548" t="inlineStr"/>
       <c r="G548" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H548" t="n">
-        <v>2</v>
+          <t>$628.0B</t>
+        </is>
+      </c>
+      <c r="H548" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Manufacturing Sales MoM FinalNOV</t>
         </is>
       </c>
       <c r="D549" t="inlineStr"/>
       <c r="E549" t="inlineStr">
         <is>
-          <t>1.3%</t>
-        </is>
-      </c>
-      <c r="F549" t="inlineStr"/>
+          <t>2.1%</t>
+        </is>
+      </c>
+      <c r="F549" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="G549" t="inlineStr">
         <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="H549" t="n">
-        <v>2</v>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="H549" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY FinalDEC</t>
+          <t>New Motor Vehicle SalesNOV</t>
         </is>
       </c>
       <c r="D550" t="inlineStr"/>
       <c r="E550" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>163.6K</t>
         </is>
       </c>
       <c r="F550" t="inlineStr"/>
-      <c r="G550" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
-      <c r="H550" t="n">
-        <v>3</v>
+      <c r="G550" t="inlineStr"/>
+      <c r="H550" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM FinalDEC</t>
+          <t>Wholesale Sales MoM FinalNOV</t>
         </is>
       </c>
       <c r="D551" t="inlineStr"/>
       <c r="E551" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F551" t="inlineStr"/>
+          <t>1%</t>
+        </is>
+      </c>
+      <c r="F551" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="G551" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H551" t="n">
-        <v>3</v>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="H551" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY FinalDEC</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D552" t="inlineStr"/>
       <c r="E552" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F552" t="inlineStr"/>
-      <c r="G552" t="inlineStr"/>
-      <c r="H552" t="n">
-        <v>3</v>
+      <c r="G552" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="H552" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FinalDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D553" t="inlineStr"/>
       <c r="E553" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F553" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="F553" t="inlineStr"/>
       <c r="G553" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H553" t="n">
-        <v>3</v>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="H553" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D554" t="inlineStr"/>
       <c r="E554" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F554" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F554" t="inlineStr"/>
       <c r="G554" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="H554" t="n">
-        <v>3</v>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="H554" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FinalDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D555" t="inlineStr"/>
       <c r="E555" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F555" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="F555" t="inlineStr"/>
       <c r="G555" t="inlineStr">
         <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="H555" t="n">
-        <v>3</v>
+          <t>2.3%</t>
+        </is>
+      </c>
+      <c r="H555" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM FinalDEC</t>
+          <t>CPIDEC</t>
         </is>
       </c>
       <c r="D556" t="inlineStr"/>
       <c r="E556" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>315.49</t>
         </is>
       </c>
       <c r="F556" t="inlineStr"/>
       <c r="G556" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H556" t="n">
-        <v>3</v>
+          <t>313.8</t>
+        </is>
+      </c>
+      <c r="H556" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>Full Year GDP Growth2025</t>
+          <t>CPI s.aDEC</t>
         </is>
       </c>
       <c r="D557" t="inlineStr"/>
       <c r="E557" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>316.441</t>
         </is>
       </c>
       <c r="F557" t="inlineStr"/>
       <c r="G557" t="inlineStr">
         <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="H557" t="n">
-        <v>1</v>
+          <t>317.4</t>
+        </is>
+      </c>
+      <c r="H557" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>Industrial Production MoMNOV</t>
+          <t>NY Empire State Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D558" t="inlineStr"/>
       <c r="E558" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="F558" t="inlineStr"/>
       <c r="G558" t="inlineStr"/>
-      <c r="H558" t="n">
-        <v>2</v>
+      <c r="H558" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>EIA Crude Oil Stocks ChangeJAN/10</t>
         </is>
       </c>
       <c r="D559" t="inlineStr"/>
       <c r="E559" t="inlineStr">
         <is>
-          <t>-1.2%</t>
+          <t>-0.959M</t>
         </is>
       </c>
       <c r="F559" t="inlineStr"/>
       <c r="G559" t="inlineStr"/>
-      <c r="H559" t="n">
-        <v>3</v>
+      <c r="H559" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>10-Year Treasury Gilt Auction</t>
+          <t>EIA Gasoline Stocks ChangeJAN/10</t>
         </is>
       </c>
       <c r="D560" t="inlineStr"/>
-      <c r="E560" t="inlineStr">
-        <is>
-          <t>4.332%</t>
-        </is>
-      </c>
+      <c r="E560" t="inlineStr"/>
       <c r="F560" t="inlineStr"/>
       <c r="G560" t="inlineStr"/>
-      <c r="H560" t="n">
-        <v>3</v>
+      <c r="H560" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>30-Year Bund Auction</t>
+          <t>EIA Crude Oil Imports ChangeJAN/10</t>
         </is>
       </c>
       <c r="D561" t="inlineStr"/>
-      <c r="E561" t="inlineStr">
-        <is>
-          <t>2.55%</t>
-        </is>
-      </c>
+      <c r="E561" t="inlineStr"/>
       <c r="F561" t="inlineStr"/>
       <c r="G561" t="inlineStr"/>
-      <c r="H561" t="n">
-        <v>3</v>
+      <c r="H561" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>Gross Fixed Investment MoMOCT</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/10</t>
         </is>
       </c>
       <c r="D562" t="inlineStr"/>
-      <c r="E562" t="inlineStr">
-        <is>
-          <t>-0.8%</t>
-        </is>
-      </c>
+      <c r="E562" t="inlineStr"/>
       <c r="F562" t="inlineStr"/>
       <c r="G562" t="inlineStr"/>
-      <c r="H562" t="n">
-        <v>3</v>
+      <c r="H562" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>Gross Fixed Investment YoYOCT</t>
+          <t>EIA Distillate Fuel Production ChangeJAN/10</t>
         </is>
       </c>
       <c r="D563" t="inlineStr"/>
       <c r="E563" t="inlineStr">
         <is>
-          <t>-3.3%</t>
+          <t>-0.167M</t>
         </is>
       </c>
       <c r="F563" t="inlineStr"/>
       <c r="G563" t="inlineStr"/>
-      <c r="H563" t="n">
-        <v>3</v>
+      <c r="H563" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B564" t="inlineStr">
@@ -19116,25 +19354,27 @@
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJAN/10</t>
+          <t>EIA Distillate Stocks ChangeJAN/10</t>
         </is>
       </c>
       <c r="D564" t="inlineStr"/>
       <c r="E564" t="inlineStr">
         <is>
-          <t>6.99%</t>
+          <t>6.071M</t>
         </is>
       </c>
       <c r="F564" t="inlineStr"/>
       <c r="G564" t="inlineStr"/>
-      <c r="H564" t="n">
-        <v>2</v>
+      <c r="H564" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B565" t="inlineStr">
@@ -19144,25 +19384,27 @@
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJAN/10</t>
+          <t>EIA Gasoline Production ChangeJAN/10</t>
         </is>
       </c>
       <c r="D565" t="inlineStr"/>
       <c r="E565" t="inlineStr">
         <is>
-          <t>-3.7%</t>
+          <t>-0.081M</t>
         </is>
       </c>
       <c r="F565" t="inlineStr"/>
       <c r="G565" t="inlineStr"/>
-      <c r="H565" t="n">
-        <v>3</v>
+      <c r="H565" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B566" t="inlineStr">
@@ -19172,25 +19414,27 @@
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJAN/10</t>
+          <t>EIA Heating Oil Stocks ChangeJAN/10</t>
         </is>
       </c>
       <c r="D566" t="inlineStr"/>
       <c r="E566" t="inlineStr">
         <is>
-          <t>168.4</t>
+          <t>-0.632M</t>
         </is>
       </c>
       <c r="F566" t="inlineStr"/>
       <c r="G566" t="inlineStr"/>
-      <c r="H566" t="n">
-        <v>3</v>
+      <c r="H566" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B567" t="inlineStr">
@@ -19200,53 +19444,61 @@
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJAN/10</t>
+          <t>EIA Refinery Crude Runs ChangeJAN/10</t>
         </is>
       </c>
       <c r="D567" t="inlineStr"/>
       <c r="E567" t="inlineStr">
         <is>
-          <t>401.1</t>
+          <t>0.045M</t>
         </is>
       </c>
       <c r="F567" t="inlineStr"/>
       <c r="G567" t="inlineStr"/>
-      <c r="H567" t="n">
-        <v>3</v>
+      <c r="H567" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJAN/10</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D568" t="inlineStr"/>
       <c r="E568" t="inlineStr">
         <is>
-          <t>127.7</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F568" t="inlineStr"/>
-      <c r="G568" t="inlineStr"/>
-      <c r="H568" t="n">
-        <v>3</v>
+      <c r="G568" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
+      <c r="H568" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B569" t="inlineStr">
@@ -19256,93 +19508,95 @@
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D569" t="inlineStr"/>
       <c r="E569" t="inlineStr">
         <is>
-          <t>$616.5B</t>
+          <t>8.9%</t>
         </is>
       </c>
       <c r="F569" t="inlineStr"/>
       <c r="G569" t="inlineStr">
         <is>
-          <t>$628.0B</t>
-        </is>
-      </c>
-      <c r="H569" t="n">
-        <v>3</v>
+          <t>9.5%</t>
+        </is>
+      </c>
+      <c r="H569" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>Manufacturing Sales MoM FinalNOV</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="D570" t="inlineStr"/>
       <c r="E570" t="inlineStr">
         <is>
-          <t>2.1%</t>
-        </is>
-      </c>
-      <c r="F570" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G570" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H570" t="n">
-        <v>3</v>
+          <t>4.190%</t>
+        </is>
+      </c>
+      <c r="F570" t="inlineStr"/>
+      <c r="G570" t="inlineStr"/>
+      <c r="H570" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>New Motor Vehicle SalesNOV</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D571" t="inlineStr"/>
       <c r="E571" t="inlineStr">
         <is>
-          <t>163.6K</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="F571" t="inlineStr"/>
-      <c r="G571" t="inlineStr"/>
-      <c r="H571" t="n">
-        <v>3</v>
+      <c r="G571" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
+      <c r="H571" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B572" t="inlineStr">
@@ -19352,987 +19606,1079 @@
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>Wholesale Sales MoM FinalNOV</t>
+          <t>5-Year Bond Auction</t>
         </is>
       </c>
       <c r="D572" t="inlineStr"/>
       <c r="E572" t="inlineStr">
         <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="F572" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="G572" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="H572" t="n">
-        <v>3</v>
+          <t>3.146%</t>
+        </is>
+      </c>
+      <c r="F572" t="inlineStr"/>
+      <c r="G572" t="inlineStr"/>
+      <c r="H572" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="573">
-      <c r="A573" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A573" t="inlineStr"/>
       <c r="B573" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>Passenger Vehicles Sales YoYDEC</t>
         </is>
       </c>
       <c r="D573" t="inlineStr"/>
       <c r="E573" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F573" t="inlineStr"/>
-      <c r="G573" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="H573" t="n">
-        <v>1</v>
+      <c r="G573" t="inlineStr"/>
+      <c r="H573" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="574">
-      <c r="A574" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A574" t="inlineStr"/>
       <c r="B574" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D574" t="inlineStr"/>
       <c r="E574" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F574" t="inlineStr"/>
       <c r="G574" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="H574" t="n">
-        <v>1</v>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="H574" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="575">
-      <c r="A575" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A575" t="inlineStr"/>
       <c r="B575" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D575" t="inlineStr"/>
       <c r="E575" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="F575" t="inlineStr"/>
       <c r="G575" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H575" t="n">
-        <v>1</v>
+          <t>2%</t>
+        </is>
+      </c>
+      <c r="H575" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="576">
-      <c r="A576" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A576" t="inlineStr"/>
       <c r="B576" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Wholesale Prices YoYDEC</t>
         </is>
       </c>
       <c r="D576" t="inlineStr"/>
       <c r="E576" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F576" t="inlineStr"/>
       <c r="G576" t="inlineStr">
         <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="H576" t="n">
-        <v>1</v>
+          <t>1.0%</t>
+        </is>
+      </c>
+      <c r="H576" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="577">
-      <c r="A577" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A577" t="inlineStr"/>
       <c r="B577" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>CPIDEC</t>
+          <t>Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D577" t="inlineStr"/>
       <c r="E577" t="inlineStr">
         <is>
-          <t>315.49</t>
+          <t>TRY-16.65B</t>
         </is>
       </c>
       <c r="F577" t="inlineStr"/>
-      <c r="G577" t="inlineStr">
-        <is>
-          <t>313.8</t>
-        </is>
-      </c>
-      <c r="H577" t="n">
-        <v>2</v>
+      <c r="G577" t="inlineStr"/>
+      <c r="H577" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="578">
-      <c r="A578" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A578" t="inlineStr"/>
       <c r="B578" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>OP</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>CPI s.aDEC</t>
+          <t>OPEC Monthly Report</t>
         </is>
       </c>
       <c r="D578" t="inlineStr"/>
-      <c r="E578" t="inlineStr">
-        <is>
-          <t>316.441</t>
-        </is>
-      </c>
+      <c r="E578" t="inlineStr"/>
       <c r="F578" t="inlineStr"/>
-      <c r="G578" t="inlineStr">
-        <is>
-          <t>317.4</t>
-        </is>
-      </c>
-      <c r="H578" t="n">
-        <v>2</v>
+      <c r="G578" t="inlineStr"/>
+      <c r="H578" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="579">
-      <c r="A579" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A579" t="inlineStr"/>
       <c r="B579" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>NY Empire State Manufacturing IndexJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D579" t="inlineStr"/>
       <c r="E579" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>$-37.84B</t>
         </is>
       </c>
       <c r="F579" t="inlineStr"/>
-      <c r="G579" t="inlineStr"/>
-      <c r="H579" t="n">
-        <v>2</v>
+      <c r="G579" t="inlineStr">
+        <is>
+          <t>$ -23B</t>
+        </is>
+      </c>
+      <c r="H579" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="580">
-      <c r="A580" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
+      <c r="A580" t="inlineStr"/>
       <c r="B580" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C580" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/10</t>
+          <t>ExportsDEC</t>
         </is>
       </c>
       <c r="D580" t="inlineStr"/>
       <c r="E580" t="inlineStr">
         <is>
-          <t>-0.959M</t>
+          <t>$32.11B</t>
         </is>
       </c>
       <c r="F580" t="inlineStr"/>
-      <c r="G580" t="inlineStr"/>
-      <c r="H580" t="n">
-        <v>2</v>
+      <c r="G580" t="inlineStr">
+        <is>
+          <t>$ 36B</t>
+        </is>
+      </c>
+      <c r="H580" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="581">
-      <c r="A581" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
+      <c r="A581" t="inlineStr"/>
       <c r="B581" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeJAN/10</t>
+          <t>ImportsDEC</t>
         </is>
       </c>
       <c r="D581" t="inlineStr"/>
-      <c r="E581" t="inlineStr"/>
+      <c r="E581" t="inlineStr">
+        <is>
+          <t>$69.95B</t>
+        </is>
+      </c>
       <c r="F581" t="inlineStr"/>
-      <c r="G581" t="inlineStr"/>
-      <c r="H581" t="n">
-        <v>2</v>
+      <c r="G581" t="inlineStr">
+        <is>
+          <t>$ 59B</t>
+        </is>
+      </c>
+      <c r="H581" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B582" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C582" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeJAN/10</t>
-        </is>
-      </c>
+          <t>Thursday January 16 2025</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr"/>
+      <c r="C582" t="inlineStr"/>
       <c r="D582" t="inlineStr"/>
       <c r="E582" t="inlineStr"/>
       <c r="F582" t="inlineStr"/>
       <c r="G582" t="inlineStr"/>
-      <c r="H582" t="n">
-        <v>3</v>
-      </c>
+      <c r="H582" t="inlineStr"/>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/10</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D583" t="inlineStr"/>
-      <c r="E583" t="inlineStr"/>
+      <c r="E583" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="F583" t="inlineStr"/>
-      <c r="G583" t="inlineStr"/>
-      <c r="H583" t="n">
-        <v>3</v>
+      <c r="G583" t="inlineStr">
+        <is>
+          <t>3.30%</t>
+        </is>
+      </c>
+      <c r="H583" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/10</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D584" t="inlineStr"/>
       <c r="E584" t="inlineStr">
         <is>
-          <t>-0.167M</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F584" t="inlineStr"/>
       <c r="G584" t="inlineStr"/>
-      <c r="H584" t="n">
-        <v>3</v>
+      <c r="H584" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeJAN/10</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D585" t="inlineStr"/>
       <c r="E585" t="inlineStr">
         <is>
-          <t>6.071M</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="F585" t="inlineStr"/>
-      <c r="G585" t="inlineStr"/>
-      <c r="H585" t="n">
-        <v>3</v>
+      <c r="G585" t="inlineStr">
+        <is>
+          <t>3.6%</t>
+        </is>
+      </c>
+      <c r="H585" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>05:31 AM</t>
         </is>
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeJAN/10</t>
+          <t>RICS House Price BalanceDEC</t>
         </is>
       </c>
       <c r="D586" t="inlineStr"/>
       <c r="E586" t="inlineStr">
         <is>
-          <t>-0.081M</t>
+          <t>25%</t>
         </is>
       </c>
       <c r="F586" t="inlineStr"/>
-      <c r="G586" t="inlineStr"/>
-      <c r="H586" t="n">
-        <v>3</v>
+      <c r="G586" t="inlineStr">
+        <is>
+          <t>17.0%</t>
+        </is>
+      </c>
+      <c r="H586" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/10</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D587" t="inlineStr"/>
       <c r="E587" t="inlineStr">
         <is>
-          <t>-0.632M</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="F587" t="inlineStr"/>
-      <c r="G587" t="inlineStr"/>
-      <c r="H587" t="n">
-        <v>3</v>
+      <c r="G587" t="inlineStr">
+        <is>
+          <t>4.30%</t>
+        </is>
+      </c>
+      <c r="H587" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/10</t>
+          <t>Employment ChangeDEC</t>
         </is>
       </c>
       <c r="D588" t="inlineStr"/>
       <c r="E588" t="inlineStr">
         <is>
-          <t>0.045M</t>
+          <t>35.6K</t>
         </is>
       </c>
       <c r="F588" t="inlineStr"/>
-      <c r="G588" t="inlineStr"/>
-      <c r="H588" t="n">
-        <v>3</v>
+      <c r="G588" t="inlineStr">
+        <is>
+          <t>25.1K</t>
+        </is>
+      </c>
+      <c r="H588" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Full Time Employment ChgDEC</t>
         </is>
       </c>
       <c r="D589" t="inlineStr"/>
       <c r="E589" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>52.6K</t>
         </is>
       </c>
       <c r="F589" t="inlineStr"/>
-      <c r="G589" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="H589" t="n">
-        <v>2</v>
+      <c r="G589" t="inlineStr"/>
+      <c r="H589" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Part Time Employment ChgDEC</t>
         </is>
       </c>
       <c r="D590" t="inlineStr"/>
       <c r="E590" t="inlineStr">
         <is>
-          <t>8.9%</t>
+          <t>-17.0K</t>
         </is>
       </c>
       <c r="F590" t="inlineStr"/>
-      <c r="G590" t="inlineStr">
-        <is>
-          <t>9.5%</t>
-        </is>
-      </c>
-      <c r="H590" t="n">
-        <v>2</v>
+      <c r="G590" t="inlineStr"/>
+      <c r="H590" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>Participation RateDEC</t>
         </is>
       </c>
       <c r="D591" t="inlineStr"/>
       <c r="E591" t="inlineStr">
         <is>
-          <t>4.190%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="F591" t="inlineStr"/>
-      <c r="G591" t="inlineStr"/>
-      <c r="H591" t="n">
-        <v>3</v>
+      <c r="G591" t="inlineStr">
+        <is>
+          <t>66.8%</t>
+        </is>
+      </c>
+      <c r="H591" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>Interest Rate Decision</t>
         </is>
       </c>
       <c r="D592" t="inlineStr"/>
       <c r="E592" t="inlineStr">
         <is>
-          <t>50.1</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="F592" t="inlineStr"/>
-      <c r="G592" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
-      <c r="H592" t="n">
-        <v>2</v>
+      <c r="G592" t="inlineStr"/>
+      <c r="H592" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>5-Year Bond Auction</t>
+          <t>20-Year JGB Auction</t>
         </is>
       </c>
       <c r="D593" t="inlineStr"/>
       <c r="E593" t="inlineStr">
         <is>
-          <t>3.146%</t>
+          <t>1.879%</t>
         </is>
       </c>
       <c r="F593" t="inlineStr"/>
       <c r="G593" t="inlineStr"/>
-      <c r="H593" t="n">
-        <v>3</v>
+      <c r="H593" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="594">
-      <c r="A594" t="inlineStr"/>
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>09:05 AM</t>
+        </is>
+      </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>Passenger Vehicles Sales YoYDEC</t>
+          <t>52-Week Bill Auction</t>
         </is>
       </c>
       <c r="D594" t="inlineStr"/>
       <c r="E594" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>0.4796%</t>
         </is>
       </c>
       <c r="F594" t="inlineStr"/>
       <c r="G594" t="inlineStr"/>
-      <c r="H594" t="n">
-        <v>3</v>
+      <c r="H594" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="595">
-      <c r="A595" t="inlineStr"/>
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>6-Month T-Bill Auction</t>
         </is>
       </c>
       <c r="D595" t="inlineStr"/>
       <c r="E595" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>3.02%</t>
         </is>
       </c>
       <c r="F595" t="inlineStr"/>
-      <c r="G595" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H595" t="n">
-        <v>3</v>
+      <c r="G595" t="inlineStr"/>
+      <c r="H595" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="596">
-      <c r="A596" t="inlineStr"/>
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>12:30 PM</t>
+        </is>
+      </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D596" t="inlineStr"/>
       <c r="E596" t="inlineStr">
         <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="F596" t="inlineStr"/>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="F596" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="G596" t="inlineStr">
         <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="H596" t="n">
-        <v>3</v>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="H596" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="597">
-      <c r="A597" t="inlineStr"/>
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>12:30 PM</t>
+        </is>
+      </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>Wholesale Prices YoYDEC</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D597" t="inlineStr"/>
       <c r="E597" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="F597" t="inlineStr"/>
       <c r="G597" t="inlineStr">
         <is>
-          <t>1.0%</t>
-        </is>
-      </c>
-      <c r="H597" t="n">
-        <v>3</v>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="H597" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="598">
-      <c r="A598" t="inlineStr"/>
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>12:30 PM</t>
+        </is>
+      </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t>Budget BalanceDEC</t>
+          <t>Harmonised Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D598" t="inlineStr"/>
       <c r="E598" t="inlineStr">
         <is>
-          <t>TRY-16.65B</t>
-        </is>
-      </c>
-      <c r="F598" t="inlineStr"/>
-      <c r="G598" t="inlineStr"/>
-      <c r="H598" t="n">
-        <v>3</v>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="F598" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="G598" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="H598" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="599">
-      <c r="A599" t="inlineStr"/>
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>12:30 PM</t>
+        </is>
+      </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>OP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C599" t="inlineStr">
         <is>
-          <t>OPEC Monthly Report</t>
+          <t>Harmonised Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D599" t="inlineStr"/>
-      <c r="E599" t="inlineStr"/>
-      <c r="F599" t="inlineStr"/>
-      <c r="G599" t="inlineStr"/>
-      <c r="H599" t="n">
-        <v>3</v>
+      <c r="E599" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="F599" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
+      <c r="G599" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
+      <c r="H599" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="600">
-      <c r="A600" t="inlineStr"/>
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>12:30 PM</t>
+        </is>
+      </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>GDP MoMNOV</t>
         </is>
       </c>
       <c r="D600" t="inlineStr"/>
       <c r="E600" t="inlineStr">
         <is>
-          <t>$-37.84B</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F600" t="inlineStr"/>
       <c r="G600" t="inlineStr">
         <is>
-          <t>$ -23B</t>
-        </is>
-      </c>
-      <c r="H600" t="n">
-        <v>3</v>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="H600" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="601">
-      <c r="A601" t="inlineStr"/>
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>12:30 PM</t>
+        </is>
+      </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C601" t="inlineStr">
         <is>
-          <t>ExportsDEC</t>
+          <t>GDP YoYNOV</t>
         </is>
       </c>
       <c r="D601" t="inlineStr"/>
       <c r="E601" t="inlineStr">
         <is>
-          <t>$32.11B</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F601" t="inlineStr"/>
       <c r="G601" t="inlineStr">
         <is>
-          <t>$ 36B</t>
-        </is>
-      </c>
-      <c r="H601" t="n">
-        <v>3</v>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="H601" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="602">
-      <c r="A602" t="inlineStr"/>
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>12:30 PM</t>
+        </is>
+      </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C602" t="inlineStr">
         <is>
-          <t>ImportsDEC</t>
+          <t>GDP 3-Month AvgNOV</t>
         </is>
       </c>
       <c r="D602" t="inlineStr"/>
       <c r="E602" t="inlineStr">
         <is>
-          <t>$69.95B</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F602" t="inlineStr"/>
       <c r="G602" t="inlineStr">
         <is>
-          <t>$ 59B</t>
-        </is>
-      </c>
-      <c r="H602" t="n">
-        <v>3</v>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H602" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>Thursday January 16 2025</t>
-        </is>
-      </c>
-      <c r="B603" t="inlineStr"/>
-      <c r="C603" t="inlineStr"/>
+          <t>12:30 PM</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="C603" t="inlineStr">
+        <is>
+          <t>Goods Trade BalanceNOV</t>
+        </is>
+      </c>
       <c r="D603" t="inlineStr"/>
-      <c r="E603" t="inlineStr"/>
+      <c r="E603" t="inlineStr">
+        <is>
+          <t>£-18.97B</t>
+        </is>
+      </c>
       <c r="F603" t="inlineStr"/>
       <c r="G603" t="inlineStr"/>
-      <c r="H603" t="inlineStr"/>
+      <c r="H603" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C604" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Goods Trade Balance Non-EUNOV</t>
         </is>
       </c>
       <c r="D604" t="inlineStr"/>
       <c r="E604" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>£-7.28B</t>
         </is>
       </c>
       <c r="F604" t="inlineStr"/>
-      <c r="G604" t="inlineStr">
-        <is>
-          <t>3.30%</t>
-        </is>
-      </c>
-      <c r="H604" t="n">
-        <v>2</v>
+      <c r="G604" t="inlineStr"/>
+      <c r="H604" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C605" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Industrial Production MoMNOV</t>
         </is>
       </c>
       <c r="D605" t="inlineStr"/>
       <c r="E605" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F605" t="inlineStr"/>
       <c r="G605" t="inlineStr"/>
-      <c r="H605" t="n">
-        <v>3</v>
+      <c r="H605" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C606" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Manufacturing Production MoMNOV</t>
         </is>
       </c>
       <c r="D606" t="inlineStr"/>
       <c r="E606" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F606" t="inlineStr"/>
-      <c r="G606" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="H606" t="n">
-        <v>3</v>
+      <c r="G606" t="inlineStr"/>
+      <c r="H606" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>05:31 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B607" t="inlineStr">
@@ -20342,465 +20688,467 @@
       </c>
       <c r="C607" t="inlineStr">
         <is>
-          <t>RICS House Price BalanceDEC</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D607" t="inlineStr"/>
       <c r="E607" t="inlineStr">
         <is>
-          <t>25%</t>
+          <t>£-3.72B</t>
         </is>
       </c>
       <c r="F607" t="inlineStr"/>
-      <c r="G607" t="inlineStr">
-        <is>
-          <t>17.0%</t>
-        </is>
-      </c>
-      <c r="H607" t="n">
-        <v>2</v>
+      <c r="G607" t="inlineStr"/>
+      <c r="H607" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C608" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D608" t="inlineStr"/>
       <c r="E608" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F608" t="inlineStr"/>
       <c r="G608" t="inlineStr">
         <is>
-          <t>4.30%</t>
-        </is>
-      </c>
-      <c r="H608" t="n">
-        <v>1</v>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="H608" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C609" t="inlineStr">
         <is>
-          <t>Employment ChangeDEC</t>
+          <t>Industrial Production YoYNOV</t>
         </is>
       </c>
       <c r="D609" t="inlineStr"/>
       <c r="E609" t="inlineStr">
         <is>
-          <t>35.6K</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F609" t="inlineStr"/>
-      <c r="G609" t="inlineStr">
-        <is>
-          <t>25.1K</t>
-        </is>
-      </c>
-      <c r="H609" t="n">
-        <v>2</v>
+      <c r="G609" t="inlineStr"/>
+      <c r="H609" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C610" t="inlineStr">
         <is>
-          <t>Full Time Employment ChgDEC</t>
+          <t>Manufacturing Production YoYNOV</t>
         </is>
       </c>
       <c r="D610" t="inlineStr"/>
       <c r="E610" t="inlineStr">
         <is>
-          <t>52.6K</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F610" t="inlineStr"/>
       <c r="G610" t="inlineStr"/>
-      <c r="H610" t="n">
-        <v>2</v>
+      <c r="H610" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C611" t="inlineStr">
         <is>
-          <t>Part Time Employment ChgDEC</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D611" t="inlineStr"/>
       <c r="E611" t="inlineStr">
         <is>
-          <t>-17.0K</t>
+          <t>€5.153B</t>
         </is>
       </c>
       <c r="F611" t="inlineStr"/>
       <c r="G611" t="inlineStr"/>
-      <c r="H611" t="n">
-        <v>3</v>
+      <c r="H611" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C612" t="inlineStr">
         <is>
-          <t>Participation RateDEC</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D612" t="inlineStr"/>
       <c r="E612" t="inlineStr">
         <is>
-          <t>67%</t>
-        </is>
-      </c>
-      <c r="F612" t="inlineStr"/>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="F612" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="G612" t="inlineStr">
         <is>
-          <t>66.8%</t>
-        </is>
-      </c>
-      <c r="H612" t="n">
-        <v>3</v>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="H612" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C613" t="inlineStr">
         <is>
-          <t>Interest Rate Decision</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D613" t="inlineStr"/>
       <c r="E613" t="inlineStr">
         <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="F613" t="inlineStr"/>
-      <c r="G613" t="inlineStr"/>
-      <c r="H613" t="n">
-        <v>2</v>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="F613" t="inlineStr">
+        <is>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="G613" t="inlineStr">
+        <is>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="H613" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C614" t="inlineStr">
         <is>
-          <t>20-Year JGB Auction</t>
+          <t>Harmonised Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D614" t="inlineStr"/>
       <c r="E614" t="inlineStr">
         <is>
-          <t>1.879%</t>
-        </is>
-      </c>
-      <c r="F614" t="inlineStr"/>
-      <c r="G614" t="inlineStr"/>
-      <c r="H614" t="n">
-        <v>3</v>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="F614" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
+      <c r="G614" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
+      <c r="H614" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C615" t="inlineStr">
         <is>
-          <t>52-Week Bill Auction</t>
+          <t>Harmonised Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D615" t="inlineStr"/>
       <c r="E615" t="inlineStr">
         <is>
-          <t>0.4796%</t>
-        </is>
-      </c>
-      <c r="F615" t="inlineStr"/>
-      <c r="G615" t="inlineStr"/>
-      <c r="H615" t="n">
-        <v>3</v>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="F615" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="G615" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="H615" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:10 PM</t>
         </is>
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C616" t="inlineStr">
         <is>
-          <t>6-Month T-Bill Auction</t>
+          <t>Bonos Auction</t>
         </is>
       </c>
       <c r="D616" t="inlineStr"/>
-      <c r="E616" t="inlineStr">
-        <is>
-          <t>3.02%</t>
-        </is>
-      </c>
+      <c r="E616" t="inlineStr"/>
       <c r="F616" t="inlineStr"/>
       <c r="G616" t="inlineStr"/>
-      <c r="H616" t="n">
-        <v>3</v>
+      <c r="H616" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:10 PM</t>
         </is>
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C617" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FinalDEC</t>
+          <t>Index-Linked Obligacion Auction</t>
         </is>
       </c>
       <c r="D617" t="inlineStr"/>
-      <c r="E617" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="F617" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G617" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H617" t="n">
-        <v>2</v>
+      <c r="E617" t="inlineStr"/>
+      <c r="F617" t="inlineStr"/>
+      <c r="G617" t="inlineStr"/>
+      <c r="H617" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:10 PM</t>
         </is>
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C618" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Obligacion Auction</t>
         </is>
       </c>
       <c r="D618" t="inlineStr"/>
-      <c r="E618" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
+      <c r="E618" t="inlineStr"/>
       <c r="F618" t="inlineStr"/>
-      <c r="G618" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="H618" t="n">
-        <v>2</v>
+      <c r="G618" t="inlineStr"/>
+      <c r="H618" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C619" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY FinalDEC</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D619" t="inlineStr"/>
       <c r="E619" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F619" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="G619" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="H619" t="n">
-        <v>3</v>
+          <t>€6.8B</t>
+        </is>
+      </c>
+      <c r="F619" t="inlineStr"/>
+      <c r="G619" t="inlineStr"/>
+      <c r="H619" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C620" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM FinalDEC</t>
+          <t>Foreign Exchange ReservesJAN/10</t>
         </is>
       </c>
       <c r="D620" t="inlineStr"/>
-      <c r="E620" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="F620" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="G620" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="H620" t="n">
-        <v>3</v>
+      <c r="E620" t="inlineStr"/>
+      <c r="F620" t="inlineStr"/>
+      <c r="G620" t="inlineStr"/>
+      <c r="H620" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C621" t="inlineStr">
         <is>
-          <t>GDP MoMNOV</t>
+          <t>IBC-BR Economic ActivityNOV</t>
         </is>
       </c>
       <c r="D621" t="inlineStr"/>
       <c r="E621" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F621" t="inlineStr"/>
-      <c r="G621" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H621" t="n">
-        <v>1</v>
+      <c r="G621" t="inlineStr"/>
+      <c r="H621" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B622" t="inlineStr">
@@ -20810,677 +21158,731 @@
       </c>
       <c r="C622" t="inlineStr">
         <is>
-          <t>GDP YoYNOV</t>
+          <t>NIESR Monthly GDP TrackerDEC</t>
         </is>
       </c>
       <c r="D622" t="inlineStr"/>
       <c r="E622" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F622" t="inlineStr"/>
       <c r="G622" t="inlineStr">
         <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="H622" t="n">
-        <v>1</v>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="H622" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:45 PM</t>
         </is>
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C623" t="inlineStr">
         <is>
-          <t>GDP 3-Month AvgNOV</t>
+          <t>Housing StartsDEC</t>
         </is>
       </c>
       <c r="D623" t="inlineStr"/>
       <c r="E623" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>262.4K</t>
         </is>
       </c>
       <c r="F623" t="inlineStr"/>
       <c r="G623" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H623" t="n">
-        <v>2</v>
+          <t>220K</t>
+        </is>
+      </c>
+      <c r="H623" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C624" t="inlineStr">
         <is>
-          <t>Goods Trade BalanceNOV</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D624" t="inlineStr"/>
       <c r="E624" t="inlineStr">
         <is>
-          <t>£-18.97B</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F624" t="inlineStr"/>
-      <c r="G624" t="inlineStr"/>
-      <c r="H624" t="n">
-        <v>2</v>
+      <c r="G624" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="H624" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C625" t="inlineStr">
         <is>
-          <t>Goods Trade Balance Non-EUNOV</t>
+          <t>Export Prices MoMDEC</t>
         </is>
       </c>
       <c r="D625" t="inlineStr"/>
       <c r="E625" t="inlineStr">
         <is>
-          <t>£-7.28B</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F625" t="inlineStr"/>
-      <c r="G625" t="inlineStr"/>
-      <c r="H625" t="n">
-        <v>2</v>
+      <c r="G625" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="H625" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C626" t="inlineStr">
         <is>
-          <t>Industrial Production MoMNOV</t>
+          <t>Import Prices MoMDEC</t>
         </is>
       </c>
       <c r="D626" t="inlineStr"/>
       <c r="E626" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F626" t="inlineStr"/>
       <c r="G626" t="inlineStr"/>
-      <c r="H626" t="n">
-        <v>2</v>
+      <c r="H626" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C627" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMNOV</t>
+          <t>Initial Jobless ClaimsJAN/11</t>
         </is>
       </c>
       <c r="D627" t="inlineStr"/>
       <c r="E627" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>201K</t>
         </is>
       </c>
       <c r="F627" t="inlineStr"/>
-      <c r="G627" t="inlineStr"/>
-      <c r="H627" t="n">
-        <v>2</v>
+      <c r="G627" t="inlineStr">
+        <is>
+          <t>209.0K</t>
+        </is>
+      </c>
+      <c r="H627" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C628" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Philadelphia Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D628" t="inlineStr"/>
       <c r="E628" t="inlineStr">
         <is>
-          <t>£-3.72B</t>
+          <t>-16.4</t>
         </is>
       </c>
       <c r="F628" t="inlineStr"/>
       <c r="G628" t="inlineStr"/>
-      <c r="H628" t="n">
-        <v>3</v>
+      <c r="H628" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C629" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>Retail Sales Ex Autos MoMDEC</t>
         </is>
       </c>
       <c r="D629" t="inlineStr"/>
       <c r="E629" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F629" t="inlineStr"/>
       <c r="G629" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H629" t="n">
-        <v>3</v>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="H629" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C630" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>Continuing Jobless ClaimsJAN/04</t>
         </is>
       </c>
       <c r="D630" t="inlineStr"/>
       <c r="E630" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>1867K</t>
         </is>
       </c>
       <c r="F630" t="inlineStr"/>
-      <c r="G630" t="inlineStr"/>
-      <c r="H630" t="n">
-        <v>3</v>
+      <c r="G630" t="inlineStr">
+        <is>
+          <t>1870.0K</t>
+        </is>
+      </c>
+      <c r="H630" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C631" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYNOV</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D631" t="inlineStr"/>
       <c r="E631" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F631" t="inlineStr"/>
       <c r="G631" t="inlineStr"/>
-      <c r="H631" t="n">
-        <v>3</v>
+      <c r="H631" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C632" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D632" t="inlineStr"/>
       <c r="E632" t="inlineStr">
         <is>
-          <t>€5.153B</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F632" t="inlineStr"/>
-      <c r="G632" t="inlineStr"/>
-      <c r="H632" t="n">
-        <v>2</v>
+      <c r="G632" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
+      <c r="H632" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C633" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FinalDEC</t>
+          <t>Jobless Claims 4-week AverageJAN/11</t>
         </is>
       </c>
       <c r="D633" t="inlineStr"/>
       <c r="E633" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F633" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+          <t>213K</t>
+        </is>
+      </c>
+      <c r="F633" t="inlineStr"/>
       <c r="G633" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H633" t="n">
-        <v>2</v>
+          <t>215.0K</t>
+        </is>
+      </c>
+      <c r="H633" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C634" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Philly Fed Business ConditionsJAN</t>
         </is>
       </c>
       <c r="D634" t="inlineStr"/>
       <c r="E634" t="inlineStr">
         <is>
-          <t>1.3%</t>
-        </is>
-      </c>
-      <c r="F634" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
-      <c r="G634" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
-      <c r="H634" t="n">
-        <v>2</v>
+          <t>30.7</t>
+        </is>
+      </c>
+      <c r="F634" t="inlineStr"/>
+      <c r="G634" t="inlineStr"/>
+      <c r="H634" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C635" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY FinalDEC</t>
+          <t>Philly Fed CAPEX IndexJAN</t>
         </is>
       </c>
       <c r="D635" t="inlineStr"/>
       <c r="E635" t="inlineStr">
         <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="F635" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="G635" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="H635" t="n">
-        <v>3</v>
+          <t>18.8</t>
+        </is>
+      </c>
+      <c r="F635" t="inlineStr"/>
+      <c r="G635" t="inlineStr"/>
+      <c r="H635" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C636" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM FinalDEC</t>
+          <t>Philly Fed EmploymentJAN</t>
         </is>
       </c>
       <c r="D636" t="inlineStr"/>
       <c r="E636" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F636" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G636" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H636" t="n">
-        <v>3</v>
+          <t>6.6</t>
+        </is>
+      </c>
+      <c r="F636" t="inlineStr"/>
+      <c r="G636" t="inlineStr"/>
+      <c r="H636" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>03:10 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C637" t="inlineStr">
         <is>
-          <t>Bonos Auction</t>
+          <t>Philly Fed New OrdersJAN</t>
         </is>
       </c>
       <c r="D637" t="inlineStr"/>
-      <c r="E637" t="inlineStr"/>
+      <c r="E637" t="inlineStr">
+        <is>
+          <t>-4.3</t>
+        </is>
+      </c>
       <c r="F637" t="inlineStr"/>
       <c r="G637" t="inlineStr"/>
-      <c r="H637" t="n">
-        <v>3</v>
+      <c r="H637" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>03:10 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C638" t="inlineStr">
         <is>
-          <t>Index-Linked Obligacion Auction</t>
+          <t>Philly Fed Prices PaidJAN</t>
         </is>
       </c>
       <c r="D638" t="inlineStr"/>
-      <c r="E638" t="inlineStr"/>
+      <c r="E638" t="inlineStr">
+        <is>
+          <t>31.2</t>
+        </is>
+      </c>
       <c r="F638" t="inlineStr"/>
       <c r="G638" t="inlineStr"/>
-      <c r="H638" t="n">
-        <v>3</v>
+      <c r="H638" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>03:10 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C639" t="inlineStr">
         <is>
-          <t>Obligacion Auction</t>
+          <t>Retail Sales Ex Gas/Autos MoMDEC</t>
         </is>
       </c>
       <c r="D639" t="inlineStr"/>
-      <c r="E639" t="inlineStr"/>
+      <c r="E639" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F639" t="inlineStr"/>
-      <c r="G639" t="inlineStr"/>
-      <c r="H639" t="n">
-        <v>3</v>
+      <c r="G639" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="H639" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C640" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D640" t="inlineStr"/>
       <c r="E640" t="inlineStr">
         <is>
-          <t>€6.8B</t>
+          <t>3.8%</t>
         </is>
       </c>
       <c r="F640" t="inlineStr"/>
-      <c r="G640" t="inlineStr"/>
-      <c r="H640" t="n">
-        <v>2</v>
+      <c r="G640" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="H640" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C641" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/10</t>
+          <t>Business Inventories MoMNOV</t>
         </is>
       </c>
       <c r="D641" t="inlineStr"/>
-      <c r="E641" t="inlineStr"/>
+      <c r="E641" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="F641" t="inlineStr"/>
       <c r="G641" t="inlineStr"/>
-      <c r="H641" t="n">
-        <v>3</v>
+      <c r="H641" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C642" t="inlineStr">
         <is>
-          <t>IBC-BR Economic ActivityNOV</t>
+          <t>NAHB Housing Market IndexJAN</t>
         </is>
       </c>
       <c r="D642" t="inlineStr"/>
       <c r="E642" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F642" t="inlineStr"/>
       <c r="G642" t="inlineStr"/>
-      <c r="H642" t="n">
-        <v>3</v>
+      <c r="H642" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C643" t="inlineStr">
         <is>
-          <t>NIESR Monthly GDP TrackerDEC</t>
+          <t>Retail Inventories Ex Autos MoMNOV</t>
         </is>
       </c>
       <c r="D643" t="inlineStr"/>
       <c r="E643" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F643" t="inlineStr"/>
-      <c r="G643" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H643" t="n">
-        <v>3</v>
+      <c r="G643" t="inlineStr"/>
+      <c r="H643" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C644" t="inlineStr">
         <is>
-          <t>Housing StartsDEC</t>
+          <t>EIA Natural Gas Stocks ChangeJAN/10</t>
         </is>
       </c>
       <c r="D644" t="inlineStr"/>
       <c r="E644" t="inlineStr">
         <is>
-          <t>262.4K</t>
+          <t>-40Bcf</t>
         </is>
       </c>
       <c r="F644" t="inlineStr"/>
-      <c r="G644" t="inlineStr">
-        <is>
-          <t>220K</t>
-        </is>
-      </c>
-      <c r="H644" t="n">
-        <v>2</v>
+      <c r="G644" t="inlineStr"/>
+      <c r="H644" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B645" t="inlineStr">
@@ -21490,29 +21892,23 @@
       </c>
       <c r="C645" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D645" t="inlineStr"/>
-      <c r="E645" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="E645" t="inlineStr"/>
       <c r="F645" t="inlineStr"/>
-      <c r="G645" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H645" t="n">
-        <v>1</v>
+      <c r="G645" t="inlineStr"/>
+      <c r="H645" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B646" t="inlineStr">
@@ -21522,29 +21918,23 @@
       </c>
       <c r="C646" t="inlineStr">
         <is>
-          <t>Export Prices MoMDEC</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="D646" t="inlineStr"/>
-      <c r="E646" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="E646" t="inlineStr"/>
       <c r="F646" t="inlineStr"/>
-      <c r="G646" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H646" t="n">
-        <v>2</v>
+      <c r="G646" t="inlineStr"/>
+      <c r="H646" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B647" t="inlineStr">
@@ -21554,25 +21944,23 @@
       </c>
       <c r="C647" t="inlineStr">
         <is>
-          <t>Import Prices MoMDEC</t>
+          <t>15-Year Mortgage RateJAN/16</t>
         </is>
       </c>
       <c r="D647" t="inlineStr"/>
-      <c r="E647" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E647" t="inlineStr"/>
       <c r="F647" t="inlineStr"/>
       <c r="G647" t="inlineStr"/>
-      <c r="H647" t="n">
-        <v>2</v>
+      <c r="H647" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B648" t="inlineStr">
@@ -21582,57 +21970,37 @@
       </c>
       <c r="C648" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsJAN/11</t>
+          <t>30-Year Mortgage RateJAN/16</t>
         </is>
       </c>
       <c r="D648" t="inlineStr"/>
-      <c r="E648" t="inlineStr">
-        <is>
-          <t>201K</t>
-        </is>
-      </c>
+      <c r="E648" t="inlineStr"/>
       <c r="F648" t="inlineStr"/>
-      <c r="G648" t="inlineStr">
-        <is>
-          <t>209.0K</t>
-        </is>
-      </c>
-      <c r="H648" t="n">
-        <v>2</v>
+      <c r="G648" t="inlineStr"/>
+      <c r="H648" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B649" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C649" t="inlineStr">
-        <is>
-          <t>Philadelphia Fed Manufacturing IndexJAN</t>
-        </is>
-      </c>
+          <t>Friday January 17 2025</t>
+        </is>
+      </c>
+      <c r="B649" t="inlineStr"/>
+      <c r="C649" t="inlineStr"/>
       <c r="D649" t="inlineStr"/>
-      <c r="E649" t="inlineStr">
-        <is>
-          <t>-16.4</t>
-        </is>
-      </c>
+      <c r="E649" t="inlineStr"/>
       <c r="F649" t="inlineStr"/>
       <c r="G649" t="inlineStr"/>
-      <c r="H649" t="n">
-        <v>2</v>
-      </c>
+      <c r="H649" t="inlineStr"/>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B650" t="inlineStr">
@@ -21642,330 +22010,348 @@
       </c>
       <c r="C650" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Autos MoMDEC</t>
+          <t>Fed Balance SheetJAN/15</t>
         </is>
       </c>
       <c r="D650" t="inlineStr"/>
-      <c r="E650" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E650" t="inlineStr"/>
       <c r="F650" t="inlineStr"/>
-      <c r="G650" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="H650" t="n">
-        <v>2</v>
+      <c r="G650" t="inlineStr"/>
+      <c r="H650" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C651" t="inlineStr">
         <is>
-          <t>Continuing Jobless ClaimsJAN/04</t>
+          <t>Reuters Tankan IndexJAN</t>
         </is>
       </c>
       <c r="D651" t="inlineStr"/>
       <c r="E651" t="inlineStr">
         <is>
-          <t>1867K</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="F651" t="inlineStr"/>
       <c r="G651" t="inlineStr">
         <is>
-          <t>1870.0K</t>
-        </is>
-      </c>
-      <c r="H651" t="n">
-        <v>3</v>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H651" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C652" t="inlineStr">
         <is>
-          <t>Export Prices YoYDEC</t>
+          <t>Foreign Bond InvestmentJAN/11</t>
         </is>
       </c>
       <c r="D652" t="inlineStr"/>
-      <c r="E652" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="E652" t="inlineStr"/>
       <c r="F652" t="inlineStr"/>
       <c r="G652" t="inlineStr"/>
-      <c r="H652" t="n">
-        <v>3</v>
+      <c r="H652" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C653" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Stock Investment by ForeignersJAN/11</t>
         </is>
       </c>
       <c r="D653" t="inlineStr"/>
-      <c r="E653" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
+      <c r="E653" t="inlineStr"/>
       <c r="F653" t="inlineStr"/>
-      <c r="G653" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="H653" t="n">
-        <v>3</v>
+      <c r="G653" t="inlineStr"/>
+      <c r="H653" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C654" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageJAN/11</t>
+          <t>Non-Oil Exports MoMDEC</t>
         </is>
       </c>
       <c r="D654" t="inlineStr"/>
       <c r="E654" t="inlineStr">
         <is>
-          <t>213K</t>
+          <t>14.7%</t>
         </is>
       </c>
       <c r="F654" t="inlineStr"/>
       <c r="G654" t="inlineStr">
         <is>
-          <t>215.0K</t>
-        </is>
-      </c>
-      <c r="H654" t="n">
-        <v>3</v>
+          <t>1.2%</t>
+        </is>
+      </c>
+      <c r="H654" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C655" t="inlineStr">
         <is>
-          <t>Philly Fed Business ConditionsJAN</t>
+          <t>Non-Oil Exports YoYDEC</t>
         </is>
       </c>
       <c r="D655" t="inlineStr"/>
       <c r="E655" t="inlineStr">
         <is>
-          <t>30.7</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="F655" t="inlineStr"/>
-      <c r="G655" t="inlineStr"/>
-      <c r="H655" t="n">
-        <v>3</v>
+      <c r="G655" t="inlineStr">
+        <is>
+          <t>7.5%</t>
+        </is>
+      </c>
+      <c r="H655" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C656" t="inlineStr">
         <is>
-          <t>Philly Fed CAPEX IndexJAN</t>
+          <t>Consumer Inflation ExpectationsJAN</t>
         </is>
       </c>
       <c r="D656" t="inlineStr"/>
       <c r="E656" t="inlineStr">
         <is>
-          <t>18.8</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="F656" t="inlineStr"/>
       <c r="G656" t="inlineStr"/>
-      <c r="H656" t="n">
-        <v>3</v>
+      <c r="H656" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C657" t="inlineStr">
         <is>
-          <t>Philly Fed EmploymentJAN</t>
+          <t>House Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D657" t="inlineStr"/>
       <c r="E657" t="inlineStr">
         <is>
-          <t>6.6</t>
+          <t>-5.7%</t>
         </is>
       </c>
       <c r="F657" t="inlineStr"/>
-      <c r="G657" t="inlineStr"/>
-      <c r="H657" t="n">
-        <v>3</v>
+      <c r="G657" t="inlineStr">
+        <is>
+          <t>-5.8%</t>
+        </is>
+      </c>
+      <c r="H657" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C658" t="inlineStr">
         <is>
-          <t>Philly Fed New OrdersJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D658" t="inlineStr"/>
       <c r="E658" t="inlineStr">
         <is>
-          <t>-4.3</t>
+          <t>$6.52B</t>
         </is>
       </c>
       <c r="F658" t="inlineStr"/>
-      <c r="G658" t="inlineStr"/>
-      <c r="H658" t="n">
-        <v>3</v>
+      <c r="G658" t="inlineStr">
+        <is>
+          <t>$ 3.6B</t>
+        </is>
+      </c>
+      <c r="H658" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C659" t="inlineStr">
         <is>
-          <t>Philly Fed Prices PaidJAN</t>
+          <t>GDP Growth Rate YoYQ4</t>
         </is>
       </c>
       <c r="D659" t="inlineStr"/>
       <c r="E659" t="inlineStr">
         <is>
-          <t>31.2</t>
+          <t>4.6%</t>
         </is>
       </c>
       <c r="F659" t="inlineStr"/>
-      <c r="G659" t="inlineStr"/>
-      <c r="H659" t="n">
-        <v>3</v>
+      <c r="G659" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
+      <c r="H659" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C660" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Gas/Autos MoMDEC</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D660" t="inlineStr"/>
       <c r="E660" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>5.4%</t>
         </is>
       </c>
       <c r="F660" t="inlineStr"/>
       <c r="G660" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H660" t="n">
-        <v>3</v>
+          <t>4.3%</t>
+        </is>
+      </c>
+      <c r="H660" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C661" t="inlineStr">
@@ -21976,247 +22362,301 @@
       <c r="D661" t="inlineStr"/>
       <c r="E661" t="inlineStr">
         <is>
-          <t>3.8%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F661" t="inlineStr"/>
       <c r="G661" t="inlineStr">
         <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="H661" t="n">
-        <v>3</v>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="H661" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C662" t="inlineStr">
         <is>
-          <t>Business Inventories MoMNOV</t>
+          <t>Fixed Asset Investment (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D662" t="inlineStr"/>
       <c r="E662" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F662" t="inlineStr"/>
-      <c r="G662" t="inlineStr"/>
-      <c r="H662" t="n">
-        <v>2</v>
+      <c r="G662" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
+      <c r="H662" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C663" t="inlineStr">
         <is>
-          <t>NAHB Housing Market IndexJAN</t>
+          <t>GDP Growth Rate QoQQ4</t>
         </is>
       </c>
       <c r="D663" t="inlineStr"/>
       <c r="E663" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="F663" t="inlineStr"/>
-      <c r="G663" t="inlineStr"/>
-      <c r="H663" t="n">
-        <v>2</v>
+      <c r="G663" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
+      <c r="H663" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C664" t="inlineStr">
         <is>
-          <t>Retail Inventories Ex Autos MoMNOV</t>
+          <t>Industrial Capacity UtilizationQ4</t>
         </is>
       </c>
       <c r="D664" t="inlineStr"/>
       <c r="E664" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>75.1%</t>
         </is>
       </c>
       <c r="F664" t="inlineStr"/>
-      <c r="G664" t="inlineStr"/>
-      <c r="H664" t="n">
-        <v>3</v>
+      <c r="G664" t="inlineStr">
+        <is>
+          <t>74.9%</t>
+        </is>
+      </c>
+      <c r="H664" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C665" t="inlineStr">
         <is>
-          <t>EIA Natural Gas Stocks ChangeJAN/10</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D665" t="inlineStr"/>
       <c r="E665" t="inlineStr">
         <is>
-          <t>-40Bcf</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="F665" t="inlineStr"/>
-      <c r="G665" t="inlineStr"/>
-      <c r="H665" t="n">
-        <v>3</v>
+      <c r="G665" t="inlineStr">
+        <is>
+          <t>5.00%</t>
+        </is>
+      </c>
+      <c r="H665" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C666" t="inlineStr">
         <is>
-          <t>4-Week Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D666" t="inlineStr"/>
       <c r="E666" t="inlineStr"/>
       <c r="F666" t="inlineStr"/>
       <c r="G666" t="inlineStr"/>
-      <c r="H666" t="n">
-        <v>3</v>
+      <c r="H666" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C667" t="inlineStr">
         <is>
-          <t>8-Week Bill Auction</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D667" t="inlineStr"/>
-      <c r="E667" t="inlineStr"/>
+      <c r="E667" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F667" t="inlineStr"/>
-      <c r="G667" t="inlineStr"/>
-      <c r="H667" t="n">
-        <v>3</v>
+      <c r="G667" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H667" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C668" t="inlineStr">
         <is>
-          <t>15-Year Mortgage RateJAN/16</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D668" t="inlineStr"/>
-      <c r="E668" t="inlineStr"/>
+      <c r="E668" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="F668" t="inlineStr"/>
-      <c r="G668" t="inlineStr"/>
-      <c r="H668" t="n">
-        <v>3</v>
+      <c r="G668" t="inlineStr">
+        <is>
+          <t>3.5%</t>
+        </is>
+      </c>
+      <c r="H668" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C669" t="inlineStr">
         <is>
-          <t>30-Year Mortgage RateJAN/16</t>
+          <t>Retail Sales ex Fuel MoMDEC</t>
         </is>
       </c>
       <c r="D669" t="inlineStr"/>
-      <c r="E669" t="inlineStr"/>
+      <c r="E669" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="F669" t="inlineStr"/>
       <c r="G669" t="inlineStr"/>
-      <c r="H669" t="n">
-        <v>3</v>
+      <c r="H669" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C670" t="inlineStr">
         <is>
-          <t>Current Account s.aNOV</t>
+          <t>Retail Sales ex Fuel YoYDEC</t>
         </is>
       </c>
       <c r="D670" t="inlineStr"/>
       <c r="E670" t="inlineStr">
         <is>
-          <t>€33.5B</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F670" t="inlineStr"/>
@@ -22230,37 +22670,41 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>12:50 PM</t>
         </is>
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C671" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Loan Growth YoYDEC</t>
         </is>
       </c>
       <c r="D671" t="inlineStr"/>
       <c r="E671" t="inlineStr">
         <is>
-          <t>€-3.93B</t>
+          <t>10.79%</t>
         </is>
       </c>
       <c r="F671" t="inlineStr"/>
-      <c r="G671" t="inlineStr"/>
+      <c r="G671" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
       <c r="H671" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B672" t="inlineStr">
@@ -22270,35 +22714,27 @@
       </c>
       <c r="C672" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D672" t="inlineStr"/>
       <c r="E672" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F672" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="G672" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+          <t>€32B</t>
+        </is>
+      </c>
+      <c r="F672" t="inlineStr"/>
+      <c r="G672" t="inlineStr"/>
       <c r="H672" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B673" t="inlineStr">
@@ -22308,25 +22744,17 @@
       </c>
       <c r="C673" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FinalDEC</t>
+          <t>Current Account s.aNOV</t>
         </is>
       </c>
       <c r="D673" t="inlineStr"/>
       <c r="E673" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F673" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="G673" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+          <t>€33.5B</t>
+        </is>
+      </c>
+      <c r="F673" t="inlineStr"/>
+      <c r="G673" t="inlineStr"/>
       <c r="H673" t="inlineStr">
         <is>
           <t>3</t>
@@ -22336,38 +22764,30 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C674" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FinalDEC</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D674" t="inlineStr"/>
       <c r="E674" t="inlineStr">
         <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F674" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G674" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>€-3.93B</t>
+        </is>
+      </c>
+      <c r="F674" t="inlineStr"/>
+      <c r="G674" t="inlineStr"/>
       <c r="H674" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -22384,28 +22804,28 @@
       </c>
       <c r="C675" t="inlineStr">
         <is>
-          <t>CPI FinalDEC</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D675" t="inlineStr"/>
       <c r="E675" t="inlineStr">
         <is>
-          <t>126.62</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="F675" t="inlineStr">
         <is>
-          <t>127.08</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="G675" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="H675" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -22417,22 +22837,30 @@
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C676" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Core Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D676" t="inlineStr"/>
       <c r="E676" t="inlineStr">
         <is>
-          <t>€5628M</t>
-        </is>
-      </c>
-      <c r="F676" t="inlineStr"/>
-      <c r="G676" t="inlineStr"/>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="F676" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="G676" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="H676" t="inlineStr">
         <is>
           <t>3</t>
@@ -22442,27 +22870,35 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C677" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/03</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D677" t="inlineStr"/>
       <c r="E677" t="inlineStr">
         <is>
-          <t>11.5%</t>
-        </is>
-      </c>
-      <c r="F677" t="inlineStr"/>
-      <c r="G677" t="inlineStr"/>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="F677" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G677" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H677" t="inlineStr">
         <is>
           <t>3</t>
@@ -22472,27 +22908,35 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C678" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/03</t>
+          <t>CPI FinalDEC</t>
         </is>
       </c>
       <c r="D678" t="inlineStr"/>
       <c r="E678" t="inlineStr">
         <is>
-          <t>11.5%</t>
-        </is>
-      </c>
-      <c r="F678" t="inlineStr"/>
-      <c r="G678" t="inlineStr"/>
+          <t>126.62</t>
+        </is>
+      </c>
+      <c r="F678" t="inlineStr">
+        <is>
+          <t>127.08</t>
+        </is>
+      </c>
+      <c r="G678" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
       <c r="H678" t="inlineStr">
         <is>
           <t>3</t>
@@ -22502,21 +22946,25 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C679" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/10</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D679" t="inlineStr"/>
-      <c r="E679" t="inlineStr"/>
+      <c r="E679" t="inlineStr">
+        <is>
+          <t>€5628M</t>
+        </is>
+      </c>
       <c r="F679" t="inlineStr"/>
       <c r="G679" t="inlineStr"/>
       <c r="H679" t="inlineStr">
@@ -22528,23 +22976,23 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C680" t="inlineStr">
         <is>
-          <t>Foreign Securities PurchasesNOV</t>
+          <t>Bank Loan Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D680" t="inlineStr"/>
       <c r="E680" t="inlineStr">
         <is>
-          <t>C$21.55B</t>
+          <t>11.5%</t>
         </is>
       </c>
       <c r="F680" t="inlineStr"/>
@@ -22558,23 +23006,23 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C681" t="inlineStr">
         <is>
-          <t>Foreign Securities Purchases by CanadiansNOV</t>
+          <t>Deposit Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D681" t="inlineStr"/>
       <c r="E681" t="inlineStr">
         <is>
-          <t>C$-2.65B</t>
+          <t>11.5%</t>
         </is>
       </c>
       <c r="F681" t="inlineStr"/>
@@ -22588,34 +23036,26 @@
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C682" t="inlineStr">
         <is>
-          <t>Building Permits PrelDEC</t>
+          <t>Foreign Exchange ReservesJAN/10</t>
         </is>
       </c>
       <c r="D682" t="inlineStr"/>
-      <c r="E682" t="inlineStr">
-        <is>
-          <t>1.493M</t>
-        </is>
-      </c>
+      <c r="E682" t="inlineStr"/>
       <c r="F682" t="inlineStr"/>
-      <c r="G682" t="inlineStr">
-        <is>
-          <t>1.6M</t>
-        </is>
-      </c>
+      <c r="G682" t="inlineStr"/>
       <c r="H682" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -22627,29 +23067,25 @@
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C683" t="inlineStr">
         <is>
-          <t>Housing StartsDEC</t>
+          <t>Foreign Securities PurchasesNOV</t>
         </is>
       </c>
       <c r="D683" t="inlineStr"/>
       <c r="E683" t="inlineStr">
         <is>
-          <t>1.289M</t>
+          <t>C$21.55B</t>
         </is>
       </c>
       <c r="F683" t="inlineStr"/>
-      <c r="G683" t="inlineStr">
-        <is>
-          <t>1.5M</t>
-        </is>
-      </c>
+      <c r="G683" t="inlineStr"/>
       <c r="H683" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -22661,25 +23097,25 @@
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C684" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>Foreign Securities Purchases by CanadiansNOV</t>
         </is>
       </c>
       <c r="D684" t="inlineStr"/>
       <c r="E684" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>C$-2.65B</t>
         </is>
       </c>
       <c r="F684" t="inlineStr"/>
       <c r="G684" t="inlineStr"/>
       <c r="H684" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -22696,31 +23132,31 @@
       </c>
       <c r="C685" t="inlineStr">
         <is>
-          <t>Housing Starts MoMDEC</t>
+          <t>Building Permits PrelDEC</t>
         </is>
       </c>
       <c r="D685" t="inlineStr"/>
       <c r="E685" t="inlineStr">
         <is>
-          <t>-1.8%</t>
+          <t>1.493M</t>
         </is>
       </c>
       <c r="F685" t="inlineStr"/>
       <c r="G685" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>1.6M</t>
         </is>
       </c>
       <c r="H685" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B686" t="inlineStr">
@@ -22730,27 +23166,31 @@
       </c>
       <c r="C686" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Housing StartsDEC</t>
         </is>
       </c>
       <c r="D686" t="inlineStr"/>
       <c r="E686" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>1.289M</t>
         </is>
       </c>
       <c r="F686" t="inlineStr"/>
-      <c r="G686" t="inlineStr"/>
+      <c r="G686" t="inlineStr">
+        <is>
+          <t>1.5M</t>
+        </is>
+      </c>
       <c r="H686" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B687" t="inlineStr">
@@ -22760,31 +23200,27 @@
       </c>
       <c r="C687" t="inlineStr">
         <is>
-          <t>Capacity UtilizationDEC</t>
+          <t>Building Permits MoM PrelDEC</t>
         </is>
       </c>
       <c r="D687" t="inlineStr"/>
       <c r="E687" t="inlineStr">
         <is>
-          <t>76.8%</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F687" t="inlineStr"/>
-      <c r="G687" t="inlineStr">
-        <is>
-          <t>77.8%</t>
-        </is>
-      </c>
+      <c r="G687" t="inlineStr"/>
       <c r="H687" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B688" t="inlineStr">
@@ -22794,24 +23230,24 @@
       </c>
       <c r="C688" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Housing Starts MoMDEC</t>
         </is>
       </c>
       <c r="D688" t="inlineStr"/>
       <c r="E688" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>-1.8%</t>
         </is>
       </c>
       <c r="F688" t="inlineStr"/>
       <c r="G688" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="H688" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -22828,24 +23264,20 @@
       </c>
       <c r="C689" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D689" t="inlineStr"/>
       <c r="E689" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F689" t="inlineStr"/>
-      <c r="G689" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G689" t="inlineStr"/>
       <c r="H689" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -22862,19 +23294,19 @@
       </c>
       <c r="C690" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYDEC</t>
+          <t>Capacity UtilizationDEC</t>
         </is>
       </c>
       <c r="D690" t="inlineStr"/>
       <c r="E690" t="inlineStr">
         <is>
-          <t>-1%</t>
+          <t>76.8%</t>
         </is>
       </c>
       <c r="F690" t="inlineStr"/>
       <c r="G690" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>77.8%</t>
         </is>
       </c>
       <c r="H690" t="inlineStr">
@@ -22886,7 +23318,7 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B691" t="inlineStr">
@@ -22896,13 +23328,21 @@
       </c>
       <c r="C691" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/17</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D691" t="inlineStr"/>
-      <c r="E691" t="inlineStr"/>
+      <c r="E691" t="inlineStr">
+        <is>
+          <t>-0.9%</t>
+        </is>
+      </c>
       <c r="F691" t="inlineStr"/>
-      <c r="G691" t="inlineStr"/>
+      <c r="G691" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="H691" t="inlineStr">
         <is>
           <t>3</t>
@@ -22912,7 +23352,7 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B692" t="inlineStr">
@@ -22922,13 +23362,21 @@
       </c>
       <c r="C692" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/17</t>
+          <t>Manufacturing Production MoMDEC</t>
         </is>
       </c>
       <c r="D692" t="inlineStr"/>
-      <c r="E692" t="inlineStr"/>
+      <c r="E692" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F692" t="inlineStr"/>
-      <c r="G692" t="inlineStr"/>
+      <c r="G692" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H692" t="inlineStr">
         <is>
           <t>3</t>
@@ -22936,25 +23384,33 @@
       </c>
     </row>
     <row r="693">
-      <c r="A693" t="inlineStr"/>
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>07:45 PM</t>
+        </is>
+      </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C693" t="inlineStr">
         <is>
-          <t>50-Year KTB Auction</t>
+          <t>Manufacturing Production YoYDEC</t>
         </is>
       </c>
       <c r="D693" t="inlineStr"/>
       <c r="E693" t="inlineStr">
         <is>
-          <t>2.40%</t>
+          <t>-1%</t>
         </is>
       </c>
       <c r="F693" t="inlineStr"/>
-      <c r="G693" t="inlineStr"/>
+      <c r="G693" t="inlineStr">
+        <is>
+          <t>-0.9%</t>
+        </is>
+      </c>
       <c r="H693" t="inlineStr">
         <is>
           <t>3</t>
@@ -22964,21 +23420,33 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>Saturday January 18 2025</t>
-        </is>
-      </c>
-      <c r="B694" t="inlineStr"/>
-      <c r="C694" t="inlineStr"/>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C694" t="inlineStr">
+        <is>
+          <t>Baker Hughes Oil Rig CountJAN/17</t>
+        </is>
+      </c>
       <c r="D694" t="inlineStr"/>
       <c r="E694" t="inlineStr"/>
       <c r="F694" t="inlineStr"/>
       <c r="G694" t="inlineStr"/>
-      <c r="H694" t="inlineStr"/>
+      <c r="H694" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B695" t="inlineStr">
@@ -22988,43 +23456,35 @@
       </c>
       <c r="C695" t="inlineStr">
         <is>
-          <t>Net Long-term TIC FlowsNOV</t>
+          <t>Baker Hughes Total Rigs CountJAN/17</t>
         </is>
       </c>
       <c r="D695" t="inlineStr"/>
-      <c r="E695" t="inlineStr">
-        <is>
-          <t>$152.3B</t>
-        </is>
-      </c>
+      <c r="E695" t="inlineStr"/>
       <c r="F695" t="inlineStr"/>
       <c r="G695" t="inlineStr"/>
       <c r="H695" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="696">
-      <c r="A696" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
+      <c r="A696" t="inlineStr"/>
       <c r="B696" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C696" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentNOV</t>
+          <t>50-Year KTB Auction</t>
         </is>
       </c>
       <c r="D696" t="inlineStr"/>
       <c r="E696" t="inlineStr">
         <is>
-          <t>$92.1B</t>
+          <t>2.40%</t>
         </is>
       </c>
       <c r="F696" t="inlineStr"/>
@@ -23038,28 +23498,102 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B697" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C697" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsNOV</t>
-        </is>
-      </c>
+          <t>Saturday January 18 2025</t>
+        </is>
+      </c>
+      <c r="B697" t="inlineStr"/>
+      <c r="C697" t="inlineStr"/>
       <c r="D697" t="inlineStr"/>
-      <c r="E697" t="inlineStr">
-        <is>
-          <t>$203.6B</t>
-        </is>
-      </c>
+      <c r="E697" t="inlineStr"/>
       <c r="F697" t="inlineStr"/>
       <c r="G697" t="inlineStr"/>
-      <c r="H697" t="inlineStr">
+      <c r="H697" t="inlineStr"/>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>02:30 AM</t>
+        </is>
+      </c>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C698" t="inlineStr">
+        <is>
+          <t>Net Long-term TIC FlowsNOV</t>
+        </is>
+      </c>
+      <c r="D698" t="inlineStr"/>
+      <c r="E698" t="inlineStr">
+        <is>
+          <t>$152.3B</t>
+        </is>
+      </c>
+      <c r="F698" t="inlineStr"/>
+      <c r="G698" t="inlineStr"/>
+      <c r="H698" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>02:30 AM</t>
+        </is>
+      </c>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C699" t="inlineStr">
+        <is>
+          <t>Foreign Bond InvestmentNOV</t>
+        </is>
+      </c>
+      <c r="D699" t="inlineStr"/>
+      <c r="E699" t="inlineStr">
+        <is>
+          <t>$92.1B</t>
+        </is>
+      </c>
+      <c r="F699" t="inlineStr"/>
+      <c r="G699" t="inlineStr"/>
+      <c r="H699" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>02:30 AM</t>
+        </is>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C700" t="inlineStr">
+        <is>
+          <t>Overall Net Capital FlowsNOV</t>
+        </is>
+      </c>
+      <c r="D700" t="inlineStr"/>
+      <c r="E700" t="inlineStr">
+        <is>
+          <t>$203.6B</t>
+        </is>
+      </c>
+      <c r="F700" t="inlineStr"/>
+      <c r="G700" t="inlineStr"/>
+      <c r="H700" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-18.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H700"/>
+  <dimension ref="A1:H676"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16149,10 +16149,8 @@
           <t>6.4%</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H462" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="463">
@@ -16175,10 +16173,8 @@
       </c>
       <c r="F463" t="inlineStr"/>
       <c r="G463" t="inlineStr"/>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H463" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="464">
@@ -16197,10 +16193,8 @@
       <c r="E464" t="inlineStr"/>
       <c r="F464" t="inlineStr"/>
       <c r="G464" t="inlineStr"/>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H464" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="465">
@@ -16241,10 +16235,8 @@
       </c>
       <c r="F466" t="inlineStr"/>
       <c r="G466" t="inlineStr"/>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H466" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="467">
@@ -16271,10 +16263,8 @@
       </c>
       <c r="F467" t="inlineStr"/>
       <c r="G467" t="inlineStr"/>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H467" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="468">
@@ -16301,10 +16291,8 @@
       </c>
       <c r="F468" t="inlineStr"/>
       <c r="G468" t="inlineStr"/>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H468" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="469">
@@ -16335,10 +16323,8 @@
           <t>¥1990.0B</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H469" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="470">
@@ -16369,10 +16355,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H470" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="471">
@@ -16399,10 +16383,8 @@
       </c>
       <c r="F471" t="inlineStr"/>
       <c r="G471" t="inlineStr"/>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H471" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="472">
@@ -16429,10 +16411,8 @@
       </c>
       <c r="F472" t="inlineStr"/>
       <c r="G472" t="inlineStr"/>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H472" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="473">
@@ -16459,10 +16439,8 @@
       </c>
       <c r="F473" t="inlineStr"/>
       <c r="G473" t="inlineStr"/>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H473" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="474">
@@ -16493,10 +16471,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H474" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="475">
@@ -16527,10 +16503,8 @@
           <t>49.6</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H475" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="476">
@@ -16557,10 +16531,8 @@
       </c>
       <c r="F476" t="inlineStr"/>
       <c r="G476" t="inlineStr"/>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H476" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="477">
@@ -16587,10 +16559,8 @@
       </c>
       <c r="F477" t="inlineStr"/>
       <c r="G477" t="inlineStr"/>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H477" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="478">
@@ -16621,10 +16591,8 @@
           <t>10.2%</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H478" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="479">
@@ -16655,10 +16623,8 @@
           <t>-3.2%</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H479" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="480">
@@ -16689,10 +16655,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H480" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="481">
@@ -16719,10 +16683,8 @@
       </c>
       <c r="F481" t="inlineStr"/>
       <c r="G481" t="inlineStr"/>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H481" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="482">
@@ -16749,10 +16711,8 @@
       </c>
       <c r="F482" t="inlineStr"/>
       <c r="G482" t="inlineStr"/>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H482" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="483">
@@ -16779,10 +16739,8 @@
       </c>
       <c r="F483" t="inlineStr"/>
       <c r="G483" t="inlineStr"/>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H483" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="484">
@@ -16809,10 +16767,8 @@
       </c>
       <c r="F484" t="inlineStr"/>
       <c r="G484" t="inlineStr"/>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H484" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="485">
@@ -16839,10 +16795,8 @@
       </c>
       <c r="F485" t="inlineStr"/>
       <c r="G485" t="inlineStr"/>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H485" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="486">
@@ -16869,10 +16823,8 @@
       </c>
       <c r="F486" t="inlineStr"/>
       <c r="G486" t="inlineStr"/>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H486" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="487">
@@ -16899,10 +16851,8 @@
       </c>
       <c r="F487" t="inlineStr"/>
       <c r="G487" t="inlineStr"/>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H487" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="488">
@@ -16933,10 +16883,8 @@
           <t>102</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H488" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="489">
@@ -16967,10 +16915,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H489" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="490">
@@ -16997,10 +16943,8 @@
       </c>
       <c r="F490" t="inlineStr"/>
       <c r="G490" t="inlineStr"/>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H490" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="491">
@@ -17031,10 +16975,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H491" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="492">
@@ -17065,10 +17007,8 @@
           <t>146.4</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H492" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="493">
@@ -17095,10 +17035,8 @@
       </c>
       <c r="F493" t="inlineStr"/>
       <c r="G493" t="inlineStr"/>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H493" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="494">
@@ -17125,10 +17063,8 @@
       </c>
       <c r="F494" t="inlineStr"/>
       <c r="G494" t="inlineStr"/>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H494" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="495">
@@ -17159,10 +17095,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H495" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="496">
@@ -17189,10 +17123,8 @@
       </c>
       <c r="F496" t="inlineStr"/>
       <c r="G496" t="inlineStr"/>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H496" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="497">
@@ -17219,10 +17151,8 @@
       </c>
       <c r="F497" t="inlineStr"/>
       <c r="G497" t="inlineStr"/>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H497" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="498">
@@ -17245,10 +17175,8 @@
       </c>
       <c r="F498" t="inlineStr"/>
       <c r="G498" t="inlineStr"/>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H498" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="499">
@@ -17293,10 +17221,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H500" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="501">
@@ -17327,10 +17253,8 @@
           <t>116.0%</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H501" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="502">
@@ -17361,10 +17285,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H502" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="503">
@@ -17395,10 +17317,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H503" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="504">
@@ -17425,10 +17345,8 @@
       </c>
       <c r="F504" t="inlineStr"/>
       <c r="G504" t="inlineStr"/>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H504" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="505">
@@ -17459,10 +17377,8 @@
           <t>$ 2.8B</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H505" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="506">
@@ -17489,10 +17405,8 @@
       </c>
       <c r="F506" t="inlineStr"/>
       <c r="G506" t="inlineStr"/>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H506" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="507">
@@ -17519,10 +17433,8 @@
       </c>
       <c r="F507" t="inlineStr"/>
       <c r="G507" t="inlineStr"/>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H507" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="508">
@@ -17549,10 +17461,8 @@
       </c>
       <c r="F508" t="inlineStr"/>
       <c r="G508" t="inlineStr"/>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H508" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="509">
@@ -17583,10 +17493,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H509" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="510">
@@ -17617,10 +17525,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H510" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="511">
@@ -17651,10 +17557,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H511" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="512">
@@ -17685,10 +17589,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H512" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="513">
@@ -17719,10 +17621,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H513" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="514">
@@ -17753,10 +17653,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H514" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="515">
@@ -17787,10 +17685,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H515" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="516">
@@ -17821,10 +17717,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H516" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="517">
@@ -17855,10 +17749,8 @@
           <t>2.1%</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H517" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="518">
@@ -17889,10 +17781,8 @@
           <t>-1.3%</t>
         </is>
       </c>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H518" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="519">
@@ -17923,10 +17813,8 @@
           <t>-1%</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H519" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="520">
@@ -17957,10 +17845,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H520" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="521">
@@ -17991,10 +17877,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H521" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="522">
@@ -18021,10 +17905,8 @@
       </c>
       <c r="F522" t="inlineStr"/>
       <c r="G522" t="inlineStr"/>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H522" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="523">
@@ -18055,10 +17937,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H523" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="524">
@@ -18085,10 +17965,8 @@
       </c>
       <c r="F524" t="inlineStr"/>
       <c r="G524" t="inlineStr"/>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H524" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="525">
@@ -18115,10 +17993,8 @@
       </c>
       <c r="F525" t="inlineStr"/>
       <c r="G525" t="inlineStr"/>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H525" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="526">
@@ -18145,10 +18021,8 @@
       </c>
       <c r="F526" t="inlineStr"/>
       <c r="G526" t="inlineStr"/>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H526" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="527">
@@ -18179,10 +18053,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H527" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="528">
@@ -18213,10 +18085,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H528" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="529">
@@ -18247,10 +18117,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H529" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="530">
@@ -18281,10 +18149,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H530" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="531">
@@ -18311,10 +18177,8 @@
       </c>
       <c r="F531" t="inlineStr"/>
       <c r="G531" t="inlineStr"/>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H531" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="532">
@@ -18349,10 +18213,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H532" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="533">
@@ -18387,10 +18249,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H533" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="534">
@@ -18425,10 +18285,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H534" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="535">
@@ -18459,10 +18317,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H535" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="536">
@@ -18493,10 +18349,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H536" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="537">
@@ -18523,10 +18377,8 @@
       </c>
       <c r="F537" t="inlineStr"/>
       <c r="G537" t="inlineStr"/>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H537" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="538">
@@ -18553,10 +18405,8 @@
       </c>
       <c r="F538" t="inlineStr"/>
       <c r="G538" t="inlineStr"/>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H538" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="539">
@@ -18583,10 +18433,8 @@
       </c>
       <c r="F539" t="inlineStr"/>
       <c r="G539" t="inlineStr"/>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H539" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="540">
@@ -18613,10 +18461,8 @@
       </c>
       <c r="F540" t="inlineStr"/>
       <c r="G540" t="inlineStr"/>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H540" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="541">
@@ -18643,10 +18489,8 @@
       </c>
       <c r="F541" t="inlineStr"/>
       <c r="G541" t="inlineStr"/>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H541" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="542">
@@ -18673,10 +18517,8 @@
       </c>
       <c r="F542" t="inlineStr"/>
       <c r="G542" t="inlineStr"/>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H542" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="543">
@@ -18703,10 +18545,8 @@
       </c>
       <c r="F543" t="inlineStr"/>
       <c r="G543" t="inlineStr"/>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H543" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="544">
@@ -18733,10 +18573,8 @@
       </c>
       <c r="F544" t="inlineStr"/>
       <c r="G544" t="inlineStr"/>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H544" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="545">
@@ -18763,10 +18601,8 @@
       </c>
       <c r="F545" t="inlineStr"/>
       <c r="G545" t="inlineStr"/>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H545" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="546">
@@ -18793,10 +18629,8 @@
       </c>
       <c r="F546" t="inlineStr"/>
       <c r="G546" t="inlineStr"/>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H546" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="547">
@@ -18823,10 +18657,8 @@
       </c>
       <c r="F547" t="inlineStr"/>
       <c r="G547" t="inlineStr"/>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H547" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="548">
@@ -18857,10 +18689,8 @@
           <t>$628.0B</t>
         </is>
       </c>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H548" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="549">
@@ -18895,10 +18725,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H549" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="550">
@@ -18925,10 +18753,8 @@
       </c>
       <c r="F550" t="inlineStr"/>
       <c r="G550" t="inlineStr"/>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H550" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="551">
@@ -18963,10 +18789,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H551" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="552">
@@ -18997,10 +18821,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H552" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="553">
@@ -19031,10 +18853,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H553" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="554">
@@ -19065,10 +18885,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H554" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="555">
@@ -19099,10 +18917,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H555" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="556">
@@ -19133,10 +18949,8 @@
           <t>313.8</t>
         </is>
       </c>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H556" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="557">
@@ -19167,10 +18981,8 @@
           <t>317.4</t>
         </is>
       </c>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H557" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="558">
@@ -19197,10 +19009,8 @@
       </c>
       <c r="F558" t="inlineStr"/>
       <c r="G558" t="inlineStr"/>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H558" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="559">
@@ -19227,10 +19037,8 @@
       </c>
       <c r="F559" t="inlineStr"/>
       <c r="G559" t="inlineStr"/>
-      <c r="H559" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H559" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="560">
@@ -19253,10 +19061,8 @@
       <c r="E560" t="inlineStr"/>
       <c r="F560" t="inlineStr"/>
       <c r="G560" t="inlineStr"/>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H560" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="561">
@@ -19279,10 +19085,8 @@
       <c r="E561" t="inlineStr"/>
       <c r="F561" t="inlineStr"/>
       <c r="G561" t="inlineStr"/>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H561" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="562">
@@ -19305,10 +19109,8 @@
       <c r="E562" t="inlineStr"/>
       <c r="F562" t="inlineStr"/>
       <c r="G562" t="inlineStr"/>
-      <c r="H562" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H562" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="563">
@@ -19335,10 +19137,8 @@
       </c>
       <c r="F563" t="inlineStr"/>
       <c r="G563" t="inlineStr"/>
-      <c r="H563" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H563" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="564">
@@ -19365,10 +19165,8 @@
       </c>
       <c r="F564" t="inlineStr"/>
       <c r="G564" t="inlineStr"/>
-      <c r="H564" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H564" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="565">
@@ -19395,10 +19193,8 @@
       </c>
       <c r="F565" t="inlineStr"/>
       <c r="G565" t="inlineStr"/>
-      <c r="H565" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H565" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="566">
@@ -19425,10 +19221,8 @@
       </c>
       <c r="F566" t="inlineStr"/>
       <c r="G566" t="inlineStr"/>
-      <c r="H566" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H566" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="567">
@@ -19455,10 +19249,8 @@
       </c>
       <c r="F567" t="inlineStr"/>
       <c r="G567" t="inlineStr"/>
-      <c r="H567" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H567" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="568">
@@ -19489,10 +19281,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H568" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="569">
@@ -19523,10 +19313,8 @@
           <t>9.5%</t>
         </is>
       </c>
-      <c r="H569" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H569" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="570">
@@ -19553,10 +19341,8 @@
       </c>
       <c r="F570" t="inlineStr"/>
       <c r="G570" t="inlineStr"/>
-      <c r="H570" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H570" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="571">
@@ -19587,10 +19373,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H571" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H571" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="572">
@@ -19617,10 +19401,8 @@
       </c>
       <c r="F572" t="inlineStr"/>
       <c r="G572" t="inlineStr"/>
-      <c r="H572" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H572" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="573">
@@ -19643,10 +19425,8 @@
       </c>
       <c r="F573" t="inlineStr"/>
       <c r="G573" t="inlineStr"/>
-      <c r="H573" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H573" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="574">
@@ -19673,10 +19453,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H574" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H574" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="575">
@@ -19703,10 +19481,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H575" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H575" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="576">
@@ -19733,10 +19509,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H576" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H576" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="577">
@@ -19759,10 +19533,8 @@
       </c>
       <c r="F577" t="inlineStr"/>
       <c r="G577" t="inlineStr"/>
-      <c r="H577" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H577" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="578">
@@ -19781,10 +19553,8 @@
       <c r="E578" t="inlineStr"/>
       <c r="F578" t="inlineStr"/>
       <c r="G578" t="inlineStr"/>
-      <c r="H578" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H578" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="579">
@@ -19811,10 +19581,8 @@
           <t>$ -23B</t>
         </is>
       </c>
-      <c r="H579" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H579" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="580">
@@ -19841,10 +19609,8 @@
           <t>$ 36B</t>
         </is>
       </c>
-      <c r="H580" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H580" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="581">
@@ -19871,10 +19637,8 @@
           <t>$ 59B</t>
         </is>
       </c>
-      <c r="H581" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H581" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="582">
@@ -19919,10 +19683,8 @@
           <t>3.30%</t>
         </is>
       </c>
-      <c r="H583" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H583" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="584">
@@ -19949,10 +19711,8 @@
       </c>
       <c r="F584" t="inlineStr"/>
       <c r="G584" t="inlineStr"/>
-      <c r="H584" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H584" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="585">
@@ -19983,10 +19743,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H585" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H585" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="586">
@@ -20017,10 +19775,8 @@
           <t>17.0%</t>
         </is>
       </c>
-      <c r="H586" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H586" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="587">
@@ -20051,10 +19807,8 @@
           <t>4.30%</t>
         </is>
       </c>
-      <c r="H587" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H587" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="588">
@@ -20085,10 +19839,8 @@
           <t>25.1K</t>
         </is>
       </c>
-      <c r="H588" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H588" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="589">
@@ -20115,10 +19867,8 @@
       </c>
       <c r="F589" t="inlineStr"/>
       <c r="G589" t="inlineStr"/>
-      <c r="H589" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H589" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="590">
@@ -20145,10 +19895,8 @@
       </c>
       <c r="F590" t="inlineStr"/>
       <c r="G590" t="inlineStr"/>
-      <c r="H590" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H590" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="591">
@@ -20179,10 +19927,8 @@
           <t>66.8%</t>
         </is>
       </c>
-      <c r="H591" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H591" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="592">
@@ -20209,10 +19955,8 @@
       </c>
       <c r="F592" t="inlineStr"/>
       <c r="G592" t="inlineStr"/>
-      <c r="H592" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H592" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="593">
@@ -20239,10 +19983,8 @@
       </c>
       <c r="F593" t="inlineStr"/>
       <c r="G593" t="inlineStr"/>
-      <c r="H593" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H593" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="594">
@@ -20269,10 +20011,8 @@
       </c>
       <c r="F594" t="inlineStr"/>
       <c r="G594" t="inlineStr"/>
-      <c r="H594" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H594" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="595">
@@ -20299,10 +20039,8 @@
       </c>
       <c r="F595" t="inlineStr"/>
       <c r="G595" t="inlineStr"/>
-      <c r="H595" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H595" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="596">
@@ -20337,10 +20075,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H596" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H596" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="597">
@@ -20371,10 +20107,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H597" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H597" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="598">
@@ -20409,10 +20143,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H598" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H598" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="599">
@@ -20447,10 +20179,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H599" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H599" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="600">
@@ -20481,10 +20211,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H600" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H600" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="601">
@@ -20515,10 +20243,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H601" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H601" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="602">
@@ -20549,10 +20275,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H602" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H602" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="603">
@@ -20579,10 +20303,8 @@
       </c>
       <c r="F603" t="inlineStr"/>
       <c r="G603" t="inlineStr"/>
-      <c r="H603" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H603" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="604">
@@ -20609,10 +20331,8 @@
       </c>
       <c r="F604" t="inlineStr"/>
       <c r="G604" t="inlineStr"/>
-      <c r="H604" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H604" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="605">
@@ -20639,10 +20359,8 @@
       </c>
       <c r="F605" t="inlineStr"/>
       <c r="G605" t="inlineStr"/>
-      <c r="H605" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H605" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="606">
@@ -20669,10 +20387,8 @@
       </c>
       <c r="F606" t="inlineStr"/>
       <c r="G606" t="inlineStr"/>
-      <c r="H606" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H606" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="607">
@@ -20699,10 +20415,8 @@
       </c>
       <c r="F607" t="inlineStr"/>
       <c r="G607" t="inlineStr"/>
-      <c r="H607" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H607" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="608">
@@ -20733,10 +20447,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H608" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H608" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="609">
@@ -20763,10 +20475,8 @@
       </c>
       <c r="F609" t="inlineStr"/>
       <c r="G609" t="inlineStr"/>
-      <c r="H609" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H609" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="610">
@@ -20793,10 +20503,8 @@
       </c>
       <c r="F610" t="inlineStr"/>
       <c r="G610" t="inlineStr"/>
-      <c r="H610" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H610" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="611">
@@ -20823,10 +20531,8 @@
       </c>
       <c r="F611" t="inlineStr"/>
       <c r="G611" t="inlineStr"/>
-      <c r="H611" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H611" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="612">
@@ -20861,10 +20567,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H612" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H612" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="613">
@@ -20899,10 +20603,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H613" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H613" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="614">
@@ -20937,10 +20639,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H614" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H614" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="615">
@@ -20975,10 +20675,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H615" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H615" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="616">
@@ -21001,10 +20699,8 @@
       <c r="E616" t="inlineStr"/>
       <c r="F616" t="inlineStr"/>
       <c r="G616" t="inlineStr"/>
-      <c r="H616" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H616" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="617">
@@ -21027,10 +20723,8 @@
       <c r="E617" t="inlineStr"/>
       <c r="F617" t="inlineStr"/>
       <c r="G617" t="inlineStr"/>
-      <c r="H617" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H617" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="618">
@@ -21053,10 +20747,8 @@
       <c r="E618" t="inlineStr"/>
       <c r="F618" t="inlineStr"/>
       <c r="G618" t="inlineStr"/>
-      <c r="H618" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H618" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="619">
@@ -21083,10 +20775,8 @@
       </c>
       <c r="F619" t="inlineStr"/>
       <c r="G619" t="inlineStr"/>
-      <c r="H619" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H619" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="620">
@@ -21109,10 +20799,8 @@
       <c r="E620" t="inlineStr"/>
       <c r="F620" t="inlineStr"/>
       <c r="G620" t="inlineStr"/>
-      <c r="H620" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H620" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="621">
@@ -21139,10 +20827,8 @@
       </c>
       <c r="F621" t="inlineStr"/>
       <c r="G621" t="inlineStr"/>
-      <c r="H621" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H621" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="622">
@@ -21173,10 +20859,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H622" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H622" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="623">
@@ -21207,10 +20891,8 @@
           <t>220K</t>
         </is>
       </c>
-      <c r="H623" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H623" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="624">
@@ -21241,10 +20923,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H624" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H624" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="625">
@@ -21275,10 +20955,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H625" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H625" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="626">
@@ -21305,10 +20983,8 @@
       </c>
       <c r="F626" t="inlineStr"/>
       <c r="G626" t="inlineStr"/>
-      <c r="H626" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H626" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="627">
@@ -21339,10 +21015,8 @@
           <t>209.0K</t>
         </is>
       </c>
-      <c r="H627" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H627" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="628">
@@ -21369,10 +21043,8 @@
       </c>
       <c r="F628" t="inlineStr"/>
       <c r="G628" t="inlineStr"/>
-      <c r="H628" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H628" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="629">
@@ -21403,10 +21075,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H629" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H629" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="630">
@@ -21437,10 +21107,8 @@
           <t>1870.0K</t>
         </is>
       </c>
-      <c r="H630" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H630" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="631">
@@ -21467,10 +21135,8 @@
       </c>
       <c r="F631" t="inlineStr"/>
       <c r="G631" t="inlineStr"/>
-      <c r="H631" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H631" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="632">
@@ -21501,10 +21167,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H632" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H632" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="633">
@@ -21535,10 +21199,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="H633" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H633" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="634">
@@ -21565,10 +21227,8 @@
       </c>
       <c r="F634" t="inlineStr"/>
       <c r="G634" t="inlineStr"/>
-      <c r="H634" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H634" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="635">
@@ -21595,10 +21255,8 @@
       </c>
       <c r="F635" t="inlineStr"/>
       <c r="G635" t="inlineStr"/>
-      <c r="H635" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H635" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="636">
@@ -21625,10 +21283,8 @@
       </c>
       <c r="F636" t="inlineStr"/>
       <c r="G636" t="inlineStr"/>
-      <c r="H636" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H636" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="637">
@@ -21655,10 +21311,8 @@
       </c>
       <c r="F637" t="inlineStr"/>
       <c r="G637" t="inlineStr"/>
-      <c r="H637" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H637" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="638">
@@ -21685,10 +21339,8 @@
       </c>
       <c r="F638" t="inlineStr"/>
       <c r="G638" t="inlineStr"/>
-      <c r="H638" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H638" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="639">
@@ -21719,10 +21371,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H639" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H639" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="640">
@@ -21753,10 +21403,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H640" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H640" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="641">
@@ -21783,10 +21431,8 @@
       </c>
       <c r="F641" t="inlineStr"/>
       <c r="G641" t="inlineStr"/>
-      <c r="H641" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H641" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="642">
@@ -21813,10 +21459,8 @@
       </c>
       <c r="F642" t="inlineStr"/>
       <c r="G642" t="inlineStr"/>
-      <c r="H642" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H642" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="643">
@@ -21843,10 +21487,8 @@
       </c>
       <c r="F643" t="inlineStr"/>
       <c r="G643" t="inlineStr"/>
-      <c r="H643" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H643" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="644">
@@ -21873,10 +21515,8 @@
       </c>
       <c r="F644" t="inlineStr"/>
       <c r="G644" t="inlineStr"/>
-      <c r="H644" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H644" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="645">
@@ -21899,10 +21539,8 @@
       <c r="E645" t="inlineStr"/>
       <c r="F645" t="inlineStr"/>
       <c r="G645" t="inlineStr"/>
-      <c r="H645" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H645" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="646">
@@ -21925,10 +21563,8 @@
       <c r="E646" t="inlineStr"/>
       <c r="F646" t="inlineStr"/>
       <c r="G646" t="inlineStr"/>
-      <c r="H646" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H646" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="647">
@@ -21951,10 +21587,8 @@
       <c r="E647" t="inlineStr"/>
       <c r="F647" t="inlineStr"/>
       <c r="G647" t="inlineStr"/>
-      <c r="H647" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H647" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="648">
@@ -21977,106 +21611,140 @@
       <c r="E648" t="inlineStr"/>
       <c r="F648" t="inlineStr"/>
       <c r="G648" t="inlineStr"/>
-      <c r="H648" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H648" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>Friday January 17 2025</t>
-        </is>
-      </c>
-      <c r="B649" t="inlineStr"/>
-      <c r="C649" t="inlineStr"/>
+          <t>02:30 PM</t>
+        </is>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C649" t="inlineStr">
+        <is>
+          <t>Current Account s.aNOV</t>
+        </is>
+      </c>
       <c r="D649" t="inlineStr"/>
-      <c r="E649" t="inlineStr"/>
+      <c r="E649" t="inlineStr">
+        <is>
+          <t>€33.5B</t>
+        </is>
+      </c>
       <c r="F649" t="inlineStr"/>
       <c r="G649" t="inlineStr"/>
-      <c r="H649" t="inlineStr"/>
+      <c r="H649" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C650" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/15</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D650" t="inlineStr"/>
-      <c r="E650" t="inlineStr"/>
+      <c r="E650" t="inlineStr">
+        <is>
+          <t>€-3.93B</t>
+        </is>
+      </c>
       <c r="F650" t="inlineStr"/>
       <c r="G650" t="inlineStr"/>
       <c r="H650" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C651" t="inlineStr">
         <is>
-          <t>Reuters Tankan IndexJAN</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D651" t="inlineStr"/>
       <c r="E651" t="inlineStr">
         <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="F651" t="inlineStr"/>
+          <t>2.2%</t>
+        </is>
+      </c>
+      <c r="F651" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
       <c r="G651" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="H651" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C652" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/11</t>
+          <t>Core Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D652" t="inlineStr"/>
-      <c r="E652" t="inlineStr"/>
-      <c r="F652" t="inlineStr"/>
-      <c r="G652" t="inlineStr"/>
+      <c r="E652" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="F652" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="G652" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="H652" t="inlineStr">
         <is>
           <t>3</t>
@@ -22086,23 +21754,35 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C653" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersJAN/11</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D653" t="inlineStr"/>
-      <c r="E653" t="inlineStr"/>
-      <c r="F653" t="inlineStr"/>
-      <c r="G653" t="inlineStr"/>
+      <c r="E653" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="F653" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G653" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H653" t="inlineStr">
         <is>
           <t>3</t>
@@ -22112,29 +21792,33 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C654" t="inlineStr">
         <is>
-          <t>Non-Oil Exports MoMDEC</t>
+          <t>CPI FinalDEC</t>
         </is>
       </c>
       <c r="D654" t="inlineStr"/>
       <c r="E654" t="inlineStr">
         <is>
-          <t>14.7%</t>
-        </is>
-      </c>
-      <c r="F654" t="inlineStr"/>
+          <t>126.62</t>
+        </is>
+      </c>
+      <c r="F654" t="inlineStr">
+        <is>
+          <t>127.08</t>
+        </is>
+      </c>
       <c r="G654" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>127</t>
         </is>
       </c>
       <c r="H654" t="inlineStr">
@@ -22146,31 +21830,27 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C655" t="inlineStr">
         <is>
-          <t>Non-Oil Exports YoYDEC</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D655" t="inlineStr"/>
       <c r="E655" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>€5628M</t>
         </is>
       </c>
       <c r="F655" t="inlineStr"/>
-      <c r="G655" t="inlineStr">
-        <is>
-          <t>7.5%</t>
-        </is>
-      </c>
+      <c r="G655" t="inlineStr"/>
       <c r="H655" t="inlineStr">
         <is>
           <t>3</t>
@@ -22180,23 +21860,23 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C656" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsJAN</t>
+          <t>Bank Loan Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D656" t="inlineStr"/>
       <c r="E656" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>11.5%</t>
         </is>
       </c>
       <c r="F656" t="inlineStr"/>
@@ -22210,65 +21890,53 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C657" t="inlineStr">
         <is>
-          <t>House Price Index YoYDEC</t>
+          <t>Deposit Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D657" t="inlineStr"/>
       <c r="E657" t="inlineStr">
         <is>
-          <t>-5.7%</t>
+          <t>11.5%</t>
         </is>
       </c>
       <c r="F657" t="inlineStr"/>
-      <c r="G657" t="inlineStr">
-        <is>
-          <t>-5.8%</t>
-        </is>
-      </c>
+      <c r="G657" t="inlineStr"/>
       <c r="H657" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C658" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Foreign Exchange ReservesJAN/10</t>
         </is>
       </c>
       <c r="D658" t="inlineStr"/>
-      <c r="E658" t="inlineStr">
-        <is>
-          <t>$6.52B</t>
-        </is>
-      </c>
+      <c r="E658" t="inlineStr"/>
       <c r="F658" t="inlineStr"/>
-      <c r="G658" t="inlineStr">
-        <is>
-          <t>$ 3.6B</t>
-        </is>
-      </c>
+      <c r="G658" t="inlineStr"/>
       <c r="H658" t="inlineStr">
         <is>
           <t>3</t>
@@ -22278,97 +21946,89 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C659" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoYQ4</t>
+          <t>Foreign Securities PurchasesNOV</t>
         </is>
       </c>
       <c r="D659" t="inlineStr"/>
       <c r="E659" t="inlineStr">
         <is>
-          <t>4.6%</t>
+          <t>C$21.55B</t>
         </is>
       </c>
       <c r="F659" t="inlineStr"/>
-      <c r="G659" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
+      <c r="G659" t="inlineStr"/>
       <c r="H659" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C660" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Foreign Securities Purchases by CanadiansNOV</t>
         </is>
       </c>
       <c r="D660" t="inlineStr"/>
       <c r="E660" t="inlineStr">
         <is>
-          <t>5.4%</t>
+          <t>C$-2.65B</t>
         </is>
       </c>
       <c r="F660" t="inlineStr"/>
-      <c r="G660" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="G660" t="inlineStr"/>
       <c r="H660" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C661" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Building Permits PrelDEC</t>
         </is>
       </c>
       <c r="D661" t="inlineStr"/>
       <c r="E661" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>1.493M</t>
         </is>
       </c>
       <c r="F661" t="inlineStr"/>
       <c r="G661" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>1.6M</t>
         </is>
       </c>
       <c r="H661" t="inlineStr">
@@ -22380,65 +22040,61 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C662" t="inlineStr">
         <is>
-          <t>Fixed Asset Investment (YTD) YoYDEC</t>
+          <t>Housing StartsDEC</t>
         </is>
       </c>
       <c r="D662" t="inlineStr"/>
       <c r="E662" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>1.289M</t>
         </is>
       </c>
       <c r="F662" t="inlineStr"/>
       <c r="G662" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>1.5M</t>
         </is>
       </c>
       <c r="H662" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C663" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQQ4</t>
+          <t>Building Permits MoM PrelDEC</t>
         </is>
       </c>
       <c r="D663" t="inlineStr"/>
       <c r="E663" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F663" t="inlineStr"/>
-      <c r="G663" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="G663" t="inlineStr"/>
       <c r="H663" t="inlineStr">
         <is>
           <t>2</t>
@@ -22448,91 +22104,95 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C664" t="inlineStr">
         <is>
-          <t>Industrial Capacity UtilizationQ4</t>
+          <t>Housing Starts MoMDEC</t>
         </is>
       </c>
       <c r="D664" t="inlineStr"/>
       <c r="E664" t="inlineStr">
         <is>
-          <t>75.1%</t>
+          <t>-1.8%</t>
         </is>
       </c>
       <c r="F664" t="inlineStr"/>
       <c r="G664" t="inlineStr">
         <is>
-          <t>74.9%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="H664" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C665" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D665" t="inlineStr"/>
       <c r="E665" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F665" t="inlineStr"/>
-      <c r="G665" t="inlineStr">
-        <is>
-          <t>5.00%</t>
-        </is>
-      </c>
+      <c r="G665" t="inlineStr"/>
       <c r="H665" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C666" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Capacity UtilizationDEC</t>
         </is>
       </c>
       <c r="D666" t="inlineStr"/>
-      <c r="E666" t="inlineStr"/>
+      <c r="E666" t="inlineStr">
+        <is>
+          <t>76.8%</t>
+        </is>
+      </c>
       <c r="F666" t="inlineStr"/>
-      <c r="G666" t="inlineStr"/>
+      <c r="G666" t="inlineStr">
+        <is>
+          <t>77.8%</t>
+        </is>
+      </c>
       <c r="H666" t="inlineStr">
         <is>
           <t>3</t>
@@ -22542,95 +22202,99 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C667" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D667" t="inlineStr"/>
       <c r="E667" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="F667" t="inlineStr"/>
       <c r="G667" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H667" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C668" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Manufacturing Production MoMDEC</t>
         </is>
       </c>
       <c r="D668" t="inlineStr"/>
       <c r="E668" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F668" t="inlineStr"/>
       <c r="G668" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H668" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C669" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel MoMDEC</t>
+          <t>Manufacturing Production YoYDEC</t>
         </is>
       </c>
       <c r="D669" t="inlineStr"/>
       <c r="E669" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>-1%</t>
         </is>
       </c>
       <c r="F669" t="inlineStr"/>
-      <c r="G669" t="inlineStr"/>
+      <c r="G669" t="inlineStr">
+        <is>
+          <t>-0.9%</t>
+        </is>
+      </c>
       <c r="H669" t="inlineStr">
         <is>
           <t>3</t>
@@ -22640,25 +22304,21 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C670" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel YoYDEC</t>
+          <t>Baker Hughes Oil Rig CountJAN/17</t>
         </is>
       </c>
       <c r="D670" t="inlineStr"/>
-      <c r="E670" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E670" t="inlineStr"/>
       <c r="F670" t="inlineStr"/>
       <c r="G670" t="inlineStr"/>
       <c r="H670" t="inlineStr">
@@ -22670,31 +22330,23 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>12:50 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C671" t="inlineStr">
         <is>
-          <t>Loan Growth YoYDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/17</t>
         </is>
       </c>
       <c r="D671" t="inlineStr"/>
-      <c r="E671" t="inlineStr">
-        <is>
-          <t>10.79%</t>
-        </is>
-      </c>
+      <c r="E671" t="inlineStr"/>
       <c r="F671" t="inlineStr"/>
-      <c r="G671" t="inlineStr">
-        <is>
-          <t>10%</t>
-        </is>
-      </c>
+      <c r="G671" t="inlineStr"/>
       <c r="H671" t="inlineStr">
         <is>
           <t>3</t>
@@ -22702,25 +22354,21 @@
       </c>
     </row>
     <row r="672">
-      <c r="A672" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
+      <c r="A672" t="inlineStr"/>
       <c r="B672" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C672" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>50-Year KTB Auction</t>
         </is>
       </c>
       <c r="D672" t="inlineStr"/>
       <c r="E672" t="inlineStr">
         <is>
-          <t>€32B</t>
+          <t>2.40%</t>
         </is>
       </c>
       <c r="F672" t="inlineStr"/>
@@ -22734,53 +22382,37 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
-      <c r="B673" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C673" t="inlineStr">
-        <is>
-          <t>Current Account s.aNOV</t>
-        </is>
-      </c>
+          <t>Saturday January 18 2025</t>
+        </is>
+      </c>
+      <c r="B673" t="inlineStr"/>
+      <c r="C673" t="inlineStr"/>
       <c r="D673" t="inlineStr"/>
-      <c r="E673" t="inlineStr">
-        <is>
-          <t>€33.5B</t>
-        </is>
-      </c>
+      <c r="E673" t="inlineStr"/>
       <c r="F673" t="inlineStr"/>
       <c r="G673" t="inlineStr"/>
-      <c r="H673" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H673" t="inlineStr"/>
     </row>
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C674" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Net Long-term TIC FlowsNOV</t>
         </is>
       </c>
       <c r="D674" t="inlineStr"/>
       <c r="E674" t="inlineStr">
         <is>
-          <t>€-3.93B</t>
+          <t>$152.3B</t>
         </is>
       </c>
       <c r="F674" t="inlineStr"/>
@@ -22794,806 +22426,58 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C675" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Foreign Bond InvestmentNOV</t>
         </is>
       </c>
       <c r="D675" t="inlineStr"/>
       <c r="E675" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F675" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="G675" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+          <t>$92.1B</t>
+        </is>
+      </c>
+      <c r="F675" t="inlineStr"/>
+      <c r="G675" t="inlineStr"/>
       <c r="H675" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C676" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FinalDEC</t>
+          <t>Overall Net Capital FlowsNOV</t>
         </is>
       </c>
       <c r="D676" t="inlineStr"/>
       <c r="E676" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F676" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="G676" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+          <t>$203.6B</t>
+        </is>
+      </c>
+      <c r="F676" t="inlineStr"/>
+      <c r="G676" t="inlineStr"/>
       <c r="H676" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="677">
-      <c r="A677" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B677" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C677" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoM FinalDEC</t>
-        </is>
-      </c>
-      <c r="D677" t="inlineStr"/>
-      <c r="E677" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F677" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G677" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H677" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="678">
-      <c r="A678" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B678" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C678" t="inlineStr">
-        <is>
-          <t>CPI FinalDEC</t>
-        </is>
-      </c>
-      <c r="D678" t="inlineStr"/>
-      <c r="E678" t="inlineStr">
-        <is>
-          <t>126.62</t>
-        </is>
-      </c>
-      <c r="F678" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
-      <c r="G678" t="inlineStr">
-        <is>
-          <t>127</t>
-        </is>
-      </c>
-      <c r="H678" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="679">
-      <c r="A679" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B679" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C679" t="inlineStr">
-        <is>
-          <t>Current AccountNOV</t>
-        </is>
-      </c>
-      <c r="D679" t="inlineStr"/>
-      <c r="E679" t="inlineStr">
-        <is>
-          <t>€5628M</t>
-        </is>
-      </c>
-      <c r="F679" t="inlineStr"/>
-      <c r="G679" t="inlineStr"/>
-      <c r="H679" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="680">
-      <c r="A680" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
-      <c r="B680" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C680" t="inlineStr">
-        <is>
-          <t>Bank Loan Growth YoYJAN/03</t>
-        </is>
-      </c>
-      <c r="D680" t="inlineStr"/>
-      <c r="E680" t="inlineStr">
-        <is>
-          <t>11.5%</t>
-        </is>
-      </c>
-      <c r="F680" t="inlineStr"/>
-      <c r="G680" t="inlineStr"/>
-      <c r="H680" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="681">
-      <c r="A681" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
-      <c r="B681" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C681" t="inlineStr">
-        <is>
-          <t>Deposit Growth YoYJAN/03</t>
-        </is>
-      </c>
-      <c r="D681" t="inlineStr"/>
-      <c r="E681" t="inlineStr">
-        <is>
-          <t>11.5%</t>
-        </is>
-      </c>
-      <c r="F681" t="inlineStr"/>
-      <c r="G681" t="inlineStr"/>
-      <c r="H681" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="682">
-      <c r="A682" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
-      <c r="B682" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C682" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN/10</t>
-        </is>
-      </c>
-      <c r="D682" t="inlineStr"/>
-      <c r="E682" t="inlineStr"/>
-      <c r="F682" t="inlineStr"/>
-      <c r="G682" t="inlineStr"/>
-      <c r="H682" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="683">
-      <c r="A683" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B683" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C683" t="inlineStr">
-        <is>
-          <t>Foreign Securities PurchasesNOV</t>
-        </is>
-      </c>
-      <c r="D683" t="inlineStr"/>
-      <c r="E683" t="inlineStr">
-        <is>
-          <t>C$21.55B</t>
-        </is>
-      </c>
-      <c r="F683" t="inlineStr"/>
-      <c r="G683" t="inlineStr"/>
-      <c r="H683" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="684">
-      <c r="A684" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B684" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C684" t="inlineStr">
-        <is>
-          <t>Foreign Securities Purchases by CanadiansNOV</t>
-        </is>
-      </c>
-      <c r="D684" t="inlineStr"/>
-      <c r="E684" t="inlineStr">
-        <is>
-          <t>C$-2.65B</t>
-        </is>
-      </c>
-      <c r="F684" t="inlineStr"/>
-      <c r="G684" t="inlineStr"/>
-      <c r="H684" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="685">
-      <c r="A685" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B685" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C685" t="inlineStr">
-        <is>
-          <t>Building Permits PrelDEC</t>
-        </is>
-      </c>
-      <c r="D685" t="inlineStr"/>
-      <c r="E685" t="inlineStr">
-        <is>
-          <t>1.493M</t>
-        </is>
-      </c>
-      <c r="F685" t="inlineStr"/>
-      <c r="G685" t="inlineStr">
-        <is>
-          <t>1.6M</t>
-        </is>
-      </c>
-      <c r="H685" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="686">
-      <c r="A686" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B686" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C686" t="inlineStr">
-        <is>
-          <t>Housing StartsDEC</t>
-        </is>
-      </c>
-      <c r="D686" t="inlineStr"/>
-      <c r="E686" t="inlineStr">
-        <is>
-          <t>1.289M</t>
-        </is>
-      </c>
-      <c r="F686" t="inlineStr"/>
-      <c r="G686" t="inlineStr">
-        <is>
-          <t>1.5M</t>
-        </is>
-      </c>
-      <c r="H686" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="687">
-      <c r="A687" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B687" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C687" t="inlineStr">
-        <is>
-          <t>Building Permits MoM PrelDEC</t>
-        </is>
-      </c>
-      <c r="D687" t="inlineStr"/>
-      <c r="E687" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F687" t="inlineStr"/>
-      <c r="G687" t="inlineStr"/>
-      <c r="H687" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="688">
-      <c r="A688" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B688" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C688" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMDEC</t>
-        </is>
-      </c>
-      <c r="D688" t="inlineStr"/>
-      <c r="E688" t="inlineStr">
-        <is>
-          <t>-1.8%</t>
-        </is>
-      </c>
-      <c r="F688" t="inlineStr"/>
-      <c r="G688" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="H688" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="689">
-      <c r="A689" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B689" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C689" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMDEC</t>
-        </is>
-      </c>
-      <c r="D689" t="inlineStr"/>
-      <c r="E689" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F689" t="inlineStr"/>
-      <c r="G689" t="inlineStr"/>
-      <c r="H689" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="690">
-      <c r="A690" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B690" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C690" t="inlineStr">
-        <is>
-          <t>Capacity UtilizationDEC</t>
-        </is>
-      </c>
-      <c r="D690" t="inlineStr"/>
-      <c r="E690" t="inlineStr">
-        <is>
-          <t>76.8%</t>
-        </is>
-      </c>
-      <c r="F690" t="inlineStr"/>
-      <c r="G690" t="inlineStr">
-        <is>
-          <t>77.8%</t>
-        </is>
-      </c>
-      <c r="H690" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="691">
-      <c r="A691" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B691" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C691" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D691" t="inlineStr"/>
-      <c r="E691" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="F691" t="inlineStr"/>
-      <c r="G691" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="H691" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="692">
-      <c r="A692" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B692" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C692" t="inlineStr">
-        <is>
-          <t>Manufacturing Production MoMDEC</t>
-        </is>
-      </c>
-      <c r="D692" t="inlineStr"/>
-      <c r="E692" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F692" t="inlineStr"/>
-      <c r="G692" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H692" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="693">
-      <c r="A693" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B693" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C693" t="inlineStr">
-        <is>
-          <t>Manufacturing Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D693" t="inlineStr"/>
-      <c r="E693" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
-      <c r="F693" t="inlineStr"/>
-      <c r="G693" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="H693" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="694">
-      <c r="A694" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B694" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C694" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJAN/17</t>
-        </is>
-      </c>
-      <c r="D694" t="inlineStr"/>
-      <c r="E694" t="inlineStr"/>
-      <c r="F694" t="inlineStr"/>
-      <c r="G694" t="inlineStr"/>
-      <c r="H694" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="695">
-      <c r="A695" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B695" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C695" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJAN/17</t>
-        </is>
-      </c>
-      <c r="D695" t="inlineStr"/>
-      <c r="E695" t="inlineStr"/>
-      <c r="F695" t="inlineStr"/>
-      <c r="G695" t="inlineStr"/>
-      <c r="H695" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="696">
-      <c r="A696" t="inlineStr"/>
-      <c r="B696" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C696" t="inlineStr">
-        <is>
-          <t>50-Year KTB Auction</t>
-        </is>
-      </c>
-      <c r="D696" t="inlineStr"/>
-      <c r="E696" t="inlineStr">
-        <is>
-          <t>2.40%</t>
-        </is>
-      </c>
-      <c r="F696" t="inlineStr"/>
-      <c r="G696" t="inlineStr"/>
-      <c r="H696" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="697">
-      <c r="A697" t="inlineStr">
-        <is>
-          <t>Saturday January 18 2025</t>
-        </is>
-      </c>
-      <c r="B697" t="inlineStr"/>
-      <c r="C697" t="inlineStr"/>
-      <c r="D697" t="inlineStr"/>
-      <c r="E697" t="inlineStr"/>
-      <c r="F697" t="inlineStr"/>
-      <c r="G697" t="inlineStr"/>
-      <c r="H697" t="inlineStr"/>
-    </row>
-    <row r="698">
-      <c r="A698" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B698" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C698" t="inlineStr">
-        <is>
-          <t>Net Long-term TIC FlowsNOV</t>
-        </is>
-      </c>
-      <c r="D698" t="inlineStr"/>
-      <c r="E698" t="inlineStr">
-        <is>
-          <t>$152.3B</t>
-        </is>
-      </c>
-      <c r="F698" t="inlineStr"/>
-      <c r="G698" t="inlineStr"/>
-      <c r="H698" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="699">
-      <c r="A699" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B699" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C699" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentNOV</t>
-        </is>
-      </c>
-      <c r="D699" t="inlineStr"/>
-      <c r="E699" t="inlineStr">
-        <is>
-          <t>$92.1B</t>
-        </is>
-      </c>
-      <c r="F699" t="inlineStr"/>
-      <c r="G699" t="inlineStr"/>
-      <c r="H699" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="700">
-      <c r="A700" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B700" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C700" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsNOV</t>
-        </is>
-      </c>
-      <c r="D700" t="inlineStr"/>
-      <c r="E700" t="inlineStr">
-        <is>
-          <t>$203.6B</t>
-        </is>
-      </c>
-      <c r="F700" t="inlineStr"/>
-      <c r="G700" t="inlineStr"/>
-      <c r="H700" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-18.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H676"/>
+  <dimension ref="A1:H700"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15984,21 +15984,37 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>Saturday January 11 2025</t>
-        </is>
-      </c>
-      <c r="B456" t="inlineStr"/>
-      <c r="C456" t="inlineStr"/>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>Quarterly Grain Stocks - CornDEC</t>
+        </is>
+      </c>
       <c r="D456" t="inlineStr"/>
-      <c r="E456" t="inlineStr"/>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>1.760B</t>
+        </is>
+      </c>
       <c r="F456" t="inlineStr"/>
       <c r="G456" t="inlineStr"/>
-      <c r="H456" t="inlineStr"/>
+      <c r="H456" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
@@ -16008,121 +16024,129 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/08</t>
+          <t>Quarterly Grain Stocks - SoyDEC</t>
         </is>
       </c>
       <c r="D457" t="inlineStr"/>
       <c r="E457" t="inlineStr">
         <is>
-          <t>$6.85T</t>
+          <t>0.342B</t>
         </is>
       </c>
       <c r="F457" t="inlineStr"/>
       <c r="G457" t="inlineStr"/>
-      <c r="H457" t="n">
-        <v>3</v>
+      <c r="H457" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>Sunday January 12 2025</t>
-        </is>
-      </c>
-      <c r="B458" t="inlineStr"/>
-      <c r="C458" t="inlineStr"/>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>Quarterly Grain Stocks - WheatDEC</t>
+        </is>
+      </c>
       <c r="D458" t="inlineStr"/>
-      <c r="E458" t="inlineStr"/>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>1.98B</t>
+        </is>
+      </c>
       <c r="F458" t="inlineStr"/>
       <c r="G458" t="inlineStr"/>
-      <c r="H458" t="inlineStr"/>
+      <c r="H458" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="459">
-      <c r="A459" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A459" t="inlineStr"/>
       <c r="B459" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>3-Year KTB Auction</t>
         </is>
       </c>
       <c r="D459" t="inlineStr"/>
       <c r="E459" t="inlineStr">
         <is>
-          <t>$97.44B</t>
+          <t>2.53%</t>
         </is>
       </c>
       <c r="F459" t="inlineStr"/>
-      <c r="G459" t="inlineStr">
-        <is>
-          <t>$ 85B</t>
-        </is>
-      </c>
-      <c r="H459" t="n">
-        <v>1</v>
+      <c r="G459" t="inlineStr"/>
+      <c r="H459" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="460">
-      <c r="A460" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A460" t="inlineStr"/>
       <c r="B460" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>Exports YoYDEC</t>
+          <t>Auto Production YoYDEC</t>
         </is>
       </c>
       <c r="D460" t="inlineStr"/>
       <c r="E460" t="inlineStr">
         <is>
-          <t>6.7%</t>
+          <t>-15.4%</t>
         </is>
       </c>
       <c r="F460" t="inlineStr"/>
       <c r="G460" t="inlineStr"/>
-      <c r="H460" t="n">
-        <v>1</v>
+      <c r="H460" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="461">
-      <c r="A461" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A461" t="inlineStr"/>
       <c r="B461" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>Imports YoYDEC</t>
+          <t>Auto Sales YoYDEC</t>
         </is>
       </c>
       <c r="D461" t="inlineStr"/>
       <c r="E461" t="inlineStr">
         <is>
-          <t>-3.9%</t>
+          <t>5.3%</t>
         </is>
       </c>
       <c r="F461" t="inlineStr"/>
       <c r="G461" t="inlineStr"/>
-      <c r="H461" t="n">
-        <v>1</v>
+      <c r="H461" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="462">
@@ -16149,8 +16173,10 @@
           <t>6.4%</t>
         </is>
       </c>
-      <c r="H462" t="n">
-        <v>3</v>
+      <c r="H462" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="463">
@@ -16173,8 +16199,10 @@
       </c>
       <c r="F463" t="inlineStr"/>
       <c r="G463" t="inlineStr"/>
-      <c r="H463" t="n">
-        <v>3</v>
+      <c r="H463" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="464">
@@ -16193,8 +16221,10 @@
       <c r="E464" t="inlineStr"/>
       <c r="F464" t="inlineStr"/>
       <c r="G464" t="inlineStr"/>
-      <c r="H464" t="n">
-        <v>3</v>
+      <c r="H464" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="465">
@@ -16235,8 +16265,10 @@
       </c>
       <c r="F466" t="inlineStr"/>
       <c r="G466" t="inlineStr"/>
-      <c r="H466" t="n">
-        <v>2</v>
+      <c r="H466" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="467">
@@ -16263,8 +16295,10 @@
       </c>
       <c r="F467" t="inlineStr"/>
       <c r="G467" t="inlineStr"/>
-      <c r="H467" t="n">
-        <v>1</v>
+      <c r="H467" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="468">
@@ -16291,8 +16325,10 @@
       </c>
       <c r="F468" t="inlineStr"/>
       <c r="G468" t="inlineStr"/>
-      <c r="H468" t="n">
-        <v>1</v>
+      <c r="H468" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="469">
@@ -16323,8 +16359,10 @@
           <t>¥1990.0B</t>
         </is>
       </c>
-      <c r="H469" t="n">
-        <v>2</v>
+      <c r="H469" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="470">
@@ -16355,8 +16393,10 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H470" t="n">
-        <v>3</v>
+      <c r="H470" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="471">
@@ -16383,8 +16423,10 @@
       </c>
       <c r="F471" t="inlineStr"/>
       <c r="G471" t="inlineStr"/>
-      <c r="H471" t="n">
-        <v>3</v>
+      <c r="H471" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="472">
@@ -16411,8 +16453,10 @@
       </c>
       <c r="F472" t="inlineStr"/>
       <c r="G472" t="inlineStr"/>
-      <c r="H472" t="n">
-        <v>3</v>
+      <c r="H472" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="473">
@@ -16439,8 +16483,10 @@
       </c>
       <c r="F473" t="inlineStr"/>
       <c r="G473" t="inlineStr"/>
-      <c r="H473" t="n">
-        <v>3</v>
+      <c r="H473" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="474">
@@ -16471,8 +16517,10 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H474" t="n">
-        <v>3</v>
+      <c r="H474" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="475">
@@ -16503,8 +16551,10 @@
           <t>49.6</t>
         </is>
       </c>
-      <c r="H475" t="n">
-        <v>3</v>
+      <c r="H475" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="476">
@@ -16531,8 +16581,10 @@
       </c>
       <c r="F476" t="inlineStr"/>
       <c r="G476" t="inlineStr"/>
-      <c r="H476" t="n">
-        <v>3</v>
+      <c r="H476" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="477">
@@ -16559,8 +16611,10 @@
       </c>
       <c r="F477" t="inlineStr"/>
       <c r="G477" t="inlineStr"/>
-      <c r="H477" t="n">
-        <v>3</v>
+      <c r="H477" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="478">
@@ -16591,8 +16645,10 @@
           <t>10.2%</t>
         </is>
       </c>
-      <c r="H478" t="n">
-        <v>3</v>
+      <c r="H478" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="479">
@@ -16623,8 +16679,10 @@
           <t>-3.2%</t>
         </is>
       </c>
-      <c r="H479" t="n">
-        <v>3</v>
+      <c r="H479" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="480">
@@ -16640,79 +16698,89 @@
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>WPI Manufacturing YoYDEC</t>
+          <t>WPI Inflation YoYDEC</t>
         </is>
       </c>
       <c r="D480" t="inlineStr"/>
       <c r="E480" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>1.89%</t>
         </is>
       </c>
       <c r="F480" t="inlineStr"/>
       <c r="G480" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="H480" t="n">
-        <v>3</v>
+          <t>1.9%</t>
+        </is>
+      </c>
+      <c r="H480" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>Budget BalanceNOV</t>
+          <t>WPI Manufacturing YoYDEC</t>
         </is>
       </c>
       <c r="D481" t="inlineStr"/>
       <c r="E481" t="inlineStr">
         <is>
-          <t>€-157.39B</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="F481" t="inlineStr"/>
-      <c r="G481" t="inlineStr"/>
-      <c r="H481" t="n">
-        <v>3</v>
+      <c r="G481" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="H481" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>Industrial Production MoMNOV</t>
+          <t>Budget BalanceNOV</t>
         </is>
       </c>
       <c r="D482" t="inlineStr"/>
       <c r="E482" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>€-157.39B</t>
         </is>
       </c>
       <c r="F482" t="inlineStr"/>
       <c r="G482" t="inlineStr"/>
-      <c r="H482" t="n">
-        <v>2</v>
+      <c r="H482" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="483">
@@ -16728,47 +16796,51 @@
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>Industrial Production MoMNOV</t>
         </is>
       </c>
       <c r="D483" t="inlineStr"/>
       <c r="E483" t="inlineStr">
         <is>
-          <t>-3.6%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F483" t="inlineStr"/>
       <c r="G483" t="inlineStr"/>
-      <c r="H483" t="n">
-        <v>3</v>
+      <c r="H483" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>03:10 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>3-Month Letras Auction</t>
+          <t>Industrial Production YoYNOV</t>
         </is>
       </c>
       <c r="D484" t="inlineStr"/>
       <c r="E484" t="inlineStr">
         <is>
-          <t>2.567%</t>
+          <t>-3.6%</t>
         </is>
       </c>
       <c r="F484" t="inlineStr"/>
       <c r="G484" t="inlineStr"/>
-      <c r="H484" t="n">
-        <v>3</v>
+      <c r="H484" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="485">
@@ -16784,113 +16856,117 @@
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>9-Month Letras Auction</t>
+          <t>3-Month Letras Auction</t>
         </is>
       </c>
       <c r="D485" t="inlineStr"/>
       <c r="E485" t="inlineStr">
         <is>
-          <t>2.366%</t>
+          <t>2.567%</t>
         </is>
       </c>
       <c r="F485" t="inlineStr"/>
       <c r="G485" t="inlineStr"/>
-      <c r="H485" t="n">
-        <v>3</v>
+      <c r="H485" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>03:10 PM</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>20-Year Index-Linked Treasury Gilt Auction</t>
+          <t>9-Month Letras Auction</t>
         </is>
       </c>
       <c r="D486" t="inlineStr"/>
       <c r="E486" t="inlineStr">
         <is>
-          <t>1.200%</t>
+          <t>2.366%</t>
         </is>
       </c>
       <c r="F486" t="inlineStr"/>
       <c r="G486" t="inlineStr"/>
-      <c r="H486" t="n">
-        <v>3</v>
+      <c r="H486" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>5-Year Bobl Auction</t>
+          <t>20-Year Index-Linked Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D487" t="inlineStr"/>
       <c r="E487" t="inlineStr">
         <is>
-          <t>2.04%</t>
+          <t>1.200%</t>
         </is>
       </c>
       <c r="F487" t="inlineStr"/>
       <c r="G487" t="inlineStr"/>
-      <c r="H487" t="n">
-        <v>3</v>
+      <c r="H487" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>NFIB Business Optimism IndexDEC</t>
+          <t>5-Year Bobl Auction</t>
         </is>
       </c>
       <c r="D488" t="inlineStr"/>
       <c r="E488" t="inlineStr">
         <is>
-          <t>101.7</t>
+          <t>2.04%</t>
         </is>
       </c>
       <c r="F488" t="inlineStr"/>
-      <c r="G488" t="inlineStr">
-        <is>
-          <t>102</t>
-        </is>
-      </c>
-      <c r="H488" t="n">
-        <v>3</v>
+      <c r="G488" t="inlineStr"/>
+      <c r="H488" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
@@ -16900,23 +16976,25 @@
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>NFIB Business Optimism IndexDEC</t>
         </is>
       </c>
       <c r="D489" t="inlineStr"/>
       <c r="E489" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>101.7</t>
         </is>
       </c>
       <c r="F489" t="inlineStr"/>
       <c r="G489" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H489" t="n">
-        <v>1</v>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="H489" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="490">
@@ -16932,19 +17010,25 @@
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>Core PPI MoMDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D490" t="inlineStr"/>
       <c r="E490" t="inlineStr">
         <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="F490" t="inlineStr"/>
+      <c r="G490" t="inlineStr">
+        <is>
           <t>0.2%</t>
         </is>
       </c>
-      <c r="F490" t="inlineStr"/>
-      <c r="G490" t="inlineStr"/>
-      <c r="H490" t="n">
-        <v>2</v>
+      <c r="H490" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="491">
@@ -16960,23 +17044,21 @@
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>Core PPI YoYDEC</t>
+          <t>Core PPI MoMDEC</t>
         </is>
       </c>
       <c r="D491" t="inlineStr"/>
       <c r="E491" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F491" t="inlineStr"/>
-      <c r="G491" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="H491" t="n">
-        <v>3</v>
+      <c r="G491" t="inlineStr"/>
+      <c r="H491" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="492">
@@ -16992,23 +17074,25 @@
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>PPIDEC</t>
+          <t>Core PPI YoYDEC</t>
         </is>
       </c>
       <c r="D492" t="inlineStr"/>
       <c r="E492" t="inlineStr">
         <is>
-          <t>146.493</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="F492" t="inlineStr"/>
       <c r="G492" t="inlineStr">
         <is>
-          <t>146.4</t>
-        </is>
-      </c>
-      <c r="H492" t="n">
-        <v>3</v>
+          <t>3.2%</t>
+        </is>
+      </c>
+      <c r="H492" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="493">
@@ -17024,19 +17108,25 @@
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade MoMDEC</t>
+          <t>PPIDEC</t>
         </is>
       </c>
       <c r="D493" t="inlineStr"/>
       <c r="E493" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>146.493</t>
         </is>
       </c>
       <c r="F493" t="inlineStr"/>
-      <c r="G493" t="inlineStr"/>
-      <c r="H493" t="n">
-        <v>3</v>
+      <c r="G493" t="inlineStr">
+        <is>
+          <t>146.4</t>
+        </is>
+      </c>
+      <c r="H493" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="494">
@@ -17052,19 +17142,21 @@
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade YoYDEC</t>
+          <t>PPI Ex Food, Energy and Trade MoMDEC</t>
         </is>
       </c>
       <c r="D494" t="inlineStr"/>
       <c r="E494" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F494" t="inlineStr"/>
       <c r="G494" t="inlineStr"/>
-      <c r="H494" t="n">
-        <v>3</v>
+      <c r="H494" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="495">
@@ -17080,29 +17172,27 @@
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>PPI Ex Food, Energy and Trade YoYDEC</t>
         </is>
       </c>
       <c r="D495" t="inlineStr"/>
       <c r="E495" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="F495" t="inlineStr"/>
-      <c r="G495" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="H495" t="n">
-        <v>3</v>
+      <c r="G495" t="inlineStr"/>
+      <c r="H495" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>07:25 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
@@ -17112,25 +17202,31 @@
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/11</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D496" t="inlineStr"/>
       <c r="E496" t="inlineStr">
         <is>
-          <t>6.8%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F496" t="inlineStr"/>
-      <c r="G496" t="inlineStr"/>
-      <c r="H496" t="n">
-        <v>3</v>
+      <c r="G496" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
+      <c r="H496" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>08:35 PM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
@@ -17140,90 +17236,92 @@
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>RCM/TIPP Economic Optimism IndexJAN</t>
+          <t>Redbook YoYJAN/11</t>
         </is>
       </c>
       <c r="D497" t="inlineStr"/>
       <c r="E497" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>6.8%</t>
         </is>
       </c>
       <c r="F497" t="inlineStr"/>
       <c r="G497" t="inlineStr"/>
-      <c r="H497" t="n">
-        <v>3</v>
+      <c r="H497" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="498">
-      <c r="A498" t="inlineStr"/>
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>08:35 PM</t>
+        </is>
+      </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>5-Year KTB Auction</t>
+          <t>RCM/TIPP Economic Optimism IndexJAN</t>
         </is>
       </c>
       <c r="D498" t="inlineStr"/>
       <c r="E498" t="inlineStr">
         <is>
-          <t>2.680%</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F498" t="inlineStr"/>
       <c r="G498" t="inlineStr"/>
-      <c r="H498" t="n">
-        <v>3</v>
+      <c r="H498" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="499">
-      <c r="A499" t="inlineStr">
-        <is>
-          <t>Wednesday January 15 2025</t>
-        </is>
-      </c>
-      <c r="B499" t="inlineStr"/>
-      <c r="C499" t="inlineStr"/>
+      <c r="A499" t="inlineStr"/>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>KR</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>5-Year KTB Auction</t>
+        </is>
+      </c>
       <c r="D499" t="inlineStr"/>
-      <c r="E499" t="inlineStr"/>
+      <c r="E499" t="inlineStr">
+        <is>
+          <t>2.680%</t>
+        </is>
+      </c>
       <c r="F499" t="inlineStr"/>
       <c r="G499" t="inlineStr"/>
-      <c r="H499" t="inlineStr"/>
+      <c r="H499" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B500" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C500" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMDEC</t>
-        </is>
-      </c>
+          <t>Wednesday January 15 2025</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr"/>
+      <c r="C500" t="inlineStr"/>
       <c r="D500" t="inlineStr"/>
-      <c r="E500" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+      <c r="E500" t="inlineStr"/>
       <c r="F500" t="inlineStr"/>
-      <c r="G500" t="inlineStr">
-        <is>
-          <t>2.0%</t>
-        </is>
-      </c>
-      <c r="H500" t="n">
-        <v>3</v>
-      </c>
+      <c r="G500" t="inlineStr"/>
+      <c r="H500" t="inlineStr"/>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
@@ -17238,55 +17336,59 @@
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D501" t="inlineStr"/>
       <c r="E501" t="inlineStr">
         <is>
-          <t>166%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F501" t="inlineStr"/>
       <c r="G501" t="inlineStr">
         <is>
-          <t>116.0%</t>
-        </is>
-      </c>
-      <c r="H501" t="n">
-        <v>3</v>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="H501" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>Export Prices YoYDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D502" t="inlineStr"/>
       <c r="E502" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>166%</t>
         </is>
       </c>
       <c r="F502" t="inlineStr"/>
       <c r="G502" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="H502" t="n">
-        <v>3</v>
+          <t>116.0%</t>
+        </is>
+      </c>
+      <c r="H502" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="503">
@@ -17302,83 +17404,89 @@
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D503" t="inlineStr"/>
       <c r="E503" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>7%</t>
         </is>
       </c>
       <c r="F503" t="inlineStr"/>
       <c r="G503" t="inlineStr">
         <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="H503" t="n">
-        <v>3</v>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="H503" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/10</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D504" t="inlineStr"/>
       <c r="E504" t="inlineStr">
         <is>
-          <t>-4.022M</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F504" t="inlineStr"/>
-      <c r="G504" t="inlineStr"/>
-      <c r="H504" t="n">
-        <v>2</v>
+      <c r="G504" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
+      <c r="H504" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>API Crude Oil Stock ChangeJAN/10</t>
         </is>
       </c>
       <c r="D505" t="inlineStr"/>
       <c r="E505" t="inlineStr">
         <is>
-          <t>$4.42B</t>
+          <t>-4.022M</t>
         </is>
       </c>
       <c r="F505" t="inlineStr"/>
-      <c r="G505" t="inlineStr">
-        <is>
-          <t>$ 2.8B</t>
-        </is>
-      </c>
-      <c r="H505" t="n">
-        <v>2</v>
+      <c r="G505" t="inlineStr"/>
+      <c r="H505" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="506">
@@ -17394,19 +17502,25 @@
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>Exports YoYDEC</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D506" t="inlineStr"/>
       <c r="E506" t="inlineStr">
         <is>
-          <t>9.14%</t>
+          <t>$4.42B</t>
         </is>
       </c>
       <c r="F506" t="inlineStr"/>
-      <c r="G506" t="inlineStr"/>
-      <c r="H506" t="n">
-        <v>3</v>
+      <c r="G506" t="inlineStr">
+        <is>
+          <t>$ 2.8B</t>
+        </is>
+      </c>
+      <c r="H506" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="507">
@@ -17422,79 +17536,81 @@
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>Imports YoYDEC</t>
+          <t>Exports YoYDEC</t>
         </is>
       </c>
       <c r="D507" t="inlineStr"/>
       <c r="E507" t="inlineStr">
         <is>
-          <t>0.01%</t>
+          <t>9.14%</t>
         </is>
       </c>
       <c r="F507" t="inlineStr"/>
       <c r="G507" t="inlineStr"/>
-      <c r="H507" t="n">
-        <v>3</v>
+      <c r="H507" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>Machine Tool Orders YoYDEC</t>
+          <t>Imports YoYDEC</t>
         </is>
       </c>
       <c r="D508" t="inlineStr"/>
       <c r="E508" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>0.01%</t>
         </is>
       </c>
       <c r="F508" t="inlineStr"/>
       <c r="G508" t="inlineStr"/>
-      <c r="H508" t="n">
-        <v>3</v>
+      <c r="H508" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>WPI Inflation YoYDEC</t>
+          <t>Machine Tool Orders YoYDEC</t>
         </is>
       </c>
       <c r="D509" t="inlineStr"/>
       <c r="E509" t="inlineStr">
         <is>
-          <t>1.89%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="F509" t="inlineStr"/>
-      <c r="G509" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="H509" t="n">
-        <v>3</v>
+      <c r="G509" t="inlineStr"/>
+      <c r="H509" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="510">
@@ -17525,8 +17641,10 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H510" t="n">
-        <v>2</v>
+      <c r="H510" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="511">
@@ -17557,8 +17675,10 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H511" t="n">
-        <v>2</v>
+      <c r="H511" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="512">
@@ -17589,8 +17709,10 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H512" t="n">
-        <v>1</v>
+      <c r="H512" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="513">
@@ -17621,8 +17743,10 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H513" t="n">
-        <v>2</v>
+      <c r="H513" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="514">
@@ -17653,8 +17777,10 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H514" t="n">
-        <v>2</v>
+      <c r="H514" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="515">
@@ -17685,8 +17811,10 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H515" t="n">
-        <v>3</v>
+      <c r="H515" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="516">
@@ -17717,8 +17845,10 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H516" t="n">
-        <v>3</v>
+      <c r="H516" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="517">
@@ -17749,8 +17879,10 @@
           <t>2.1%</t>
         </is>
       </c>
-      <c r="H517" t="n">
-        <v>3</v>
+      <c r="H517" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="518">
@@ -17781,8 +17913,10 @@
           <t>-1.3%</t>
         </is>
       </c>
-      <c r="H518" t="n">
-        <v>3</v>
+      <c r="H518" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="519">
@@ -17813,8 +17947,10 @@
           <t>-1%</t>
         </is>
       </c>
-      <c r="H519" t="n">
-        <v>3</v>
+      <c r="H519" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="520">
@@ -17845,8 +17981,10 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H520" t="n">
-        <v>3</v>
+      <c r="H520" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="521">
@@ -17877,8 +18015,10 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H521" t="n">
-        <v>3</v>
+      <c r="H521" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="522">
@@ -17905,8 +18045,10 @@
       </c>
       <c r="F522" t="inlineStr"/>
       <c r="G522" t="inlineStr"/>
-      <c r="H522" t="n">
-        <v>3</v>
+      <c r="H522" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="523">
@@ -17937,14 +18079,16 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H523" t="n">
-        <v>3</v>
+      <c r="H523" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>12:50 PM</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
@@ -17954,19 +18098,25 @@
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>Interest Rate Decision</t>
+          <t>Loan Growth YoYDEC</t>
         </is>
       </c>
       <c r="D524" t="inlineStr"/>
       <c r="E524" t="inlineStr">
         <is>
-          <t>6%</t>
+          <t>10.79%</t>
         </is>
       </c>
       <c r="F524" t="inlineStr"/>
-      <c r="G524" t="inlineStr"/>
-      <c r="H524" t="n">
-        <v>2</v>
+      <c r="G524" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="H524" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="525">
@@ -17982,19 +18132,21 @@
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>Deposit Facility RateJAN</t>
+          <t>Interest Rate Decision</t>
         </is>
       </c>
       <c r="D525" t="inlineStr"/>
       <c r="E525" t="inlineStr">
         <is>
-          <t>5.25%</t>
+          <t>6%</t>
         </is>
       </c>
       <c r="F525" t="inlineStr"/>
       <c r="G525" t="inlineStr"/>
-      <c r="H525" t="n">
-        <v>3</v>
+      <c r="H525" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="526">
@@ -18010,51 +18162,51 @@
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>Lending Facility RateJAN</t>
+          <t>Deposit Facility RateJAN</t>
         </is>
       </c>
       <c r="D526" t="inlineStr"/>
       <c r="E526" t="inlineStr">
         <is>
-          <t>6.75%</t>
+          <t>5.25%</t>
         </is>
       </c>
       <c r="F526" t="inlineStr"/>
       <c r="G526" t="inlineStr"/>
-      <c r="H526" t="n">
-        <v>3</v>
+      <c r="H526" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FinalDEC</t>
+          <t>Lending Facility RateJAN</t>
         </is>
       </c>
       <c r="D527" t="inlineStr"/>
       <c r="E527" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>6.75%</t>
         </is>
       </c>
       <c r="F527" t="inlineStr"/>
-      <c r="G527" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H527" t="n">
-        <v>2</v>
+      <c r="G527" t="inlineStr"/>
+      <c r="H527" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="528">
@@ -18070,23 +18222,25 @@
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D528" t="inlineStr"/>
       <c r="E528" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F528" t="inlineStr"/>
       <c r="G528" t="inlineStr">
         <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="H528" t="n">
-        <v>2</v>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="H528" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="529">
@@ -18102,23 +18256,25 @@
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY FinalDEC</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D529" t="inlineStr"/>
       <c r="E529" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F529" t="inlineStr"/>
       <c r="G529" t="inlineStr">
         <is>
-          <t>1.8%</t>
-        </is>
-      </c>
-      <c r="H529" t="n">
-        <v>3</v>
+          <t>1.6%</t>
+        </is>
+      </c>
+      <c r="H529" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="530">
@@ -18134,51 +18290,59 @@
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM FinalDEC</t>
+          <t>Harmonised Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D530" t="inlineStr"/>
       <c r="E530" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="F530" t="inlineStr"/>
       <c r="G530" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H530" t="n">
-        <v>3</v>
+          <t>1.8%</t>
+        </is>
+      </c>
+      <c r="H530" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY FinalDEC</t>
+          <t>Harmonised Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D531" t="inlineStr"/>
       <c r="E531" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F531" t="inlineStr"/>
-      <c r="G531" t="inlineStr"/>
-      <c r="H531" t="n">
-        <v>3</v>
+      <c r="G531" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="H531" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="532">
@@ -18194,27 +18358,21 @@
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FinalDEC</t>
+          <t>Harmonised Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D532" t="inlineStr"/>
       <c r="E532" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F532" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G532" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H532" t="n">
-        <v>3</v>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="F532" t="inlineStr"/>
+      <c r="G532" t="inlineStr"/>
+      <c r="H532" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="533">
@@ -18230,27 +18388,29 @@
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D533" t="inlineStr"/>
       <c r="E533" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F533" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="G533" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="H533" t="n">
-        <v>3</v>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="H533" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="534">
@@ -18266,7 +18426,7 @@
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FinalDEC</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D534" t="inlineStr"/>
@@ -18277,16 +18437,18 @@
       </c>
       <c r="F534" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="G534" t="inlineStr">
         <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="H534" t="n">
-        <v>3</v>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="H534" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="535">
@@ -18302,83 +18464,97 @@
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM FinalDEC</t>
+          <t>Core Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D535" t="inlineStr"/>
       <c r="E535" t="inlineStr">
         <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F535" t="inlineStr"/>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="F535" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="G535" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H535" t="n">
-        <v>3</v>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="H535" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>Full Year GDP Growth2025</t>
+          <t>Harmonised Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D536" t="inlineStr"/>
       <c r="E536" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F536" t="inlineStr"/>
       <c r="G536" t="inlineStr">
         <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="H536" t="n">
-        <v>1</v>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H536" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>Industrial Production MoMNOV</t>
+          <t>Full Year GDP Growth2025</t>
         </is>
       </c>
       <c r="D537" t="inlineStr"/>
       <c r="E537" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F537" t="inlineStr"/>
-      <c r="G537" t="inlineStr"/>
-      <c r="H537" t="n">
-        <v>2</v>
+      <c r="G537" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="H537" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="538">
@@ -18394,19 +18570,21 @@
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>Industrial Production MoMNOV</t>
         </is>
       </c>
       <c r="D538" t="inlineStr"/>
       <c r="E538" t="inlineStr">
         <is>
-          <t>-1.2%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F538" t="inlineStr"/>
       <c r="G538" t="inlineStr"/>
-      <c r="H538" t="n">
-        <v>3</v>
+      <c r="H538" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="539">
@@ -18417,80 +18595,86 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>10-Year Treasury Gilt Auction</t>
+          <t>Industrial Production YoYNOV</t>
         </is>
       </c>
       <c r="D539" t="inlineStr"/>
       <c r="E539" t="inlineStr">
         <is>
-          <t>4.332%</t>
+          <t>-1.2%</t>
         </is>
       </c>
       <c r="F539" t="inlineStr"/>
       <c r="G539" t="inlineStr"/>
-      <c r="H539" t="n">
-        <v>3</v>
+      <c r="H539" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>30-Year Bund Auction</t>
+          <t>10-Year Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D540" t="inlineStr"/>
       <c r="E540" t="inlineStr">
         <is>
-          <t>2.55%</t>
+          <t>4.332%</t>
         </is>
       </c>
       <c r="F540" t="inlineStr"/>
       <c r="G540" t="inlineStr"/>
-      <c r="H540" t="n">
-        <v>3</v>
+      <c r="H540" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>Gross Fixed Investment MoMOCT</t>
+          <t>30-Year Bund Auction</t>
         </is>
       </c>
       <c r="D541" t="inlineStr"/>
       <c r="E541" t="inlineStr">
         <is>
-          <t>-0.8%</t>
+          <t>2.55%</t>
         </is>
       </c>
       <c r="F541" t="inlineStr"/>
       <c r="G541" t="inlineStr"/>
-      <c r="H541" t="n">
-        <v>3</v>
+      <c r="H541" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="542">
@@ -18506,19 +18690,21 @@
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>Gross Fixed Investment YoYOCT</t>
+          <t>Gross Fixed Investment MoMOCT</t>
         </is>
       </c>
       <c r="D542" t="inlineStr"/>
       <c r="E542" t="inlineStr">
         <is>
-          <t>-3.3%</t>
+          <t>-0.8%</t>
         </is>
       </c>
       <c r="F542" t="inlineStr"/>
       <c r="G542" t="inlineStr"/>
-      <c r="H542" t="n">
-        <v>3</v>
+      <c r="H542" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="543">
@@ -18529,24 +18715,26 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJAN/10</t>
+          <t>Gross Fixed Investment YoYOCT</t>
         </is>
       </c>
       <c r="D543" t="inlineStr"/>
       <c r="E543" t="inlineStr">
         <is>
-          <t>6.99%</t>
+          <t>-3.3%</t>
         </is>
       </c>
       <c r="F543" t="inlineStr"/>
       <c r="G543" t="inlineStr"/>
-      <c r="H543" t="n">
-        <v>2</v>
+      <c r="H543" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="544">
@@ -18562,19 +18750,21 @@
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJAN/10</t>
+          <t>MBA 30-Year Mortgage RateJAN/10</t>
         </is>
       </c>
       <c r="D544" t="inlineStr"/>
       <c r="E544" t="inlineStr">
         <is>
-          <t>-3.7%</t>
+          <t>6.99%</t>
         </is>
       </c>
       <c r="F544" t="inlineStr"/>
       <c r="G544" t="inlineStr"/>
-      <c r="H544" t="n">
-        <v>3</v>
+      <c r="H544" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="545">
@@ -18590,19 +18780,21 @@
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJAN/10</t>
+          <t>MBA Mortgage ApplicationsJAN/10</t>
         </is>
       </c>
       <c r="D545" t="inlineStr"/>
       <c r="E545" t="inlineStr">
         <is>
-          <t>168.4</t>
+          <t>-3.7%</t>
         </is>
       </c>
       <c r="F545" t="inlineStr"/>
       <c r="G545" t="inlineStr"/>
-      <c r="H545" t="n">
-        <v>3</v>
+      <c r="H545" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="546">
@@ -18618,19 +18810,21 @@
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJAN/10</t>
+          <t>MBA Mortgage Market IndexJAN/10</t>
         </is>
       </c>
       <c r="D546" t="inlineStr"/>
       <c r="E546" t="inlineStr">
         <is>
-          <t>401.1</t>
+          <t>168.4</t>
         </is>
       </c>
       <c r="F546" t="inlineStr"/>
       <c r="G546" t="inlineStr"/>
-      <c r="H546" t="n">
-        <v>3</v>
+      <c r="H546" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="547">
@@ -18646,87 +18840,85 @@
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJAN/10</t>
+          <t>MBA Mortgage Refinance IndexJAN/10</t>
         </is>
       </c>
       <c r="D547" t="inlineStr"/>
       <c r="E547" t="inlineStr">
         <is>
-          <t>127.7</t>
+          <t>401.1</t>
         </is>
       </c>
       <c r="F547" t="inlineStr"/>
       <c r="G547" t="inlineStr"/>
-      <c r="H547" t="n">
-        <v>3</v>
+      <c r="H547" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesDEC</t>
+          <t>MBA Purchase IndexJAN/10</t>
         </is>
       </c>
       <c r="D548" t="inlineStr"/>
       <c r="E548" t="inlineStr">
         <is>
-          <t>$616.5B</t>
+          <t>127.7</t>
         </is>
       </c>
       <c r="F548" t="inlineStr"/>
-      <c r="G548" t="inlineStr">
-        <is>
-          <t>$628.0B</t>
-        </is>
-      </c>
-      <c r="H548" t="n">
-        <v>3</v>
+      <c r="G548" t="inlineStr"/>
+      <c r="H548" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>Manufacturing Sales MoM FinalNOV</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D549" t="inlineStr"/>
       <c r="E549" t="inlineStr">
         <is>
-          <t>2.1%</t>
-        </is>
-      </c>
-      <c r="F549" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+          <t>$616.5B</t>
+        </is>
+      </c>
+      <c r="F549" t="inlineStr"/>
       <c r="G549" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H549" t="n">
-        <v>3</v>
+          <t>$628.0B</t>
+        </is>
+      </c>
+      <c r="H549" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="550">
@@ -18742,19 +18934,29 @@
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>New Motor Vehicle SalesNOV</t>
+          <t>Manufacturing Sales MoM FinalNOV</t>
         </is>
       </c>
       <c r="D550" t="inlineStr"/>
       <c r="E550" t="inlineStr">
         <is>
-          <t>163.6K</t>
-        </is>
-      </c>
-      <c r="F550" t="inlineStr"/>
-      <c r="G550" t="inlineStr"/>
-      <c r="H550" t="n">
-        <v>3</v>
+          <t>2.1%</t>
+        </is>
+      </c>
+      <c r="F550" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="G550" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="H550" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="551">
@@ -18770,27 +18972,21 @@
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>Wholesale Sales MoM FinalNOV</t>
+          <t>New Motor Vehicle SalesNOV</t>
         </is>
       </c>
       <c r="D551" t="inlineStr"/>
       <c r="E551" t="inlineStr">
         <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="F551" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="G551" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="H551" t="n">
-        <v>3</v>
+          <t>163.6K</t>
+        </is>
+      </c>
+      <c r="F551" t="inlineStr"/>
+      <c r="G551" t="inlineStr"/>
+      <c r="H551" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="552">
@@ -18801,28 +18997,34 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>Wholesale Sales MoM FinalNOV</t>
         </is>
       </c>
       <c r="D552" t="inlineStr"/>
       <c r="E552" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F552" t="inlineStr"/>
+          <t>1%</t>
+        </is>
+      </c>
+      <c r="F552" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="G552" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="H552" t="n">
-        <v>1</v>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="H552" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="553">
@@ -18838,23 +19040,25 @@
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D553" t="inlineStr"/>
       <c r="E553" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F553" t="inlineStr"/>
       <c r="G553" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="H553" t="n">
-        <v>1</v>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="H553" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="554">
@@ -18870,23 +19074,25 @@
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D554" t="inlineStr"/>
       <c r="E554" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F554" t="inlineStr"/>
       <c r="G554" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H554" t="n">
-        <v>1</v>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="H554" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="555">
@@ -18902,23 +19108,25 @@
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D555" t="inlineStr"/>
       <c r="E555" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F555" t="inlineStr"/>
       <c r="G555" t="inlineStr">
         <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="H555" t="n">
-        <v>1</v>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="H555" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="556">
@@ -18934,23 +19142,25 @@
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>CPIDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D556" t="inlineStr"/>
       <c r="E556" t="inlineStr">
         <is>
-          <t>315.49</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="F556" t="inlineStr"/>
       <c r="G556" t="inlineStr">
         <is>
-          <t>313.8</t>
-        </is>
-      </c>
-      <c r="H556" t="n">
-        <v>2</v>
+          <t>2.3%</t>
+        </is>
+      </c>
+      <c r="H556" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="557">
@@ -18966,23 +19176,25 @@
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>CPI s.aDEC</t>
+          <t>CPIDEC</t>
         </is>
       </c>
       <c r="D557" t="inlineStr"/>
       <c r="E557" t="inlineStr">
         <is>
-          <t>316.441</t>
+          <t>315.49</t>
         </is>
       </c>
       <c r="F557" t="inlineStr"/>
       <c r="G557" t="inlineStr">
         <is>
-          <t>317.4</t>
-        </is>
-      </c>
-      <c r="H557" t="n">
-        <v>2</v>
+          <t>313.8</t>
+        </is>
+      </c>
+      <c r="H557" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="558">
@@ -18998,25 +19210,31 @@
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>NY Empire State Manufacturing IndexJAN</t>
+          <t>CPI s.aDEC</t>
         </is>
       </c>
       <c r="D558" t="inlineStr"/>
       <c r="E558" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>316.441</t>
         </is>
       </c>
       <c r="F558" t="inlineStr"/>
-      <c r="G558" t="inlineStr"/>
-      <c r="H558" t="n">
-        <v>2</v>
+      <c r="G558" t="inlineStr">
+        <is>
+          <t>317.4</t>
+        </is>
+      </c>
+      <c r="H558" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B559" t="inlineStr">
@@ -19026,19 +19244,21 @@
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/10</t>
+          <t>NY Empire State Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D559" t="inlineStr"/>
       <c r="E559" t="inlineStr">
         <is>
-          <t>-0.959M</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="F559" t="inlineStr"/>
       <c r="G559" t="inlineStr"/>
-      <c r="H559" t="n">
-        <v>2</v>
+      <c r="H559" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="560">
@@ -19054,15 +19274,21 @@
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeJAN/10</t>
+          <t>EIA Crude Oil Stocks ChangeJAN/10</t>
         </is>
       </c>
       <c r="D560" t="inlineStr"/>
-      <c r="E560" t="inlineStr"/>
+      <c r="E560" t="inlineStr">
+        <is>
+          <t>-0.959M</t>
+        </is>
+      </c>
       <c r="F560" t="inlineStr"/>
       <c r="G560" t="inlineStr"/>
-      <c r="H560" t="n">
-        <v>2</v>
+      <c r="H560" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="561">
@@ -19078,15 +19304,17 @@
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeJAN/10</t>
+          <t>EIA Gasoline Stocks ChangeJAN/10</t>
         </is>
       </c>
       <c r="D561" t="inlineStr"/>
       <c r="E561" t="inlineStr"/>
       <c r="F561" t="inlineStr"/>
       <c r="G561" t="inlineStr"/>
-      <c r="H561" t="n">
-        <v>3</v>
+      <c r="H561" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="562">
@@ -19102,15 +19330,17 @@
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/10</t>
+          <t>EIA Crude Oil Imports ChangeJAN/10</t>
         </is>
       </c>
       <c r="D562" t="inlineStr"/>
       <c r="E562" t="inlineStr"/>
       <c r="F562" t="inlineStr"/>
       <c r="G562" t="inlineStr"/>
-      <c r="H562" t="n">
-        <v>3</v>
+      <c r="H562" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="563">
@@ -19126,19 +19356,17 @@
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/10</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/10</t>
         </is>
       </c>
       <c r="D563" t="inlineStr"/>
-      <c r="E563" t="inlineStr">
-        <is>
-          <t>-0.167M</t>
-        </is>
-      </c>
+      <c r="E563" t="inlineStr"/>
       <c r="F563" t="inlineStr"/>
       <c r="G563" t="inlineStr"/>
-      <c r="H563" t="n">
-        <v>3</v>
+      <c r="H563" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="564">
@@ -19154,19 +19382,21 @@
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeJAN/10</t>
+          <t>EIA Distillate Fuel Production ChangeJAN/10</t>
         </is>
       </c>
       <c r="D564" t="inlineStr"/>
       <c r="E564" t="inlineStr">
         <is>
-          <t>6.071M</t>
+          <t>-0.167M</t>
         </is>
       </c>
       <c r="F564" t="inlineStr"/>
       <c r="G564" t="inlineStr"/>
-      <c r="H564" t="n">
-        <v>3</v>
+      <c r="H564" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="565">
@@ -19182,19 +19412,21 @@
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeJAN/10</t>
+          <t>EIA Distillate Stocks ChangeJAN/10</t>
         </is>
       </c>
       <c r="D565" t="inlineStr"/>
       <c r="E565" t="inlineStr">
         <is>
-          <t>-0.081M</t>
+          <t>6.071M</t>
         </is>
       </c>
       <c r="F565" t="inlineStr"/>
       <c r="G565" t="inlineStr"/>
-      <c r="H565" t="n">
-        <v>3</v>
+      <c r="H565" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="566">
@@ -19210,19 +19442,21 @@
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/10</t>
+          <t>EIA Gasoline Production ChangeJAN/10</t>
         </is>
       </c>
       <c r="D566" t="inlineStr"/>
       <c r="E566" t="inlineStr">
         <is>
-          <t>-0.632M</t>
+          <t>-0.081M</t>
         </is>
       </c>
       <c r="F566" t="inlineStr"/>
       <c r="G566" t="inlineStr"/>
-      <c r="H566" t="n">
-        <v>3</v>
+      <c r="H566" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="567">
@@ -19238,51 +19472,51 @@
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/10</t>
+          <t>EIA Heating Oil Stocks ChangeJAN/10</t>
         </is>
       </c>
       <c r="D567" t="inlineStr"/>
       <c r="E567" t="inlineStr">
         <is>
-          <t>0.045M</t>
+          <t>-0.632M</t>
         </is>
       </c>
       <c r="F567" t="inlineStr"/>
       <c r="G567" t="inlineStr"/>
-      <c r="H567" t="n">
-        <v>3</v>
+      <c r="H567" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>EIA Refinery Crude Runs ChangeJAN/10</t>
         </is>
       </c>
       <c r="D568" t="inlineStr"/>
       <c r="E568" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>0.045M</t>
         </is>
       </c>
       <c r="F568" t="inlineStr"/>
-      <c r="G568" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="H568" t="n">
-        <v>2</v>
+      <c r="G568" t="inlineStr"/>
+      <c r="H568" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="569">
@@ -19298,83 +19532,89 @@
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D569" t="inlineStr"/>
       <c r="E569" t="inlineStr">
         <is>
-          <t>8.9%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F569" t="inlineStr"/>
       <c r="G569" t="inlineStr">
         <is>
-          <t>9.5%</t>
-        </is>
-      </c>
-      <c r="H569" t="n">
-        <v>2</v>
+          <t>0.7%</t>
+        </is>
+      </c>
+      <c r="H569" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D570" t="inlineStr"/>
       <c r="E570" t="inlineStr">
         <is>
-          <t>4.190%</t>
+          <t>8.9%</t>
         </is>
       </c>
       <c r="F570" t="inlineStr"/>
-      <c r="G570" t="inlineStr"/>
-      <c r="H570" t="n">
-        <v>3</v>
+      <c r="G570" t="inlineStr">
+        <is>
+          <t>9.5%</t>
+        </is>
+      </c>
+      <c r="H570" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="D571" t="inlineStr"/>
       <c r="E571" t="inlineStr">
         <is>
-          <t>50.1</t>
+          <t>4.190%</t>
         </is>
       </c>
       <c r="F571" t="inlineStr"/>
-      <c r="G571" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
-      <c r="H571" t="n">
-        <v>2</v>
+      <c r="G571" t="inlineStr"/>
+      <c r="H571" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="572">
@@ -19385,76 +19625,86 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>5-Year Bond Auction</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D572" t="inlineStr"/>
       <c r="E572" t="inlineStr">
         <is>
-          <t>3.146%</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="F572" t="inlineStr"/>
-      <c r="G572" t="inlineStr"/>
-      <c r="H572" t="n">
-        <v>3</v>
+      <c r="G572" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
+      <c r="H572" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="573">
-      <c r="A573" t="inlineStr"/>
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>10:30 PM</t>
+        </is>
+      </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>Passenger Vehicles Sales YoYDEC</t>
+          <t>5-Year Bond Auction</t>
         </is>
       </c>
       <c r="D573" t="inlineStr"/>
       <c r="E573" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>3.146%</t>
         </is>
       </c>
       <c r="F573" t="inlineStr"/>
       <c r="G573" t="inlineStr"/>
-      <c r="H573" t="n">
-        <v>3</v>
+      <c r="H573" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr"/>
       <c r="B574" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Passenger Vehicles Sales YoYDEC</t>
         </is>
       </c>
       <c r="D574" t="inlineStr"/>
       <c r="E574" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F574" t="inlineStr"/>
-      <c r="G574" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H574" t="n">
-        <v>3</v>
+      <c r="G574" t="inlineStr"/>
+      <c r="H574" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="575">
@@ -19466,23 +19716,25 @@
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D575" t="inlineStr"/>
       <c r="E575" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F575" t="inlineStr"/>
       <c r="G575" t="inlineStr">
         <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="H575" t="n">
-        <v>3</v>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="H575" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="576">
@@ -19494,95 +19746,103 @@
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>Wholesale Prices YoYDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D576" t="inlineStr"/>
       <c r="E576" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="F576" t="inlineStr"/>
       <c r="G576" t="inlineStr">
         <is>
-          <t>1.0%</t>
-        </is>
-      </c>
-      <c r="H576" t="n">
-        <v>3</v>
+          <t>2%</t>
+        </is>
+      </c>
+      <c r="H576" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr"/>
       <c r="B577" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>Budget BalanceDEC</t>
+          <t>Wholesale Prices YoYDEC</t>
         </is>
       </c>
       <c r="D577" t="inlineStr"/>
       <c r="E577" t="inlineStr">
         <is>
-          <t>TRY-16.65B</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F577" t="inlineStr"/>
-      <c r="G577" t="inlineStr"/>
-      <c r="H577" t="n">
-        <v>3</v>
+      <c r="G577" t="inlineStr">
+        <is>
+          <t>1.0%</t>
+        </is>
+      </c>
+      <c r="H577" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr"/>
       <c r="B578" t="inlineStr">
         <is>
-          <t>OP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>OPEC Monthly Report</t>
+          <t>Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D578" t="inlineStr"/>
-      <c r="E578" t="inlineStr"/>
+      <c r="E578" t="inlineStr">
+        <is>
+          <t>TRY-16.65B</t>
+        </is>
+      </c>
       <c r="F578" t="inlineStr"/>
       <c r="G578" t="inlineStr"/>
-      <c r="H578" t="n">
-        <v>3</v>
+      <c r="H578" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr"/>
       <c r="B579" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>OP</t>
         </is>
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>OPEC Monthly Report</t>
         </is>
       </c>
       <c r="D579" t="inlineStr"/>
-      <c r="E579" t="inlineStr">
-        <is>
-          <t>$-37.84B</t>
-        </is>
-      </c>
+      <c r="E579" t="inlineStr"/>
       <c r="F579" t="inlineStr"/>
-      <c r="G579" t="inlineStr">
-        <is>
-          <t>$ -23B</t>
-        </is>
-      </c>
-      <c r="H579" t="n">
-        <v>3</v>
+      <c r="G579" t="inlineStr"/>
+      <c r="H579" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="580">
@@ -19594,23 +19854,25 @@
       </c>
       <c r="C580" t="inlineStr">
         <is>
-          <t>ExportsDEC</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D580" t="inlineStr"/>
       <c r="E580" t="inlineStr">
         <is>
-          <t>$32.11B</t>
+          <t>$-37.84B</t>
         </is>
       </c>
       <c r="F580" t="inlineStr"/>
       <c r="G580" t="inlineStr">
         <is>
-          <t>$ 36B</t>
-        </is>
-      </c>
-      <c r="H580" t="n">
-        <v>3</v>
+          <t>$ -23B</t>
+        </is>
+      </c>
+      <c r="H580" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="581">
@@ -19622,97 +19884,103 @@
       </c>
       <c r="C581" t="inlineStr">
         <is>
-          <t>ImportsDEC</t>
+          <t>ExportsDEC</t>
         </is>
       </c>
       <c r="D581" t="inlineStr"/>
       <c r="E581" t="inlineStr">
         <is>
-          <t>$69.95B</t>
+          <t>$32.11B</t>
         </is>
       </c>
       <c r="F581" t="inlineStr"/>
       <c r="G581" t="inlineStr">
         <is>
+          <t>$ 36B</t>
+        </is>
+      </c>
+      <c r="H581" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr"/>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="C582" t="inlineStr">
+        <is>
+          <t>ImportsDEC</t>
+        </is>
+      </c>
+      <c r="D582" t="inlineStr"/>
+      <c r="E582" t="inlineStr">
+        <is>
+          <t>$69.95B</t>
+        </is>
+      </c>
+      <c r="F582" t="inlineStr"/>
+      <c r="G582" t="inlineStr">
+        <is>
           <t>$ 59B</t>
         </is>
       </c>
-      <c r="H581" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="582">
-      <c r="A582" t="inlineStr">
-        <is>
-          <t>Thursday January 16 2025</t>
-        </is>
-      </c>
-      <c r="B582" t="inlineStr"/>
-      <c r="C582" t="inlineStr"/>
-      <c r="D582" t="inlineStr"/>
-      <c r="E582" t="inlineStr"/>
-      <c r="F582" t="inlineStr"/>
-      <c r="G582" t="inlineStr"/>
-      <c r="H582" t="inlineStr"/>
+      <c r="H582" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
-        </is>
-      </c>
-      <c r="B583" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C583" t="inlineStr">
-        <is>
-          <t>Unemployment RateDEC</t>
-        </is>
-      </c>
+          <t>Thursday January 16 2025</t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr"/>
+      <c r="C583" t="inlineStr"/>
       <c r="D583" t="inlineStr"/>
-      <c r="E583" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E583" t="inlineStr"/>
       <c r="F583" t="inlineStr"/>
-      <c r="G583" t="inlineStr">
-        <is>
-          <t>3.30%</t>
-        </is>
-      </c>
-      <c r="H583" t="n">
-        <v>2</v>
-      </c>
+      <c r="G583" t="inlineStr"/>
+      <c r="H583" t="inlineStr"/>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D584" t="inlineStr"/>
       <c r="E584" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="F584" t="inlineStr"/>
-      <c r="G584" t="inlineStr"/>
-      <c r="H584" t="n">
-        <v>3</v>
+      <c r="G584" t="inlineStr">
+        <is>
+          <t>3.30%</t>
+        </is>
+      </c>
+      <c r="H584" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="585">
@@ -19728,87 +19996,89 @@
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D585" t="inlineStr"/>
       <c r="E585" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F585" t="inlineStr"/>
-      <c r="G585" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="H585" t="n">
-        <v>3</v>
+      <c r="G585" t="inlineStr"/>
+      <c r="H585" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>05:31 AM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>RICS House Price BalanceDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D586" t="inlineStr"/>
       <c r="E586" t="inlineStr">
         <is>
-          <t>25%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="F586" t="inlineStr"/>
       <c r="G586" t="inlineStr">
         <is>
-          <t>17.0%</t>
-        </is>
-      </c>
-      <c r="H586" t="n">
-        <v>2</v>
+          <t>3.6%</t>
+        </is>
+      </c>
+      <c r="H586" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>05:31 AM</t>
         </is>
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>RICS House Price BalanceDEC</t>
         </is>
       </c>
       <c r="D587" t="inlineStr"/>
       <c r="E587" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>25%</t>
         </is>
       </c>
       <c r="F587" t="inlineStr"/>
       <c r="G587" t="inlineStr">
         <is>
-          <t>4.30%</t>
-        </is>
-      </c>
-      <c r="H587" t="n">
-        <v>1</v>
+          <t>17.0%</t>
+        </is>
+      </c>
+      <c r="H587" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="588">
@@ -19824,23 +20094,25 @@
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>Employment ChangeDEC</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D588" t="inlineStr"/>
       <c r="E588" t="inlineStr">
         <is>
-          <t>35.6K</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="F588" t="inlineStr"/>
       <c r="G588" t="inlineStr">
         <is>
-          <t>25.1K</t>
-        </is>
-      </c>
-      <c r="H588" t="n">
-        <v>2</v>
+          <t>4.30%</t>
+        </is>
+      </c>
+      <c r="H588" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="589">
@@ -19856,19 +20128,25 @@
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>Full Time Employment ChgDEC</t>
+          <t>Employment ChangeDEC</t>
         </is>
       </c>
       <c r="D589" t="inlineStr"/>
       <c r="E589" t="inlineStr">
         <is>
-          <t>52.6K</t>
+          <t>35.6K</t>
         </is>
       </c>
       <c r="F589" t="inlineStr"/>
-      <c r="G589" t="inlineStr"/>
-      <c r="H589" t="n">
-        <v>2</v>
+      <c r="G589" t="inlineStr">
+        <is>
+          <t>25.1K</t>
+        </is>
+      </c>
+      <c r="H589" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="590">
@@ -19884,19 +20162,21 @@
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>Part Time Employment ChgDEC</t>
+          <t>Full Time Employment ChgDEC</t>
         </is>
       </c>
       <c r="D590" t="inlineStr"/>
       <c r="E590" t="inlineStr">
         <is>
-          <t>-17.0K</t>
+          <t>52.6K</t>
         </is>
       </c>
       <c r="F590" t="inlineStr"/>
       <c r="G590" t="inlineStr"/>
-      <c r="H590" t="n">
-        <v>3</v>
+      <c r="H590" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="591">
@@ -19912,79 +20192,85 @@
       </c>
       <c r="C591" t="inlineStr">
         <is>
-          <t>Participation RateDEC</t>
+          <t>Part Time Employment ChgDEC</t>
         </is>
       </c>
       <c r="D591" t="inlineStr"/>
       <c r="E591" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>-17.0K</t>
         </is>
       </c>
       <c r="F591" t="inlineStr"/>
-      <c r="G591" t="inlineStr">
-        <is>
-          <t>66.8%</t>
-        </is>
-      </c>
-      <c r="H591" t="n">
-        <v>3</v>
+      <c r="G591" t="inlineStr"/>
+      <c r="H591" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>Interest Rate Decision</t>
+          <t>Participation RateDEC</t>
         </is>
       </c>
       <c r="D592" t="inlineStr"/>
       <c r="E592" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="F592" t="inlineStr"/>
-      <c r="G592" t="inlineStr"/>
-      <c r="H592" t="n">
-        <v>2</v>
+      <c r="G592" t="inlineStr">
+        <is>
+          <t>66.8%</t>
+        </is>
+      </c>
+      <c r="H592" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>20-Year JGB Auction</t>
+          <t>Interest Rate Decision</t>
         </is>
       </c>
       <c r="D593" t="inlineStr"/>
       <c r="E593" t="inlineStr">
         <is>
-          <t>1.879%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="F593" t="inlineStr"/>
       <c r="G593" t="inlineStr"/>
-      <c r="H593" t="n">
-        <v>3</v>
+      <c r="H593" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="594">
@@ -20000,83 +20286,81 @@
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>52-Week Bill Auction</t>
+          <t>20-Year JGB Auction</t>
         </is>
       </c>
       <c r="D594" t="inlineStr"/>
       <c r="E594" t="inlineStr">
         <is>
-          <t>0.4796%</t>
+          <t>1.879%</t>
         </is>
       </c>
       <c r="F594" t="inlineStr"/>
       <c r="G594" t="inlineStr"/>
-      <c r="H594" t="n">
-        <v>3</v>
+      <c r="H594" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>6-Month T-Bill Auction</t>
+          <t>52-Week Bill Auction</t>
         </is>
       </c>
       <c r="D595" t="inlineStr"/>
       <c r="E595" t="inlineStr">
         <is>
-          <t>3.02%</t>
+          <t>0.4796%</t>
         </is>
       </c>
       <c r="F595" t="inlineStr"/>
       <c r="G595" t="inlineStr"/>
-      <c r="H595" t="n">
-        <v>3</v>
+      <c r="H595" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FinalDEC</t>
+          <t>6-Month T-Bill Auction</t>
         </is>
       </c>
       <c r="D596" t="inlineStr"/>
       <c r="E596" t="inlineStr">
         <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="F596" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G596" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H596" t="n">
-        <v>2</v>
+          <t>3.02%</t>
+        </is>
+      </c>
+      <c r="F596" t="inlineStr"/>
+      <c r="G596" t="inlineStr"/>
+      <c r="H596" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="597">
@@ -20092,23 +20376,29 @@
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D597" t="inlineStr"/>
       <c r="E597" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F597" t="inlineStr"/>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="F597" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="G597" t="inlineStr">
         <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="H597" t="n">
-        <v>2</v>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="H597" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="598">
@@ -20124,27 +20414,25 @@
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY FinalDEC</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D598" t="inlineStr"/>
       <c r="E598" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F598" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+          <t>2.2%</t>
+        </is>
+      </c>
+      <c r="F598" t="inlineStr"/>
       <c r="G598" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="H598" t="n">
-        <v>3</v>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="H598" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="599">
@@ -20160,27 +20448,29 @@
       </c>
       <c r="C599" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM FinalDEC</t>
+          <t>Harmonised Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D599" t="inlineStr"/>
       <c r="E599" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F599" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="G599" t="inlineStr">
         <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="H599" t="n">
-        <v>3</v>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="H599" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="600">
@@ -20191,28 +20481,34 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t>GDP MoMNOV</t>
+          <t>Harmonised Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D600" t="inlineStr"/>
       <c r="E600" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F600" t="inlineStr"/>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="F600" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="G600" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H600" t="n">
-        <v>1</v>
+          <t>0.7%</t>
+        </is>
+      </c>
+      <c r="H600" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="601">
@@ -20228,23 +20524,25 @@
       </c>
       <c r="C601" t="inlineStr">
         <is>
-          <t>GDP YoYNOV</t>
+          <t>GDP MoMNOV</t>
         </is>
       </c>
       <c r="D601" t="inlineStr"/>
       <c r="E601" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F601" t="inlineStr"/>
       <c r="G601" t="inlineStr">
         <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="H601" t="n">
-        <v>1</v>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="H601" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="602">
@@ -20260,23 +20558,25 @@
       </c>
       <c r="C602" t="inlineStr">
         <is>
-          <t>GDP 3-Month AvgNOV</t>
+          <t>GDP YoYNOV</t>
         </is>
       </c>
       <c r="D602" t="inlineStr"/>
       <c r="E602" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F602" t="inlineStr"/>
       <c r="G602" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H602" t="n">
-        <v>2</v>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="H602" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="603">
@@ -20292,19 +20592,25 @@
       </c>
       <c r="C603" t="inlineStr">
         <is>
-          <t>Goods Trade BalanceNOV</t>
+          <t>GDP 3-Month AvgNOV</t>
         </is>
       </c>
       <c r="D603" t="inlineStr"/>
       <c r="E603" t="inlineStr">
         <is>
-          <t>£-18.97B</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F603" t="inlineStr"/>
-      <c r="G603" t="inlineStr"/>
-      <c r="H603" t="n">
-        <v>2</v>
+      <c r="G603" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H603" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="604">
@@ -20320,19 +20626,21 @@
       </c>
       <c r="C604" t="inlineStr">
         <is>
-          <t>Goods Trade Balance Non-EUNOV</t>
+          <t>Goods Trade BalanceNOV</t>
         </is>
       </c>
       <c r="D604" t="inlineStr"/>
       <c r="E604" t="inlineStr">
         <is>
-          <t>£-7.28B</t>
+          <t>£-18.97B</t>
         </is>
       </c>
       <c r="F604" t="inlineStr"/>
       <c r="G604" t="inlineStr"/>
-      <c r="H604" t="n">
-        <v>2</v>
+      <c r="H604" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="605">
@@ -20348,19 +20656,21 @@
       </c>
       <c r="C605" t="inlineStr">
         <is>
-          <t>Industrial Production MoMNOV</t>
+          <t>Goods Trade Balance Non-EUNOV</t>
         </is>
       </c>
       <c r="D605" t="inlineStr"/>
       <c r="E605" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>£-7.28B</t>
         </is>
       </c>
       <c r="F605" t="inlineStr"/>
       <c r="G605" t="inlineStr"/>
-      <c r="H605" t="n">
-        <v>2</v>
+      <c r="H605" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="606">
@@ -20376,7 +20686,7 @@
       </c>
       <c r="C606" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMNOV</t>
+          <t>Industrial Production MoMNOV</t>
         </is>
       </c>
       <c r="D606" t="inlineStr"/>
@@ -20387,8 +20697,10 @@
       </c>
       <c r="F606" t="inlineStr"/>
       <c r="G606" t="inlineStr"/>
-      <c r="H606" t="n">
-        <v>2</v>
+      <c r="H606" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="607">
@@ -20404,19 +20716,21 @@
       </c>
       <c r="C607" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Manufacturing Production MoMNOV</t>
         </is>
       </c>
       <c r="D607" t="inlineStr"/>
       <c r="E607" t="inlineStr">
         <is>
-          <t>£-3.72B</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F607" t="inlineStr"/>
       <c r="G607" t="inlineStr"/>
-      <c r="H607" t="n">
-        <v>3</v>
+      <c r="H607" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="608">
@@ -20432,23 +20746,21 @@
       </c>
       <c r="C608" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D608" t="inlineStr"/>
       <c r="E608" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>£-3.72B</t>
         </is>
       </c>
       <c r="F608" t="inlineStr"/>
-      <c r="G608" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H608" t="n">
-        <v>3</v>
+      <c r="G608" t="inlineStr"/>
+      <c r="H608" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="609">
@@ -20464,7 +20776,7 @@
       </c>
       <c r="C609" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D609" t="inlineStr"/>
@@ -20474,9 +20786,15 @@
         </is>
       </c>
       <c r="F609" t="inlineStr"/>
-      <c r="G609" t="inlineStr"/>
-      <c r="H609" t="n">
-        <v>3</v>
+      <c r="G609" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="H609" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="610">
@@ -20492,47 +20810,51 @@
       </c>
       <c r="C610" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYNOV</t>
+          <t>Industrial Production YoYNOV</t>
         </is>
       </c>
       <c r="D610" t="inlineStr"/>
       <c r="E610" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F610" t="inlineStr"/>
       <c r="G610" t="inlineStr"/>
-      <c r="H610" t="n">
-        <v>3</v>
+      <c r="H610" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C611" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Manufacturing Production YoYNOV</t>
         </is>
       </c>
       <c r="D611" t="inlineStr"/>
       <c r="E611" t="inlineStr">
         <is>
-          <t>€5.153B</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F611" t="inlineStr"/>
       <c r="G611" t="inlineStr"/>
-      <c r="H611" t="n">
-        <v>2</v>
+      <c r="H611" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="612">
@@ -20548,27 +20870,21 @@
       </c>
       <c r="C612" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FinalDEC</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D612" t="inlineStr"/>
       <c r="E612" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F612" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G612" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H612" t="n">
-        <v>2</v>
+          <t>€5.153B</t>
+        </is>
+      </c>
+      <c r="F612" t="inlineStr"/>
+      <c r="G612" t="inlineStr"/>
+      <c r="H612" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="613">
@@ -20584,27 +20900,29 @@
       </c>
       <c r="C613" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D613" t="inlineStr"/>
       <c r="E613" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F613" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G613" t="inlineStr">
         <is>
-          <t>1.3%</t>
-        </is>
-      </c>
-      <c r="H613" t="n">
-        <v>2</v>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="H613" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="614">
@@ -20620,27 +20938,29 @@
       </c>
       <c r="C614" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY FinalDEC</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D614" t="inlineStr"/>
       <c r="E614" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F614" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="G614" t="inlineStr">
         <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="H614" t="n">
-        <v>3</v>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="H614" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="615">
@@ -20656,51 +20976,67 @@
       </c>
       <c r="C615" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM FinalDEC</t>
+          <t>Harmonised Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D615" t="inlineStr"/>
       <c r="E615" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="F615" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="G615" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H615" t="n">
-        <v>3</v>
+          <t>1.4%</t>
+        </is>
+      </c>
+      <c r="H615" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>03:10 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C616" t="inlineStr">
         <is>
-          <t>Bonos Auction</t>
+          <t>Harmonised Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D616" t="inlineStr"/>
-      <c r="E616" t="inlineStr"/>
-      <c r="F616" t="inlineStr"/>
-      <c r="G616" t="inlineStr"/>
-      <c r="H616" t="n">
-        <v>3</v>
+      <c r="E616" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="F616" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="G616" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="H616" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="617">
@@ -20716,15 +21052,17 @@
       </c>
       <c r="C617" t="inlineStr">
         <is>
-          <t>Index-Linked Obligacion Auction</t>
+          <t>Bonos Auction</t>
         </is>
       </c>
       <c r="D617" t="inlineStr"/>
       <c r="E617" t="inlineStr"/>
       <c r="F617" t="inlineStr"/>
       <c r="G617" t="inlineStr"/>
-      <c r="H617" t="n">
-        <v>3</v>
+      <c r="H617" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="618">
@@ -20740,191 +21078,197 @@
       </c>
       <c r="C618" t="inlineStr">
         <is>
-          <t>Obligacion Auction</t>
+          <t>Index-Linked Obligacion Auction</t>
         </is>
       </c>
       <c r="D618" t="inlineStr"/>
       <c r="E618" t="inlineStr"/>
       <c r="F618" t="inlineStr"/>
       <c r="G618" t="inlineStr"/>
-      <c r="H618" t="n">
-        <v>3</v>
+      <c r="H618" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>03:10 PM</t>
         </is>
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C619" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Obligacion Auction</t>
         </is>
       </c>
       <c r="D619" t="inlineStr"/>
-      <c r="E619" t="inlineStr">
-        <is>
-          <t>€6.8B</t>
-        </is>
-      </c>
+      <c r="E619" t="inlineStr"/>
       <c r="F619" t="inlineStr"/>
       <c r="G619" t="inlineStr"/>
-      <c r="H619" t="n">
-        <v>2</v>
+      <c r="H619" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C620" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/10</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D620" t="inlineStr"/>
-      <c r="E620" t="inlineStr"/>
+      <c r="E620" t="inlineStr">
+        <is>
+          <t>€6.8B</t>
+        </is>
+      </c>
       <c r="F620" t="inlineStr"/>
       <c r="G620" t="inlineStr"/>
-      <c r="H620" t="n">
-        <v>3</v>
+      <c r="H620" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C621" t="inlineStr">
         <is>
-          <t>IBC-BR Economic ActivityNOV</t>
+          <t>Foreign Exchange ReservesJAN/10</t>
         </is>
       </c>
       <c r="D621" t="inlineStr"/>
-      <c r="E621" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E621" t="inlineStr"/>
       <c r="F621" t="inlineStr"/>
       <c r="G621" t="inlineStr"/>
-      <c r="H621" t="n">
-        <v>3</v>
+      <c r="H621" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C622" t="inlineStr">
         <is>
-          <t>NIESR Monthly GDP TrackerDEC</t>
+          <t>IBC-BR Economic ActivityNOV</t>
         </is>
       </c>
       <c r="D622" t="inlineStr"/>
       <c r="E622" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F622" t="inlineStr"/>
-      <c r="G622" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H622" t="n">
-        <v>3</v>
+      <c r="G622" t="inlineStr"/>
+      <c r="H622" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C623" t="inlineStr">
         <is>
-          <t>Housing StartsDEC</t>
+          <t>NIESR Monthly GDP TrackerDEC</t>
         </is>
       </c>
       <c r="D623" t="inlineStr"/>
       <c r="E623" t="inlineStr">
         <is>
-          <t>262.4K</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F623" t="inlineStr"/>
       <c r="G623" t="inlineStr">
         <is>
-          <t>220K</t>
-        </is>
-      </c>
-      <c r="H623" t="n">
-        <v>2</v>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="H623" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:45 PM</t>
         </is>
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C624" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Housing StartsDEC</t>
         </is>
       </c>
       <c r="D624" t="inlineStr"/>
       <c r="E624" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>262.4K</t>
         </is>
       </c>
       <c r="F624" t="inlineStr"/>
       <c r="G624" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H624" t="n">
-        <v>1</v>
+          <t>220K</t>
+        </is>
+      </c>
+      <c r="H624" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="625">
@@ -20940,13 +21284,13 @@
       </c>
       <c r="C625" t="inlineStr">
         <is>
-          <t>Export Prices MoMDEC</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D625" t="inlineStr"/>
       <c r="E625" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F625" t="inlineStr"/>
@@ -20955,8 +21299,10 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H625" t="n">
-        <v>2</v>
+      <c r="H625" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="626">
@@ -20972,19 +21318,25 @@
       </c>
       <c r="C626" t="inlineStr">
         <is>
-          <t>Import Prices MoMDEC</t>
+          <t>Export Prices MoMDEC</t>
         </is>
       </c>
       <c r="D626" t="inlineStr"/>
       <c r="E626" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F626" t="inlineStr"/>
-      <c r="G626" t="inlineStr"/>
-      <c r="H626" t="n">
-        <v>2</v>
+      <c r="G626" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="H626" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="627">
@@ -21000,23 +21352,21 @@
       </c>
       <c r="C627" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsJAN/11</t>
+          <t>Import Prices MoMDEC</t>
         </is>
       </c>
       <c r="D627" t="inlineStr"/>
       <c r="E627" t="inlineStr">
         <is>
-          <t>201K</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F627" t="inlineStr"/>
-      <c r="G627" t="inlineStr">
-        <is>
-          <t>209.0K</t>
-        </is>
-      </c>
-      <c r="H627" t="n">
-        <v>2</v>
+      <c r="G627" t="inlineStr"/>
+      <c r="H627" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="628">
@@ -21032,19 +21382,25 @@
       </c>
       <c r="C628" t="inlineStr">
         <is>
-          <t>Philadelphia Fed Manufacturing IndexJAN</t>
+          <t>Initial Jobless ClaimsJAN/11</t>
         </is>
       </c>
       <c r="D628" t="inlineStr"/>
       <c r="E628" t="inlineStr">
         <is>
-          <t>-16.4</t>
+          <t>201K</t>
         </is>
       </c>
       <c r="F628" t="inlineStr"/>
-      <c r="G628" t="inlineStr"/>
-      <c r="H628" t="n">
-        <v>2</v>
+      <c r="G628" t="inlineStr">
+        <is>
+          <t>209.0K</t>
+        </is>
+      </c>
+      <c r="H628" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="629">
@@ -21060,23 +21416,21 @@
       </c>
       <c r="C629" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Autos MoMDEC</t>
+          <t>Philadelphia Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D629" t="inlineStr"/>
       <c r="E629" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-16.4</t>
         </is>
       </c>
       <c r="F629" t="inlineStr"/>
-      <c r="G629" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="H629" t="n">
-        <v>2</v>
+      <c r="G629" t="inlineStr"/>
+      <c r="H629" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="630">
@@ -21092,23 +21446,25 @@
       </c>
       <c r="C630" t="inlineStr">
         <is>
-          <t>Continuing Jobless ClaimsJAN/04</t>
+          <t>Retail Sales Ex Autos MoMDEC</t>
         </is>
       </c>
       <c r="D630" t="inlineStr"/>
       <c r="E630" t="inlineStr">
         <is>
-          <t>1867K</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F630" t="inlineStr"/>
       <c r="G630" t="inlineStr">
         <is>
-          <t>1870.0K</t>
-        </is>
-      </c>
-      <c r="H630" t="n">
-        <v>3</v>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="H630" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="631">
@@ -21124,19 +21480,25 @@
       </c>
       <c r="C631" t="inlineStr">
         <is>
-          <t>Export Prices YoYDEC</t>
+          <t>Continuing Jobless ClaimsJAN/04</t>
         </is>
       </c>
       <c r="D631" t="inlineStr"/>
       <c r="E631" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>1867K</t>
         </is>
       </c>
       <c r="F631" t="inlineStr"/>
-      <c r="G631" t="inlineStr"/>
-      <c r="H631" t="n">
-        <v>3</v>
+      <c r="G631" t="inlineStr">
+        <is>
+          <t>1870.0K</t>
+        </is>
+      </c>
+      <c r="H631" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="632">
@@ -21152,23 +21514,21 @@
       </c>
       <c r="C632" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D632" t="inlineStr"/>
       <c r="E632" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F632" t="inlineStr"/>
-      <c r="G632" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="H632" t="n">
-        <v>3</v>
+      <c r="G632" t="inlineStr"/>
+      <c r="H632" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="633">
@@ -21184,23 +21544,25 @@
       </c>
       <c r="C633" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageJAN/11</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D633" t="inlineStr"/>
       <c r="E633" t="inlineStr">
         <is>
-          <t>213K</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F633" t="inlineStr"/>
       <c r="G633" t="inlineStr">
         <is>
-          <t>215.0K</t>
-        </is>
-      </c>
-      <c r="H633" t="n">
-        <v>3</v>
+          <t>0.6%</t>
+        </is>
+      </c>
+      <c r="H633" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="634">
@@ -21216,19 +21578,25 @@
       </c>
       <c r="C634" t="inlineStr">
         <is>
-          <t>Philly Fed Business ConditionsJAN</t>
+          <t>Jobless Claims 4-week AverageJAN/11</t>
         </is>
       </c>
       <c r="D634" t="inlineStr"/>
       <c r="E634" t="inlineStr">
         <is>
-          <t>30.7</t>
+          <t>213K</t>
         </is>
       </c>
       <c r="F634" t="inlineStr"/>
-      <c r="G634" t="inlineStr"/>
-      <c r="H634" t="n">
-        <v>3</v>
+      <c r="G634" t="inlineStr">
+        <is>
+          <t>215.0K</t>
+        </is>
+      </c>
+      <c r="H634" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="635">
@@ -21244,19 +21612,21 @@
       </c>
       <c r="C635" t="inlineStr">
         <is>
-          <t>Philly Fed CAPEX IndexJAN</t>
+          <t>Philly Fed Business ConditionsJAN</t>
         </is>
       </c>
       <c r="D635" t="inlineStr"/>
       <c r="E635" t="inlineStr">
         <is>
-          <t>18.8</t>
+          <t>30.7</t>
         </is>
       </c>
       <c r="F635" t="inlineStr"/>
       <c r="G635" t="inlineStr"/>
-      <c r="H635" t="n">
-        <v>3</v>
+      <c r="H635" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="636">
@@ -21272,19 +21642,21 @@
       </c>
       <c r="C636" t="inlineStr">
         <is>
-          <t>Philly Fed EmploymentJAN</t>
+          <t>Philly Fed CAPEX IndexJAN</t>
         </is>
       </c>
       <c r="D636" t="inlineStr"/>
       <c r="E636" t="inlineStr">
         <is>
-          <t>6.6</t>
+          <t>18.8</t>
         </is>
       </c>
       <c r="F636" t="inlineStr"/>
       <c r="G636" t="inlineStr"/>
-      <c r="H636" t="n">
-        <v>3</v>
+      <c r="H636" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="637">
@@ -21300,19 +21672,21 @@
       </c>
       <c r="C637" t="inlineStr">
         <is>
-          <t>Philly Fed New OrdersJAN</t>
+          <t>Philly Fed EmploymentJAN</t>
         </is>
       </c>
       <c r="D637" t="inlineStr"/>
       <c r="E637" t="inlineStr">
         <is>
-          <t>-4.3</t>
+          <t>6.6</t>
         </is>
       </c>
       <c r="F637" t="inlineStr"/>
       <c r="G637" t="inlineStr"/>
-      <c r="H637" t="n">
-        <v>3</v>
+      <c r="H637" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="638">
@@ -21328,19 +21702,21 @@
       </c>
       <c r="C638" t="inlineStr">
         <is>
-          <t>Philly Fed Prices PaidJAN</t>
+          <t>Philly Fed New OrdersJAN</t>
         </is>
       </c>
       <c r="D638" t="inlineStr"/>
       <c r="E638" t="inlineStr">
         <is>
-          <t>31.2</t>
+          <t>-4.3</t>
         </is>
       </c>
       <c r="F638" t="inlineStr"/>
       <c r="G638" t="inlineStr"/>
-      <c r="H638" t="n">
-        <v>3</v>
+      <c r="H638" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="639">
@@ -21356,23 +21732,21 @@
       </c>
       <c r="C639" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Gas/Autos MoMDEC</t>
+          <t>Philly Fed Prices PaidJAN</t>
         </is>
       </c>
       <c r="D639" t="inlineStr"/>
       <c r="E639" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>31.2</t>
         </is>
       </c>
       <c r="F639" t="inlineStr"/>
-      <c r="G639" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H639" t="n">
-        <v>3</v>
+      <c r="G639" t="inlineStr"/>
+      <c r="H639" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="640">
@@ -21388,29 +21762,31 @@
       </c>
       <c r="C640" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Retail Sales Ex Gas/Autos MoMDEC</t>
         </is>
       </c>
       <c r="D640" t="inlineStr"/>
       <c r="E640" t="inlineStr">
         <is>
-          <t>3.8%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F640" t="inlineStr"/>
       <c r="G640" t="inlineStr">
         <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="H640" t="n">
-        <v>3</v>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="H640" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B641" t="inlineStr">
@@ -21420,19 +21796,25 @@
       </c>
       <c r="C641" t="inlineStr">
         <is>
-          <t>Business Inventories MoMNOV</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D641" t="inlineStr"/>
       <c r="E641" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>3.8%</t>
         </is>
       </c>
       <c r="F641" t="inlineStr"/>
-      <c r="G641" t="inlineStr"/>
-      <c r="H641" t="n">
-        <v>2</v>
+      <c r="G641" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="H641" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="642">
@@ -21448,19 +21830,21 @@
       </c>
       <c r="C642" t="inlineStr">
         <is>
-          <t>NAHB Housing Market IndexJAN</t>
+          <t>Business Inventories MoMNOV</t>
         </is>
       </c>
       <c r="D642" t="inlineStr"/>
       <c r="E642" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F642" t="inlineStr"/>
       <c r="G642" t="inlineStr"/>
-      <c r="H642" t="n">
-        <v>2</v>
+      <c r="H642" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="643">
@@ -21476,25 +21860,27 @@
       </c>
       <c r="C643" t="inlineStr">
         <is>
-          <t>Retail Inventories Ex Autos MoMNOV</t>
+          <t>NAHB Housing Market IndexJAN</t>
         </is>
       </c>
       <c r="D643" t="inlineStr"/>
       <c r="E643" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F643" t="inlineStr"/>
       <c r="G643" t="inlineStr"/>
-      <c r="H643" t="n">
-        <v>3</v>
+      <c r="H643" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B644" t="inlineStr">
@@ -21504,25 +21890,27 @@
       </c>
       <c r="C644" t="inlineStr">
         <is>
-          <t>EIA Natural Gas Stocks ChangeJAN/10</t>
+          <t>Retail Inventories Ex Autos MoMNOV</t>
         </is>
       </c>
       <c r="D644" t="inlineStr"/>
       <c r="E644" t="inlineStr">
         <is>
-          <t>-40Bcf</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F644" t="inlineStr"/>
       <c r="G644" t="inlineStr"/>
-      <c r="H644" t="n">
-        <v>3</v>
+      <c r="H644" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B645" t="inlineStr">
@@ -21532,15 +21920,21 @@
       </c>
       <c r="C645" t="inlineStr">
         <is>
-          <t>4-Week Bill Auction</t>
+          <t>EIA Natural Gas Stocks ChangeJAN/10</t>
         </is>
       </c>
       <c r="D645" t="inlineStr"/>
-      <c r="E645" t="inlineStr"/>
+      <c r="E645" t="inlineStr">
+        <is>
+          <t>-40Bcf</t>
+        </is>
+      </c>
       <c r="F645" t="inlineStr"/>
       <c r="G645" t="inlineStr"/>
-      <c r="H645" t="n">
-        <v>3</v>
+      <c r="H645" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="646">
@@ -21556,21 +21950,23 @@
       </c>
       <c r="C646" t="inlineStr">
         <is>
-          <t>8-Week Bill Auction</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D646" t="inlineStr"/>
       <c r="E646" t="inlineStr"/>
       <c r="F646" t="inlineStr"/>
       <c r="G646" t="inlineStr"/>
-      <c r="H646" t="n">
-        <v>3</v>
+      <c r="H646" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B647" t="inlineStr">
@@ -21580,15 +21976,17 @@
       </c>
       <c r="C647" t="inlineStr">
         <is>
-          <t>15-Year Mortgage RateJAN/16</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="D647" t="inlineStr"/>
       <c r="E647" t="inlineStr"/>
       <c r="F647" t="inlineStr"/>
       <c r="G647" t="inlineStr"/>
-      <c r="H647" t="n">
-        <v>3</v>
+      <c r="H647" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="648">
@@ -21604,39 +22002,37 @@
       </c>
       <c r="C648" t="inlineStr">
         <is>
-          <t>30-Year Mortgage RateJAN/16</t>
+          <t>15-Year Mortgage RateJAN/16</t>
         </is>
       </c>
       <c r="D648" t="inlineStr"/>
       <c r="E648" t="inlineStr"/>
       <c r="F648" t="inlineStr"/>
       <c r="G648" t="inlineStr"/>
-      <c r="H648" t="n">
-        <v>3</v>
+      <c r="H648" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C649" t="inlineStr">
         <is>
-          <t>Current Account s.aNOV</t>
+          <t>30-Year Mortgage RateJAN/16</t>
         </is>
       </c>
       <c r="D649" t="inlineStr"/>
-      <c r="E649" t="inlineStr">
-        <is>
-          <t>€33.5B</t>
-        </is>
-      </c>
+      <c r="E649" t="inlineStr"/>
       <c r="F649" t="inlineStr"/>
       <c r="G649" t="inlineStr"/>
       <c r="H649" t="inlineStr">
@@ -21648,101 +22044,69 @@
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
-      <c r="B650" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C650" t="inlineStr">
-        <is>
-          <t>Balance of TradeNOV</t>
-        </is>
-      </c>
+          <t>Friday January 17 2025</t>
+        </is>
+      </c>
+      <c r="B650" t="inlineStr"/>
+      <c r="C650" t="inlineStr"/>
       <c r="D650" t="inlineStr"/>
-      <c r="E650" t="inlineStr">
-        <is>
-          <t>€-3.93B</t>
-        </is>
-      </c>
+      <c r="E650" t="inlineStr"/>
       <c r="F650" t="inlineStr"/>
       <c r="G650" t="inlineStr"/>
-      <c r="H650" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="H650" t="inlineStr"/>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C651" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Fed Balance SheetJAN/15</t>
         </is>
       </c>
       <c r="D651" t="inlineStr"/>
-      <c r="E651" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F651" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="G651" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+      <c r="E651" t="inlineStr"/>
+      <c r="F651" t="inlineStr"/>
+      <c r="G651" t="inlineStr"/>
       <c r="H651" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C652" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FinalDEC</t>
+          <t>Reuters Tankan IndexJAN</t>
         </is>
       </c>
       <c r="D652" t="inlineStr"/>
       <c r="E652" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F652" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="F652" t="inlineStr"/>
       <c r="G652" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H652" t="inlineStr">
@@ -21754,35 +22118,23 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C653" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FinalDEC</t>
+          <t>Foreign Bond InvestmentJAN/11</t>
         </is>
       </c>
       <c r="D653" t="inlineStr"/>
-      <c r="E653" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F653" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G653" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="E653" t="inlineStr"/>
+      <c r="F653" t="inlineStr"/>
+      <c r="G653" t="inlineStr"/>
       <c r="H653" t="inlineStr">
         <is>
           <t>3</t>
@@ -21792,35 +22144,23 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C654" t="inlineStr">
         <is>
-          <t>CPI FinalDEC</t>
+          <t>Stock Investment by ForeignersJAN/11</t>
         </is>
       </c>
       <c r="D654" t="inlineStr"/>
-      <c r="E654" t="inlineStr">
-        <is>
-          <t>126.62</t>
-        </is>
-      </c>
-      <c r="F654" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
-      <c r="G654" t="inlineStr">
-        <is>
-          <t>127</t>
-        </is>
-      </c>
+      <c r="E654" t="inlineStr"/>
+      <c r="F654" t="inlineStr"/>
+      <c r="G654" t="inlineStr"/>
       <c r="H654" t="inlineStr">
         <is>
           <t>3</t>
@@ -21830,27 +22170,31 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C655" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Non-Oil Exports MoMDEC</t>
         </is>
       </c>
       <c r="D655" t="inlineStr"/>
       <c r="E655" t="inlineStr">
         <is>
-          <t>€5628M</t>
+          <t>14.7%</t>
         </is>
       </c>
       <c r="F655" t="inlineStr"/>
-      <c r="G655" t="inlineStr"/>
+      <c r="G655" t="inlineStr">
+        <is>
+          <t>1.2%</t>
+        </is>
+      </c>
       <c r="H655" t="inlineStr">
         <is>
           <t>3</t>
@@ -21860,27 +22204,31 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C656" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/03</t>
+          <t>Non-Oil Exports YoYDEC</t>
         </is>
       </c>
       <c r="D656" t="inlineStr"/>
       <c r="E656" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="F656" t="inlineStr"/>
-      <c r="G656" t="inlineStr"/>
+      <c r="G656" t="inlineStr">
+        <is>
+          <t>7.5%</t>
+        </is>
+      </c>
       <c r="H656" t="inlineStr">
         <is>
           <t>3</t>
@@ -21890,23 +22238,23 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C657" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/03</t>
+          <t>Consumer Inflation ExpectationsJAN</t>
         </is>
       </c>
       <c r="D657" t="inlineStr"/>
       <c r="E657" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="F657" t="inlineStr"/>
@@ -21920,53 +22268,65 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C658" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/10</t>
+          <t>House Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D658" t="inlineStr"/>
-      <c r="E658" t="inlineStr"/>
+      <c r="E658" t="inlineStr">
+        <is>
+          <t>-5.7%</t>
+        </is>
+      </c>
       <c r="F658" t="inlineStr"/>
-      <c r="G658" t="inlineStr"/>
+      <c r="G658" t="inlineStr">
+        <is>
+          <t>-5.8%</t>
+        </is>
+      </c>
       <c r="H658" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C659" t="inlineStr">
         <is>
-          <t>Foreign Securities PurchasesNOV</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D659" t="inlineStr"/>
       <c r="E659" t="inlineStr">
         <is>
-          <t>C$21.55B</t>
+          <t>$6.52B</t>
         </is>
       </c>
       <c r="F659" t="inlineStr"/>
-      <c r="G659" t="inlineStr"/>
+      <c r="G659" t="inlineStr">
+        <is>
+          <t>$ 3.6B</t>
+        </is>
+      </c>
       <c r="H659" t="inlineStr">
         <is>
           <t>3</t>
@@ -21976,59 +22336,63 @@
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C660" t="inlineStr">
         <is>
-          <t>Foreign Securities Purchases by CanadiansNOV</t>
+          <t>GDP Growth Rate YoYQ4</t>
         </is>
       </c>
       <c r="D660" t="inlineStr"/>
       <c r="E660" t="inlineStr">
         <is>
-          <t>C$-2.65B</t>
+          <t>4.6%</t>
         </is>
       </c>
       <c r="F660" t="inlineStr"/>
-      <c r="G660" t="inlineStr"/>
+      <c r="G660" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
       <c r="H660" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C661" t="inlineStr">
         <is>
-          <t>Building Permits PrelDEC</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D661" t="inlineStr"/>
       <c r="E661" t="inlineStr">
         <is>
-          <t>1.493M</t>
+          <t>5.4%</t>
         </is>
       </c>
       <c r="F661" t="inlineStr"/>
       <c r="G661" t="inlineStr">
         <is>
-          <t>1.6M</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="H661" t="inlineStr">
@@ -22040,29 +22404,29 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C662" t="inlineStr">
         <is>
-          <t>Housing StartsDEC</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D662" t="inlineStr"/>
       <c r="E662" t="inlineStr">
         <is>
-          <t>1.289M</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F662" t="inlineStr"/>
       <c r="G662" t="inlineStr">
         <is>
-          <t>1.5M</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="H662" t="inlineStr">
@@ -22074,27 +22438,31 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C663" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>Fixed Asset Investment (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D663" t="inlineStr"/>
       <c r="E663" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F663" t="inlineStr"/>
-      <c r="G663" t="inlineStr"/>
+      <c r="G663" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="H663" t="inlineStr">
         <is>
           <t>2</t>
@@ -22104,29 +22472,29 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C664" t="inlineStr">
         <is>
-          <t>Housing Starts MoMDEC</t>
+          <t>GDP Growth Rate QoQQ4</t>
         </is>
       </c>
       <c r="D664" t="inlineStr"/>
       <c r="E664" t="inlineStr">
         <is>
-          <t>-1.8%</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="F664" t="inlineStr"/>
       <c r="G664" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H664" t="inlineStr">
@@ -22138,59 +22506,63 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C665" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Industrial Capacity UtilizationQ4</t>
         </is>
       </c>
       <c r="D665" t="inlineStr"/>
       <c r="E665" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>75.1%</t>
         </is>
       </c>
       <c r="F665" t="inlineStr"/>
-      <c r="G665" t="inlineStr"/>
+      <c r="G665" t="inlineStr">
+        <is>
+          <t>74.9%</t>
+        </is>
+      </c>
       <c r="H665" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C666" t="inlineStr">
         <is>
-          <t>Capacity UtilizationDEC</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D666" t="inlineStr"/>
       <c r="E666" t="inlineStr">
         <is>
-          <t>76.8%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="F666" t="inlineStr"/>
       <c r="G666" t="inlineStr">
         <is>
-          <t>77.8%</t>
+          <t>5.00%</t>
         </is>
       </c>
       <c r="H666" t="inlineStr">
@@ -22202,31 +22574,23 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C667" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D667" t="inlineStr"/>
-      <c r="E667" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
+      <c r="E667" t="inlineStr"/>
       <c r="F667" t="inlineStr"/>
-      <c r="G667" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
+      <c r="G667" t="inlineStr"/>
       <c r="H667" t="inlineStr">
         <is>
           <t>3</t>
@@ -22236,17 +22600,17 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C668" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMDEC</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D668" t="inlineStr"/>
@@ -22258,67 +22622,71 @@
       <c r="F668" t="inlineStr"/>
       <c r="G668" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H668" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C669" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYDEC</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D669" t="inlineStr"/>
       <c r="E669" t="inlineStr">
         <is>
-          <t>-1%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F669" t="inlineStr"/>
       <c r="G669" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="H669" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C670" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/17</t>
+          <t>Retail Sales ex Fuel MoMDEC</t>
         </is>
       </c>
       <c r="D670" t="inlineStr"/>
-      <c r="E670" t="inlineStr"/>
+      <c r="E670" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="F670" t="inlineStr"/>
       <c r="G670" t="inlineStr"/>
       <c r="H670" t="inlineStr">
@@ -22330,21 +22698,25 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C671" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/17</t>
+          <t>Retail Sales ex Fuel YoYDEC</t>
         </is>
       </c>
       <c r="D671" t="inlineStr"/>
-      <c r="E671" t="inlineStr"/>
+      <c r="E671" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="F671" t="inlineStr"/>
       <c r="G671" t="inlineStr"/>
       <c r="H671" t="inlineStr">
@@ -22354,21 +22726,25 @@
       </c>
     </row>
     <row r="672">
-      <c r="A672" t="inlineStr"/>
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>02:30 PM</t>
+        </is>
+      </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C672" t="inlineStr">
         <is>
-          <t>50-Year KTB Auction</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D672" t="inlineStr"/>
       <c r="E672" t="inlineStr">
         <is>
-          <t>2.40%</t>
+          <t>€32B</t>
         </is>
       </c>
       <c r="F672" t="inlineStr"/>
@@ -22382,37 +22758,53 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>Saturday January 18 2025</t>
-        </is>
-      </c>
-      <c r="B673" t="inlineStr"/>
-      <c r="C673" t="inlineStr"/>
+          <t>02:30 PM</t>
+        </is>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C673" t="inlineStr">
+        <is>
+          <t>Current Account s.aNOV</t>
+        </is>
+      </c>
       <c r="D673" t="inlineStr"/>
-      <c r="E673" t="inlineStr"/>
+      <c r="E673" t="inlineStr">
+        <is>
+          <t>€33.5B</t>
+        </is>
+      </c>
       <c r="F673" t="inlineStr"/>
       <c r="G673" t="inlineStr"/>
-      <c r="H673" t="inlineStr"/>
+      <c r="H673" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C674" t="inlineStr">
         <is>
-          <t>Net Long-term TIC FlowsNOV</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D674" t="inlineStr"/>
       <c r="E674" t="inlineStr">
         <is>
-          <t>$152.3B</t>
+          <t>€-3.93B</t>
         </is>
       </c>
       <c r="F674" t="inlineStr"/>
@@ -22426,58 +22818,806 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C675" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentNOV</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D675" t="inlineStr"/>
       <c r="E675" t="inlineStr">
         <is>
-          <t>$92.1B</t>
-        </is>
-      </c>
-      <c r="F675" t="inlineStr"/>
-      <c r="G675" t="inlineStr"/>
+          <t>2.2%</t>
+        </is>
+      </c>
+      <c r="F675" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="G675" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
       <c r="H675" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C676" t="inlineStr">
         <is>
-          <t>Overall Net Capital FlowsNOV</t>
+          <t>Core Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D676" t="inlineStr"/>
       <c r="E676" t="inlineStr">
         <is>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="F676" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="G676" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="H676" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C677" t="inlineStr">
+        <is>
+          <t>Inflation Rate MoM FinalDEC</t>
+        </is>
+      </c>
+      <c r="D677" t="inlineStr"/>
+      <c r="E677" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="F677" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G677" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="H677" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C678" t="inlineStr">
+        <is>
+          <t>CPI FinalDEC</t>
+        </is>
+      </c>
+      <c r="D678" t="inlineStr"/>
+      <c r="E678" t="inlineStr">
+        <is>
+          <t>126.62</t>
+        </is>
+      </c>
+      <c r="F678" t="inlineStr">
+        <is>
+          <t>127.08</t>
+        </is>
+      </c>
+      <c r="G678" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="H678" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="C679" t="inlineStr">
+        <is>
+          <t>Current AccountNOV</t>
+        </is>
+      </c>
+      <c r="D679" t="inlineStr"/>
+      <c r="E679" t="inlineStr">
+        <is>
+          <t>€5628M</t>
+        </is>
+      </c>
+      <c r="F679" t="inlineStr"/>
+      <c r="G679" t="inlineStr"/>
+      <c r="H679" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>05:00 PM</t>
+        </is>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="C680" t="inlineStr">
+        <is>
+          <t>Bank Loan Growth YoYJAN/03</t>
+        </is>
+      </c>
+      <c r="D680" t="inlineStr"/>
+      <c r="E680" t="inlineStr">
+        <is>
+          <t>11.5%</t>
+        </is>
+      </c>
+      <c r="F680" t="inlineStr"/>
+      <c r="G680" t="inlineStr"/>
+      <c r="H680" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>05:00 PM</t>
+        </is>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="C681" t="inlineStr">
+        <is>
+          <t>Deposit Growth YoYJAN/03</t>
+        </is>
+      </c>
+      <c r="D681" t="inlineStr"/>
+      <c r="E681" t="inlineStr">
+        <is>
+          <t>11.5%</t>
+        </is>
+      </c>
+      <c r="F681" t="inlineStr"/>
+      <c r="G681" t="inlineStr"/>
+      <c r="H681" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>05:00 PM</t>
+        </is>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="C682" t="inlineStr">
+        <is>
+          <t>Foreign Exchange ReservesJAN/10</t>
+        </is>
+      </c>
+      <c r="D682" t="inlineStr"/>
+      <c r="E682" t="inlineStr"/>
+      <c r="F682" t="inlineStr"/>
+      <c r="G682" t="inlineStr"/>
+      <c r="H682" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C683" t="inlineStr">
+        <is>
+          <t>Foreign Securities PurchasesNOV</t>
+        </is>
+      </c>
+      <c r="D683" t="inlineStr"/>
+      <c r="E683" t="inlineStr">
+        <is>
+          <t>C$21.55B</t>
+        </is>
+      </c>
+      <c r="F683" t="inlineStr"/>
+      <c r="G683" t="inlineStr"/>
+      <c r="H683" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C684" t="inlineStr">
+        <is>
+          <t>Foreign Securities Purchases by CanadiansNOV</t>
+        </is>
+      </c>
+      <c r="D684" t="inlineStr"/>
+      <c r="E684" t="inlineStr">
+        <is>
+          <t>C$-2.65B</t>
+        </is>
+      </c>
+      <c r="F684" t="inlineStr"/>
+      <c r="G684" t="inlineStr"/>
+      <c r="H684" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C685" t="inlineStr">
+        <is>
+          <t>Building Permits PrelDEC</t>
+        </is>
+      </c>
+      <c r="D685" t="inlineStr"/>
+      <c r="E685" t="inlineStr">
+        <is>
+          <t>1.493M</t>
+        </is>
+      </c>
+      <c r="F685" t="inlineStr"/>
+      <c r="G685" t="inlineStr">
+        <is>
+          <t>1.6M</t>
+        </is>
+      </c>
+      <c r="H685" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C686" t="inlineStr">
+        <is>
+          <t>Housing StartsDEC</t>
+        </is>
+      </c>
+      <c r="D686" t="inlineStr"/>
+      <c r="E686" t="inlineStr">
+        <is>
+          <t>1.289M</t>
+        </is>
+      </c>
+      <c r="F686" t="inlineStr"/>
+      <c r="G686" t="inlineStr">
+        <is>
+          <t>1.5M</t>
+        </is>
+      </c>
+      <c r="H686" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C687" t="inlineStr">
+        <is>
+          <t>Building Permits MoM PrelDEC</t>
+        </is>
+      </c>
+      <c r="D687" t="inlineStr"/>
+      <c r="E687" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
+      <c r="F687" t="inlineStr"/>
+      <c r="G687" t="inlineStr"/>
+      <c r="H687" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C688" t="inlineStr">
+        <is>
+          <t>Housing Starts MoMDEC</t>
+        </is>
+      </c>
+      <c r="D688" t="inlineStr"/>
+      <c r="E688" t="inlineStr">
+        <is>
+          <t>-1.8%</t>
+        </is>
+      </c>
+      <c r="F688" t="inlineStr"/>
+      <c r="G688" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="H688" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>07:45 PM</t>
+        </is>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C689" t="inlineStr">
+        <is>
+          <t>Industrial Production MoMDEC</t>
+        </is>
+      </c>
+      <c r="D689" t="inlineStr"/>
+      <c r="E689" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="F689" t="inlineStr"/>
+      <c r="G689" t="inlineStr"/>
+      <c r="H689" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>07:45 PM</t>
+        </is>
+      </c>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C690" t="inlineStr">
+        <is>
+          <t>Capacity UtilizationDEC</t>
+        </is>
+      </c>
+      <c r="D690" t="inlineStr"/>
+      <c r="E690" t="inlineStr">
+        <is>
+          <t>76.8%</t>
+        </is>
+      </c>
+      <c r="F690" t="inlineStr"/>
+      <c r="G690" t="inlineStr">
+        <is>
+          <t>77.8%</t>
+        </is>
+      </c>
+      <c r="H690" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>07:45 PM</t>
+        </is>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C691" t="inlineStr">
+        <is>
+          <t>Industrial Production YoYDEC</t>
+        </is>
+      </c>
+      <c r="D691" t="inlineStr"/>
+      <c r="E691" t="inlineStr">
+        <is>
+          <t>-0.9%</t>
+        </is>
+      </c>
+      <c r="F691" t="inlineStr"/>
+      <c r="G691" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
+      <c r="H691" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>07:45 PM</t>
+        </is>
+      </c>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C692" t="inlineStr">
+        <is>
+          <t>Manufacturing Production MoMDEC</t>
+        </is>
+      </c>
+      <c r="D692" t="inlineStr"/>
+      <c r="E692" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="F692" t="inlineStr"/>
+      <c r="G692" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="H692" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>07:45 PM</t>
+        </is>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C693" t="inlineStr">
+        <is>
+          <t>Manufacturing Production YoYDEC</t>
+        </is>
+      </c>
+      <c r="D693" t="inlineStr"/>
+      <c r="E693" t="inlineStr">
+        <is>
+          <t>-1%</t>
+        </is>
+      </c>
+      <c r="F693" t="inlineStr"/>
+      <c r="G693" t="inlineStr">
+        <is>
+          <t>-0.9%</t>
+        </is>
+      </c>
+      <c r="H693" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C694" t="inlineStr">
+        <is>
+          <t>Baker Hughes Oil Rig CountJAN/17</t>
+        </is>
+      </c>
+      <c r="D694" t="inlineStr"/>
+      <c r="E694" t="inlineStr"/>
+      <c r="F694" t="inlineStr"/>
+      <c r="G694" t="inlineStr"/>
+      <c r="H694" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C695" t="inlineStr">
+        <is>
+          <t>Baker Hughes Total Rigs CountJAN/17</t>
+        </is>
+      </c>
+      <c r="D695" t="inlineStr"/>
+      <c r="E695" t="inlineStr"/>
+      <c r="F695" t="inlineStr"/>
+      <c r="G695" t="inlineStr"/>
+      <c r="H695" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr"/>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>KR</t>
+        </is>
+      </c>
+      <c r="C696" t="inlineStr">
+        <is>
+          <t>50-Year KTB Auction</t>
+        </is>
+      </c>
+      <c r="D696" t="inlineStr"/>
+      <c r="E696" t="inlineStr">
+        <is>
+          <t>2.40%</t>
+        </is>
+      </c>
+      <c r="F696" t="inlineStr"/>
+      <c r="G696" t="inlineStr"/>
+      <c r="H696" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>Saturday January 18 2025</t>
+        </is>
+      </c>
+      <c r="B697" t="inlineStr"/>
+      <c r="C697" t="inlineStr"/>
+      <c r="D697" t="inlineStr"/>
+      <c r="E697" t="inlineStr"/>
+      <c r="F697" t="inlineStr"/>
+      <c r="G697" t="inlineStr"/>
+      <c r="H697" t="inlineStr"/>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>02:30 AM</t>
+        </is>
+      </c>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C698" t="inlineStr">
+        <is>
+          <t>Net Long-term TIC FlowsNOV</t>
+        </is>
+      </c>
+      <c r="D698" t="inlineStr"/>
+      <c r="E698" t="inlineStr">
+        <is>
+          <t>$152.3B</t>
+        </is>
+      </c>
+      <c r="F698" t="inlineStr"/>
+      <c r="G698" t="inlineStr"/>
+      <c r="H698" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>02:30 AM</t>
+        </is>
+      </c>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C699" t="inlineStr">
+        <is>
+          <t>Foreign Bond InvestmentNOV</t>
+        </is>
+      </c>
+      <c r="D699" t="inlineStr"/>
+      <c r="E699" t="inlineStr">
+        <is>
+          <t>$92.1B</t>
+        </is>
+      </c>
+      <c r="F699" t="inlineStr"/>
+      <c r="G699" t="inlineStr"/>
+      <c r="H699" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>02:30 AM</t>
+        </is>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C700" t="inlineStr">
+        <is>
+          <t>Overall Net Capital FlowsNOV</t>
+        </is>
+      </c>
+      <c r="D700" t="inlineStr"/>
+      <c r="E700" t="inlineStr">
+        <is>
           <t>$203.6B</t>
         </is>
       </c>
-      <c r="F676" t="inlineStr"/>
-      <c r="G676" t="inlineStr"/>
-      <c r="H676" t="inlineStr">
+      <c r="F700" t="inlineStr"/>
+      <c r="G700" t="inlineStr"/>
+      <c r="H700" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-18.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H700"/>
+  <dimension ref="A1:H676"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16005,10 +16005,8 @@
       </c>
       <c r="F456" t="inlineStr"/>
       <c r="G456" t="inlineStr"/>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H456" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="457">
@@ -16035,10 +16033,8 @@
       </c>
       <c r="F457" t="inlineStr"/>
       <c r="G457" t="inlineStr"/>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H457" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="458">
@@ -16065,10 +16061,8 @@
       </c>
       <c r="F458" t="inlineStr"/>
       <c r="G458" t="inlineStr"/>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H458" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="459">
@@ -16091,10 +16085,8 @@
       </c>
       <c r="F459" t="inlineStr"/>
       <c r="G459" t="inlineStr"/>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H459" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="460">
@@ -16117,10 +16109,8 @@
       </c>
       <c r="F460" t="inlineStr"/>
       <c r="G460" t="inlineStr"/>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H460" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="461">
@@ -16143,10 +16133,8 @@
       </c>
       <c r="F461" t="inlineStr"/>
       <c r="G461" t="inlineStr"/>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H461" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="462">
@@ -16173,10 +16161,8 @@
           <t>6.4%</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H462" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="463">
@@ -16199,10 +16185,8 @@
       </c>
       <c r="F463" t="inlineStr"/>
       <c r="G463" t="inlineStr"/>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H463" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="464">
@@ -16221,10 +16205,8 @@
       <c r="E464" t="inlineStr"/>
       <c r="F464" t="inlineStr"/>
       <c r="G464" t="inlineStr"/>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H464" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="465">
@@ -16265,10 +16247,8 @@
       </c>
       <c r="F466" t="inlineStr"/>
       <c r="G466" t="inlineStr"/>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H466" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="467">
@@ -16295,10 +16275,8 @@
       </c>
       <c r="F467" t="inlineStr"/>
       <c r="G467" t="inlineStr"/>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H467" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="468">
@@ -16325,10 +16303,8 @@
       </c>
       <c r="F468" t="inlineStr"/>
       <c r="G468" t="inlineStr"/>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H468" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="469">
@@ -16359,10 +16335,8 @@
           <t>¥1990.0B</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H469" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="470">
@@ -16393,10 +16367,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H470" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="471">
@@ -16423,10 +16395,8 @@
       </c>
       <c r="F471" t="inlineStr"/>
       <c r="G471" t="inlineStr"/>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H471" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="472">
@@ -16453,10 +16423,8 @@
       </c>
       <c r="F472" t="inlineStr"/>
       <c r="G472" t="inlineStr"/>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H472" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="473">
@@ -16483,10 +16451,8 @@
       </c>
       <c r="F473" t="inlineStr"/>
       <c r="G473" t="inlineStr"/>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H473" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="474">
@@ -16517,10 +16483,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H474" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="475">
@@ -16551,10 +16515,8 @@
           <t>49.6</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H475" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="476">
@@ -16581,10 +16543,8 @@
       </c>
       <c r="F476" t="inlineStr"/>
       <c r="G476" t="inlineStr"/>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H476" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="477">
@@ -16611,10 +16571,8 @@
       </c>
       <c r="F477" t="inlineStr"/>
       <c r="G477" t="inlineStr"/>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H477" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="478">
@@ -16645,10 +16603,8 @@
           <t>10.2%</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H478" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="479">
@@ -16679,10 +16635,8 @@
           <t>-3.2%</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H479" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="480">
@@ -16713,10 +16667,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H480" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="481">
@@ -16747,10 +16699,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H481" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="482">
@@ -16777,10 +16727,8 @@
       </c>
       <c r="F482" t="inlineStr"/>
       <c r="G482" t="inlineStr"/>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H482" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="483">
@@ -16807,10 +16755,8 @@
       </c>
       <c r="F483" t="inlineStr"/>
       <c r="G483" t="inlineStr"/>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H483" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="484">
@@ -16837,10 +16783,8 @@
       </c>
       <c r="F484" t="inlineStr"/>
       <c r="G484" t="inlineStr"/>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H484" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="485">
@@ -16867,10 +16811,8 @@
       </c>
       <c r="F485" t="inlineStr"/>
       <c r="G485" t="inlineStr"/>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H485" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="486">
@@ -16897,10 +16839,8 @@
       </c>
       <c r="F486" t="inlineStr"/>
       <c r="G486" t="inlineStr"/>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H486" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="487">
@@ -16927,10 +16867,8 @@
       </c>
       <c r="F487" t="inlineStr"/>
       <c r="G487" t="inlineStr"/>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H487" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="488">
@@ -16957,10 +16895,8 @@
       </c>
       <c r="F488" t="inlineStr"/>
       <c r="G488" t="inlineStr"/>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H488" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="489">
@@ -16991,10 +16927,8 @@
           <t>102</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H489" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="490">
@@ -17025,10 +16959,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H490" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="491">
@@ -17055,10 +16987,8 @@
       </c>
       <c r="F491" t="inlineStr"/>
       <c r="G491" t="inlineStr"/>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H491" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="492">
@@ -17089,10 +17019,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H492" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="493">
@@ -17123,10 +17051,8 @@
           <t>146.4</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H493" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="494">
@@ -17153,10 +17079,8 @@
       </c>
       <c r="F494" t="inlineStr"/>
       <c r="G494" t="inlineStr"/>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H494" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="495">
@@ -17183,10 +17107,8 @@
       </c>
       <c r="F495" t="inlineStr"/>
       <c r="G495" t="inlineStr"/>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H495" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="496">
@@ -17217,10 +17139,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H496" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="497">
@@ -17247,10 +17167,8 @@
       </c>
       <c r="F497" t="inlineStr"/>
       <c r="G497" t="inlineStr"/>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H497" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="498">
@@ -17277,10 +17195,8 @@
       </c>
       <c r="F498" t="inlineStr"/>
       <c r="G498" t="inlineStr"/>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H498" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="499">
@@ -17303,10 +17219,8 @@
       </c>
       <c r="F499" t="inlineStr"/>
       <c r="G499" t="inlineStr"/>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H499" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="500">
@@ -17351,10 +17265,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H501" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="502">
@@ -17385,10 +17297,8 @@
           <t>116.0%</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H502" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="503">
@@ -17419,10 +17329,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H503" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="504">
@@ -17453,10 +17361,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H504" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="505">
@@ -17483,10 +17389,8 @@
       </c>
       <c r="F505" t="inlineStr"/>
       <c r="G505" t="inlineStr"/>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H505" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="506">
@@ -17517,10 +17421,8 @@
           <t>$ 2.8B</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H506" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="507">
@@ -17547,10 +17449,8 @@
       </c>
       <c r="F507" t="inlineStr"/>
       <c r="G507" t="inlineStr"/>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H507" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="508">
@@ -17577,10 +17477,8 @@
       </c>
       <c r="F508" t="inlineStr"/>
       <c r="G508" t="inlineStr"/>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H508" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="509">
@@ -17607,10 +17505,8 @@
       </c>
       <c r="F509" t="inlineStr"/>
       <c r="G509" t="inlineStr"/>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H509" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="510">
@@ -17641,10 +17537,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H510" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="511">
@@ -17675,10 +17569,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H511" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="512">
@@ -17709,10 +17601,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H512" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="513">
@@ -17743,10 +17633,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H513" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="514">
@@ -17777,10 +17665,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H514" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="515">
@@ -17811,10 +17697,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H515" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="516">
@@ -17845,10 +17729,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H516" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="517">
@@ -17879,10 +17761,8 @@
           <t>2.1%</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H517" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="518">
@@ -17913,10 +17793,8 @@
           <t>-1.3%</t>
         </is>
       </c>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H518" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="519">
@@ -17947,10 +17825,8 @@
           <t>-1%</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H519" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="520">
@@ -17981,10 +17857,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H520" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="521">
@@ -18015,10 +17889,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H521" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="522">
@@ -18045,10 +17917,8 @@
       </c>
       <c r="F522" t="inlineStr"/>
       <c r="G522" t="inlineStr"/>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H522" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="523">
@@ -18079,10 +17949,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H523" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="524">
@@ -18113,10 +17981,8 @@
           <t>10%</t>
         </is>
       </c>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H524" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="525">
@@ -18143,10 +18009,8 @@
       </c>
       <c r="F525" t="inlineStr"/>
       <c r="G525" t="inlineStr"/>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H525" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="526">
@@ -18173,10 +18037,8 @@
       </c>
       <c r="F526" t="inlineStr"/>
       <c r="G526" t="inlineStr"/>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H526" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="527">
@@ -18203,10 +18065,8 @@
       </c>
       <c r="F527" t="inlineStr"/>
       <c r="G527" t="inlineStr"/>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H527" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="528">
@@ -18237,10 +18097,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H528" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="529">
@@ -18271,10 +18129,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H529" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="530">
@@ -18305,10 +18161,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H530" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="531">
@@ -18339,10 +18193,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H531" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="532">
@@ -18369,10 +18221,8 @@
       </c>
       <c r="F532" t="inlineStr"/>
       <c r="G532" t="inlineStr"/>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H532" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="533">
@@ -18407,10 +18257,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H533" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="534">
@@ -18445,10 +18293,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H534" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="535">
@@ -18483,10 +18329,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H535" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="536">
@@ -18517,10 +18361,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H536" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="537">
@@ -18551,10 +18393,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H537" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="538">
@@ -18581,10 +18421,8 @@
       </c>
       <c r="F538" t="inlineStr"/>
       <c r="G538" t="inlineStr"/>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H538" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="539">
@@ -18611,10 +18449,8 @@
       </c>
       <c r="F539" t="inlineStr"/>
       <c r="G539" t="inlineStr"/>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H539" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="540">
@@ -18641,10 +18477,8 @@
       </c>
       <c r="F540" t="inlineStr"/>
       <c r="G540" t="inlineStr"/>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H540" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="541">
@@ -18671,10 +18505,8 @@
       </c>
       <c r="F541" t="inlineStr"/>
       <c r="G541" t="inlineStr"/>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H541" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="542">
@@ -18701,10 +18533,8 @@
       </c>
       <c r="F542" t="inlineStr"/>
       <c r="G542" t="inlineStr"/>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H542" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="543">
@@ -18731,10 +18561,8 @@
       </c>
       <c r="F543" t="inlineStr"/>
       <c r="G543" t="inlineStr"/>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H543" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="544">
@@ -18761,10 +18589,8 @@
       </c>
       <c r="F544" t="inlineStr"/>
       <c r="G544" t="inlineStr"/>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H544" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="545">
@@ -18791,10 +18617,8 @@
       </c>
       <c r="F545" t="inlineStr"/>
       <c r="G545" t="inlineStr"/>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H545" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="546">
@@ -18821,10 +18645,8 @@
       </c>
       <c r="F546" t="inlineStr"/>
       <c r="G546" t="inlineStr"/>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H546" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="547">
@@ -18851,10 +18673,8 @@
       </c>
       <c r="F547" t="inlineStr"/>
       <c r="G547" t="inlineStr"/>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H547" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="548">
@@ -18881,10 +18701,8 @@
       </c>
       <c r="F548" t="inlineStr"/>
       <c r="G548" t="inlineStr"/>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H548" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="549">
@@ -18915,10 +18733,8 @@
           <t>$628.0B</t>
         </is>
       </c>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H549" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="550">
@@ -18953,10 +18769,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H550" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="551">
@@ -18983,10 +18797,8 @@
       </c>
       <c r="F551" t="inlineStr"/>
       <c r="G551" t="inlineStr"/>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H551" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="552">
@@ -19021,10 +18833,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H552" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="553">
@@ -19055,10 +18865,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H553" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="554">
@@ -19089,10 +18897,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H554" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="555">
@@ -19123,10 +18929,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H555" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="556">
@@ -19157,10 +18961,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H556" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="557">
@@ -19191,10 +18993,8 @@
           <t>313.8</t>
         </is>
       </c>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H557" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="558">
@@ -19225,10 +19025,8 @@
           <t>317.4</t>
         </is>
       </c>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H558" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="559">
@@ -19255,10 +19053,8 @@
       </c>
       <c r="F559" t="inlineStr"/>
       <c r="G559" t="inlineStr"/>
-      <c r="H559" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H559" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="560">
@@ -19285,10 +19081,8 @@
       </c>
       <c r="F560" t="inlineStr"/>
       <c r="G560" t="inlineStr"/>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H560" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="561">
@@ -19311,10 +19105,8 @@
       <c r="E561" t="inlineStr"/>
       <c r="F561" t="inlineStr"/>
       <c r="G561" t="inlineStr"/>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H561" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="562">
@@ -19337,10 +19129,8 @@
       <c r="E562" t="inlineStr"/>
       <c r="F562" t="inlineStr"/>
       <c r="G562" t="inlineStr"/>
-      <c r="H562" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H562" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="563">
@@ -19363,10 +19153,8 @@
       <c r="E563" t="inlineStr"/>
       <c r="F563" t="inlineStr"/>
       <c r="G563" t="inlineStr"/>
-      <c r="H563" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H563" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="564">
@@ -19393,10 +19181,8 @@
       </c>
       <c r="F564" t="inlineStr"/>
       <c r="G564" t="inlineStr"/>
-      <c r="H564" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H564" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="565">
@@ -19423,10 +19209,8 @@
       </c>
       <c r="F565" t="inlineStr"/>
       <c r="G565" t="inlineStr"/>
-      <c r="H565" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H565" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="566">
@@ -19453,10 +19237,8 @@
       </c>
       <c r="F566" t="inlineStr"/>
       <c r="G566" t="inlineStr"/>
-      <c r="H566" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H566" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="567">
@@ -19483,10 +19265,8 @@
       </c>
       <c r="F567" t="inlineStr"/>
       <c r="G567" t="inlineStr"/>
-      <c r="H567" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H567" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="568">
@@ -19513,10 +19293,8 @@
       </c>
       <c r="F568" t="inlineStr"/>
       <c r="G568" t="inlineStr"/>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H568" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="569">
@@ -19547,10 +19325,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H569" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H569" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="570">
@@ -19581,10 +19357,8 @@
           <t>9.5%</t>
         </is>
       </c>
-      <c r="H570" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H570" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="571">
@@ -19611,10 +19385,8 @@
       </c>
       <c r="F571" t="inlineStr"/>
       <c r="G571" t="inlineStr"/>
-      <c r="H571" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H571" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="572">
@@ -19645,10 +19417,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H572" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H572" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="573">
@@ -19675,10 +19445,8 @@
       </c>
       <c r="F573" t="inlineStr"/>
       <c r="G573" t="inlineStr"/>
-      <c r="H573" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H573" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="574">
@@ -19701,10 +19469,8 @@
       </c>
       <c r="F574" t="inlineStr"/>
       <c r="G574" t="inlineStr"/>
-      <c r="H574" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H574" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="575">
@@ -19731,10 +19497,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H575" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H575" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="576">
@@ -19761,10 +19525,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H576" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H576" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="577">
@@ -19791,10 +19553,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H577" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H577" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="578">
@@ -19817,10 +19577,8 @@
       </c>
       <c r="F578" t="inlineStr"/>
       <c r="G578" t="inlineStr"/>
-      <c r="H578" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H578" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="579">
@@ -19839,10 +19597,8 @@
       <c r="E579" t="inlineStr"/>
       <c r="F579" t="inlineStr"/>
       <c r="G579" t="inlineStr"/>
-      <c r="H579" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H579" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="580">
@@ -19869,10 +19625,8 @@
           <t>$ -23B</t>
         </is>
       </c>
-      <c r="H580" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H580" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="581">
@@ -19899,10 +19653,8 @@
           <t>$ 36B</t>
         </is>
       </c>
-      <c r="H581" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H581" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="582">
@@ -19929,10 +19681,8 @@
           <t>$ 59B</t>
         </is>
       </c>
-      <c r="H582" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H582" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="583">
@@ -19977,10 +19727,8 @@
           <t>3.30%</t>
         </is>
       </c>
-      <c r="H584" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H584" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="585">
@@ -20007,10 +19755,8 @@
       </c>
       <c r="F585" t="inlineStr"/>
       <c r="G585" t="inlineStr"/>
-      <c r="H585" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H585" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="586">
@@ -20041,10 +19787,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H586" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H586" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="587">
@@ -20075,10 +19819,8 @@
           <t>17.0%</t>
         </is>
       </c>
-      <c r="H587" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H587" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="588">
@@ -20109,10 +19851,8 @@
           <t>4.30%</t>
         </is>
       </c>
-      <c r="H588" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H588" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="589">
@@ -20143,10 +19883,8 @@
           <t>25.1K</t>
         </is>
       </c>
-      <c r="H589" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H589" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="590">
@@ -20173,10 +19911,8 @@
       </c>
       <c r="F590" t="inlineStr"/>
       <c r="G590" t="inlineStr"/>
-      <c r="H590" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H590" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="591">
@@ -20203,10 +19939,8 @@
       </c>
       <c r="F591" t="inlineStr"/>
       <c r="G591" t="inlineStr"/>
-      <c r="H591" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H591" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="592">
@@ -20237,10 +19971,8 @@
           <t>66.8%</t>
         </is>
       </c>
-      <c r="H592" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H592" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="593">
@@ -20267,10 +19999,8 @@
       </c>
       <c r="F593" t="inlineStr"/>
       <c r="G593" t="inlineStr"/>
-      <c r="H593" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H593" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="594">
@@ -20297,10 +20027,8 @@
       </c>
       <c r="F594" t="inlineStr"/>
       <c r="G594" t="inlineStr"/>
-      <c r="H594" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H594" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="595">
@@ -20327,10 +20055,8 @@
       </c>
       <c r="F595" t="inlineStr"/>
       <c r="G595" t="inlineStr"/>
-      <c r="H595" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H595" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="596">
@@ -20357,10 +20083,8 @@
       </c>
       <c r="F596" t="inlineStr"/>
       <c r="G596" t="inlineStr"/>
-      <c r="H596" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H596" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="597">
@@ -20395,10 +20119,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H597" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H597" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="598">
@@ -20429,10 +20151,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H598" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H598" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="599">
@@ -20467,10 +20187,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H599" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H599" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="600">
@@ -20505,10 +20223,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H600" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H600" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="601">
@@ -20539,10 +20255,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H601" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H601" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="602">
@@ -20573,10 +20287,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H602" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H602" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="603">
@@ -20607,10 +20319,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H603" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H603" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="604">
@@ -20637,10 +20347,8 @@
       </c>
       <c r="F604" t="inlineStr"/>
       <c r="G604" t="inlineStr"/>
-      <c r="H604" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H604" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="605">
@@ -20667,10 +20375,8 @@
       </c>
       <c r="F605" t="inlineStr"/>
       <c r="G605" t="inlineStr"/>
-      <c r="H605" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H605" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="606">
@@ -20697,10 +20403,8 @@
       </c>
       <c r="F606" t="inlineStr"/>
       <c r="G606" t="inlineStr"/>
-      <c r="H606" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H606" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="607">
@@ -20727,10 +20431,8 @@
       </c>
       <c r="F607" t="inlineStr"/>
       <c r="G607" t="inlineStr"/>
-      <c r="H607" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H607" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="608">
@@ -20757,10 +20459,8 @@
       </c>
       <c r="F608" t="inlineStr"/>
       <c r="G608" t="inlineStr"/>
-      <c r="H608" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H608" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="609">
@@ -20791,10 +20491,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H609" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H609" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="610">
@@ -20821,10 +20519,8 @@
       </c>
       <c r="F610" t="inlineStr"/>
       <c r="G610" t="inlineStr"/>
-      <c r="H610" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H610" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="611">
@@ -20851,10 +20547,8 @@
       </c>
       <c r="F611" t="inlineStr"/>
       <c r="G611" t="inlineStr"/>
-      <c r="H611" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H611" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="612">
@@ -20881,10 +20575,8 @@
       </c>
       <c r="F612" t="inlineStr"/>
       <c r="G612" t="inlineStr"/>
-      <c r="H612" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H612" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="613">
@@ -20919,10 +20611,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H613" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H613" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="614">
@@ -20957,10 +20647,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H614" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H614" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="615">
@@ -20995,10 +20683,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H615" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H615" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="616">
@@ -21033,10 +20719,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H616" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H616" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="617">
@@ -21059,10 +20743,8 @@
       <c r="E617" t="inlineStr"/>
       <c r="F617" t="inlineStr"/>
       <c r="G617" t="inlineStr"/>
-      <c r="H617" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H617" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="618">
@@ -21085,10 +20767,8 @@
       <c r="E618" t="inlineStr"/>
       <c r="F618" t="inlineStr"/>
       <c r="G618" t="inlineStr"/>
-      <c r="H618" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H618" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="619">
@@ -21111,10 +20791,8 @@
       <c r="E619" t="inlineStr"/>
       <c r="F619" t="inlineStr"/>
       <c r="G619" t="inlineStr"/>
-      <c r="H619" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H619" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="620">
@@ -21141,10 +20819,8 @@
       </c>
       <c r="F620" t="inlineStr"/>
       <c r="G620" t="inlineStr"/>
-      <c r="H620" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H620" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="621">
@@ -21167,10 +20843,8 @@
       <c r="E621" t="inlineStr"/>
       <c r="F621" t="inlineStr"/>
       <c r="G621" t="inlineStr"/>
-      <c r="H621" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H621" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="622">
@@ -21197,10 +20871,8 @@
       </c>
       <c r="F622" t="inlineStr"/>
       <c r="G622" t="inlineStr"/>
-      <c r="H622" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H622" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="623">
@@ -21231,10 +20903,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H623" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H623" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="624">
@@ -21265,10 +20935,8 @@
           <t>220K</t>
         </is>
       </c>
-      <c r="H624" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H624" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="625">
@@ -21299,10 +20967,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H625" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H625" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="626">
@@ -21333,10 +20999,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H626" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H626" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="627">
@@ -21363,10 +21027,8 @@
       </c>
       <c r="F627" t="inlineStr"/>
       <c r="G627" t="inlineStr"/>
-      <c r="H627" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H627" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="628">
@@ -21397,10 +21059,8 @@
           <t>209.0K</t>
         </is>
       </c>
-      <c r="H628" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H628" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="629">
@@ -21427,10 +21087,8 @@
       </c>
       <c r="F629" t="inlineStr"/>
       <c r="G629" t="inlineStr"/>
-      <c r="H629" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H629" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="630">
@@ -21461,10 +21119,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H630" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H630" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="631">
@@ -21495,10 +21151,8 @@
           <t>1870.0K</t>
         </is>
       </c>
-      <c r="H631" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H631" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="632">
@@ -21525,10 +21179,8 @@
       </c>
       <c r="F632" t="inlineStr"/>
       <c r="G632" t="inlineStr"/>
-      <c r="H632" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H632" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="633">
@@ -21559,10 +21211,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H633" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H633" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="634">
@@ -21593,10 +21243,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="H634" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H634" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="635">
@@ -21623,10 +21271,8 @@
       </c>
       <c r="F635" t="inlineStr"/>
       <c r="G635" t="inlineStr"/>
-      <c r="H635" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H635" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="636">
@@ -21653,10 +21299,8 @@
       </c>
       <c r="F636" t="inlineStr"/>
       <c r="G636" t="inlineStr"/>
-      <c r="H636" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H636" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="637">
@@ -21683,10 +21327,8 @@
       </c>
       <c r="F637" t="inlineStr"/>
       <c r="G637" t="inlineStr"/>
-      <c r="H637" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H637" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="638">
@@ -21713,10 +21355,8 @@
       </c>
       <c r="F638" t="inlineStr"/>
       <c r="G638" t="inlineStr"/>
-      <c r="H638" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H638" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="639">
@@ -21743,10 +21383,8 @@
       </c>
       <c r="F639" t="inlineStr"/>
       <c r="G639" t="inlineStr"/>
-      <c r="H639" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H639" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="640">
@@ -21777,10 +21415,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H640" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H640" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="641">
@@ -21811,10 +21447,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H641" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H641" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="642">
@@ -21841,10 +21475,8 @@
       </c>
       <c r="F642" t="inlineStr"/>
       <c r="G642" t="inlineStr"/>
-      <c r="H642" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H642" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="643">
@@ -21871,10 +21503,8 @@
       </c>
       <c r="F643" t="inlineStr"/>
       <c r="G643" t="inlineStr"/>
-      <c r="H643" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H643" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="644">
@@ -21901,10 +21531,8 @@
       </c>
       <c r="F644" t="inlineStr"/>
       <c r="G644" t="inlineStr"/>
-      <c r="H644" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H644" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="645">
@@ -21931,10 +21559,8 @@
       </c>
       <c r="F645" t="inlineStr"/>
       <c r="G645" t="inlineStr"/>
-      <c r="H645" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H645" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="646">
@@ -21957,10 +21583,8 @@
       <c r="E646" t="inlineStr"/>
       <c r="F646" t="inlineStr"/>
       <c r="G646" t="inlineStr"/>
-      <c r="H646" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H646" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="647">
@@ -21983,10 +21607,8 @@
       <c r="E647" t="inlineStr"/>
       <c r="F647" t="inlineStr"/>
       <c r="G647" t="inlineStr"/>
-      <c r="H647" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H647" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="648">
@@ -22009,10 +21631,8 @@
       <c r="E648" t="inlineStr"/>
       <c r="F648" t="inlineStr"/>
       <c r="G648" t="inlineStr"/>
-      <c r="H648" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H648" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="649">
@@ -22035,78 +21655,108 @@
       <c r="E649" t="inlineStr"/>
       <c r="F649" t="inlineStr"/>
       <c r="G649" t="inlineStr"/>
-      <c r="H649" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H649" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>Friday January 17 2025</t>
-        </is>
-      </c>
-      <c r="B650" t="inlineStr"/>
-      <c r="C650" t="inlineStr"/>
+          <t>02:30 PM</t>
+        </is>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="C650" t="inlineStr">
+        <is>
+          <t>Balance of TradeNOV</t>
+        </is>
+      </c>
       <c r="D650" t="inlineStr"/>
-      <c r="E650" t="inlineStr"/>
+      <c r="E650" t="inlineStr">
+        <is>
+          <t>€-3.93B</t>
+        </is>
+      </c>
       <c r="F650" t="inlineStr"/>
       <c r="G650" t="inlineStr"/>
-      <c r="H650" t="inlineStr"/>
+      <c r="H650" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C651" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/15</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D651" t="inlineStr"/>
-      <c r="E651" t="inlineStr"/>
-      <c r="F651" t="inlineStr"/>
-      <c r="G651" t="inlineStr"/>
+      <c r="E651" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
+      <c r="F651" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="G651" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
       <c r="H651" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C652" t="inlineStr">
         <is>
-          <t>Reuters Tankan IndexJAN</t>
+          <t>Core Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D652" t="inlineStr"/>
       <c r="E652" t="inlineStr">
         <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="F652" t="inlineStr"/>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="F652" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="G652" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="H652" t="inlineStr">
@@ -22118,23 +21768,35 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C653" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/11</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D653" t="inlineStr"/>
-      <c r="E653" t="inlineStr"/>
-      <c r="F653" t="inlineStr"/>
-      <c r="G653" t="inlineStr"/>
+      <c r="E653" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="F653" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G653" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H653" t="inlineStr">
         <is>
           <t>3</t>
@@ -22144,23 +21806,35 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C654" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersJAN/11</t>
+          <t>CPI FinalDEC</t>
         </is>
       </c>
       <c r="D654" t="inlineStr"/>
-      <c r="E654" t="inlineStr"/>
-      <c r="F654" t="inlineStr"/>
-      <c r="G654" t="inlineStr"/>
+      <c r="E654" t="inlineStr">
+        <is>
+          <t>126.62</t>
+        </is>
+      </c>
+      <c r="F654" t="inlineStr">
+        <is>
+          <t>127.08</t>
+        </is>
+      </c>
+      <c r="G654" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
       <c r="H654" t="inlineStr">
         <is>
           <t>3</t>
@@ -22170,31 +21844,27 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C655" t="inlineStr">
         <is>
-          <t>Non-Oil Exports MoMDEC</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D655" t="inlineStr"/>
       <c r="E655" t="inlineStr">
         <is>
-          <t>14.7%</t>
+          <t>€5628M</t>
         </is>
       </c>
       <c r="F655" t="inlineStr"/>
-      <c r="G655" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
+      <c r="G655" t="inlineStr"/>
       <c r="H655" t="inlineStr">
         <is>
           <t>3</t>
@@ -22204,31 +21874,27 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C656" t="inlineStr">
         <is>
-          <t>Non-Oil Exports YoYDEC</t>
+          <t>Bank Loan Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D656" t="inlineStr"/>
       <c r="E656" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>11.5%</t>
         </is>
       </c>
       <c r="F656" t="inlineStr"/>
-      <c r="G656" t="inlineStr">
-        <is>
-          <t>7.5%</t>
-        </is>
-      </c>
+      <c r="G656" t="inlineStr"/>
       <c r="H656" t="inlineStr">
         <is>
           <t>3</t>
@@ -22238,23 +21904,23 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C657" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsJAN</t>
+          <t>Deposit Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D657" t="inlineStr"/>
       <c r="E657" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>11.5%</t>
         </is>
       </c>
       <c r="F657" t="inlineStr"/>
@@ -22268,65 +21934,53 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C658" t="inlineStr">
         <is>
-          <t>House Price Index YoYDEC</t>
+          <t>Foreign Exchange ReservesJAN/10</t>
         </is>
       </c>
       <c r="D658" t="inlineStr"/>
-      <c r="E658" t="inlineStr">
-        <is>
-          <t>-5.7%</t>
-        </is>
-      </c>
+      <c r="E658" t="inlineStr"/>
       <c r="F658" t="inlineStr"/>
-      <c r="G658" t="inlineStr">
-        <is>
-          <t>-5.8%</t>
-        </is>
-      </c>
+      <c r="G658" t="inlineStr"/>
       <c r="H658" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C659" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Foreign Securities PurchasesNOV</t>
         </is>
       </c>
       <c r="D659" t="inlineStr"/>
       <c r="E659" t="inlineStr">
         <is>
-          <t>$6.52B</t>
+          <t>C$21.55B</t>
         </is>
       </c>
       <c r="F659" t="inlineStr"/>
-      <c r="G659" t="inlineStr">
-        <is>
-          <t>$ 3.6B</t>
-        </is>
-      </c>
+      <c r="G659" t="inlineStr"/>
       <c r="H659" t="inlineStr">
         <is>
           <t>3</t>
@@ -22336,63 +21990,59 @@
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C660" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoYQ4</t>
+          <t>Foreign Securities Purchases by CanadiansNOV</t>
         </is>
       </c>
       <c r="D660" t="inlineStr"/>
       <c r="E660" t="inlineStr">
         <is>
-          <t>4.6%</t>
+          <t>C$-2.65B</t>
         </is>
       </c>
       <c r="F660" t="inlineStr"/>
-      <c r="G660" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
+      <c r="G660" t="inlineStr"/>
       <c r="H660" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C661" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Building Permits PrelDEC</t>
         </is>
       </c>
       <c r="D661" t="inlineStr"/>
       <c r="E661" t="inlineStr">
         <is>
-          <t>5.4%</t>
+          <t>1.493M</t>
         </is>
       </c>
       <c r="F661" t="inlineStr"/>
       <c r="G661" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>1.6M</t>
         </is>
       </c>
       <c r="H661" t="inlineStr">
@@ -22404,29 +22054,29 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C662" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Housing StartsDEC</t>
         </is>
       </c>
       <c r="D662" t="inlineStr"/>
       <c r="E662" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>1.289M</t>
         </is>
       </c>
       <c r="F662" t="inlineStr"/>
       <c r="G662" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>1.5M</t>
         </is>
       </c>
       <c r="H662" t="inlineStr">
@@ -22438,31 +22088,27 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C663" t="inlineStr">
         <is>
-          <t>Fixed Asset Investment (YTD) YoYDEC</t>
+          <t>Building Permits MoM PrelDEC</t>
         </is>
       </c>
       <c r="D663" t="inlineStr"/>
       <c r="E663" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F663" t="inlineStr"/>
-      <c r="G663" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
+      <c r="G663" t="inlineStr"/>
       <c r="H663" t="inlineStr">
         <is>
           <t>2</t>
@@ -22472,29 +22118,29 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C664" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQQ4</t>
+          <t>Housing Starts MoMDEC</t>
         </is>
       </c>
       <c r="D664" t="inlineStr"/>
       <c r="E664" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>-1.8%</t>
         </is>
       </c>
       <c r="F664" t="inlineStr"/>
       <c r="G664" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="H664" t="inlineStr">
@@ -22506,63 +22152,59 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C665" t="inlineStr">
         <is>
-          <t>Industrial Capacity UtilizationQ4</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D665" t="inlineStr"/>
       <c r="E665" t="inlineStr">
         <is>
-          <t>75.1%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F665" t="inlineStr"/>
-      <c r="G665" t="inlineStr">
-        <is>
-          <t>74.9%</t>
-        </is>
-      </c>
+      <c r="G665" t="inlineStr"/>
       <c r="H665" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C666" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Capacity UtilizationDEC</t>
         </is>
       </c>
       <c r="D666" t="inlineStr"/>
       <c r="E666" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>76.8%</t>
         </is>
       </c>
       <c r="F666" t="inlineStr"/>
       <c r="G666" t="inlineStr">
         <is>
-          <t>5.00%</t>
+          <t>77.8%</t>
         </is>
       </c>
       <c r="H666" t="inlineStr">
@@ -22574,23 +22216,31 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C667" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D667" t="inlineStr"/>
-      <c r="E667" t="inlineStr"/>
+      <c r="E667" t="inlineStr">
+        <is>
+          <t>-0.9%</t>
+        </is>
+      </c>
       <c r="F667" t="inlineStr"/>
-      <c r="G667" t="inlineStr"/>
+      <c r="G667" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="H667" t="inlineStr">
         <is>
           <t>3</t>
@@ -22600,17 +22250,17 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C668" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Manufacturing Production MoMDEC</t>
         </is>
       </c>
       <c r="D668" t="inlineStr"/>
@@ -22622,71 +22272,67 @@
       <c r="F668" t="inlineStr"/>
       <c r="G668" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H668" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C669" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Manufacturing Production YoYDEC</t>
         </is>
       </c>
       <c r="D669" t="inlineStr"/>
       <c r="E669" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-1%</t>
         </is>
       </c>
       <c r="F669" t="inlineStr"/>
       <c r="G669" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="H669" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C670" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel MoMDEC</t>
+          <t>Baker Hughes Oil Rig CountJAN/17</t>
         </is>
       </c>
       <c r="D670" t="inlineStr"/>
-      <c r="E670" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="E670" t="inlineStr"/>
       <c r="F670" t="inlineStr"/>
       <c r="G670" t="inlineStr"/>
       <c r="H670" t="inlineStr">
@@ -22698,25 +22344,21 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C671" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel YoYDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/17</t>
         </is>
       </c>
       <c r="D671" t="inlineStr"/>
-      <c r="E671" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E671" t="inlineStr"/>
       <c r="F671" t="inlineStr"/>
       <c r="G671" t="inlineStr"/>
       <c r="H671" t="inlineStr">
@@ -22726,25 +22368,21 @@
       </c>
     </row>
     <row r="672">
-      <c r="A672" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
+      <c r="A672" t="inlineStr"/>
       <c r="B672" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C672" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>50-Year KTB Auction</t>
         </is>
       </c>
       <c r="D672" t="inlineStr"/>
       <c r="E672" t="inlineStr">
         <is>
-          <t>€32B</t>
+          <t>2.40%</t>
         </is>
       </c>
       <c r="F672" t="inlineStr"/>
@@ -22758,53 +22396,37 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
-      <c r="B673" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C673" t="inlineStr">
-        <is>
-          <t>Current Account s.aNOV</t>
-        </is>
-      </c>
+          <t>Saturday January 18 2025</t>
+        </is>
+      </c>
+      <c r="B673" t="inlineStr"/>
+      <c r="C673" t="inlineStr"/>
       <c r="D673" t="inlineStr"/>
-      <c r="E673" t="inlineStr">
-        <is>
-          <t>€33.5B</t>
-        </is>
-      </c>
+      <c r="E673" t="inlineStr"/>
       <c r="F673" t="inlineStr"/>
       <c r="G673" t="inlineStr"/>
-      <c r="H673" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H673" t="inlineStr"/>
     </row>
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C674" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Net Long-term TIC FlowsNOV</t>
         </is>
       </c>
       <c r="D674" t="inlineStr"/>
       <c r="E674" t="inlineStr">
         <is>
-          <t>€-3.93B</t>
+          <t>$152.3B</t>
         </is>
       </c>
       <c r="F674" t="inlineStr"/>
@@ -22818,806 +22440,58 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C675" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Foreign Bond InvestmentNOV</t>
         </is>
       </c>
       <c r="D675" t="inlineStr"/>
       <c r="E675" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F675" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="G675" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+          <t>$92.1B</t>
+        </is>
+      </c>
+      <c r="F675" t="inlineStr"/>
+      <c r="G675" t="inlineStr"/>
       <c r="H675" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C676" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FinalDEC</t>
+          <t>Overall Net Capital FlowsNOV</t>
         </is>
       </c>
       <c r="D676" t="inlineStr"/>
       <c r="E676" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F676" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="G676" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+          <t>$203.6B</t>
+        </is>
+      </c>
+      <c r="F676" t="inlineStr"/>
+      <c r="G676" t="inlineStr"/>
       <c r="H676" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="677">
-      <c r="A677" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B677" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C677" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoM FinalDEC</t>
-        </is>
-      </c>
-      <c r="D677" t="inlineStr"/>
-      <c r="E677" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F677" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G677" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H677" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="678">
-      <c r="A678" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B678" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C678" t="inlineStr">
-        <is>
-          <t>CPI FinalDEC</t>
-        </is>
-      </c>
-      <c r="D678" t="inlineStr"/>
-      <c r="E678" t="inlineStr">
-        <is>
-          <t>126.62</t>
-        </is>
-      </c>
-      <c r="F678" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
-      <c r="G678" t="inlineStr">
-        <is>
-          <t>127</t>
-        </is>
-      </c>
-      <c r="H678" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="679">
-      <c r="A679" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B679" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C679" t="inlineStr">
-        <is>
-          <t>Current AccountNOV</t>
-        </is>
-      </c>
-      <c r="D679" t="inlineStr"/>
-      <c r="E679" t="inlineStr">
-        <is>
-          <t>€5628M</t>
-        </is>
-      </c>
-      <c r="F679" t="inlineStr"/>
-      <c r="G679" t="inlineStr"/>
-      <c r="H679" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="680">
-      <c r="A680" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
-      <c r="B680" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C680" t="inlineStr">
-        <is>
-          <t>Bank Loan Growth YoYJAN/03</t>
-        </is>
-      </c>
-      <c r="D680" t="inlineStr"/>
-      <c r="E680" t="inlineStr">
-        <is>
-          <t>11.5%</t>
-        </is>
-      </c>
-      <c r="F680" t="inlineStr"/>
-      <c r="G680" t="inlineStr"/>
-      <c r="H680" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="681">
-      <c r="A681" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
-      <c r="B681" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C681" t="inlineStr">
-        <is>
-          <t>Deposit Growth YoYJAN/03</t>
-        </is>
-      </c>
-      <c r="D681" t="inlineStr"/>
-      <c r="E681" t="inlineStr">
-        <is>
-          <t>11.5%</t>
-        </is>
-      </c>
-      <c r="F681" t="inlineStr"/>
-      <c r="G681" t="inlineStr"/>
-      <c r="H681" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="682">
-      <c r="A682" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
-      <c r="B682" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C682" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN/10</t>
-        </is>
-      </c>
-      <c r="D682" t="inlineStr"/>
-      <c r="E682" t="inlineStr"/>
-      <c r="F682" t="inlineStr"/>
-      <c r="G682" t="inlineStr"/>
-      <c r="H682" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="683">
-      <c r="A683" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B683" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C683" t="inlineStr">
-        <is>
-          <t>Foreign Securities PurchasesNOV</t>
-        </is>
-      </c>
-      <c r="D683" t="inlineStr"/>
-      <c r="E683" t="inlineStr">
-        <is>
-          <t>C$21.55B</t>
-        </is>
-      </c>
-      <c r="F683" t="inlineStr"/>
-      <c r="G683" t="inlineStr"/>
-      <c r="H683" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="684">
-      <c r="A684" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B684" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C684" t="inlineStr">
-        <is>
-          <t>Foreign Securities Purchases by CanadiansNOV</t>
-        </is>
-      </c>
-      <c r="D684" t="inlineStr"/>
-      <c r="E684" t="inlineStr">
-        <is>
-          <t>C$-2.65B</t>
-        </is>
-      </c>
-      <c r="F684" t="inlineStr"/>
-      <c r="G684" t="inlineStr"/>
-      <c r="H684" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="685">
-      <c r="A685" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B685" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C685" t="inlineStr">
-        <is>
-          <t>Building Permits PrelDEC</t>
-        </is>
-      </c>
-      <c r="D685" t="inlineStr"/>
-      <c r="E685" t="inlineStr">
-        <is>
-          <t>1.493M</t>
-        </is>
-      </c>
-      <c r="F685" t="inlineStr"/>
-      <c r="G685" t="inlineStr">
-        <is>
-          <t>1.6M</t>
-        </is>
-      </c>
-      <c r="H685" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="686">
-      <c r="A686" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B686" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C686" t="inlineStr">
-        <is>
-          <t>Housing StartsDEC</t>
-        </is>
-      </c>
-      <c r="D686" t="inlineStr"/>
-      <c r="E686" t="inlineStr">
-        <is>
-          <t>1.289M</t>
-        </is>
-      </c>
-      <c r="F686" t="inlineStr"/>
-      <c r="G686" t="inlineStr">
-        <is>
-          <t>1.5M</t>
-        </is>
-      </c>
-      <c r="H686" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="687">
-      <c r="A687" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B687" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C687" t="inlineStr">
-        <is>
-          <t>Building Permits MoM PrelDEC</t>
-        </is>
-      </c>
-      <c r="D687" t="inlineStr"/>
-      <c r="E687" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F687" t="inlineStr"/>
-      <c r="G687" t="inlineStr"/>
-      <c r="H687" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="688">
-      <c r="A688" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B688" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C688" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMDEC</t>
-        </is>
-      </c>
-      <c r="D688" t="inlineStr"/>
-      <c r="E688" t="inlineStr">
-        <is>
-          <t>-1.8%</t>
-        </is>
-      </c>
-      <c r="F688" t="inlineStr"/>
-      <c r="G688" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="H688" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="689">
-      <c r="A689" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B689" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C689" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMDEC</t>
-        </is>
-      </c>
-      <c r="D689" t="inlineStr"/>
-      <c r="E689" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F689" t="inlineStr"/>
-      <c r="G689" t="inlineStr"/>
-      <c r="H689" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="690">
-      <c r="A690" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B690" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C690" t="inlineStr">
-        <is>
-          <t>Capacity UtilizationDEC</t>
-        </is>
-      </c>
-      <c r="D690" t="inlineStr"/>
-      <c r="E690" t="inlineStr">
-        <is>
-          <t>76.8%</t>
-        </is>
-      </c>
-      <c r="F690" t="inlineStr"/>
-      <c r="G690" t="inlineStr">
-        <is>
-          <t>77.8%</t>
-        </is>
-      </c>
-      <c r="H690" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="691">
-      <c r="A691" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B691" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C691" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D691" t="inlineStr"/>
-      <c r="E691" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="F691" t="inlineStr"/>
-      <c r="G691" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="H691" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="692">
-      <c r="A692" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B692" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C692" t="inlineStr">
-        <is>
-          <t>Manufacturing Production MoMDEC</t>
-        </is>
-      </c>
-      <c r="D692" t="inlineStr"/>
-      <c r="E692" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F692" t="inlineStr"/>
-      <c r="G692" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H692" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="693">
-      <c r="A693" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B693" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C693" t="inlineStr">
-        <is>
-          <t>Manufacturing Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D693" t="inlineStr"/>
-      <c r="E693" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
-      <c r="F693" t="inlineStr"/>
-      <c r="G693" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="H693" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="694">
-      <c r="A694" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B694" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C694" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJAN/17</t>
-        </is>
-      </c>
-      <c r="D694" t="inlineStr"/>
-      <c r="E694" t="inlineStr"/>
-      <c r="F694" t="inlineStr"/>
-      <c r="G694" t="inlineStr"/>
-      <c r="H694" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="695">
-      <c r="A695" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B695" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C695" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJAN/17</t>
-        </is>
-      </c>
-      <c r="D695" t="inlineStr"/>
-      <c r="E695" t="inlineStr"/>
-      <c r="F695" t="inlineStr"/>
-      <c r="G695" t="inlineStr"/>
-      <c r="H695" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="696">
-      <c r="A696" t="inlineStr"/>
-      <c r="B696" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C696" t="inlineStr">
-        <is>
-          <t>50-Year KTB Auction</t>
-        </is>
-      </c>
-      <c r="D696" t="inlineStr"/>
-      <c r="E696" t="inlineStr">
-        <is>
-          <t>2.40%</t>
-        </is>
-      </c>
-      <c r="F696" t="inlineStr"/>
-      <c r="G696" t="inlineStr"/>
-      <c r="H696" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="697">
-      <c r="A697" t="inlineStr">
-        <is>
-          <t>Saturday January 18 2025</t>
-        </is>
-      </c>
-      <c r="B697" t="inlineStr"/>
-      <c r="C697" t="inlineStr"/>
-      <c r="D697" t="inlineStr"/>
-      <c r="E697" t="inlineStr"/>
-      <c r="F697" t="inlineStr"/>
-      <c r="G697" t="inlineStr"/>
-      <c r="H697" t="inlineStr"/>
-    </row>
-    <row r="698">
-      <c r="A698" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B698" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C698" t="inlineStr">
-        <is>
-          <t>Net Long-term TIC FlowsNOV</t>
-        </is>
-      </c>
-      <c r="D698" t="inlineStr"/>
-      <c r="E698" t="inlineStr">
-        <is>
-          <t>$152.3B</t>
-        </is>
-      </c>
-      <c r="F698" t="inlineStr"/>
-      <c r="G698" t="inlineStr"/>
-      <c r="H698" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="699">
-      <c r="A699" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B699" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C699" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentNOV</t>
-        </is>
-      </c>
-      <c r="D699" t="inlineStr"/>
-      <c r="E699" t="inlineStr">
-        <is>
-          <t>$92.1B</t>
-        </is>
-      </c>
-      <c r="F699" t="inlineStr"/>
-      <c r="G699" t="inlineStr"/>
-      <c r="H699" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="700">
-      <c r="A700" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B700" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C700" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsNOV</t>
-        </is>
-      </c>
-      <c r="D700" t="inlineStr"/>
-      <c r="E700" t="inlineStr">
-        <is>
-          <t>$203.6B</t>
-        </is>
-      </c>
-      <c r="F700" t="inlineStr"/>
-      <c r="G700" t="inlineStr"/>
-      <c r="H700" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-18.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H727"/>
+  <dimension ref="A1:H704"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14889,10 +14889,8 @@
       </c>
       <c r="F418" t="inlineStr"/>
       <c r="G418" t="inlineStr"/>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H418" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="419">
@@ -14919,10 +14917,8 @@
       </c>
       <c r="F419" t="inlineStr"/>
       <c r="G419" t="inlineStr"/>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H419" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="420">
@@ -14949,10 +14945,8 @@
       </c>
       <c r="F420" t="inlineStr"/>
       <c r="G420" t="inlineStr"/>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H420" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="421">
@@ -14983,10 +14977,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H421" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="422">
@@ -15017,10 +15009,8 @@
           <t>4.9%</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H422" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="423">
@@ -15055,10 +15045,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H423" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="424">
@@ -15093,10 +15081,8 @@
           <t>-1.4%</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H424" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="425">
@@ -15127,10 +15113,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H425" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="426">
@@ -15161,10 +15145,8 @@
           <t>-2.5%</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H426" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="427">
@@ -15199,10 +15181,8 @@
           <t>6.8%</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H427" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="428">
@@ -15237,10 +15217,8 @@
           <t>11.0K</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H428" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="429">
@@ -15271,10 +15249,8 @@
           <t>10K</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H429" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="430">
@@ -15305,10 +15281,8 @@
           <t>1K</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H430" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="431">
@@ -15339,10 +15313,8 @@
           <t>65%</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H431" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="432">
@@ -15373,10 +15345,8 @@
           <t>3.9%</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H432" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="433">
@@ -15411,10 +15381,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H433" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="434">
@@ -15449,10 +15417,8 @@
           <t>200K</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H434" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="435">
@@ -15487,10 +15453,8 @@
           <t>4.30%</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H435" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="436">
@@ -15525,10 +15489,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H436" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="437">
@@ -15563,10 +15525,8 @@
           <t>4%</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H437" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="438">
@@ -15597,10 +15557,8 @@
           <t>62.8%</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H438" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="439">
@@ -15635,10 +15593,8 @@
           <t>34.3</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H439" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="440">
@@ -15669,10 +15625,8 @@
           <t>15K</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H440" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="441">
@@ -15707,10 +15661,8 @@
           <t>29K</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H441" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="442">
@@ -15745,10 +15697,8 @@
           <t>185K</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H442" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="443">
@@ -15779,10 +15729,8 @@
           <t>7.9%</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H443" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="444">
@@ -15813,10 +15761,8 @@
           <t>€22.5B</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H444" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="445">
@@ -15851,10 +15797,8 @@
           <t>75</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H445" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="446">
@@ -15885,10 +15829,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H446" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="447">
@@ -15919,10 +15861,8 @@
           <t>74</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H447" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="448">
@@ -15953,10 +15893,8 @@
           <t>78</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H448" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="449">
@@ -15987,10 +15925,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H449" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="450">
@@ -16013,10 +15949,8 @@
       <c r="E450" t="inlineStr"/>
       <c r="F450" t="inlineStr"/>
       <c r="G450" t="inlineStr"/>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H450" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="451">
@@ -16043,10 +15977,8 @@
       </c>
       <c r="F451" t="inlineStr"/>
       <c r="G451" t="inlineStr"/>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H451" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="452">
@@ -16073,10 +16005,8 @@
       </c>
       <c r="F452" t="inlineStr"/>
       <c r="G452" t="inlineStr"/>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H452" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="453">
@@ -16099,10 +16029,8 @@
       </c>
       <c r="F453" t="inlineStr"/>
       <c r="G453" t="inlineStr"/>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H453" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="454">
@@ -16125,10 +16053,8 @@
       </c>
       <c r="F454" t="inlineStr"/>
       <c r="G454" t="inlineStr"/>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H454" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="455">
@@ -16155,10 +16081,8 @@
           <t>4.7%</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H455" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="456">
@@ -16189,10 +16113,8 @@
           <t>CNY690.0B</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H456" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="457">
@@ -16219,10 +16141,8 @@
         </is>
       </c>
       <c r="G457" t="inlineStr"/>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H457" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="458">
@@ -16253,10 +16173,8 @@
           <t>7.5%</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H458" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="459">
@@ -16287,10 +16205,8 @@
           <t>CNY1850.0B</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H459" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="460">
@@ -16331,10 +16247,8 @@
       </c>
       <c r="F461" t="inlineStr"/>
       <c r="G461" t="inlineStr"/>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H461" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="462">
@@ -16379,10 +16293,8 @@
           <t>$ 85B</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H463" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="464">
@@ -16409,10 +16321,8 @@
       </c>
       <c r="F464" t="inlineStr"/>
       <c r="G464" t="inlineStr"/>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H464" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="465">
@@ -16439,10 +16349,8 @@
       </c>
       <c r="F465" t="inlineStr"/>
       <c r="G465" t="inlineStr"/>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H465" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="466">
@@ -16487,10 +16395,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H467" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="468">
@@ -16521,10 +16427,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H468" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="469">
@@ -16551,10 +16455,8 @@
       </c>
       <c r="F469" t="inlineStr"/>
       <c r="G469" t="inlineStr"/>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H469" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="470">
@@ -16581,10 +16483,8 @@
       </c>
       <c r="F470" t="inlineStr"/>
       <c r="G470" t="inlineStr"/>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H470" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="471">
@@ -16611,10 +16511,8 @@
       </c>
       <c r="F471" t="inlineStr"/>
       <c r="G471" t="inlineStr"/>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H471" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="472">
@@ -16641,10 +16539,8 @@
       </c>
       <c r="F472" t="inlineStr"/>
       <c r="G472" t="inlineStr"/>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H472" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="473">
@@ -16671,10 +16567,8 @@
       </c>
       <c r="F473" t="inlineStr"/>
       <c r="G473" t="inlineStr"/>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H473" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="474">
@@ -16701,10 +16595,8 @@
       </c>
       <c r="F474" t="inlineStr"/>
       <c r="G474" t="inlineStr"/>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H474" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="475">
@@ -16735,10 +16627,8 @@
           <t>6.0%</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H475" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="476">
@@ -16769,10 +16659,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H476" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="477">
@@ -16799,10 +16687,8 @@
       </c>
       <c r="F477" t="inlineStr"/>
       <c r="G477" t="inlineStr"/>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H477" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="478">
@@ -16829,10 +16715,8 @@
       </c>
       <c r="F478" t="inlineStr"/>
       <c r="G478" t="inlineStr"/>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H478" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="479">
@@ -16859,10 +16743,8 @@
       </c>
       <c r="F479" t="inlineStr"/>
       <c r="G479" t="inlineStr"/>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H479" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="480">
@@ -16893,10 +16775,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H480" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="481">
@@ -16923,10 +16803,8 @@
       </c>
       <c r="F481" t="inlineStr"/>
       <c r="G481" t="inlineStr"/>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H481" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="482">
@@ -16953,10 +16831,8 @@
       </c>
       <c r="F482" t="inlineStr"/>
       <c r="G482" t="inlineStr"/>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H482" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="483">
@@ -16983,10 +16859,8 @@
       </c>
       <c r="F483" t="inlineStr"/>
       <c r="G483" t="inlineStr"/>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H483" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="484">
@@ -17013,10 +16887,8 @@
       </c>
       <c r="F484" t="inlineStr"/>
       <c r="G484" t="inlineStr"/>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H484" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="485">
@@ -17043,10 +16915,8 @@
       </c>
       <c r="F485" t="inlineStr"/>
       <c r="G485" t="inlineStr"/>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H485" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="486">
@@ -17069,10 +16939,8 @@
       </c>
       <c r="F486" t="inlineStr"/>
       <c r="G486" t="inlineStr"/>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H486" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="487">
@@ -17095,10 +16963,8 @@
       </c>
       <c r="F487" t="inlineStr"/>
       <c r="G487" t="inlineStr"/>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H487" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="488">
@@ -17121,10 +16987,8 @@
       </c>
       <c r="F488" t="inlineStr"/>
       <c r="G488" t="inlineStr"/>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H488" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="489">
@@ -17151,10 +17015,8 @@
           <t>6.4%</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H489" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="490">
@@ -17177,10 +17039,8 @@
       </c>
       <c r="F490" t="inlineStr"/>
       <c r="G490" t="inlineStr"/>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H490" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="491">
@@ -17199,10 +17059,8 @@
       <c r="E491" t="inlineStr"/>
       <c r="F491" t="inlineStr"/>
       <c r="G491" t="inlineStr"/>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H491" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="492">
@@ -17243,10 +17101,8 @@
       </c>
       <c r="F493" t="inlineStr"/>
       <c r="G493" t="inlineStr"/>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H493" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="494">
@@ -17273,10 +17129,8 @@
       </c>
       <c r="F494" t="inlineStr"/>
       <c r="G494" t="inlineStr"/>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H494" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="495">
@@ -17303,10 +17157,8 @@
       </c>
       <c r="F495" t="inlineStr"/>
       <c r="G495" t="inlineStr"/>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H495" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="496">
@@ -17337,10 +17189,8 @@
           <t>¥1990.0B</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H496" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="497">
@@ -17371,10 +17221,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H497" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="498">
@@ -17401,10 +17249,8 @@
       </c>
       <c r="F498" t="inlineStr"/>
       <c r="G498" t="inlineStr"/>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H498" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="499">
@@ -17431,10 +17277,8 @@
       </c>
       <c r="F499" t="inlineStr"/>
       <c r="G499" t="inlineStr"/>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H499" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="500">
@@ -17461,10 +17305,8 @@
       </c>
       <c r="F500" t="inlineStr"/>
       <c r="G500" t="inlineStr"/>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H500" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="501">
@@ -17495,10 +17337,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H501" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="502">
@@ -17529,10 +17369,8 @@
           <t>49.6</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H502" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="503">
@@ -17559,10 +17397,8 @@
       </c>
       <c r="F503" t="inlineStr"/>
       <c r="G503" t="inlineStr"/>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H503" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="504">
@@ -17589,10 +17425,8 @@
       </c>
       <c r="F504" t="inlineStr"/>
       <c r="G504" t="inlineStr"/>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H504" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="505">
@@ -17623,10 +17457,8 @@
           <t>10.2%</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H505" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="506">
@@ -17657,10 +17489,8 @@
           <t>-3.2%</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H506" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="507">
@@ -17691,10 +17521,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H507" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="508">
@@ -17725,10 +17553,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H508" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="509">
@@ -17755,10 +17581,8 @@
       </c>
       <c r="F509" t="inlineStr"/>
       <c r="G509" t="inlineStr"/>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H509" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="510">
@@ -17785,10 +17609,8 @@
       </c>
       <c r="F510" t="inlineStr"/>
       <c r="G510" t="inlineStr"/>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H510" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="511">
@@ -17815,10 +17637,8 @@
       </c>
       <c r="F511" t="inlineStr"/>
       <c r="G511" t="inlineStr"/>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H511" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="512">
@@ -17845,10 +17665,8 @@
       </c>
       <c r="F512" t="inlineStr"/>
       <c r="G512" t="inlineStr"/>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H512" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="513">
@@ -17875,10 +17693,8 @@
       </c>
       <c r="F513" t="inlineStr"/>
       <c r="G513" t="inlineStr"/>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H513" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="514">
@@ -17905,10 +17721,8 @@
       </c>
       <c r="F514" t="inlineStr"/>
       <c r="G514" t="inlineStr"/>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H514" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="515">
@@ -17935,10 +17749,8 @@
       </c>
       <c r="F515" t="inlineStr"/>
       <c r="G515" t="inlineStr"/>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H515" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="516">
@@ -17969,10 +17781,8 @@
           <t>102</t>
         </is>
       </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H516" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="517">
@@ -18003,10 +17813,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H517" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="518">
@@ -18033,10 +17841,8 @@
       </c>
       <c r="F518" t="inlineStr"/>
       <c r="G518" t="inlineStr"/>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H518" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="519">
@@ -18067,10 +17873,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H519" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="520">
@@ -18101,10 +17905,8 @@
           <t>146.4</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H520" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="521">
@@ -18131,10 +17933,8 @@
       </c>
       <c r="F521" t="inlineStr"/>
       <c r="G521" t="inlineStr"/>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H521" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="522">
@@ -18161,10 +17961,8 @@
       </c>
       <c r="F522" t="inlineStr"/>
       <c r="G522" t="inlineStr"/>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H522" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="523">
@@ -18195,10 +17993,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H523" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="524">
@@ -18225,10 +18021,8 @@
       </c>
       <c r="F524" t="inlineStr"/>
       <c r="G524" t="inlineStr"/>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H524" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="525">
@@ -18255,10 +18049,8 @@
       </c>
       <c r="F525" t="inlineStr"/>
       <c r="G525" t="inlineStr"/>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H525" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="526">
@@ -18281,10 +18073,8 @@
       </c>
       <c r="F526" t="inlineStr"/>
       <c r="G526" t="inlineStr"/>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H526" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="527">
@@ -18329,10 +18119,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H528" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="529">
@@ -18363,10 +18151,8 @@
           <t>116.0%</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H529" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="530">
@@ -18397,10 +18183,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H530" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="531">
@@ -18431,10 +18215,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H531" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="532">
@@ -18461,10 +18243,8 @@
       </c>
       <c r="F532" t="inlineStr"/>
       <c r="G532" t="inlineStr"/>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H532" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="533">
@@ -18495,10 +18275,8 @@
           <t>$ 2.8B</t>
         </is>
       </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H533" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="534">
@@ -18525,10 +18303,8 @@
       </c>
       <c r="F534" t="inlineStr"/>
       <c r="G534" t="inlineStr"/>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H534" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="535">
@@ -18555,10 +18331,8 @@
       </c>
       <c r="F535" t="inlineStr"/>
       <c r="G535" t="inlineStr"/>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H535" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="536">
@@ -18589,10 +18363,8 @@
         </is>
       </c>
       <c r="G536" t="inlineStr"/>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H536" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="537">
@@ -18623,10 +18395,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H537" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="538">
@@ -18657,10 +18427,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H538" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="539">
@@ -18691,10 +18459,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H539" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="540">
@@ -18725,10 +18491,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H540" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="541">
@@ -18759,10 +18523,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H541" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="542">
@@ -18793,10 +18555,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H542" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="543">
@@ -18827,10 +18587,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H543" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="544">
@@ -18861,10 +18619,8 @@
           <t>2.1%</t>
         </is>
       </c>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H544" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="545">
@@ -18895,10 +18651,8 @@
           <t>-1.3%</t>
         </is>
       </c>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H545" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="546">
@@ -18929,10 +18683,8 @@
           <t>-1%</t>
         </is>
       </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H546" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="547">
@@ -18963,10 +18715,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H547" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="548">
@@ -18997,10 +18747,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H548" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="549">
@@ -19027,10 +18775,8 @@
       </c>
       <c r="F549" t="inlineStr"/>
       <c r="G549" t="inlineStr"/>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H549" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="550">
@@ -19061,10 +18807,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H550" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="551">
@@ -19095,10 +18839,8 @@
           <t>10%</t>
         </is>
       </c>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H551" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="552">
@@ -19125,10 +18867,8 @@
       </c>
       <c r="F552" t="inlineStr"/>
       <c r="G552" t="inlineStr"/>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H552" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="553">
@@ -19155,10 +18895,8 @@
       </c>
       <c r="F553" t="inlineStr"/>
       <c r="G553" t="inlineStr"/>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H553" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="554">
@@ -19185,10 +18923,8 @@
       </c>
       <c r="F554" t="inlineStr"/>
       <c r="G554" t="inlineStr"/>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H554" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="555">
@@ -19219,10 +18955,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H555" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="556">
@@ -19257,10 +18991,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H556" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="557">
@@ -19295,10 +19027,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H557" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="558">
@@ -19333,10 +19063,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H558" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="559">
@@ -19367,10 +19095,8 @@
         </is>
       </c>
       <c r="G559" t="inlineStr"/>
-      <c r="H559" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H559" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="560">
@@ -19405,10 +19131,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H560" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="561">
@@ -19443,10 +19167,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H561" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="562">
@@ -19481,10 +19203,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H562" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H562" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="563">
@@ -19519,10 +19239,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H563" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H563" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="564">
@@ -19553,10 +19271,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H564" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H564" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="565">
@@ -19583,10 +19299,8 @@
       </c>
       <c r="F565" t="inlineStr"/>
       <c r="G565" t="inlineStr"/>
-      <c r="H565" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H565" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="566">
@@ -19613,10 +19327,8 @@
       </c>
       <c r="F566" t="inlineStr"/>
       <c r="G566" t="inlineStr"/>
-      <c r="H566" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H566" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="567">
@@ -19643,10 +19355,8 @@
       </c>
       <c r="F567" t="inlineStr"/>
       <c r="G567" t="inlineStr"/>
-      <c r="H567" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H567" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="568">
@@ -19673,10 +19383,8 @@
       </c>
       <c r="F568" t="inlineStr"/>
       <c r="G568" t="inlineStr"/>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H568" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="569">
@@ -19703,10 +19411,8 @@
       </c>
       <c r="F569" t="inlineStr"/>
       <c r="G569" t="inlineStr"/>
-      <c r="H569" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H569" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="570">
@@ -19733,10 +19439,8 @@
       </c>
       <c r="F570" t="inlineStr"/>
       <c r="G570" t="inlineStr"/>
-      <c r="H570" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H570" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="571">
@@ -19763,10 +19467,8 @@
       </c>
       <c r="F571" t="inlineStr"/>
       <c r="G571" t="inlineStr"/>
-      <c r="H571" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H571" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="572">
@@ -19793,10 +19495,8 @@
       </c>
       <c r="F572" t="inlineStr"/>
       <c r="G572" t="inlineStr"/>
-      <c r="H572" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H572" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="573">
@@ -19823,10 +19523,8 @@
       </c>
       <c r="F573" t="inlineStr"/>
       <c r="G573" t="inlineStr"/>
-      <c r="H573" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H573" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="574">
@@ -19853,10 +19551,8 @@
       </c>
       <c r="F574" t="inlineStr"/>
       <c r="G574" t="inlineStr"/>
-      <c r="H574" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H574" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="575">
@@ -19883,10 +19579,8 @@
       </c>
       <c r="F575" t="inlineStr"/>
       <c r="G575" t="inlineStr"/>
-      <c r="H575" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H575" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="576">
@@ -19917,10 +19611,8 @@
           <t>$628.0B</t>
         </is>
       </c>
-      <c r="H576" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H576" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="577">
@@ -19955,10 +19647,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H577" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H577" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="578">
@@ -19985,10 +19675,8 @@
       </c>
       <c r="F578" t="inlineStr"/>
       <c r="G578" t="inlineStr"/>
-      <c r="H578" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H578" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="579">
@@ -20023,10 +19711,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H579" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H579" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="580">
@@ -20057,10 +19743,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H580" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H580" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="581">
@@ -20091,10 +19775,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H581" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H581" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="582">
@@ -20125,10 +19807,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H582" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H582" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="583">
@@ -20159,10 +19839,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H583" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H583" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="584">
@@ -20193,10 +19871,8 @@
           <t>313.8</t>
         </is>
       </c>
-      <c r="H584" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H584" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="585">
@@ -20227,10 +19903,8 @@
           <t>317.4</t>
         </is>
       </c>
-      <c r="H585" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H585" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="586">
@@ -20257,10 +19931,8 @@
       </c>
       <c r="F586" t="inlineStr"/>
       <c r="G586" t="inlineStr"/>
-      <c r="H586" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H586" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="587">
@@ -20287,10 +19959,8 @@
       </c>
       <c r="F587" t="inlineStr"/>
       <c r="G587" t="inlineStr"/>
-      <c r="H587" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H587" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="588">
@@ -20313,10 +19983,8 @@
       <c r="E588" t="inlineStr"/>
       <c r="F588" t="inlineStr"/>
       <c r="G588" t="inlineStr"/>
-      <c r="H588" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H588" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="589">
@@ -20339,10 +20007,8 @@
       <c r="E589" t="inlineStr"/>
       <c r="F589" t="inlineStr"/>
       <c r="G589" t="inlineStr"/>
-      <c r="H589" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H589" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="590">
@@ -20365,10 +20031,8 @@
       <c r="E590" t="inlineStr"/>
       <c r="F590" t="inlineStr"/>
       <c r="G590" t="inlineStr"/>
-      <c r="H590" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H590" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="591">
@@ -20395,10 +20059,8 @@
       </c>
       <c r="F591" t="inlineStr"/>
       <c r="G591" t="inlineStr"/>
-      <c r="H591" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H591" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="592">
@@ -20425,10 +20087,8 @@
       </c>
       <c r="F592" t="inlineStr"/>
       <c r="G592" t="inlineStr"/>
-      <c r="H592" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H592" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="593">
@@ -20455,10 +20115,8 @@
       </c>
       <c r="F593" t="inlineStr"/>
       <c r="G593" t="inlineStr"/>
-      <c r="H593" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H593" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="594">
@@ -20485,10 +20143,8 @@
       </c>
       <c r="F594" t="inlineStr"/>
       <c r="G594" t="inlineStr"/>
-      <c r="H594" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H594" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="595">
@@ -20515,10 +20171,8 @@
       </c>
       <c r="F595" t="inlineStr"/>
       <c r="G595" t="inlineStr"/>
-      <c r="H595" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H595" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="596">
@@ -20549,10 +20203,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H596" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H596" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="597">
@@ -20583,10 +20235,8 @@
           <t>9.5%</t>
         </is>
       </c>
-      <c r="H597" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H597" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="598">
@@ -20613,10 +20263,8 @@
       </c>
       <c r="F598" t="inlineStr"/>
       <c r="G598" t="inlineStr"/>
-      <c r="H598" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H598" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="599">
@@ -20647,10 +20295,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H599" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H599" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="600">
@@ -20677,10 +20323,8 @@
       </c>
       <c r="F600" t="inlineStr"/>
       <c r="G600" t="inlineStr"/>
-      <c r="H600" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H600" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="601">
@@ -20703,10 +20347,8 @@
       </c>
       <c r="F601" t="inlineStr"/>
       <c r="G601" t="inlineStr"/>
-      <c r="H601" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H601" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="602">
@@ -20733,10 +20375,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H602" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H602" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="603">
@@ -20763,10 +20403,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H603" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H603" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="604">
@@ -20793,10 +20431,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H604" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H604" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="605">
@@ -20819,10 +20455,8 @@
       </c>
       <c r="F605" t="inlineStr"/>
       <c r="G605" t="inlineStr"/>
-      <c r="H605" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H605" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="606">
@@ -20841,10 +20475,8 @@
       <c r="E606" t="inlineStr"/>
       <c r="F606" t="inlineStr"/>
       <c r="G606" t="inlineStr"/>
-      <c r="H606" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H606" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="607">
@@ -20871,10 +20503,8 @@
           <t>$ -23B</t>
         </is>
       </c>
-      <c r="H607" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H607" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="608">
@@ -20901,10 +20531,8 @@
           <t>$ 36B</t>
         </is>
       </c>
-      <c r="H608" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H608" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="609">
@@ -20931,10 +20559,8 @@
           <t>$ 59B</t>
         </is>
       </c>
-      <c r="H609" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H609" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="610">
@@ -20979,10 +20605,8 @@
           <t>3.30%</t>
         </is>
       </c>
-      <c r="H611" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H611" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="612">
@@ -21009,10 +20633,8 @@
       </c>
       <c r="F612" t="inlineStr"/>
       <c r="G612" t="inlineStr"/>
-      <c r="H612" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H612" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="613">
@@ -21043,10 +20665,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H613" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H613" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="614">
@@ -21077,10 +20697,8 @@
           <t>17.0%</t>
         </is>
       </c>
-      <c r="H614" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H614" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="615">
@@ -21111,10 +20729,8 @@
           <t>4.30%</t>
         </is>
       </c>
-      <c r="H615" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H615" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="616">
@@ -21145,10 +20761,8 @@
           <t>25.1K</t>
         </is>
       </c>
-      <c r="H616" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H616" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="617">
@@ -21175,10 +20789,8 @@
       </c>
       <c r="F617" t="inlineStr"/>
       <c r="G617" t="inlineStr"/>
-      <c r="H617" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H617" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="618">
@@ -21205,10 +20817,8 @@
       </c>
       <c r="F618" t="inlineStr"/>
       <c r="G618" t="inlineStr"/>
-      <c r="H618" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H618" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="619">
@@ -21239,10 +20849,8 @@
           <t>66.8%</t>
         </is>
       </c>
-      <c r="H619" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H619" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="620">
@@ -21269,10 +20877,8 @@
       </c>
       <c r="F620" t="inlineStr"/>
       <c r="G620" t="inlineStr"/>
-      <c r="H620" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H620" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="621">
@@ -21299,10 +20905,8 @@
       </c>
       <c r="F621" t="inlineStr"/>
       <c r="G621" t="inlineStr"/>
-      <c r="H621" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H621" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="622">
@@ -21329,10 +20933,8 @@
       </c>
       <c r="F622" t="inlineStr"/>
       <c r="G622" t="inlineStr"/>
-      <c r="H622" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H622" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="623">
@@ -21359,10 +20961,8 @@
       </c>
       <c r="F623" t="inlineStr"/>
       <c r="G623" t="inlineStr"/>
-      <c r="H623" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H623" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="624">
@@ -21397,10 +20997,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H624" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H624" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="625">
@@ -21435,10 +21033,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H625" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H625" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="626">
@@ -21473,10 +21069,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H626" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H626" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="627">
@@ -21511,10 +21105,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H627" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H627" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="628">
@@ -21545,10 +21137,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H628" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H628" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="629">
@@ -21579,10 +21169,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H629" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H629" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="630">
@@ -21613,10 +21201,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H630" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H630" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="631">
@@ -21643,10 +21229,8 @@
       </c>
       <c r="F631" t="inlineStr"/>
       <c r="G631" t="inlineStr"/>
-      <c r="H631" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H631" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="632">
@@ -21673,10 +21257,8 @@
       </c>
       <c r="F632" t="inlineStr"/>
       <c r="G632" t="inlineStr"/>
-      <c r="H632" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H632" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="633">
@@ -21703,10 +21285,8 @@
       </c>
       <c r="F633" t="inlineStr"/>
       <c r="G633" t="inlineStr"/>
-      <c r="H633" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H633" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="634">
@@ -21733,10 +21313,8 @@
       </c>
       <c r="F634" t="inlineStr"/>
       <c r="G634" t="inlineStr"/>
-      <c r="H634" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H634" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="635">
@@ -21763,10 +21341,8 @@
       </c>
       <c r="F635" t="inlineStr"/>
       <c r="G635" t="inlineStr"/>
-      <c r="H635" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H635" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="636">
@@ -21797,10 +21373,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H636" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H636" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="637">
@@ -21827,10 +21401,8 @@
       </c>
       <c r="F637" t="inlineStr"/>
       <c r="G637" t="inlineStr"/>
-      <c r="H637" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H637" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="638">
@@ -21857,10 +21429,8 @@
       </c>
       <c r="F638" t="inlineStr"/>
       <c r="G638" t="inlineStr"/>
-      <c r="H638" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H638" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="639">
@@ -21887,10 +21457,8 @@
       </c>
       <c r="F639" t="inlineStr"/>
       <c r="G639" t="inlineStr"/>
-      <c r="H639" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H639" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="640">
@@ -21925,10 +21493,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H640" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H640" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="641">
@@ -21963,10 +21529,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H641" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H641" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="642">
@@ -22001,10 +21565,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H642" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H642" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="643">
@@ -22039,10 +21601,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H643" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H643" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="644">
@@ -22065,10 +21625,8 @@
       <c r="E644" t="inlineStr"/>
       <c r="F644" t="inlineStr"/>
       <c r="G644" t="inlineStr"/>
-      <c r="H644" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H644" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="645">
@@ -22091,10 +21649,8 @@
       <c r="E645" t="inlineStr"/>
       <c r="F645" t="inlineStr"/>
       <c r="G645" t="inlineStr"/>
-      <c r="H645" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H645" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="646">
@@ -22117,10 +21673,8 @@
       <c r="E646" t="inlineStr"/>
       <c r="F646" t="inlineStr"/>
       <c r="G646" t="inlineStr"/>
-      <c r="H646" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H646" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="647">
@@ -22147,10 +21701,8 @@
       </c>
       <c r="F647" t="inlineStr"/>
       <c r="G647" t="inlineStr"/>
-      <c r="H647" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H647" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="648">
@@ -22173,10 +21725,8 @@
       <c r="E648" t="inlineStr"/>
       <c r="F648" t="inlineStr"/>
       <c r="G648" t="inlineStr"/>
-      <c r="H648" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H648" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="649">
@@ -22203,10 +21753,8 @@
       </c>
       <c r="F649" t="inlineStr"/>
       <c r="G649" t="inlineStr"/>
-      <c r="H649" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H649" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="650">
@@ -22237,10 +21785,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H650" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H650" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="651">
@@ -22271,10 +21817,8 @@
           <t>220K</t>
         </is>
       </c>
-      <c r="H651" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H651" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="652">
@@ -22305,10 +21849,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H652" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H652" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="653">
@@ -22339,10 +21881,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H653" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H653" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="654">
@@ -22369,10 +21909,8 @@
       </c>
       <c r="F654" t="inlineStr"/>
       <c r="G654" t="inlineStr"/>
-      <c r="H654" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H654" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="655">
@@ -22403,10 +21941,8 @@
           <t>209.0K</t>
         </is>
       </c>
-      <c r="H655" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H655" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="656">
@@ -22433,10 +21969,8 @@
       </c>
       <c r="F656" t="inlineStr"/>
       <c r="G656" t="inlineStr"/>
-      <c r="H656" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H656" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="657">
@@ -22467,10 +22001,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H657" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H657" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="658">
@@ -22501,10 +22033,8 @@
           <t>1870.0K</t>
         </is>
       </c>
-      <c r="H658" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H658" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="659">
@@ -22531,10 +22061,8 @@
       </c>
       <c r="F659" t="inlineStr"/>
       <c r="G659" t="inlineStr"/>
-      <c r="H659" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H659" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="660">
@@ -22565,10 +22093,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H660" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H660" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="661">
@@ -22599,10 +22125,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="H661" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H661" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="662">
@@ -22629,10 +22153,8 @@
       </c>
       <c r="F662" t="inlineStr"/>
       <c r="G662" t="inlineStr"/>
-      <c r="H662" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H662" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="663">
@@ -22659,10 +22181,8 @@
       </c>
       <c r="F663" t="inlineStr"/>
       <c r="G663" t="inlineStr"/>
-      <c r="H663" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H663" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="664">
@@ -22689,10 +22209,8 @@
       </c>
       <c r="F664" t="inlineStr"/>
       <c r="G664" t="inlineStr"/>
-      <c r="H664" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H664" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="665">
@@ -22719,10 +22237,8 @@
       </c>
       <c r="F665" t="inlineStr"/>
       <c r="G665" t="inlineStr"/>
-      <c r="H665" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H665" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="666">
@@ -22749,10 +22265,8 @@
       </c>
       <c r="F666" t="inlineStr"/>
       <c r="G666" t="inlineStr"/>
-      <c r="H666" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H666" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="667">
@@ -22783,10 +22297,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H667" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H667" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="668">
@@ -22817,10 +22329,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H668" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H668" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="669">
@@ -22847,10 +22357,8 @@
       </c>
       <c r="F669" t="inlineStr"/>
       <c r="G669" t="inlineStr"/>
-      <c r="H669" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H669" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="670">
@@ -22877,10 +22385,8 @@
       </c>
       <c r="F670" t="inlineStr"/>
       <c r="G670" t="inlineStr"/>
-      <c r="H670" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H670" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="671">
@@ -22911,10 +22417,8 @@
         </is>
       </c>
       <c r="G671" t="inlineStr"/>
-      <c r="H671" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H671" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="672">
@@ -22941,10 +22445,8 @@
       </c>
       <c r="F672" t="inlineStr"/>
       <c r="G672" t="inlineStr"/>
-      <c r="H672" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H672" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="673">
@@ -22967,10 +22469,8 @@
       <c r="E673" t="inlineStr"/>
       <c r="F673" t="inlineStr"/>
       <c r="G673" t="inlineStr"/>
-      <c r="H673" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H673" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="674">
@@ -22993,10 +22493,8 @@
       <c r="E674" t="inlineStr"/>
       <c r="F674" t="inlineStr"/>
       <c r="G674" t="inlineStr"/>
-      <c r="H674" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H674" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="675">
@@ -23019,10 +22517,8 @@
       <c r="E675" t="inlineStr"/>
       <c r="F675" t="inlineStr"/>
       <c r="G675" t="inlineStr"/>
-      <c r="H675" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H675" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="676">
@@ -23045,106 +22541,140 @@
       <c r="E676" t="inlineStr"/>
       <c r="F676" t="inlineStr"/>
       <c r="G676" t="inlineStr"/>
-      <c r="H676" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H676" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>Friday January 17 2025</t>
-        </is>
-      </c>
-      <c r="B677" t="inlineStr"/>
-      <c r="C677" t="inlineStr"/>
+          <t>02:30 PM</t>
+        </is>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C677" t="inlineStr">
+        <is>
+          <t>Current Account s.aNOV</t>
+        </is>
+      </c>
       <c r="D677" t="inlineStr"/>
-      <c r="E677" t="inlineStr"/>
+      <c r="E677" t="inlineStr">
+        <is>
+          <t>€33.5B</t>
+        </is>
+      </c>
       <c r="F677" t="inlineStr"/>
       <c r="G677" t="inlineStr"/>
-      <c r="H677" t="inlineStr"/>
+      <c r="H677" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C678" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/15</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D678" t="inlineStr"/>
-      <c r="E678" t="inlineStr"/>
+      <c r="E678" t="inlineStr">
+        <is>
+          <t>€-3.93B</t>
+        </is>
+      </c>
       <c r="F678" t="inlineStr"/>
       <c r="G678" t="inlineStr"/>
       <c r="H678" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C679" t="inlineStr">
         <is>
-          <t>Reuters Tankan IndexJAN</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D679" t="inlineStr"/>
       <c r="E679" t="inlineStr">
         <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="F679" t="inlineStr"/>
+          <t>2.2%</t>
+        </is>
+      </c>
+      <c r="F679" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
       <c r="G679" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="H679" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C680" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/11</t>
+          <t>Core Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D680" t="inlineStr"/>
-      <c r="E680" t="inlineStr"/>
-      <c r="F680" t="inlineStr"/>
-      <c r="G680" t="inlineStr"/>
+      <c r="E680" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="F680" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="G680" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="H680" t="inlineStr">
         <is>
           <t>3</t>
@@ -23154,23 +22684,35 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C681" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersJAN/11</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D681" t="inlineStr"/>
-      <c r="E681" t="inlineStr"/>
-      <c r="F681" t="inlineStr"/>
-      <c r="G681" t="inlineStr"/>
+      <c r="E681" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="F681" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G681" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H681" t="inlineStr">
         <is>
           <t>3</t>
@@ -23180,29 +22722,33 @@
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C682" t="inlineStr">
         <is>
-          <t>Non-Oil Exports MoMDEC</t>
+          <t>CPI FinalDEC</t>
         </is>
       </c>
       <c r="D682" t="inlineStr"/>
       <c r="E682" t="inlineStr">
         <is>
-          <t>14.7%</t>
-        </is>
-      </c>
-      <c r="F682" t="inlineStr"/>
+          <t>126.62</t>
+        </is>
+      </c>
+      <c r="F682" t="inlineStr">
+        <is>
+          <t>127.08</t>
+        </is>
+      </c>
       <c r="G682" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>127</t>
         </is>
       </c>
       <c r="H682" t="inlineStr">
@@ -23214,31 +22760,27 @@
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C683" t="inlineStr">
         <is>
-          <t>Non-Oil Exports YoYDEC</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D683" t="inlineStr"/>
       <c r="E683" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>€5628M</t>
         </is>
       </c>
       <c r="F683" t="inlineStr"/>
-      <c r="G683" t="inlineStr">
-        <is>
-          <t>7.5%</t>
-        </is>
-      </c>
+      <c r="G683" t="inlineStr"/>
       <c r="H683" t="inlineStr">
         <is>
           <t>3</t>
@@ -23248,23 +22790,23 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C684" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsJAN</t>
+          <t>Bank Loan Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D684" t="inlineStr"/>
       <c r="E684" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>11.5%</t>
         </is>
       </c>
       <c r="F684" t="inlineStr"/>
@@ -23278,65 +22820,53 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C685" t="inlineStr">
         <is>
-          <t>House Price Index YoYDEC</t>
+          <t>Deposit Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D685" t="inlineStr"/>
       <c r="E685" t="inlineStr">
         <is>
-          <t>-5.7%</t>
+          <t>11.5%</t>
         </is>
       </c>
       <c r="F685" t="inlineStr"/>
-      <c r="G685" t="inlineStr">
-        <is>
-          <t>-5.8%</t>
-        </is>
-      </c>
+      <c r="G685" t="inlineStr"/>
       <c r="H685" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C686" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Foreign Exchange ReservesJAN/10</t>
         </is>
       </c>
       <c r="D686" t="inlineStr"/>
-      <c r="E686" t="inlineStr">
-        <is>
-          <t>$6.52B</t>
-        </is>
-      </c>
+      <c r="E686" t="inlineStr"/>
       <c r="F686" t="inlineStr"/>
-      <c r="G686" t="inlineStr">
-        <is>
-          <t>$ 3.6B</t>
-        </is>
-      </c>
+      <c r="G686" t="inlineStr"/>
       <c r="H686" t="inlineStr">
         <is>
           <t>3</t>
@@ -23346,97 +22876,89 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C687" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoYQ4</t>
+          <t>Foreign Securities PurchasesNOV</t>
         </is>
       </c>
       <c r="D687" t="inlineStr"/>
       <c r="E687" t="inlineStr">
         <is>
-          <t>4.6%</t>
+          <t>C$21.55B</t>
         </is>
       </c>
       <c r="F687" t="inlineStr"/>
-      <c r="G687" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
+      <c r="G687" t="inlineStr"/>
       <c r="H687" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C688" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Foreign Securities Purchases by CanadiansNOV</t>
         </is>
       </c>
       <c r="D688" t="inlineStr"/>
       <c r="E688" t="inlineStr">
         <is>
-          <t>5.4%</t>
+          <t>C$-2.65B</t>
         </is>
       </c>
       <c r="F688" t="inlineStr"/>
-      <c r="G688" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="G688" t="inlineStr"/>
       <c r="H688" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C689" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Building Permits PrelDEC</t>
         </is>
       </c>
       <c r="D689" t="inlineStr"/>
       <c r="E689" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>1.493M</t>
         </is>
       </c>
       <c r="F689" t="inlineStr"/>
       <c r="G689" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>1.6M</t>
         </is>
       </c>
       <c r="H689" t="inlineStr">
@@ -23448,65 +22970,61 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C690" t="inlineStr">
         <is>
-          <t>Fixed Asset Investment (YTD) YoYDEC</t>
+          <t>Housing StartsDEC</t>
         </is>
       </c>
       <c r="D690" t="inlineStr"/>
       <c r="E690" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>1.289M</t>
         </is>
       </c>
       <c r="F690" t="inlineStr"/>
       <c r="G690" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>1.5M</t>
         </is>
       </c>
       <c r="H690" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C691" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQQ4</t>
+          <t>Building Permits MoM PrelDEC</t>
         </is>
       </c>
       <c r="D691" t="inlineStr"/>
       <c r="E691" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F691" t="inlineStr"/>
-      <c r="G691" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="G691" t="inlineStr"/>
       <c r="H691" t="inlineStr">
         <is>
           <t>2</t>
@@ -23516,91 +23034,95 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C692" t="inlineStr">
         <is>
-          <t>Industrial Capacity UtilizationQ4</t>
+          <t>Housing Starts MoMDEC</t>
         </is>
       </c>
       <c r="D692" t="inlineStr"/>
       <c r="E692" t="inlineStr">
         <is>
-          <t>75.1%</t>
+          <t>-1.8%</t>
         </is>
       </c>
       <c r="F692" t="inlineStr"/>
       <c r="G692" t="inlineStr">
         <is>
-          <t>74.9%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="H692" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C693" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D693" t="inlineStr"/>
       <c r="E693" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F693" t="inlineStr"/>
-      <c r="G693" t="inlineStr">
-        <is>
-          <t>5.00%</t>
-        </is>
-      </c>
+      <c r="G693" t="inlineStr"/>
       <c r="H693" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C694" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Capacity UtilizationDEC</t>
         </is>
       </c>
       <c r="D694" t="inlineStr"/>
-      <c r="E694" t="inlineStr"/>
+      <c r="E694" t="inlineStr">
+        <is>
+          <t>76.8%</t>
+        </is>
+      </c>
       <c r="F694" t="inlineStr"/>
-      <c r="G694" t="inlineStr"/>
+      <c r="G694" t="inlineStr">
+        <is>
+          <t>77.8%</t>
+        </is>
+      </c>
       <c r="H694" t="inlineStr">
         <is>
           <t>3</t>
@@ -23610,95 +23132,99 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C695" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D695" t="inlineStr"/>
       <c r="E695" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="F695" t="inlineStr"/>
       <c r="G695" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H695" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C696" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Manufacturing Production MoMDEC</t>
         </is>
       </c>
       <c r="D696" t="inlineStr"/>
       <c r="E696" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F696" t="inlineStr"/>
       <c r="G696" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H696" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C697" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel MoMDEC</t>
+          <t>Manufacturing Production YoYDEC</t>
         </is>
       </c>
       <c r="D697" t="inlineStr"/>
       <c r="E697" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>-1%</t>
         </is>
       </c>
       <c r="F697" t="inlineStr"/>
-      <c r="G697" t="inlineStr"/>
+      <c r="G697" t="inlineStr">
+        <is>
+          <t>-0.9%</t>
+        </is>
+      </c>
       <c r="H697" t="inlineStr">
         <is>
           <t>3</t>
@@ -23708,25 +23234,21 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C698" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel YoYDEC</t>
+          <t>Baker Hughes Oil Rig CountJAN/17</t>
         </is>
       </c>
       <c r="D698" t="inlineStr"/>
-      <c r="E698" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E698" t="inlineStr"/>
       <c r="F698" t="inlineStr"/>
       <c r="G698" t="inlineStr"/>
       <c r="H698" t="inlineStr">
@@ -23738,25 +23260,21 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C699" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Baker Hughes Total Rigs CountJAN/17</t>
         </is>
       </c>
       <c r="D699" t="inlineStr"/>
-      <c r="E699" t="inlineStr">
-        <is>
-          <t>€32B</t>
-        </is>
-      </c>
+      <c r="E699" t="inlineStr"/>
       <c r="F699" t="inlineStr"/>
       <c r="G699" t="inlineStr"/>
       <c r="H699" t="inlineStr">
@@ -23766,25 +23284,21 @@
       </c>
     </row>
     <row r="700">
-      <c r="A700" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
+      <c r="A700" t="inlineStr"/>
       <c r="B700" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C700" t="inlineStr">
         <is>
-          <t>Current Account s.aNOV</t>
+          <t>50-Year KTB Auction</t>
         </is>
       </c>
       <c r="D700" t="inlineStr"/>
       <c r="E700" t="inlineStr">
         <is>
-          <t>€33.5B</t>
+          <t>2.40%</t>
         </is>
       </c>
       <c r="F700" t="inlineStr"/>
@@ -23798,65 +23312,41 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
-      <c r="B701" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C701" t="inlineStr">
-        <is>
-          <t>Balance of TradeNOV</t>
-        </is>
-      </c>
+          <t>Saturday January 18 2025</t>
+        </is>
+      </c>
+      <c r="B701" t="inlineStr"/>
+      <c r="C701" t="inlineStr"/>
       <c r="D701" t="inlineStr"/>
-      <c r="E701" t="inlineStr">
-        <is>
-          <t>€-3.93B</t>
-        </is>
-      </c>
+      <c r="E701" t="inlineStr"/>
       <c r="F701" t="inlineStr"/>
       <c r="G701" t="inlineStr"/>
-      <c r="H701" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="H701" t="inlineStr"/>
     </row>
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C702" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Net Long-term TIC FlowsNOV</t>
         </is>
       </c>
       <c r="D702" t="inlineStr"/>
       <c r="E702" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F702" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="G702" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+          <t>$152.3B</t>
+        </is>
+      </c>
+      <c r="F702" t="inlineStr"/>
+      <c r="G702" t="inlineStr"/>
       <c r="H702" t="inlineStr">
         <is>
           <t>2</t>
@@ -23866,35 +23356,27 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C703" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FinalDEC</t>
+          <t>Foreign Bond InvestmentNOV</t>
         </is>
       </c>
       <c r="D703" t="inlineStr"/>
       <c r="E703" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F703" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="G703" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+          <t>$92.1B</t>
+        </is>
+      </c>
+      <c r="F703" t="inlineStr"/>
+      <c r="G703" t="inlineStr"/>
       <c r="H703" t="inlineStr">
         <is>
           <t>3</t>
@@ -23904,730 +23386,28 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C704" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FinalDEC</t>
+          <t>Overall Net Capital FlowsNOV</t>
         </is>
       </c>
       <c r="D704" t="inlineStr"/>
       <c r="E704" t="inlineStr">
         <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F704" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G704" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>$203.6B</t>
+        </is>
+      </c>
+      <c r="F704" t="inlineStr"/>
+      <c r="G704" t="inlineStr"/>
       <c r="H704" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="705">
-      <c r="A705" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B705" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C705" t="inlineStr">
-        <is>
-          <t>CPI FinalDEC</t>
-        </is>
-      </c>
-      <c r="D705" t="inlineStr"/>
-      <c r="E705" t="inlineStr">
-        <is>
-          <t>126.62</t>
-        </is>
-      </c>
-      <c r="F705" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
-      <c r="G705" t="inlineStr">
-        <is>
-          <t>127</t>
-        </is>
-      </c>
-      <c r="H705" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="706">
-      <c r="A706" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B706" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C706" t="inlineStr">
-        <is>
-          <t>Current AccountNOV</t>
-        </is>
-      </c>
-      <c r="D706" t="inlineStr"/>
-      <c r="E706" t="inlineStr">
-        <is>
-          <t>€5628M</t>
-        </is>
-      </c>
-      <c r="F706" t="inlineStr"/>
-      <c r="G706" t="inlineStr"/>
-      <c r="H706" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="707">
-      <c r="A707" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
-      <c r="B707" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C707" t="inlineStr">
-        <is>
-          <t>Bank Loan Growth YoYJAN/03</t>
-        </is>
-      </c>
-      <c r="D707" t="inlineStr"/>
-      <c r="E707" t="inlineStr">
-        <is>
-          <t>11.5%</t>
-        </is>
-      </c>
-      <c r="F707" t="inlineStr"/>
-      <c r="G707" t="inlineStr"/>
-      <c r="H707" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="708">
-      <c r="A708" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
-      <c r="B708" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C708" t="inlineStr">
-        <is>
-          <t>Deposit Growth YoYJAN/03</t>
-        </is>
-      </c>
-      <c r="D708" t="inlineStr"/>
-      <c r="E708" t="inlineStr">
-        <is>
-          <t>11.5%</t>
-        </is>
-      </c>
-      <c r="F708" t="inlineStr"/>
-      <c r="G708" t="inlineStr"/>
-      <c r="H708" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="709">
-      <c r="A709" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
-      <c r="B709" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C709" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN/10</t>
-        </is>
-      </c>
-      <c r="D709" t="inlineStr"/>
-      <c r="E709" t="inlineStr"/>
-      <c r="F709" t="inlineStr"/>
-      <c r="G709" t="inlineStr"/>
-      <c r="H709" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="710">
-      <c r="A710" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B710" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C710" t="inlineStr">
-        <is>
-          <t>Foreign Securities PurchasesNOV</t>
-        </is>
-      </c>
-      <c r="D710" t="inlineStr"/>
-      <c r="E710" t="inlineStr">
-        <is>
-          <t>C$21.55B</t>
-        </is>
-      </c>
-      <c r="F710" t="inlineStr"/>
-      <c r="G710" t="inlineStr"/>
-      <c r="H710" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="711">
-      <c r="A711" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B711" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C711" t="inlineStr">
-        <is>
-          <t>Foreign Securities Purchases by CanadiansNOV</t>
-        </is>
-      </c>
-      <c r="D711" t="inlineStr"/>
-      <c r="E711" t="inlineStr">
-        <is>
-          <t>C$-2.65B</t>
-        </is>
-      </c>
-      <c r="F711" t="inlineStr"/>
-      <c r="G711" t="inlineStr"/>
-      <c r="H711" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="712">
-      <c r="A712" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B712" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C712" t="inlineStr">
-        <is>
-          <t>Building Permits PrelDEC</t>
-        </is>
-      </c>
-      <c r="D712" t="inlineStr"/>
-      <c r="E712" t="inlineStr">
-        <is>
-          <t>1.493M</t>
-        </is>
-      </c>
-      <c r="F712" t="inlineStr"/>
-      <c r="G712" t="inlineStr">
-        <is>
-          <t>1.6M</t>
-        </is>
-      </c>
-      <c r="H712" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="713">
-      <c r="A713" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B713" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C713" t="inlineStr">
-        <is>
-          <t>Housing StartsDEC</t>
-        </is>
-      </c>
-      <c r="D713" t="inlineStr"/>
-      <c r="E713" t="inlineStr">
-        <is>
-          <t>1.289M</t>
-        </is>
-      </c>
-      <c r="F713" t="inlineStr"/>
-      <c r="G713" t="inlineStr">
-        <is>
-          <t>1.5M</t>
-        </is>
-      </c>
-      <c r="H713" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="714">
-      <c r="A714" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B714" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C714" t="inlineStr">
-        <is>
-          <t>Building Permits MoM PrelDEC</t>
-        </is>
-      </c>
-      <c r="D714" t="inlineStr"/>
-      <c r="E714" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F714" t="inlineStr"/>
-      <c r="G714" t="inlineStr"/>
-      <c r="H714" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="715">
-      <c r="A715" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B715" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C715" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMDEC</t>
-        </is>
-      </c>
-      <c r="D715" t="inlineStr"/>
-      <c r="E715" t="inlineStr">
-        <is>
-          <t>-1.8%</t>
-        </is>
-      </c>
-      <c r="F715" t="inlineStr"/>
-      <c r="G715" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="H715" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="716">
-      <c r="A716" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B716" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C716" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMDEC</t>
-        </is>
-      </c>
-      <c r="D716" t="inlineStr"/>
-      <c r="E716" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F716" t="inlineStr"/>
-      <c r="G716" t="inlineStr"/>
-      <c r="H716" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="717">
-      <c r="A717" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B717" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C717" t="inlineStr">
-        <is>
-          <t>Capacity UtilizationDEC</t>
-        </is>
-      </c>
-      <c r="D717" t="inlineStr"/>
-      <c r="E717" t="inlineStr">
-        <is>
-          <t>76.8%</t>
-        </is>
-      </c>
-      <c r="F717" t="inlineStr"/>
-      <c r="G717" t="inlineStr">
-        <is>
-          <t>77.8%</t>
-        </is>
-      </c>
-      <c r="H717" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="718">
-      <c r="A718" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B718" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C718" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D718" t="inlineStr"/>
-      <c r="E718" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="F718" t="inlineStr"/>
-      <c r="G718" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="H718" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="719">
-      <c r="A719" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B719" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C719" t="inlineStr">
-        <is>
-          <t>Manufacturing Production MoMDEC</t>
-        </is>
-      </c>
-      <c r="D719" t="inlineStr"/>
-      <c r="E719" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F719" t="inlineStr"/>
-      <c r="G719" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H719" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="720">
-      <c r="A720" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B720" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C720" t="inlineStr">
-        <is>
-          <t>Manufacturing Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D720" t="inlineStr"/>
-      <c r="E720" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
-      <c r="F720" t="inlineStr"/>
-      <c r="G720" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="H720" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="721">
-      <c r="A721" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B721" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C721" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJAN/17</t>
-        </is>
-      </c>
-      <c r="D721" t="inlineStr"/>
-      <c r="E721" t="inlineStr"/>
-      <c r="F721" t="inlineStr"/>
-      <c r="G721" t="inlineStr"/>
-      <c r="H721" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="722">
-      <c r="A722" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B722" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C722" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJAN/17</t>
-        </is>
-      </c>
-      <c r="D722" t="inlineStr"/>
-      <c r="E722" t="inlineStr"/>
-      <c r="F722" t="inlineStr"/>
-      <c r="G722" t="inlineStr"/>
-      <c r="H722" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="723">
-      <c r="A723" t="inlineStr"/>
-      <c r="B723" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C723" t="inlineStr">
-        <is>
-          <t>50-Year KTB Auction</t>
-        </is>
-      </c>
-      <c r="D723" t="inlineStr"/>
-      <c r="E723" t="inlineStr">
-        <is>
-          <t>2.40%</t>
-        </is>
-      </c>
-      <c r="F723" t="inlineStr"/>
-      <c r="G723" t="inlineStr"/>
-      <c r="H723" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="724">
-      <c r="A724" t="inlineStr">
-        <is>
-          <t>Saturday January 18 2025</t>
-        </is>
-      </c>
-      <c r="B724" t="inlineStr"/>
-      <c r="C724" t="inlineStr"/>
-      <c r="D724" t="inlineStr"/>
-      <c r="E724" t="inlineStr"/>
-      <c r="F724" t="inlineStr"/>
-      <c r="G724" t="inlineStr"/>
-      <c r="H724" t="inlineStr"/>
-    </row>
-    <row r="725">
-      <c r="A725" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B725" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C725" t="inlineStr">
-        <is>
-          <t>Net Long-term TIC FlowsNOV</t>
-        </is>
-      </c>
-      <c r="D725" t="inlineStr"/>
-      <c r="E725" t="inlineStr">
-        <is>
-          <t>$152.3B</t>
-        </is>
-      </c>
-      <c r="F725" t="inlineStr"/>
-      <c r="G725" t="inlineStr"/>
-      <c r="H725" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="726">
-      <c r="A726" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B726" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C726" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentNOV</t>
-        </is>
-      </c>
-      <c r="D726" t="inlineStr"/>
-      <c r="E726" t="inlineStr">
-        <is>
-          <t>$92.1B</t>
-        </is>
-      </c>
-      <c r="F726" t="inlineStr"/>
-      <c r="G726" t="inlineStr"/>
-      <c r="H726" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="727">
-      <c r="A727" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B727" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C727" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsNOV</t>
-        </is>
-      </c>
-      <c r="D727" t="inlineStr"/>
-      <c r="E727" t="inlineStr">
-        <is>
-          <t>$203.6B</t>
-        </is>
-      </c>
-      <c r="F727" t="inlineStr"/>
-      <c r="G727" t="inlineStr"/>
-      <c r="H727" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-18.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H704"/>
+  <dimension ref="A1:H708"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16356,87 +16356,87 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>Monday January 13 2025</t>
-        </is>
-      </c>
-      <c r="B466" t="inlineStr"/>
-      <c r="C466" t="inlineStr"/>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>Quarterly Grain Stocks - WheatDEC</t>
+        </is>
+      </c>
       <c r="D466" t="inlineStr"/>
-      <c r="E466" t="inlineStr"/>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>1.98B</t>
+        </is>
+      </c>
       <c r="F466" t="inlineStr"/>
       <c r="G466" t="inlineStr"/>
-      <c r="H466" t="inlineStr"/>
+      <c r="H466" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="467">
-      <c r="A467" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
+      <c r="A467" t="inlineStr"/>
       <c r="B467" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>ANZ-Indeed Job Ads MoMDEC</t>
+          <t>3-Year KTB Auction</t>
         </is>
       </c>
       <c r="D467" t="inlineStr"/>
       <c r="E467" t="inlineStr">
         <is>
-          <t>-1.3%</t>
+          <t>2.53%</t>
         </is>
       </c>
       <c r="F467" t="inlineStr"/>
-      <c r="G467" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H467" t="n">
-        <v>3</v>
+      <c r="G467" t="inlineStr"/>
+      <c r="H467" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="468">
-      <c r="A468" t="inlineStr">
-        <is>
-          <t>06:30 AM</t>
-        </is>
-      </c>
+      <c r="A468" t="inlineStr"/>
       <c r="B468" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>TD-MI Inflation Gauge MoMDEC</t>
+          <t>Auto Production YoYDEC</t>
         </is>
       </c>
       <c r="D468" t="inlineStr"/>
       <c r="E468" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-15.4%</t>
         </is>
       </c>
       <c r="F468" t="inlineStr"/>
-      <c r="G468" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H468" t="n">
-        <v>3</v>
+      <c r="G468" t="inlineStr"/>
+      <c r="H468" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="469">
-      <c r="A469" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
+      <c r="A469" t="inlineStr"/>
       <c r="B469" t="inlineStr">
         <is>
           <t>TR</t>
@@ -16444,1813 +16444,2005 @@
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Auto Sales YoYDEC</t>
         </is>
       </c>
       <c r="D469" t="inlineStr"/>
       <c r="E469" t="inlineStr">
         <is>
-          <t>$1.88B</t>
+          <t>5.3%</t>
         </is>
       </c>
       <c r="F469" t="inlineStr"/>
       <c r="G469" t="inlineStr"/>
-      <c r="H469" t="n">
-        <v>3</v>
+      <c r="H469" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="470">
-      <c r="A470" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
+      <c r="A470" t="inlineStr"/>
       <c r="B470" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>Vehicle Sales YoYDEC</t>
         </is>
       </c>
       <c r="D470" t="inlineStr"/>
       <c r="E470" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>11.7%</t>
         </is>
       </c>
       <c r="F470" t="inlineStr"/>
-      <c r="G470" t="inlineStr"/>
-      <c r="H470" t="n">
-        <v>3</v>
+      <c r="G470" t="inlineStr">
+        <is>
+          <t>6.4%</t>
+        </is>
+      </c>
+      <c r="H470" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="471">
-      <c r="A471" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
+      <c r="A471" t="inlineStr"/>
       <c r="B471" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Vehicle Sales YoYDEC</t>
         </is>
       </c>
       <c r="D471" t="inlineStr"/>
       <c r="E471" t="inlineStr">
         <is>
-          <t>15.0%</t>
+          <t>12%</t>
         </is>
       </c>
       <c r="F471" t="inlineStr"/>
       <c r="G471" t="inlineStr"/>
-      <c r="H471" t="n">
-        <v>3</v>
+      <c r="H471" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="472">
-      <c r="A472" t="inlineStr">
-        <is>
-          <t>03:40 PM</t>
-        </is>
-      </c>
+      <c r="A472" t="inlineStr"/>
       <c r="B472" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>3-Year BTP Auction</t>
+          <t>BCB Focus Market Readout</t>
         </is>
       </c>
       <c r="D472" t="inlineStr"/>
-      <c r="E472" t="inlineStr">
-        <is>
-          <t>2.35%</t>
-        </is>
-      </c>
+      <c r="E472" t="inlineStr"/>
       <c r="F472" t="inlineStr"/>
       <c r="G472" t="inlineStr"/>
-      <c r="H472" t="n">
-        <v>3</v>
+      <c r="H472" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>03:40 PM</t>
-        </is>
-      </c>
-      <c r="B473" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C473" t="inlineStr">
-        <is>
-          <t>7-Year BTP Auction</t>
-        </is>
-      </c>
+          <t>Tuesday January 14 2025</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr"/>
+      <c r="C473" t="inlineStr"/>
       <c r="D473" t="inlineStr"/>
-      <c r="E473" t="inlineStr">
-        <is>
-          <t>2.92%</t>
-        </is>
-      </c>
+      <c r="E473" t="inlineStr"/>
       <c r="F473" t="inlineStr"/>
       <c r="G473" t="inlineStr"/>
-      <c r="H473" t="n">
-        <v>3</v>
-      </c>
+      <c r="H473" t="inlineStr"/>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>12-Month Bubill Auction</t>
+          <t>Monthly Budget StatementDEC</t>
         </is>
       </c>
       <c r="D474" t="inlineStr"/>
       <c r="E474" t="inlineStr">
         <is>
-          <t>2.6672%</t>
+          <t>$-367B</t>
         </is>
       </c>
       <c r="F474" t="inlineStr"/>
       <c r="G474" t="inlineStr"/>
-      <c r="H474" t="n">
-        <v>3</v>
+      <c r="H474" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Westpac Consumer Confidence ChangeJAN</t>
         </is>
       </c>
       <c r="D475" t="inlineStr"/>
       <c r="E475" t="inlineStr">
         <is>
-          <t>5.48%</t>
+          <t>-2%</t>
         </is>
       </c>
       <c r="F475" t="inlineStr"/>
-      <c r="G475" t="inlineStr">
-        <is>
-          <t>6.0%</t>
-        </is>
-      </c>
-      <c r="H475" t="n">
-        <v>2</v>
+      <c r="G475" t="inlineStr"/>
+      <c r="H475" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Westpac Consumer Confidence IndexJAN</t>
         </is>
       </c>
       <c r="D476" t="inlineStr"/>
       <c r="E476" t="inlineStr">
         <is>
-          <t>-0.15%</t>
+          <t>92.8</t>
         </is>
       </c>
       <c r="F476" t="inlineStr"/>
-      <c r="G476" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H476" t="n">
-        <v>3</v>
+      <c r="G476" t="inlineStr"/>
+      <c r="H476" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D477" t="inlineStr"/>
       <c r="E477" t="inlineStr">
         <is>
-          <t>2.435%</t>
+          <t>¥2457B</t>
         </is>
       </c>
       <c r="F477" t="inlineStr"/>
-      <c r="G477" t="inlineStr"/>
-      <c r="H477" t="n">
-        <v>3</v>
+      <c r="G477" t="inlineStr">
+        <is>
+          <t>¥1990.0B</t>
+        </is>
+      </c>
+      <c r="H477" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Bank Lending YoYDEC</t>
         </is>
       </c>
       <c r="D478" t="inlineStr"/>
       <c r="E478" t="inlineStr">
         <is>
-          <t>2.704%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F478" t="inlineStr"/>
-      <c r="G478" t="inlineStr"/>
-      <c r="H478" t="n">
-        <v>3</v>
+      <c r="G478" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
+      <c r="H478" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>Building Permits MoM FinalNOV</t>
         </is>
       </c>
       <c r="D479" t="inlineStr"/>
       <c r="E479" t="inlineStr">
         <is>
-          <t>2.592%</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F479" t="inlineStr"/>
       <c r="G479" t="inlineStr"/>
-      <c r="H479" t="n">
-        <v>3</v>
+      <c r="H479" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsDEC</t>
+          <t>Private House Approvals MoM FinalNOV</t>
         </is>
       </c>
       <c r="D480" t="inlineStr"/>
       <c r="E480" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>-4.0%</t>
         </is>
       </c>
       <c r="F480" t="inlineStr"/>
-      <c r="G480" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="H480" t="n">
-        <v>3</v>
+      <c r="G480" t="inlineStr"/>
+      <c r="H480" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>5-Year JGB Auction</t>
         </is>
       </c>
       <c r="D481" t="inlineStr"/>
       <c r="E481" t="inlineStr">
         <is>
-          <t>4.205%</t>
+          <t>0.734%</t>
         </is>
       </c>
       <c r="F481" t="inlineStr"/>
       <c r="G481" t="inlineStr"/>
-      <c r="H481" t="n">
-        <v>3</v>
+      <c r="H481" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Eco Watchers Survey CurrentDEC</t>
         </is>
       </c>
       <c r="D482" t="inlineStr"/>
       <c r="E482" t="inlineStr">
         <is>
-          <t>4.110%</t>
+          <t>49.4</t>
         </is>
       </c>
       <c r="F482" t="inlineStr"/>
-      <c r="G482" t="inlineStr"/>
-      <c r="H482" t="n">
-        <v>3</v>
+      <c r="G482" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
+      <c r="H482" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - CornDEC</t>
+          <t>Eco Watchers Survey OutlookDEC</t>
         </is>
       </c>
       <c r="D483" t="inlineStr"/>
       <c r="E483" t="inlineStr">
         <is>
-          <t>1.760B</t>
+          <t>49.4</t>
         </is>
       </c>
       <c r="F483" t="inlineStr"/>
-      <c r="G483" t="inlineStr"/>
-      <c r="H483" t="n">
-        <v>3</v>
+      <c r="G483" t="inlineStr">
+        <is>
+          <t>49.6</t>
+        </is>
+      </c>
+      <c r="H483" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - SoyDEC</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D484" t="inlineStr"/>
       <c r="E484" t="inlineStr">
         <is>
-          <t>0.342B</t>
+          <t>3.19%</t>
         </is>
       </c>
       <c r="F484" t="inlineStr"/>
       <c r="G484" t="inlineStr"/>
-      <c r="H484" t="n">
-        <v>3</v>
+      <c r="H484" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - WheatDEC</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D485" t="inlineStr"/>
       <c r="E485" t="inlineStr">
         <is>
-          <t>1.98B</t>
+          <t>3.24%</t>
         </is>
       </c>
       <c r="F485" t="inlineStr"/>
       <c r="G485" t="inlineStr"/>
-      <c r="H485" t="n">
-        <v>3</v>
+      <c r="H485" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="486">
-      <c r="A486" t="inlineStr"/>
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>12:00 PM</t>
+        </is>
+      </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>3-Year KTB Auction</t>
+          <t>WPI Food Index YoYDEC</t>
         </is>
       </c>
       <c r="D486" t="inlineStr"/>
       <c r="E486" t="inlineStr">
         <is>
-          <t>2.53%</t>
+          <t>8.92%</t>
         </is>
       </c>
       <c r="F486" t="inlineStr"/>
-      <c r="G486" t="inlineStr"/>
-      <c r="H486" t="n">
-        <v>3</v>
+      <c r="G486" t="inlineStr">
+        <is>
+          <t>10.2%</t>
+        </is>
+      </c>
+      <c r="H486" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="487">
-      <c r="A487" t="inlineStr"/>
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>12:00 PM</t>
+        </is>
+      </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>Auto Production YoYDEC</t>
+          <t>WPI Fuel YoYDEC</t>
         </is>
       </c>
       <c r="D487" t="inlineStr"/>
       <c r="E487" t="inlineStr">
         <is>
-          <t>-15.4%</t>
+          <t>-5.83%</t>
         </is>
       </c>
       <c r="F487" t="inlineStr"/>
-      <c r="G487" t="inlineStr"/>
-      <c r="H487" t="n">
-        <v>3</v>
+      <c r="G487" t="inlineStr">
+        <is>
+          <t>-3.2%</t>
+        </is>
+      </c>
+      <c r="H487" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="488">
-      <c r="A488" t="inlineStr"/>
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>12:00 PM</t>
+        </is>
+      </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>Auto Sales YoYDEC</t>
+          <t>WPI Inflation YoYDEC</t>
         </is>
       </c>
       <c r="D488" t="inlineStr"/>
       <c r="E488" t="inlineStr">
         <is>
-          <t>5.3%</t>
+          <t>1.89%</t>
         </is>
       </c>
       <c r="F488" t="inlineStr"/>
-      <c r="G488" t="inlineStr"/>
-      <c r="H488" t="n">
-        <v>3</v>
+      <c r="G488" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
+      <c r="H488" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="489">
-      <c r="A489" t="inlineStr"/>
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>12:00 PM</t>
+        </is>
+      </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>Vehicle Sales YoYDEC</t>
+          <t>WPI Manufacturing YoYDEC</t>
         </is>
       </c>
       <c r="D489" t="inlineStr"/>
       <c r="E489" t="inlineStr">
         <is>
-          <t>11.7%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="F489" t="inlineStr"/>
       <c r="G489" t="inlineStr">
         <is>
-          <t>6.4%</t>
-        </is>
-      </c>
-      <c r="H489" t="n">
-        <v>3</v>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="H489" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="490">
-      <c r="A490" t="inlineStr"/>
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>01:15 PM</t>
+        </is>
+      </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>Vehicle Sales YoYDEC</t>
+          <t>Budget BalanceNOV</t>
         </is>
       </c>
       <c r="D490" t="inlineStr"/>
       <c r="E490" t="inlineStr">
         <is>
-          <t>12%</t>
+          <t>€-157.39B</t>
         </is>
       </c>
       <c r="F490" t="inlineStr"/>
       <c r="G490" t="inlineStr"/>
-      <c r="H490" t="n">
-        <v>3</v>
+      <c r="H490" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="491">
-      <c r="A491" t="inlineStr"/>
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>02:30 PM</t>
+        </is>
+      </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>BCB Focus Market Readout</t>
+          <t>Industrial Production MoMNOV</t>
         </is>
       </c>
       <c r="D491" t="inlineStr"/>
-      <c r="E491" t="inlineStr"/>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="F491" t="inlineStr"/>
       <c r="G491" t="inlineStr"/>
-      <c r="H491" t="n">
-        <v>3</v>
+      <c r="H491" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>Tuesday January 14 2025</t>
-        </is>
-      </c>
-      <c r="B492" t="inlineStr"/>
-      <c r="C492" t="inlineStr"/>
+          <t>02:30 PM</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>Industrial Production YoYNOV</t>
+        </is>
+      </c>
       <c r="D492" t="inlineStr"/>
-      <c r="E492" t="inlineStr"/>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>-3.6%</t>
+        </is>
+      </c>
       <c r="F492" t="inlineStr"/>
       <c r="G492" t="inlineStr"/>
-      <c r="H492" t="inlineStr"/>
+      <c r="H492" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>03:10 PM</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>Monthly Budget StatementDEC</t>
+          <t>3-Month Letras Auction</t>
         </is>
       </c>
       <c r="D493" t="inlineStr"/>
       <c r="E493" t="inlineStr">
         <is>
-          <t>$-367B</t>
+          <t>2.567%</t>
         </is>
       </c>
       <c r="F493" t="inlineStr"/>
       <c r="G493" t="inlineStr"/>
-      <c r="H493" t="n">
-        <v>2</v>
+      <c r="H493" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>03:10 PM</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>Westpac Consumer Confidence ChangeJAN</t>
+          <t>9-Month Letras Auction</t>
         </is>
       </c>
       <c r="D494" t="inlineStr"/>
       <c r="E494" t="inlineStr">
         <is>
-          <t>-2%</t>
+          <t>2.366%</t>
         </is>
       </c>
       <c r="F494" t="inlineStr"/>
       <c r="G494" t="inlineStr"/>
-      <c r="H494" t="n">
-        <v>1</v>
+      <c r="H494" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>Westpac Consumer Confidence IndexJAN</t>
+          <t>20-Year Index-Linked Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D495" t="inlineStr"/>
       <c r="E495" t="inlineStr">
         <is>
-          <t>92.8</t>
+          <t>1.200%</t>
         </is>
       </c>
       <c r="F495" t="inlineStr"/>
       <c r="G495" t="inlineStr"/>
-      <c r="H495" t="n">
-        <v>1</v>
+      <c r="H495" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>5-Year Bobl Auction</t>
         </is>
       </c>
       <c r="D496" t="inlineStr"/>
       <c r="E496" t="inlineStr">
         <is>
-          <t>¥2457B</t>
+          <t>2.04%</t>
         </is>
       </c>
       <c r="F496" t="inlineStr"/>
-      <c r="G496" t="inlineStr">
-        <is>
-          <t>¥1990.0B</t>
-        </is>
-      </c>
-      <c r="H496" t="n">
-        <v>2</v>
+      <c r="G496" t="inlineStr"/>
+      <c r="H496" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>Bank Lending YoYDEC</t>
+          <t>NFIB Business Optimism IndexDEC</t>
         </is>
       </c>
       <c r="D497" t="inlineStr"/>
       <c r="E497" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>101.7</t>
         </is>
       </c>
       <c r="F497" t="inlineStr"/>
       <c r="G497" t="inlineStr">
         <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="H497" t="n">
-        <v>3</v>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="H497" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalNOV</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D498" t="inlineStr"/>
       <c r="E498" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F498" t="inlineStr"/>
-      <c r="G498" t="inlineStr"/>
-      <c r="H498" t="n">
-        <v>3</v>
+      <c r="G498" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H498" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>Private House Approvals MoM FinalNOV</t>
+          <t>Core PPI MoMDEC</t>
         </is>
       </c>
       <c r="D499" t="inlineStr"/>
       <c r="E499" t="inlineStr">
         <is>
-          <t>-4.0%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F499" t="inlineStr"/>
       <c r="G499" t="inlineStr"/>
-      <c r="H499" t="n">
-        <v>3</v>
+      <c r="H499" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>5-Year JGB Auction</t>
+          <t>Core PPI YoYDEC</t>
         </is>
       </c>
       <c r="D500" t="inlineStr"/>
       <c r="E500" t="inlineStr">
         <is>
-          <t>0.734%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="F500" t="inlineStr"/>
-      <c r="G500" t="inlineStr"/>
-      <c r="H500" t="n">
-        <v>3</v>
+      <c r="G500" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
+      <c r="H500" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>Eco Watchers Survey CurrentDEC</t>
+          <t>PPIDEC</t>
         </is>
       </c>
       <c r="D501" t="inlineStr"/>
       <c r="E501" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>146.493</t>
         </is>
       </c>
       <c r="F501" t="inlineStr"/>
       <c r="G501" t="inlineStr">
         <is>
-          <t>49.8</t>
-        </is>
-      </c>
-      <c r="H501" t="n">
-        <v>3</v>
+          <t>146.4</t>
+        </is>
+      </c>
+      <c r="H501" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>Eco Watchers Survey OutlookDEC</t>
+          <t>PPI Ex Food, Energy and Trade MoMDEC</t>
         </is>
       </c>
       <c r="D502" t="inlineStr"/>
       <c r="E502" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F502" t="inlineStr"/>
-      <c r="G502" t="inlineStr">
-        <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="H502" t="n">
-        <v>3</v>
+      <c r="G502" t="inlineStr"/>
+      <c r="H502" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>PPI Ex Food, Energy and Trade YoYDEC</t>
         </is>
       </c>
       <c r="D503" t="inlineStr"/>
       <c r="E503" t="inlineStr">
         <is>
-          <t>3.19%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="F503" t="inlineStr"/>
       <c r="G503" t="inlineStr"/>
-      <c r="H503" t="n">
-        <v>3</v>
+      <c r="H503" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D504" t="inlineStr"/>
       <c r="E504" t="inlineStr">
         <is>
-          <t>3.24%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F504" t="inlineStr"/>
-      <c r="G504" t="inlineStr"/>
-      <c r="H504" t="n">
-        <v>3</v>
+      <c r="G504" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
+      <c r="H504" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>WPI Food Index YoYDEC</t>
+          <t>Redbook YoYJAN/11</t>
         </is>
       </c>
       <c r="D505" t="inlineStr"/>
       <c r="E505" t="inlineStr">
         <is>
-          <t>8.92%</t>
+          <t>6.8%</t>
         </is>
       </c>
       <c r="F505" t="inlineStr"/>
-      <c r="G505" t="inlineStr">
-        <is>
-          <t>10.2%</t>
-        </is>
-      </c>
-      <c r="H505" t="n">
-        <v>3</v>
+      <c r="G505" t="inlineStr"/>
+      <c r="H505" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>08:35 PM</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>WPI Fuel YoYDEC</t>
+          <t>RCM/TIPP Economic Optimism IndexJAN</t>
         </is>
       </c>
       <c r="D506" t="inlineStr"/>
       <c r="E506" t="inlineStr">
         <is>
-          <t>-5.83%</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F506" t="inlineStr"/>
       <c r="G506" t="inlineStr">
         <is>
-          <t>-3.2%</t>
-        </is>
-      </c>
-      <c r="H506" t="n">
-        <v>3</v>
+          <t>54.2</t>
+        </is>
+      </c>
+      <c r="H506" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="507">
-      <c r="A507" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
+      <c r="A507" t="inlineStr"/>
       <c r="B507" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>WPI Inflation YoYDEC</t>
+          <t>5-Year KTB Auction</t>
         </is>
       </c>
       <c r="D507" t="inlineStr"/>
       <c r="E507" t="inlineStr">
         <is>
-          <t>1.89%</t>
+          <t>2.680%</t>
         </is>
       </c>
       <c r="F507" t="inlineStr"/>
-      <c r="G507" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="H507" t="n">
-        <v>3</v>
+      <c r="G507" t="inlineStr"/>
+      <c r="H507" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B508" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C508" t="inlineStr">
-        <is>
-          <t>WPI Manufacturing YoYDEC</t>
-        </is>
-      </c>
+          <t>Wednesday January 15 2025</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr"/>
+      <c r="C508" t="inlineStr"/>
       <c r="D508" t="inlineStr"/>
-      <c r="E508" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
+      <c r="E508" t="inlineStr"/>
       <c r="F508" t="inlineStr"/>
-      <c r="G508" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="H508" t="n">
-        <v>3</v>
-      </c>
+      <c r="G508" t="inlineStr"/>
+      <c r="H508" t="inlineStr"/>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>Budget BalanceNOV</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D509" t="inlineStr"/>
       <c r="E509" t="inlineStr">
         <is>
-          <t>€-157.39B</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F509" t="inlineStr"/>
-      <c r="G509" t="inlineStr"/>
-      <c r="H509" t="n">
-        <v>3</v>
+      <c r="G509" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="H509" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>Industrial Production MoMNOV</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D510" t="inlineStr"/>
       <c r="E510" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>166%</t>
         </is>
       </c>
       <c r="F510" t="inlineStr"/>
-      <c r="G510" t="inlineStr"/>
-      <c r="H510" t="n">
-        <v>2</v>
+      <c r="G510" t="inlineStr">
+        <is>
+          <t>116.0%</t>
+        </is>
+      </c>
+      <c r="H510" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D511" t="inlineStr"/>
       <c r="E511" t="inlineStr">
         <is>
-          <t>-3.6%</t>
+          <t>7%</t>
         </is>
       </c>
       <c r="F511" t="inlineStr"/>
-      <c r="G511" t="inlineStr"/>
-      <c r="H511" t="n">
-        <v>3</v>
+      <c r="G511" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="H511" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>03:10 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>3-Month Letras Auction</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D512" t="inlineStr"/>
       <c r="E512" t="inlineStr">
         <is>
-          <t>2.567%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F512" t="inlineStr"/>
-      <c r="G512" t="inlineStr"/>
-      <c r="H512" t="n">
-        <v>3</v>
+      <c r="G512" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
+      <c r="H512" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>03:10 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>9-Month Letras Auction</t>
+          <t>API Crude Oil Stock ChangeJAN/10</t>
         </is>
       </c>
       <c r="D513" t="inlineStr"/>
       <c r="E513" t="inlineStr">
         <is>
-          <t>2.366%</t>
+          <t>-4.022M</t>
         </is>
       </c>
       <c r="F513" t="inlineStr"/>
       <c r="G513" t="inlineStr"/>
-      <c r="H513" t="n">
-        <v>3</v>
+      <c r="H513" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>20-Year Index-Linked Treasury Gilt Auction</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D514" t="inlineStr"/>
       <c r="E514" t="inlineStr">
         <is>
-          <t>1.200%</t>
+          <t>$4.42B</t>
         </is>
       </c>
       <c r="F514" t="inlineStr"/>
-      <c r="G514" t="inlineStr"/>
-      <c r="H514" t="n">
-        <v>3</v>
+      <c r="G514" t="inlineStr">
+        <is>
+          <t>$ 2.8B</t>
+        </is>
+      </c>
+      <c r="H514" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>5-Year Bobl Auction</t>
+          <t>Exports YoYDEC</t>
         </is>
       </c>
       <c r="D515" t="inlineStr"/>
       <c r="E515" t="inlineStr">
         <is>
-          <t>2.04%</t>
+          <t>9.14%</t>
         </is>
       </c>
       <c r="F515" t="inlineStr"/>
       <c r="G515" t="inlineStr"/>
-      <c r="H515" t="n">
-        <v>3</v>
+      <c r="H515" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>NFIB Business Optimism IndexDEC</t>
+          <t>Imports YoYDEC</t>
         </is>
       </c>
       <c r="D516" t="inlineStr"/>
       <c r="E516" t="inlineStr">
         <is>
-          <t>101.7</t>
+          <t>0.01%</t>
         </is>
       </c>
       <c r="F516" t="inlineStr"/>
-      <c r="G516" t="inlineStr">
-        <is>
-          <t>102</t>
-        </is>
-      </c>
-      <c r="H516" t="n">
-        <v>3</v>
+      <c r="G516" t="inlineStr"/>
+      <c r="H516" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Machine Tool Orders YoYDEC</t>
         </is>
       </c>
       <c r="D517" t="inlineStr"/>
       <c r="E517" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F517" t="inlineStr"/>
-      <c r="G517" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H517" t="n">
-        <v>1</v>
+          <t>3.0%</t>
+        </is>
+      </c>
+      <c r="F517" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="G517" t="inlineStr"/>
+      <c r="H517" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>Core PPI MoMDEC</t>
+          <t>Wholesale Prices MoMDEC</t>
         </is>
       </c>
       <c r="D518" t="inlineStr"/>
       <c r="E518" t="inlineStr">
         <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F518" t="inlineStr"/>
+      <c r="G518" t="inlineStr">
+        <is>
           <t>0.2%</t>
         </is>
       </c>
-      <c r="F518" t="inlineStr"/>
-      <c r="G518" t="inlineStr"/>
-      <c r="H518" t="n">
-        <v>2</v>
+      <c r="H518" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>Core PPI YoYDEC</t>
+          <t>Wholesale Prices YoYDEC</t>
         </is>
       </c>
       <c r="D519" t="inlineStr"/>
       <c r="E519" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F519" t="inlineStr"/>
       <c r="G519" t="inlineStr">
         <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="H519" t="n">
-        <v>3</v>
+          <t>2.2%</t>
+        </is>
+      </c>
+      <c r="H519" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>PPIDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D520" t="inlineStr"/>
       <c r="E520" t="inlineStr">
         <is>
-          <t>146.493</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F520" t="inlineStr"/>
       <c r="G520" t="inlineStr">
         <is>
-          <t>146.4</t>
-        </is>
-      </c>
-      <c r="H520" t="n">
-        <v>3</v>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="H520" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade MoMDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D521" t="inlineStr"/>
       <c r="E521" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="F521" t="inlineStr"/>
-      <c r="G521" t="inlineStr"/>
-      <c r="H521" t="n">
-        <v>3</v>
+      <c r="G521" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="H521" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade YoYDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D522" t="inlineStr"/>
       <c r="E522" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F522" t="inlineStr"/>
-      <c r="G522" t="inlineStr"/>
-      <c r="H522" t="n">
-        <v>3</v>
+      <c r="G522" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="H522" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D523" t="inlineStr"/>
       <c r="E523" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="F523" t="inlineStr"/>
       <c r="G523" t="inlineStr">
         <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="H523" t="n">
-        <v>3</v>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="H523" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>07:25 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/11</t>
+          <t>PPI Core Output MoMDEC</t>
         </is>
       </c>
       <c r="D524" t="inlineStr"/>
       <c r="E524" t="inlineStr">
         <is>
-          <t>6.8%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F524" t="inlineStr"/>
-      <c r="G524" t="inlineStr"/>
-      <c r="H524" t="n">
-        <v>3</v>
+      <c r="G524" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="H524" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>08:35 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>RCM/TIPP Economic Optimism IndexJAN</t>
+          <t>PPI Core Output YoYDEC</t>
         </is>
       </c>
       <c r="D525" t="inlineStr"/>
       <c r="E525" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F525" t="inlineStr"/>
-      <c r="G525" t="inlineStr"/>
-      <c r="H525" t="n">
-        <v>3</v>
+      <c r="G525" t="inlineStr">
+        <is>
+          <t>2.1%</t>
+        </is>
+      </c>
+      <c r="H525" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="526">
-      <c r="A526" t="inlineStr"/>
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>12:30 PM</t>
+        </is>
+      </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>5-Year KTB Auction</t>
+          <t>PPI Input MoMDEC</t>
         </is>
       </c>
       <c r="D526" t="inlineStr"/>
       <c r="E526" t="inlineStr">
         <is>
-          <t>2.680%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F526" t="inlineStr"/>
-      <c r="G526" t="inlineStr"/>
-      <c r="H526" t="n">
-        <v>3</v>
+      <c r="G526" t="inlineStr">
+        <is>
+          <t>-1.3%</t>
+        </is>
+      </c>
+      <c r="H526" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>Wednesday January 15 2025</t>
-        </is>
-      </c>
-      <c r="B527" t="inlineStr"/>
-      <c r="C527" t="inlineStr"/>
+          <t>12:30 PM</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>PPI Input YoYDEC</t>
+        </is>
+      </c>
       <c r="D527" t="inlineStr"/>
-      <c r="E527" t="inlineStr"/>
+      <c r="E527" t="inlineStr">
+        <is>
+          <t>-1.9%</t>
+        </is>
+      </c>
       <c r="F527" t="inlineStr"/>
-      <c r="G527" t="inlineStr"/>
-      <c r="H527" t="inlineStr"/>
+      <c r="G527" t="inlineStr">
+        <is>
+          <t>-1%</t>
+        </is>
+      </c>
+      <c r="H527" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>PPI Output MoMDEC</t>
         </is>
       </c>
       <c r="D528" t="inlineStr"/>
       <c r="E528" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F528" t="inlineStr"/>
       <c r="G528" t="inlineStr">
         <is>
-          <t>2.0%</t>
-        </is>
-      </c>
-      <c r="H528" t="n">
-        <v>3</v>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="H528" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>PPI Output YoYDEC</t>
         </is>
       </c>
       <c r="D529" t="inlineStr"/>
       <c r="E529" t="inlineStr">
         <is>
-          <t>166%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F529" t="inlineStr"/>
       <c r="G529" t="inlineStr">
         <is>
-          <t>116.0%</t>
-        </is>
-      </c>
-      <c r="H529" t="n">
-        <v>3</v>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="H529" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>Export Prices YoYDEC</t>
+          <t>Retail Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D530" t="inlineStr"/>
       <c r="E530" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F530" t="inlineStr"/>
-      <c r="G530" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="H530" t="n">
-        <v>3</v>
+      <c r="G530" t="inlineStr"/>
+      <c r="H530" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Retail Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D531" t="inlineStr"/>
       <c r="E531" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F531" t="inlineStr"/>
       <c r="G531" t="inlineStr">
         <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="H531" t="n">
-        <v>3</v>
+          <t>3.0%</t>
+        </is>
+      </c>
+      <c r="H531" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>12:50 PM</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/10</t>
+          <t>Loan Growth YoYDEC</t>
         </is>
       </c>
       <c r="D532" t="inlineStr"/>
       <c r="E532" t="inlineStr">
         <is>
-          <t>-4.022M</t>
+          <t>10.79%</t>
         </is>
       </c>
       <c r="F532" t="inlineStr"/>
-      <c r="G532" t="inlineStr"/>
-      <c r="H532" t="n">
-        <v>2</v>
+      <c r="G532" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="H532" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
@@ -18260,29 +18452,27 @@
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Interest Rate Decision</t>
         </is>
       </c>
       <c r="D533" t="inlineStr"/>
       <c r="E533" t="inlineStr">
         <is>
-          <t>$4.42B</t>
+          <t>6%</t>
         </is>
       </c>
       <c r="F533" t="inlineStr"/>
-      <c r="G533" t="inlineStr">
-        <is>
-          <t>$ 2.8B</t>
-        </is>
-      </c>
-      <c r="H533" t="n">
-        <v>2</v>
+      <c r="G533" t="inlineStr"/>
+      <c r="H533" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
@@ -18292,25 +18482,27 @@
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>Exports YoYDEC</t>
+          <t>Deposit Facility RateJAN</t>
         </is>
       </c>
       <c r="D534" t="inlineStr"/>
       <c r="E534" t="inlineStr">
         <is>
-          <t>9.14%</t>
+          <t>5.25%</t>
         </is>
       </c>
       <c r="F534" t="inlineStr"/>
       <c r="G534" t="inlineStr"/>
-      <c r="H534" t="n">
-        <v>3</v>
+      <c r="H534" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
@@ -18320,409 +18512,455 @@
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>Imports YoYDEC</t>
+          <t>Lending Facility RateJAN</t>
         </is>
       </c>
       <c r="D535" t="inlineStr"/>
       <c r="E535" t="inlineStr">
         <is>
-          <t>0.01%</t>
+          <t>6.75%</t>
         </is>
       </c>
       <c r="F535" t="inlineStr"/>
       <c r="G535" t="inlineStr"/>
-      <c r="H535" t="n">
-        <v>3</v>
+      <c r="H535" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>Machine Tool Orders YoYDEC</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D536" t="inlineStr"/>
       <c r="E536" t="inlineStr">
         <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="F536" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="G536" t="inlineStr"/>
-      <c r="H536" t="n">
-        <v>3</v>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="F536" t="inlineStr"/>
+      <c r="G536" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="H536" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>Wholesale Prices MoMDEC</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D537" t="inlineStr"/>
       <c r="E537" t="inlineStr">
         <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F537" t="inlineStr"/>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="F537" t="inlineStr">
+        <is